--- a/ettoday.xlsx
+++ b/ettoday.xlsx
@@ -25,994 +25,995 @@
     <t>content</t>
   </si>
   <si>
-    <t>開工日「3銀行」發財水開領！　專家曝旺財3妙招</t>
-  </si>
-  <si>
-    <t>溫泉控必收！烏來「療癒系」湯屋　絕美綠意窗景無敵</t>
-  </si>
-  <si>
-    <t>孩子1歲生母就消失！隔46年突上門討萬元扶養費　兄妹傻了：你誰</t>
-  </si>
-  <si>
-    <t>人妻回老家忘關瓦斯「小火燒乾鍋」　7天後掀蓋看！結果驚呆萬人</t>
-  </si>
-  <si>
-    <t>群馬縣雪崩「1人埋1小時」死亡　4友相約野外滑雪鬧出人命</t>
-  </si>
-  <si>
-    <t>天成世貿會館黃子軒將烤鴨刮除肥油切足肉片　讓客人爭相指定</t>
-  </si>
-  <si>
-    <t>她曝傳說級「阿嬤保暖神器」：寒流也會流汗！千人讚爆靠它過冬</t>
-  </si>
-  <si>
-    <t>14歲女學生「寒假生活」遭姊姊出賣！超狂作息一票人跪了</t>
-  </si>
-  <si>
-    <t>科技廠開工「儀式感」　鴻海送糖、英飛凌推星巴克三折喝到飽</t>
-  </si>
-  <si>
-    <t xml:space="preserve">台股兔年開紅盤、有望漲逾500點！　專家投資教戰　</t>
-  </si>
-  <si>
-    <t>快訊／高雄深夜11：15地牛翻身！規模3.2極淺層地震</t>
-  </si>
-  <si>
-    <t>《兩個爸爸》樂樂18歲了！　驚喜同框林佑威...網驚：父女變兄妹</t>
-  </si>
-  <si>
-    <t>林可彤春假「只花20.5hr擺平小孩」　曝育兒關鍵：媽媽們都太認真</t>
-  </si>
-  <si>
-    <t>真的當自己家了！小7店員做咖啡喝、拿菸抽...15次瘋狂偷吃G了</t>
-  </si>
-  <si>
-    <t>新北男工作愛情兩頭空　獨坐橋墩飲酒…2警苦勸拉他下橋</t>
-  </si>
-  <si>
-    <t>PCS開賽在即…主播台名單公布　最帥賽評缺席：追夢到現在也滿足了</t>
-  </si>
-  <si>
-    <t>紫南宮前私人土地「免費停車」！他停完見8字公告氣炸：感覺被欺騙</t>
-  </si>
-  <si>
-    <t>妙齡女「計程車上蹲著拉屎」下車秒逃跑！　遭質問反應嚇傻司機</t>
-  </si>
-  <si>
-    <t>生母「離婚消失47年」...突露面討萬元扶養費　兄妹傻眼：不認識</t>
-  </si>
-  <si>
-    <t>她一唱高音就破！醫驚吐：是癌症　「腫瘤壓在神經上」</t>
-  </si>
-  <si>
-    <t>高中生走出宿舍失蹤106天「吊屍樹上」　姊想見遺體被阻：都爛了</t>
-  </si>
-  <si>
-    <t>HBL／淡商挑戰史無前例4連霸　北一女、陽明張聿嵐或成攔路虎</t>
-  </si>
-  <si>
-    <t>有貓就給讚！2餐廳主打動物友善空間貓店長陪玩</t>
-  </si>
-  <si>
-    <t>南投超強彩券行10天連假「狂開3次大紅包」　2間投注站開出11次</t>
-  </si>
-  <si>
-    <t>如何更安全刷卡？每個人都要養成的使用習慣</t>
-  </si>
-  <si>
-    <t>瓦基／放棄　堅持過後瀟灑放手的美德</t>
-  </si>
-  <si>
-    <t>Gigi才打卡長野「當地驚傳雪崩」！　關心簡訊灌爆…她發聲報平安</t>
-  </si>
-  <si>
-    <t>稅務問題「嚴重失格」　英國保守黨主席遭首相逐出政府</t>
-  </si>
-  <si>
-    <t>冬天抗寒神器！他試用完「爽到回不去」　一票同好點頭：保命用的</t>
-  </si>
-  <si>
-    <t>東風小康「都會小休旅」進軍西班牙！採雙編成頂規要賣新台幣91萬</t>
-  </si>
-  <si>
-    <t>藍綠政府都在強化中小企業　元貝以「打包全世界」闖出名號</t>
-  </si>
-  <si>
-    <t>獨／揭露詐團鑽法漏洞！小資女遭騙開庭告4嫌下場曝：無人起訴</t>
-  </si>
-  <si>
-    <t>發泡錠喝多恐傷身！營養師列5挑選原則：含維生素D要在餐後喝</t>
-  </si>
-  <si>
-    <t>86歲金鐘視帝「年前跌倒」逝世！　妻忍痛曝不辦告別式原因</t>
-  </si>
-  <si>
-    <t>使他秒暈船的小心機！　讓12星座「主動想起你」祕訣大公開</t>
-  </si>
-  <si>
-    <t>HBL／衛冕軍光復高中唯一8連勝晉級　三重商工睽違10年重返8強</t>
-  </si>
-  <si>
-    <t>藤原拓海「改開氫氣車」送豆腐！TOYOTA AE86搭純電＆氫引擎動力</t>
-  </si>
-  <si>
-    <t>經典賽／名額多2人需慎選　餅總對佈局有想法</t>
-  </si>
-  <si>
-    <t>快訊／醉男搭自強號「攻擊乘客」！列車被迫暫停　受害者氣炸提告</t>
-  </si>
-  <si>
-    <t>休假快結束！高鐵加開40班「大學生返校5折列車」　一圖看優惠班次</t>
-  </si>
-  <si>
-    <t>快訊／大樂透3.3億「台東一注獨得」　百萬大紅包送出42組</t>
-  </si>
-  <si>
-    <t>美景一覽無遺！　台北市新增4處「觀光4K即時影像」</t>
-  </si>
-  <si>
-    <t>甜美網紅跟風「無罩激凸」逛東京街頭！　老司機狂讚：被療癒了</t>
-  </si>
-  <si>
-    <t>快訊／大樂透3.3億開在台東！　業者感動喊：才剛求媽祖讓我生意變好</t>
-  </si>
-  <si>
-    <t>男友總在這裡消失！　女星飛當地「苦學泰國浴」羞曝課程內容：全身都用到</t>
-  </si>
-  <si>
-    <t>初九天公生3大禁忌！「手指比天」恐受罰衰整年　補財庫必拜4寶</t>
-  </si>
-  <si>
-    <t>顏佑庭重返《營業中》認「起初很難過」　曝錄影真實情況：真有差</t>
-  </si>
-  <si>
-    <t>3D藝術家腦洞大開創作「蔬菜水果沙發」　超Ｑ鳳梨椅、西瓜椅你選哪個？</t>
-  </si>
-  <si>
-    <t>2個半月瘦10公斤！妙齡女竟害自己「陰道鬆弛」　醫曝關鍵原因</t>
-  </si>
-  <si>
-    <t>母不曾扶養過…卻用一招逼女兒給安置費！她心寒：眼裡只有錢</t>
-  </si>
-  <si>
-    <t>注意看！這些男人太狠了　2022政壇五大帥哥一次看</t>
-  </si>
-  <si>
-    <t>屏東駕駛「超速666公里」挨罰！罰單內容1.7萬人傻眼　背後真相曝</t>
-  </si>
-  <si>
-    <t>烏俄戰爭貓狗與飼主走失　民兵不捨分享乾糧兼陪玩</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17歲少女「7打2」街頭大亂鬥　開庭未到遭通緝　</t>
-  </si>
-  <si>
-    <t>長榮航空全新航點！3／30起「開航台北－克拉克」每天飛一班</t>
-  </si>
-  <si>
-    <t>澤倫斯基譴責體育中立想法　誓阻俄羅斯參加2024奧運</t>
-  </si>
-  <si>
-    <t>信用卡被盜刷了該怎麼辦？達人傳授三步驟跟著做</t>
-  </si>
-  <si>
-    <t>快訊／日本長野雪崩「10多人被埋」失去意識　救出3人國籍曝光</t>
-  </si>
-  <si>
-    <t>G級「乳帝」強勢回歸！　白嫩美尻緊包6年終於解封</t>
-  </si>
-  <si>
-    <t>女友嬌喊「過年愛愛要加錢」　他前戲做一半傻眼！結束真被收1.2萬</t>
-  </si>
-  <si>
-    <t>還在苦等林書豪！　鋼鐵人開春首戰24分慘敗</t>
-  </si>
-  <si>
-    <t>情人節「放閃珠寶」清單！紅色愛心甜到藏不住　中性手環交換戴</t>
-  </si>
-  <si>
-    <t>快訊／大樂透3.3億獎號來了！瘋搶121組百萬大紅包　收假日發大財</t>
-  </si>
-  <si>
-    <t>燒開水要選「晚上的水」！她曝原因　沸騰後1動作別漏掉</t>
-  </si>
-  <si>
-    <t>Lightyear「第2代太陽能電動車」預售中！130萬有找2025年底量產</t>
-  </si>
-  <si>
-    <t>受疫情封控衝擊　TOYOTA大陸新車銷量「十年首次下降」</t>
-  </si>
-  <si>
-    <t>前一晚夢到他送紅包　台北阿嬤感應「2個暗示」只刮一張中百萬</t>
-  </si>
-  <si>
-    <t>賣座超過《寄生上流》！　影帝變臥底「招募大學生當間諜」</t>
-  </si>
-  <si>
-    <t>性暴力受害者「不只受到1次傷害」　阿嬤家展出「復原之路」</t>
-  </si>
-  <si>
-    <t>開工囉！辦公桌這樣擺換新氣象　「7擺設宜忌」讓你擁有好心情</t>
-  </si>
-  <si>
-    <t>2022經典政治10大金句　哪句你最印象深刻？</t>
-  </si>
-  <si>
-    <t>年後全民普發6000元　財政部：不會增加舉債</t>
-  </si>
-  <si>
-    <t>工作量相同　同事薪水卻「多1萬」他震驚！鄉民見細節喊：很正常</t>
-  </si>
-  <si>
-    <t>「新內閣完整名單」一次看　9新首長、29人留任、增4女閣員</t>
-  </si>
-  <si>
-    <t>《永恆族》男星太骯髒！影帝室友忍到極限　柯林法洛：就像浣熊來過</t>
-  </si>
-  <si>
-    <t>當面問王文洋「這輩子的摯愛是誰？」　許聖梅聽到回答傻住了</t>
-  </si>
-  <si>
-    <t>快訊／喬科維奇澳網第10冠到手　直落3力壓西西帕斯封王</t>
-  </si>
-  <si>
-    <t>珉豪驚喜演台劇　背「鳳南高中」書包重現《想見你》：你喜歡我？</t>
-  </si>
-  <si>
-    <t>30歲影后突遭大陸官方封殺！　「春晚、新片都被除名」原因曝光</t>
-  </si>
-  <si>
-    <t>「一世代」哈利開唱「舞台上皮褲炸開」　該邊全露出驚陷胯下危機</t>
-  </si>
-  <si>
-    <t>阿伯搭高鐵逼嫩妹讓座！遭拒氣炸喊：年輕人站一下會死？</t>
-  </si>
-  <si>
-    <t>民選總統至今6閣揆春節前後走人　賴清德曾讚他「最有能力」</t>
-  </si>
-  <si>
-    <t>收假後「假期後憂鬱」上身！專家曝6症狀：持續2周快就醫</t>
-  </si>
-  <si>
-    <t>出門前花10分鐘做4件事甩掉開工憂鬱　刷牙時加一個小動作很有用</t>
-  </si>
-  <si>
-    <t>給孩子安全友善環境　網愛裸聊陷阱多</t>
-  </si>
-  <si>
-    <t>徐凱希合體黑澀會美眉　17年友誼都沒變：不要再說演藝圈複雜</t>
-  </si>
-  <si>
-    <t>一人扛起6口家計！地瓜伯「中南部跑透透擺攤」　全為罹癌妻與身障兒</t>
-  </si>
-  <si>
-    <t>快訊／高雄女「連砍16刀」狠殺女室友！相驗結果出爐</t>
-  </si>
-  <si>
-    <t>一次尬聊「40多個相親對象」　他曬4張截圖：一路顛沛流離</t>
-  </si>
-  <si>
-    <t>貓窩屋頂躺一隻「正方形貓貓」　10公斤壓力測試笑翻網：這個給過</t>
-  </si>
-  <si>
-    <t>罕見！違反護照條例遭通緝　黃綠髮男當街押趴地超瞎背景曝</t>
-  </si>
-  <si>
-    <t>博恩壓軸《極限震撼》賣命熱舞　驚喜預告「重回小巨蛋」</t>
-  </si>
-  <si>
-    <t>瘦≠健康！「瘦胖子症候群」特徵曝　患糖尿病死亡增2倍</t>
-  </si>
-  <si>
-    <t>台中殯儀館內藏千萬電腦斷層！助相驗屍體　彰基無償捐贈</t>
-  </si>
-  <si>
-    <t>大年初九「拜天公」　專家提醒8禁忌</t>
-  </si>
-  <si>
-    <t>幻象飛官吳邦彥赴北約受訓　曝：學員知道台灣是維繫全球經濟的關鍵</t>
-  </si>
-  <si>
-    <t>刮刮樂黏牆上突掉下！台中大叔臨時起意加買　一刮竟中了100萬</t>
-  </si>
-  <si>
-    <t>林秀琴病倒住院！　包棉被「呆坐輪椅」...陳致遠親自照顧</t>
-  </si>
-  <si>
-    <t>林書豪首秀時間還在喬　高景炎：不想誤導球迷買票沒上場</t>
-  </si>
-  <si>
-    <t>博恩鬆口：有約羅志祥、王力宏《炎上》　祭百倍預算「口味一樣重」</t>
-  </si>
-  <si>
-    <t>5款「精品黑色手袋」上班族必備　LV簇絨老花、CELINE小牛皮好奢華</t>
-  </si>
-  <si>
-    <t>到海邊戲水…8歲男童慘遭「閃電劈中」無呼吸心跳　救生員曝傷勢</t>
-  </si>
-  <si>
-    <t>蘇貞昌30日早上率內閣總辭　新揆陳建仁團隊下午正式亮相</t>
-  </si>
-  <si>
-    <t>艾薇過年返鄉撈魚生　隔2年團圓爸媽竟被嫌棄了！</t>
-  </si>
-  <si>
-    <t>「打結保險套」塞香蕉　吞入腹中變超噁黑汁！男堵住腸道痛爆送醫</t>
-  </si>
-  <si>
-    <t>動漫節達34萬人進場！木棉花「鬼滅電影」售破千套、角川業績增長25%</t>
-  </si>
-  <si>
-    <t>海線風大「房市卻逆風」　住宅、商業區發展率皆過半</t>
-  </si>
-  <si>
-    <t>元宵節「最強補運日」！專家曝秘法 「求財、旺桃花」一定要把握</t>
-  </si>
-  <si>
-    <t>相親遇疫情「被迫同居13天」！情侶4個月後登記結婚：儘快要寶寶</t>
-  </si>
-  <si>
-    <t>房貸30年「她一算利息超衝擊」　網1關鍵打臉：報酬率400%</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230130/2424903.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230130/2426496.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230130/2429811.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230130/2429782.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230130/2429810.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230130/2429808.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230130/2429777.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230130/2429809.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230130/2429807.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230130/2429804.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230130/2429805.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230130/2429795.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429802.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2424419.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2415053.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429801.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429800.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429799.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429798.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2420907.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429772.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2417576.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2416432.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429794.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2424209.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2416946.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429790.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429796.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429787.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2426326.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429793.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429763.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2414159.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429789.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2419076.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2417487.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2423983.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429784.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429791.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2419780.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429785.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2423533.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429788.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429786.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429783.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429779.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429771.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2426100.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2421978.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2417056.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2413669.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429780.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2416664.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2410561.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2420786.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429781.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2424200.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429778.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429759.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429685.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429776.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2418996.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429774.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2405473.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2419119.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2421837.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429773.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429775.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2418605.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429692.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2399867.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429770.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2393653.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429722.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429769.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429767.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429768.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429762.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429765.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429766.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429757.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2423613.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2415875.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2401328.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429764.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429760.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2421400.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429761.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429671.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2414299.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429755.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429758.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2419494.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2414147.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429676.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2420636.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429754.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429710.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429756.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429751.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2422251.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429752.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429747.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429750.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429668.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2429688.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2410087.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2409365.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2410184.htm</t>
-  </si>
-  <si>
-    <t>https://www.ettoday.net/news/20230129/2399187.htm</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼刮刮樂,彩券,春節,試手氣,中獎,過年,彩券行,投注站,公益彩券,新年,威力彩,大樂透,加碼。（圖／記者李毓康攝）" height="401" src="//cdn2.ettoday.net/images/3877/d3877282.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲開工日「3銀行」發財水開領，專家曝旺財3妙招。（示意圖／記者李毓康攝）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者陳依旻／台北報導&lt;/p&gt;, &lt;p&gt;農曆春節尾聲，三間銀行提供發財水、發財金等兔年吉祥物期望幫客戶在新的一年吸取財氣，民眾可抓時間到銀行索取補財庫，《ETtoday新聞雲》今（30）日也一併分享，何時領、怎麼領還有怎麼擺可吸財氣。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;台北富邦銀行&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;北富銀已準備「金兔迎財」、「福兔迎財」兩種款式發財水，今日新春開工日起開始發送，共計6萬6,666瓶，全省135家分行洽辦業務時即可索取。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;中國信託銀行&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;喜迎金兔年到來，中國信託銀行將致贈88,888份發財金及發財水予財富管理客戶，預祝進活水、喜迎財，投資更順遂，另外，還特別邀知名藝術家劉洋哲老師，以｢境善靜美｣為主題設計限量年曆，且準備共計88888份發財金、發財水，於今日新春開工日致贈來行的財富管理客戶，祝福客戶｢境善靜美，喜氣洋洋」。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;新光銀行&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;新光銀行2023年發財水「福兔迎祥」字樣為題，這批發財水會在農曆年假前送入分行金庫，經過春節期間飽吸財氣後，只要於今日開工日當天至各分行辦理臨櫃業務即可免費取得 1 瓶，數量有限贈完為止！除發財水以外，新光銀行精緻設計的紅包袋及春聯，客戶們也可於農曆年前到分行免費索取。&lt;/p&gt;, &lt;p&gt;易經財經專家陶文今日接受《ETtoday新聞雲》訪問時表示，拿到發財水，記得分3個地方用。&lt;/p&gt;, &lt;p&gt;第一，放財位；玄關一進去，看到的清楚位置叫做「明財位」，另一個明財位則是進去45度角，還有一個財位就是2023年財位－正南方，「不要管哪裡是方位，家中正南方的位置就是今年財位，民眾記得把發財水放在這裡，也有人說廚房也是財位，也可以放，如果不夠用，可以倒出來分著用。」&lt;/p&gt;, &lt;p&gt;第二，煮年夜飯或煮茶、泡咖啡時把發財水加進去煮，跟飯菜、茶及咖啡一起吃下去，代表裡裡外外充滿財氣。&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲烏來療癒系湯屋。（圖／記者胡至欣攝）" height="450" src="//cdn2.ettoday.net/images/6825/6825978.jpg" width="595"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲烏來5大「療癒系」湯屋，擁有絕美綠意、無敵窗景。（圖／記者胡至欣攝；以下同）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者胡至欣／台北報導&lt;/p&gt;, &lt;p&gt;天冷就是要泡湯！說到北台灣泡湯勝地，當然少不了「原」味十足的烏來，《ETtoday新聞雲》特別整理出5大「療癒系」湯屋，擁有絕美綠意、無敵窗景，讓你暖身紓壓的同時，也能親近自然洗滌心靈 。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲烏來療癒系溫泉。（圖／記者胡至欣攝）" height="450" src="//cdn2.ettoday.net/images/6825/6825971.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;span style="color: rgb(255, 0, 0);"&gt;&lt;strong&gt;● 爽躺山水綠意之中→烏來馥蘭朵&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;, &lt;p&gt;溫泉控都知道的「烏來馥蘭朵」，經營超過10年，略有歷史，不難發現歲月痕跡，但面臨各式新穎湯屋崛起，人氣始終不減，正因為它有獨特的「生活儀式」展演，以及山水相映的碧綠窗景。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲烏來療癒系湯屋。（圖／記者胡至欣攝）" height="450" src="//cdn2.ettoday.net/images/6825/6825980.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;「烏來馥蘭朵」坐落於烏來南勢溪畔，擁有山水景觀第一排絕佳視野。整體設計走簡約禪風和大地色系，浴室湯池則以石材切砌，與窗外的自然景觀相呼應。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲影片取自Instagram，如遭刪除請見諒。&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;「豪華景觀湯屋」相較於「景觀湯屋」，不僅多了淋浴區、獨立洗手間和雙人床，還設有冷水池，因此觀景窗更大片，當陽光露臉，南勢溪川和森林綠意映入湯池，白煙裊裊、水波粼粼，爽躺其中感受被自然擁抱，不但療癒還很唯美。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;地址：新北市烏來區新烏路五段176號&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲烏來療癒系湯屋。（圖／記者胡至欣攝）" height="450" src="//cdn2.ettoday.net/images/6825/6825977.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;span style="color: rgb(255, 0, 0);"&gt;&lt;strong&gt;● 下鍋自煮「美人」湯→烏來璞石麗緻 溫泉會館&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;, &lt;p&gt;位於烏來堰堤之上的「璞石麗緻溫泉會館」，與緊鄰在旁的馥蘭朵，一直以來都各有擁護者。整體以極簡、自然與意境為設計風格，內斂樸實，反而更能融入周遭環境。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲烏來療癒系湯屋。（圖／記者胡至欣攝）" height="450" src="//cdn2.ettoday.net/images/6825/6825976.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲烏來療癒系溫泉。（圖／記者胡至欣攝）" height="450" src="//cdn2.ettoday.net/images/6825/6825973.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;人氣最高的半露天主題湯屋，共有6款不同設計，其中最吸睛的非「鍋物」莫屬！巨型鐵鍋浴池，一旁掛著木製大湯勺，置身其中泡湯，一秒變身火鍋料，加上烏來溫泉「無色無臭」有美人湯之稱，揪姊妹一起下鍋也是名符其實「煮美人」湯，詼諧有趣難怪是IG拍照打卡熱點。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲影片取自Instagram，如遭刪除請見諒。&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;半露天風呂有蟲鳴鳥叫與潺潺溪流聲相伴，抬頭即見南勢溪與山林的絕美碧綠景觀，徐徐微風迎面而來，實在舒心！檜木製作的活動柵欄則加強隱密性，讓你親近自然、不怕曝光！還有室內湯屋和客房湯，提供冷/熱雙池，每間設計也各具特色，每次開箱都有驚喜！&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;地址：新北市烏來區忠治里新烏路五段88號&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;img alt="▲烏來旅晨。（圖／翻攝自烏來旅晨官網）" height="401" src="//cdn2.ettoday.net/images/6825/d6825985.jpg" width="600"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲烏來旅晨溫泉民宿。（圖／翻攝自&lt;a href="https://re-change-wulai.mydirectstay.com/tw/index.html" target="_blank"&gt;烏來旅晨溫泉民宿&lt;/a&gt;官網；以下同）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;span style="color: rgb(255, 0, 0);"&gt;&lt;strong&gt;● 文青網美愛的→烏來旅晨溫泉民宿&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;, &lt;p&gt;「烏來旅晨」位於烏來制高點，坐擁遼闊山景，還可以俯視烏來老街。整體設計新穎，走簡約現代風，擁有四間山景客房、六間不同風格的特色湯屋，皆有綠意山嵐美景，吸引不少文青網美朝聖。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲烏來旅晨。（圖／翻攝自烏來旅晨官網）" height="391" src="//cdn2.ettoday.net/images/6825/d6825986.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲烏來旅晨。（圖／翻攝自烏來旅晨官網）" height="401" src="//cdn2.ettoday.net/images/6825/d6825984.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;每間湯屋都是景觀湯屋，空間寬敞、設有獨立衛浴與冷熱池，足以容納2大2小同時泡湯！大片觀景窗還可以外推，延攬陽光與綠意入室，吹著涼風、泡著熱呼呼的溫泉，享受靜謐慢活的時光，舒適又療癒。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;地址：新北市烏來區西羅岸路37號&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;img alt="▲馥森阪治Trio。（圖／翻攝自馥森阪治Trio官網）" height="400" src="//cdn2.ettoday.net/images/6825/d6825990.jpg" width="600"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲馥森阪治Trio。（圖／翻攝自&lt;a href="https://fusenbanzhi.com.tw/" target="_blank"&gt;馥森阪治Trio&lt;/a&gt;官網；以下同）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;span style="color: rgb(255, 0, 0);"&gt;&lt;strong&gt;● 「原」味十足最搶手→馥森阪治Trio&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;, &lt;p&gt;馥蘭朵集團最新力作「馥森阪治Trio」，在建築上採用減法設計，盡可能避免人工化，所以沒有奢華裝飾、五星級設備，取而代之的是玉米梗、竹子、樹枝等元素，拉近人與自然的距離，也蘊含泰雅族建築風格之美。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲馥森阪治Trio。（圖／翻攝自馥森阪治Trio官網）" height="400" src="//cdn2.ettoday.net/images/6825/d6825989.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲馥森阪治Trio。（圖／翻攝自馥森阪治Trio官網）" height="401" src="//cdn2.ettoday.net/images/6825/d6825987.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;湯屋有5種規格，共16個泡湯空間，其中「原沐」、「森沐」及「相浴」都擁有絕美山景，無窗設計讓視覺更寬闊，裸身遙望綠意，感覺更貼近自然，沐浴在森林之中，洗去疲憊也洗滌身心。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;地址：新北市烏來區環山路151號&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;img alt="▲烏來療癒系溫泉。（圖／記者胡至欣攝）" height="450" src="//cdn2.ettoday.net/images/6825/6825975.jpg" width="600"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲烏來四季山妍溫泉會館。（圖／記者胡至欣攝）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;span style="color: rgb(255, 0, 0);"&gt;&lt;strong&gt;● 窗景無敵→烏來四季山妍溫泉會館&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;, &lt;p&gt;居高臨下的「四季山妍」，隱身烏來山中，距離烏來老街有段距離，號稱擁有全烏來腹地最廣的度假莊園。開業至今30年，歷史痕跡看得見，但是佔盡地利優勢，整體環境清幽，用親民價格即可享受得天獨厚的自然，堪稱高CP值景觀湯屋。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲影片取自Instagram，如遭刪除請見諒。&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;其中最受歡迎的就是「觀景套房」，房內設備齊全、浴室寬敞，設有超大冷熱池，以及全景大面觀景窗，一邊泡湯、一邊賞景，免喬角度，放眼望去都是層層疊疊的翠綠山巒。就算遇到下雨天，雨霧飄渺，煙雨中的山景也彷彿套上白茫濾鏡，如同山水墨畫般，別有一番景致。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;地址：新北市烏來區環山路156號&lt;/strong&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼扶養。（示意圖／取自免費圖庫Pixabay）" height="400" src="//cdn2.ettoday.net/images/6791/d6791072.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲生母離婚「消失46年」。（示意圖／取自免費圖庫Pixabay）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者趙蔡州／綜合報導&lt;/p&gt;, &lt;p&gt;一名林姓女子與丈夫育有2子女，不過1976年與丈夫離婚後，便不再照顧或關心子女情況，直到46年後（2022年）才又突然出現，聲稱自己生活困難、出家沒經濟來源，要求2名子女每月必須給她1萬4千元扶養費。對此，台南地院認為，林女未盡保護扶養義務在先，審酌後駁回林女聲請，並免除子女扶養義務。&lt;/p&gt;, &lt;p&gt;根據判決書指出，林女2022年向法院提民事訴訟，要求2位子女給付扶養費。林女主張，她與李姓丈夫1976年離婚，2位子女均由丈夫扶養，如今她已出家，並無工作收入，靠人接濟度日，且名下無任何財產，經濟生活困窘，認為子女應依法負扶養義務，2人每月給予她1萬4012元扶養費，直到她死亡。&lt;/p&gt;, &lt;p&gt;對此，2名子女出庭時主張，&lt;strong&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;父母1976年離婚時，他們分別才4歲及1歲，其後數十年都不曾看過媽媽，甚至無法確認林女是否就是他們的生母&lt;/span&gt;&lt;/strong&gt;，縱使林女是他們的生母，林女在離婚後就徹底斷絕聯繫，從來沒有探視、照顧或撫養過他們，請求法官免除2人對林女的撫養義務。&lt;/p&gt;, &lt;p&gt;林女前夫（李姓丈夫）與出庭證稱，兩人離婚至今已經46年，&lt;strong&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;孩子都是他及他的父母在照顧，林女從未撫養或聯繫關心&lt;/span&gt;&lt;/strong&gt;。&lt;/p&gt;, &lt;p&gt;台南地院審理，認為林女身為2人母親，依法對孩子有照顧與教養義務，然而林女在子女的成長過程中，完全沒有盡到照顧與教養義務，也未給予親情照拂，有違身為人母應盡之責任，若強令子女負擔與其長期感情疏離之生母扶養義務，衡諸一般社會生活經驗顯失公平，審酌後駁回林女聲請，免除子女扶養義務。&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼人妻回老家忘關瓦斯「小火燒乾鍋」　7天後掀蓋看！結果驚呆萬人。（圖／翻攝微博）" height="401" src="//cdn2.ettoday.net/images/6825/d6825969.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲人妻回老家忘關瓦斯「小火燒乾鍋」，7天後再掀蓋傻眼。（圖／翻攝微博，下同）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者許力方／綜合報導&lt;/p&gt;, &lt;p&gt;返鄉過年差點釀大火！湖南一名女子小年夜時返鄉過年，7天後再回家，發現驚人一幕，自家瓦斯爐竟然忘了關，還在燃燒，她掀開一看，平底鍋已經燒乾變形，好在沒有引發火勢，她驚訝之餘也不忘錄影上傳，影片瘋傳吸引數萬人討論。&lt;/p&gt;, &lt;p&gt;根據《星視頻》報導，湖南一名女子20日小年夜回老家過年，26日初五再返自己的小窩時，一進廚房赫然發現瓦斯爐上的火還在燃燒，7天前出門時竟然忘了關瓦斯。影片中可見，炒鍋蓋著鍋蓋，裡面還插著鍋鏟，底下的瓦斯爐還開著小火在燒，她掀開鍋蓋，發現裡面已經燒乾，鍋底也出現變形和圓點狀圖案，鍋鏟直接被燒穿，木柄也被燻黑。&lt;/p&gt;, &lt;p&gt;女子驚呼好險沒有起火「回家第一眼看到這一幕，有種說不出的感覺。」她解釋，後來她問老公，得知裡面沒有放水，因為火量是開最小的，鍋鏟木柄都燒糊了，「不能說燒糊了，只能說烘糊了…」提醒大家出遠門要記得檢查水電瓦斯。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼人妻回老家忘關瓦斯「小火燒乾鍋」　7天後掀蓋看！結果驚呆萬人。（圖／翻攝微博）" height="401" src="//cdn2.ettoday.net/images/6825/d6825970.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;影片引起爭議，網友紛紛質疑「為了擺拍特意開小火守候一天」、「再小的火，5天也燒得起來」、「乾鍋5分鐘就可以一屋子黑煙」、「我蒸番薯3小時，鍋廢了」、「仙丹都練出來了吧」、「一看就扯蛋」、「關鍵是這麼多天了，進去居然沒有煙？」認為是「騙騙不進廚房沒有生活常識的人」、「隨便拍個照，想說幾天就幾天」、「燒1、2天就夠嗆，7天有點誇張了吧」、「啥牌子的鍋，質量槓槓的。」&lt;/p&gt;, &lt;p&gt;女子事後也緊急聲明，「這不是段子，我也只是記錄生活。」聲稱發影片時就是回家看見的時後馬上拍攝下來，沒想到有這麼多同道之人，有的不相信燒了這麼久，但這確實是從小年夜那天燒到初五，「我才回家看見，也確實有點害怕。」她看到有網友質疑，放鍋子時難道沒看見火嗎？她說「人總有糊塗時，有時候拿著手機滿屋找手機又是怎麼回事呢？」&lt;/p&gt;, &lt;p&gt;對此，四川、安徽警消也紛紛以此事件為鑒，警示民眾，廚房、客廳、臥室、陽台，這些生活空間都可能隱藏火災隱患，提醒火爐旁不要放置易燃物，定期清理抽油煙機，且煲湯做菜時要注意，廚房用火不離人，長時間離開要關閉火源、電源，平時要檢查電線有無故障、不要在插座上連接多個大功率電器等。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼人妻回老家忘關瓦斯「小火燒乾鍋」　7天後掀蓋看！結果驚呆萬人。（圖／翻攝微博）" height="450" src="//cdn2.ettoday.net/images/6825/d6825968.jpg" width="543"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;a href="https://bit.ly/30PqltT\" target="“_blank"&gt;&lt;span&gt; &lt;/span&gt;►按這訂閱Podcast《小編沒收工》每天熱門話題聊不完&lt;/a&gt;&lt;/p&gt;, &lt;p&gt;&lt;iframe allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen="" frameborder="0" height="315" src="https://www.youtube.com/embed/bxajyI0GWRg" title="YouTube video player" width="560"&gt;&lt;/iframe&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼ 滑雪,滑雪場。（圖／取自免費圖庫Pixabay）" height="400" src="//cdn2.ettoday.net/images/5460/d5460413.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲群馬縣雪崩1人死亡，4友相約野外滑雪鬧出人命。（圖／取自免費圖庫Pixabay）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者趙蔡州／綜合報導&lt;/p&gt;, &lt;p&gt;日本又傳出雪崩事故，群馬縣警方29日上午11點接獲通報，水上町谷川岳附近一處山林發生雪崩，造成一名46歲男子被埋失蹤。警方立刻趕到現場搜救，大約1小時後才在雪地中找到人，緊急透過直升機送醫搶救，最終仍宣告不治。&lt;/p&gt;, &lt;p&gt;根據日本NHK報導，群馬縣警方29日上午11點接獲通報。民眾聲稱，他們在水上町谷川岳天神澤附近滑雪，「我們在滑雪場外（非正規路線）滑雪時，突然發生雪崩，我一位朋友失蹤了」。&lt;/p&gt;, &lt;p&gt;警方趕到現場搜索，大約1個小時後，有其他滑雪者發現，失蹤的46歲男子倒臥在雪地中，已經沒有了呼吸心跳，經防災直升機緊急送往前橋市一間醫院搶救，仍宣告不治。&lt;/p&gt;, &lt;p&gt;報導指出，事故發生在谷川岳某滑雪場一處邊緣地區，死者與其他3名朋友相約一起野外滑雪，沒想到會發生死亡事故，詳細情況待警方進一步釐清。&lt;/p&gt;, &lt;p&gt;&lt;a href="https://bit.ly/30PqltT\" target="“_blank"&gt;&lt;strong&gt;&lt;span&gt; &lt;/span&gt;►按這訂閱Podcast《小編沒收工》每天熱門話題聊不完&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;, &lt;p&gt;&lt;iframe allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen="" frameborder="0" height="315" src="https://www.youtube.com/embed/bxajyI0GWRg" title="YouTube video player" width="560"&gt;&lt;/iframe&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲黃子軒細心的為烤鴨鴨皮去除肥油。（圖／記者張佩芬攝）" height="450" src="//cdn2.ettoday.net/images/6825/d6825966.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲黃子軒細心的為烤鴨鴨皮去除肥油。（圖／記者張佩芬攝）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者張佩芬／台北報導&lt;/p&gt;, &lt;p&gt;吃烤鴨是很受國人喜愛的聚餐選項，吃久了，客人就會知道片皮師傅的功夫差異很大，天成世貿會館在旅展與美食展賣優惠烤鴨券已有十年，越來越多客人指名要黃子軒擔當片皮鴨師傅，原因是黃子軒刀工好，切出來的肉片比別人多，還會幫客人刮掉鴨皮上的肥油。　&lt;/p&gt;, &lt;p&gt;天成世貿會館協理林宜興指出，天成飯店是在2012年2月1日正式進駐外貿協會TICC台北國際會議中心，提供餐飲相關服務，包括翠庭中餐廳在內，2013年開始在台北國際旅展、美食展販售烤鴨券與點心券，也在春季旅展透過網路做銷售，以約六七折價格銷售，一年可以賣出兩千多張烤鴨券，售價從1000元賣到現在的1880元。&lt;/p&gt;, &lt;p&gt;黃子軒是天成世貿會館第一批員工，之前在其他餐廳工作過，有一次有在別的餐廳認識她的熟客知道她會片鴨，指名要她片鴨，之後聲名遠播，越來越多客人指名要她片鴨，甚至有客人遇到她休假還會等她上班後才到餐廳用餐。&lt;/p&gt;, &lt;p&gt;常客知道片皮學問大，有些片皮師傅偷懶，肉片片得太厚，一隻鴨片不出幾片肉，還有師傅留一些不片，甚至把鴨腿留給自己吃，而黃子軒片的鴨厚薄適中，鴨腿也儘量片下，滿滿一盤份量十足，讓客人讚不絕口。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲在臉書上可以看到不少對黃子軒的好評。（圖／取自臉書）" height="450" src="//cdn2.ettoday.net/images/6825/d6825967.jpg" width="506"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲在臉書上可以看到不少對黃子軒的好評。（圖／取自臉書）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;黃子軒覺得做餐飲就是良心事業，要考量客人的利益，幫客人點菜時，也要衡量分量多寡，不要讓客人點得過多，因此包括點菜，也有客人指名要黃子軒負責，網路上也常看到客人點名誇讚黃子軒，讓不認識的客人會一到店裡就點名黃子軒，成了餐廳最好的宣傳。&lt;/p&gt;, &lt;p&gt;天成世貿會館行政總主廚由王書年擔任，明爐烤鴨三吃菜單不斷推陳出新，這兩年針對年輕人推出了烤鴨胸披薩、碧綠椒鹽櫻桃鴨，另外五行堅果鴨鬆、炒鴨絲、皮蛋煲鴨粥、酸菜豆腐鴨骨湯等都是客人常點的菜；該餐廳在旅展或美食展賣的烤鴨券，平假日都可使用，不像很多飯店或餐廳限平日使用，特別受到老饕們歡迎。&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼她曝傳說級「阿嬤保暖神器」：寒流也會流汗！千人讚爆靠它過冬。（圖／爆廢公社二館）" height="400" src="//cdn2.ettoday.net/images/6825/d6825961.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲女網友曝光傳說級「阿嬤保暖神器」：寒流也會流汗。（圖／爆廢公社二館，下同）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;網搜小組／許力方報導&lt;/p&gt;, &lt;p&gt;寒流接力襲台，春節連假10天冷颼颼，不少怕冷的人都躲進被窩，有女網友就發現一件來自阿嬤的「傳說級保暖神器」，狂讚光是一件就可以完勝各大品牌的保暖被，答案一曝光就引發熱烈回響，網友紛紛留言PO出自己的神器，大呼「真的會流汗」、「我都靠它過冬」。&lt;/p&gt;, &lt;p&gt;6度寒流怎麼禦寒？成為網友最近討論的熱門話題，其中「電熱毯」、「冷暖氣機」廣受推薦，是許多台灣人心目中的「神器」。有一名女網友初八時發文，曝光了「傳說中的阿嬤被子」，大讚有了這一件豔紅色的厚被子，可以完勝各大商家品牌的保暖被，「就算寒流來還是會蓋到流汗」，而且她們家裡還有兩件。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼她曝傳說級「阿嬤保暖神器」：寒流也會流汗！千人讚爆靠它過冬。（圖／爆廢公社二館）" height="401" src="//cdn2.ettoday.net/images/6825/d6825963.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲台灣網友從小蓋到大的厚被，家家戶戶都有一件。&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;照片一曝光就吸引大批「同好」留言迴響，上千人按讚狂推這件厚被子是「超強神物」、「這東西真的好用」、「一件打天下」、「超厚」、「這個很重」、「真的保暖神物」、「小時候我阿嬤家也都蓋這種被子，又厚又保暖」、「真的很暖和，我都靠它過冬」、「一蓋下去根本全身動不了，絕對無法踢被」，不少人也正在使用中，「是…我身上這件？」「我從小蓋到大。」&lt;/p&gt;, &lt;p&gt;有網友更解答說，這件傳說中的阿嬤保暖神器「家用洗衣機洗不動」、「這個要當鋪床，不適合蓋身上」、「真的會做惡夢以為鬼壓床」，至於由來，則是以前的結婚習俗，「會在婚禮牆上掛上這塊贈送的毛毯，上面會別上很多鈔票，是一份大禮，大人們都稱這毯子為韓國毯，我也不知為什麼」、「結婚的嫁妝之一」。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼她曝傳說級「阿嬤保暖神器」：寒流也會流汗！千人讚爆靠它過冬。（圖／爆廢公社二館）" height="401" src="//cdn2.ettoday.net/images/6825/d6825962.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;a href="https://bit.ly/30PqltT\" target="“_blank"&gt;&lt;span&gt; &lt;/span&gt;►按這訂閱Podcast《小編沒收工》每天熱門話題聊不完&lt;/a&gt;&lt;/p&gt;, &lt;p&gt;&lt;iframe allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen="" frameborder="0" height="315" src="https://www.youtube.com/embed/bxajyI0GWRg" title="YouTube video player" width="560"&gt;&lt;/iframe&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼ 春節,農曆春節,過年,尾牙,運勢,命理,好運。（示意圖／取自Pixabay）" border="1" height="400" src="//cdn2.ettoday.net/images/6793/6793284.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲春節期間正好放寒假，不少學生會一路玩到開學。（示意圖／免費圖庫Pixabay）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者柯振中／綜合報導&lt;/p&gt;, &lt;p&gt;春節期間學生放寒假，不少人會選擇直接玩到開學。不過，甘肅平涼一名14歲女學生十分認真、嚴格執行行程表，每天中午寫作業、下午練書法、晚上畫畫，甚至還聽著古文入睡，超有規律的生活曝光，讓姊姊感到傻眼，更是驚呆了一片網友。&lt;/p&gt;, &lt;p&gt;綜合陸媒報導，女學生的姊姊表示，妹妹的寒假生活十分規律，每天中午看到時，人已坐在書桌前寫作業，等到吃完飯以後，她想找妹妹出去玩，對方又開始練習書法。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▼女學生的生活作息相當規律，讓人感到佩服。（圖／翻攝微博／人民日報）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼女童的生活作息相當規律。（圖／翻攝微博／人民日報）" border="1" height="400" src="//cdn2.ettoday.net/images/6825/6825960.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;而接近晚間時，妹妹也沒有休息，而是開始練習繪畫，增進自己的技巧，甚至睡前還會聽古文，聽到躺在床上睡著為止，過得一點也不馬虎。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼少女、女學生、網路交友。（示意圖／取自免費圖庫pixabay）" border="1" height="450" src="//cdn2.ettoday.net/images/6261/6261622.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲有許多網友認為，這麼小就能培養好習慣，長大一定不得了。（示意圖／免費圖庫Pixabay）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;超有規律的生活曝光後，不少大陸網友肅然起敬，在貼文下方留言直呼，「真正優秀的孩子從不會讓人操心，合理規劃自己」、「別人家的孩子」、「為什麼沒有上午？因為姊姊還沒起床」、「她媽媽上輩子是拯救了銀河系吧」、「能做到自律的人，人生都不會太差！」&lt;/p&gt;, &lt;p&gt;&lt;a href="https://bit.ly/30PqltT\" target="“_blank"&gt;&lt;span&gt; &lt;/span&gt;►按這訂閱Podcast《小編沒收工》每天熱門話題聊不完&lt;/a&gt;&lt;/p&gt;, &lt;p&gt;&lt;iframe allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen="" frameborder="0" height="315" src="https://www.youtube.com/embed/bxajyI0GWRg" title="YouTube video player" width="560"&gt;&lt;/iframe&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼鴻海海外廠開工。（圖／翻攝自鴻海）" height="450" src="//cdn2.ettoday.net/images/6821/6821347.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲鴻海海外廠開工。（圖／翻攝自鴻海）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者高兆麟／綜合報導&lt;/p&gt;, &lt;p&gt;春節12天連續假期結束，為了讓員工回到工作崗位上班，高科技業者「開工儀式感」花招百出，鴻海子公司富士康為了趕出貨提前在初二先開工舞獅歡慶，歐系半導體外商英飛凌則是力推星巴克三折喝到飽，確保員工元氣滿滿。&lt;/p&gt;, &lt;p&gt;鴻海臉書官網照片揭露提前開工，包括鄭州園區、深圳觀瀾廠區、山西太原廠區等地都在大年初二有員工正式上班，負責iPhone組裝重責大任的iDPBG事業群開工團拜畫面也向市場透露生產線「動起來」。&lt;/p&gt;, &lt;p&gt;據《中新社》報導，富士康鄭州科技園資源規劃處資深經理雷鋒說，目前生產已經恢復到疫情前的狀態，已經100%運行，「為了滿足生產，我們春節期間僅休息兩天時間」。而該園區還給予留守員工人民幣1.3萬元（約新台幣5.72萬元）補助金。&lt;/p&gt;, &lt;p&gt;農曆年後的首個開工日，德國半導體大廠台灣英飛凌公司準備了來自慈善團體&amp;lt;愛盲庇護工場&amp;gt;的新春開工肥皂禮盒來迎接同仁回到辦公室，以實際的行動支持慈善機構，也與收到禮物的同仁們一起為社會盡一份心力，希望新的一年每個人都健健康康、遠離疫情威脅。&lt;/p&gt;, &lt;p&gt;此外，自去年12月起，台灣英飛凌在台北和新竹辦公室引進了星巴克自助咖啡站，提供員工們以三折的價錢（新臺幣30至40元）輕鬆享有各式咖啡飲品和熱可可等，員工還可以依照個人喜好加入不同糖漿，客製化自己愛喝的咖啡。星巴克咖啡自助站自引入後，即深獲英飛凌同仁們喜愛，每天都有數十杯以上甚至上百杯的銷售量。&lt;/p&gt;, &lt;p&gt;台灣英飛凌指出，目前全台員工超過400人，分布於台北、新竹及高雄。而台北辦公室座落於台北內湖科技園區2020年剛剛落成的宏匯瑞光廣場頂樓的三個樓層，辦公環境舒適，高樓層景觀將内湖的山景，甚至台北101、基隆河的美景盡收眼底。此外，公共空間亦設有各種遊憩設施，員工在忙碌工作之餘也可以和同事們一起動動筋骨、交流感情！&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼受美國聯準會釋出升息放緩的訊息激勵，美國四大股市勁揚，台股今日同步跟漲開盤即突破15000點大關。（圖／記者湯興漢攝）" height="400" src="//cdn2.ettoday.net/images/6723/d6723645.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲台股兔年開紅盤，專家估有望漲逾500點。（資料照／記者湯興漢攝）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者陳依旻／台北報導&lt;/p&gt;, &lt;p&gt;兔年開紅盤可期！法人、專家看好台股今（30）日開盤不僅站穩年線，還有望大漲逾500點，投資人對台股紅包行情有所期待，但又擔心市場景氣變化頻繁的話，建議運用「等權重型ETF」切入台股市場。&lt;/p&gt;, &lt;p&gt;回顧台股年前封關收在14,932點，摩爾投顧分析師林漢偉今日接受《ETtoday新聞雲》訪問時認為，台積電ADR農曆過年期間漲幅超過7%，累計今年以來一共上漲25.25%，預料將帶動台積電明日開盤後大漲，而在大型權值股帶動下，台股開盤也會持續攻高。&lt;/p&gt;, &lt;p&gt;林漢偉指出，台股不僅站穩年線15390沒問題，甚至會大漲超過500點。兆豐投信指出，根據過往10年統計，農曆年後台股開紅盤機會大，甚至年後一周、後一個月漲幅機率達七、八成，若對台股紅包行情有所期待，卻又擔心市場景氣變化頻繁，可善用「等權重型ETF」。&lt;/p&gt;, &lt;p&gt;舉兆豐台灣產業龍頭存股等權重ETF基金為例，此檔即追蹤「特選台灣產業龍頭存股等權重指數」，歷年平均報酬率及上漲機率相較台股大盤更高，且遇到股市修正階段，更可以透過等比例投資各產業龍頭股進而分散產業波動，相較於市值加權型指數更具多樣化投資，因此，年後表現值得期待。&lt;/p&gt;, &lt;p&gt;展望後市，兆豐投信指出，最近台灣行政院通過台版晶片法案對半導體產業貢獻助益，加上顯示卡與伺服器產業新產品發表、記憶體產業對於資本支出調降，伴隨阿凡達電影上映激勵VR等相關類股走揚，各類產業存在利多條件，看好2023年至2024年間台股企業獲利率緩步走揚，建議採取兆豐台灣產業龍頭存股等權重ETF基金參與台股市場的投資步調，掌握各產業龍頭股的成長力道與長線的息收機會。&lt;/p&gt;, &lt;p&gt;其他法人受訪時也透露，「明天股市一定開高、超過500點有可能。」不過，今年還有兩大利空因素要嚴防。第一，企業財報出爐，數字均不漂亮；第二，俄烏戰爭還在持續。&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼高雄深夜地牛翻身。（圖／氣象局）" border="1" height="450" src="//cdn2.ettoday.net/images/6825/6825959.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲高雄深夜地牛翻身。（圖／氣象局）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者柯振中／綜合報導&lt;/p&gt;, &lt;p&gt;高雄市桃源區29日深夜11點15分發生芮氏規模3.2地震，震源深度5公里，最大震度4級。&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;記者楊蕎綺／綜合報導&lt;/p&gt;, &lt;p&gt;樂樂（謝語恩）有著一雙又圓又大、水靈靈的眼睛，笑起來乖巧可愛，演出《兩個爸爸》時年僅8歲，沒想到時間一晃眼10年過去，如今她已是個18歲亭亭玉立的少女，當年飾演「爸比」的林佑威也趁著要幫劇中女兒慶生的機會，與樂樂再次聚首同框，激起劇迷一陣回憶殺。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲《兩個爸爸》樂樂長大了 16歲模樣曝。（圖／資料照、翻攝自Facebook／樂樂小公主）" height="399" src="//cdn2.ettoday.net/images/5818/5818854.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲樂樂8歲時演出《兩個爸爸》爆紅。（圖／資料照／三立提供）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;林佑威29日在臉書上貼出為樂樂慶生的合照，感性地說：「我們兩個爸爸的寶貝小女兒生日快樂，從8歲到18歲一晃眼就過去，小樂樂長大成人了，願妳永遠幸福快樂。」謝語恩也表示，收到「爸比」的驚喜慶生讓她感動到幾度泛淚，也感謝在身邊的所有人，使她的18歲在滿滿愛中度過。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼《兩個爸爸》樂樂與林佑威重聚。（圖／翻攝自Facebook／林佑威）" height="400" src="//cdn2.ettoday.net/images/6825/d6825956.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲▼樂樂如今已18歲，林佑威驚喜現身為她慶生。（圖／翻攝自Facebook／林佑威、樂樂小公主）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼《兩個爸爸》樂樂與林佑威重聚。（圖／翻攝自Facebook／樂樂小公主）" height="450" src="//cdn2.ettoday.net/images/6825/d6825957.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;不少當年的劇迷都驚訝留言：「溫蒂長大了，爸比都沒變啊」、「最驚人的是爸爸還是一樣年輕」、「爸爸沒老耶，女兒漂亮又美麗」、「爸爸變哥哥了」，也有人敲碗，希望能看到《兩個爸爸2》問世，可以讓粉絲一窺爸爸和溫蒂在未來的故事。&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;記者蔡宜芳／綜合報導&lt;/p&gt;, &lt;p&gt;名模林可彤2017年嫁給銀行副總裁武廣明，陸續生下兩個寶貝兒子Adam、Aston。她29日表示年假是許多媽媽的「惡夢」，但自己歷經去年底在美國育兒後，這次春假10天只花了20.5小時就擺平小孩，頗有感觸地表示「身邊的媽媽都太認真」。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼林可彤年假10天只花20.5小時擺平小孩。（圖／翻攝自Facebook／林可彤 Hope Lin）" height="450" src="//cdn2.ettoday.net/images/6825/d6825954.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲林可彤育有兩個兒子。（圖／翻攝自Facebook／林可彤 Hope Lin）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;林可彤29日在社群平台透露，她身邊有的媽媽好友們都被10天的年假整慘，但自己卻安穩地度過了春節，林可彤分享自己這10天帶孩子去了兒童樂園、美麗華氣墊樂園、夜市、泡溫泉等，但用時都不長，還有更多時候是在家玩，兒子們要是午睡，她就跟著睡，所有行程加起來只花了20.5小時，「怎麼辦！一趟旅行回來簡直變成育兒奇才！我只能說身邊的媽媽都太認真。」&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼林可彤年假10天只花20.5小時擺平小孩。（圖／翻攝自Facebook／林可彤 Hope Lin）" height="625" src="//cdn2.ettoday.net/images/6825/6825952.jpg" width="500"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲林可彤透露自己的春節過得很輕鬆。（圖／翻攝自Facebook／林可彤 Hope Lin）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;事實上，林可彤去年底才和老公帶著兩個孩子飛到美國探親，一上飛機就遇到各種考驗，後來丈夫還腳受傷，讓她幾乎是「一打三」，不過林可彤都以樂觀的態度面對，所以對於這次10天的春假，她坦言「不會累」，甚至每天都覺得過得很舒適。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼林可彤年假10天只花20.5小時擺平小孩。（圖／翻攝自Facebook／林可彤 Hope Lin）" height="450" src="//cdn2.ettoday.net/images/6825/d6825951.jpg" width="450"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲林可彤去年底帶孩子飛到美國。（圖／翻攝自Facebook／林可彤 Hope Lin）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;img alt="▲▼林可彤年假10天只花20.5小時擺平小孩。（圖／翻攝自Facebook／林可彤 Hope Lin）" height="450" src="//cdn2.ettoday.net/images/6825/d6825950.jpg" width="492"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲林可彤分享自己的年假日常。（圖／翻攝自Facebook／林可彤 Hope Lin）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;【林可彤全文】&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;媽媽好友們都被年假十天給整慘&lt;br/&gt;我卻安穩舒適的度過十天&lt;br/&gt;怎麼辦！一趟旅行回來簡直變成育兒奇才&lt;br/&gt;我只能說身邊的媽媽都太認真&lt;br/&gt;我十天只去了&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;兒童樂園兩小時&lt;br/&gt;約鄰居小孩來家裡玩3小時&lt;br/&gt;美麗華氣墊樂園兩小時&lt;br/&gt;早午餐+101三小時&lt;br/&gt;夜市半小時撤退????&lt;br/&gt;家族聚餐+小孩一起玩7小時&lt;br/&gt;泡溫泉+用餐3小時&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;就沒了！&lt;br/&gt;其他孩子午睡我就跟著睡&lt;br/&gt;晚上一起看電視還煮了好多次飯跟做了清潔&lt;br/&gt;都好悠閒啊～&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;剛剛8:30不到兩隻都被我撂倒&lt;br/&gt;明天把大的送進學校小的交給保母後&lt;br/&gt;就可以認真開工賺錢了&lt;br/&gt;新年新氣象&lt;br/&gt;大家安排少一點就可以輕鬆多一點&lt;br/&gt;快學起來&lt;br/&gt;祝大家開工快樂（希望各位明天小孩都有地方可以送）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;a href="https://www.ettoday.net/news/20230129/2429790.htm" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;►Gigi才打卡長野「當地驚傳雪崩」！　關心簡訊灌爆…她發聲報平安&lt;/strong&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;, &lt;p&gt;&lt;a href="https://www.ettoday.net/news/20230129/2429771.htm" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;►顏佑庭重返《營業中》認「起初很難過」　曝錄影真實情況：真有差&lt;/strong&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;, &lt;p&gt;&lt;a href="https://www.ettoday.net/news/20230129/2429760.htm" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;►徐凱希合體黑澀會美眉　17年友誼都沒變：不要再說演藝圈複雜&lt;/strong&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;, &lt;p&gt;&lt;span style="color: rgb(255, 102, 0);"&gt;&lt;strong&gt;&lt;span style="font-size: medium;"&gt;&lt;a href="https://fugo.ehsn.com.tw/fugoOrder/prod?k=zd46J&amp;amp;data=l3HbXgwKHQ1iDCdng0KfLpqEfZ8I4EjReDFqwWMQiACDwGezrFVDS5YwzzeK9mxL4Pjmj8YkiDu7_M2I9JYubg" target="_blank"&gt;&lt;span style="color: rgb(255, 102, 0);"&gt; &lt;/span&gt;&lt;span style="font-size: medium;"&gt;&lt;span style="color: rgb(51, 51, 51);"&gt;&lt;span style="background-color: rgb(255, 255, 153);"&gt;►囤貨最佳時機！150抽「蒲公英環保衛生紙」只要13元 讓媽媽抽到手抽筋&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲坪林,坪林茶業博物館,良心饅頭店,坪林老街,坪感覺,老街茶葉蛋,水柳角68號 。（圖／記者彭懷玉攝）" height="450" src="//cdn2.ettoday.net/images/4078/d4078945.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲北市許姓男子為連鎖超商店員，值班就偷吃店內義大利麵、茶葉蛋等。（示意圖／記者彭懷玉攝）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者黃宥寧／台北報導&lt;/p&gt;, &lt;p&gt;上班就是爽吃！北市士林區連鎖超商許姓店員，在門市負責補貨、結帳、收銀等，豈料竟趁值班時間，口渴就做咖啡喝、累了就拿冰箱提神飲料，肚子餓就拿冷凍義大利麵加熱吃，前後共15次把超商當自己家爽吃爽喝，直到莊姓店長發現立刻報警處理。士林地檢署日前偵結，依業務侵占罪提起公訴。&lt;/p&gt;, &lt;p&gt;起訴指出，許男從2021年7月6日開始在該超商上班，擔任店員，負責補貨、結帳、收銀、清潔等業務，為從事業務的人。&lt;/p&gt;, &lt;p&gt;豈料他從2022年6月11日起，口渴就利用店內咖啡機做75元飲料喝、肚子餓就大方拿茶葉蛋吃、甚至到倉庫拿礦泉水飲用，拿店內販賣的香菸抽，前後共拿取15次價值1057元商品，直到莊姓店長發現憤而報警處理。&lt;/p&gt;, &lt;p&gt;檢方根據店內監視器畫面、銷售系統電腦等，認許男犯業務侵占罪，雖許男本行為次數多次，若分別科刑，將造成刑罰過重不合理現象，認基於業務侵占街續犯意，反覆密接實行，屬接續犯論一罪，建請法院宣告沒收犯罪所得。&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼失意男子坐在光復橋墩上飲酒，警方苦勸他下來             。（圖／記者陳以昇翻攝）" height="360" src="//cdn2.ettoday.net/images/6786/d6786153.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲失意男子坐在光復橋墩上飲酒，警方苦勸他下來             。（圖／記者陳以昇翻攝）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者陳以昇／新北報導&lt;/p&gt;, &lt;p&gt;新北市板橋區一名男子疑因感情、工作不順，跑到光復橋橋墩上獨自喝悶酒，警方獲報到場，擔心他會做出不智舉動，趁與他攀談聊天當中，將他拉下橋墩，隨即預防性送醫並通知家屬到場，家屬也對員警表達感激。&lt;/p&gt;, &lt;p&gt;警方表示，日前埔墘派出所接獲報案，指稱光復橋上有一名男子坐在橋墩上，疑有輕生念頭；員警羅之言、林愷宸立即前往了解；只見他獨自在橋墩上喝酒，在攀談過程中指出他工作、感情都不順遂，心情相當糟。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼失意男子坐在光復橋墩上飲酒，警方苦勸他下來             。（圖／記者陳以昇翻攝）" height="345" src="//cdn2.ettoday.net/images/6786/d6786152.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;員警擔心他會做出不智之舉，趁在聊天當中不注意時，聯手強行將他拉下橋墩，解除這場危機，隨後預防性將他送往台大醫院救治，並通知家屬到場，家屬對員警協助相當感激。&lt;/p&gt;, &lt;p&gt;警方呼籲，民眾應多關心自己及周邊親友的情緒困擾，如發現自己或親朋好友有憂鬱傾向或是輕生念頭，應儘快至相關醫療機構求助，適時紓壓；可撥打安心專線1925、生命線協談專線1995、張老師1980等心理諮詢電話尋求協助，幫助自己及親友安度難關。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;● 《ETtoday新聞雲》提醒您，請給自己機會：&lt;br/&gt;自殺防治諮詢安心專線：1925；生命線協談專線：1995&lt;/strong&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;記者蘇晟彥／綜合報導&lt;/p&gt;, &lt;p&gt;《英雄聯盟》PCS賽區將在2月3日開賽，除了選手異動外，在解說台上也發生改變，主播湯米、賽評烏龍確定在新一季的賽事上不會現身，將由從《你行你上》出身的新人主播賊克、悠五頂上，賽評部分則由老面孔、全新恨熊熊推動者Nash上場，對次，被譽為PCS最帥主播的烏龍也在臉書上表示「未來應該也不會再繼續播報」、追夢到這邊應該滿足了。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▼烏龍將告別《英雄聯盟》主播台，朝著寶可夢集換式卡牌工作前進。（資料照／記者周宸亘攝）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼《英雄聯盟》主播、寶可夢台灣大使烏龍專訪。（圖／記者周宸亘攝）" height="400" src="//cdn2.ettoday.net/images/6299/e6299059.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;對於觀眾而言，解說台是帶動整個解說氣氛的重要環節，今年賽季解說台名單在27日出爐，主播名單為部分、JR、賊克及悠五，而賽評則為Nash、老山及ZOD。在名單上可以看到烏龍、湯米缺席，而《你行你上》冠軍蝦蓋也並未出現在名單上。&lt;/p&gt;, &lt;p&gt;對此，針對沒有繼續在解說台上出席，被稱為甲文幫幫主、最帥主播的烏龍則在臉書上發出長文表示，「要跟英雄聯盟『轉播』說再見了！」他開頭就言明「以後不會播了，未來也高機率不會播」，自己從大學開始打LOL，誤打誤撞走到主播賽評這條路，超過15年都在追求「把興趣當工作」這件事。&lt;/p&gt;, &lt;p&gt;從2016年開始播到2023年、從上台就被噴到爛的廢物開始追夢，他坦承，「追到現在也差不多夠了、滿足了」，自己並不是戰隊、選手出身，只能靠不停看VOD、RANK等等補足自己，也在這個舞台留下一些什麼，撐到今天也該下台一鞠躬了，同時他也不忘自己身為寶可夢台灣大使的身分向觀眾大喊，「歡迎來打PTCG」。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼             。（圖／ＰＣＳ）" height="450" src="//cdn2.ettoday.net/images/6825/e6825945.jpg" width="450"/&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼男子與親友到訪紫南宮，看到免費停車場，進去以後才發現要買發財金。（圖／翻攝臉書／爆怨公社）" border="1" height="400" src="//cdn2.ettoday.net/images/6825/6825947.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲男子與親友到訪紫南宮，看到免費停車場，進去以後發現要買發財金才能免費停。（圖／翻攝臉書／爆怨公社）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者柯振中／綜合報導&lt;/p&gt;, &lt;p&gt;每到春節前後，南投竹山紫南宮總是會湧入許多香客，希望能求得新年好運。不過，一名男子日前與親友到紫南宮參拜，看見某處空地寫著「免費停車場」，將車輛停放進去後，才知道「買發財金才能免費」，讓他有種被欺騙的感覺。&lt;/p&gt;, &lt;p&gt;這名男子在「爆怨公社」指控，他與親友日前到南投竹山紫南宮參拜，到場時發現戶外有間停車場，上方寫著「廟前免費停車場，步行1分鐘」，於是將車子開進去停放。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▼紫南宮前有塊私人土地，外面有「免費停車場」的告示牌。（圖／翻攝臉書／爆怨公社）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼男子與親友到訪紫南宮，看到免費停車場，進去以後才發現要買發財金。（圖／翻攝臉書／爆怨公社）" border="1" height="400" src="//cdn2.ettoday.net/images/6825/6825948.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;豈料把車子停完，打開車門才發現，停車場內竟然有個攤位，上方寫著「買發財金免費停」，後來經過詢問，才知道所謂的免費停車，竟然要先購買發財金，讓他有種被欺騙的感覺，心情也變得不太好。&lt;/p&gt;, &lt;p&gt;不過，男子的貼文曝光後，立即有不少信眾質疑，「可是他標得滿大字的說，何謂欺騙」、「不買你就停遠一點，走遠一點吧～人家租場地也要錢啊」、「買金停車合理啊！比那什麼都沒有一次還要一百來得好吧！不然你就停遠一點」、「買金還讓你免費停車，很正常呀！不然人家要賺什麼，又不是欠你的」、「可能第一次拜拜吧，全台有名氣的公廟周邊，很多都是這樣」、「來了就是求財，也沒人強逼一定要停，可以開走，不要想要貪又想拿，這樣真的家裡神明拜一拜就好了！」&lt;/p&gt;, &lt;p&gt;&lt;a href="https://bit.ly/30PqltT\" target="“_blank"&gt;&lt;span&gt; &lt;/span&gt;►按這訂閱Podcast《小編沒收工》每天熱門話題聊不完&lt;/a&gt;&lt;/p&gt;, &lt;p&gt;&lt;iframe allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen="" frameborder="0" height="315" src="https://www.youtube.com/embed/bxajyI0GWRg" title="YouTube video player" width="560"&gt;&lt;/iframe&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;記者劉宛欣／綜合報導&lt;/p&gt;, &lt;p&gt;服務業經常要面對各式各樣的客人，其中最怕遇到的便是造成困擾的「奧客」。一名南韓計程車司機近日便受邀登上節目講述遇過最扯的奧客事蹟，透露曾有一名30幾歲的妙齡女子，大白天在他的車上「就地解放」，讓他氣得打電話找對方理論，然而女子的反應卻讓他更加傻眼，懷疑這名女客人根本就是「慣犯」。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲韓女在計程車上拉屎，遭質問反應嚇傻司機。（圖／翻攝自MBN）" height="334" src="//cdn2.ettoday.net/images/6825/d6825942.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲一名南韓司機分享曾遇到在車上就地解放的女客人。（圖／翻攝自MBN）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;南韓訪談節目《我們不知道的世界－奧客WORLD》，27日找來數名在服務業工作的來賓分享經歷，有8年計程車司機經驗的陳長垠（音譯，진장은）便透露曾遇到一上車就蹲著大便客人，一旁主持人追問「喝了酒的確有可能發生」，不料司機馬上反駁表示「是一名30歲出頭的女性在大白天發生的事」，嚇壞在場眾人。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲司機重現當時場景。（圖／翻攝自MBN）" height="310" src="//cdn2.ettoday.net/images/6825/d6825943.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲司機重現當時場景。（圖／翻攝自MBN）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;司機回想當時情景，透露他因為習慣將副駕駛座往前拉，因此後座腳踏墊處空間不小，該名女客人上車後，他卻突然撇到對方疑似坐在腳踏墊處滑手機，雖然行為很可疑，但他也只在心裡「不會吧」，怎知女客人下車以後便火速跑走，他往後座一看發現一個「像褐色冰沙狀」的物體，他仍不信邪，甚至用手觸碰，才確定真的是排泄物。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲司機用手觸碰後，確定是女客人的排泄物。（圖／翻攝自MBN）" height="337" src="//cdn2.ettoday.net/images/6825/d6825946.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲司機用手觸碰後，確定是女客人的排泄物。（圖／翻攝自MBN）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;司機當下嚇傻，但也不忘馬上與叫車的APP官方客服聯絡，說明情況後順利拿到客人的聯絡方式，打給對方時，接電話的是女客人的男朋友，向對方告知詳情，起初女客人的男友還不相信，司機直言「他說他們交往才兩個禮拜，我想那個人當時心裡應該也是五味雜陳」，為了說服對方，他還將車上留下的「證據」照傳了過去，對方馬上就給了女友的電話號碼。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲將證據照傳給對方，才拿到女客人的聯絡方式。（圖／翻攝自MBN）" height="334" src="//cdn2.ettoday.net/images/6825/d6825949.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲將證據照傳給對方，才拿到女客人的聯絡方式。（圖／翻攝自MBN）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;終於聯絡到該名闖禍的女客人後，司機立刻氣炸質問對方「怎麼可以在別人車上拉完屎就跑掉？」，不料對方一秒都沒猶豫，馬上回答「要賠你多少？」，讓司機更加傻眼表示「聽起來像是經常發生這種事的口氣」，荒誕的奧客事蹟讓全場來賓與主持人都聽得目瞪口呆。&lt;/p&gt;, &lt;p&gt;&lt;iframe allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen="" frameborder="0" height="315" src="https://www.youtube.com/embed/6dKW5NTlzDY?start=219" title="YouTube video player" width="560"&gt;&lt;/iframe&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="生母「離婚後出家」消失47年...突露面討萬元扶養費　兄妹傻眼：我不認識她" height="316" src="//cdn2.ettoday.net/images/6825/d6825937.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲生母離婚神隱47年，突現身向子女討萬元扶養費。（示意圖／翻攝自pixabay）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;圖文／CTWANT&lt;/p&gt;, &lt;p&gt;台南市一名林姓婦人與丈夫離婚後，丟下2名子女消失無蹤，如今竟突然現身，聲稱自己「出家」沒工作，要向子女請求每月共1.4萬元的扶養費。法官認為，林婦離家47年來從未善盡教養義務，駁回林婦聲請。&lt;/p&gt;, &lt;p&gt;據判決書內容指出，林婦與丈夫於1976年離婚，2名子女全由男方扶養，聲稱她因「出家」沒有工作，且名下無任何財產，生活陷入困境，因此認為其子女應盡扶養義務，2人每個月共要給付1萬4012元，直到林婦死亡。&lt;/p&gt;, &lt;p&gt;對此，2名子女表示，父母離婚時他們分別才4歲及1歲大，全由父親及祖父母將他們扶養成人，至今已數十年未與母親碰面，甚至無法確認林婦就是他們的生母，請求免除對林婦的扶養義務。父親到庭證稱，與前妻離婚至今47年，對方從未聯繫、探視與扶養過2名子女。&lt;/p&gt;, &lt;p&gt;法官審酌，林婦無任何正當理由，卻在子女成長過程未盡人母職責，如今要兒女負起扶養義務顯失公平，依法免除其子女的扶養義務，駁回林婦請求。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;延伸閱讀&lt;/strong&gt;&lt;br/&gt;▸ &lt;a href="https://www.ctwant.com/article/235433?utm_source=ettoday&amp;amp;utm_medium=rss&amp;amp;utm_campaign=235480"&gt;過年高鐵擠爆…買對號座「吸管被站客狂頂」妹子怒了　1訴求讓兩派戰翻&lt;/a&gt;&lt;br/&gt;▸ &lt;a href="https://www.ctwant.com/article/235479?utm_source=ettoday&amp;amp;utm_medium=rss&amp;amp;utm_campaign=235480"&gt;兩岸外交首長留任　陸委會副主委前北市議員梁文傑出任&lt;/a&gt;&lt;br/&gt;▸ &lt;a href="https://www.ctwant.com/article/235477?utm_source=ettoday&amp;amp;utm_medium=rss&amp;amp;utm_campaign=235480"&gt;政大人告別40年莊敬外宿　新宿舍最快2026年完工&lt;/a&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼麥克風,上台,唱歌,主持。（圖／翻攝自pixabay）" height="337" src="//cdn2.ettoday.net/images/4562/d4562310.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲女子一唱高音就破，竟是甲狀腺癌。（示意圖／翻攝自pixabay）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者李佳蓉／綜合報導&lt;/p&gt;, &lt;p&gt;過年過節少不了相約三五好友喝酒唱歌狂歡！一名60歲女子天生有副好歌喉，各種高音領域都能輕鬆駕馭，不過近期卻發現有些高音「突然唱不上去」，且一唱就破音的頻率越來越高，就診檢查發現右側甲狀腺上長了顆2公分腫瘤壓在神經上，經過穿刺手術後確診罹患甲狀腺癌，讓她相當錯愕。&lt;/p&gt;, &lt;p&gt;外科醫師陳榮堅在《&lt;a href="https://www.youtube.com/watch?v=FflAX7NvEdU" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;醫師好辣&lt;/span&gt;&lt;/a&gt;》節目中分享，該名女子嗓音動人，與朋友聚餐都當先鋒唱歌暖場，獲得高度評價，但近期「特別高音處」越來越唱不上去，就醫照超音波驚見甲狀腺上有顆2公分腫瘤「壓在上喉神經」上面，穿刺後警覺有變化建議開刀。他解釋，這顆腫瘤不太會影響音質，但在飆到特高音時「會稍微去用到（神經）」才有感覺。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼她一唱高音就破！醫驚吐：是癌症　「腫瘤壓在神經上」。（圖／截自《醫師好辣》YouTube）" height="345" src="//cdn2.ettoday.net/images/6802/6802638.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲陳榮堅說，甲狀腺腫瘤壓到上喉神經，導致高音唱不上去。（圖／截自《醫師好辣》YouTube）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;陳榮堅說，上喉神經雖然沒有斷，但腫瘤的確多少會接觸到，後來不只開刀還進行「碘－131」治療，雖然不影響說話，但女子的響亮高音再也回不去了。他提醒，若持續性發生有別以往的症狀，即早就醫找出原因，或許有機會降低傷害的發生。&lt;/p&gt;, &lt;p&gt;北投健康管理醫院影像醫學部放射科主任沈彥君指出，甲狀腺結節在超音波檢查中其實相當常見且多為良性，但不能因此掉以輕心，因為有5%結節可能藏有癌細胞，當超音波檢查發現結節形態有疑慮時，要進一步細針穿刺及細胞學檢查以評估是否有癌細胞存在。&lt;/p&gt;, &lt;p&gt;甲狀腺癌根據病理診斷不同，疾病的發展和預後也會有差異，主要包括「甲狀腺乳突癌、甲狀腺濾泡癌、甲狀腺髓質癌、甲狀腺未分化癌、甲狀腺淋巴癌」等五種類型。&lt;/p&gt;, &lt;p&gt;&lt;img alt="脖子,甲狀腺瘤,甲狀腺。（圖／記者李佳蓉攝）" height="450" src="//cdn2.ettoday.net/images/2944/d2944241.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲甲狀腺癌早期無明顯不適，需定期以超音波檢查才有機會早期診斷。（示意圖／記者李佳蓉攝）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;沈彥君說明，大多數人罹患的甲狀腺癌是乳突癌，佔八成以上，好發於20～45歲女性，其次為濾泡癌，近一成，好發於40～50歲年齡層，這兩種類型的甲狀腺癌，若能在疾病早期就診斷出來並且接受治療，預後都比其他癌症要好，10年存活率可達90～95%。但若發現較晚，癌細胞往往已經由淋巴或血液轉移到其他組織器官，第四期10年存活率僅約50%。&lt;/p&gt;, &lt;p&gt;沈彥君提醒，甲狀腺癌在早期大多無明顯不適，單靠症狀相當難以察覺，需定期以超音波檢查才有機會早期診斷，當出現脖子有局部腫大或腫塊、吞嚥困難等症狀，應立即安排檢查確認是良性甲狀腺結節腫大或惡性腫瘤。&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼高中生胡鑫宇失蹤106天「吊屍樹上」　姐想見遺體被阻：都爛了。（圖／翻攝澎湃新聞、微博）" height="401" src="//cdn2.ettoday.net/images/6825/d6825939.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲高中生失蹤106天吊屍樹上，姐想見遺體被阻：都爛了。（圖／翻攝澎湃新聞）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者許力方／綜合報導&lt;/p&gt;, &lt;p&gt;江西省「胡鑫宇失蹤案」宣告突破，消失106天的15歲高中男生胡鑫宇28日被發現，警方接獲村民通報，在他就讀的學校旁樹林，找到縊吊在樹上的屍體，現場還留有一支錄音筆，經DNA檢驗，確認死者就是胡。家屬在殯儀館附近放炮為他送行，但姊姊想看他最後一面卻被阻止，殯葬人員稱「遺體已不是原來樣貌。」&lt;/p&gt;, &lt;p&gt;上饒市鉛山縣警方於28日中午接到村民的報案電話，稱在河口鎮金雞山區的樹林中，發現一具吊掛在樹上的屍體，警方隨即派員趕到現場，發現死者衣著和失蹤106天的致遠中學學生胡鑫宇失蹤時的衣著一致，隨即找上檢方、家屬確認，經DNA檢驗，於29日確定死者就是胡鑫宇，並於當晚相驗完成，發現衣服已經腐爛，口袋裡發現10元人民幣現金（約台幣44元）。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▼胡鑫宇走出宿舍後失蹤，家屬懸賞找人。（圖／翻攝微博）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼ 胡鑫宇。（圖／翻攝自微博）" height="338" src="//cdn2.ettoday.net/images/6825/d6825461.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼高中生胡鑫宇失蹤106天「吊屍樹上」　姐想見遺體被阻：都爛了。（圖／翻攝澎湃新聞、微博）" height="401" src="//cdn2.ettoday.net/images/6825/d6825941.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;陸媒報導，胡家人在鉛山縣殯儀館燃放鞭炮，替胡鑫宇送最後一程，姊姊在現場表示，「這是我弟弟，我想看他最後一面。」殯葬人員則稱遺體上的衣服爛了，人體組織也有腐化，「這裡面去了，我怕你們也受不了」，裡面味道很重，家屬、父母都已經見過了，「現在這個見，已經不是原來樣貌，屍檢已經做完。」&lt;/p&gt;, &lt;p&gt;失蹤案卻引發社會關注，因為陳屍地點就鄰近致遠中學後面，過去106天，當地展開的地毯式搜救為何沒有找到他？參與搜救的上饒市某救援隊隊員向媒體透露，幾乎每天都在搜救，沒有停止任務過，「如果胡鑫宇主動躲藏到離路邊遠些的雜草、灌木林中，是很難找到的，因為太密集。」而陳屍地點和學校的直線距離不到百米，也有家屬曾經在該處搜索過，「這一帶肯定搜救過」，但都沒有發現過胡鑫宇的蹤跡，感到非常奇怪。&lt;/p&gt;, &lt;p&gt;失蹤案事發於2022年10月14日，就讀高一的胡鑫宇從致遠中學消失，監視器畫面顯示，他最後出現的地點是校內小公園方向，消失鏡頭後就失去蹤跡。失踪隔天家屬及老師就報警，警方隨即動員搜尋、發布協查，甚至成立了聯合工作小組，在鉛山縣全域搜尋，把學校後山、鐵路沿線等都搜了個遍，也沒有發現胡鑫宇在校內被害、自殺或發生意外的痕跡證據，綜合所有訊息，都指向他是自行離校。&lt;/p&gt;, &lt;p&gt;當時家屬也發出「尋人啟事」公布胡鑫宇的最後身影，指出他在10月14日傍晚5點多左右從宿舍門口監視器畫面中消失，深夜11點多學校班主任才通知家長，他失蹤時沒有帶身分證、錢和手機，只帶了一支錄音筆，身穿白色衛衣、黑色連帽外套、戴眼鏡、短髮，下身穿黑白條紋運動長褲、白鞋，並提供5萬人民幣（約台幣22萬元）酬金懸賞線索找人。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼高中生胡鑫宇失蹤106天「吊屍樹上」　姐想見遺體被阻：都爛了。（圖／翻攝澎湃新聞、微博）" height="739" src="//cdn2.ettoday.net/images/6825/6825940.jpg" width="500"/&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼ HBL,光復高中,張聿嵐     。（圖／高中體總提供）" height="450" src="//cdn2.ettoday.net/images/6792/d6792457.jpg" width="494"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲張聿嵐     。（圖／高中體總提供）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者鍾東穎／綜合報導&lt;/p&gt;, &lt;p&gt;111學年度HBL高中籃球聯賽男、女子8強賽將在2月12至19日，於板橋體育館和新莊體育場兩地開打，今年女子8強和上屆完全相同，分別是挑戰史無前例4連霸的淡水商工、去年亞軍北一女中、陽明高中、永仁高中、普門中學、南湖高中，以及從外卡晉級的南山高中和金甌女中。&lt;/p&gt;, &lt;p&gt;淡商上季奪得隊史第12冠，成為賽史奪冠次數最多的隊伍，同時更是唯一2度3連霸，本屆要挑戰史無前例4連霸，陣中看板人物就屬幫助中華隊爭取到U19世青參賽門票的中鋒「女魔獸」蕭豫玟，在高雄預賽期間，她繳出場均27.6分、22.4籃板誇張數據，稱霸得分和籃板雙后，率衛冕軍拿下4勝1負晉級。&lt;/p&gt;, &lt;p&gt;而能夠賞給衛冕軍唯一一敗的就是「最強女高中生」張聿嵐所領軍的陽明高中，她同樣是U18中華隊進軍世青的關鍵人物，在面對淡商時，張聿嵐整場攻下20分10籃板率隊上演逆轉秀，並以5戰全勝、B組第1晉級8強。&lt;/p&gt;, &lt;p&gt;A組部分，北一女中進入後「閃電俠」時代，過去3年宋瑞蓁率隊連年打進台北小巨蛋，且2度挺進冠軍戰，現在交棒給3位U18亞青國手，高三中鋒吳珮璿、高二前鋒米靖恩和上學年「新人后」黃子芸，用團隊之力打下5連勝、A組榜首晉級。&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼台北有不少寵物友善的店家，包括了咖啡店還有整復所，都有喵星人駐店。（圖／記者陳詩璧攝）" height="450" src="//cdn2.ettoday.net/images/6789/d6789418.jpg" width="600"/&gt;&lt;br/&gt;&lt;strong&gt;▲台北有不少寵物友善的店家，位在民生社區的一間貓咪雜貨咖啡店裡，有不少喵星人駐店。（圖／記者陳詩璧攝）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者陳詩璧／整理報導&lt;/p&gt;, &lt;p&gt;台灣有不少寵物友善店家，民生社區有間寵物雜物及咖啡店裡頭擁有將近10隻的貓，牠們相當自在，隨意的躺在出餐檯上、客人間的位置或是待在洗水檯旁邊喝水，都很自然，一舉一動客人都覺得很可愛，手機狂按拍照鍵，還要錄動態發限動分享，另一家在台中西屯的寵物友善餐廳，店貓數量雖然不到10隻，但也走貼心自在路線，會陪客人吃飯、給摸摸，一點也不怕生。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼台北有不少寵物友善的店家，包括了咖啡店還有整復所，都有喵星人駐店。（圖／記者陳詩璧攝）" height="450" src="//cdn2.ettoday.net/images/6789/d6789420.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲送餐桌上是店貓睡覺的地方之一。（圖／記者陳詩璧攝）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;駐店貓將近十隻，隨時路倒在地，想到就側躺在地上，路過的客人，都得繞道而行，不只地板是床，給客人坐的長椅區，中間任一個空間，喵星人都能躺，自在的腳抬高，側躺在椅子上，完全沒有矜持。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;img alt="▲▼台北有不少寵物友善的店家，包括了咖啡店還有整復所，都有喵星人駐店。（圖／記者陳詩璧攝）" height="399" src="//cdn2.ettoday.net/images/6789/d6789422.jpg" width="300"/&gt;&lt;/strong&gt;&lt;img alt="▲▼台北有不少寵物友善的店家，包括了咖啡店還有整復所，都有喵星人駐店。（圖／記者陳詩璧攝）" height="399" src="//cdn2.ettoday.net/images/6789/d6789426.jpg" width="300"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲地上肯定是睡著的好地方，客人跟客人中間的位子也是店貓的床。（圖／記者陳詩璧攝）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;要是有客人帶狗來，駐店貓頂多坐趴在旁，也沒有想離開的意思，因為牠就是老大，隔壁的黑狗趴在沙發上，不敢亂動，偶而看看主人，其他時間都趴好趴滿，一直到離開店，中間都沒有離開過座位。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼台北有不少寵物友善的店家，包括了咖啡店還有整復所，都有喵星人駐店。（圖／記者陳詩璧攝）" height="450" src="//cdn2.ettoday.net/images/6789/d6789416.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲駐店貓咪跟來玩的黑狗和平相處。（圖／記者陳詩璧攝）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;img alt="▲▼台北有不少寵物友善的店家，包括了咖啡店還有整復所，都有喵星人駐店。（圖／記者陳詩璧攝）" height="399" src="//cdn2.ettoday.net/images/6789/d6789415.jpg" width="300"/&gt;&lt;img alt="▲▼台北有不少寵物友善的店家，包括了咖啡店還有整復所，都有喵星人駐店。（圖／記者陳詩璧攝）" height="399" src="//cdn2.ettoday.net/images/6789/d6789421.jpg" width="300"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲駐店貓想喝水會走到洗手檯旁，店家準備一個水龍頭，流出來的水是專門給貓喝的。（圖／記者陳詩璧攝）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;店家對貓相當貼心，還在洗手檯特製一個水龍頭，流出來的水量較小，但專門是給貓喝的，貓口渴會主動來喝水，陸續靠近來喝。店家也幫貓準備小屋，若是貓不想被打擾躲到小屋去，也特別在外頭標示警語，希望客人不要打擾，讓牠們好好休息。&lt;/p&gt;, &lt;p&gt;店家更特別在大門鐵門上掛上警示牌，提醒進出的客人可以隨手把門帶上，以防店裡的店貓或是來店的毛小孩衝出門。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;img alt="▲店家特別在門口放置警語，提醒飼主們要隨手關門，以免寵物衝出門。（圖／記者陳詩璧攝）" height="450" src="//cdn2.ettoday.net/images/6789/d6789423.jpg" width="600"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲店家特別在門口放置警語，提醒飼主們要隨手關門，以免寵物衝出門。（圖／記者陳詩璧攝）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;來到台中西屯區，這裡也有間寵物友善餐廳，店貓很自在的在餐廳內行動，主動給客人摸摸，很快就會有呼魯呼魯的聲音，超親民，而且店貓不會跳上客人的桌子，只會在椅子區來去，陪伴不搗亂。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;img alt="▲▼台中西屯區森林小徑大墩店的店貓。（圖／記者陳詩璧攝）" height="450" src="//cdn2.ettoday.net/images/6803/d6803420.jpg" width="600"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲▼台中西屯區森林小徑大墩店的店貓。（圖／記者陳詩璧攝）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;img alt="▲▼台中西屯區森林小徑大墩店的店貓。（圖／記者陳詩璧攝）" height="450" src="//cdn2.ettoday.net/images/6803/d6803416.jpg" width="600"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;店貓有時玩累了，沙發椅上躺了就睡，這讓喜歡貓，但是不能養寵物的人，可以在店裡盡情的跟貓玩，毛小孩陪伴時光大大滿足。&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼南投縣竹山鎮「大亨寶彩券行」。（圖／翻攝自Google Maps）" height="401" src="//cdn2.ettoday.net/images/6820/d6820842.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲南投縣竹山鎮「大亨寶彩券行」春節10天連假就開出了3次大紅包。（圖／翻攝自Google Maps）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者趙蔡州／綜合報導&lt;/p&gt;, &lt;p&gt;春節假期最後一天，大樂透29日頭獎3.3億元一注獨得，獎落台東縣台東市岩灣路101巷598號「億來發彩券行」。春節大紅包本期一次送出42組，其中南投縣竹山鎮「大亨寶彩券行」光今年10天連假就開出了3次大紅包，該店2014年至今已累計開出11次大紅包，且每次都是獨得100萬元。&lt;/p&gt;, &lt;p&gt;春節大紅包加碼獎號，9個獎號由小到大依序為04、05、08、09、10、11、24、29、48。只要對中任6碼，每組獎金100萬元，並依中獎注數均分，本期總共開出42組，總中獎注數為62注，其中25組為單注中獎，14組為2注均分，3組為3注均分。&lt;/p&gt;, &lt;p&gt;台彩表示，本期開出春節大紅包的投注站多達62家，其中不乏今年春節期間連莊開出大獎者，南投縣竹山鎮「大亨寶彩券行」今年初一、初二各開出一注大紅包獎項，今晚（29日）又開出1注，光今年10天假期內就已開出3次，而該店從2014年至今已開出11次大紅包，每次都是獨得100萬元。宜蘭縣宜蘭市「千億商行」2015年起已開出10注大紅包，今晚也是第11度開出大紅包獎項。&lt;/p&gt;, &lt;p&gt;台彩還說，另外有3間投注站是今年春節2度開出百萬大紅包，包含高雄市鹽埕區「拼了彩券行」，今年大年初一即開出1注大紅包；台北市文山區「來億發彩券商行」及新北市土城區「一之發彩券行」都是今年初二開出1注春節大紅包，3間投注站29日再次開出1注。&lt;/p&gt;, &lt;p&gt;大樂透春節加碼活動從20日開始連續開獎17天，總計要送出360組100萬元春節大紅包獎項，已送出281組100萬元，總共345位幸運兒中獎，其中有221人獨自贏得百萬獎金，112人贏得50萬元獎金，還有12人分得33萬元。春節大紅包剩餘79組，下期（30日）將繼續加開。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▼大樂透春節加碼時程表，&lt;span style="color: rgb(0, 0, 255);"&gt;點圖可放大&lt;/span&gt;。（圖／台彩）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;a href="https://cdn2.ettoday.net/images/6819/6819553.jpg" target="_blank"&gt;&lt;img alt="▲▼台彩春節加碼時程表。（圖／台彩）" height="334" src="//cdn2.ettoday.net/images/6819/6819553.jpg" width="600"/&gt;&lt;/a&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼駭客。（圖／取自免費圖庫Pixabay）" height="400" src="//cdn2.ettoday.net/images/5761/d5761929.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲民眾應隨時更新手機或電腦的作業系統，並安裝防毒軟體，防堵信用卡被盜刷的可能性（圖／取自免費圖庫pixabay）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者沈君帆／綜合報導&lt;/p&gt;, &lt;p&gt;在這個詐騙橫行、盜刷猖獗的時代，每個人都要學習一套實用的辦法，為自己打造一個安全刷卡的環境。整合我們所有的資料，以及資安專家趨勢科技協理劉彥伯、信用卡達人寶可孟兩位專家的意見，可以總結提出以下建議。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;改正使用信用卡的壞習慣&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;拿到新卡要立刻簽名。刷卡時不要讓卡片離開視線，卡片上面的資訊不外漏。信用卡要收好隨時檢查，發現不見立刻掛失。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;建立使用信用卡的好習慣&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;寶可孟建議，同類型的消費使用同一張信用卡，可以避免收到刷卡簡訊通知時，分不清是定期扣款還是盜刷。另外，每次的帳單都要仔細查對，發現可疑帳目立刻通知銀行，許多盜刷會從小額試探起。可以使用發卡銀行的網銀APP，每次消費之後都去檢視帳單。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;升級信用卡至晶片以上&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;如果還在使用純磁條式的信用卡，一定要趕快更換升級，目前的信用卡都是磁條、晶片與感應三者合一，以安全性而言，感應&amp;gt;晶片&amp;gt;磁條，若將信用卡綁定在手機，使用APPLE PAY之類的行動支付，因為完全隱藏實卡，安全性最高。&lt;br/&gt;對此劉彥伯提醒，行動刷卡的安全機制的確最高，但前提是手機本身資安要做好，如果被植入側錄或間諜程式，反而會有另一個安全疑慮。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;OTP是基本，還能有更多的認證機制&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;網路刷卡須經3D認證收發OTP動態密碼，已是基本且有效的防盜刷方式，如果能有3D認證2.0的生物特徵辨識（OBB）會更好；或者加入發卡銀行的官方LINE帳號，確認身份之後，每次刷卡不管金額不論何處，都會收到line即時通知，境外盜刷的漏洞就可能防堵。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;隨時更新PC與手機的作業系統、APP&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;PC和手機的作業系統都要一定要保持最新，軟體最好也都更新，劉彥伯看過很多資安狀況，都是以為有裝防毒軟體就萬無一失，但是系統不更新就會有漏洞沒補，等於是敞開後門讓駭客進來。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;正確的網路習慣&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;妥善管理帳號密碼、不將信用卡存在瀏覽器或電商網站、不在公用電腦或公共網路刷卡。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;善用工具，最好能安裝防毒軟體&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;在網路世界走跳，不管多小心都難免遇到惡意網站，可以學習判斷的知識，或者趨勢科技與政府和民間組織共同開發的「趨勢科技防詐達人」，更是簡單又實用的免費工具。&lt;br/&gt;「趨勢科技防詐達人」是一個Line聊天機器人，可以針對「詐騙連結、詐騙LINE ID、假訊息」進行驗證，貼上連結問它，數秒之內就有答案。它也是瀏覽器的外掛程式，安裝後只要連上問題網站，它就會立刻提醒。詳情請見&lt;a href="https://getdr.com/"&gt;https://getdr.com/&lt;/a&gt;&lt;/p&gt;, &lt;p&gt;「防詐達人」可以做到問題網站偵查、假訊息澄清，甚至貼上自己的e-mail，它會告訴你是否帳號密碼曾遭外洩，功能超級強大。但是「防詐達人」沒有掃毒功能，對於木馬、間諜等惡意程式，它無法偵測和移除，所以如果能安裝防毒軟體，更能達到全面防護。&lt;/p&gt;, &lt;p&gt;以上是我們綜合性的建議，如果民眾都能做到，可以確保安全使用信用卡，被盜刷的機率可以降到極低。至於有沒有一個最安全的方式？寶可孟表示，信用卡的革新永遠都是道高一尺魔高一丈，詐騙集團會一直找到漏洞進化，「想要完全沒有盜刷風險，就只能用現金交易了」。&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p style="text-align: justify;"&gt;&lt;img alt="" height="339" src="https://static.ettoday.net/images/6794/e6794409.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;&lt;strong&gt;▲ 柳韓彬原是一位熱愛動物的獸醫，在日復一日的疲憊和忙碌中，她開始利用下班時間學習自己感興趣的事情，後來成為一位成功的YouTuber。（圖／翻攝自YouTube／ 월급쟁이부자들TV）&lt;/strong&gt;&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;&lt;strong&gt;● 瓦基（莊勝翔）／前台積電副理，書評部落格「&lt;a href="https://readingoutpost.com/"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;閱讀前哨站&lt;/span&gt;&lt;/a&gt;」、Podcast說書頻道「&lt;a href="http://readingoutpost.com/podcast"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;下一本讀什麼&lt;/span&gt;&lt;/a&gt;」創辦人&lt;/strong&gt;&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;&lt;span style="font-size: larger;"&gt;&lt;strong&gt;讓自己不後悔的「放棄框架」&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;她出社會時，是一位熱愛動物的獸醫，是一般人眼中的人生勝利組。但是她內心知道，自己在日復一日的疲憊和忙碌中，過著茫然的上班生活。她開始利用下班時間參加許多活動，學習自己感興趣的事情，像是當美妝網紅、音樂劇演員、學繪畫、當部落客、開發App等。在過程當中，她才逐漸發現自己真正的志向，後來成為一位成功的YouTuber，還販售起獨家的筆記本商品。&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;通常我們讀到這種故事時，心中都會發出「哇」的一聲，有點羨慕又有點忌妒。我們著迷於她的成就，卻忽略了使她成功的關鍵。這個關鍵就是：她懂得放棄。如果我們仔細觀察，會發現她有寫筆記的習慣（後來成為了她的商業利基）。她會記錄自己做過的嘗試，寫下當時的心情、整理執行的成果。透過一次又一次的嘗試、失敗、檢查、再度嘗試，她快速地放棄各式各樣不適合自己的事情。&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;她一開始試著拍美照當IG網紅，放棄。挑戰當音樂劇演員，歌唱得不夠好，放棄。學繪畫和影像軟體，但太粗線條容易犯錯，放棄。經營部落格，但漸漸失去興趣，放棄。開發一款全新App，成本和難度太高，放棄。&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;這些失敗和放棄的經驗，讓她更快速地找到真正熱中的斜槓副業：經營YouTube頻道。後來她還寫出《原子時間》這本書，傳授自己的時間管理祕訣，並販售自己設計的時間管理筆記本。&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;&lt;span style="font-size: larger;"&gt;&lt;strong&gt;如何決定是否要放棄？&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;我們該怎麼決定是否要「放棄一件事情」？我大力推薦英國企業家史蒂・巴特利特（Steven Bartlett）曾經提出的「放棄框架」，透過少數幾個選擇題就可以幫我們做出「放棄」的決定。&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;&lt;img alt="" height="462" src="https://static.ettoday.net/images/6794/e6794410.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;&lt;strong&gt;▲ 英國企業家史蒂・巴特利特（Steven Bartlett）曾經提出「放棄框架」。（圖／天下文化出版社提供）&lt;/strong&gt;&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;懂得放棄的人不是魯蛇，而是贏家。&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;在經營自媒體的路上，我也是新手，但我秉持做實驗的精神，設定一個「假設」，進行持續且連貫的「執行」，過一陣子再回來「檢查」結果，驗證了我的假設之後，再做出下一個「行動」。&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;我在打造自己的說書事業時，特別是針對「社群平台」這個部分，除了大家常見的Facebook、Instagram之外，有更多是被我放棄的項目。我就是用「放棄框架」的思考方式，放棄（或半放棄）經營以下這些社群。&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;1.Twitter&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;在歐美國家，Twitter是政商名人和意見領袖最愛用的發文平台，可是在台灣表現如何呢？我用「自動發文」的機制，在Twitter上面持續發表了接近三年的貼文，至今只累積了150位追蹤者，且沒有發生過任何的讀者互動。不過，因為我用的是自動發文機制，所以基本上我從來不用去管理它，這個成果只是讓我知道，Twitter在台灣還不是一個成氣候的平台。我用放棄框架來思考：&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;▪&lt;strong&gt;正在想是否放棄它？&lt;/strong&gt;是。&lt;br/&gt;▪&lt;strong&gt;為什麼你想放棄它？&lt;/strong&gt;因為它的效果很差。&lt;br/&gt;▪&lt;strong&gt;你相信自己可以把它弄得更好嗎？&lt;/strong&gt;可以，我能夠邀請讀者前往追蹤和互動，也能在上面發表更符合平台格式的內容。&lt;br/&gt;▪&lt;strong&gt;為了把它弄得更好，付出的努力值得嗎？&lt;/strong&gt;不值得，我的九成觀眾來自台灣，整體使用者習慣都不在Twitter上，投入的努力換不回值得的報酬。&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;&lt;img alt="" height="400" src="https://static.ettoday.net/images/6757/e6757884.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;&lt;strong&gt;▲ 在歐美國家，Twitter是政商名人和意見領袖最愛用的發文平台，但在台灣還不是一個成氣候的平台。（圖／取自免費圖庫Unsplash）&lt;/strong&gt;&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;2.Matters、方格子、Medium&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;一開始我在這三個平台上也有發文，主要目的有兩個：第一是增加觸及該平台讀者的機會，第二是為我自己架設的「閱讀前哨站」部落格，增加搜尋引擎權重。我後來觀察，會從這三個平台「點擊」回到閱讀前哨站，而且還「訂閱」電子報的轉換率，其實非常低。此外，閱讀前哨站的搜尋權重，已經達到一個很高的水準，凡是書籍心得文章，基本上都在搜尋前三名的位置。綜合上述兩點，我也決定暫停在這些平台上同步發表文章，改以引導讀者回閱讀前哨站或訂閱電子報為主要目標。我用放棄框架來思考：&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;▪&lt;strong&gt;正在想是否放棄它？&lt;/strong&gt;是。&lt;br/&gt;▪&lt;strong&gt;為什麼你想放棄它？&lt;/strong&gt;因為要花心力維護。&lt;br/&gt;▪&lt;strong&gt;這個挑戰是否值得它潛在的報酬？&lt;/strong&gt;不值得。&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;3.YouTube&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;我在一開始架設部落格的時候，就曾經想過要拍攝說書影片，或者製作成動畫版的影片。但後來我考量到製作影片所需要的時間成本太高，也需要更昂貴的設備和剪輯軟體，因此作罷。直到我創立了Podcast節目「下一本讀什麼」，才重新檢查自己的想法，盤點當時市場上的情況。最後我決定將Podcast說書音頻轉換成靜態版的YouTube影片，這個方式所花費的時間與金錢成本極低，又能夠滿足部分聽眾喜歡用YouTube收聽的需求。我用放棄框架來思考：&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;▪&lt;strong&gt;正在想是否放棄它？&lt;/strong&gt;是。&lt;br/&gt;▪&lt;strong&gt;為什麼你想放棄它？&lt;/strong&gt;製作影片的時間和金錢成本太高。&lt;br/&gt;▪&lt;strong&gt;這個挑戰是否值得它潛在的報酬？&lt;/strong&gt;值得，因為YouTube是世界第二大的搜尋引擎。我採取「Podcast靜態影片」的方式來解決。&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;&lt;span style="font-size: larger;"&gt;&lt;strong&gt;如何決定繼續做下去？&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;任何一項新的計畫，必須在執行之後定期檢查成效，然後決定下一步的行動。接下來分享一個PDCA成功的案例。&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;我從2022年開始嘗試一種新的貼文「每日小筆記」，白色背景搭配黑色純文字的150到250字短文筆記。由於有讀者很好奇我每天都做了哪些筆記？我所謂的持續做筆記是什麼意思？所以我就向讀者公布一個新的計畫：「接下來我每天都會貼一則筆記。」除了直接分享我的最新筆記之外，也希望達成長期的複利效應，讓創作的內容可以接觸到更廣大的讀者，對自己也是一個額外的驅動力，讓我保持每天撰寫筆記的習慣。&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;那麼，執行這個計畫的一個月過後，成效如何呢？檢查實際的數據發現，除了我在社群平台上面的舊發文排程之外，我從2022年3月27日開始每天多發表一篇小筆記，累積28天之後，獲得了下面的成果：&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;▪&lt;strong&gt;Facebook&lt;/strong&gt;：觸及人數增加了85.4％。&lt;br/&gt;▪&lt;strong&gt;Instagram&lt;/strong&gt;：觸及人數增加了519.2％。&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;&lt;img alt="" height="1067" src="https://static.ettoday.net/images/6794/e6794452.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;&lt;strong&gt;▲ 作者從2022年開始嘗試一種新的貼文「每日小筆記」，白色背景搭配黑色純文字的150到250字短文筆記。（圖／翻攝自Instagram／ @readingoutpost）&lt;/strong&gt;&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;接著，我進一步分析這兩種社群媒體的差異，因為我在Facebook的貼文數量比較多，所以每日小筆記的貢獻程度，稍微少了一點，但還是帶來了接近一倍的成長。而Instagram的發文數量比較少，所以新增了每日小筆記之後，觸及人數竟然暴增了五倍以上。&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;這套方法，除了增加社群平台的觸及率之外，對我而言，最有收穫的就是促使我每天都要寫出一些東西，等於是另類的寫作儀式。這使我必須保持文字的敏銳度，持續思考、聯想、探究不同想法之間的關係，讓我保持創作的手感。&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;當我們透過檢查，發現數據支持了自己的計畫，接下來要做的就是，繼續保持執行的紀律。我始終相信，微小的改變，能帶來巨大的成果。&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;&lt;span style="font-size: larger;"&gt;&lt;strong&gt;放棄和半途而廢的差別&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;最後，我想特別提醒一件事情，那就是放棄和半途而廢，是天差地遠的兩件事。&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;放棄是當我們實際採取行動、多方嘗試、檢視結果之後，做出深思熟慮的決定。&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;適當的放棄並不是代表我們很弱，只是表示我們把寶貴的時間、精力，用在真正重要的事情上面。&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;半途而廢是當我們用半吊子的態度去執行，漫不經心地用感覺和情緒做出的決定。半途而廢的人並沒有想清楚，自己真正想要的是什麼。他們把時間和精力，用在其他根本不重要的事情上面。&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;放棄是一種選擇，是堅持過後才瀟灑放手的美德。半途而廢是一種放任，是漫無目的地自以為灑脫。&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;因此，我們不需要一開始就把「刻意練習」或「恆毅力」奉為圭臬，覺得放棄的人就是懦弱或魯蛇。我們要的事情其實很明確，就是事前的規劃和實際的執行，透過自己累積的經驗和數據，發展出更為敏銳的直覺，知道哪些事情是不值得堅持的。&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;只有放棄那些不重要的事情，才能聚焦於真正重要的事，挖掘出值得堅持到底的事。&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;&lt;img alt="" height="807" src="https://static.ettoday.net/images/6794/e6794020.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;&lt;strong&gt;▲ 瓦基（莊勝翔）著，《只工作、不上班的自主人生》，天下文化。（圖／天下文化）&lt;/strong&gt;&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;&lt;strong&gt;● 本文獲出版社授權，轉載自《&lt;/strong&gt;&lt;span style="color: rgb(0, 0, 0);"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;a color:="" href="https://www.books.com.tw/products/0010942462?sloc=main"&gt;&lt;strong&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;只工作、不上班的自主人生&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;strong&gt;》。以上言論不代表本網立場，歡迎投書《雲論》讓優質好文被更多人看見，請寄editor88@ettoday.net，本網保有文字刪修權。&lt;/strong&gt;&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;&lt;strong&gt;&lt;strong&gt;&lt;strong&gt;&lt;strong&gt;&lt;span style="font-size: larger;"&gt;熱門點閱》&lt;/span&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;&lt;strong&gt;&lt;strong&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;a href="https://forum.ettoday.net/news/2416942"&gt; &lt;strong&gt;&lt;strong&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;►黃介正／台灣沒事　日本沒事&lt;/span&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/a&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;&lt;strong&gt;&lt;strong&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;a href="https://forum.ettoday.net/news/2419720"&gt; &lt;strong&gt;&lt;strong&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;►間歇性斷食難以改變身體組成　反而恐讓肌肉流失&lt;/span&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/a&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;&lt;strong&gt;&lt;strong&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;a href="https://forum.ettoday.net/news/2419713"&gt; &lt;strong&gt;&lt;strong&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;►黑田東彥為下任總裁鋪路　日本須慎防墜入通縮陷阱&lt;/span&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/a&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p style="text-align: justify;"&gt;&lt;strong&gt;&lt;strong&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;a href="https://forum.ettoday.net/news/2419716"&gt; &lt;strong&gt;&lt;strong&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;►如何安排你的錢？　德國金融專家建議的完美財產配置&lt;/span&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/a&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;記者蔡宜芳／綜合報導&lt;/p&gt;, &lt;p&gt;女星Gigi（林如琦）2015年與史丹利結婚，夫妻相處甜蜜，也經常分享一起出門旅行的點滴。Gigi 28日才透露和丈夫一起飛到日本長野遊玩，不料，今（29日）卻傳出當地滑雪場雪崩，引許多人擔心他們的安危，對此，Gigi 晚間在社群發文，除了分享旅遊心得，也順道報平安。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼Gigi長野滑雪報平安。（圖／翻攝自Instagram／Gigi Lin 林如琦）" height="450" src="//cdn2.ettoday.net/images/6825/d6825933.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲Gigi和史丹利近日到日本長野遊玩。（圖／翻攝自Instagram／Gigi Lin 林如琦）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;Gigi昨日（28日）一早就和史丹利飛到日本，並自駕前往長野旅遊，她29日晚間更新動態，透露因為太興奮，很早就起床出門去滑雪，「疫情前的最後一趟也是來到這，有種想要扳回一局的感覺，但事實上過了三年，阿雞也老了，腿好沒力喔……原來過動兒如我的也有這天啊……」不過她還是打算要再去另一個雪場繼續玩。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼Gigi長野滑雪報平安。（圖／翻攝自Instagram／Gigi Lin 林如琦）" height="625" src="//cdn2.ettoday.net/images/6825/6825930.jpg" width="500"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲▼Gigi分享在長野滑雪的照片。（圖／翻攝自Instagram／Gigi Lin 林如琦）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;img alt="▲▼Gigi長野滑雪報平安。（圖／翻攝自Instagram／Gigi Lin 林如琦）" height="375" src="//cdn2.ettoday.net/images/6825/d6825931.jpg" width="600"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;不過，長野縣小谷村29日驚傳發生雪崩事故，至少10多人在海拔約2100公尺高度被埋，網友為此紛紛在Gigi的貼文下留言關心，對此，Gigi則說道：「這篇其實也是一個平安文！收到好多關心的簡訊。」表示自己和史丹利都很平安。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼Gigi長野滑雪報平安。（圖／翻攝自Instagram／Gigi Lin 林如琦）" height="195" src="//cdn2.ettoday.net/images/6825/d6825928.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲▼Gigi表示目前和史丹利一切平安。（圖／翻攝自Instagram／Gigi Lin 林如琦）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;img alt="▲▼Gigi長野滑雪報平安。（圖／翻攝自Instagram／Gigi Lin 林如琦）" height="892" src="//cdn2.ettoday.net/images/6825/6825929.jpg" width="500"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;【Gigi全文】&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;可能是太興奮了，早上6點沒有調鬧鐘，就自己醒來，史蛋7點多起床整個嚇到，畢竟前一天很早起床坐飛機也沒什麼睡&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;到底怎麼了？應該是被這美景呼喚著，然後就捨不得浪費地起來準備出門。早上打開窗簾，看到的就是這樣，真的是很幸運也很幸福。這樣的白色景色我一輩子都看不膩吧！&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;這趟我們選了長野的湯田中住宿，疫情前的最後一趟也是來到這，有種想要扳回一局的感覺，但事實上過了三年，阿雞也老了，腿好沒力喔……原來過動兒如我的也有這天啊……（還是真的太久沒有這種強度的運動了，畢竟我們這幾年實在太懶）其實～選這裡最主要的原因是，可以很自由移動啦！長野很多不錯的雪場，離這都只有不到一個小時的車程範圍～&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;我們今天去了斑尾高原，開車過去差不多40分鐘。首次的探訪很讚，是個很棒的雪場，地形很豐富，樹林的變化也多！滑超爽！我們這幾天還想再去好好玩玩～&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;明天應該會去另外一個雪場吧！早上起來再來看狀況決定，現在的日本9:25，快斷電要來去睡了～ 晚安&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;阿雞雪衣 The North Face Taiwan&lt;br/&gt;其他裝備 ALL RIDE  SKATE/SURF/SNOW&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;#雞史日常 #阿雞史蛋 #日本 #旅行 #長野 #斑尾高原スキー場 #snowboarding&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;iframe allow="autoplay; clipboard-write; encrypted-media; picture-in-picture; web-share" allowfullscreen="true" frameborder="0" height="782" scrolling="no" src="https://www.facebook.com/plugins/post.php?href=https%3A%2F%2Fwww.facebook.com%2Fgigilinjuchi%2Fposts%2Fpfbid0nRZt4UNcjci4sRtNeQxe2jnxcsAGJCXckbPGKBHvrrycPDkhr7AJ6m5yjjjpciDHl&amp;amp;show_text=true&amp;amp;width=500" style="border:none;overflow:hidden" width="500"&gt;&lt;/iframe&gt;&lt;/p&gt;, &lt;p&gt;&lt;a href="https://www.ettoday.net/news/20230129/2429771.htm" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;►顏佑庭重返《營業中》認「起初很難過」　曝錄影真實情況：真有差&lt;/strong&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;, &lt;p&gt;&lt;a href="https://www.ettoday.net/news/20230129/2429760.htm" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;►徐凱希合體黑澀會美眉　17年友誼都沒變：不要再說演藝圈複雜&lt;/strong&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;, &lt;p&gt;&lt;a href="https://www.ettoday.net/news/20230129/2429726.htm" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;►吳淡如買菜遇蛇…老家後院「藏36隻龜殼花」　網驚：難怪出狀元！&lt;/strong&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;, &lt;p&gt;&lt;span style="color: rgb(255, 102, 0);"&gt;&lt;strong&gt;&lt;span style="font-size: medium;"&gt;&lt;a href="https://fugo.ehsn.com.tw/fugoOrder/prod?k=zd46J&amp;amp;data=l3HbXgwKHQ1iDCdng0KfLpqEfZ8I4EjReDFqwWMQiACDwGezrFVDS5YwzzeK9mxL4Pjmj8YkiDu7_M2I9JYubg" target="_blank"&gt;&lt;span style="color: rgb(255, 102, 0);"&gt; &lt;/span&gt;&lt;span style="font-size: medium;"&gt;&lt;span style="color: rgb(51, 51, 51);"&gt;&lt;span style="background-color: rgb(255, 255, 153);"&gt;►囤貨最佳時機！150抽「蒲公英環保衛生紙」只要13元 讓媽媽抽到手抽筋&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼英國保守黨主席查哈威（Nadhim Zahawi）。（圖／路透）" height="400" src="//cdn2.ettoday.net/images/6825/d6825935.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲英國保守黨主席查哈威（Nadhim Zahawi）稅務問題可追溯至2000年。（圖／路透）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;中央社&lt;/p&gt;, &lt;p&gt;英國首相蘇納克今天解除保守黨主席查哈威的政府職務，在高昂生活費讓數以百萬計人民痛苦不堪之際，查哈威對自身稅務問題含糊其辭，讓蘇納克政府成為眾矢之的。&lt;/p&gt;, &lt;p&gt;綜合法新社與路透社報導，英國政府表示，針對富豪查哈威（Nadhim Zahawi）的稅務調查發現，他「嚴重違反大臣守則（Ministerial Code）」，而他的稅務問題可追溯至2000年創辦民調公司輿觀（YouGov）時。&lt;/p&gt;, &lt;p&gt;蘇納克（Rishi Sunak）在致盟友查哈威的信中表示：「因此，我通知您，我決定解除您在國王陛下政府內的職位。」這封信已經對外公開。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼英國首相蘇納克（Rishi Sunak）。（圖／路透）" height="400" src="//cdn2.ettoday.net/images/6825/d6825936.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲英國首相蘇納克（Rishi Sunak）。（圖／路透）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;在強生（Boris Johnson）與特拉斯（Liz Truss）先後辭任首相後，蘇納克將近100天前入主唐寧街首相府，當時他任命查哈威擔任保守黨主席以及無任所大臣（minister without portfolio）。&lt;/p&gt;, &lt;p&gt;蘇納克就任時曾經承諾，各級政府將會實現「正直、專業和問責」。&lt;/p&gt;, &lt;p&gt;然而查哈威案，以及副首相拉布（Dominic Raab）被公務員控訴霸凌，已經使得蘇納克恢復民眾對保守黨信心的努力受到傷害。&lt;/p&gt;, &lt;p&gt;蘇納克新任命的獨立道德顧問馬格諾斯（Laurie Magnus）調查發現，查哈威被英國稅務當局調查時，實際上對接連幾任保守黨魁說謊。&lt;/p&gt;, &lt;p&gt;查哈威去年9月才解決稅務問題，他因遲繳，據報挨罰500萬英鎊（約新台幣1億8730萬元），而他7月就開始在強生手下擔任財政大臣。&lt;/p&gt;, &lt;p&gt;但查哈威在申報部長利益衝突時，卻沒揭露這筆罰款，直到本月才被報社踢爆。他還曾試圖要記者和一名稅務顧問閉嘴，揚言會控告他們誹謗。&lt;/p&gt;, &lt;p&gt;查哈威說，稅務機關認定他報稅「不小心」，並非為了少繳稅而故意出錯。但馬格諾斯的報告指出，查哈威的行為不誠實、不坦承、不足為訓。&lt;/p&gt;, &lt;p&gt;在數以百萬計英國人為支付帳單所苦之際，蘇納克決定開除查哈威，而非留點面子請他辭職，凸顯此事在政治上事關重大。&lt;/p&gt;, &lt;p&gt;蘇納克政府正面臨數十年來最熱通膨，以及一波公部門罷工潮。民調顯示，他的政府在預計明年登場的大選前大幅落後對手。&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲部分網友還是覺得電毯存在潛在的危險性，所以選擇羽絨被來取暖。（圖／取自免費圖庫pixabay）" border="1" height="402" src="//cdn2.ettoday.net/images/5389/5389903.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲近日氣溫十分寒冷，不少人會選購禦寒電器。（示意圖／免費圖庫Pixabay）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者柯振中／綜合報導&lt;/p&gt;, &lt;p&gt;近日台灣天氣寒冷，不少人會添購禦寒用品。對此，一名網友購買了電熱毯以後，原先認為不會多好用，沒想到一試成主顧「真的回不去了」，更直言是「冬天最好用的神器」，貼文引起討論後，許多人留言贊同，但同樣也有網友回應，說出自己心目中的「禦寒神器」。&lt;/p&gt;, &lt;p&gt;這名網友在PTT表示，他前兩年買了一床電熱毯，當時花費大約1千多元，因為價格便宜，所以並沒有抱任何期望，「本來覺得應該不會多好用」，沒想到竟然一試成主顧，用過之後完全回不去。&lt;/p&gt;, &lt;p&gt;該名網友提到，自從購買以後，只要天氣變冷，就一定要打開電毯，睡前10分鐘開下去暖床，「整個讓你溫暖到早上不想起來」，而且還能定時，完全不用怕忘記關閉電源，「有沒有電熱毯才是冬天最好用的神器八卦？」&lt;/p&gt;, &lt;p&gt;貼文曝光後，同樣有許多人留言認同，「電熱毯就是天冷續命的」、「電毯是能量用在刀口上的器具呀」、「真的，自從冬天去韓國體驗電熱毯後驚為天人」、「躺平族專用。」&lt;/p&gt;, &lt;p&gt;不過，同樣有人認為，還是暖氣機比較重要，畢竟電熱毯只能暖床，而暖氣能讓整個室內變得溫暖，「原本超好用，但裝分離冷暖就用不到了」、「冷暖才好用，換季又不用收納」、「是不會裝冷暖氣機嗎…？電熱毯只熱床跟被窩，你是打算躺多久？」&lt;/p&gt;, &lt;p&gt;&lt;a href="https://bit.ly/30PqltT\" target="“_blank"&gt;&lt;span&gt; &lt;/span&gt;►按這訂閱Podcast《小編沒收工》每天熱門話題聊不完&lt;/a&gt;&lt;/p&gt;, &lt;p&gt;&lt;iframe allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen="" frameborder="0" height="315" src="https://www.youtube.com/embed/bxajyI0GWRg" title="YouTube video player" width="560"&gt;&lt;/iframe&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;圖文／7Car 小七車觀點&lt;/p&gt;, &lt;p&gt;DFSK宣布將在今年於西班牙市場導入Glory 500休旅車，編成分為Luxury與Intelligent兩款，可搭配1.5升汽油動力或加裝LPG液化石油氣系統，車系建議售價將介於23,695~27,919歐元起（約合新台幣77.5~91.4萬元起）。&lt;/p&gt;, &lt;p&gt;&lt;img alt="" height="480" src="//cdn2.ettoday.net/images/6817/6817397.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;Glory 500為DFSK在2020年北京車展正式發表的全新休旅作品Glory 500，其外觀造型與電動車產品Glory E3相似，車頭配置大面積橫向格柵水箱罩，軸距為2,655mm，車寬為1,850mm。&lt;/p&gt;, &lt;p&gt;&lt;img alt="" height="400" src="//cdn2.ettoday.net/images/6817/6817398.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;img alt="" height="400" src="//cdn2.ettoday.net/images/6817/6817399.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;配備方面，Glory 500在Luxury等級擁有LED日行燈、自動啟閉頭燈、鋁合金輪圈、電動調整附收折車外後視鏡、6具 SRS輔助氣囊、行車電腦、冷暖空調系統、四門電動窗、緊急煞車輔助系統、定速巡航與限速系統、遙控中控鎖、倒車雷達、藍牙連結、多媒體觸控螢幕、駕駛座椅電動高度調整，而Intelligent等級增加駕駛座電動傾斜角度及前後滑移調整功能、後座手動前後滑移調整功能、前停車雷達及電熱車外後視鏡。&lt;/p&gt;, &lt;p&gt;&lt;img alt="" height="400" src="//cdn2.ettoday.net/images/6817/6817400.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;img alt="" height="400" src="//cdn2.ettoday.net/images/6817/6817401.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;動力配置方面，Glory 500採用1.5升直列4缸汽油引擎，可輸出約112.4hp最大馬力，搭配CVT無段變速系統與前輪驅動，在WLTP測試標準中具有約12.05km／L的平均油耗數字，行駛每公里平均排放188公克的二氧化碳。&lt;/p&gt;, &lt;p&gt;&lt;img alt="" height="400" src="//cdn2.ettoday.net/images/6817/6817402.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;國內市場方面，目前DFSK總代理合同興販售的車款均為商用小貨車，包含金穩發S2.5t及大穩發S2.5t兩款，至於乘用車則尚未導入，本站將持續追蹤該廠引進新車的消息，敬請留意。&lt;/p&gt;, &lt;p&gt;&lt;img alt="" height="400" src="//cdn2.ettoday.net/images/6817/6817403.jpg" width="600"/&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼元貝總經理游大城與長女執行副總經理游英玉，展示打包器具。（圖／記者陶本和攝）" height="337" src="//cdn2.ettoday.net/images/6825/d6825934.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲元貝總經理游大城與長女執行副總經理游英玉，展示打包器具。（圖／記者陶本和攝）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者陶本和／台北報導&lt;/p&gt;, &lt;p&gt;台灣約有120多萬中小企業，佔企業總數98%，僱用人員佔就業人口77％，堪稱台灣的中流砥柱，不論是馬政府、蔡政府，紓困中小企業都是重中之重。近年來，政府協助中小企業打國際盃，更是主要戰場，創立40年的元貝實業，就以「打包全世界」闖出名號。&lt;/p&gt;, &lt;p&gt;總統蔡英文去年（2022）底接見中華民國第45屆、海外華人第31屆創業楷模暨創業相扶獎得獎人時表示，行政院通過「中小企業整體競爭力提升方案」，從今年開始到2026年，政府要投入950億元預算，以跨部會的力量，強化中小企業的經營韌性。&lt;/p&gt;, &lt;p&gt;談起台灣的中小企業，粗估有120多萬家，佔企業總數98%，僱用人員佔就業人口77％。其中，創立40多年的元貝實業，是設計、生產銷售一條龍的打包界天王，500多品項中，膠帶切台一年可以賣100萬隻，甚至曾經創下一年單一品項出30個貨櫃成績，是台灣一直被點名的中小企業。&lt;/p&gt;, &lt;p&gt;元貝實業是1979年，由游大城與游陳秀滿夫婦聯手創立，起初主要接受貿易商的訂單，幫客戶設計製造產品，除了做鋼帶束緊器、PP帶拉緊器等產品，甚至有陣子還生產聖誕髮箍、榨檸檬機。&lt;/p&gt;, &lt;p&gt;元貝總經理游大城接受《ETtoday新聞雲》記者訪問時說，「運送途中，有很多意想不到的狀況，所以要用值得信賴的團隊」這是FedEx在2009年的廣告，標榜送貨使命必達，然而物流的眉角絕不僅是「運送」過程，「打包」流程常常扮演重要的角色。&lt;/p&gt;, &lt;p&gt;游大城表示，隱藏在貨物買賣與運輸之下，他們則提供重要的「打包器具」，不只圓滿了消費者取貨體驗，也用各式打包機，保護著各大物流出貨品質的商譽。&lt;/p&gt;, &lt;p&gt;游大城說，歐美習慣每個包裝環節都有輔助工具，而元貝正好滿足客戶所有需求，小從台幣五塊錢的多功能切刀，大到一台兩萬元的包裝材料支架，500多項與打包相關的產品，元貝「包」君滿意。&lt;/p&gt;, &lt;p&gt;他也分享一個小故事，曾是因一場專利糾紛，但最後卻奠定元貝日後的打包機地位。那是1980年代有貿易商拿打包機請元貝仿造開模，結果差點被告，請律師來了解協調後才發現是烏龍一場，因此元貝後續產品都相當重視研發專利。&lt;/p&gt;, &lt;p&gt;游大城指出，元貝早期客源以貿易商居多，佔整體的85%。然而因為貿易商居中賺差價，他當時不滿意這種經營模式，於是成立海外銷售部門，四個孩子留美歸國後也協助外銷工作，目前貿易商只佔總體營業額的15%。&lt;/p&gt;, &lt;p&gt;他說，元貝在全球的銷售版圖，以北美洲佔最大宗的40%，其次是歐洲的26.3%，反倒是亞洲僅佔14.6%，位居第三。他表示，因為東西方使用習慣差異，造成工具的設計不同，亞洲人習慣用日本生產的，而歐美習慣每個環節都有工具。&lt;/p&gt;, &lt;p&gt;因此，游大城就把腦筋動到產品品項上了。就產品型錄來說，1997年有117項產品，2022年則倍增500多項。因為元貝主打「薄利多銷」，所以增加品項，並逐步達成「一站式購足」的目標，目前是全世界手工打包工具製造商中「品項第一名企業」。&lt;/p&gt;, &lt;p&gt;游大城受訪時表示，他們客戶有郵購/目錄公司、電商公司、品牌企業、進口商與貿易商，還有綑紮帶、膠帶、薄膜、紙捲、氣泡膜等生產包材的製造商，他們會購買元貝商品進行轉賣，「例如3M就是元貝的大客戶」。&lt;/p&gt;, &lt;p&gt;游大城笑著說，三年一次的德國包裝展中，許多客戶站在元貝102平米的攤位前，丈二金剛摸不著頭緒。「請問你們是貿易商嗎？」他們總得解釋，「不，我們是來自台灣的打包工具製造公司。」&lt;/p&gt;, &lt;p&gt;他說，因為元貝的生產項目太多，每次佈展時都被客戶誤以為是貿易商，因為品項太多，印產品型錄時都讓印刷廠大吃一驚。他笑說，連自己小孩子都戲稱他們的型錄比磚頭還重，每次寄出去給客戶都特別頭痛。&lt;/p&gt;, &lt;p&gt;游大城表示，有一次去德國酒莊參觀，因為職業病的關係，看到封箱膠台就特別注意，發現居然也是元貝的產品。他說，「甚至經過倒閉十幾年的觀光工廠，也發現他們的包裝機台是元貝的勒」。&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲被害人配合警方策略，順利釣出車手並逮到詐團收水成員。（圖／記者張君豪翻攝）" height="314" src="//cdn2.ettoday.net/images/6801/d6801918.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲警方偵辦詐團逮捕涉案車手。（圖內犯嫌非本案涉案人／記者張君豪翻攝）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者張君豪／台北報導&lt;/p&gt;, &lt;p&gt;近年政府為嚇阻詐欺犯罪，大幅修法包含《刑法》339條加重詐欺罪、並將詐團納入組織犯罪條例相繩，但台灣詐團因應相關法律研究頗為透徹！第一線車手、收簿人員幾乎都從社群平台上應徵無前科年輕男女，詐團以「無犯罪紀錄」免洗年輕人充當第一線工作人員，規避司法機關追訴，造成成千上萬被害人遭侵吞騙匯的款項積蓄，根本無從追討。&lt;/p&gt;, &lt;p&gt;《東新新媒體ETtoday》去年底接到一位被解除分期付款詐騙的小資女投訴，被害人平日在某間公司當會計，她歷經近一年的開庭，遞狀走法院流程，竟是一毛錢都無法討回；當司法制度無法替被害人討回公道，全台有多少詐騙被害人只能黯然自認倒楣？&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲刑事局宣布破獲一奈及利亞愛情詐騙集團，逮捕淪車手的印尼籍看護。（圖／記者張君豪翻攝）" height="277" src="//cdn2.ettoday.net/images/6802/d6802440.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲警方偵辦詐團逮捕涉案車手。（圖內犯嫌非本案涉案人／記者張君豪翻攝）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;桃園一上班族C女2021年9月晚間接獲詐團電話，對方聲稱她網路購物因付款設定錯誤，對方請她操作網銀或ATM解除設定，被害人因情緒緊張誤判，在短短半小時內會出多筆款項到詐團指定的人頭帳戶內，女被害人事後發現遭騙匯逾30萬元，無奈報警求助。&lt;/p&gt;, &lt;p&gt;警方根據被害人提供的帳戶資料，立刻將涉案人頭帳戶凍結，並根據多筆人頭帳戶的提領資料，鎖定當時住在台南、新北的2名的少年車手（16歲）及設籍桃園市，提供詐團人頭帳戶的兩名女子到案說明。&lt;/p&gt;, &lt;p&gt;未料開庭過程竟是被害人惡夢開端，原來領走被害人積蓄的未成年車手，檢察官《少年事件處理法》67條《刑法》57條相關規定，將少年車手移送少年法院處保護處分裁定不起訴，被害人透過律師依《民法》187條，請求少年監護人負擔連帶損害賠償財損。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼高市刑大偵破假投資詐欺集團！車手黑吃黑反遭同夥拘禁。（圖／記者許展溢翻攝）" height="338" src="//cdn2.ettoday.net/images/6804/d6804400.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲警方偵辦詐團逮捕涉案車手。（圖內犯嫌非本案涉案人／資料畫面）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;結果法院開庭調查，發現車手係單親家庭，目前由母親獨力撫養，加上母親有輕度智力障礙領有身心障礙手冊、兼之名下無財產無法求償，法官建議被害人逕行提出民事侵權損害賠償告訴，但經查車手及家人名下均無恆產，被害人歷經1年多走法院流程，僅獲得法院簡易庭民事裁定書一張，被詐騙損失則是一毛都拿不回來。&lt;/p&gt;, &lt;p&gt;儘管警方偵辦該詐騙案相當盡責，連兩名提供多筆人頭帳戶的涉嫌女子經約談後依詐欺罪幫助犯嫌移送，兩嫌提供的多筆帳戶供詐團行騙達20多名被害人匯款入帳，兩女嫌到案後喊冤辯稱是因看網路廣告求職，才會應徵交付帳戶存摺、金融卡及提款密碼。結果兩名提供帳戶幫詐團遂行犯罪的幫助犯，均遭檢察官認定是善意不知情第三人，職權裁定不起訴。&lt;/p&gt;, &lt;p&gt;包含小資女在內的多名被害人收到處分書後聲請再議，被害人痛批：提供帳戶犯嫌辯路應徵工作、辦貸款提供財力證明，根本不是一般求職、辦理貸款銀行授信正常流程，且對方專程把帳戶、金融卡，帳密等資料送到車站行李箱放置，再寄出鑰匙供詐團收簿手領取，認為對方「應徵工作辦貸款」等理由根本就是卸責之詞，但地檢署檢察長仍駁回再議，公文只有一句冷冰冰的「認無理由」&lt;/p&gt;, &lt;p&gt;當事人遭遇解除分期付款詐騙，事後報警求助、製作筆錄，多次上班請假跑台南、桃園等地方法院、地檢署開庭，歷經一年的努力追訴，換來的只有犯案車手及家屬免責，提供人頭帳戶則無罪；被害人事後只能黯然安慰自己努力工作多賺點錢弭補損失，及加深對人性、司法制度的不信任；上述詐騙案件中，詐團騙匯造成多名被害人財損身心煎熬，卻無任何人需要對事件負責，相信這樣的司法制度，大多數人都看不懂。&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼發泡錠,資料照。（圖／記者洪巧藍攝）" height="442" src="//cdn2.ettoday.net/images/3770/d3770283.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲發泡錠喝多恐傷身！營養師列5挑選原則。（圖／資料照／記者洪巧藍攝）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者嚴云岑／台北報導&lt;/p&gt;, &lt;p&gt;不少外食族會買發泡錠補充維生素，但也有民眾擔心每天喝一杯是否會「補過頭」？對此，營養師表示，發泡錠中經常添加色素、香料與甜味劑，民眾可依5原則挑選適合自己的發泡錠，以免喝多反傷身。&lt;/p&gt;, &lt;p&gt;聯安診所營養師凃淑芬表示，發泡錠適合的族群包括不喜歡吃膠囊錠劑的人、有吞嚥困難的人與兒童，比起含糖飲料，能補更快充水份、營養，也成了現代人的寵兒。&lt;/p&gt;, &lt;p&gt;不過，她也提醒民眾，飲用發泡錠飲品時要注意，發泡錠中常常被添加很多食品添加物、色素、香料以及甜味劑，因此喝多了恐會傷身。&lt;/p&gt;, &lt;p&gt;為了方便民眾天選發泡錠，凃淑芬也列出發泡錠等保健食品挑選五原則，分別為：&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;1. 依健康狀況選擇：&lt;/span&gt;&lt;/strong&gt;依照體檢狀況和身體需求做選擇&lt;br/&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;2. 選擇適合劑型：&lt;/strong&gt;&lt;/span&gt;選擇自己可以接受的劑型&lt;br/&gt;&lt;strong&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;3. 劑量尋求專業建議：&lt;/span&gt;&lt;/strong&gt;依據醫師跟營養師的建議吃足劑量，不任意增減食用量&lt;br/&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;4. 同功能擇一補充：&lt;/strong&gt;&lt;/span&gt;相同功能的產品擇一補充不重複，比如已經有在食用深海魚油，就不需要再吃亞麻油&lt;br/&gt;&lt;strong&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;5. 注意食用時機：&lt;/span&gt;&lt;/strong&gt;注意是飯前或飯後食用，像維生素A、D、E、葉黃素以及深海魚油這些脂溶性營養素適合擺在餐後吃。&lt;/p&gt;, &lt;p&gt;最後，凃淑芬提醒大家，民眾若真的希望對症下「補」，可安排抗氧化維生素分析檢查，進一步了解自身體內營養素的狀況，並依身體所需要的比例，才能選到最適合自己的保健食品。&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="資深男星丁強27日辭世，享壽86歲。（本刊資料照）" src="//cdn2.ettoday.net/images/6825/d6825922.jpg"/&gt;&lt;b&gt; &lt;/b&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲資深男星丁強27日辭世，享壽86歲。（圖／鏡週刊）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;圖文／鏡週刊&lt;/p&gt;, &lt;p&gt;曾獲得金鐘獎最佳單元劇男主角獎的資深演員丁強，傳出在大年初六（27日）逝世，享壽86歲。與丁強結縭52年的妻子李璇不希望勞師動眾，怕打擾大家，因此決定不為丁強舉辦告別式，預計在2月4日火化，擇日樹葬送別丁強。&lt;/p&gt;, &lt;p&gt;&lt;b&gt; &lt;/b&gt;&lt;/p&gt;, &lt;p&gt;丁強1936年出生於中國浙江，1949年隨父親來台定居，1961年開始演員之路，演過無數電視、電影作品，也參演舞台劇。丁強與同為演員的妻子在1971年結婚，隨後他轉往幕後工作，擔任製作人和導演，一度淡出螢光幕。2001年接演曹瑞原導演的電視電影《記住 忘了》，獲得金鐘獎單元劇最佳男主角獎（現改為迷你劇集／電視電影男主角獎）。&lt;/p&gt;, &lt;p&gt;丁強2003年參演曹瑞原導演翻拍白先勇經典小說作品《孽子》，演活了在新公園中帶領一眾年輕男孩的「楊教頭」，讓人印象深刻。2014年、2020年，曹瑞原再將《孽子》搬上舞台劇，丁強則改演「傅老爺子」一角，持續參與演出。事實上，丁強近幾年參演的作品眾多，2021年還與妻子李璇一同演出電視劇《火神的眼淚》中的老夫妻，最近期演出的則是去年歌手李玖哲的歌曲〈從來沒愛錯〉MV。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲丁強分別演出過《孽子》電視劇版的「楊教頭」和舞台劇版的「傅老爺子」。（圖／鏡週刊）&lt;/strong&gt;&lt;strong&gt;&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;綜合媒體報導，丁強15日在家中跌倒後送醫治療，沒想到好不容易過了年關，卻在27日中午辭世，享壽86歲。經紀人說，丁強生前最放不下的就是老婆李璇，希望大家可以幫忙照顧她。李璇的經紀人也說，為了不想打擾大家，她決定不為丁強辦公祭，但若有親朋好友想前往祭拜，他們已在中壢殯儀館設置靈堂。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲丁強（右起）、李璇特別客串《火神的眼淚》，演出感情深厚令人動容的老夫婦。（圖／myVideo提供）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;據悉，丁強的3名子女將從美國返台送父親最後一程，李璇也為丁強挑好遺照，預計2月4日火化後將選擇樹葬，地點可能會在楊梅或陽明山，希望用簡單平靜的方式為他送別。&lt;/p&gt;, &lt;p&gt;&lt;br/&gt;&lt;br/&gt;&lt;br/&gt;更多鏡週刊報導&lt;br/&gt;&lt;a href="https://www.mirrormedia.mg/story/20230124edi002?utm_source=feed_related&amp;amp;utm_medium=ettoday"&gt;阿滴除夕突痛風「手肘腫大」　取消赴新加坡過年急就醫&lt;/a&gt;&lt;br/&gt;&lt;a href="https://www.mirrormedia.mg/story/20221015edi001?utm_source=feed_related&amp;amp;utm_medium=ettoday"&gt;「海格」辭世！演活《哈利波特》人氣夯角　羅比寇特蘭享壽72歲&lt;/a&gt;&lt;br/&gt;&lt;a href="https://www.mirrormedia.mg/story/20230111edi066?utm_source=feed_related&amp;amp;utm_medium=ettoday"&gt;「我叫你吹」假警察來電亂下指令！數十人受害　超離奇性侵案凶手竟全身而退&lt;/a&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼情侶,牽手。（圖／翻攝自Pixabay）" height="338" src="//cdn2.ettoday.net/images/6780/d6780234.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲對水瓶座適時保持一些距離會讓他更想念你。（示意圖／取自免費圖庫Pixabay）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;生活中心／綜合報導&lt;/p&gt;, &lt;p&gt;當喜歡一個人的時候，總希望對方也可以主動想起你。其實有時候，他的不在意也許只是高冷的偽裝，&lt;a href="https://horofriend88.com/116352.html" target="_blank"&gt;《星座好朋友》&lt;/a&gt;為大家整理出不同星座該如何應對，反而能讓他更加想到你呢，趕快一起來看看。&lt;/p&gt;, &lt;p&gt;&lt;span style="color: rgb(255, 0, 0);"&gt;&lt;strong&gt;不過分依賴他，更不要黏著他&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;, &lt;p&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;代表星座：天蠍座、處女座、射手座、水瓶座&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;, &lt;p&gt;戀愛的時候會想黏著對方都是理所當然，適時的依賴會讓對方有種被需要的感覺，也可以滿足對方一點小小的虛榮心。但如果想要讓這些星座主動想起你，那一定要克制住自己想依賴他的心。面對處女座和天蠍座，他們本身佔有欲很強，所以當你不主動去找他，他就會心裡很介意，不管再怎麼高冷，都會自己主動去找你。而射手跟水瓶本身比較愛玩一點，也很在意愛情裡有沒有自己的空間，可當你越不在意他們，你也開始有了自己的空間，他們反而就會想到你了。&lt;/p&gt;, &lt;p&gt;&lt;img alt="上網,行動上網,在家,滑手機（圖／取自免費圖庫pakutaso）" height="400" src="//cdn2.ettoday.net/images/5677/d5677245.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲對雙子座不要過度聯絡，反而容易激起他的好奇心。（示意圖／取自免費圖庫Pakutaso）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;span style="color: rgb(255, 0, 0);"&gt;&lt;strong&gt;不要太過勤奮回覆訊息&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;, &lt;p&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;代表星座：牡羊座、雙子座、天秤座、雙魚座&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;, &lt;p&gt;當你喜歡一個人，當然會忍不住想要聯繫他，希望無時無刻都可以得到他的消息跟近況；如果不聯繫，好像隨時就會失去他。但是有時候當你越主動，你的主動就顯得越沒價值，你越主動，對方就會覺得你沒有他不行，所以反而就會對你越被動了。所以面對這些星座，想讓他們主動想起你，就必須克制想聯絡他們的欲望，雖然你會很難受，但是他們沒有你的聯繫，就會突然想到妳怎麼好像突然不見了，這次就換他們主動來聯絡你。&lt;/p&gt;, &lt;p&gt;&lt;span style="color: rgb(255, 0, 0);"&gt;&lt;strong&gt;他對你冷淡，你更要冷回去&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;, &lt;p&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;代表星座：金牛座、巨蟹座、獅子座、魔羯座&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;, &lt;p&gt;有很多人就是比較傲嬌一點，你越是對他好，他就越要擺姿態給你看，因為覺得你沒有他們不行，所以就越愛欺負你。如果是做了一些讓你傷心難過的事，他們也不會覺得愧疚，你對他越好，他好像就越不珍惜，反而還會對你更冷漠。可是如果要讓他們主動來接近你，那麼在他們對你冷淡的時候，你也試著別那麼在乎他們；如果他們開始意識到你也會對他們冷淡，他們腦海中就會開始浮現你的好，學會好好珍惜你、寵愛你。&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼ HBL,光復高中,張聿嵐     。（圖／高中體總提供）" height="450" src="//cdn2.ettoday.net/images/6792/d6792459.jpg" width="478"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲ HBL光復高中。（圖／高中體總提供）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者鍾東穎／綜合報導&lt;/p&gt;, &lt;p&gt;111學年度HBL高中籃球聯賽男、女子8強賽將在2月12至19日，於板橋體育館和新莊體育場兩地開打，今年男子8強和上屆僅有一隊不同，三重商工取代錦和高中相隔10年重返8強，衛冕軍光復高中成唯一預賽加複賽8連勝晉級隊伍，展現連霸企圖心。&lt;/p&gt;, &lt;p&gt;光復上屆有「最強高中生」陳將双領軍，勇闖台北小巨蛋決賽，最後擊敗傳統強權泰山高中、南山高中，勇奪隊史首座HBL冠軍，本屆少了陳將双和張俊生兩位主力，改靠205公分的鄭名斈和隊史首位新人王謝銘駿站出來，拿下預賽3連勝及複賽5連勝，且這8戰場均可得95分居男隊之冠，還淨勝29.5分，輕鬆挺進8強。&lt;/p&gt;, &lt;p&gt;光復在A組領頭，和高苑工商（4勝1負）、東泰高中（3勝2負）率先搭上北返8強列車，上屆亞軍南山高中預賽3連勝，但複賽不敵能仁家商和松山高中，不過仍以B組第3（3勝2負）和前兩者攜手提前晉級。&lt;/p&gt;, &lt;p&gt;泰山高中在109學年度勇奪隊史首冠，但經歷奪冠主力畢業陣痛期，去年跌跌撞撞撐到最後4強，今年更是走得顛頗，落到外卡賽，擊敗南湖高中才搭上末班車。另一組，三重商工則上演驚奇，以75比70力退成功高中，10年前以球員身份晉級的周敬，10年後執掌兵符再次帶領三重打進8強。&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;iframe allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen="" frameborder="0" height="315" src="https://www.youtube.com/embed/iT3ZOk9Dvbw" title="YouTube video player" width="560"&gt;&lt;/iframe&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲影片來源：YouTube／TOYOTA GAZOO Racing&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;實習記者金奇／綜合報導&lt;/p&gt;, &lt;p&gt;AE86作為TOYOTA經典車款，在許多車迷心中都占有一席之地，尤其是作為漫畫「頭文字D」主角藤原拓海的愛車，更是讓它即使已誕生40年仍備受追捧。而在今年的東京改裝車展上，TOYOTA GR部門更是打造了兩款AE86概念車，不但換上了純電動力系統，還直接將目前積極開發的氫燃料引擎換上，讓這輛經典車款再次出現在車迷眼前。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲Toyota AE86換上純電、氫能源動力。（圖／翻攝自Toyota）" height="400" src="//cdn2.ettoday.net/images/6811/6811555.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲Toyota AE86換上純電、氫能源動力。（圖／翻攝自Toyota）" height="400" src="//cdn2.ettoday.net/images/6811/6811559.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲Toyota AE86換上純電、氫能源動力。（圖／翻攝自Toyota）" height="400" src="//cdn2.ettoday.net/images/6811/6811558.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲使用氫燃料動力AE86 H2概念車是基於Trueno車型進行改裝而成。（圖／翻攝自TOYOTA）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;使用氫燃料動力AE86 H2概念車，是基於Trueno車型進行改裝而成，因此在車頭處擁有經典的掀燈設計，動力來自搭載原車配備的4A-GEU自然吸氣引擎，不過為了符合氫燃料系統的規格，其噴油嘴、燃油管和火星塞都經過重新打造，車尾搭載2組Mirai的儲氫罐。儘管這輛車採用新能源作為動力，但TOYOTA表示引擎聲浪以及震動感受與原本的引擎完全相同，讓駕駛仍可享受傳統燃油引擎的駕馭感受。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲Toyota AE86換上純電、氫能源動力。（圖／翻攝自Toyota）" height="400" src="//cdn2.ettoday.net/images/6811/6811552.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲Toyota AE86換上純電、氫能源動力。（圖／翻攝自Toyota）" height="400" src="//cdn2.ettoday.net/images/6811/6811548.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲Toyota AE86換上純電、氫能源動力。（圖／翻攝自Toyota）" height="400" src="//cdn2.ettoday.net/images/6811/6811549.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲採用純電動力的AE86 BEV是使用Levin車型進行改造，同時配備手排變速箱維持駕駛樂趣。（圖／翻攝自Toyota）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;至於另一輛採用純電動力的AE86 BEV是使用Levin車型進行改造，並將原有的引擎移除，換成源自於Tundra車系的電動馬達以及Prius的電池模組，搭配Lexus的純電技術。同時也配備了電動車不常見的傳統手排設定，在保持車身輕量化及前後配重平衡的情況之下，也維持了原本的駕駛樂趣。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲Toyota AE86換上純電、氫能源動力。（圖／翻攝自Toyota）" height="400" src="//cdn2.ettoday.net/images/6811/6811557.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲Toyota AE86換上純電、氫能源動力。（圖／翻攝自Toyota）" height="400" src="//cdn2.ettoday.net/images/6811/6811550.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲保留經典設計的內裝同樣也使用了可再生材料製成。（圖／翻攝自Toyota）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;這兩款概念車不僅僅是動力上使用了環保系統，就連保留經典設計的車內，也同樣採用了可再生材料製成的安全帶和座椅來強調環保理念。不過可惜的是目前AE86 BEV及AE86 H2並沒有量產的計畫，僅作為今年東京改裝車展上獨特的展品。 &lt;/p&gt;, &lt;p&gt;&lt;a href="https://speed.ettoday.net/news/2423800p&amp;gt;?from=fb_et_extd" target="_blank"&gt;&lt;strong&gt;►「TOYOTA 7人座小休旅」今年見！對手劍指HONDA BR-V　採1.5引擎&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;, &lt;p&gt;&lt;a href="https://speed.ettoday.net/news/2423742p&amp;gt;?from=fb_et_extd" target="_blank"&gt;&lt;strong&gt;►「LEXUS全新概念休旅」成主菜壓軸！與RX、GX新車一同現身拚人氣&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;, &lt;p&gt;&lt;a href="http://bit.ly/3atsmhu" target="_blank"&gt;&lt;span style="color: rgb(255, 102, 0);"&gt;&lt;strong&gt;►點我聽《尚恩帶你上車》買車開車玩車養車都好聽&lt;/strong&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲2023年經典賽中華隊總教練林岳平。（圖／中華職棒提供）" height="430" src="//cdn2.ettoday.net/images/6825/d6825541.jpg" width="600"/&gt;&lt;br/&gt;&lt;strong&gt;▲林岳平。（圖／中華職棒提供）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者陳立勳／斗六報導&lt;/p&gt;, &lt;p&gt;2023年經典賽中華隊今天在斗六開訓，集訓名單共有36人，本屆球員人數增加2個名額，對此中華隊總教練林岳平對於佈局已有想法。&lt;/p&gt;, &lt;p&gt;本屆賽事正選人數從過往28人增加到30人，多了2個名額可運用，林岳平表示，「利用第一階段去瞭解選手狀態，屆時30個正選名單，按照大會規定至少要帶14個投手，目前集訓陣容有17個投手，預計最後會挑14人到15人之間，過往投手都是挑13人，這次正選多了2個名額，不過大會有規定14個投手，也增加投手人數空間。」&lt;/p&gt;, &lt;p&gt;捕手要3個，內野與外野會比較慎選，有些人可以擔任工具人，教練團會再協調，看要採取什麼陣型，不管是先發或是長中繼角色，預計要7人到8人，陳冠宇會放在牛棚組，盡可能在一局中好好發揮，如果臨場狀況不錯，也是可以投跨局。」&lt;/p&gt;, &lt;p&gt;林岳平透露，「名單中一定會有工具人角色的選手，但不會特別以這個條件去選擇，預計可能挑1個或是2個工具人角色球員，內野手應該會有8人，外野差不多是5人，到時候整體再看投手人數來調配。」&lt;/p&gt;, &lt;p&gt;中華隊投手教練許銘傑表示，「除了樂天桃猿4個比較了解之外，這個階段會以先觀察選手為主，再來安排要怎麼樣練習，現在無法做任何評斷，每個選手狀況不同，不可能全照我的課表去做，初步按照他們在職棒角色去調整，像是陳冠宇去年中繼的成績穩定，因此在經典賽也會以中繼為主，吳哲源就是先發。&lt;/p&gt;, &lt;p&gt;許銘傑強調，「第一場一定要先搶勝，一定會以最好的陣容去爭取，不會限定哪個投手要丟哪場，只要進來中華隊，人人都有機會進到正選，我們要的是調整到最好的選手。」&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼台鐵,自強號。（圖／記者賴文萱攝）" height="450" src="//cdn2.ettoday.net/images/4851/d4851165.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲醉男搭乘自強號攻擊其他旅客。（示意圖／記者賴文萱攝）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者柯振中／綜合報導&lt;/p&gt;, &lt;p&gt;台鐵自強號列車29日發生攻擊事件，一名乘客乘車時醉酒，竟然攻擊同車旅客，導致列車被迫暫停。遭攻擊的乘客感到十分生氣，警方到場後決定提告傷害，至於詳細案情為何，仍待進一步釐清。&lt;/p&gt;, &lt;p&gt;鐵路警察局台北分局樹林派出所晚間6時15分獲報，自強號178車次行經桃園、鶯歌區間時，有旅客發生暴力事件。員警在樹林站月台等列車到站後，立刻上車將相關民眾帶回派出所。&lt;/p&gt;, &lt;p&gt;警方初步了解，1名疑似酒醉的龐姓民眾，突然動手毆打鄰座曾姓乘客，曾男怒對龐男提出傷害告訴，相關細節仍在調查釐清，警詢後移送地檢署偵辦。&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼高鐵,月台,口罩,旅客,列車。（圖／記者李姿慧攝）" height="450" src="//cdn2.ettoday.net/images/6723/d6723423.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲高鐵。（圖／記者李姿慧攝）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者李姿慧／台北報導&lt;/p&gt;, &lt;p&gt;寒假進入尾聲，因應各大專院校即將開學，高鐵2月9日到18日加開40班「大學生開學返校5折優惠列車」，減輕學生交通費負擔，輕鬆迎接開學。&lt;/p&gt;, &lt;p&gt;台灣高鐵表示，為滿足大學生返校需求，特於2月9日至2月18日期間，除原適用5折、75折或88折之大學生優惠車次外，每日再加碼提供南下、北上各二班，共40班次「大學生開學返校5折優惠列車」，南下部分包括817、857車次，北上包括818、858車次。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼高鐵加開5折大學生列車。（圖／高鐵）" height="339" src="//cdn2.ettoday.net/images/6799/6799079.gif" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲高鐵加開5折大學生列車。（圖／高鐵）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;高鐵公司提醒，大專院校學生乘車時務必攜帶本人有效之學生證正本，如學生證無當學期註冊章或註冊章無法辨識，需合併出示「在學證明正本」以備查驗。前述在學證明如採電子版方式，請務必於進站前先行下載備查，以免影響優惠權益。&lt;/p&gt;, &lt;p&gt;此外，依據政府最新防疫指引，目前已取消室外場所/空間佩戴口罩之規定，但搭乘大眾運輸交通工具仍須佩戴口罩；高鐵公司提醒，旅客自進入車站大廳、乘車至出站，應自備口罩並全程佩戴，敬請配合遵守。&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼刮刮樂,彩券,春節,試手氣,中獎,過年,彩券行,投注站,公益彩券,新年,威力彩,大樂透,加碼,運動彩券,運彩。（圖／記者李毓康攝）" height="401" src="//cdn2.ettoday.net/images/5031/d5031305.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲大樂透29日頭獎上看3.3億元。（圖／記者李毓康攝）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者趙蔡州／台北報導&lt;/p&gt;, &lt;p&gt;初八（29日）大樂透3.3億元一注獨得，獎落台東縣台東市岩灣路101巷598號「億來發彩券行」，下期（30日）大樂透頭獎保證1億元。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲億來發彩券行。（圖／業者提供）" height="450" src="//cdn2.ettoday.net/images/6825/d6825927.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲台東縣台東市億來發彩券行29日開出3.3億元大樂透頭獎。（圖／業者提供）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;春節大紅包部分，本期開出42組，總中獎注數為62注，其中25組為單注中獎，14組為2注均分，3組為3注均分。&lt;/p&gt;, &lt;p&gt;台彩29日晚間開出第112000015期大樂透，獎號由小到大依序為&lt;strong&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;02、08、09、15、27、31，&lt;/span&gt;&lt;/strong&gt;特別號&lt;strong&gt;&lt;span style="color: rgb(255, 0, 0);"&gt;42&lt;/span&gt;&lt;/strong&gt;。&lt;/p&gt;, &lt;p&gt;春節大紅包加碼獎號，9個獎號由小到大依序為&lt;strong&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;04、05、08、09、10、11、24、29、48&lt;/span&gt;&lt;/strong&gt;。只要對中任6碼，每組獎金100萬元，並依中獎注數均分。&lt;/p&gt;, &lt;p&gt;截至初八為止，春節大紅包累積開出281組，其中有221人獨自贏得百萬獎金，112人贏得50萬元獎金，還有12人分得33萬元。目前春節大紅包剩餘79組，下期（30日）將繼續加開。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▼大樂透春節加碼時程表，&lt;span style="color: rgb(0, 0, 255);"&gt;點圖可放大&lt;/span&gt;。（圖／台彩）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;a href="https://cdn2.ettoday.net/images/6819/6819553.jpg" target="_blank"&gt;&lt;img alt="▲▼台彩春節加碼時程表。（圖／台彩）" height="334" src="//cdn2.ettoday.net/images/6819/6819553.jpg" width="600"/&gt;&lt;/a&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼大直橋與河濱公園風景。（圖／台北市觀光傳播局提供）" height="338" src="//cdn2.ettoday.net/images/6810/d6810024.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲大直橋與河濱公園風景。（圖／台北市觀光傳播局提供）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者江采蓁／綜合報導&lt;/p&gt;, &lt;p&gt;為了拉近國內外遊客與臺北市的距離，臺北市政府觀光傳播局特別蒐集極具代表特色的景點，除了深受好評的「象山看台北」，今年更新增4處4K觀光即時影像「大稻埕碼頭、大佳河濱公園、碧山巖、劍潭山微風平台」，讓遊客能全天候觀賞線上即時美景。&lt;/p&gt;, &lt;p&gt;民眾只要透過手機、平板或電腦，就能隨時隨地欣賞臺北市的日夜景色。除了先前登場享譽國際的「象山看臺北4K即時影像」，提供由南向北觀賞信義區及臺北101等指標性建築物景色外，觀傳局再新增「碧山巖4K即時影像」，提供從北向南觀賞臺北盆地在綠蔭環繞中的城市景色，更有「越夜越美麗」的百萬夜景，一網打盡北市各角度風景。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼碧山巖夜景。（圖／台北市觀光傳播局提供）" height="338" src="//cdn2.ettoday.net/images/6810/d6810051.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲碧山巖夜景。（圖／台北市觀光傳播局提供）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;至於「大稻埕」及「大佳河濱公園」即時影像則呈現出北市河濱水岸的自然景觀，遊客輕鬆漫步在夕陽西下的碼頭美景，以及親子同樂遊憩的河濱公園，民眾可隨時體會臺北市的清新自然及閒暇悠閒氛圍。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼大稻埕碼頭美景。（圖／台北市觀光傳播局提供）" height="338" src="//cdn2.ettoday.net/images/6810/d6810054.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲大稻埕碼頭美景。（圖／台北市觀光傳播局提供）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;此外，本次新增的「劍潭山微風平台」4K即時影像，更能觀賞到近期完工、造型獨特的臺北表演藝術中心及士林地區的人文景觀特色，還可俯瞰劍潭捷運站及乘載旅客移動的捷運列車，將臺北市滿滿的活力及魅力盡收眼底。&lt;/p&gt;, &lt;p&gt;目前國際各大先進城市皆陸續設置觀光即時影像，希望以無國界網路直播方式，將觀光影像服務帶給世界各地遊客，提供更深刻的線上即時體驗，觀傳局提供世界各地遊客即時透過網路欣賞北市燈火通明的繁華城市風貌，同時也有山光明媚、水色秀麗的自然景觀。&lt;br/&gt; &lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;記者劉宛欣／綜合報導&lt;/p&gt;, &lt;p&gt;日本近來掀起「無罩散步」風潮，許多正妹網紅、YouTuber都紛紛跟風，掌握「流量密碼」，曬出沒穿胸罩在外散步的影片，經常在社群上分享引人遐想照片的網紅SANA，近日也在YouTube頻道上傳了無罩逛街的影片，果然就吸引了不少網友前往朝聖。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲網紅SANA無罩散步。（圖／翻攝YouTube／サナはJKブランドが捨てられない）" height="336" src="//cdn2.ettoday.net/images/6825/d6825918.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲甜美網紅SANA近日也跟風曬出無罩散步影片。（圖／翻攝YouTube／サナはJKブランドが捨てられない）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;img alt="▲網紅SANA無罩散步。（圖／翻攝YouTube／サナはJKブランドが捨てられない）" height="450" src="//cdn2.ettoday.net/images/6825/d6825921.jpg" width="253"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲SANA也會在社群帳號分享辣照。（圖／翻攝自推特）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;SANA 26日在YouTube頻道上傳標題為「去人多的表參道的話」，影片中可看到她穿著白色針織貼身上衣以及灰色外套，走在東京人來人往的知名逛街景點「表參道」上，隨著鏡頭不時有意無意地往下帶，可看到因為沒穿內衣而明顯激凸的畫面，除了在街上走動以外，她還去了鬆餅店享用下午茶，而她坐著用餐的畫面，也正好對著重點部位，讓觀眾眼睛大吃冰淇淋。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲網紅SANA無罩散步。（圖／翻攝YouTube／サナはJKブランドが捨てられない）" height="336" src="//cdn2.ettoday.net/images/6825/d6825916.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲網紅SANA無罩散步。（圖／翻攝YouTube／サナはJKブランドが捨てられない）" height="337" src="//cdn2.ettoday.net/images/6825/d6825920.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲SANA激凸的畫面讓老司機們相當激動。（圖／翻攝YouTube／サナはJKブランドが捨てられない）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;SANA無罩散步的影片果然吸引許多老司機朝聖，底下留言也是一片祥和，網友紛紛留言寫下「好想跟SANA一起在東京街頭散步」、「好可愛的女生」、「好可愛，被療癒了」、「看著SANA吃鬆餅好幸福」。&lt;/p&gt;, &lt;p&gt;除了SANA以外，日本另一位掀起討論的正妹YouTuber還有結依（ゆい），2022年她在頻道「結依散步」上開啟分享無罩散步影片，刻意穿著微透白色上衣，斜背一個小包使胸形畢露，胸前2粒一覽無遺，隨著她在公園中行走而晃動，累積至今已突破300萬觀看次數。&lt;/p&gt;, &lt;p&gt;&lt;iframe allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen="" frameborder="0" height="315" src="https://www.youtube.com/embed/aAr4bq1vYwM" title="YouTube video player" width="560"&gt;&lt;/iframe&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲億來發彩券行。（圖／翻攝自Google Maps）" height="350" src="//cdn2.ettoday.net/images/6825/d6825915.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲億來發彩券行。（圖／翻攝自Google Maps）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者陳依旻／台北報導&lt;/p&gt;, &lt;p&gt;大樂透頭獎金額3.3億元今（29）日開在台東縣台東市岩灣路「億來發彩券行」，一人獨得，業者接受《ETtoday新聞雲》訪問時直呼：「很感動！」因為那裡被疫情跟日前台東強震造成鐵路中斷等影響，生意已陷入低潮一段時間，才剛向媽祖祈求保佑生意興隆，結果就真的開出頭獎了。&lt;/p&gt;, &lt;p&gt;業者分享，他們是全台灣最早開在火車站的投注站，且一開始是在大廳賣票口旁邊賣，無論是準備上火車的遊客，或剛下火車，都會順便買張彩券，每年過年更是大排長龍，「找錢都不敢怠慢」。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲億來發彩券行。（圖／業者提供）" height="450" src="//cdn2.ettoday.net/images/6825/d6825926.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲億來發彩券行原本開在台東火車站裡頭的時候。（圖／業者提供）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;只是，後來台東車站重新改建之後，沒有他們的位置改成在附近賣，但也因為距離火車站不到幾公尺，生意一直都很不錯，沒有太大的影響，但前兩年因為疫情攪局的關係衝擊到買氣，日前又加上台東強震造成鐵路受損，讓生意「雪上加霜」，就好比是以前可能每個車廂都坐滿遊客，下了車，一定都會有一部份的人路過他們店家就會買個幾張試試，後來變成一個車廂可能只載到一個乘客，路過不見得會買彩券。&lt;/p&gt;, &lt;p&gt;前陣子，「億來發彩券行」翻閱到幾年前還在車站裡頭販賣彩券的照片，看著當初的人潮感慨萬千，忍不住在臉書上抒發：「5年前在火車站大廳入口旁的投注站，只能留待日後追憶了！」&lt;/p&gt;, &lt;p&gt;雖然不可抗拒的天災影響到彩券行的生意，但業者仍然相當樂觀，為了把握過年期間大賺特賺，他們就去離店不遠的媽祖廟拜拜，祈求神明保佑店裡生意興隆，順便中個頭獎，沒想到今晚店裡真的開出大獎了，「心聲被媽祖聽到，讓我們喜極而泣！」&lt;/p&gt;, &lt;p&gt;台彩表示，大樂透下期（1月30日）預估銷售2.4億元，頭獎保證1億元；另外，截自1月29日，本期大紅包開出42組，總中獎注數為62注，其中25組為單注中獎，14組為2注均分，3組為3 注均分。活動截至本期為止累積開出大紅包組數為281組，剩餘79組，次期（1月30日）將繼續加開大紅包獎項。&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;記者楊蕎綺／綜合報導&lt;/p&gt;, &lt;p&gt;「台大泰拳女神」Sabrina（吳怡德）求知慾甚強，平常就愛到處上課學新東西，連到泰國旅遊都不例外，不僅花了一整天的時間學習正統泰式按摩，還特地開包廂向當地人學習「怎麼洗泰國浴」，特殊經歷令人聽得嘖嘖稱奇。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼Sabrina吳怡德特地到泰國學洗泰國浴。（圖／翻攝自YouTube／小姐不熙娣）" height="346" src="//cdn2.ettoday.net/images/6825/6825911.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲Sabrina十分好奇為什麼男生都愛洗泰國浴。（圖／翻攝自YouTube／小姐不熙娣）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;Sabrina在節目《小姐不熙娣》上透露，過去與前男友到泰國旅遊時，男友總在紅燈區消失數小時後才與她會合，當時就已在她心中種下好奇的種子：「為什麼男生都那麼想（洗泰國浴）？」這一次再去，剛好當地友人有朋友在經營泰國浴，她立刻拜託友人安排上課，體驗兼學習一連串專業的技巧手法。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼Sabrina吳怡德特地到泰國學洗泰國浴。（圖／翻攝自YouTube／小姐不熙娣）" height="339" src="//cdn2.ettoday.net/images/6825/6825913.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲▼Sabrina特地請人教學「怎麼洗泰國浴」。（圖／翻攝自YouTube／小姐不熙娣）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼Sabrina吳怡德特地到泰國學洗泰國浴。（圖／翻攝自YouTube／小姐不熙娣）" height="339" src="//cdn2.ettoday.net/images/6825/6825912.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;Sabrina表示教她的姐姐都很嚴格，手把手教導她最正統的技術，從手腳的運用、躺姿臥姿以及在浴缸裡如何用身體服務，甚至連眼神都是要經過練習的，她有些害羞地笑說，這些技巧學起來就是要拿來「服務未來的老公」，同時也推薦想更了解這方面的女生可以到當地上課。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▼影片取自YouTube，如遭刪除請見諒。&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;iframe allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen="" frameborder="0" height="315" src="https://www.youtube.com/embed/pp1tTsKiuBs" title="YouTube video player" width="560"&gt;&lt;/iframe&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼初九天公生拜天公三大禁忌。（圖／翻攝台南和勝堂臉書紛絲團）" height="450" src="//cdn2.ettoday.net/images/6825/d6825909.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲初九天公生注意「三大禁忌」。（圖／翻攝&lt;a href="https://www.facebook.com/TainanHoShang/posts/pfbid025Y4wZ5mKvBFUNqPSGaNUvQupqyh1zx9mKjrMca52jSxZsUVjWiYc6bdxNk9jbzpil" target="_blank"&gt;台南和勝堂紛絲團&lt;/a&gt;，下同）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者許力方／綜合報導&lt;/p&gt;, &lt;p&gt;初八是春節連假最後一天，今夜子時一到，初九是傳統俗稱的「天公生」，是玉皇大帝生日，台灣民眾都會祭拜祈求獲得一整年好運，習俗上，拜天公地母，有3大禁忌，忌諱口出穢言、以食指比天、禁屠，拜拜補財庫也忌「空求」，才能改運轉運。&lt;/p&gt;, &lt;p&gt;初九天公生，民間信仰萬中諸神的統帥、主宰萬物的最高統神「玉皇大帝」這天下午回返天宮，所有天上地下的神明都得隆重慶賀，因此人們也會舉行祭拜典禮，除了早晚要燒香拜拜，子時起就能聽到不斷地炮竹聲響。台南和勝堂指出，天公生照慣例要虔備五牲（素）、豬、羊、牽、圓（以上鳳片）、鹼棕、石榴包、壽桃、甜粿、發粿、香蕉、四果、酒、壽麵、橘、茶、糕、燭、三珍海味，12菜碗、金等，祈求上蒼賜福。&lt;/p&gt;, &lt;p&gt;民俗專家廖大乙接受媒體訪問時就提醒，除了拜掌管天界的玉皇大帝，也別忘了拜地母娘娘，祭拜時最好端正儀容，向天公行三跪九叩大禮，也可到有供奉天公的廟宇，或直接向天朝拜，最重要是心誠則靈。反之，拜天公最忌諱三件事，一是披頭散髮、口出穢言；二是供品禁葷食；三是以食指比天，違反三大地雷恐褻瀆天公，受罰衰整年。&lt;/p&gt;, &lt;p&gt;另外，民眾拜天公也會補財庫，補財庫忌諱空求，拜拜要至少準備米、水、甘蔗、番薯「敬天四寶」以虔誠的心祭拜，就能改運轉運。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼初九天公生拜天公三大禁忌。（圖／翻攝台南和勝堂臉書紛絲團）" height="400" src="//cdn2.ettoday.net/images/6825/d6825910.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;a href="https://bit.ly/30PqltT\" target="“_blank"&gt;&lt;span&gt; &lt;/span&gt;►按這訂閱Podcast《小編沒收工》每天熱門話題聊不完&lt;/a&gt;&lt;/p&gt;, &lt;p&gt;&lt;iframe allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen="" frameborder="0" height="315" src="https://www.youtube.com/embed/bxajyI0GWRg" title="YouTube video player" width="560"&gt;&lt;/iframe&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;記者蔡宜芳／綜合報導&lt;/p&gt;, &lt;p&gt;藝人顏佑庭2022年擔任《來吧！營業中》外場服務生，當時他因自認趕不上團隊腳步，主動向店長庹宗康請辭，並到外頭打工學習。半年後，他驚喜現身《嗨！營業中》，29日也在社群平台分享回歸團隊的真實心聲，坦言「一開始很難過」，但在一番歷練後，他也成長了許多。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼顏佑庭分享回歸《營業中》心聲。（圖／翻攝自Facebook／顏佑庭Yoshi）" height="450" src="//cdn2.ettoday.net/images/6825/d6825908.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲顏佑庭在《嗨！營業中》前身節目中曾主動請辭，到真實的咖啡廳打工。（圖／翻攝自Facebook／顏佑庭Yoshi）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;顏佑庭透露，他從《嗨！營業中》播出第一集就開始追節目，「每一集看的時候，我都會偷偷想像自己如果在裡面，我要注意什麼？要怎麼幫助大家？我要怎麼介紹餐點？要怎麼讓客人舒服？」所以當他再次受邀參與時，感到相當興奮，「因為真的很想回去見大家，泡杯咖啡給大家也好。」&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼顏佑庭分享回歸《營業中》心聲。（圖／翻攝自Facebook／顏佑庭Yoshi）" height="400" src="//cdn2.ettoday.net/images/6825/d6825906.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲顏佑庭回到《營業中》當小幫手。（圖／翻攝自Facebook／顏佑庭Yoshi）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;顏佑庭自嘲是「曾經的媽寶」，但他因為參加《營業中》，學到許多寶貴的經驗，對於當初錯誤頻出被抨擊，他坦言：「一開始真的很難過，但我在打工時交到了一群朋友，他們告訴我該怎做、該拿什麼態度面對人生。」&lt;/p&gt;, &lt;p&gt;顏佑庭表示，他回歸《營業中》的那天，一切就真的如同播出的內容一樣，充滿了感動和溫暖，「跟亞綸哥還有浩子哥在小小的吧檯搖杯子，儘管空間很小，但我們流暢地做出各項飲品，我還記得過程一個杯子落下，下一秒一個蜘蛛反應夾住，有打工真的有差！」他也感謝庹宗康、鬼鬼依舊溫暖相待，「這次回來真的都感覺更加成長，真的很開心、很感動，也謝謝我的夥伴們相信我，給我這個機會！」他的表現也引來許多網友鼓勵。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼顏佑庭分享回歸《營業中》心聲。（圖／翻攝自Facebook／顏佑庭Yoshi）" height="1018" src="//cdn2.ettoday.net/images/6825/6825907.jpg" width="500"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲網友反應。（圖／翻攝自Facebook／顏佑庭Yoshi）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;【顏佑庭全文】&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;我回來了！！！&lt;br/&gt;我也是從第一集開始追&lt;br/&gt;每一集看的時候我都會偷偷想像自己如果在裡面 我要注意什麼 要怎麼幫助大家&lt;br/&gt;我要怎麼介紹餐點 要怎麼讓客人舒服&lt;br/&gt;-&lt;br/&gt;營業中給我的挑戰 真的幫助很大&lt;br/&gt;對於一個曾經的媽寶是最寶貴的經驗XD&lt;br/&gt;這段時間真的飽受大家的照顧 各種奶昔問候 各種壓力關照 一開始真的很難過 但我在打工時交到了一群朋友 他們告訴我該怎做 該拿什麼態度面對人生&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;於是在我聽到小葉姐再詢問我拉花還有沒有練時 我非常地興奮 因為真的很想回去見大家 泡杯咖啡給大家也好&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;那天就像播出這樣 真的很感動 很溫暖&lt;br/&gt;跟亞綸哥還有浩子哥在小小的吧檯搖杯子 儘管空間很小 但我們流暢地做出各項飲品 我還記得過程一個杯子落下 下一秒一個蜘蛛反應夾住 有打工真的有差！&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;康哥與浩哥的溫暖還是那麼熟悉 太愛你們了&lt;br/&gt;鬼鬼店長也是超讚 給偶很多明確的指示 讓我知道我下一步該做什麼&lt;br/&gt;而莎莎姐真的很久不見 上次是在我第一個選秀節目超級接班人 當時莎莎姐是主持人 但這次是一起營業 內外場連線 真的是很奇幻的旅程&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;這次回來真的都感覺更加成長 真的很開心很感動 也謝謝我的夥伴們相信我&lt;br/&gt;給我這個機會！&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;我愛你們 嗨！營業中 Hi,Come in&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;#所有工作人員辛苦了 &lt;br/&gt;#拿拉花針手也太抖了吧&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;iframe allow="autoplay; clipboard-write; encrypted-media; picture-in-picture; web-share" allowfullscreen="true" frameborder="0" height="529" scrolling="no" src="https://www.facebook.com/plugins/post.php?href=https%3A%2F%2Fwww.facebook.com%2Fyoshiyen1230%2Fposts%2Fpfbid0AAj8A6xAyfFrFdATREtN25om8HMZe1BvHkACn1GPYDSMbQXwh7FrU5tPMNBWLU3fl&amp;amp;show_text=true&amp;amp;width=500" style="border:none;overflow:hidden" width="500"&gt;&lt;/iframe&gt;&lt;/p&gt;, &lt;p&gt;&lt;a href="https://www.ettoday.net/news/20230129/2429760.htm" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;►徐凱希合體黑澀會美眉　17年友誼都沒變：不要再說演藝圈複雜&lt;/strong&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;, &lt;p&gt;&lt;a href="https://www.ettoday.net/news/20230129/2429726.htm" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;►吳淡如買菜遇蛇…老家後院「藏36隻龜殼花」　網驚：難怪出狀元！&lt;/strong&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;, &lt;p&gt;&lt;a href="https://www.ettoday.net/news/20230129/2429697.htm" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;►KID首挑戰母嬰同室「急速老化」！　求同溫層：要跟你們說對不起&lt;/strong&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;, &lt;p&gt;&lt;span style="color: rgb(255, 102, 0);"&gt;&lt;strong&gt;&lt;span style="font-size: medium;"&gt;&lt;a href="https://fugo.ehsn.com.tw/fugoOrder/prod?k=zd46J&amp;amp;data=l3HbXgwKHQ1iDCdng0KfLpqEfZ8I4EjReDFqwWMQiACDwGezrFVDS5YwzzeK9mxL4Pjmj8YkiDu7_M2I9JYubg" target="_blank"&gt;&lt;span style="color: rgb(255, 102, 0);"&gt; &lt;/span&gt;&lt;span style="font-size: medium;"&gt;&lt;span style="color: rgb(51, 51, 51);"&gt;&lt;span style="background-color: rgb(255, 255, 153);"&gt;►囤貨最佳時機！150抽「蒲公英環保衛生紙」只要13元 讓媽媽抽到手抽筋&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;記者王則絲／綜合報導&lt;/p&gt;, &lt;p&gt;現代電腦虛擬技術越來越發達，運用虛擬設計的藝術領域也隨之蓬勃發展，近日一位來自德國柏林的3D藝術家Bonny Carrera，其創作的一系列「蔬菜水果沙發」，外型獵奇之中藏不住療癒可愛，像這些超Ｑ的鳳梨椅子、西瓜沙發、大蒜椅⋯⋯你會選哪個？&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲鳳梨西瓜。（圖／翻攝自IG）" height="600" src="//cdn2.ettoday.net/images/6816/6816882.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲3D藝術家Bonny Carrera的創作作品。（圖／翻攝自IG@bonnycarrera）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;3D藝術家Bonny Carrera的作品內容相當豐富，他經常與各式品牌合作製作廣告視覺，不過共通點是他喜歡鮮明的色彩，在天馬行空的想像中加入真實的物件，使其更能勾起生活化的共鳴，其中食物正是他很愛採用的素材。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲鳳梨西瓜。（圖／翻攝自IG）" height="600" src="//cdn2.ettoday.net/images/6816/6816881.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲鳳梨西瓜。（圖／翻攝自IG）" height="600" src="//cdn2.ettoday.net/images/6816/6816883.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;Bonny Carrera作品中有一「蔬菜水果沙發」系列 引起不小關注，他將常見的一些水果、蔬菜的模樣運用在不同樣式的沙發椅輪廓上，腦洞大開的設計概念令人忍不住多看幾眼，像是變為淡藍色鳳梨沙發、多種造型的西瓜沙發或是大蒜形象的椅子，全都既獵奇又可愛，另外高麗菜、生菜⋯⋯等綠色植物也沒逃過Bonny Carrera的手，皆化為看起來超舒服的躺椅，許多粉絲們看到都紛紛敲碗實體化，不少藏家也表示真的想要收藏。&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="私密處,下體,陰道。（圖／記者李佳蓉攝）" height="450" src="//cdn2.ettoday.net/images/4044/d4044997.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲醫師提醒，除了生育之外，久蹲和減重都可能造成陰道鬆弛。（圖／記者李佳蓉攝）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者趙于婷／台北報導&lt;/p&gt;, &lt;p&gt;一名34歲妙齡女子日前立志減肥，短短2個半月就順利甩掉10公斤，但未婚未生育，近期突然會「打噴嚏漏尿」，讓她緊張的趕緊就醫。醫師指出，除了生育之外，女性常見陰道鬆弛原因包括先天性陰道肌肉彈性不佳、婦科疾病等，「快速減重」也是原因之一，可能會導致私密處流失大量膠原蛋白或肌肉量降低，使得私密處失去彈性。&lt;/p&gt;, &lt;p&gt;該女性自述，由於過去飲食不忌口，半年前體重來到人生最高峰，某天下定決心嚴格實施飲食控制，很快速的在2個半月就甩掉10公斤，沒想到突然因為打噴嚏出現微微漏尿的狀況。讓她不解的是，聽說身邊好友都是因產後才會有漏尿問題，未婚未生的她隱隱擔心會不會影響到與另一半的親密行為品質，進而主動求醫。&lt;/p&gt;, &lt;p&gt;北投健康管理醫院美容醫學中心黃志宏醫師表示，女性私密處問題求助於醫學美容來解決算是現代一項熱門話題，大多人認為陰道鬆弛都是產後婦女才會遇到的私密困擾，事實上像是李小姐這樣因快速瘦身，卻意外導致陰道鬆弛也是可能會發生的，此外，先天條件較差、老化、不當的慣性動作也會影響陰道的緊緻度。&lt;/p&gt;, &lt;p&gt;黃志宏指出，造成陰道鬆弛的常見原因包括「先天陰道肌肉彈性較不佳、懷孕生產、老化、婦科疾病、快速減重、久蹲、長期負重」。&lt;/p&gt;, &lt;p&gt;針對陰道鬆弛問題，除了一般大眾所知訓練骨盆底肌群的凱格爾運動之外，目前有多種醫美療程可在較短的時間內做到改善，例如私密處無創G緊雷射，若是陰道鬆弛較嚴重者，則可考慮陰道緊實整型手術，手術採用分層縫合，從陰道口到子宮頸的整體性改善，但需注意只適合術後暫無生育計劃的婦女。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;【陰道鬆弛5大常見原因】&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;1.       先天陰道肌肉彈性較不佳。&lt;/p&gt;, &lt;p&gt;2.       懷孕、生產：因胎兒重量壓迫或生產時間過久，都會加重陰道鬆弛問題。&lt;/p&gt;, &lt;p&gt;3.       老化、婦科疾病：隨著年齡增長，雌性荷爾蒙逐漸下降或婦科疾病而提早停經，都會造成陰道鬆弛萎縮，甚至分泌能力下降。&lt;/p&gt;, &lt;p&gt;4.       快速減重：短時間內快速減重可能導致私密處流失大量膠原蛋白或肌肉量降低，因此使得私密處失去彈性，變得鬆弛。&lt;/p&gt;, &lt;p&gt;5.       久蹲、長期負重：久蹲會使身體重量壓力往骨盆腔壓迫、長期搬重物也會間接增加壓力，當重量集中在骨盆腔時，也容易使骨盆底鬆弛，尤其是骨盆底肌力較弱的婦女，鬆弛問題會更加明顯感覺。&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼扶養。（示意圖／取自免費圖庫Pixabay）" height="400" src="//cdn2.ettoday.net/images/6791/d6791072.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲沒被母親扶養過的女兒，最後竟還要負責母親的安置費，網友紛紛提出解決辦法。（示意圖／取自免費圖庫Pixabay）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者陳雕文／綜合報導&lt;/p&gt;, &lt;p&gt;一名母親在上下兒子7個月後，為了追求新生活離開了家庭，數十年過去，女兒都成家生孩子了，老去的母親竟拿出殘障手冊並申請法扶律師打官司，逼女兒給錢！女兒心寒發文說，「我抱著剛出生兩個月的兒子，她沒有關心，只有開口要錢」最後社會局來函要求每月給母親1萬安置費，令女兒憤怒不已。&lt;/p&gt;, &lt;p&gt;女兒在臉書社團【匿名公社】發文提到，「妳（母親）在法庭上說妳很可憐、很無奈、妳生病。還拿出了殘障手冊，訴說妳找不到工作，須要生活費…我就想問問，從小到大的經歷（包括學騎腳踏車、上幼稚園、帶便當、畢業典禮、結婚、坐月子等等）妳在哪？」&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼扶養。（示意圖／取自免費圖庫Pixabay）" height="402" src="//cdn2.ettoday.net/images/6791/d6791073.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲原PO抱著7個月大的兒子，但母親只關心錢，要求一個月一萬...。（示意圖／取自免費圖庫Pixabay）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;女兒貼文還說，「當年妳想追求自己的生活，我只有七個月大，被迫接受了。所以，妳能不能接受我不會撫養妳？法庭上見面，我抱著剛出生兩個月的兒子，妳沒有關心我手上的孩子，只有一開口就一個月要一萬！事隔五年，我依舊記得妳當庭訴說的可憐，後來社會局來函：『令堂接受政府安置』，安置費云云。一張新北市政府的公文就是要我每個月一萬多…」&lt;/p&gt;, &lt;p&gt;最後女兒忍無可忍說，「拜託妳，早死早超生好嗎？如果社會局來函，是要我領收屍體，我會去的！我會幫妳風光大葬，買鞭炮慶祝我重獲新生的。」網友看到皆感到不捨，紛紛留言說，「看完心酸酸的好不捨」、「我的親生母親也如此，當初甚至還跟我妹兩個跑去警局要告我未盡子女義務！」&lt;/p&gt;, &lt;p&gt;也有相同經歷的網友提出解決辦法，「拿出證據證明她從小沒扶養過妳，提出免除扶養義務，用點心應該可以的」、「去聲請免除扶養義務，自已的權利義務要去弄清楚才不會吃虧…」、「免除(減免)扶養義務"的訴訟，趕快去法律諮詢喔！加油。」&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;記者江采蓁／綜合報導&lt;/p&gt;, &lt;p&gt;2022九合一大選落幕，除了候選人的政見備受關注外，候選人的顏值也成為一大亮點，不但有前男團肌肉帥哥，還有撞臉明星吳尊、高橋一生的高挑型男，《ETtoday新聞雲》整理了本次選舉的五大政壇公認的帥哥，帶您回顧2022精彩的選舉年。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;一、李宜柏／無黨籍台北市南港區成福里里長參選人&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;李宜柏曾是從《模范棒棒堂》出身的歌手與主持人，也是男團「TOP1男子漢」一員，外型陽光帥氣的他還擁有一身健壯的肌肉，被封為本次參選「最帥里長」。他也曾提到決定參選的原因，他表示，「是因為媽媽跟大舅舅的關係，他們覺得我是個很熱心的人，又有媒體的基底。從小在南港社區生活也有一定的了解。所以跟我說有這個機會要我嘗試看看。」&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼無黨籍台北市南港區成福里里長參選人李宜柏。（圖／翻攝自李宜柏臉書）" height="450" src="//cdn2.ettoday.net/images/6802/d6802878.jpg" width="360"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲無黨籍台北市南港區成福里里長參選人李宜柏。（圖／翻攝自李宜柏臉書）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;二、吳崢／無黨籍第三選區（松山、信義）台北市議員參選人&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;吳崢因曾在太陽花學運中擔任媒體組組長而為人所知，曾任立委林昶佐之助理、時代力量發言人、台北市議員林亮君特別助理，從政經驗豐富。他2018年參選臺北市第七選舉區臺北市議員，以540票的些微差距落敗；2022年再度參選台北市第七選區台北市議員，仍以396票之差落敗，可說是「松信區最大遺珠」，他於2019年11月8日，在個人臉書發出聲明宣布退出時代力量後，就一直以無黨籍身分參政。他俊俏的外型曾被封為「學運界吳尊」，清俊的神情更有人說像日本男明星高橋一生。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼台北市第三選區議員參選人吳崢。（圖／翻攝自吳崢臉書）" height="450" src="//cdn2.ettoday.net/images/6802/d6802932.jpg" width="450"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲台北市第七選區議員參選人吳崢。（圖／翻攝自吳崢臉書）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;三、吳達偉／民眾黨新北市議員參選人&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;吳達偉為台大機械工程系畢業，原為工程師，曾服務於廣達與華碩，他也曾是PTT表特板前板主、被封為「Z9神龍」、「Z9大神」，也曾任新竹市長高虹安國會辦公室主任。他於萬聖節扮演動漫《鬼滅之刃》裡面角色嘴平伊之助，隱隱約約露出結實的六塊肌，引起大批網友讚嘆。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼民眾黨新北市議員參選人吳達偉。（圖／翻攝自吳達偉臉書）" height="450" src="//cdn2.ettoday.net/images/6802/d6802946.jpg" width="374"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲民眾黨新北市議員參選人吳達偉。（圖／翻攝自吳達偉臉書）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;img alt="▲▼吳達偉扮演動漫《鬼滅之刃》之中角色。（圖／翻攝自吳達偉臉書）" height="450" src="//cdn2.ettoday.net/images/6802/d6802948.jpg" width="338"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲吳達偉扮演動漫《鬼滅之刃》之中角色。（圖／翻攝自吳達偉臉書）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;四、吳怡農／台北市第選區（中山、北松山）立委補選參選人&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;吳怡農從2020年時和現任台北市長蔣萬安的「雙帥對決」爆紅，擁有壯碩身材和俊俏外表，吸引大量「農夫」、「農婦」，雖2020年立委選舉和2023立委補選皆以些微差距惜敗，但仍累積超高聲量。值得關注的是，除了吸睛的外表，他2022年10月還獲選時代雜誌次世代百大人物的未來領導者。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼台北市第三選區立委補選參選人吳怡農。（圖／翻攝自吳怡農臉書）" height="450" src="//cdn2.ettoday.net/images/6807/d6807236.jpg" width="450"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲台北市第三選區立委補選參選人吳怡農。（圖／翻攝自吳怡農臉書）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;五、蔣萬安／台北市長&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;曾經的立法院男神蔣萬安出征台北市長選戰順利當選，高學歷、高顏值加上「三寶爸」的親切形象，讓他廣受婆媽粉絲的愛戴，成功收復國民黨失守八年的首都。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼台北市長蔣萬安。（圖／翻攝自蔣萬安臉書）" height="450" src="//cdn2.ettoday.net/images/6807/d6807252.jpg" width="450"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲台北市長蔣萬安。（圖／翻攝自蔣萬安臉書）&lt;/strong&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲汽車,方向盤,交通,行人地獄,斑馬線,馬路,紅燈,路口,轎車,車頂,車輛。（圖／ETtoday資料照）" border="1" height="400" src="//cdn2.ettoday.net/images/6825/d6825905.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲台灣有許多測速照相，一不小心就可能被拍到超速。（示意圖／ETtoday資料照）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者柯振中／綜合報導&lt;/p&gt;, &lt;p&gt;收到這種罰單，不知道是該哭還該笑！近日一張罰單照片在網路上流傳，屏東有名駕駛駕車行經潮州時，因為超速被拍下，後來收到罰單，上方竟印著「超速666公里」，時速比高鐵還快，引起了廣泛討論，隨後也有人挖出背後真相。&lt;/p&gt;, &lt;p&gt;臉書粉專「Andy老爹」29日分享一張罰單照片，從圖片當中可見，罰單上寫著該路段限速60公里，測速後駕駛的時速為「726公里」，一共超出速限666公里，因此挨罰1,600元。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▼這張罰單曝光以後，引起了許多討論。（圖／翻攝臉書／Andy老爹）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼屏東駕駛超速666公里。（圖／翻攝臉書／Andy老爹）" border="1" height="566" src="//cdn2.ettoday.net/images/6825/6825904.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;傻眼的圖片引起討論，更有超過1.7萬人按讚，不少網友留言回應，「超速666公里只罰1600，佛心啊」、「話說這台超速照相機也太厲害了，這種速度還能拍的那麼清楚」、「開這麼快才1千6，划算」、「比高鐵還快」、「還好啦，又沒超音速」、「別申訴～這張留著將來給孫子看啊，說嘴一輩子了！」照片引起討論後，苗栗縣府消防局也留言笑稱，「如果我們家能這麼快就好了。」&lt;/p&gt;, &lt;p&gt;事後經過調查，這張照片其實已在網路上流傳多年，之所以會有這張罰單，是因為郭姓駕駛2013年時超速，被測速照相機拍下來，不過因為員警操作電腦時失誤，將超速部分的數字誤植，才出現這種情況。&lt;/p&gt;, &lt;p&gt;&lt;a href="https://bit.ly/30PqltT\" target="“_blank"&gt;&lt;span&gt; &lt;/span&gt;►按這訂閱Podcast《小編沒收工》每天熱門話題聊不完&lt;/a&gt;&lt;/p&gt;, &lt;p&gt;&lt;iframe allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen="" frameborder="0" height="315" src="https://www.youtube.com/embed/bxajyI0GWRg" title="YouTube video player" width="560"&gt;&lt;/iframe&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;iframe allowfullscreen="true" frameborder="0" height="315" mozallowfullscreen="true" scrolling="no" src="https://www.ettoday.net/tools/player/1027858-360307?title=%E5%8F%B0%E7%81%A3%E6%B0%91%E5%85%B5%E5%91%82%E5%AD%90%E8%B1%AA%E7%83%8F%E5%85%8B%E8%98%AD%E6%89%93%E6%88%B0%E3%80%80%E8%B2%B7%E9%A3%BC%E6%96%99%E6%B2%BF%E8%B7%AF%E9%A4%B5%E6%B5%81%E6%B5%AA%E7%8A%AC&amp;amp;bid=boba_preroll_web&amp;amp;show_ad=1&amp;amp;uccu=3" webkitallowfullscreen="true" width="560"&gt;&lt;/iframe&gt;&lt;/p&gt;, &lt;p&gt;記者陳詩璧／整理報導&lt;/p&gt;, &lt;p&gt;台灣民兵呂子豪曾經在2022年3月份參與烏俄戰爭，待在烏克蘭三個月期間，他遇到很多跟飼主走失的狗貓，手邊有乾糧時，會主動分享餵養，他所待的部隊，很多同袍也是愛狗人士，抱抱牠們，儘管戰時前線危險重重，只要需要保護的，民兵都會伸出援手。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼台灣民兵呂子豪2022年3月到6月之間到烏克蘭參戰，一開始他帶了不少物資過去，也有許多台灣團體捐贈物資包括了狗糧等給當地的動保團體，協助戰亂中的狗狗。（圖／呂子豪提供，請勿隨意翻拍，以免侵權。）" height="401" src="//cdn2.ettoday.net/images/6790/d6790272.jpg" width="300"/&gt; &lt;img alt="▲▼台灣民兵呂子豪2022年3月到6月之間到烏克蘭參戰，一開始他帶了不少物資過去，也有許多台灣團體捐贈物資包括了狗糧等給當地的動保團體，協助戰亂中的狗狗。（圖／呂子豪提供，請勿隨意翻拍，以免侵權。）" height="401" src="//cdn2.ettoday.net/images/6790/d6790273.jpg" width="300"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲台灣民兵呂子豪（左）2022年3月到6月之間到烏克蘭參與烏俄戰爭，他發現戰亂中有狗與飼主走失了，也有些狗會跟著軍隊移動。（圖／呂子豪提供，請勿隨意翻拍，以免侵權。）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;呂子豪提到，當時所到的每個地點，幾乎都有動物，包括了戴著項圈的約克夏、米克斯等等，大家會主動分享口糧，包括了麵包、餅乾等，只要有吃的，都會分一些給牠們，每到一個定點遇到的動物都不相同，部隊在移點時，也會跟牠們說再見。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼台灣民兵呂子豪2022年3月到6月之間到烏克蘭參戰，一開始他帶了不少物資過去，也有許多台灣團體捐贈物資包括了狗糧等給當地的動保團體，協助戰亂中的狗狗。（圖／呂子豪提供，請勿隨意翻拍，以免侵權。）" height="399" src="//cdn2.ettoday.net/images/6790/d6790277.jpg" width="300"/&gt; &lt;img alt="▲▼台灣民兵呂子豪2022年3月到6月之間到烏克蘭參與烏俄戰爭，他發現戰亂中有狗與飼主走失了，也有些狗會跟著軍隊移動，也有貓，但貓的數量較少。（圖／呂子豪提供，請勿隨意翻拍，以免侵權。）" height="401" src="//cdn2.ettoday.net/images/6797/d6797911.jpg" width="300"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲參與戰爭的其他民兵，休息時間會與當地的流浪狗或是與主人走失的狗一起互動。（圖／呂子豪提供，請勿隨意翻拍，以免侵權。）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;從呂子豪提供的照片可以看到，同袍跟狗狗們的感情很好，會抱著牠們，也會拿玩具陪玩，只要狀況允許，同袍都會給狗狗們所需要的食物還有愛。&lt;/p&gt;, &lt;p&gt;呂子豪提到，在烏克蘭期間，好朋友同時也是愛狗人士的冠軍磁磚林小姐還匯了幾萬塊給他，委託呂子豪買寵物飼料餵貓狗，在難民營時，呂子豪抽空買了飼料餵貓狗，訓練期間或是到前線，他也都會趁休假期間補貨，能買多少是多少，拿飼料餵養牠們。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;img alt="▲▼台灣民兵呂子豪2022年3月到6月之間到烏克蘭參與烏俄戰爭，他發現戰亂中有狗與飼主走失了，也有些狗會跟著軍隊移動，也有貓，但貓的數量較少。（圖／呂子豪提供，請勿隨意翻拍，以免侵權。）" height="401" src="//cdn2.ettoday.net/images/6797/d6797910.jpg" width="300"/&gt;  &lt;img alt="▲▼台灣民兵呂子豪2022年3月到6月之間到烏克蘭參與烏俄戰爭，他發現戰亂中有狗與飼主走失了，也有些狗會跟著軍隊移動，也有貓，但貓的數量較少。（圖／呂子豪提供，請勿隨意翻拍，以免侵權。）" height="401" src="//cdn2.ettoday.net/images/6797/d6797899.jpg" width="300"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲這隻米克斯和部隊相處最久，同袍會拿護膝給牠當頭盔，守備時，米克斯就待在民兵後頭，安心的睡覺。（圖／呂子豪提供，請勿隨意翻拍，以免侵權。）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;img alt="▲▼台灣民兵呂子豪2022年3月到6月之間到烏克蘭參與烏俄戰爭，他發現戰亂中有狗與飼主走失了，也有些狗會跟著軍隊移動，也有貓，但貓的數量較少。（圖／呂子豪提供，請勿隨意翻拍，以免侵權。）" height="401" src="//cdn2.ettoday.net/images/6797/d6797914.jpg" width="300"/&gt; &lt;img alt="▲▼台灣民兵呂子豪2022年3月到6月之間到烏克蘭參與烏俄戰爭，他發現戰亂中有狗與飼主走失了，也有些狗會跟著軍隊移動，也有貓，但貓的數量較少。（圖／呂子豪提供，請勿隨意翻拍，以免侵權。）" height="401" src="//cdn2.ettoday.net/images/6797/d6797913.jpg" width="300"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲戰場休息據點，常有幼幼米克斯出沒。（圖／呂子豪提供，請勿隨意翻拍，以免侵權。）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼台灣民兵呂子豪2022年3月到6月之間到烏克蘭參與烏俄戰爭，他發現戰亂中有狗與飼主走失了，也有些狗會跟著軍隊移動，也有貓，但貓的數量較少。（圖／呂子豪提供，請勿隨意翻拍，以免侵權。）" height="398" src="//cdn2.ettoday.net/images/6797/d6797962.jpg" width="300"/&gt; &lt;img alt="▲▼台灣民兵呂子豪2022年3月到6月之間到烏克蘭參與烏俄戰爭，他發現戰亂中有狗與飼主走失了，也有些狗會跟著軍隊移動，也有貓，但貓的數量較少。（圖／呂子豪提供，請勿隨意翻拍，以免侵權。）" height="398" src="//cdn2.ettoday.net/images/6797/d6797895.jpg" width="300"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲戰亂中走失的不只有狗，也有貓，但是和狗相比，數量明顯少了許多。（圖／呂子豪提供，請勿隨意翻拍，以免侵權。）&lt;/strong&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲桃園市張姓男子2019年疑似對未成年少女性侵，事後被交保引發受害少女親友不滿動用私刑凌虐，並逼迫脫光衣物以辣椒水噴灑下體，過程還以手機拍攝還上傳臉書進行公審。（示意圖／視覺中國CFP）" height="450" src="//cdn2.ettoday.net/images/5921/d5921091.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲北市警方發現1名17歲少女，因參與聚眾鬥毆被送辦，未到案開庭遭通緝。（示意圖／視覺中國CFP）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者邱中岳／台北報導&lt;/p&gt;, &lt;p&gt;北市中山分局警員獲悉，1名未成年少女曾經參與鬥聚眾鬥毆，因為沒到案，遭新北地院以妨害秩序發布協尋少年，警方事後聯繫少女到案說明，最後通知繼父到場協助，並移送新北地院歸案。&lt;/p&gt;, &lt;p&gt;17歲李姓少女與朋友行經新北市三重區，與另外2人互看不爽，當場發生口角衝突，最後衍生7打2的場面，警方到場後將全部人等帶回派出所偵訊。&lt;/p&gt;, &lt;p&gt;李姓少女開庭時未到案，2022年10月19日遭到新北地院發布通緝，警方立刻聯繫李姓少女，請她11月4日前往派出所到案說明。&lt;/p&gt;, &lt;p&gt;因少女未成年，加上父母離異，少女跟著母親生活，但母親另結家庭生子，需要照顧小孩不能前往派出所，委由繼父代為前往協助，訊後依妨害秩序通緝移送新北地院歸案。&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼長榮航空今(15)日宣布，2023年3月30日起再添菲律賓新航點，提供台北-克拉克每日1班的飛航服務。（圖／長榮）" height="400" src="//cdn2.ettoday.net/images/6750/6750269.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲長榮航空今(15)日宣布，2023年3月30日起再添菲律賓新航點，提供台北-克拉克每日1班的飛航服務。（圖／長榮）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者李宜秦／台北報導&lt;/p&gt;, &lt;p&gt;長榮航空2023年3月30日起再添菲律賓新航點，提供台北-克拉克每日1班的飛航服務，將以空中巴士A321-200機型飛航，機上配置有8個商務艙、176個經濟艙，共184個座位數，網上已開始接受旅客訂位。&lt;/p&gt;, &lt;p&gt;長榮航空表示，搭配今年夏季班表台北-馬尼拉每日3班、台北-宿霧每日1班的飛航服務，屆時長榮航空每周將有35班飛往菲律賓，是台灣飛航菲律賓航點最多、航班最密集的航空公司，多元的航點與航班選擇，更加方便旅客行程安排。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼長榮航空今(15)日宣布，2023年3月30日起再添菲律賓新航點，提供台北-克拉克每日1班的飛航服務。（圖／長榮）" height="149" src="//cdn2.ettoday.net/images/6750/6750268.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲長榮航空台北-克拉克航班起降時間表。（圖／長榮）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;長榮航空表示，克拉克機場距離馬尼拉機場僅約80餘公里，台北-克拉克航線的開闢可以縮短呂宋島北邊旅客前往馬尼拉搭機的交通時間，同時也可舒緩馬尼拉航線機位的需求。&lt;/p&gt;, &lt;p&gt;長榮航空強調，該航線的開闢不只是著眼台灣往返菲律賓旅客的市場，同時也是為了增加北美、歐洲旅客經台灣轉機前往菲律賓的便利性，增加航網布局的效益。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼長榮航空今(15)日宣布，2023年3月30日起再添菲律賓新航點，提供台北-克拉克每日1班的飛航服務。（圖／長榮）" height="338" src="//cdn2.ettoday.net/images/6750/6750273.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼長榮航空今(15)日宣布，2023年3月30日起再添菲律賓新航點，提供台北-克拉克每日1班的飛航服務。（圖／長榮）" height="400" src="//cdn2.ettoday.net/images/6750/6750272.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲▼克拉克機場距離馬尼拉機場僅約80餘公里，台北-克拉克航線的開闢可以縮短呂宋島北邊旅客前往馬尼拉搭機的交通時間。（圖／長榮）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;img alt="▲▼長榮航空今(15)日宣布，2023年3月30日起再添菲律賓新航點，提供台北-克拉克每日1班的飛航服務。（圖／長榮）" height="400" src="//cdn2.ettoday.net/images/6750/6750271.jpg" width="600"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;img alt="▲▼長榮航空今(15)日宣布，2023年3月30日起再添菲律賓新航點，提供台北-克拉克每日1班的飛航服務。（圖／長榮）" height="400" src="//cdn2.ettoday.net/images/6750/6750270.jpg" width="600"/&gt;&lt;/strong&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼烏克蘭總統澤倫斯基（Volodymyr Zelenskyy）。（圖／達志影像／美聯社）" height="400" src="//cdn2.ettoday.net/images/6428/d6428022.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲烏克蘭總統澤倫斯基（Volodymyr Zelenskyy）。（圖／達志影像／美聯社）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;中央社&lt;/p&gt;, &lt;p&gt;烏克蘭總統澤倫斯基譴責體育中立的想法，因為當烏克蘭運動員在戰爭中戰鬥和死亡之際，俄羅斯運動員卻可能獲許參加比賽。他誓言加倍努力，阻止俄國運動員參加2024年巴黎奧運。&lt;/p&gt;, &lt;p&gt;路透社報導，澤倫斯基（Volodymyr Zelenskyy）在今晚的影音談話中說，俄羅斯運動員若能參加奧運，將使俄國入侵烏克蘭一事正常化。他指出：「當發生這樣的戰爭時，中立是不存在的。我們知道暴政經常試圖利用體育來謀取意識形態利益。」&lt;/p&gt;, &lt;p&gt;澤倫斯基昨天說，烏克蘭將發起國際運動，阻止俄羅斯參加將於2024年在巴黎舉行的夏季奧運。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼2024巴黎奧運官方IG釋出宣傳影片，融入巴黎各處知名景點，大獲好評。（圖／翻自IG／paris2024）" height="337" src="//cdn2.ettoday.net/images/5802/d5802142.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲2024巴黎奧運宣傳影片，融入巴黎各處知名景點。（圖／翻自IG／paris2024）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;俄羅斯表示，任何要將俄國排除在國際體壇之外的企圖「註定要失敗」。&lt;/p&gt;, &lt;p&gt;烏克蘭戰爭現已持續12個月，還看不到戰事的盡頭，俄羅斯最近幾週更加強攻擊烏克蘭。俄羅斯的入侵已造成數千人死亡，數百萬人流離失所，並使城市變成廢墟。&lt;/p&gt;, &lt;p&gt;澤倫斯基說：「烏克蘭運動員被迫投身捍衛他們親人的生命和我們人民的自由，免受俄羅斯的侵略。」&lt;/p&gt;, &lt;p&gt;「俄羅斯的攻擊奪走數以百計本可在世界體壇展現才華的烏克蘭男女的生命。」&lt;/p&gt;, &lt;p&gt;亞洲奧林匹克理事會（Olympic Council of Asia）已提供俄羅斯和白俄羅斯運動員在亞洲參賽的機會，給了他們取得參加2024年奧運資格的途徑。&lt;/p&gt;, &lt;p&gt;烏克蘭說，如果俄羅斯和白俄羅斯運動員參賽，他們可能會抵制奧運。&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼打電話、通話、打字、傳訊息、簡訊、手機。（圖／取自免費圖庫pixabay）" height="400" src="//cdn2.ettoday.net/images/5560/d5560900.jpg" width="600"/&gt;&lt;br/&gt;&lt;strong&gt;▲如果發現信用卡有被盜刷的疑慮，第一件事就是立即向銀行客服聯繫（圖／取自免費圖庫pixabay）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者沈君帆／綜合報導&lt;/p&gt;, &lt;p&gt;談論了這麼多盜刷手法，真的遇到了該怎麼辦？很多人都是遇到盜刷之後，才開始學習如何處理，大部分不會有問題，因為銀行比持卡人承擔了更多的盜刷風險。但有些狀況，如果可以儘早防範，就不用惹得一身麻煩。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;盜刷處理程序&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;第一步 致電銀行客服&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;如果發現信用卡可能被盜刷了，第一件事就是立即向銀行客服聯繫，說明非本人刷卡並申請為爭議款，銀行會馬上將信用卡掛失，並啟動調查程序，可能會有三種情況。&lt;/p&gt;, &lt;p&gt;情況一：盜刷，卡片不在身邊（遺失或被竊）&lt;br/&gt;若在掛失前 24 小時內被盜刷，持卡人不需承擔任何盜刷損失；若在掛失24 小時以前被盜刷，持卡人可能需支付最高3000元的損失自負額，所以發現卡片不見一定要儘早掛失。&lt;/p&gt;, &lt;p&gt;銀行在判斷持卡人是否需支付盜刷的自負額，最重要的原則是：「若冒用者在簽單上之簽名，以肉眼即可辨識與持卡人之簽名顯不相同，則持卡人免負擔自負額。」可見信用卡上一定要簽名，才能在失竊被盜刷時可以免責。&lt;/p&gt;, &lt;p&gt;-情況二：盜刷，卡片還在身邊（在網路上被盜刷）&lt;br/&gt;最可能發生在網路上，也有可能是被仿製成偽卡的盜刷。但只要卡片還在身邊，銀行確認為盜刷之後，持卡人將無需負擔任何被盜刷的金額。&lt;/p&gt;, &lt;p&gt;-情況三：不是盜刷，原來是自己忘了&lt;br/&gt;這筆錢是持卡人刷的，但也許是國外的定期扣款，比如購買APP的使用效期、雲端硬碟或影音串流服務，因為收費的間隔較長，持卡人自己都忘了。信用卡達人寶可孟提醒，若調查不是盜刷，銀行會加收一筆調查費用，30～100美金不等，因銀行而異。&lt;/p&gt;, &lt;p&gt;以上三種情況銀行都會立即掛失信用卡，所以都會有一筆補辦新卡的費用，100~200元不等。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;第二步 簽署「信用卡爭議帳款說明書」&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;致電銀行告知盜刷之後，銀行會將該筆款項列為「爭議款」，並要求簽署「信用卡爭議帳款說明書」，有些銀行以郵寄方式，有些以Email，有些則是線上填寫。填寫完之後靜候調查結果，約3-6週。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;第三步 報警並等候補發新卡&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;若因信用卡遺失而被盜刷，銀行會請持卡人到警察機關報案；若卡片沒有遺失，則向銀行掛失後自行剪卡。&lt;br/&gt;銀行將信用卡掛失之後，會補辦新卡給持卡人，新卡的卡號、期限和安全碼都會與舊卡不同，持卡人若有未結清的定期扣款，要再重新連結，以免扣款中斷。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;信用卡掛失&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;從上述盜刷的處理程序中可以發現，最麻煩的事情應該就是信用卡遺失而持卡人不知道，被盜刷超過24小時以上，就需要等待銀行調閱簽單調查，還需要向警方報案。因此，隨時檢查信用卡是否在身邊，發現遺失立刻掛失，將會省去不少麻煩。信用卡掛失比起被盜刷容易處理多了，以下是步驟。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;第一步 向銀行客服掛失&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;第二步 尋找遺失的信用卡&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;有些銀行掛失之後無法取消，如中國信託，會直接進入補發新卡的程序，並收取掛失費用100-200元。有些銀行會有1-7天的管制期，若在期限內找到信用卡，可以取消掛失。如台新銀行，在掛失當天24:00之前回報尋回則可取消掛失，也會取消掛失的費用。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;第三步 拿到補發新卡&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;當然如果在遺失的期間裡被盜刷，會有24小時條款，也有持卡人自負額的可能，所以「發現遺失立刻掛失」，就是使用信用卡的鐵律。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲購物,衝動購物,消費,信用卡,皮夾,儲蓄。（圖／翻攝自pixabay）" height="400" src="//cdn2.ettoday.net/images/5222/d5222518.jpg" width="600"/&gt;&lt;br/&gt;&lt;strong&gt;▲民眾如果養成隨時檢查信用卡是否在身邊的習慣，可以避免遺失後面臨的麻煩（圖／取自免費圖庫pixabay）&lt;/strong&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼▲ 日本長野縣栂池高原滑雪場29日發生雪崩。（圖／翻攝自栂池高原スキー場）" height="381" src="//cdn2.ettoday.net/images/6825/d6825903.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲日本長野縣山區29日發生雪崩，造成至少10多人受困。（圖／翻攝自栂池高原スキー場）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者趙蔡州／綜合報導&lt;/p&gt;, &lt;p&gt;日本長野縣小谷村29日發生雪崩事故，造成包含多位外國遊客在內，至少10多人在海拔約2100公尺高度被埋，且有多人失去意識。日本警方最新消息指出，目前已救出3名外國旅客，分別為40多歲美國男子、30多歲德國女子及20多歲奧地利男子，救援行動仍在持續進行。&lt;/p&gt;, &lt;p&gt;根據《NBS 長野放送》報導，長野縣警方29日下午2時30分左右收到民眾通報，指稱小谷村栂池高原滑雪場賽道外的山林發生雪崩，有10多人在海拔2100公尺的白馬乘鞍嶽天狗原東側斜坡滑雪時遭大雪活埋，其中包含多名外國遊客。&lt;/p&gt;, &lt;p&gt;警方最新消息指出，目前已成功救出3名外國旅客，分別為40多歲美國男子、30多歲德國女子及20多歲奧地利男子，其中奧地利男子有右肩疼痛等傷勢，另外2人沒有受傷，詳細情況仍在持續調查中。&lt;/p&gt;, &lt;p&gt;當時有民眾在附近滑雪客住宿設施報案稱「發生雪崩，有滑雪客被埋」。北阿爾卑斯廣域消防本部指出，有多人失去意識，狀況危急。滑雪場人員則指出，雪崩發生在滑雪場外的路線，具體受傷人數與狀況並不清楚。&lt;br/&gt;&lt;br/&gt; &lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;記者楊蕎綺／綜合報導&lt;/p&gt;, &lt;p&gt;日本寫真女星杉原杏璃臉蛋甜美，又擁有35G傲人上圍，被封為「G奶女帝」，走紅多年是寫真界的傳奇女神，不過她2017年之後就未再推出寫真集，2018年嫁給音樂出版公司執行董事，只是這段婚姻僅維持2年，而今年單身的她決定重出江湖，再現火辣好身材。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;img alt="▲▼杉原杏璃睽違6年再拍寫真集。（圖／翻攝自杉原杏璃官方部落格、翻攝自YouTube／杉原杏璃チャンネル）" height="450" src="//cdn2.ettoday.net/images/6825/6825901.jpg" width="600"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲▼杉原杏璃每每推出寫真集必掀起轟動，有「G奶女帝」之稱。（圖／翻攝自杉原杏璃官方部落格、翻攝自YouTube／杉原杏璃チャンネル）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼杉原杏璃睽違6年再拍寫真集。（圖／翻攝自杉原杏璃官方部落格）" height="450" src="//cdn2.ettoday.net/images/6825/6825897.jpg" width="400"/&gt;&lt;/p&gt;, &lt;p&gt;杉原杏璃2022年底便透過YouTube發布拍攝寫真集的幕後側拍影片，預告自己即將回歸寫真界，她今年雖然已40歲，身材仍保養得相當好，肌膚看起來白嫩細緻，除了原本的傲人上圍，背部美尻也是她最滿意的部位之一，曾經的「G奶女帝」睽違6年終於回歸，令不少粉絲期待不已。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼杉原杏璃睽違6年再拍寫真集。（圖／翻攝自杉原杏璃官方部落格）" height="450" src="//cdn2.ettoday.net/images/6825/d6825896.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲杉原杏璃睽違6年強勢回歸寫真界。（圖／翻攝自杉原杏璃官方部落格）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;杉原杏璃16歲就踏入演藝圈，每次推出寫真集都會造成轟動，後來跨足綜藝節目也獲得成功，尤其擅長投資股票，累積10年以上的經驗，因此還贏得「股票偶像」的特殊封號，個人存款破億，2018年宣布嫁給音樂出版公司執行董事，兩人一路從好友發展情人再到夫妻，可惜最終這段婚姻僅維持2年，不過雙方離婚後仍維持友誼。&lt;/p&gt;, &lt;p&gt;&lt;iframe allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen="" frameborder="0" height="315" src="https://www.youtube.com/embed/n8LN1Jbh_mA" title="YouTube video player" width="560"&gt;&lt;/iframe&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲桃園市林姓人夫與林姓女子婚外情，林姓人夫上傳「明天要跟你瘋狂愛愛」等鹹濕對話給林女，人妻查獲怒向小三求償250萬。（示意圖／取自免費圖庫pexels）攝）" height="400" src="//cdn2.ettoday.net/images/5949/d5949527.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲示意圖，和本新聞無關。（圖／取自免費圖庫pexels）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者朱祖儀／綜合報導&lt;/p&gt;, &lt;p&gt;有些人過年會包紅包給長輩或小孩，也會包給另一半。一名網友就說，這次本來想包6000元給女友，但沒想到2人想要愛愛的時候，對方突然要求加倍，還說「過年上班都有加班費」，讓他當場傻眼，不知道還要不要繼續走下去。不少人看到文章後，紛紛表示「快放生啊」。&lt;/p&gt;, &lt;p&gt;原PO在Dcard發文表示，和女友在一起8個月了，平時到小吃店吃飯都是女方付，但如果吃到300元以上的餐廳通常都是他出錢，想要開房間或是買保險套的費用也都是他負責，「我對她在錢這部分比較沒那麼計較，畢竟是自己女朋友」。&lt;/p&gt;, &lt;p&gt;原PO表示，最近年假女友到他們家拜年吃飯，晚上回到房間後，2人就凍未條想要開戰。沒想到他前戲做到一半，女方突然說「要放進來的話，紅包錢要多一點唷」。他表示雖然本來就打算要包6000元，先前也有和對方說過，但聽到後仍有點錯愕，問「妳想要多少？」結果對方竟說「那就1萬2000元好了，因為過年上班都有加班費，所以愛愛也可以有吧」。&lt;/p&gt;, &lt;p&gt;傻眼的是，2人床戰結束後，女友真的要收錢，還說可以用轉帳的方式，「你不用特地領錢包紅包，我很貼心吧」。原PO聽了之後更加不知所措，認為平時對女友很大方，未料對方卻在過年時獅子大開口，為此感到有些難過，「不確定能不能跟這個女生繼續走下去」。&lt;/p&gt;, &lt;p&gt;不少網友看到後紛紛表示，「怎麼有種在賣的既視感」、「這個職業病有點重啊，兄弟回收別亂撿」、「請不要把援交妹幻想成女友好嗎？醒醒啊」、「你當下怎麼沒拒絕她？真想看她傻掉的臉」、「我一開始以為這是情趣開玩笑，沒想到還真有談到價錢和line pay」、「如果不是幻想文，而是真女友的話，認真給你建議就是分手，做愛是兩人彼此相願，沒有人這樣給錢的」、「這是把你當ATM吧…快逃」、「她是在跟你開玩笑嗎？如果是真的請放生」。&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲富邦勇士強森、鋼鐵人張傑瑋。（圖／PLG提供）" height="400" src="//cdn2.ettoday.net/images/6825/d6825894.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲鋼鐵人開春首戰，就以24分慘敗收場。（圖／PLG提供）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者杜奕君／綜合報導&lt;/p&gt;, &lt;p&gt;即便在農曆新年宣布迎來超級球星林書豪加盟，高雄17直播鋼鐵人29日在兔年開春首戰，依舊輸得灰頭土臉，上半場就陷入多達30分落後，最終讓衛冕軍台北富邦勇士以106比82大勝贏球，勇士也搶下開春主場2連勝。至於以24分慘敗的鋼鐵人，還是只能期待林書豪正式抵台後，帶來不同的團隊化學效應。&lt;/p&gt;, &lt;p&gt;&lt;iframe allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen="" frameborder="0" height="315" src="https://www.youtube.com/embed/2okNviTK6iw" title="YouTube video player" width="560"&gt;&lt;/iframe&gt;&lt;/p&gt;, &lt;p&gt;勇士在農曆年前吞下加入PLG職籃後隊史首度4連敗，但經過年假調整後，昨日在7000位滿場球迷助威下，斬斷對手桃園璞園領航猿10連勝，也終於成功迎接下半季首勝。&lt;/p&gt;, &lt;p&gt;今日迎戰聯盟墊底爐主鋼鐵人，鋼鐵人方面對於林書豪何時抵台仍是三緘其口，但球隊整體戰力恐怕不容些許等待，上半場地主勇士就狂轟猛炸，以62比32取得大幅領先。&lt;/p&gt;, &lt;p&gt;第3節鋼鐵人雖然攻勢稍有起色，但上半場落後幅度實在過大，末節雖有外籍生張傑瑋殺出，單節獨拿10分進帳，但勇士全員出擊，13位登錄球員都有得分紀錄，最終就以24分之差痛宰鋼鐵人。&lt;/p&gt;, &lt;p&gt;此戰勇士全場以強森22分、18籃板、6助攻表現最佳，辛特力22分、7籃板、3抄截，本土球員方面則有3人得分達雙位數。&lt;/p&gt;, &lt;p&gt;開春就面臨慘敗的鋼鐵人方面，克拉索夫拿下全隊最高22分外帶6籃板、2抄截，鑀倫21分、3籃板、3抄截，張傑瑋則是16分、2抄截、1阻攻。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲富邦勇士強森、鋼鐵人張傑瑋。（圖／PLG提供）" height="400" src="//cdn2.ettoday.net/images/6825/d6825895.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲富邦勇士強森下半季首度登場就轟下22分、18籃板、6助攻。（圖／PLG提供）&lt;/strong&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼ 情人節珠寶            。（圖／公關照）" height="800" src="//cdn2.ettoday.net/images/6796/6796898.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲模特兒疊戴蕭邦My Happy Hearts系列珠寶顯得俏皮可愛。（圖／蕭邦提供，以下同）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者陳雅韻／台北報導&lt;/p&gt;, &lt;p&gt;過完農曆新年，緊接著將迎接西洋情人節來臨，珠寶品牌獻上全新設計與經典作品，不僅寵愛另一半，亦可選擇同系列的不同款式，同戴珠寶曬恩愛。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼ 情人節珠寶            。（圖／公關照）" height="401" src="//cdn2.ettoday.net/images/6796/d6796900.jpg" width="300"/&gt;&lt;img alt="▲▼ 情人節珠寶            。（圖／公關照）" height="399" src="//cdn2.ettoday.net/images/6796/d6796901.jpg" width="300"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲蕭邦My Happy Hearts系列共有項鍊、耳環、手鍊與戒指款式，珍珠母貝項鍊51,000元，瑪瑙款式55,000元。&lt;br/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;span style="color: rgb(255, 102, 0);"&gt;&lt;strong&gt;甜美魅力&lt;/strong&gt;&lt;/span&gt;&lt;br/&gt;誰能抵抗心形珠寶或粉紅珠寶的甜美魅力？蕭邦（Chopard）經典心形珠寶變身，以更簡潔俐落的My Happy Hearts系列亮相，以符合倫理道德標準的18K玫瑰金製作的心形項鍊、耳環與手鍊鑲嵌珍珠母貝或紅色瑪瑙，唯有戒指與耳環還備有綴著一顆自由活動鑽石的款式，每一件作品都小巧可愛，又是能自由疊戴展現個人風格的設計。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼ 情人節珠寶            。（圖／公關照）" height="399" src="//cdn2.ettoday.net/images/6796/d6796902.jpg" width="300"/&gt;&lt;img alt="▲▼ 情人節珠寶            。（圖／公關照）" height="399" src="//cdn2.ettoday.net/images/6796/d6796903.jpg" width="300"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲De Beers為情人節推出Enchanted Lotus 18K玫瑰金與粉紅色琺瑯鑽石圓牌項鍊（左）80,000元，手鍊77,000元。（圖／De Beers提供）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;De Beers也特別為西洋情人節創作Enchanted Lotus系列粉紅色琺瑯項鍊與手鍊，粉紅色琺瑯打造的圓牌吊墜以密釘微鑲鑽石勾勒出蓮花的花瓣輪廓，中央則鑲圓形明亮式鑽石，甜美新色展現戀愛中的甜蜜。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲情人節珠寶            。（圖／公關照）" height="375" src="//cdn2.ettoday.net/images/6796/d6796904.jpg" width="300"/&gt;&lt;img alt="▲情人節珠寶            。（圖／公關照）" height="375" src="//cdn2.ettoday.net/images/6796/d6796905.jpg" width="300"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲CHAUMET Liens Évidence 18K白金吊墜103,000元與18K玫瑰金吊墜95,200元，鑲嵌鑽石與藍寶石的Jeux de Liens 18K白金吊墜204,000元。&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;span style="color: rgb(255, 102, 0);"&gt;&lt;strong&gt;美好寓意&lt;/strong&gt;&lt;/span&gt;&lt;br/&gt;法國珠寶品牌CHAUMET暗喻戀人間的結合和承諾的Liens Évidence系列，於情人節前夕推出全新吊墜，有別於以往柔美形象，改採中性俐落的寬版設計，男女皆適合，運用鑲鑽線條，將貴金屬連結在一起形成一個圓圈，象徵戀人相守不渝；另一新作Jeux de Liens新款吊墜與戒指，讓鑲嵌藍寶石與鑽石的兩個圓圈完美相遇，詮釋打破了性別、種族、語言等的界線相愛的戀人。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲情人節珠寶            。（圖／公關照）" height="450" src="//cdn2.ettoday.net/images/6796/d6796908.jpg" width="300"/&gt;&lt;img alt="▲情人節珠寶            。（圖／公關照）" height="450" src="//cdn2.ettoday.net/images/6796/6796909.jpg" width="300"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲寶格麗B.zero1系列戒指與手環設計中性， Logo系列玫瑰金手環143,600元。（圖／寶格麗提供）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;span style="color: rgb(255, 102, 0);"&gt;&lt;strong&gt;經典手環&lt;/strong&gt;&lt;/span&gt;&lt;br/&gt;跨越性別界線的中性珠寶大風行，情人可選同系列不同款式一同放閃，若尺寸合宜還有機會交換戴。寶格麗（BVLGARI）靈感源自羅馬競技場的B.zero1、卡地亞（Cartier）螺絲圖騰的LOVE與釘子化為珍貴珠寶的Juste un Clou系列珠寶都是熱門選擇，特別是手環款式有不同的材質、鑲鑽或未鑲鑽等豐富款式，單戴或多個一起疊搭都非常出色。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼情人節珠寶             。（圖／公關照）" height="900" src="//cdn2.ettoday.net/images/6796/6796910.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲女模特兒戴卡地亞LOVE系列耳環及手環；男模特兒戴Juste un Clou白金手環，都是珠寶界中的經典作。（圖／卡地亞提供，以下同）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;img alt="▲▼情人節珠寶             。（圖／公關照）" height="600" src="//cdn2.ettoday.net/images/6796/6796911.jpg" width="600"/&gt;&lt;br/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲卡地亞LOVE系列玫瑰金細版手環，209,000元。&lt;/strong&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲大樂透、威力彩雙邊押寶　彩券行老闆：超過10組客人包牌。（圖／記者姚惠茹攝）" height="450" src="//cdn2.ettoday.net/images/5454/d5454376.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲大樂透29日頭獎上看3.3億元。（圖／記者鄒鎮宇攝）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者趙蔡州／綜合報導&lt;/p&gt;, &lt;p&gt;台彩大樂透連續5槓龜，初八（1/29）晚間再度開獎，頭獎上看3.3億。春節大紅包部分還有121組未送出，快來對獎試試手氣吧。&lt;/p&gt;, &lt;p&gt;台彩29日晚間開出第112000015期大樂透，獎號由小到大依序為&lt;strong&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;02、08、09、15、27、31，&lt;/span&gt;&lt;/strong&gt;特別號&lt;strong&gt;&lt;span style="color: rgb(255, 0, 0);"&gt;42&lt;/span&gt;&lt;/strong&gt;。&lt;/p&gt;, &lt;p&gt;至於春節大紅包加碼部分，9個獎號由小到大依序為&lt;strong&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;04、05、08、09、10、11、24、29、48&lt;/span&gt;&lt;/strong&gt;。只要對中任6碼，每組獎金100萬元，並依中獎注數均分。&lt;/p&gt;, &lt;p&gt;截至初七為止，春節大紅包累積開出239組，總共有283位幸運兒中獎，其中有196人獨自贏得百萬獎金，84人贏得50萬元獎金，還有3人分得33萬元。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▼大樂透春節加碼時程表，&lt;span style="color: rgb(0, 0, 255);"&gt;點圖可放大&lt;/span&gt;。（圖／台彩）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;a href="https://cdn2.ettoday.net/images/6819/6819553.jpg" target="_blank"&gt;&lt;img alt="▲▼台彩春節加碼時程表。（圖／台彩）" height="334" src="//cdn2.ettoday.net/images/6819/6819553.jpg" width="600"/&gt;&lt;/a&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼網友好奇，煮開水到底要不要開抽油煙機。（圖／取自免費圖庫pixabay）" height="400" src="//cdn2.ettoday.net/images/5955/d5955844.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲專家表示，未過濾的水煮沸時，仍建議打開抽油煙機。（示意圖／取自免費圖庫pixabay）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者張乃文／綜合報導&lt;/p&gt;, &lt;p&gt;人體有70%是水，攸關身體的運作。而除了喝水重要，第一步更要了解你喝的水「健康」嗎？無毒教母譚敦慈指出，其實煮水的方式很重要，以免殘留過多有害物質；像是建議要取「晚上」的，另外，未經過過濾的水，煮沸時，記得打開抽油煙機，減少暴露三鹵甲烷或PM2.5。&lt;/p&gt;, &lt;p&gt;譚敦慈在《&lt;a href="https://www.youtube.com/watch?v=Q0sXsjJaaVE" target="_blank"&gt;健康2.0-明欣醫聊事&lt;/a&gt;》表示，之所以建議取晚上的水，原因是晚上睡覺的時間，水管較少流動，也會累積部分重金屬等，可能因此而釋出。她說，早上的水無論用來刷牙、洗臉或沖馬桶等都可以，但不要拿來煮水喝。&lt;/p&gt;, &lt;p&gt;譚敦慈說明，她會在晚上睡覺前取一桶水，因為白天水流動較快，到了晚上就不容易有「有毒物質」殘留；另外，煮水容器建議可用熱水壺或不鏽鋼304、316；玻璃則留易選擇不含鉛的材質。她強調，煮沸後要記得留意「沒過濾的水」須打開抽油煙機再煮，可減少三鹵甲皖、氯或PM2.5暴露；若是已過濾的水，直接燒開即可。&lt;/p&gt;, &lt;p&gt;譚敦慈也補充，個人在生活中不建議喝的水，包括「瓶裝水」及「杯水」。她點名，這些容器容易有塑膠微粒的風險，因此通常會自帶保溫杯。同時，很多人水沒喝完會放著隔天再喝，但這個習慣要戒掉。因為水打開、喝過會長細菌，建議當天的水直接喝掉，否則隔天也要倒掉。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼專家建議，燒開水取晚上的，且煮的時候最好打開抽油煙機。（圖／翻攝自《健康2.0-明欣醫聊事》）" height="336" src="//cdn2.ettoday.net/images/6787/6787926.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲專家建議，燒開水取晚上的，減少有毒物質殘留的可能。（圖／翻攝自《健康2.0-明欣醫聊事》）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;喝下肚的水，更要注意攝取量及時間。營養師余朱青傳授正確方式，因為人體有70%是水，多喝水可幫助消化、促進新陳代謝，更可以運送養分、調節體溫等，諸多功能是身體運作的根本。不過，每個人的喝水量大不同，營養師說明，一般成年人一天要喝的基本水量可用「公斤數X30ml」來計算；以一個60公斤的成年人而言，一天至少要喝1800ml的水，若是在減脂的人，可將水量加至「體重X35ml」。&lt;/p&gt;, &lt;p&gt;余朱青強調，「喝水很重要 ，但是喝水的方法更重要。」因為喝水可加速新陳代謝，幫助排除體內的毒素及廢物，想成功減脂甩肉的人，更應該學會如何正確喝水。營養師列舉了6大時間點是「早上起床後、上完廁所後、在辦公室時、運動前中後、洗澡後、喝酒後。」&lt;/p&gt;, &lt;p&gt;余朱青說，喝水聽起來很容易，事實上可是個大學問，因為不是每天拿起來猛灌，湊到一天數量即可，人體每次能吸收的水量有限，平均而言，身體20分鐘約可吸收2000ml的水量，若為了湊數，一次喝過多量，只會增加跑廁所次數排掉，身體無法有效的利用水份。&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲Lightyear 2。（圖／翻攝自Lightyear）" height="338" src="//cdn2.ettoday.net/images/6797/6797584.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲第2代太陽能車Lightyear 2預覽照登場。（圖／翻攝自Lightyear）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;實習記者金奇／綜合報導&lt;/p&gt;, &lt;p&gt;去年荷蘭新創公司Lightyear推出Lightyear 0電動車，其車輛上所覆蓋的太陽能板，在最佳狀態下可從太陽補充70公里的續航里程，做到真正的零污染，雖然Lightyear 0十分方便，但售價並不便宜，起價為250,000歐元（約新台幣810萬元）。近日Lightyear再度推出第2款量產車Lightyear 2的預覽照片，並表示其建議售價將低於40,000歐元（約新臺幣130萬元）相對親民許多。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲Lightyear 2。（圖／翻攝自Lightyear）" height="338" src="//cdn2.ettoday.net/images/6797/6797586.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲Lightyear 2。（圖／翻攝自Lightyear）" height="338" src="//cdn2.ettoday.net/images/6797/6797585.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲Lightyear 2延續了前一代車型Lightyear 0流線的車身。（圖／翻攝自Lightyear）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;外觀方面Lightyear2延續了Lightyear 0的流線車身，並擁有黑白雙色烤漆配置，底盤離地高度增加不少，在引擎蓋及車頂同樣裝有太陽能板，車輪則使用節能輪胎以及低風阻設計的輕量化輪圈。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲Lightyear 2。（圖／翻攝自Lightyear）" height="338" src="//cdn2.ettoday.net/images/6797/6797587.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲Lightyear 2。（圖／翻攝自Lightyear）" height="338" src="//cdn2.ettoday.net/images/6797/6797583.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲Lightyear 2採用太陽能充電，續航里程約可達800公里，在陽光充足條件下每天可額外提供70公里的續航。（圖／翻攝自Lightyear）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;續航方面，Lightyear 2採用太陽能充電，續航里程約可達800公里，在陽光充足條件下每天可額外提供70公里的續航。與Lightyear 0一樣，Lightyear 2對充電的需求不像傳統電動車那麼高，讓駕駛可以有更多的時間及精力享受自由旅行，不必受到充電站的束縛，而透過自然資源進行免費充電，也使其在行駛過程中產生的二氧化碳排放量減半。&lt;/p&gt;, &lt;p&gt;目前Lightyear 2已可在官網上開放買家免費下訂，並計劃於2025年底開始量產，其建議售價將低於40,000歐元（約新臺幣130萬元）。&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲TOYOTA。（圖／路透）" height="401" src="//cdn2.ettoday.net/images/5600/5600753.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲TOYOTA在大陸銷量下滑。（示意圖／路透）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者蔡儀潔／綜合報導&lt;/p&gt;, &lt;p&gt;TOYOTA日前發布消息稱，2022年在大陸市場的新車銷量為194.06萬輛，較2021年減少0.2%，此次是其在華十年來首次出現年增長下滑。豐田中國受訪表示，主要受疫情影響。&lt;/p&gt;, &lt;p&gt;據《第一財經》報導，TOYOTA在華銷量自2022年11月以來，已經連續2個月下滑，其中12月年增率減少19.8%。&lt;/p&gt;, &lt;p&gt;對此，TOYOTA方面曾表示，疫情蔓延讓經銷商的經營受到限制，導致客戶大幅減少。11 月底受疫情封控影響，多家在華車企工廠面臨減產。&lt;/p&gt;, &lt;p&gt;除TOYOTA外，日系汽車三巨頭中的HONDA和Nissan在華銷量也出現下滑。其中，HONDA在2022年僅賣出137.31萬輛新車，減少12.1%，連續2年銷量走低；Nissan銷量為104.52萬輛，下滑22.1%，連續四年下滑。&lt;/p&gt;, &lt;p&gt;廣州一家日系4S店負責人受訪表示，廣東是日系品牌最重要的市場，普遍佔大陸全國銷量的三分之一左右，2022年廣州4月以及11月兩波疫情對銷售和生產皆產生較大衝擊，導致其4S店累計關店時間超過2個月，銷量下滑30%左右。&lt;/p&gt;, &lt;p&gt;該負責人還談到，日系等合資品牌2022年表現普遍不理想，原因比較複雜，一方面，日系、德系等合資車企的晶片全球供應依然不正常，產銷量受到影響；另一方面，大陸國內90後成為購車主力，消費觀念正發生變化，越來越青睞自主品牌。&lt;/p&gt;, &lt;p&gt;該負責人指出，目前，大陸合資新能源車表現一般甚至不好，這與燃油車普遍能賺錢、新能源車基本虧損有關，合資車企從盈利角度在新能源車方面投入有所保留。&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼除夕夜刮刮樂             。（圖／記者劉亮亨攝）" height="400" src="//cdn2.ettoday.net/images/6820/d6820009.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲「2000萬超級紅包」刮刮樂還有6個頭獎沒送出 。（圖／記者劉亮亨攝）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者許力方／台北報導&lt;/p&gt;, &lt;p&gt;台彩今年推出的春節刮刮樂「2000萬超級紅包」，年假即將結束，但還有6個2000萬元頭獎還沒送出，倒是出現許多百萬富翁！台北市萬華就有一位80多歲的阿嬤，因疫情留在台灣、又夢到老伴托夢，感應到「2個暗示」，結果買刮刮樂一刮就幸運中獎100萬元。&lt;/p&gt;, &lt;p&gt;根據萬華「勝方投注站」描述，日前有一位80歲的阿嬤，一進店裡就很高興地說，&lt;span style="color: rgb(255, 102, 0);"&gt;&lt;strong&gt;前一晚夢到老伴包了紅包給她&lt;/strong&gt;&lt;/span&gt;，她感覺應該有什麼暗示，所以一早就跑到彩券行來試試手氣，沒想到只挑了一張「2000萬超級紅包」，就幸運刮中100萬元。阿嬤說，因為家人都不住台灣，&lt;strong&gt;因為疫情今年比較晚去找孫子&lt;/strong&gt;，沒想到留在台灣就刮中大獎，「今年可以包個大紅包給他們了！」&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▼高雄有10員工集資買整本刮刮樂，連2年刮中百萬。（圖／記者賴文萱翻攝）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼高雄10員工集資買整本刮刮樂，連2年都刮中百萬。（圖／記者賴文萱翻攝）" height="450" src="//cdn2.ettoday.net/images/6812/d6812996.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;台彩表示，2000萬超級紅包共有7個頭獎2000萬元、10個200萬元+賓士休旅車、850個100萬元，獎項數目均創新高。但截至1月27日，只刮出1個2000萬元、2個200萬元+賓士、194個100萬元。也就是說，還剩下6個2000萬元頭獎、8個200萬元+賓士、656個百萬獎還沒送出。&lt;/p&gt;, &lt;p&gt;不過，很多投注站檯面上的「2000萬超級紅包」幾乎已銷售一空，彩券行業者表示，很可能民眾買回去但還沒刮，也可能是還沒兌獎，業者提醒，要把握時間，兌獎期限為各期彩券開獎日次日起「3個月內」。&lt;/p&gt;, &lt;p&gt;&lt;a href="https://bit.ly/30PqltT\" target="“_blank"&gt;&lt;span&gt; &lt;/span&gt;►按這訂閱Podcast《小編沒收工》每天熱門話題聊不完&lt;/a&gt;&lt;/p&gt;, &lt;p&gt;&lt;iframe allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen="" frameborder="0" height="315" src="https://www.youtube.com/embed/bxajyI0GWRg" title="YouTube video player" width="560"&gt;&lt;/iframe&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;記者蕭采薇／綜合報導&lt;/p&gt;, &lt;p&gt;瑞典票房巨星法瑞斯法瑞斯（Fares Fares）在間諜片《開羅謀殺案》（Cairo Conspiracy）飾演國安局高層人員，因為介入開羅名校艾資哈爾大學的權力布局，更吸收大學生擔任國安局臥底，引發驚濤駭浪。該片去年底在法國上映時，不僅刷出1.5億台幣票房超級紀錄、躍為法國年度最賣座外語片。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼瑞典票房巨星法瑞斯法瑞斯（Fares Fares）主演間諜片《開羅謀殺案》。（圖／海鵬提供）" height="400" src="//cdn2.ettoday.net/images/6825/d6825889.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲法瑞斯法瑞斯在《開羅謀殺案》招募大學生臥底。（圖／海鵬提供）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;法瑞斯法瑞斯是應導演好友塔利克薩利赫（Tarik Saleh）之邀，演出間諜驚悚電影《開羅謀殺案》，再度成為國際焦點。他在片中飾演埃及國安局高層的上校軍官伊布拉欣，在開羅艾資哈爾大學的宗教領袖大伊瑪目突然死去後，意圖染指校園，暗中招募大學新鮮人亞當（塔菲克伯罕Tawfeek Barhom飾演）擔任臥底，竟引爆一場間諜風暴。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼瑞典票房巨星法瑞斯法瑞斯（Fares Fares）主演間諜片《開羅謀殺案》。（圖／海鵬提供）" height="338" src="//cdn2.ettoday.net/images/6825/d6825890.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲法瑞斯法瑞斯鬥智引人入勝，《開羅謀殺案》榮獲法國凱薩獎提名。（圖／海鵬提供）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;法瑞斯片中城府極深，為了招募亞當臥底，甚至承諾要為他生病的父親提供醫療作為引誘，軟硬兼施令人難以招架。而他精彩的演出，也助該片狂吸50萬觀影人次、超越1.5億台幣票房，榮登繼《寄生上流》後法國票房最高的非英語外語電影。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼瑞典票房巨星法瑞斯法瑞斯（Fares Fares）主演間諜片《開羅謀殺案》。（圖／海鵬提供）" height="338" src="//cdn2.ettoday.net/images/6825/d6825893.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲《開羅謀殺案》片中的國安局神似前東德特務組織「史塔西」。（圖／海鵬提供）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;已在瑞典爆紅20多年的法瑞斯法瑞斯，出生於黎巴嫩貝魯特，擁有四個兄弟姊妹，瑞典知名票房導演約瑟夫法瑞斯（Josef Fares）就是他的胞弟。法瑞斯14歲時，全家為躲避黎巴嫩內戰而移民瑞典，為了生存，他竟在三個月內就學會了瑞典語，語言天分驚人。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼瑞典票房巨星法瑞斯法瑞斯（Fares Fares）主演間諜片《開羅謀殺案》。（圖／海鵬提供）" height="338" src="//cdn2.ettoday.net/images/6825/d6825892.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲法瑞斯法瑞斯在《開羅謀殺案》周旋在權力爭鬥漩渦之中。（圖／海鵬提供）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;他因為2000年時擔綱演出導演胞弟的喜劇片《男人三十拉警報》，因成功詮釋「落跑新郎」角色而聲名大噪。兩人乘勝追擊「兄演弟導」警匪喜劇《條子駭客》（Kopps），更是創下票房、口碑雙料成功，自此穩坐「瑞典票房一哥」寶座，《開羅謀殺案》將於2月10日全台上映。&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼「阿嬤家－和平與女性人權館」特展《復援你的心－性暴力被害人創傷與復原》，讓大眾更了解性暴力被害者的復原與重建的方式，也了解如何協助、支持受害者。（圖／阿嬤家－和平與女性人權館）" height="400" src="//cdn2.ettoday.net/images/6795/d6795702.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲性暴力至今從未消失，特展讓大眾更了解性暴力被害者的復原與重建的方式，包括如何協助、支持受害者。（圖／阿嬤家－和平與女性人權館）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者林育綾／綜合報導&lt;/p&gt;, &lt;p&gt;根據衛福部統計，2005-2021年全台性侵害通報案件超過18萬件，其中超過8成是女性，而性暴力受害者的創傷除了來自施暴者之外，往往還有社會上污名化的二次傷害。「阿嬤家－和平與女性人權館」目前舉行全新特展《復援你的心－性暴力被害人創傷與復原》，讓大眾更了解性暴力被害者的復原與重建的方式，也了解如何協助、支持受害者。&lt;/p&gt;, &lt;p&gt;「阿嬤家－和平與女性人權館」提到，性暴力是基於性別歧視而產生的侵害行為，可能發生在各個公私領域、實體與虛擬世界。它不僅是危及人身安全的犯罪問題，也是公共衛生的議題之一。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼「阿嬤家－和平與女性人權館」特展《復援你的心－性暴力被害人創傷與復原》，讓大眾更了解性暴力被害者的復原與重建的方式，也了解如何協助、支持受害者。（圖／阿嬤家－和平與女性人權館）" height="400" src="//cdn2.ettoday.net/images/6795/d6795703.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲此次展覽從的阿嬤們故事出發，讓來訪民眾能夠更了解阿嬤所經歷的性暴力創傷與復原之路。（圖／阿嬤家－和平與女性人權館）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;此次展覽從過去經歷過慰安婦（軍事性奴隸）的阿嬤們故事出發，在展場也有社工師分享陪伴阿嬤們修復身心的歷程，以及阿嬤們參與身心工作坊的經驗，讓來訪民眾能夠更了解阿嬤所經歷的性暴力創傷與復原之路。&lt;/p&gt;, &lt;p&gt;特展將首次展出「宛女阿嬤」生前繪製的〈拿花的小女孩和樹上的鳥〉，還結合心理測驗活動，讓民眾理解繪畫如何透露被害者的心理需求，以及當年阿嬤參與的身心工作坊的活動，如何修復她們的心理創傷，民也能更了解自己潛在的身心需求。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼「阿嬤家－和平與女性人權館」特展《復援你的心－性暴力被害人創傷與復原》，讓大眾更了解性暴力被害者的復原與重建的方式，也了解如何協助、支持受害者。（圖／阿嬤家－和平與女性人權館）" height="400" src="//cdn2.ettoday.net/images/6795/d6795701.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲「阿嬤家－和平與女性人權館」特展，讓大眾更了解性暴力被害者的復原與重建的方式。（圖／阿嬤家－和平與女性人權館）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;「阿嬤家」提到，性暴力受害者的創傷，除了來自於施暴者的行為外，還有來自社會上污名化的不友善環境所造成的二度傷害，讓受害者創傷復原的困難度增加。&lt;/p&gt;, &lt;p&gt;由於性暴力受害者依創傷嚴重程度，有不同的復原歷程；但都可藉由認識與面對性暴力事件的創傷影響，以及陪伴、支持身心療癒、生活重建，同時營造「不歧視的家庭和社會環境」等各方面提供協助。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼「阿嬤家－和平與女性人權館」特展《復援你的心－性暴力被害人創傷與復原》，讓大眾更了解性暴力被害者的復原與重建的方式，也了解如何協助、支持受害者。（圖／阿嬤家－和平與女性人權館）" height="400" src="//cdn2.ettoday.net/images/6795/d6795704.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲透過特展，讓民眾更了解性暴力受害者的感受和需求。（圖／阿嬤家－和平與女性人權館）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;從過去到現在，性暴力事件未曾消失，期望透過特展，讓民眾更了解受害者的感受和需求，也了解當生活周遭出現性暴力事件時，自己能夠如何協助受害者。《復援你的心－性暴力被害人創傷與復原》特展即日起至6月底在「阿嬤家－和平與女性人權館」舉行，現場還有中、英、日、韓語，4種語音導覽。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;span style="color: rgb(51, 102, 255);"&gt;阿嬤家－和平與女性人權館&lt;/span&gt;&lt;/strong&gt;&lt;span style="color: rgb(51, 102, 255);"&gt;&lt;br/&gt;開放時間：周二到周六10:00-17:00&lt;br/&gt;門票：30元/一人&lt;br/&gt;館址：台北市大同區承德路三段32號5樓（近民權西路站）&lt;br/&gt;連絡電話：02-25537133 &lt;br/&gt;春節閉館日：1/21(六)-1/27(五)&lt;/span&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="即將開工的各位，可以照著專家建議，改變辦公室座位的擺設，換換新氣象！（示意圖，翻攝自Pexels）" src="//cdn2.ettoday.net/images/6825/d6825672.jpg"/&gt;&lt;/p&gt;, &lt;p&gt;圖文／鏡週刊&lt;/p&gt;, &lt;p&gt;農曆年假即將結束，要開工的各位回顧過去一年，當埋頭苦守在辦公室時，桌面的布置、擺放除了乾淨之外，似乎也會影響工作運勢、招貴人、長智慧。塔羅牌老師艾菲爾就分享幾個簡單的擺設、作法，提供給大家參考。&lt;b&gt; &lt;/b&gt;&lt;/p&gt;, &lt;p&gt;2022年的文昌位在東南方（2023年文昌位在中宮方），可將辦公桌移至此方位，提升自己的腦力，升遷丶晉級的好運也會隨之而來，上方要避開梁柱，如果上方有梁柱，可在抽屜擺放五帝錢化解，台燈擺放左手龍邊，可吊掛紫水晶丶或是懸掛水晶文昌筆。&lt;/p&gt;, &lt;p&gt;2022年的太歲方位在東北方（2023年太歲位在正東方），辦公桌應避免面對太歲方位，因為太歲當頭坐，無喜恐有禍，若實在避不開，可懸掛黑曜石葫蘆，幫助擋災除厄。　&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;辦公桌面隨時保持整齊、清潔：&lt;/strong&gt;工作場所的桌子上不相關的雜物盡量不要擺放，也不要在桌上擺放垃圾桶，這樣會聚集污穢之氣，擾亂整體運勢也會讓人覺得不專業，降低工作效率及貴人運勢。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;電話放左邊，文件擺右邊：&lt;/strong&gt;所謂左青龍丶右白虎，而龍怕靜、虎怕吵，所以可以將會發出聲響的東西擺放在左手邊，如：電話、喇叭、傳真機…等，而右手邊則是，文件、資料、書籍可以擺放在右手邊。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;電腦桌面設定美照：&lt;/strong&gt;對於每天都會用到電腦的人來說，桌布設定非常重要，可以設定自己很喜歡的圖片，或是充滿生機的風景圖，讓每天開始工作的時候都感覺到活力。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;座位靠牆、遠離小人：&lt;/strong&gt;座位靠牆等於有靠山，利於事業拓展，聚集人脈，穩固地位，如果覺得事業不順，總有小人插足，或因業務繁忙不常在辦公室，可以在自己的椅背上掛一件黃色系的外套，有黃袍加身、驅趕小人的寓意，注意外套也要定期換洗，背後不宜有走道，以免擾亂心神，小人趁虛而入。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;辦公桌擺放綠意盆栽&lt;/strong&gt;：在辦公桌上擺放綠色植物，可以紓解壓力，放鬆心情，可以選用富貴竹以及招財樹，或葉子圓型的盆栽，這些植物意喻為吉祥丶聚財丶如意等意思，而富貴竹也可稱為萬年竹，葉片茂綠，往上生長，意喻節節高昇，升官發財，但盡量避免仙人掌及有刺的植物。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;不要面對走道、廁所：&lt;/strong&gt;桌子的面向也很重要，盡量避免面對污穢之氣，且人來人往容易影響工作情緒，這些都是犯病氣、招衝突的風水誤區。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;走道通暢，同事互動佳：&lt;/strong&gt;雖然走道並不像辦公桌面屬於私領域，但是整間公司的動線，卻也會影響大家的人際關係好壞，辦公室的走道如果通暢無阻，那麼同事之間自然交流得宜，若大家貪圖方便，隨便將物品堆放在走道，往往只會使同事間溝通不良，也阻礙了財運發展。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;★《鏡週刊》關心您，民俗說法僅供參考，切勿過度迷信。&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;span style="background-color: rgb(204, 153, 255);"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;免加會員直接購&lt;/strong&gt;&lt;/span&gt;&lt;/span&gt;&lt;strong&gt; &lt;/strong&gt;&lt;span style="background-color: rgb(255, 255, 0);"&gt; &lt;/span&gt;&lt;/p&gt;, &lt;p&gt;&lt;a href="https://fugo.ehsn.com.tw/fugoOrder/ordKey?k=zd46J&amp;amp;data=l3HbXgwKHQ1iDCdng0KfLqsFT3a1L3deL%2FCoV4lz%2BL0g%2FvXQFzHfTBzpJStZ09LmdbBS8Lxo4DHDzvmxUxCrdg%3D%3D" target="_blank"&gt;&lt;span style="color: rgb(255, 102, 0);"&gt;&lt;strong&gt;★1瓶不到100元！衣物徹底洗淨「妙管家抗菌洗衣精4000gx4瓶」★&lt;/strong&gt;&lt;/span&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;↘限時$399&lt;/strong&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;, &lt;p&gt;&lt;br/&gt;更多鏡週刊報導&lt;br/&gt;&lt;a href="https://www.mirrormedia.mg/story/20230112edi049?utm_source=feed_related&amp;amp;utm_medium=ettoday"&gt;【有片】駱駝載「重量級夫妻」 前腳曲折跪地爬行　影片讓網友好心疼&lt;/a&gt;&lt;br/&gt;&lt;a href="https://www.mirrormedia.mg/story/20230103edi063?utm_source=feed_related&amp;amp;utm_medium=ettoday"&gt;年假要沒了！2023還有6大連假記起來　清明最長放5天&lt;/a&gt;&lt;br/&gt;&lt;a href="https://www.mirrormedia.mg/story/20230104edi053?utm_source=feed_related&amp;amp;utm_medium=ettoday"&gt;開工好blue！　精選厭世兔兔貼圖一言不合就用下去&lt;/a&gt;&lt;/p&gt;, &lt;p&gt; &lt;/p&gt;, &lt;p&gt;&lt;strong&gt; &lt;strong&gt;【你可能也想看】&lt;/strong&gt; &lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;strong&gt;&lt;a href="https://pets.ettoday.net/news/2397798?from=read_et_pets" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;►2女見黑貓「哈士奇」太可愛帶回家養　2個月後警找上門GG了&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;strong&gt;&lt;br/&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;a href="https://pets.ettoday.net/news/2393068?from=read_et_pets" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;►太神啦！統神被AI「判定是豬」　眾人無情笑翻：看破真身&lt;/strong&gt;&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;a href="https://pets.ettoday.net/news/2389431?from=read_et_pets" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;►養4貓4狗月花11萬　小鮮肉「3餐吃泡麵果腹」每周工作7天嘆：荒謬&lt;/strong&gt;&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;a href="https://pets.ettoday.net/news/2386163?from=read_et_pets" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;►她大學畢業當「守墓人」愛上清幽環境還能吸貓　笑稱：好像在養老&lt;/strong&gt;&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;&lt;a href="https://pets.ettoday.net/news/2386161?from=read_et_pets" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;►租屋處全是「貓毛和尿」冷氣也很噁　房東崩潰：打死不接受養寵物&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;&lt;a href="https://pets.ettoday.net/news/2382753?from=read_et_pets" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;►擼貓還有錢拿！月領2萬6+周休2日「幫老闆照顧貓」　23歲OL吐真話&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;&lt;a href="https://pets.ettoday.net/news/2340464?from=read_et_pets" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;►愛犬走了！正妹砸112萬「重新複製」　1年後重回懷抱被罵爆&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/strong&gt;&lt;strong&gt;&lt;strong&gt;&lt;strong&gt;&lt;strong&gt;&lt;strong&gt;&lt;strong&gt;&lt;strong&gt;&lt;br/&gt;&lt;br/&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲行政院長蘇貞昌出席陳時中「為台北挺身而出」選前之夜。（圖／記者林敬旻攝）" height="400" src="//cdn2.ettoday.net/images/6712/d6712976.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲行政院長蘇貞昌。（資料照／記者林敬旻攝）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者皮心瑀／台北報導&lt;/p&gt;, &lt;p&gt;2022年適逢九合一大選，回頭看政壇這些日子的紛紛擾擾，有些政治人物說出的話讓人莞爾一笑，有些則是讓人氣憤難耐。《 ETtoday新聞雲》特別挑選出10大金句，來看看哪一句讓你想忘也忘不了。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;陳時中：有痛可以跟我講&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;前衛福部長陳時中堪稱政壇金句製造機，從2011年防疫期間的大可不必、自主應變、「我就不能講錯一句話」等，都令人印象深刻，而在投入台北市長選戰後，面對之前衛福部「萬華是破口」的言論，一席「有痛可以跟我講」，再度引發討論。&lt;/p&gt;, &lt;p&gt;2021年5月疫情爆發，台灣進入三級警戒，萬華被指為破口，引來當地人不滿，更因此衝擊到當地攤商生意，對此，陳時中2022年參選台北市長，便積極修補傷害，也為此道歉，但環南市場自治會長林勝東被問及此事時仍痛批，「我把你揍一頓，再跟你道歉，你會接受嗎？」沒想到陳時中則回，「沒有說把誰揍一頓，但如果覺得有痛，跟我講到底是什麼問題，我們可以好好溝通」，又掀軒然大波。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;王世堅：理智和感情還在掙扎&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;民進黨台北市議員王世堅這回選戰因多次砲口對內，成為關注焦點，而當被問到是否支持自家候選人陳時中，表示自己「理性、感性還在掙扎」。&lt;/p&gt;, &lt;p&gt;王世堅過去在台北市議會與無黨籍台北市長候選人黃珊珊當了將近20年的同事，兩人的好交情到了選戰似乎也讓王世堅對於該投給誰感到困擾，但最後他也表示，在最後一刻有完成他的義務，堅定地去投給陳時中。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;高嘉瑜：一屍五命&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;立委高嘉瑜原並非九合一大選主角，卻因為評論林智堅的論文案稱恐害「一屍五命」，遭到部分綠營支持者圍剿。&lt;/p&gt;, &lt;p&gt;高嘉瑜表示，林智堅深陷論文門、新竹球場爭議，恐怕會造成北北基桃竹選情「一屍五命」，遭到黨內撻伐，綠營支持者更砲轟她「扯後腿」，前桃園市議員王浩宇還檢舉她違反黨紀。不過，最後選舉結果，民進黨北、北、基、桃、竹全面崩盤敗選，對照高嘉瑜的一屍五命的預言，可謂一語成讖。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;蔡英文：支持智堅捍衛自己的清白&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;新竹市長林智堅原挾五星政績的高人氣，投入2022桃園市長選戰，沒想到卻被爆出台大國發所論文涉及抄襲爭議。面對各界質疑，林智堅始終指控為抹黑，當時身兼黨主席的總統蔡英文也要求全黨力挺林智堅，結果，台大學倫會在8月9日決議撤銷林智堅學位及論文，迫使林智堅於8月12日宣布退出桃園市長選戰，接下來8月24日中華大學的論文也被認定抄襲，政壇生命被「雙殺」。而蔡英文最早定調的「全黨挺一人」，也變成「一人毀全黨」。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;徐巧芯：我們回去再講&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;國民黨台北市議員徐巧芯違停紅線，遭台北市信義警分局公布密錄器，畫面中，員警搜尋車牌發現車主是徐巧芯，自己念了一次名字後，就有位男子走過來，主動表明「車要開走了」。&lt;/p&gt;, &lt;p&gt;後來員警告知，因為路段屬於紅線區，加上巷子狹窄，因此需要開單，這時徐巧芯從店內走出來，詢問「現在規定不是都說先勸導嗎」，如果車上有人就能勸導。當時員警則回覆「但車上沒人」。&lt;/p&gt;, &lt;p&gt;後來徐巧芯說了句「沒關係，那我們回去再講」，並要求員警開單，雙方為了是否開單的問題討論許久，雖然徐巧芯的男助理告知「你開掉啦，你這樣我們不也不好做」，但員警認為「開了我更不好做」，因此當下沒有開單，就讓2人離開。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;蘇貞昌：你為選舉在那叫什麼&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;行政院長蘇貞昌赴立法院備詢，被時任國民黨立委的蔣萬安問到有關303大停電，要求承諾台灣未來不再停電，蘇貞昌卻回說，「從你祖父說要反攻大陸，到現在還沒反攻大陸，這才是最不負責任的政府，你如果要講這種，我不會輸你」，讓蔣萬安回批是惱羞成怒，蘇貞昌卻再嗆「講到你祖父啦！國民黨從你祖父說要反攻大陸，到現在沒反攻大陸。為了你國民黨的承諾，台灣付出多少代價？這些當年留下的擔子我很重的在扛著，我很想解決問題，你只在講敢不敢，你在為選舉在那叫什麼？」&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;侯友宜：好好做事&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;新北市長侯友宜被視為國民黨搶攻總統大位的熱門人選，多次被問到參選意願，都只低調回應會「侯侯做代誌」，次數多到連前台北市長柯文哲都知道使用時機，兩人受訪時還主動搶答，笑翻在場媒體。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;朱立倫：要與羅智強魚死網破&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;2022九合一大選，藍營誓言六都拿下一半，由於現任市長、鄭文燦任期已屆8年、無法再連任，讓國民黨對拿下桃園勢在必得，但藍營當時在桃園的布局卻狀況連連，其中備受討論的就是國民黨主席電話逼退有意參選的羅智強風波。&lt;/p&gt;, &lt;p&gt;羅智強原要宣布參選桃園市長，卻在與朱立倫通話3小時後喊卡；徐巧芯爆料，那一通電話並非動之以理，而是以威逼的方式，包含「我要跟你魚死網破」、「不管你民調再強，我都不會提名你」等，但羅還是大動作舉辦記者會，宣布參選桃園市長，不到短短數小時就被黨中央以「很弱」、「地方有反彈聲浪」為由打槍。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;王鴻薇：我老公愛我愛的要死&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;資深媒體人周玉蔻因指控前中國小姐張淑娟為蔣萬安父親蔣孝嚴陳年緋聞的女主角而挨告，現身北檢想道歉，卻與受託到場的王鴻薇唇槍舌戰，周玉蔻攻擊，「妳老公吃了10幾年的軟飯」，王鴻薇則反嗆，「我老公愛我愛得要死，妳羨慕嗎？妳忌妒嗎？」互相叫罵長達約10分鐘。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;韓國瑜：兇到木柵動物園老虎看到他都不敢叫&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;前高雄市長韓國瑜遭罷免後低調許久，選在九合一大選復出，替多為自家候選人站台，曾提到過去在議會上多次攻防的民進黨台北市議員王世堅，「兇到木柵動物園老虎看到他都不敢叫」。&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲新台幣，鈔票，錢幣。（圖／路透社）" height="400" src="//cdn2.ettoday.net/images/4765/d4765407.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲全民普發6,000元大紅包，財政部表示，不會增加舉債。（示意圖／路透社）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者陳依旻／台北報導&lt;/p&gt;, &lt;p&gt;有關全民普發6,000元大紅包，財政部今（29）日傍晚說明，所需經費是以去年度稅課收入實徵數超過預算數屬於中央政府部分約3,800億元為財源，不會增加舉借債務。&lt;/p&gt;, &lt;p&gt;財政部表示，行政院函送立法院審議之「疫後強化經濟與社會韌性及全民共享經濟成果特別條例」草案，規劃用於挹注健保基金、擴大公共運輸補貼、普發現金等9類範圍，依該特別條例草案第5條規定，所需經費上限為新台幣3,800億元，是以去年度稅課收入實徵數超過預算數屬於中央政府部分約3,800億元為財源，其中，普發現金經費約1,400億元，目的在與全民共享過去經濟發展成果，整體所需經費將以歲計賸餘支應，不會增加舉借債務。&lt;/p&gt;, &lt;p&gt;財政部進一步說明，近年該部配合國家發展需要，妥適運用財政政策維繫經濟穩定成長，並利用經濟成長帶動稅收增長，適時增加還債，截至111年底長期債務實際數為5兆6,998億元，低於預算數6兆3,994億元，實際債務比率28.2%，亦較預算數31.7%大幅降低，顯示政府恪遵財政紀律，債務控管成效更獲國際主要信用評等公司肯定。未來將持續採行審慎之財政政策，增加財政韌性，以確保國家長遠發展。&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼財富自由,有錢人,富有,富翁,錢包,皮夾。（圖／記者鄺郁庭攝）" height="419" src="//cdn2.ettoday.net/images/6160/d6160237.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲示意圖，和本新聞無關。（圖／記者鄺郁庭攝）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者朱祖儀／綜合報導&lt;/p&gt;, &lt;p&gt;不少人出社會之後，會和別人比較薪資待遇，但如果發現同事的薪水比自己還高該怎麼辦？一名網友表示，朋友的公司是看職等給薪的，因此就算工作量相當，老鳥仍有可能可以多領到1萬元，讓他聽了相當震驚。但多數人都認為，「這很正常啊，不然分職等幹嘛？」&lt;/p&gt;, &lt;p&gt;原PO在PTT發文表示，由於朋友公司是看職等給薪的，所以有可能大家的工作量都差不多，但每個月領到的薪水，會比資深的同事還要少1萬元。而且悲慘的是，職等高的同事有時候碰到事情還會閃躲，讓人相當困擾。他聽到朋友的待遇後感到相當震驚，好奇問如果是其他人碰到類似的狀況該怎麼辦？&lt;/p&gt;, &lt;p&gt;不少網友看到後紛紛表示，「基本上不離不棄超過3年，又得不到長官重視，大概就被當白痴吧，所以真的不要怪8年級新人跑得快，因為同年紀的差不多月薪已經翻1.5倍以上」、「這種事情計較不完的，你同事搞不好在其他同事眼裡，也未嘗不是如此，有本事就『跳』，不然就看開，不要熬出心病」、「換環境，結案」。&lt;/p&gt;, &lt;p&gt;也有人認為這很正常，「人家年資高啊，不然以後都不用漲薪水好了」、「正常好嗎？有效率有時很難評」、「不然要職等幹嘛」、「人家職等高啊，不爽往上爬啊」。另外，還有網友指出，「先看你公司薪水是不是優於業界，例如你7萬你同事8萬，這樣子建議還是委屈自己留下來繼續做，不然去外面哪有那麼容易找到7萬的工作。如果你薪水跟一般庸才一樣只領35K到45K或更低25K到33K，那工作根本隨便讓你挑，外面隨便到處都是這水準的薪水，做不爽就離職，反正去下家公司也是這樣子等級的薪水，根本沒包袱」。&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼總統府宣布陳建仁出任行政院長記者會。（圖／記者屠惠剛攝）" height="450" src="//cdn2.ettoday.net/images/6823/d6823861.jpg" width="592"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲準行政院長陳建仁。（圖／記者屠惠剛攝）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者詹宜庭、陶本和／台北報導&lt;/p&gt;, &lt;p&gt;準行政院長陳建仁近日完成內閣徵詢作業，內閣人事也大致底定，行政院秘書長李孟諺30日將正式對外宣布。在此之前，《ETtoday新聞雲》整理已拍板的完整部會首長名單，且彙整這次改組的3大特點，包括：「新增9位首長」、「29人留任」，以及「新增4位女閣員」等。&lt;/p&gt;, &lt;p&gt;蘇貞昌將於明日上午9時30分召開臨時院會，率行政團隊總辭；下午2點整，則由政院秘書長李孟諺、新任發言人陳宗彥召開記者會，正式對外公布新任內閣團隊名單，而31日開始，陳建仁所率領的「溫暖堅韌」內閣便正式上任。&lt;/p&gt;, &lt;p&gt;有關本次陳建仁的「溫暖堅韌」內閣，可彙整為&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;「新增9位首長」、「29人留任」，以及「新增4位女閣員」等3大特點。&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;, &lt;p&gt;首先，&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;「新增9位首長」部分&lt;/strong&gt;&lt;/span&gt;，屬於新上任的部會首長，包括：內政部長林右昌（前基隆市長）、行政院發言人陳宗彥（原內政部政務次長）、政務委員李永得（原文化部長）、文化部長史哲（原高雄市副市長）、國立故宮博物院院長蕭宗煌（原文化部政務次長）、財政部長莊翠雲（原財政部政務次長）、僑委會委員長徐佳青（原僑委會副委員長）、海委會主委管碧玲（原民進黨立委），以及原能會主委張靜文（原原能會副主委）等9人。&lt;/p&gt;, &lt;p&gt;事實上，陳建仁本次在人事任用上，仍多沿用蘇內閣成員，其中僅新增4位非蘇內閣的新人，包括：準副閣揆鄭文燦、準內政部長林右昌、準海委會主委管碧玲，以及準文化部長史哲。&lt;/p&gt;, &lt;p&gt;在第二個特點部分，本次內閣人事異動，留任的部會首長多，統計達&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;29人&lt;/strong&gt;&lt;/span&gt;，包括：秘書長李孟諺、副秘書長何佩珊、政務委員林萬億、張景森、鄧振中、羅秉成、黃致達、政委兼工程會主委吳澤成、政委兼國科會主委吳政忠、政委兼國發會主委龔明鑫、教育部長潘文忠、法務部長蔡清祥、經濟部長王美花、交通部長王國材、勞動部長許銘春、數發部長唐鳳、衛福部長薛瑞元、環保署長張子敬、農委會主委陳吉仲、金管會主委黃天牧、退輔會主委馮世寬、客委會主委楊長鎮、原民會主委夷將‧拔路兒、主計長朱澤民、人事長蘇俊榮、美國事務委員會主委楊珍妮。&lt;/p&gt;, &lt;p&gt;另外，涉及總統蔡英文外交、兩岸、國防領域的人事佈局，外交部長吳釗燮、國防部長邱國正、陸委會主委邱太三等人，也都確定留任。至於NCC主委、中選會主委、與公平會主委三人，因屬任期制，所以不在此次內閣改組名單之列。&lt;/p&gt;, &lt;p&gt;第三個特點部分，陳建仁本次組閣的重點之一，就是女性閣員必須增加。在蘇內閣時代，女性閣員僅有公平會主委李鎂、勞動部長許銘春、美國事務委員會主委楊珍妮、經濟部長王美花等4位女性閣員；而陳建仁內閣，&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;一次增加財政部長莊翠雲、海委會主委管碧玲、僑委會委員長徐佳青、原能會主委張靜文等4位女性首長&lt;/strong&gt;&lt;/span&gt;，讓女性閣員人數增加到了8位。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼陳內閣閣員名單。（圖／ETtoday記者詹宜庭製作）" height="778" src="//cdn2.ettoday.net/images/6825/6825870.jpg" width="550"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲▼陳內閣閣員名單。（圖／ETtoday記者詹宜庭製作）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼陳內閣閣員名單。（圖／ETtoday記者詹宜庭製作）" height="778" src="//cdn2.ettoday.net/images/6825/6825871.jpg" width="550"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;iframe allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen="" frameborder="0" height="315" src="https://www.youtube.com/embed/ALdm6EvaauM" title="YouTube video player" width="560"&gt;&lt;/iframe&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;記者蕭采薇／綜合報導&lt;/p&gt;, &lt;p&gt;在金球獎拿下最佳影片、最佳男主角和最佳劇本三項大獎後，《伊尼舍林的女妖》在本屆奧斯卡再獲最佳影片、導演等9項提名，包括布蘭登葛里森、貝瑞柯根雙雙入圍男配角獎。柯林法洛在拍攝這部電影時和貝瑞柯根是室友，他形容對方髒亂的程度：「就像跟浣熊生活一樣，我不是開玩笑！」 &lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼《伊尼舍林的女妖》柯林法洛、布蘭登葛里森、貝瑞柯根。（圖／二十世紀影業提供）" height="400" src="//cdn2.ettoday.net/images/6825/d6825867.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲柯林法洛和貝瑞柯根合作多次，彼此已有極佳默契。（圖／二十世紀影業提供）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;《伊尼舍林的女妖》講述兩個好友翻臉，導致整個村莊雞犬不寧的故事，不過柯林法洛之前受訪表示，拍片期間劇組已經培養堅固的情誼及默契，即使在電影裡絕交的朋友康姆（布蘭登葛里森飾演），見到柯林法洛上台領金球男主角獎，也由衷替他感到開心。&lt;/p&gt;, &lt;p&gt;不只是柯林法洛和布蘭登葛里森，在片中詮釋被父親虐待、很天真的傻小子多明尼克（貝瑞柯根飾演），跟柯林法洛也是舊識，他們曾在6年前合作過電影《聖鹿之死》，之後貝瑞柯根陸續接演《永恆族》及《蝙蝠俠》等片。《伊尼舍林的女妖》前往愛爾蘭小島拍攝時，貝瑞和柯林法洛為方便拍片，兩人在島上合租了一幢房子。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼《伊尼舍林的女妖》柯林法洛、布蘭登葛里森、貝瑞柯根。（圖／二十世紀影業提供）" height="400" src="//cdn2.ettoday.net/images/6825/d6825866.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲《伊尼舍林的女妖》講述兩個好友翻臉，導致整個村莊雞犬不寧的故事。（圖／二十世紀影業提供）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;柯林法洛曾透露自己拍這部電影被驢子踢還被狗咬，對於和貝瑞柯根同住一幢房他則形容：「與貝瑞住在一起就像跟浣熊生活一樣，我不是開玩笑！」 他解釋，「我早上醒來的時候，那個地方就像浣熊來過，你可以看見地上有灑出來的牛奶，然後還有麥片盒，當我想吃麥片時，裡面卻已經被清空了。」&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼《伊尼舍林的女妖》柯林法洛、布蘭登葛里森、貝瑞柯根。（圖／二十世紀影業提供）" height="251" src="//cdn2.ettoday.net/images/6825/d6825868.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲凱瑞康頓（左）在愛爾蘭算是多產的女星，如今總算名氣大開。（圖／二十世紀影業提供）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;雖然屋子的凌亂經常考驗著影帝的耐性，但是對於合作演出還曾經是室友的夥伴，柯林法洛依舊讚不絕口，「他很了不起，是個非凡的天才，有顆和這個島一樣大的心，我很喜歡和他一起生活，他很可愛。」&lt;/p&gt;, &lt;p&gt;貝瑞柯根則稱自己是柯林的忠實粉絲，同是愛爾蘭的兩人經常聊天，「柯林有種罕見的天份，就是他真正關心他的朋友，不管熟或不熟，他都可以馬上和對方有良好的互動，他是我的重要導師。」&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼《伊尼舍林的女妖》柯林法洛、布蘭登葛里森、貝瑞柯根。（圖／二十世紀影業提供）" height="400" src="//cdn2.ettoday.net/images/6825/d6825869.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲《伊尼舍林的女妖》布蘭登葛里森、貝瑞柯根雙雙入圍奧斯卡男配角。（圖／二十世紀影業提供）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;柯林法洛日前獲得80屆金球獎音樂和喜劇類最佳男主角後，手機整晚響個不停，因為工作人員不斷傳簡訊向他道賀，包括服裝師和化妝師，他說：「這感覺就好像家人在家裡，看著你得獎並一起慶祝。而且電影也獲得了最佳影片更有意義，代表所有參與其中的人辛勤工作和合作精神。」&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="資深媒體人許聖梅。（圖／翻攝自臉書／許聖梅）" src="//cdn2.ettoday.net/images/6825/d6825880.jpg"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;figcaption&gt;&lt;strong&gt;▲資深媒體人許聖梅。（圖／翻攝自臉書／許聖梅）&lt;/strong&gt;&lt;/figcaption&gt;&lt;/p&gt;, &lt;p&gt;圖文／CTWANT&lt;/p&gt;, &lt;p&gt;台塑集團創辦人王永慶的長孫王泉仁，2014年娶日本女星佐藤麻衣為妻，未料3年後爆出婚變，如今離婚官司也被女方證實在進行當中，而她的公公王文洋和呂安妮有過一段感情，日前卻對資深媒體人許聖梅透露「我這輩子還沒有碰到我的最愛」。&lt;/p&gt;, &lt;p&gt;今年71歲王文洋為現任宏仁集團總裁，也是台塑集團創辦人王永慶的長子，他1975年和陳靜文（陳怡靜）結婚並育有一子一女，然而1995年卻爆出與呂安妮的緋聞，隨後女方未婚生下一子，2人於2017年宣布分手。另外，王文洋和陳靜文的兒子王泉仁和其妻子佐藤麻衣日前遭媒體曝光，雙方正在進行離婚官司；麻衣的友人也私下透露，呂安妮曾對麻衣強調「有錢買不到幸福。」&lt;/p&gt;, &lt;p&gt;對此，許聖梅於節目《新聞挖挖哇！》透露，過往在餐會中遇過王文洋，由於彼此的位子剛好就在隔壁，因此她忍不住好奇心詢問對方，「總裁你覺得您這輩子最愛誰？」，卻遭回應「我這輩子還沒有碰到我的最愛。」&lt;/p&gt;, &lt;p&gt;當下許聖梅接著反問王文洋「那你太太呢？」，對方卻直言，和陳靜文的愛情不算是多麼「刻骨銘心」，更接近恩情或親情；許聖梅進一步分享，王文洋和陳靜文結婚是因為當時在研究所念書的時候，陳靜文幫了他很多忙，雙方因為學業而熟識；學業完成後，男方去陳靜文家中吃飯的時候，面對女方的爸爸有意搓合2人，他最後便答應了。&lt;/p&gt;, &lt;p&gt;提及呂安妮，許聖梅後來再度打探王文洋：「你的女朋友難道不是你的最愛嗎？」對方則指出，當初與呂安妮是師生關係，王文洋是呂安妮的指導教授，不過，該段緣分跟刻骨銘心的愛情也不一樣。&lt;/p&gt;, &lt;p&gt;&lt;img alt="許聖梅聽完王文洋的回應後驚呆。（圖／翻攝自YouTube／新聞挖挖哇！）" src="//cdn2.ettoday.net/images/6825/d6825881.jpg"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲許聖梅聽完王文洋的回應後驚呆。（圖／翻攝自YouTube／新聞挖挖哇！）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;王文洋的回覆讓許聖梅大嘆「可能對富二代，他會覺得這不是真正的愛情」，一旁的醫師黃宥嘉也說，演員秦漢過往也是因為參與了一部電視連續劇的演出，才知道何謂刻骨銘心的愛情。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;延伸閱讀&lt;/strong&gt;&lt;br/&gt;▸ &lt;a href="https://www.ctwant.com/article/235271?utm_source=ettoday&amp;amp;utm_medium=rss&amp;amp;utm_campaign=235437"&gt;買彩券被插隊　他竟幸運中頭獎「抱回3千萬獎金」：不敢置信&lt;/a&gt;&lt;br/&gt;▸ &lt;a href="https://www.ctwant.com/article/235346?utm_source=ettoday&amp;amp;utm_medium=rss&amp;amp;utm_campaign=235437"&gt;24歲未婚妻誤用「碰過乳製品湯匙」過敏慘死　未婚夫：3天前才求婚&lt;/a&gt;&lt;br/&gt;▸ &lt;a href="https://www.ctwant.com/article/235280?utm_source=ettoday&amp;amp;utm_medium=rss&amp;amp;utm_campaign=235437"&gt;尪前腳剛走…人妻扒光嬌小女「跨坐啪啪啪」　她裸身求饒：不會再見面&lt;/a&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲「墨爾本之王」喬科維奇寫下個人生涯第10座澳網冠軍。（圖／CFP）" height="400" src="//cdn2.ettoday.net/images/6825/d6825885.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲「墨爾本之王」喬科維奇寫下個人生涯第10座澳網冠軍。（圖／CFP）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者杜奕君／綜合報導&lt;/p&gt;, &lt;p&gt;眾所矚目的2023澳洲網球公開賽男單決賽巔峰對決，由世界排名第5位，要爭取生涯澳網第10冠的喬科維奇(Novak Djokovic)對戰世界排名第4位的西西帕斯(Stefanos Tsitsipas)，開賽喬帥手風極順，連續搶下兩盤，即便第3盤西西帕斯一路緊咬，但最終喬科維奇鏖戰超過3個半小時，仍以6比3、7比6(7比4)、7比6(7比5)勝出，再次擦亮「墨爾本之王」招牌奪下澳網生涯第10冠。&lt;/p&gt;, &lt;p&gt;首盤喬科維奇掌握先機，一路順利強勢以6比3拿下，第2盤西西帕斯回穩，雙方一路鏖戰至搶7大戰，喬帥展現大將之風，以7比6(7比4)艱辛搶下此盤，也取得2比0絕對領先。&lt;/p&gt;, &lt;p&gt;第3盤首局，喬科維奇遭對手破發面臨危機，但隨後西西帕斯也遭喬帥破發，雙方戰成2比2僵局，第5局喬科維奇成功保發，但西西帕斯第6局也強勢保發還以顏色，隨後雙方持續拉鋸戰成4比4局面。&lt;/p&gt;, &lt;p&gt;第9局雙方不斷底線互抽，雙方連續17個底線來回互別苗頭，但喬科維奇開始掌握節奏，關鍵致勝球取得5比4領先，但隨後西西帕斯再度保住關鍵發球局，又追成5比5。第11局喬科維奇再度發出關鍵Ace球，連續4個發球局保發，再度以6比5超前。不過西西帕斯再度將比賽逼入搶7大戰。&lt;/p&gt;, &lt;p&gt;隨後喬科維奇再度展現王者風範，連續強勢進攻得手，但西西帕斯在最後關頭再度回神，0比5落後情況下連追3分，但喬科維奇隨後逼出6比3領先的3個冠軍賽末點，但西西帕斯連續化解兩個賽末點，追成5比6，但最後喬科維奇仍以7比5拿下搶7大戰，生涯第93座冠軍，也獨居現役球員之冠，另外贏下澳網男單冠軍後，喬帥下周世界排名也將重返球王寶座。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲「墨爾本之王」喬科維奇寫下個人生涯第10座澳網冠軍。（圖／CFP）" height="400" src="//cdn2.ettoday.net/images/6825/d6825884.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲喬科維奇在澳網締造完美28連勝。（圖／CFP）&lt;/strong&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;記者吳睿慈／台北報導&lt;/p&gt;, &lt;p&gt;南韓人氣團體SHINee成員珉豪相隔4年，29日在台灣舉辦粉絲見面會，深情唱著歌曲《Heartbreak》，並用中文「大家好，我是SHINee珉豪」問候，活動上，他抽出幸運粉絲上台互動，還為台灣粉絲準備特別環節，上演夯劇《想見你》的橋段，向歌迷告白：「我喜歡你。」情話引爆熱烈尖叫聲。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼SHINee珉豪時4年訪台舉辦見面會。（圖／記者吳睿慈攝）" height="400" src="//cdn2.ettoday.net/images/6825/d6825883.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲SHINee珉豪時4年訪台舉辦見面會。（圖／記者吳睿慈攝）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;珉豪29日在台北國際會議中心舉辦見面會，他穿著亮鑽點綴黑色西裝現身，展盡不輸給模特兒的高挑身材，邊唱邊跳帶來歌曲《Heartbreak》。見面會與粉絲共度歡樂時光，珉豪抽出數名觀眾上台互動，其中一名粉絲跟他握手後，在走回位置的過程之間，她一路擊掌回去，將珉豪的手掌餘溫傳遞下去，場面超逗趣，連珉豪都笑喊：「妳小心！小心！」&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲珉豪驚喜演台劇　背「鳳南書包」演《想見你》。（圖／記者吳睿慈攝）" height="370" src="//cdn2.ettoday.net/images/6825/d6825882.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲珉豪場上抽出數名粉絲上台近距離互動。（圖／記者吳睿慈攝）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;珉豪向來寵粉，透過見面會與粉絲見面，他情話告白：「現在這一刻幸運的瞬間，因為過了很久再跟大家見面，我也有點感到抱歉，但我現在心情很好，因為終於可以見到大家。」並承諾「我每年都會來台灣」。&lt;/p&gt;, &lt;p&gt;見面會為台灣粉絲訂製專屬環節，話題聊到人氣戲劇《想見你》，珉豪演戲魂上身，他換上高中制服，背著「鳳南高中」的書包，變身成劇中男主角「李子維」，對著觀眾訴說情話：「黃雨萱，我喜歡你，你喜歡我嗎？」再來又把女主角「黃雨萱」改成「SHINee WORLD」（官方粉絲名），他接著說：「SHINee WORLD，你喜歡我嗎？」尖叫聲不斷。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼SHINee珉豪驚喜演台劇　背「鳳南書包」演《想見你》。（圖／記者吳睿慈攝）" height="400" src="//cdn2.ettoday.net/images/6825/d6825876.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲▼SHINee珉豪見面會上又唱又跳。（圖／記者吳睿慈攝）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼SHINee珉豪驚喜演台劇　背「鳳南書包」演《想見你》。（圖／記者吳睿慈攝）" height="400" src="//cdn2.ettoday.net/images/6825/d6825877.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;活動上帶來歌曲《Heartbreak》、《Runaway》、《Chase》、《I’m Home》與SHINee組曲，而他大年初八訪台，美食清單最想吃雞排，「我看過這裡炸出來的雞肉很大塊，我想比較一下和韓國炸雞的差異，還有小籠包，我想這是勢必要品嚐的，小籠包真是個吃過味道便讓人無法抗拒的美食啊！」至於想去哪裡？他則回答想去墾丁玩水上活動、放天燈與九份的「神隱少女」場景。這趟來台僅短短停留兩天，珉豪活動結束即返韓，離台班機不公開。&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;記者劉宛欣／綜合報導&lt;/p&gt;, &lt;p&gt;大陸女星春夏現年30歲，2015年靠著在電影《踏血尋梅》中的亮眼表現，拿下香港奧斯卡影后寶座，實力備受肯定。然而，她在2022年11月爆發「白紙革命」時，疑似在網路上留言力挺抗爭的民眾，寫下「害，什麼也做不了的我們，只能在家跺腳掉眼淚」，引發熱議。近日，又有眼尖網友發現，她疑似因相關言論遭大陸官方封殺，消失在參演的新片《風再起時》的出演名單中。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼29歲影后春夏深夜發聲「只能掉淚」　敏感文被疑挺白紙革命掀議。（圖／翻攝自微博／春夏_x）" height="400" src="//cdn2.ettoday.net/images/6718/d6718390.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲春夏疑似遭大陸官方封殺。（圖／翻攝自春夏微博）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;春夏繼2015年與郭富城一起出演電影《踏血尋梅》以後，二度合作推出新片《風再起時》，除了兩人以外還有國際影帝梁朝偉加盟，將在元宵節於中國大陸上映，不料，近日卻被眼尖網友發現，原本列在海報上的出演名單中，她的名字被悄悄移除，另外，還有人指出央視春晚的節目單中原也有她，但正式播出的節目上卻不見她的蹤影，種種跡象指向她疑似默默地被封殺了。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲春夏名字默默被刪掉。（圖／翻攝自微博）" height="450" src="//cdn2.ettoday.net/images/6825/d6825864.jpg" width="464"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲春夏名字默默被刪掉。（圖／翻攝自微博）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;此前，新疆烏魯木齊在2022年因新冠疫情封城期間發生居民樓大火事件，10幾名居民因封控無法逃出而喪生，引發大陸各地爆發「白紙革命」、抗議政府的政策，不少學生挺身而出。當時春夏在在微博轉發貼文，內容為「孩子們站出來了，大人們應該保護他們。不要做可恥的大人」，此外她還回覆一名聲援白紙革命的媒體人寫下「什麼也做不了的我們，只能在家跺腳掉眼淚」，不久後她的發言便陸續刪除，但也有網友猜測貼文是遭微博系統封鎖掉。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼29歲影后春夏深夜發聲「只能掉淚」　敏感文被疑挺白紙革命掀議。（圖／翻攝自微博）" height="450" src="//cdn2.ettoday.net/images/6718/d6718389.jpg" width="307"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼29歲影后春夏深夜發聲「只能掉淚」　敏感文被疑挺白紙革命掀議。（圖／翻攝自微博）" height="450" src="//cdn2.ettoday.net/images/6718/d6718388.jpg" width="394"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲春夏深夜發聲「只能掉淚」，敏感文被疑挺白紙革命掀議。（圖／翻攝自微博）&lt;/strong&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;記者蕭采薇／綜合報導&lt;/p&gt;, &lt;p&gt;英國歌手哈利史泰爾斯（Harry Styles）從團體1世代（One Direction）單飛後，持續活躍於歌壇。目前正在進行《Love On Tour》巡迴演出的哈利，日前卻在舞台上發生「皮褲爆開」的尷尬意外。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼哈利史泰爾斯（Harry Styles）。（圖／路透）" height="400" src="//cdn2.ettoday.net/images/6825/d6825863.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲哈利近來正在巡迴演出。（圖／路透）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;哈利26日在美國加州的英格爾伍德The Kia Forum開唱，當演唱到歌曲《Music for a Sushi Restaurant》時，他陶醉的往地上一跪，皮褲卻瞬間爆開，「該邊」整片跑出來見客，哈利連忙尷尬起身，用手遮擋住褲襠和胯下。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼哈利史泰爾斯（Harry Styles）破褲。（圖／CFP）" height="450" src="//cdn2.ettoday.net/images/6825/d6825861.jpg" width="326"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲哈利在演唱會上忘情一跪，皮褲卻應聲爆開。（圖／CFP）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;隨後出場時，哈利在腰間繫上一條毛巾，他自嘲的對粉絲說：「我褲子破了，所以我必須向前幾排的人道歉，畢竟這是一檔闔家歡樂的演出，對吧？」幽默的化解「破褲危機」。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼哈利史泰爾斯（Harry Styles）破褲。（圖／CFP）" height="450" src="//cdn2.ettoday.net/images/6825/d6825860.jpg" width="306"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲哈利尷尬又害羞地用遮住褲襠。（圖／CFP）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;★圖片為版權照片，由路透社、視覺中國供《ETtoday新聞雲》專用，任何網站、報刊、電視台未經路透許可，不得部分或全部轉載！&lt;/strong&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼台鐵,高鐵,旅客,乘客,車站,返鄉,大眾交通工具,假期,連假。（圖／記者周宸亘攝）" border="1" height="400" src="//cdn2.ettoday.net/images/5672/d5672027.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲搭乘高鐵十分方便，不過如果沒有買到座票，就要整趟旅途都站著。（示意圖／記者周宸亘攝）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者柯振中／綜合報導&lt;/p&gt;, &lt;p&gt;如果有人在列車上要求讓位，你會怎麼做？一名男子日前搭乘高鐵時，因為沒有買到對號車票，於是開口要求年輕女乘客讓位，豈料對方一點也不懂得敬老尊賢，氣得他痛罵「年輕人站一下會死嗎」，離奇的貼文曝光後，男子慘遭網友酸爆。&lt;/p&gt;, &lt;p&gt;這名男子在「嘉義綠豆大小事」指控，他今年55歲、腿腳不方便，近日想搭乘高鐵，現場卻買不到座票，於是打算上車後再尋找空位，如果有位子就坐下休息。&lt;/p&gt;, &lt;p&gt;男子上車以後，發現車廂裡滿滿都是人，於是開口要求其中一名年輕女子讓座，好讓他可以安心休息。豈料要求提出後，女乘客開口拒絕，更是直言「這位子是我買的，為什麼要給你坐」。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▼阿伯逼女乘客讓座遭拒，氣得痛罵「年輕人站一下會死嗎」。（示意圖／記者林敬旻攝）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲新冠肺炎疫情趨緩，搭乘公車、高鐵等大眾運輸仍要配合戴口罩。（圖／記者林敬旻攝）" border="1" height="400" src="//cdn2.ettoday.net/images/4901/d4901173.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;男子聽完以後氣得痛罵，「敬老尊賢你不懂嗎」，明明大家付的錢都一樣，憑什麼說買了位置，「年輕人站一下會死嗎？」&lt;/p&gt;, &lt;p&gt;貼文曝光後，男子慘遭網友一面倒轟爆，不少人留言嗆聲，「你是來開玩笑的嗎」、「你再站也站沒多久了，再站一下會死」、「道德綁架，倚老賣老」、「行動不便可請高鐵工作人員協助」、「你最好給我站三個小時」、「你都知道沒座位只剩站位，還不考慮自己腿腳不方便硬買票，誰有讓你的必要？讓你坐是好心，不讓你是應該！不要道德綁架！」&lt;/p&gt;, &lt;p&gt;對此，男子則不甘示弱回應，他並非沒錢買座票，況且他的年紀從目視來看，已經比對方大了約2倍，為何年輕人不懂得尊重長輩，「重點是她不要就說不要就好了，幹嘛那個態度？」&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="行政院。（圖／ETtoday資料照）原編號2787621" height="400" src="//cdn2.ettoday.net/images/6736/d6736178.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲行政院。（圖／ETtoday資料照）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者皮心瑀／台北報導&lt;/p&gt;, &lt;p&gt;行政院長蘇貞昌農曆年前請辭院長，蔡英文總統在年初六（27日）召開記者會，宣布由前副統陳建仁組閣。陳建仁利用農曆春節假期，密集約詢新內閣人員，預訂明天下午由秘書長李孟諺、準行政院發言人陳宗彥，宣布新閣員名單。我國自民選總統以來，共有15位被任命的閣揆，其中就有選在立法院審查中央政府總預算的會期結束，也就是農曆過年前後走人，其中有一位，還被當年的台南市長賴清德稱讚為「最有能力」的行政院長。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;張俊雄&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;張俊雄律師出身，於美麗島事件為牧師高俊明辯護，遂踏入政壇，並自1983年起連任六屆立委，曾為民進黨中常委、秘書長，於2000年為參選總統的陳水扁操盤，陳水扁當選總統後，張俊雄出任總統府秘書長，並在八掌溪事件後轉任行政院副院長直到2000年10月，接替唐飛出任行政院院長，為台灣史上第一位民進黨籍的院長。&lt;/p&gt;, &lt;p&gt;張俊雄作為陳水扁時代的第二任閣揆後，接下棘手的核四難題，但因宣布停建引起反彈，在2002年2月1日立法院改選後辭去行政院院長一職，交接給游錫堃，剛好是在農曆年前9天。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;游錫堃&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;根據台灣行政院研究發展考核委員會公布的「民眾對政府形象的看法」之調查結果顯示，游錫堃內閣上任二年間，有五成七的受訪民眾滿意其施政表現。&lt;/p&gt;, &lt;p&gt;游錫堃為扁政府時期任期最長也是支持度最高的閣揆，因為2004年選舉未能完成國會過半的目標，當了1096天的行政院長後請辭下台，於2005年2月1日交接給謝長廷，時間點落在農曆年前6天。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;謝長廷&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;謝長廷接下閣揆後，大部分閣員也還是游內閣的閣員留任，而在他任期內發生高雄捷運外勞弊案，衝擊了民進黨形象，連帶影響2005年的縣市長大選，民進黨慘敗，2006年1月25日謝長廷以總預算案覆議未獲國會支持為由，在農曆年前4天下台，由蘇貞昌接下第5任閣揆。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;吳敦義&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;吳敦義於2009年上任行政院長後，執政重點為八八風災後重建與國土保育、防治H1N1新流感、振興經濟促進就業、推動兩岸與外交關係與持續照顧弱勢等，還被賴清德稱讚為最有能力的行政院長，會解決問題。&lt;/p&gt;, &lt;p&gt;不過，吳敦義任內爭議言論不斷，曾在談及兩岸議題時稱「只有不負責任的人或白痴，才會覺得應該搞一個獨立國」，另外，包括白海豚會轉彎、無薪假可得諾貝爾獎等語都引來民眾批評，之後因為登記參選副總統辭職，於2012年2月6日交棒給陳冲，時間則正好在元宵節當天。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;陳冲&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;陳冲作為財經學者，任內台灣的景氣對策信號卻連續11個月為藍燈，引來批評。最終，陳冲因健康因素請辭，2013年2月7日內閣總辭，2月18日農曆正月初九交接給江宜樺。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;毛治國&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;2014年12月8日，國民黨在地方公職人員選舉中敗選，江宜樺辭去行政院院長一職，由時任副院長的毛治國接任，組成毛治國內閣。&lt;/p&gt;, &lt;p&gt;毛治國同樣因國民黨2016年總統跟立法委員敗選，於2016年2月1日請辭下台，由張善政接任院長，時間點為農曆春節前6天。&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲鬱卒,憂鬱（示意圖／取自免費圖庫Pexels）" src="//cdn2.ettoday.net/images/5423/d5423079.jpg"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲收假後若有焦慮感、不安等狀況持續2周，恐是假期後憂鬱上身。（示意圖／取自免費圖庫Pexels）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者趙于婷／台北報導&lt;/p&gt;, &lt;p&gt;新年小心出現「假期後憂鬱」！根據《今日醫學新聞》2022年10月的一篇文章指出，度假會緩解壓力和改善情緒，但正面影響不一定會持續，這些正面影響可能在回歸日常生活後的一周內就消失，有些人可能會因此出現憂鬱情形，其症狀包括「模糊焦慮感、變得更加煩躁、懷舊、睡眠困難、全身不舒服或不安」，且症狀會持續2周。&lt;/p&gt;, &lt;p&gt;該文章根據一項2020年的研究指出，比較60名工作者在假期之前、期間和之後的心理變化，受試者在假期前的負面情緒、壓力和攻擊性上都沒有變化，然而在假期後都顯著下降。研究發現，有些好處只發生在原本工作壓力就比較低的人身上，對於在假期前後都有工作壓力的人來說，假期帶來的正面影響可能降低。&lt;/p&gt;, &lt;p&gt;儘管研究發現假期可能有助於改善情緒、減輕精神壓力和提高生活滿意度，但這些正面的影響可能在回歸日常生活後的一周內就消失，並且可能會在回到家後對於立即恢復工作和日常生活感到壓力，而導致精神壓力再次增加。&lt;/p&gt;, &lt;p&gt;台北長庚醫院精神科主治醫師劉嘉逸說明，上述研究中所稱的「假期後憂鬱」，指的應該是假期後的「憂鬱心情」或「負面情緒」，而不是憂鬱，「憂鬱心情」是一種「情緒」，可以透過自我調適來恢復，憂鬱症則是「大腦生病」需尋求專業協助積極介入治療。&lt;/p&gt;, &lt;p&gt;劉嘉逸說，假期後憂鬱就如同大家常說的「周一憂鬱（Monday blue）」，休假後回到職場較容易感到壓力，所以會有「假期後憂鬱情緒」是正常的。&lt;/p&gt;, &lt;p&gt;董氏基金會心理衛生中心主任葉雅馨說明，假期後憂鬱可能是負面情緒或憂鬱症術語，其症狀包括「模糊焦慮感、變得更加煩躁、懷舊、睡眠困難、全身不舒服或不安」，上述症狀可能會從假期回來後持續2周，進而影響工作、學校或人際關係中的表現。&lt;/p&gt;, &lt;p&gt;劉嘉逸提醒，假期後憂鬱情緒若持續存在，「已超乎一般情緒反應」的程度，自己調適不來且影響生活與工作，輕者可能是「適應障礙」，重者可能是「憂鬱症」，此時應尋求專業協助或治療。&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼工作,職場,說話,老闆,防疫,新冠肺炎。（圖／取個免費圖庫pexels）" height="400" src="//cdn2.ettoday.net/images/5773/d5773474.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲想輕鬆養身出門前做4件事，一整天都很有精神。（圖／pexels）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;編輯／借借&lt;/p&gt;, &lt;p&gt;經歷了10天的連續假期，即將要迎來開工日，心情與身體上是否都準備好了？建議在開工頭一周，起床後可做4件事「喚醒」自己身體，身體清醒之後不但可以開啟新陳代謝，也能幫助你一整天在精神上更有活力，從早開始有好氣色，自然能幫助肌膚更美，起床之後花10分鐘就能開啟一整天能量。&lt;/p&gt;, &lt;p&gt;&lt;span style="color: rgb(255, 102, 0);"&gt;&lt;strong&gt;起床後5分鐘伸展&lt;/strong&gt;&lt;/span&gt;&lt;br/&gt;經過一夜的休息，躺平的身體上不免有部分區塊略顯僵硬，所以建議在起床後，花上5分鐘做些伸展活絡筋骨，而重點就是要「溫柔緩和」，強度不要過強，且速度盡量放慢，溫柔的把身體喚醒，心情上也不會太急促。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼女孩,起床,清醒,早晨,伸展。（圖／翻攝自pixabay）" height="399" src="//cdn2.ettoday.net/images/3360/d3360252.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲起床後慢慢伸展，讓身體也「覺醒」。（圖／unsplash）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;span style="color: rgb(255, 102, 0);"&gt;&lt;strong&gt;刷牙時踮起腳尖&lt;/strong&gt;&lt;/span&gt;&lt;br/&gt;在刷牙時順便踮腳，讓小腿肌肉活動一下，並在上半身忙碌時順便運動下半身，保持身體平衡也是省時的做法，嘴巴因為牙膏的清新作用正在積極醒來，下半身也能因為這個簡單小動作活絡起來。&lt;/p&gt;, &lt;p&gt;&lt;img alt="刷牙,浴室,鏡子,廁所。（圖／達志／示意圖）" height="400" src="//cdn2.ettoday.net/images/2070/d2070186.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲刷牙時除了上半部，下半部也動一動吧。（圖／達志示意圖）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;span style="color: rgb(255, 102, 0);"&gt;&lt;strong&gt;喝一杯溫開水&lt;/strong&gt;&lt;/span&gt;&lt;br/&gt;讓四肢甦醒之後，記得用一杯溫開水開啟身體內部的新陳代謝，在喝開水的同時，也能組織一下今日行程、查看天氣決定要穿的衣服，或是想一下今天最重要的工作內容。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲水,喝水,白開水,杯子,玻璃杯。（圖／翻攝自pixabay）" height="450" src="//cdn2.ettoday.net/images/3331/d3331840.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲早上喝杯溫開水開啟新陳代謝。（圖／pixabay）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;span style="color: rgb(255, 102, 0);"&gt;&lt;strong&gt;準備簡單健康的早餐&lt;/strong&gt;&lt;/span&gt;&lt;br/&gt;幾乎所有人都知道早餐的重要性，準備健康的早餐其實沒有這麼困難，烤一片吐司或泡一碗燕麥粥，盡量以簡單烹調的方式來準備，就可以避免吃進上班途中選擇的高油脂早餐，長久下來不禁對健康有幫助，對於皮膚負擔也會越來越低。&lt;/p&gt;, &lt;p&gt;&lt;img alt="早餐，飲食，燕麥，果汁。（圖／取自LibreStock網路）" height="400" src="//cdn2.ettoday.net/images/2057/d2057979.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲在家準備簡單早餐其實很方便。（圖／pixabay）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;span style="color: rgb(255, 0, 0);"&gt; &lt;/span&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲台南市警局提醒家長，多花心思協助孩子妥善規劃假期，多從事健康休閒活動，使用3C產品時要注意使用時間，勿沉迷網路世界。（圖／記者林悅翻攝，下同）" height="450" src="//cdn2.ettoday.net/images/6825/d6825859.jpg" width="599"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲台南市警局提醒家長，多花心思協助孩子妥善規劃假期，多從事健康休閒活動，使用3C產品時要注意使用時間，勿沉迷網路世界。（圖／記者林悅翻攝，下同）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者林悅／台南報導&lt;/p&gt;, &lt;p&gt;農曆新年假期近尾聲，學童接續放寒假，家長則陸續開工、上班，台南市警婦幼隊長蔡佳璋提醒家有子女之父母，多花心思協助孩子妥善規劃假期，多從事健康休閒活動，使用3C產品時要注意使用時間，勿沉迷網路世界。&lt;/p&gt;, &lt;p&gt;台南市警婦幼隊長蔡佳璋指出，網路資訊雖發達，但也藏有許多陷阱，近年警方於兒少性剝削或網路散布私密照案件中，發現由網愛衍生裸聊勒索案件比例偏高，常見的裸聊勒索手法如:「側錄裸露影片」，對方會以不同藉口誘使被害人在鏡頭前裸露或做出不雅動作，也可能會利用預先錄製的性感「罐頭片」以假亂真，讓被害人降低戒心，再誘使被害人在鏡頭前裸露或做出不雅動作後側錄。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲台南市警局提醒家長，多花心思協助孩子妥善規劃假期，多從事健康休閒活動，使用3C產品時要注意使用時間，勿沉迷網路世界。（圖／記者林悅翻攝，下同）" height="450" src="//cdn2.ettoday.net/images/6825/d6825858.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;市警局提醒民眾「天下沒有白吃的午餐」，使用網路交友軟體或社群平臺時，應謹記不在視訊聊天中裸露身體，不點擊來歷不明的超連結或下載程式，不輕信對方一定是真人視訊。如遭網路詐騙或非法勒索請勇敢撥打反詐騙專線165或報案電話110請求協助，千萬不可聽信對方而交付點數卡、加密資產或轉帳，以保護自身安全。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲台南市警局提醒家長，多花心思協助孩子妥善規劃假期，多從事健康休閒活動，使用3C產品時要注意使用時間，勿沉迷網路世界。（圖／記者林悅翻攝，下同）" height="371" src="//cdn2.ettoday.net/images/6825/d6825857.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;台南市警局也持續積極於校園宣導及臉書粉絲專頁貼文有關反詐騙與婦幼安全議題，透過實體演講或網路推播方式反覆宣導，期能藉此推廣自我保護之正確觀念，達到事前預防的宣導效果。&lt;/p&gt;, &lt;p&gt;想了解更多婦幼安全資訊，也歡迎大家下載運用內政部警政署「婦幼抱抱」（NPA Care U）Youtube宣導平臺婦幼安全宣導影片，邀請大家共同守護婦幼安全。&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;記者蔡宜芳／綜合報導&lt;/p&gt;, &lt;p&gt;徐凱希2005年以藝名「鴨子」參加《我愛黑澀會》，歷經超過17年的時光，她仍與不少美眉保持聯絡，29日更分享了一群人在玉兔（鄭如吟）家中聚會的照片，感慨大家即便在不同領域生活，心中仍有彼此，「真的不要再說演藝圈複雜了。」&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼徐凱希合體黑澀會美眉。（翻攝自Instagram／cathyshyu）" height="450" src="//cdn2.ettoday.net/images/6825/d6825855.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲徐凱希是黑澀會美眉出身。（翻攝自Instagram／cathyshyu）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;徐凱希29日曬出與玉兔、陶子（陶嫚曼）、米奇（黃鈺文）及祐祐的合照，「從豎著大拇指喊著『woo～』到現在談論著媽媽經，還有人生經歷的我們，真的是十年如一日。」她也說，即便和好友們都各自在不同的領域打拚，但心裡還是一直記著這些戰友，並為每個人的成就而感到高興，「真的不要再說演藝圈複雜了，複雜是種選擇，選擇你想成為的人，才能好好地愛自己，進而勇敢地愛身邊的人。」&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼徐凱希合體黑澀會美眉。（翻攝自Instagram／cathyshyu）" height="625" src="//cdn2.ettoday.net/images/6825/6825854.jpg" width="500"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲徐凱希、陶子（陶嫚曼）、米奇、祐祐、玉兔。（翻攝自Instagram／cathyshyu）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;另一方面，長時間住在新加坡的米奇，於去年年底回到台灣過年，對於再次和美眉們相聚，感慨說：「很像是從同一個大學畢業一樣，就算當初唸同一系，我們都還是走出不同的路。彼此交換生活情報的時候，看見的樣子都還是當年上課的模樣。」她也感謝好友替自己慶生，並喊話其他美眉說：「這次回台灣沒見到面的美眉們，我們下次的同學會見喔～」&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼徐凱希合體黑澀會美眉。（翻攝自Instagram／mickeyhuang0126）" height="890" src="//cdn2.ettoday.net/images/6825/6825853.jpg" width="500"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲米奇在26日迎接36歲生日。（翻攝自Instagram／mickeyhuang0126）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;【徐凱希全文】&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;誰的青春裡也住著黑澀會妹妹&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;從豎著大拇指喊著「woo～」&lt;br/&gt;到現在談論著媽媽經還有人生經歷的我們&lt;br/&gt;真的是十年如一日&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;即使在不同領域生活&lt;br/&gt;但心裡還是一直有著這些戰友們&lt;br/&gt;而且真心的為每一個人的成就感到高興&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;真的不要再說演藝圈複雜了&lt;br/&gt;複雜是種選擇&lt;br/&gt;選擇你想成為的人&lt;br/&gt;才能好好的（地）愛自己，進而勇敢的（地）愛身邊的人&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;【米奇全文】&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;#黑澀會美眉 當年一起被貼上的標籤。&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;我們從努力掙扎走出自己的樣子，到現在感謝當初是被挑中的那一個。&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;很像是從同一個大學畢業一樣，就算當初唸同一系，我們都還是走出不同的路。彼此交換生活情報的時候，看見的樣子都還是當年上課的模樣。&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;小時候的生日都要過一個月，長大後的生日是只要能夠成功的情緒勒索，把大家湊在一起，那陣子都可以算是生日。&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;///謝謝你們延長我生日的幸福感。&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;這次回台灣沒見到面的美眉們，我們下次的同學會見喔～&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;#生日週 #聚會&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;a href="https://www.ettoday.net/news/20230129/2429726.htm" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;►吳淡如買菜遇蛇…老家後院「藏36隻龜殼花」　網驚：難怪出狀元！&lt;/strong&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;, &lt;p&gt;&lt;a href="https://www.ettoday.net/news/20230129/2429697.htm" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;►KID首挑戰母嬰同室「急速老化」！　求同溫層：要跟你們說對不起&lt;/strong&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;, &lt;p&gt;&lt;a href="https://www.ettoday.net/news/20230128/2429473.htm" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;►黃偉晉赴日夜間滑雪「轉身連遇3藝人」　曬合照：以為我在台灣&lt;/strong&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;, &lt;p&gt;&lt;span style="color: rgb(255, 102, 0);"&gt;&lt;strong&gt;&lt;span style="font-size: medium;"&gt;&lt;a href="https://fugo.ehsn.com.tw/fugoOrder/prod?k=zd46J&amp;amp;data=l3HbXgwKHQ1iDCdng0KfLpqEfZ8I4EjReDFqwWMQiACDwGezrFVDS5YwzzeK9mxL4Pjmj8YkiDu7_M2I9JYubg" target="_blank"&gt;&lt;span style="color: rgb(255, 102, 0);"&gt; &lt;/span&gt;&lt;span style="font-size: medium;"&gt;&lt;span style="color: rgb(51, 51, 51);"&gt;&lt;span style="background-color: rgb(255, 255, 153);"&gt;►囤貨最佳時機！150抽「蒲公英環保衛生紙」只要13元 讓媽媽抽到手抽筋&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼             。（圖／網友賴小姐提供）" height="401" src="//cdn2.ettoday.net/images/6803/d6803736.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲台中大里有一名地瓜伯時常在路邊擺攤，許多網友轉發並且前往支持。（圖／網友賴小姐提供，下同）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者許權毅／台中報導&lt;/p&gt;, &lt;p&gt;台中大里一名徐伯伯時常在路邊擺攤，貨車上頭堆滿一袋袋地瓜，也有香蕉、柳丁等水果，全是阿伯自雲林來台中擺攤，背後則有一段心酸故事。據了解，徐伯伯妻子罹癌、兒子身障，一個人扛起6口家計，不論天熱天冷都四處擺攤，常常在大里出現，許多網友看到轉傳紛紛前往「下架」，希望能多少幫助徐伯伯生意。&lt;/p&gt;, &lt;p&gt;徐伯伯在攤位前放上看板寫著「今年70多歲，感謝中部人的愛心，我晚婚育有4名子女，孩子領有身心障礙手冊，太太生病需要醫療費用，一家六口我一肩撐起，希望把雲林甜美的地瓜和大家分享，謝謝善心人士跟媒體報導，希望我能努力之時，讓孩子無後顧之憂，把書讀好，未來能回饋社會。」&lt;/p&gt;, &lt;p&gt;網友賴小姐指出，阿伯常在中南部擺攤，台中會在大里永隆路上，彰化會在和美和東國小前，或是鹿港大盤大百貨前，時間大多是早上7點到下午5點，阿伯也會跑到南投南陽路或是嘉義。&lt;/p&gt;, &lt;p&gt;不少網友看完貼文後表示，「阿伯很努力，前陣子在嘉義賣，沒固定位置」、「謝謝妳的愛心，剛剛家人有過去買，阿伯人很好」、「台灣人真的都好善良，好棒」。&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;iframe allowfullscreen="true" frameborder="0" height="315" mozallowfullscreen="true" scrolling="no" src="https://www.ettoday.net/tools/player/1033718-362387?title=%E9%AB%98%E9%9B%84%E5%A5%B3%E6%AE%BA%E5%AE%A4%E5%8F%8B%E8%A1%8C%E5%85%87%E5%89%8D%E9%81%BA%E8%A8%80%E6%9B%9D%E3%80%80%E9%80%81%E6%9F%93%E9%AB%AE%E5%8A%91%E7%B5%A6%E8%AD%A6%E8%A1%9B%EF%BC%9A%E7%94%A8%E4%B8%8D%E5%88%B0%E4%BA%86&amp;amp;bid=boba_preroll_web&amp;amp;show_ad=1&amp;amp;uccu=3" webkitallowfullscreen="true" width="560"&gt;&lt;/iframe&gt;&lt;/p&gt;, &lt;p&gt;記者吳世龍、柯振中／高雄報導&lt;/p&gt;, &lt;p&gt;高雄市左營區29日驚悚命案，69歲張姓陸籍女子持刀砍殺42歲邱姓台籍室友，後來又墜樓身亡。檢警相驗後發現，邱女一共遭砍殺16刀，研判致命傷為靠近心臟的一刀，至於詳細死因為何，還要進一步釐清。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼高雄陸籍女殺害室友後墜樓輕生，行兇前曾送染髮劑給熟識警衛，稱「我用不到了」。（圖／記者吳世龍攝）" border="1" height="338" src="//cdn2.ettoday.net/images/6825/d6825683.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲高雄陸籍女殺害室友後墜樓輕生，行兇前曾送染髮劑給熟識警衛，稱「我用不到了」。（圖／記者吳世龍攝）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;警方調查，張姓女子早年來台，嫁給一位榮民，丈夫死後繼承了桃園房產，隨後在桃園生活多年，死者邱女則是張女的好友，原先從事房地產投資工作。&lt;/p&gt;, &lt;p&gt;張女知道邱女對房地產熟悉，於是將桃園房產交給對方處理，還將賣房得到的400萬元拿給邱女作投資。不料邱女後來轉行，改做烘焙業，張女於是懷疑，這筆賣房所得根本沒拿去投資，而是被邱女用在烘焙事業上，雙方因此發生爭執。&lt;/p&gt;, &lt;p&gt;賣掉桃園的房地產以後，張女南下與邱女、邱女的女兒同住，平時經過守衛室時，也會與警衛閒聊，抒發心中的鬱悶，同時自嘲「腦袋有問題才會被騙下來」。&lt;/p&gt;, &lt;p&gt;而在案發以前，張女曾前往警衛室，拿了一罐染髮劑給警衛，推薦「拿來染頭髮很好」，又開口稱自己用不到，寒暄完畢後轉身上樓，豈料接著就發生命案。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;● 《ETtoday新聞雲》提醒您，請給自己機會：&lt;br/&gt;自殺防治諮詢安心專線：1925；生命線協談專線：1995&lt;/strong&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="大陸一名男子曬出通訊錄截圖，竟有多達逾40名的相親對象。（示意圖／翻攝自pixabay）" src="//cdn2.ettoday.net/images/6825/d6825596.jpg"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲大陸一名男子曬出通訊錄截圖，竟有多達逾40名的相親對象。（示意圖／翻攝自pixabay）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;圖文／CTWANT&lt;/p&gt;, &lt;p&gt;過年期間最怕親戚們問起感情、工作或學業等「敏感話題」，讓人很是尷尬，就有一名大陸男子疑似是被逼婚，在大年初一曬出4張通訊錄的截圖，上面全是相親對象的微信，初估多達40名。&lt;/p&gt;, &lt;p&gt;近日，一則貼文在網路上迅速爆紅，原來是有位杭州蕭山的年輕男子，在大年初一（22日）的晚上PO出了4張截圖，只見通訊錄上全是各地相親對象的微信，深怕過於雜亂不好找，他還以「區域」分類，像是相親南陽、相親河庄、相親靖江、相親瓜瀝等，大概約莫有40多名約會對象。&lt;img alt="大陸一名男子曬出通訊錄截圖，竟有多達逾40名的相親對象。（圖／擷取自微博影片）" src="//cdn2.ettoday.net/images/6825/d6825597.jpg"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲大陸一名男子曬出通訊錄截圖，竟有多達逾40名的相親對象。（圖／擷取自微博影片）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;該名男子似乎是在暗示自己情路坎坷，還發文感慨說道，「到底是怎樣的結局，才配得上這一路的顛沛流離。」&lt;/p&gt;, &lt;p&gt;貼文曝光後，掀起不少網友留言熱議，「這麼多人還能分清長啥樣嗎？」、「厲害厲害，就算粗略了解這麼多妹子，也夠花費很多精力了」、「這得多優秀，這幾天真夠他忙的，40選1看上眼了沒？」、「要求太高了吧，這麼多都看不上阿」、「是個生活很有秩序的人，備註分類如此清晰」，不過也有人懷疑該名男子是「海王」，「這是廣撒網嗎」、「何時湊齊百家姓」。&lt;/p&gt;, &lt;p&gt;另外，也有網友表示，父母完全不會逼婚，「好喜歡這種氛圍，可惜父母不催，也不給我找」、「我家人和我一樣，徹底擺爛，我不想找他們不介紹，氣氛和諧的只剩下年味」。&lt;/p&gt;, &lt;p&gt;&lt;span style="background-color: rgb(204, 153, 255);"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;免加會員直接購&lt;/strong&gt;&lt;/span&gt;&lt;/span&gt;&lt;strong&gt; &lt;/strong&gt;&lt;span style="background-color: rgb(255, 255, 0);"&gt; &lt;/span&gt;&lt;/p&gt;, &lt;p&gt;&lt;a href="https://fugo.ehsn.com.tw/fugoOrder/ordKey?k=zd46J&amp;amp;data=l3HbXgwKHQ1iDCdng0KfLqsFT3a1L3deL%2FCoV4lz%2BL0g%2FvXQFzHfTBzpJStZ09LmdbBS8Lxo4DHDzvmxUxCrdg%3D%3D" target="_blank"&gt;&lt;span style="color: rgb(255, 102, 0);"&gt;&lt;strong&gt;★1瓶不到100元！衣物徹底洗淨「妙管家抗菌洗衣精4000gx4瓶」★&lt;/strong&gt;&lt;/span&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;↘限時$399&lt;/strong&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;延伸閱讀&lt;/strong&gt;&lt;br/&gt;▸ &lt;a href="https://www.ctwant.com/article/235403?utm_source=ettoday&amp;amp;utm_medium=rss&amp;amp;utm_campaign=235407"&gt;陸春節7天民航運送旅客900萬人次　同期增長79.8％&lt;/a&gt;&lt;br/&gt;▸ &lt;a href="https://www.ctwant.com/article/235386?utm_source=ettoday&amp;amp;utm_medium=rss&amp;amp;utm_campaign=235407"&gt;場佈達人接「霍建華」委託　親曝明星真面目：第一次遇到這樣的藝人&lt;/a&gt;&lt;br/&gt;▸ &lt;a href="https://www.ctwant.com/article/235402?utm_source=ettoday&amp;amp;utm_medium=rss&amp;amp;utm_campaign=235407"&gt;大年初八收假日下午　最後一波出遊車潮湧現&lt;/a&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt; &lt;strong&gt;【你可能也想看】&lt;/strong&gt; &lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;strong&gt;&lt;a href="https://pets.ettoday.net/news/2397798?from=read_et_pets" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;►2女見黑貓「哈士奇」太可愛帶回家養　2個月後警找上門GG了&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;strong&gt;&lt;br/&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;a href="https://pets.ettoday.net/news/2393068?from=read_et_pets" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;►太神啦！統神被AI「判定是豬」　眾人無情笑翻：看破真身&lt;/strong&gt;&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;a href="https://pets.ettoday.net/news/2389431?from=read_et_pets" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;►養4貓4狗月花11萬　小鮮肉「3餐吃泡麵果腹」每周工作7天嘆：荒謬&lt;/strong&gt;&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;a href="https://pets.ettoday.net/news/2386163?from=read_et_pets" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;►她大學畢業當「守墓人」愛上清幽環境還能吸貓　笑稱：好像在養老&lt;/strong&gt;&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;&lt;a href="https://pets.ettoday.net/news/2386161?from=read_et_pets" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;►租屋處全是「貓毛和尿」冷氣也很噁　房東崩潰：打死不接受養寵物&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;&lt;a href="https://pets.ettoday.net/news/2382753?from=read_et_pets" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;►擼貓還有錢拿！月領2萬6+周休2日「幫老闆照顧貓」　23歲OL吐真話&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;&lt;a href="https://pets.ettoday.net/news/2340464?from=read_et_pets" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;►愛犬走了！正妹砸112萬「重新複製」　1年後重回懷抱被罵爆&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/strong&gt;&lt;strong&gt;&lt;strong&gt;&lt;strong&gt;&lt;strong&gt;&lt;strong&gt;&lt;strong&gt;&lt;strong&gt;&lt;br/&gt;&lt;br/&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼貓窩屋頂躺一隻「正方形貓貓」　10公斤壓力測試笑翻網：這個給過。（圖／有點毛毛的／網友Sammi Liao提供）" height="354" src="//cdn2.ettoday.net/images/6785/d6785401.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲10公斤的正方形貓貓睡在貓窩屋頂。（圖／有點毛毛的／網友Sammi Liao提供）&lt;br/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者闕雁琳／綜合報導&lt;/p&gt;, &lt;p&gt;貓咪睡窩的邏輯有時候和人類不太一樣。一名飼主Sammi Liao買了一個睡窩回家要給家裡的橘貓「吉米花」取暖，沒想到主子自己找到新的使用方式，10公斤的體重壓在貓窩屋頂做壓力測試，身體變成正方形的模樣，睡在仍然屹立不搖，讓網友看完笑翻直呼，「這個承重度給過！」&lt;/p&gt;, &lt;p&gt;「裝得真的很滿～這貓窩已經做過壓力測試了可以買起來，大爺牠本喵有10公斤以上。」畫面中可以看到，吉米花不是睡在貓窩裡面，而是整隻躺在屋頂，超過10公斤的體重壓在上面，雙手插在胸口，做出像是相撲的動作，眼神淡定睡在上面，從側面看就像一隻正方形貓咪，圓潤的背影十分有趣。貓窩也從原本的圓形，中間受到重量承重，變成甜甜圈的形狀，默默地努力支撐重量。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼貓窩屋頂躺一隻「正方形貓貓」　10公斤壓力測試笑翻網：這個給過。（圖／有點毛毛的／網友Sammi Liao提供）" height="450" src="//cdn2.ettoday.net/images/6785/d6785402.jpg" width="342"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲貓窩變成甜甜圈的形狀。（圖／有點毛毛的／網友Sammi Liao提供）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;這組貓咪「泰山壓頂」的照片分享出來，許多網友看完紛紛留言笑說，「重量級貓貓不容小覷」、「這個是…正方形貓貓」、「這樣感覺能下手」、「我看廣告好像不是這樣用的耶XD」、「這個很可以給過」、「滿大一坨的感覺」、「哇！這個屁屁好美喔！超想摸一把的」、「這個冬天很讚，裡面超級溫暖的」、「喵：只要我喜歡，沒什麼不可以」。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;感謝您在《有點毛毛的》社團的投稿，您提供的素材我們已經依版規處理，並撰寫成新聞，如未能在第一時間採訪，或內文有誤解之處，還請不吝指證，感激不盡！&lt;a href="https://www.facebook.com/groups/alittleplushpets/permalink/2212502032165769/" target="_blank"&gt;版規請點此！&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;span style="color: rgb(255, 0, 0);"&gt;&lt;strong&gt;↘小編嚴選推薦好物　免登入即可下訂↙&lt;/strong&gt;&lt;br/&gt;&lt;/span&gt;&lt;/p&gt;, &lt;p&gt;&lt;a href="https://fugo.ehsn.com.tw/fugoOrder/prod?k=qezbbz&amp;amp;data=jtJkwZD9vnuSCdvXFmtv43I4vrH6boHwgRzcdaV0TUzqWPoekbV93G4pDxaOOVFpxeEdldlRcP1-W9-uwhgnwQ" target="_blank"&gt;&lt;span style="background-color: rgb(255, 204, 0);"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;寵物用天然鮭魚油1罐不到235元　好吃又保護皮膚健康&lt;/strong&gt;&lt;/span&gt;&lt;/span&gt;&lt;span style="color: rgb(255, 102, 0);"&gt;&lt;br type="_moz"/&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;【你可能有興趣】&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;a href="https://pets.ettoday.net/news/2391313" target="_blank"&gt;&lt;strong&gt;遊覽車上有19隻狗狗！一狗一位坐好去賞花　腮紅柴全程打瞌睡&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;, &lt;p&gt;&lt;a href="https://pets.ettoday.net/news/2380092" target="_blank"&gt;&lt;strong&gt;爸爸不在家換媽備餐　只剩原味飼料虎斑汪「絕望低頭」逗樂萬人&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;a href="https://pets.ettoday.net/news/2385252" target="_blank"&gt;小黑挺過貓瘟3個月長成「銀白仙氣喵」　尾巴驚豔網：好像神獸&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;a href="https://pets.ettoday.net/news/2386062" target="_blank"&gt;癱瘓貓門口「等爸爸回家」衝第一迎接　可愛背影曝光融化千人&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;a href="https://pets.ettoday.net/news/2381532" target="_blank"&gt;2歲童被揍「去找德牧告狀」 幫出氣　牠抬頭見大魔王秒躺回去&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;strong&gt;&lt;span&gt;&lt;a href="https://www.instagram.com/ettodaypets/?hl=zh-tw" target="_blank"&gt;►ETtoday寵物雲有IG了，來追蹤我吧！&lt;/a&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▼更多精彩影音&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;iframe allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen="" frameborder="0" height="315" src="https://www.youtube.com/embed/LfBZGnbxIGY" title="YouTube video player" width="560"&gt;&lt;/iframe&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;★撿屎擦尿到崩潰？益菌寵物尿布墊讓你當個輕鬆狗奴★ &lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;strong&gt;&lt;a href="https://www.petkingdom.com.tw/?from=petking_et_pets" target="_blank"&gt;►動動手指來寵物王國幫毛孩補貨&lt;/a&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;iframe allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen="" frameborder="0" height="380" src="https://www.youtube.com/embed/tPHsro-XBVM" title="橘貓趁柴哥靠山不在家　偷咬腳還伸爪連巴3掌│寵物│狗狗│" width="580"&gt;&lt;/iframe&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼ 高雄市警察局左營分局。（圖／記者吳世龍攝）" height="450" src="//cdn2.ettoday.net/images/5678/d5678302.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲高雄左營分局今天逮捕一名罕見違反護照條例的通緝犯。（圖／記者吳世龍攝）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者吳奕靖、陳宏瑞／高雄報導&lt;/p&gt;, &lt;p&gt;高雄市一名頭染黃綠色的黃姓男子（43歲）和友人共乘一輛轎車，因兩人沒繫安全帶，且形跡可疑，今（29）日下午3時許在民族一路遭左營分局文自所員警盤查，員警一查，發現男子因違反護照條例遭通緝中，初步調查男子涉嫌將護照賣給詐騙集團使用，員警當場搜身上銬帶回派出所，通緝犯態度配合，逮捕過程正常平和。&lt;/p&gt;, &lt;p&gt;警方表示，當時該車正在停等紅燈，巡邏警車發現車內兩人都沒繫安全帶，於是將車子攔下盤查，過程中員警發現坐在副駕駛座的黃姓男子眼神飄移，仔細一查，發現黃男是通緝犯，當場將他壓制逮捕。&lt;/p&gt;, &lt;p&gt;警方初步調查，黃姓男子涉嫌將護照賣給詐騙集團牟利，在3個月前就遭到台南地檢署通緝中，警方已將他帶回偵訊，將依法押解歸案。&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;iframe allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen="" frameborder="0" height="315" src="https://www.youtube.com/embed/t1Do8PXmdGM" title="YouTube video player" width="560"&gt;&lt;/iframe&gt;&lt;/p&gt;, &lt;p&gt;記者蕭采薇／台北報導&lt;/p&gt;, &lt;p&gt;《極限震撼》29日在台最終兩場演出，與單口喜劇演員博恩跨界合作演出，博恩笑說：「我跳舞白痴！只能用自信去掩飾舞蹈的不足了！」而他其實為了這個演出，私底下苦練了很久。剛過完整整10天年假和育兒生活，他說：「 非常期待明天開工，巴不得快點開學！」&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼《極限震撼》博恩演出。（圖／寬宏提供）" height="400" src="//cdn2.ettoday.net/images/6825/d6825850.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲《極限震撼》博恩擔任壓軸嘉賓演出。（圖／寬宏提供）&lt;/strong&gt;&lt;br/&gt; &lt;br/&gt;《極限震撼》演出至今已超過17年，被譽為「最瘋狂的五感互動表演藝術」，結合劇場、特技和裝置藝術的跨界演出，單純以情感、肢體和觀眾一同探索與冒險。博恩一方面很期待可以學習，另一方面也很緊張，怕第一次小巨蛋表演出糗，所以非常努力練習，而老婆則是支持他挑戰新事物。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼《極限震撼》博恩演出。（圖／寬宏提供）" height="400" src="//cdn2.ettoday.net/images/6825/d6825849.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲《極限震撼》博恩演出。（圖／寬宏提供）&lt;/strong&gt;&lt;br/&gt; &lt;br/&gt;博恩帶來一日兩場的《極限震撼》演出，他在首場結束後受訪時說：「練習的時候有落拍，但剛剛應該都是有跟到，希望DJ那段觀眾可以更嗨一點。」博恩也預告今年會有個人大型專場的演出，將會再次回到小巨蛋。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼《極限震撼》博恩演出。（圖／寬宏提供）" height="400" src="//cdn2.ettoday.net/images/6825/d6825848.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲《極限震撼》博恩與來自阿根廷的舞者熱舞。（圖／寬宏提供）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;《極限震撼》本次來台演出也顛覆台北小巨蛋的全新觀劇體驗，此次將創下台北小巨蛋新里程碑，首次以每場次容納觀眾人數最少的演出形式，完美呈現《極限震撼》的互動體驗，也讓兔年春節假期充滿不一樣的異國歡慶色彩。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼《極限震撼》博恩演出。（圖／寬宏提供）" height="400" src="//cdn2.ettoday.net/images/6825/d6825847.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲《極限震撼》自嘲是舞蹈白痴，靠自信撐住全場。（圖／寬宏提供）&lt;/strong&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼ 孕婦,發福,變胖,發胖,腰圍。（圖／取自免費圖庫Pixabay）" height="400" src="//cdn2.ettoday.net/images/3862/d3862055.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲胖瘦子一旦診斷糖尿病，死亡風險比肥胖者還高。（圖／取自免費圖庫Pixabay）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;文／國泰綜合醫院老人醫學科主任黃柏堯&lt;/p&gt;, &lt;p&gt;我們都知道，肥胖是一種不健康的表現。但其實，瘦也不一定代表健康。你聽過「瘦胖子」嗎？有些人看起來瘦，脫掉衣服後卻有個圓滾滾的大肚腩；或者體重、BMI量起來都標準，但肌肉量卻過低、體脂肪過高，這類的體型，醫學上稱作metabolically obese normal-weight (MONW)，或正常體重肥胖 (normal weight obesity)，也就是俗稱的「瘦胖子」(skinny fat)。&lt;/p&gt;, &lt;p&gt;《美國醫學會雜誌》在2012年的一篇研究表示，近四分之一的瘦子患有糖尿病前期。更驚人的發現是：一個被診斷患有糖尿病的瘦胖子，比被診斷患有糖尿病肥胖者，死亡風險高出兩倍。&lt;/p&gt;, &lt;p&gt;為什麼明明體重都標準，體脂肪卻降不下來？罪魁禍首是你失衡的胰島素。我們都知道胰島素負責調節血糖，且把血液中多餘的糖儲存為脂肪。長期的胰島素過高，會引發代謝及荷爾蒙的變化，導致慢性發炎及肌肉流失，進一步加劇糖尿病前期或糖尿病的惡性循環—無論你是胖或瘦。&lt;/p&gt;, &lt;p&gt;因此，如果你有糖尿病及早發型心臟病的家族史，即使你本身沒有肥胖，建議你定期追蹤以下的常規血液檢查及定時量血壓：&lt;/p&gt;, &lt;p&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;1. 空腹血糖（理想：低於 90 mg/dl）&lt;br/&gt;2. 三酸甘油酯（理想：低於 100 mg/dl）&lt;br/&gt;3. HDL 高密度膽固醇（理想：大於 60 mg/dl）&lt;br/&gt;4 血壓（理想：低於 120/80)&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;, &lt;p&gt;還有一些能幫助你更早發現糖尿病的特殊檢測，像是空腹胰島素反應檢測(insulin response test)，以及與膽固醇顆粒大小相關的 ApoA1 及 ApoB 檢測。&lt;/p&gt;, &lt;p&gt;最後，瘦胖子要如何避免糖尿病上身呢？其實解方與處理肥胖一樣，即是：降低慢性發炎、降低體脂肪、增加肌肉量。實際作法如下：&lt;/p&gt;, &lt;p&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;1. 低GI飲食，且三餐都要有蛋白質。&lt;br/&gt;2. 吃高品質好油，不吃精製加工植物油及反式脂肪。&lt;br/&gt;3. 不喝含糖飲料，包含果汁。酒精類飲品每週不超過三杯。&lt;br/&gt;4. 少碰精緻糖、精緻澱粉、罐頭、速食等加工食品。&lt;br/&gt;5. 運動：有氧運動改善新陳代謝，重力訓練增加肌肉量。&lt;br/&gt;6. 充足的睡眠：每晚7-8小時；並配合規律的就寢時間。&lt;br/&gt;7. 營養補充品：綜合維他命、魚油，及維生素D3。&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;, &lt;p&gt;切記：瘦不等於健康！隱形肥胖比體重過重更危險。定期追蹤自己的代謝指數，維持良好的飲食及生活型態，才是健康的不二法門。&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼台中殯儀館,相驗,解剖。（圖／記者許權毅攝）" height="450" src="//cdn2.ettoday.net/images/6733/d6733345.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲法務部推動科技化，與彰基合作將舊的電腦斷層捐贈出來，在台中殯儀館內成立法醫研究所影像中心，協助法醫相驗。（圖／記者許權毅攝）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者許權毅／台中報導&lt;/p&gt;, &lt;p&gt;殯儀館內竟有千萬元電腦斷層！法務部為推動科技化，日前與台中市府、彰化基督教醫院合作，將彰基舊的電腦斷層設備捐出，設置在台中崇德殯儀館，成立「中區法醫影像中心」，希望能夠對中台灣相驗解剖案件進一步幫助，去年12月設置完成、使用。面對資深法醫高大成質疑「殺雞用牛刀」，法醫研究所則強調，機器是沿用，沒有多花預算。&lt;/p&gt;, &lt;p&gt;法務部長蔡清祥日前親自主持「法醫研究所中區法醫影像中心」揭牌儀式。法務部指出，醫學影像是目前醫院臨床常見的檢查方法，這項科技在歐美日澳等先進國家皆已運用在法醫相驗解剖，以提升法醫相驗 解剖的品質，有鑑於國際使用電腦斷層設備(簡稱CT)協助相驗解剖已日趨成熟，我國亦積極趕上國際潮流，更將其列為「科技化法務部」政策的重點項目。&lt;/p&gt;, &lt;p&gt;恰逢台中殯儀館內的相驗解剖中心整修，將此處劃分兩處空間，一台電腦斷層就設立在中心門口，其餘2座則在北、南部，未來司法相驗案件在檢察官同意下就可進行掃描、再由專家協助判讀。&lt;/p&gt;, &lt;p&gt;但知名法醫高大成則說，不反對增加電腦斷層，但是會變成殺雞用牛刀，並且電腦斷層需要有專業人員，能夠判讀，而且還需要花一大筆錢。高認為，不如把X光機廣設，一台只要百萬就解決，「不要以為CT可以解決任何事情。」&lt;/p&gt;, &lt;p&gt;面對質疑，蔡清祥先前表示，國人通常較排斥解剖。這次3台機器也是由外界捐贈沿用，中部是由彰基無償捐贈，法務部沒有多花預算。&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="（圖／台中市名門命理教育協會創會理事長楊登嵙提供）" src="//cdn2.ettoday.net/images/6825/d6825599.jpg"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲大年初九「拜天公」8禁忌。（圖／台中市名門命理教育協會創會理事長楊登嵙提供）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;圖文／CTWANT&lt;/p&gt;, &lt;p&gt;名門命理教育協會創會理事長楊登嵙教授指出，習俗中舉凡結婚、做大壽時都要「拜天公」，天公即玉皇大帝，亦即上古時的昊天上帝，簡稱為「上帝」或「玉帝」，又稱為「天公祖」、「玉天大帝」、「皇天上帝」、「昊天金闕玉皇大帝」等，而農曆正月初九是天上最高神明玉皇大帝的聖誕，俗稱「天日」；臺灣閩南稱之為「天公生」，意思就是天公的生日。&lt;/p&gt;, &lt;p&gt;楊登嵙教授表示，一般祭拜天公的時間在農曆正月初九凌晨子時一到（23點至01點）今年1月29日晚上23點便可開始，直到翌日清晨7點以前，俗傳因為天公的神格非常尊貴，因此越早敬供越有誠意。準備金紙：天金、尺金、大壽金、壽金、刈金、土地公金(合稱「五色金」)、甲馬、白錢、金錢（或稱「黃錢」）。&lt;/p&gt;, &lt;p&gt;供桌又分「頂桌」和「下桌」，一般居民在家正式祭祀天公時，一律要在正廳「天公爐」下或戶外沒有遮蔽的地方擺設祭壇，桌旁兩側各用紅線拴上一枝甘蔗，祈求錢財能夠節節高升；供桌又分「頂桌」和「下桌」，「頂桌」是給玉皇大帝的，相傳玉帝茹齋禁葷，因此全為素食，墊金紙把八仙桌墊高，再系在兩條長凳上，並在桌前繫上吉祥圖案的桌圍，上面供奉三個燈座﹙三官大帝：天官、地官、水官﹚，神位用紅綢墨書而成，前面為香爐，兩邊為燭台，爐前放紮著紅紙的麵線塔﹙紮紅紙麵線三束也可﹚，排列五果﹙柑、橘、鳳梨、蘋果、李子、香蕉等任取五樣﹚、六齋﹙金針、桂圓、菜心、香菇、綠豆、海帶、木耳、菀豆等任取六樣﹚，前設清茶三杯。&lt;/p&gt;, &lt;p&gt;在頂桌底面另置一桌，謂之「下桌」為供奉玉皇大帝從神所設，除五牲﹙雞、鴨、魚、豬肉或豬肚、豬肝﹚外，還有糕仔、米棗、生仁、紅龜稞等。﹙見照片1.2﹚&lt;/p&gt;, &lt;p&gt;供桌沒有「頂桌」和「下桌」，只有單一平面，在家門口外沒有遮蔽的的地方設供桌，就像平常拜門口一樣，只有平常的供桌，但為求尊崇之意，會在供桌的四隻腳底下墊上壽金，供品一定要素的，絕對不可以拜葷食！一般是5種水果。&lt;/p&gt;, &lt;p&gt;天公因為神格至尊，唯恐有所瀆辱，祭禮中有些禁忌必須遵守：&lt;/p&gt;, &lt;p&gt;1.祭祀前一律都要齋戒沐浴。&lt;/p&gt;, &lt;p&gt;2.有「頂桌」和「下桌」的正式祭祀，「頂桌」一定是素食或水果，「下桌」牲禮中的所獻的全雞必需是閹過的公雞，鳳頭雞、白毛雞、母雞均不能用，以示對天公的尊敬。&lt;/p&gt;, &lt;p&gt;3.簡單式祭祀供品一定是素食或水果，不可以葷食。&lt;/p&gt;, &lt;p&gt;4.燒給天公的金箔也與其他神明不同，需用特製的大型「天公金」﹙大壽金紙﹚，比一般金紙大一倍以上。&lt;/p&gt;, &lt;p&gt;5.祭祀當日禁止屠宰。&lt;/p&gt;, &lt;p&gt;6.不能曝曬女性的內衣褲及傾倒便桶，以免不敬。&lt;/p&gt;, &lt;p&gt;7.禁忌男人揹水、做飯，據說如此可能罹患疾病。&lt;/p&gt;, &lt;p&gt;8.不可口出髒話穢語，以免褻瀆了尊貴的天公而受到處罰。&lt;/p&gt;, &lt;p&gt;&lt;span style="background-color: rgb(204, 153, 255);"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;免加會員直接購&lt;/strong&gt;&lt;/span&gt;&lt;/span&gt;&lt;strong&gt; &lt;/strong&gt;&lt;span style="background-color: rgb(255, 255, 0);"&gt; &lt;/span&gt;&lt;/p&gt;, &lt;p&gt;&lt;a href="https://fugo.ehsn.com.tw/fugoOrder/ordKey?k=zd46J&amp;amp;data=l3HbXgwKHQ1iDCdng0KfLqsFT3a1L3deL%2FCoV4lz%2BL0g%2FvXQFzHfTBzpJStZ09LmdbBS8Lxo4DHDzvmxUxCrdg%3D%3D" target="_blank"&gt;&lt;span style="color: rgb(255, 102, 0);"&gt;&lt;strong&gt;★1瓶不到100元！衣物徹底洗淨「妙管家抗菌洗衣精4000gx4瓶」★&lt;/strong&gt;&lt;/span&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;↘限時$399&lt;/strong&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;延伸閱讀&lt;/strong&gt;&lt;br/&gt;▸ &lt;a href="https://www.ctwant.com/article/235356?utm_source=ettoday&amp;amp;utm_medium=rss&amp;amp;utm_campaign=234367"&gt;奧客訂8880年菜…「1賤招」害工讀生慘賠4千　店家討錢被留1星負評&lt;/a&gt;&lt;br/&gt;▸ &lt;a href="https://www.ctwant.com/article/235328?utm_source=ettoday&amp;amp;utm_medium=rss&amp;amp;utm_campaign=234367"&gt;初中男同學送禮物　她多年後才見「內藏情書」嘆：沒再說過話&lt;/a&gt;&lt;br/&gt;▸ &lt;a href="https://www.ctwant.com/article/235210?utm_source=ettoday&amp;amp;utm_medium=rss&amp;amp;utm_campaign=234367"&gt;醫師有危險1／男稱「看到鬼」砍斷護理師手筋　精神鑑定僅能領200元&lt;/a&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt; &lt;strong&gt;【你可能也想看】&lt;/strong&gt; &lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;strong&gt;&lt;a href="https://pets.ettoday.net/news/2397798?from=read_et_pets" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;►2女見黑貓「哈士奇」太可愛帶回家養　2個月後警找上門GG了&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;strong&gt;&lt;br/&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;a href="https://pets.ettoday.net/news/2393068?from=read_et_pets" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;►太神啦！統神被AI「判定是豬」　眾人無情笑翻：看破真身&lt;/strong&gt;&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;a href="https://pets.ettoday.net/news/2389431?from=read_et_pets" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;►養4貓4狗月花11萬　小鮮肉「3餐吃泡麵果腹」每周工作7天嘆：荒謬&lt;/strong&gt;&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;a href="https://pets.ettoday.net/news/2386163?from=read_et_pets" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;►她大學畢業當「守墓人」愛上清幽環境還能吸貓　笑稱：好像在養老&lt;/strong&gt;&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;&lt;a href="https://pets.ettoday.net/news/2386161?from=read_et_pets" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;►租屋處全是「貓毛和尿」冷氣也很噁　房東崩潰：打死不接受養寵物&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;&lt;a href="https://pets.ettoday.net/news/2382753?from=read_et_pets" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;►擼貓還有錢拿！月領2萬6+周休2日「幫老闆照顧貓」　23歲OL吐真話&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;&lt;a href="https://pets.ettoday.net/news/2340464?from=read_et_pets" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;►愛犬走了！正妹砸112萬「重新複製」　1年後重回懷抱被罵爆&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/strong&gt;&lt;strong&gt;&lt;strong&gt;&lt;strong&gt;&lt;strong&gt;&lt;strong&gt;&lt;strong&gt;&lt;strong&gt;&lt;br/&gt;&lt;br/&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;iframe allowfullscreen="true" frameborder="0" height="315" mozallowfullscreen="true" scrolling="no" src="https://www.ettoday.net/tools/player/1028810-360591?title=%E7%A9%BA%E8%BB%8D%E6%98%A5%E7%AF%80%E6%88%B0%E5%82%99+%E5%B9%BB%E8%B1%A12000%E7%A7%80%E3%80%8C%E5%A4%A7%E8%B1%A1%E8%B5%B0%E8%B7%AF%E3%80%8D&amp;amp;bid=boba_preroll_web&amp;amp;show_ad=1&amp;amp;uccu=3" webkitallowfullscreen="true" width="560"&gt;&lt;/iframe&gt;&lt;/p&gt;, &lt;p&gt;記者蘇晏男／新竹報導&lt;/p&gt;, &lt;p&gt;空軍第42作戰隊中校副隊長、幻象2000飛官吳邦彥曾參加北約防衛學院戰略111年班，他受訪指出，與他同班次的學員知道台灣在高科技扮演舉足輕重角色，認為供應鏈穩定，方有安定、和平局勢，是一個維繫全球經濟的重要關鍵。&lt;/p&gt;, &lt;p&gt;國防部11至12日舉行「國軍112年春節加強戰備媒體參訪活動」，首站是到新竹空軍基地觀摩幻象2000機起降落。吳邦彥受訪時，因其曾參加過北約防衛學院戰略班而備受關注。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲空軍第42作戰隊中校副隊長、幻象2000飛官吳邦彥（圖中）。（圖／記者蘇晏男攝）" height="450" src="//cdn2.ettoday.net/images/6802/d6802974.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲空軍第42作戰隊中校副隊長、幻象2000飛官吳邦彥（圖中）。（圖／記者蘇晏男攝）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;吳邦彥表示，北約防衛學院戰略班次是台灣常態性的交流班次；在為期六個月的課程中，主要以北約成員國及伙伴國的派訓學員，一同參加課程，研討國際及相關區域局勢，而課程目前著重俄烏與東歐情況、印太區域情勢。&lt;/p&gt;, &lt;p&gt;對於參加北約防衛學院戰略班最大收穫是什麼？吳邦彥指出，主要以參與課程的北約成員國學員一同研討，也可以了解各國對國際情勢看法；課程班隊中有軍職、文職人員，提供外交與軍事的寶貴意見，讓他汲取不同觀點。&lt;/p&gt;, &lt;p&gt;針對課程上有無教導軍事專業或協同訓練？吳邦彥說，沒有針對軍事專業訓練，而是主要著重在國際及區域局勢研討跟探討，並非針對軍事上的協同作戰或合作。&lt;/p&gt;, &lt;p&gt;媒體詢問，與北約成員國學員交流時，他們有無表達對台灣的看法？吳邦彥回應，課程研討過程中，對方知道他的背景，也會相互交流意見，各國有各自的國防、政策，因此學員間會意見交流，了解彼此態勢。&lt;/p&gt;, &lt;p&gt;媒體追問吳邦彥，有無北約學員國表達對台灣的認知，讓他印象深刻？吳說，台灣在高科技扮演舉足輕重角色，「他們也知道」，認為供應鏈穩定方有安定、和平局勢，是一個維繫全球經濟的重要關鍵。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▼幻象2000。（圖／記者蘇晏男攝）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;img alt="▼幻象2000。（圖／記者蘇晏男攝）" height="344" src="//cdn2.ettoday.net/images/6802/d6802979.jpg" width="600"/&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲兔Lucky！黏牆上刮刮樂突掉下，台中男臨時起意加買竟中100萬。（圖／劉小姐提供）" height="450" src="//cdn2.ettoday.net/images/6825/d6825841.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲黏牆上刮刮樂突掉下，台中男臨時起意加買竟中100萬。（圖／劉小姐提供）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者游瓊華／台中報導&lt;/p&gt;, &lt;p&gt;真的是掉下來的禮物！台中一名男子昨（28）日大年初七前往太平區成功東路上的「超順彩劵行」買彩券時，恰巧黏在牆上的一張2000萬超級紅包刮刮樂突然掉下，顧店的闆娘遊說男子，掉下的可能是中獎彩券，男子聽完決定加碼2000元買下刮刮樂，竟真的刮中100萬元，起初怕眼花看錯，等確定後還大方包了2包6000元紅包給店內女店員分紅。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲兔Lucky！黏牆上刮刮樂突掉下，台中男臨時起意加買竟中100萬。（圖／劉小姐提供）" height="450" src="//cdn2.ettoday.net/images/6825/d6825840.jpg" width="571"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲店內顧店的劉小姐已經懷胎7個月，今年3、4月就要誕下兔寶，被客人認為有福氣加持。（圖／劉小姐提供）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;超順公益彩劵行代理人劉小姐現在肚子裡懷了7個月大兔寶，她透露，刮中100萬元的店內常客，也是名帥氣大叔，過往就很常到店內買彩券，金額大概200元、500元左右。&lt;/p&gt;, &lt;p&gt;劉小姐指出，為了方便消費者挑選，所以將刮刮樂黏在牆上，初七當天另一名顧店的店員也恰巧屬兔。兩人看到刮刮樂突然掉下，笑稱可能是兩隻兔子把中獎刮刮樂跳下來了。帥氣大叔原本僅打算要買樂透，聽到兩人說法，也認為有雙兔加持應該機會不小，立刻掏出2000元加買刮刮樂，結果真的幸運中獎！&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;記者楊蕎綺／綜合報導&lt;/p&gt;, &lt;p&gt;林秀琴與陳致遠先前被經紀公司提告私接工作，最後法院判夫妻倆敗訴，需賠償200萬，加上餐廳等副業虧損，負債最高曾達到台幣700萬，一度消失演藝圈，夫妻倆近來精力多放在經營粉絲專頁，不過在春節年假最後一天傳出秀琴過年期間病倒，於醫院坐在輪椅上，看起來相當疲憊。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼秀琴過年期間病倒。（圖／翻攝自Facebook／陳致遠&amp;amp;林秀琴的樂fun人生）" height="450" src="//cdn2.ettoday.net/images/6825/6825835.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲林秀琴與陳致遠目前心力主要放在經營粉專及水晶事業。（圖／翻攝自Facebook／陳致遠&amp;amp;林秀琴的樂fun人生）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;林秀琴與陳致遠經營的粉絲專頁今（29日）透露，秀琴在農曆新年期間很不平安，推測是長期工作忙碌到忘記照顧自己，導致「身體嚴重抗議」，希望粉絲網友可以幫忙集氣祈禱她早日康復。從曝光的照片，可看出她經常是躺在病床上昏睡，不然就是坐在輪椅上需要他人幫忙移動，狀態欠佳。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼秀琴過年期間病倒。（圖／翻攝自Facebook／陳致遠&amp;amp;林秀琴的樂fun人生）" height="450" src="//cdn2.ettoday.net/images/6825/6825834.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲林秀琴在農曆春節期間病倒。（圖／翻攝自Facebook／陳致遠&amp;amp;林秀琴的樂fun人生）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;林秀琴去年曾在節目上透露，陳致遠剛退休時陸續接手好友的夜店、開燒烤店、原住民餐廳，因為展店速度太快，加上與合夥人合作上發生失誤，經營上又出狀況，包括員工素質差、股東搞失蹤沒人顧店，到頭來慘賠700多萬。&lt;/p&gt;, &lt;p&gt;不僅如此，林秀琴還和前經紀公司鬧翻，爆出合約糾紛，遭提告私接工作，吳宗憲一度居中協調，最後夫妻倆被法院判賠200萬。所幸，如今的她已經可以上節目、在家開直播賺錢，目前主要販售水晶飾品。&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲鋼鐵人開賣2月11日、12日主場門票，主視覺已經將林書豪擺在C位。（圖／取自高雄17直播鋼鐵人粉絲專頁）" height="407" src="//cdn2.ettoday.net/images/6825/d6825415.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲鋼鐵人開賣2月11日、12日主場門票，主視覺已經將林書豪擺在C位。（圖／取自高雄17直播鋼鐵人粉絲專頁） &lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者杜奕君／綜合報導&lt;/p&gt;, &lt;p&gt;林書豪28日在個人IG自爆下周將來台，與新東家高雄17直播鋼鐵人會合，今日鋼鐵人球團總經理高景炎則透露，「確切來台日期真的還沒確定，因為機票還在喬，相關來台後還有0+7的自主防疫隔離規範，必須結束後才能安排相關加盟記者會事實，因此首戰時間會慎重看待，不想誤導球迷買了票，結果他那天沒上場。」&lt;/p&gt;, &lt;p&gt;鋼鐵人今日迎接開春後首戰，客場踢館挑戰衛冕王者台北富邦勇士，賽前關於林書豪相關動向，也成為外界最關注焦點。&lt;/p&gt;, &lt;p&gt;對此，總經理高景炎強調，「目前林書豪連來台機票都還沒確定，因此還不敢給外界一個確定的日期，但應該會舉行加盟記者會，這個是可以確定的事。不過最基本有一個0+7的自主防疫規範，這個會先把它做完。」&lt;/p&gt;, &lt;p&gt;高景炎強調，「因為一切日期都尚未確定，因此我也不敢講，怕誤導消費者與球迷，讓他們以為哪一天林書豪會上場，但最後沒有出賽，這對球迷才是比較公平的事。」&lt;/p&gt;, &lt;p&gt;另外，高景炎也強調，「林書豪CBA賽季打到一半才離開，他一直有在保持狀態，也是很盡責的球員，我認為不用擔心他對這方面的自我要求，而且這樣的NBA等級球員，我希望他的加入能對PLG聯盟以及台灣籃壇帶來一些影響。」&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲高雄鋼鐵人總經理高景炎。（圖／鋼鐵人提供）" height="384" src="//cdn2.ettoday.net/images/6624/d6624813.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲高景炎對於林書豪自爆下周抵台消息作出回應。（圖／高雄17直播鋼鐵人提供） &lt;/strong&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;iframe allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen="" frameborder="0" height="315" src="https://www.youtube.com/embed/t1Do8PXmdGM" title="YouTube video player" width="560"&gt;&lt;/iframe&gt;&lt;/p&gt;, &lt;p&gt;記者蕭采薇／台北報導&lt;/p&gt;, &lt;p&gt;《炎上BURN》系列第二季主題《炎上王世堅》，談及王世堅兩段緋聞開砲，讓對方露出尷尬神情，主持人曾博恩也遭到網友「炎上」。曾博恩29日受訪時表示，團隊有向王世堅致意，但風格不會改變，更喊話夢幻名單：「志祥、力宏，要不要來？」&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼《極限震撼》博恩。（圖／寬宏提供）" height="400" src="//cdn2.ettoday.net/images/6825/d6825846.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲博恩擔任《極限震撼》壓軸嘉賓。（圖／寬宏提供）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;曾博恩29日擔任《極限震撼》最終場嘉賓，受訪時被問及此事，他坦言團隊有向王世堅致意：「年假前的一個禮拜，幾乎都都在做這件事。」也表示過去參與過炎上的來賓，幾乎都不用特別這樣做，不過這次後續新聞太多，加上對方受訪時也表示心情受到影響，道義上也必須關心。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼ 柯文哲登《炎上 王世堅》，和舊愛王世堅擦出火花。（圖／薩泰爾娛樂提供）" height="400" src="//cdn2.ettoday.net/images/6794/d6794657.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲《炎上 王世堅》內容引發兩極評價。（圖／薩泰爾娛樂提供）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;不過曾博恩表示，炎上的品牌會延續下去，也會確保演出者和他們「在同一個認知上」，他說：「畢竟《炎上》是比較小眾偏門一點的表演，口味比較重，應該要加個警語。」曾博恩也開玩笑說，過去看大陸的《吐槽大會》，「覺得講的都很表面，沒有傷到心坎裡，看我們真的有做出區別吧！」&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼ 王力宏美國復出開唱。（圖／寬魚國際提供）" height="400" src="//cdn2.ettoday.net/images/6825/d6825819.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲王力宏美國復出開唱，現場爆滿。（圖／寬魚國際提供）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;曾博恩更說出心中的夢幻名單：「志祥、力宏，要不要來？」更坦言其實早就透過多方管道詢問過兩人，但他們都不太有意願，他藉機再次喊話：「我們有預算！夢幻名單要給出更高價碼的話，我都很開放。10倍他們不知道會不會來？100倍會來嗎？」&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼羅志祥還沒開口演唱，就爆出跌倒意外。（圖／寬宏娛樂 ☓無懼國際娛樂提供）" height="400" src="//cdn2.ettoday.net/images/6685/d6685189.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲羅志祥先前復出開唱。（圖／寬宏娛樂 ☓無懼國際娛樂提供）&lt;/strong&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;實習記者黃麗頻／綜合報導&lt;/p&gt;, &lt;p&gt;上班日總是在跟時間賽跑，沒辦法好好的精細裝扮，這時一款時髦手袋絕對是不可或缺的上班配件，今天《ET FASHION》精選5款「精品黑色手袋」上班族必備，兼具時尚及實用性，帶來滿滿的氣勢與能量。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;＃Chloé Edith Medium Tote Bag&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;這款Chloé Edith系列手袋，將Edith的奢華優雅詮釋得極致，簡約的外型設計，搭配金銅色的包釦，再加上Chloé標誌性的壓花手提把，輕鬆呈現該系列的休閒魅力，而手提、肩背兩用模式，完全是上班族御用款，一包在手時尚無極限。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲精選5款上班族必備手袋。（圖／翻攝自官網）" height="450" src="//cdn2.ettoday.net/images/6806/6806398.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲Chloé Edith Medium Tote Bag，US$2,688（約NT$82,000）。（圖／翻攝自Chloé官網）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;＃SAINT LAURENT Sac De Jour&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;Sac de Jour系列包款可說是SAINT LAURENT經典不敗之作，簡潔線條及硬挺的外型，僅以微小的品牌LOGO綴飾，散發出淡淡的率性瀟灑，風琴式側面設計和按扣壓縮飾片開合，使整體包款容量寬闊，低調而不譁眾取寵，超適合上班用！&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲精選5款上班族必備手袋。（圖／翻攝自官網）" height="450" src="//cdn2.ettoday.net/images/6806/6806402.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲SAINT LAURENT Sac De Jour，NT$107,400。（圖／翻攝自SAINT LAURENT官網）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;＃Prada Re-Edition 1995 Handbag&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;在Y2K的風潮下，Prada推出一系列「Re-Edition」手袋，這款「Re-Edition 1995」因爲俐落的長方形線條攻陷不少人的心，選用拋光皮革，加上拉鍊開合設計及配備三個內隔層，再飾以銀色LOGO標誌，隱約中透出一絲高雅魅力。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲精選5款上班族必備手袋。（圖／翻攝自官網）" height="450" src="//cdn2.ettoday.net/images/6806/6806401.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲Prada Re-Edition 1995 Handbag，NT$115,000。（圖／翻攝自Prada官網）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;＃LOUIS VUITTON On My Side MM&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;選用微粒面小牛皮製作，LV這款On My Side MM手袋，方正的流線型外觀，側面以經典Monogram簇絨圖案綴飾，在低調中顯出奢華之感，寬敞空間實用大方，並設有皮革手柄可作手提及細緻的牛皮背帶，絕對是完美的日常手袋！&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲精選5款上班族必備手袋。（圖／翻攝自官網）" height="450" src="//cdn2.ettoday.net/images/6806/6806400.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲LOUIS VUITTON On My Side MM，NT$149,000。（圖／翻攝自LOUIS VUITTON官網）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;＃CELINE Conti Bag&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;在2022秋冬大秀悄悄登場的「Conti Bag」，為CELINE的奢華風采開啟新篇章，與16 Bag相仿的梯形外觀，天然小牛皮搭上微刷舊的材質，看起來復古貴氣，最特別的是，此款手袋的開口以皮帶取代拉鍊固定，獨特又有型，是時髦上班族必備款！&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲精選5款上班族必備手袋。（圖／翻攝自官網）" height="450" src="//cdn2.ettoday.net/images/6806/6806397.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲CELINE Conti Bag，NT$250,000。（圖／翻攝自CELINE官網）&lt;/strong&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="澳洲一名8歲男童到沙灘戲水，沒想到竟遭一道閃電當場擊中，導致他當場昏迷且失去呼吸心跳。（示意圖／pixabay）" src="//cdn2.ettoday.net/images/6825/d6825842.jpg"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;span&gt; &lt;/span&gt;▲澳洲一名8歲男童到沙灘戲水，沒想到竟遭一道閃電當場擊中，導致他當場昏迷且失去呼吸心跳。（示意圖／pixabay）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;圖文／CTWANT&lt;/p&gt;, &lt;p&gt;澳洲一名8歲男童到沙灘戲水，沒想到竟遭一道閃電當場擊中，導致他當場昏迷且失去呼吸心跳，男童家人以及一旁救生員見狀，趕緊將他救上岸並送醫，所幸保住了一命，但目前還在病房觀察及治療。&lt;/p&gt;, &lt;p&gt;根據澳洲新聞（news.com.au）報導，事發於26日，當天正值澳洲國慶日假期，一名8歲男童和家人前往新南威爾士州兵營角（Barrack Point）的沙灘上玩水，沒想到男童才剛衝入海中準備游泳，突然有道閃電從天上劈下，直接擊中男童，家人見狀趕緊將他從海裡救上岸，海灘救生員也立刻施行CPR急救。&lt;/p&gt;, &lt;p&gt;目擊者楊（Simon Young）表示，當時巨響出現時，所有人都被嚇到，完全不知道發生什麼事，隨後就看見男童家人衝下海救人；而救生員文科維奇（Byron Vinkovic）也透露，男童被救上岸時已經沒有意識及呼吸心跳，且胸部燒傷。男童傷勢嚴重，所幸經送醫搶救已保住一命，目前還在病房觀察治療。&lt;/p&gt;, &lt;p&gt;&lt;span style="background-color: rgb(204, 153, 255);"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;免加會員直接購&lt;/strong&gt;&lt;/span&gt;&lt;/span&gt;&lt;strong&gt; &lt;/strong&gt;&lt;span style="background-color: rgb(255, 255, 0);"&gt; &lt;/span&gt;&lt;/p&gt;, &lt;p&gt;&lt;a href="https://fugo.ehsn.com.tw/fugoOrder/ordKey?k=zd46J&amp;amp;data=l3HbXgwKHQ1iDCdng0KfLqsFT3a1L3deL%2FCoV4lz%2BL0g%2FvXQFzHfTBzpJStZ09LmdbBS8Lxo4DHDzvmxUxCrdg%3D%3D" target="_blank"&gt;&lt;span style="color: rgb(255, 102, 0);"&gt;&lt;strong&gt;★1瓶不到100元！衣物徹底洗淨「妙管家抗菌洗衣精4000gx4瓶」★&lt;/strong&gt;&lt;/span&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;↘限時$399&lt;/strong&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;延伸閱讀&lt;/strong&gt;&lt;br/&gt;▸ &lt;a href="https://www.ctwant.com/article/235382?utm_source=ettoday&amp;amp;utm_medium=rss&amp;amp;utm_campaign=235432"&gt;搭高鐵逼換位遭拒！潑婦情勒任3歲童大鬧車廂　她愣：想坐靠窗錯了嗎&lt;/a&gt;&lt;br/&gt;▸ &lt;a href="https://www.ctwant.com/article/235418?utm_source=ettoday&amp;amp;utm_medium=rss&amp;amp;utm_campaign=235432"&gt;老顧客春節塞給店員「百鈔小費」　蔬食店投「愛心捐款箱」引熱議&lt;/a&gt;&lt;br/&gt;▸ &lt;a href="https://www.ctwant.com/article/235417?utm_source=ettoday&amp;amp;utm_medium=rss&amp;amp;utm_campaign=235432"&gt;車站抗拒搶劫反被「推下月台」　倒楣少年險遭火車輾壓&lt;/a&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt; &lt;strong&gt;【你可能也想看】&lt;/strong&gt; &lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;strong&gt;&lt;a href="https://pets.ettoday.net/news/2397798?from=read_et_pets" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;►2女見黑貓「哈士奇」太可愛帶回家養　2個月後警找上門GG了&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;strong&gt;&lt;br/&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;a href="https://pets.ettoday.net/news/2393068?from=read_et_pets" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;►太神啦！統神被AI「判定是豬」　眾人無情笑翻：看破真身&lt;/strong&gt;&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;a href="https://pets.ettoday.net/news/2389431?from=read_et_pets" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;►養4貓4狗月花11萬　小鮮肉「3餐吃泡麵果腹」每周工作7天嘆：荒謬&lt;/strong&gt;&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;a href="https://pets.ettoday.net/news/2386163?from=read_et_pets" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;►她大學畢業當「守墓人」愛上清幽環境還能吸貓　笑稱：好像在養老&lt;/strong&gt;&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;&lt;a href="https://pets.ettoday.net/news/2386161?from=read_et_pets" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;►租屋處全是「貓毛和尿」冷氣也很噁　房東崩潰：打死不接受養寵物&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;&lt;a href="https://pets.ettoday.net/news/2382753?from=read_et_pets" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;►擼貓還有錢拿！月領2萬6+周休2日「幫老闆照顧貓」　23歲OL吐真話&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;&lt;a href="https://pets.ettoday.net/news/2340464?from=read_et_pets" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;►愛犬走了！正妹砸112萬「重新複製」　1年後重回懷抱被罵爆&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/strong&gt;&lt;strong&gt;&lt;strong&gt;&lt;strong&gt;&lt;strong&gt;&lt;strong&gt;&lt;strong&gt;&lt;strong&gt;&lt;br/&gt;&lt;br/&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼陳其邁、陳建仁。（圖／翻攝自Facebook／陳其邁）" height="403" src="//cdn2.ettoday.net/images/6824/d6824128.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲行政院長蘇貞昌、總統蔡英文、前副總統陳建仁。（圖／翻攝自Facebook／陳其邁）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者杜冠霖／台北報導&lt;/p&gt;, &lt;p&gt;總統蔡英文日前宣布前副總統陳建仁為新任行政院長，而原行政院長蘇貞昌30日早上9點30分將召開臨時院會、率領內閣團隊總辭，行政院秘書長李孟諺、準發言人陳宗彥下午2點則將在公務人力發展學院福華國際文教會館召開記者會、並公布新內閣名單。&lt;/p&gt;, &lt;p&gt;對於內閣改組時程，行政院發言人羅秉成日前表示，蔡英文總統已於27日上午宣布新任閣揆人選為陳建仁前副總統，蘇貞昌院長將於1月30日上午召開臨時院會率內閣總辭，並於同月31日上午辦理新、舊內閣交接儀式。&lt;/p&gt;, &lt;p&gt;蔡英文宣布陳建仁為新任閣揆後，陳建仁也同步啟動內閣團隊人事徵詢，在內閣改組名單中，新任閣員包含括副閣揆鄭文燦、內政部長林右昌、文化部長史哲、國立故宮博物院院長蕭宗煌、財政部長莊翠雲、僑委會委員長徐佳青、海委會主委管碧玲、原能會主委張靜文。&lt;/p&gt;, &lt;p&gt;留任官員包含外交部長吳釗燮、國防部長邱國正、陸委會主委邱太三、經濟部長王美花、勞動部長許銘春、衛福部長薛瑞元、農委會主委陳吉仲、教育部長潘文忠、法務部長蔡清祥、金管委主委黃天牧、環保署署長張子敬、交通部長王國材、數發部長唐鳳、退輔會主委馮世寬、客委會主委楊長鎮、原民會主委夷將‧拔路兒、人事長蘇俊榮、主計長朱澤民、美國事務委員會主委楊珍妮。&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;iframe allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" allowfullscreen="" frameborder="0" height="315" src="https://www.youtube.com/embed/lpcZuoXST48" title="YouTube video player" width="560"&gt;&lt;/iframe&gt;&lt;/p&gt;, &lt;p&gt;記者翁子涵／台北報導&lt;/p&gt;, &lt;p&gt;大馬歌手艾薇相隔2年多，今年終於返鄉過農曆新年，她開心直呼：「今年終於可以回媽媽家鄉，跟大家一起吃團圓飯，真的很開心！雖然爸媽一直說我一回來就一直黏他們，但是看得出來他們其實超開心的 ！」對於2年多沒回家過年，她感慨說：「因為2年多沒有碰的家族的大家，所以這次回來我都在聽故事，聽大家的近況、聽大家這1、2年都發生了什麼。」&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼艾薇返鄉撈魚生。（圖／喜鵲娛樂提供）" height="450" src="//cdn2.ettoday.net/images/6825/d6825836.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲▼艾薇返鄉撈魚生。（圖／喜鵲娛樂提供）&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼艾薇返鄉撈魚生。（圖／喜鵲娛樂提供）" height="450" src="//cdn2.ettoday.net/images/6825/d6825838.jpg" width="338"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼艾薇返鄉撈魚生。（圖／喜鵲娛樂提供）" height="450" src="//cdn2.ettoday.net/images/6825/d6825837.jpg" width="338"/&gt;&lt;/p&gt;, &lt;p&gt;艾薇也不忘體驗馬來西亞華人的傳統習俗撈魚生，「在撈的時候要喊很多吉祥的話，而且要越撈越高，表示步步高升。」更興奮表示：「這次最期待吃到媽媽煮的麵粉糕，因為媽媽年輕的時候是賣麵粉糕的，所以非常好吃，而且有清湯的、也有麻辣的。好吃到我希望我媽以後可以在台北開一間店，分享給更多人，我也可以無時無刻想吃就吃。」由於前2年都沒機會返鄉過年，無法包紅包給爸媽，因此她今年包給爸媽的紅包特別大包，也是她第一年包給阿嬤和乾媽。&lt;/p&gt;, &lt;p&gt;即將返台開工的她，也透露自己這次買了很多泡麵準備帶去台灣，「因為有時很想念馬來西亞的泡麵但台灣沒賣 ，所以這次回來有買了很多泡麵準備帶回去。」她透露目前已經在籌備第二張新專輯，已經錄完音，年後開工就拍攝，談到新年新希望，艾薇也說：「希望新的一年可以開開心心，健健康康，好事多多！」&lt;br/&gt; &lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;strong&gt;&lt;a href="https://star.ettoday.net/news/2429651?redirect=1" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt; 王力宏復出激動哭了！　突哽咽90度鞠躬：謝謝你們都在&lt;/strong&gt;&lt;/span&gt;&lt;/a&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;strong&gt;&lt;a href="https://star.ettoday.net/news/2429576?redirect=1" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt; 王力宏首現身吐心聲：去年不太容易！　復出「現場座位真實狀況」曝光 &lt;/strong&gt;&lt;/span&gt;&lt;/a&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;strong&gt;&lt;a href="https://star.ettoday.net/news/2421079?redirect=1" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt; 蕭敬騰豪發7個月年終寵員工！ 75歲李炳輝突現身…親揭他私下暖舉 &lt;/strong&gt;&lt;/span&gt;&lt;/a&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;a href="https://star.ettoday.net/news/2418234?redirect=1" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt; 快訊／資生堂千金宣布：我流產了！　腹中雙胞胎「停止生長」 &lt;/strong&gt;&lt;/span&gt;&lt;/a&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;strong&gt;&lt;br type="_moz"/&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼美國一名男子吞進包著保險套的大香蕉，嚴重腹痛送急診才知道小腸已經阻塞。（圖／取自OA醫學期刊cureus.com）" height="450" src="//cdn2.ettoday.net/images/6825/d6825825.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲美國一名男子吞進包著保險套的大香蕉，嚴重腹痛送急診才知道小腸已經阻塞。（圖／取自OA醫學期刊cureus.com）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者張寧倢／編譯&lt;/p&gt;, &lt;p&gt;美國愛荷華大學醫院與醫學院專家近日分享一起腸阻塞的罕見病例，一名34歲男子因腹痛、噁心、嘔吐掛急診，坦承自己在「荷爾蒙爆發」之下誤吞一根被保險套包住的香蕉，導致超過24小時無法排便，也因劇痛無法忍受任何食物下肚。醫生開刀從小腸完整取出一個打結的保險套，發黑內容物已看不出香蕉原型。&lt;/p&gt;, &lt;p&gt;一般醫學國際期刊《Cureus》23日刊載了這起罕見的腸阻塞個案，由美國愛荷華大學醫學院放射學專家圖達斯（Rosarie A. Tudas）等人共同撰寫的報告提到，一名具憂鬱症病史的34歲健康男性送急診前幾小時開始出現大範圍腹痛，且疼痛逐漸惡化，伴隨著噁心與嘔吐，也沒辦法吃進任何食物或喝下液體，不過仍有放屁的情況。&lt;/p&gt;, &lt;p&gt;男子向醫生宣稱，他在大約24小時前因為「荷爾蒙爆發」（hormonal rage）所以吞下了一根塞在保險套中的香蕉，並且否認有任何傷害性意圖或非法濫用藥物。他補充，自己最後一次排便是在症狀出現的前一天。醫生將他全身麻醉後進行電腦斷層掃描檢查（CT scan），果真發現小腸處有明顯長條狀異物，嚴重梗阻，幸好最終經手術後將異物完整取出。&lt;/p&gt;, &lt;p&gt;術後拍攝的照片可見，和手術鉗放在一起的保險套已經發黃，底部被打了結，內容物才沒有因此流出，不過，發黑、軟爛的樣子也已經看不出原本塞的是一根香蕉。據稱，男子可能是全世界第一例吞下含有香蕉這類異物的保險套的人。&lt;/p&gt;, &lt;p&gt;男子取出異物3天後順利出院，2周後開始能接受並正常消化低纖維食物，而沒有任何噁心嘔吐情況，到術後6個月已經完全不會疼痛，恢復到原本正常的腸道功能和飲食生活。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▼醫師檢查發現男子腸阻塞嚴重。（圖／取自OA醫學期刊cureus.com）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼美國一名男子吞進包著保險套的大香蕉，嚴重腹痛送急診才知道小腸已經阻塞。（圖／取自OA醫學期刊cureus.com）" height="450" src="//cdn2.ettoday.net/images/6825/d6825826.jpg" width="330"/&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;記者楊智仁／台北報導&lt;/p&gt;, &lt;p&gt;本次台北國際動漫節從1月27日開始人潮就塞爆南港展覽館，前三日累積進場人數已經來到34萬。動漫迷們的踴躍參與讓許多周邊頭兩天都銷售一空，人氣攤位包含木棉花、角川、曼迪都繳出相當好的成績。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▼動漫節進場人數達34萬      。（圖／記者蘇晟彥攝）&lt;/strong&gt;&lt;img alt="▲▼      動漫節,攤位,人潮       。（圖／記者蘇晟彥攝）" height="400" src="//cdn2.ettoday.net/images/6823/d6823941.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;台北國際動漫節在限量福袋、日本女神Coser加持下，第一天就創下9.5萬參展的驚人紀錄，相較去年8.2萬成長約15%，低溫之下粉絲們還是踴躍進場，截至第三天參觀人潮已達34萬。熱門攤位木棉花七款福袋包含「間諜家家酒、戀上換裝娃娃、86-不存在的戰區-、Lycoris Recoil 莉可麗絲…」短短兩天全部售罄。即將在2月17日上映的《「鬼滅之刃」上弦集結，前進刀匠村》電影套票組也熱銷破千套。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▼木棉花福袋全部售罄 。（圖／翻攝自木棉花）&lt;/strong&gt;&lt;img alt="▲▼動漫節。（圖／翻攝自木棉花）" height="449" src="//cdn2.ettoday.net/images/6825/6825793.jpg" width="600"/&gt;&lt;img alt="▲▼木棉花福袋全部售罄 。（圖／翻攝自木棉花）" height="450" src="//cdn2.ettoday.net/images/6825/6825795.jpg" width="450"/&gt;&lt;/p&gt;, &lt;p&gt;台灣角川這次所主打「這本漫畫真厲害！2023」青春恐怖漫畫《光逝去的夏天 》開展首日直接秒殺，「不時輕聲地以俄語遮羞的鄰座艾莉同學(限定版&amp;amp;特裝版)、大滿足特選福袋、《歡迎來到實力至上主義的教室》一之瀨帆波掛軸」第二日同樣完售，官方也表示本次動漫節與上次相比業績成長約25%。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▼角川與上次相比業績成長約25% 。（圖／角川提供）&lt;/strong&gt;&lt;img alt="▲▼動漫節。（圖／翻攝自木棉花）" height="308" src="//cdn2.ettoday.net/images/6825/6825794.jpg" width="600"/&gt;&lt;img alt="▲▼動漫節。（圖／翻攝自FB）" height="308" src="//cdn2.ettoday.net/images/6825/6825797.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;曼迪超人氣動畫《孤獨搖滾》周邊預購，首日一個小時內就已經火速售罄，攤位所主打「火影20周年、柯南」等福袋和新品，頭兩天幾乎銷售一空，馬上要在2月3日上映的《新世紀福音戰士新劇場版：終》預售限定特典套票也已經全數完售。&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▼《新世紀福音戰士》預售限定特典套票完售。（圖／翻攝自曼迪）&lt;/strong&gt;&lt;img alt="▲▼動漫節。（圖／翻攝自FB）" height="374" src="//cdn2.ettoday.net/images/6825/6825796.jpg" width="600"/&gt;&lt;img alt="▲▼動漫節。（圖／翻攝自木棉花）" height="450" src="//cdn2.ettoday.net/images/6825/6825792.jpg" width="580"/&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼沙鹿建案廣告招牌             。（圖／記者陳筱惠攝）" height="450" src="//cdn2.ettoday.net/images/6682/d6682831.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲2022年建商積極佈局海線地區新案，多個造鎮大案啟動後，房市逆風引起購屋族關切。（圖／記者陳筱惠攝）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者陳筱惠／台中報導&lt;/p&gt;, &lt;p&gt;過去說到台中海線地區，第一印象就是「風大」，甚至有網友分享，冬天在海線車子打Ｎ檔會被風吹著跑、路上的行道樹更因長期風勢強勁都歪著長，不過觀察不動產市況不難發現，2022年建商積極佈局海線地區新案，多個造鎮大案啟動後，房市逆風引起購屋族關切。&lt;/p&gt;, &lt;p&gt;&lt;a href="https://house.ettoday.net/news/2405294"&gt;《地產詹哥老實說》EP130／必學！　一次搞懂公寓裝電梯、老人居家修繕補助流程&lt;/a&gt;&lt;/p&gt;, &lt;p&gt;海線四雄沙鹿、龍井、清水、梧棲等區，在2022年第四季推案大爆發，正心不動產估價師聯合事務所市場研究室經理陳孟筠分析，早期身為推案冷門區域的海線地區，隨著重大建設陸續投入及交通系統逐漸完備後，區內開發使用率快速成長提升。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼ 「 C JEAN 」服裝秀辦在海線接待中心            。（圖／記者陳筱惠攝）" height="450" src="//cdn2.ettoday.net/images/6640/d6640348.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲海線推案量體最大的「聯悦馨」位於台中港市鎮重劃區，創下區最高單價37萬元。（圖／記者陳筱惠攝）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;海線近10年的住宅區發展率從39.16%成長至56.96%、商業區發展率也從36.03%成長至61.03%，皆已達過半程度；陳孟筠認為，未來更有臺中港港埠產業發展專業區、臺中港觀光遊憩商業區，2大招商案即將登場，該區的經濟效益將有望再度擴大。&lt;/p&gt;, &lt;p&gt;目前海線推案量體最大的「聯悦馨」位於台中港市鎮重劃區，社區引進TSUTAYA BOOKSTORE，規劃750戶住家，目前實登已揭露超過300筆成交，最高成交價更是達到每坪37萬元。&lt;/p&gt;, &lt;p&gt;另外手握多塊土地的富宇建設，線上則有造鎮型大案「富宇大地」銷售中，基地位於新光田醫院特區，規劃總戶數241戶別墅案。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼ 台中海線,發展,離岸風電,交通,台灣大道            。（圖／記者陳筱惠攝）" height="400" src="//cdn2.ettoday.net/images/6578/d6578665.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲沙鹿區則由精銳建設子公司鴻豫建設首個大樓個案「鴻豫境」坐鎮。（圖／資料照）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;沙鹿區火車站前則由精銳建設子公司鴻豫建設，推出首個大樓個案「鴻豫境」共計132戶住家、主力2～3房，受到不少新婚小家庭、透天換大樓的在地客青睞。&lt;/p&gt;, &lt;p&gt;位於沙鹿火車站後方的新站特區，除了有「和築Ｔ1」以2字頭搶市外，勝麗建設甫進場的「勝麗交響曲」也推出354戶大樓預售案。&lt;/p&gt;, &lt;p&gt;這波趨勢也能從建商獵地看出端倪，還有首度進軍沙鹿區的龍寶建設、新業建設。龍寶建設位於捷運藍線正英站新案，產品規劃約48～52坪，總價落在1800～2,00萬元之間，總戶數50戶。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲▼ 沙鹿房市,和築T1            。（圖／記者陳筱惠攝）" height="450" src="//cdn2.ettoday.net/images/6591/d6591163.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲台中海線副都心坐擁「陸、海、空」建設利多，房市前景不差。（圖／記者陳筱惠攝）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;新業建設沙鹿區「保成段」新案，基地面積近2千坪，預計規劃地上15層、地下2層，新業建設董事長卓勝隆認為，市中心房價高漲，人口勢必向外流動，近期營建業選地將會朝向具街廓機能成熟的外圍地區，更能貼近主流購屋需求。&lt;/p&gt;, &lt;p&gt;丰格不動產整合行銷總經理白洪章指出，近期整體房市受到環境影響，有降溫趨勢，但海線副都心坐擁「陸海空」建設優勢，捷運藍線也已通過中央環評初審，搭上台中科技走廊、海線產業走廊加持，就業機會帶動人口紅利，房市前景不差。&lt;/p&gt;, &lt;p&gt;&lt;a href="https://house.ettoday.net/news/2405294"&gt;《地產詹哥老實說》EP130／必學！　一次搞懂公寓裝電梯、老人居家修繕補助流程&lt;/a&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;記者陳怡真／綜合報導&lt;/p&gt;, &lt;p&gt;元宵節為每年農曆正月十五日，是農曆當中的第一個月圓之夜，又有「上元節」之稱，是中國傳統三大節日之一，民俗間認為元宵節是整年之中不可多的吉日，不論想求財、求姻緣、求子或是補財庫都是最佳時機，命理師李沄潔表示，在這個最佳吉日，利用一些簡單的方法，就能助攻心願達成。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲元宵節是習俗中求財、求姻緣、求子或是補財庫的最佳好日。（示意圖／視覺中國CFP）" height="450" src="//cdn2.ettoday.net/images/6773/d6773313.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲元宵節是習俗中求財、求姻緣、求子或是補財庫的最佳好日。（示意圖／視覺中國CFP）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;span style="color: rgb(51, 102, 255);"&gt;求財、補財庫&lt;/span&gt;&lt;/strong&gt;&lt;br/&gt;在民間信仰中，｢天官賜福、地官赦罪、水官解厄｣，元宵節恰逢是三官大帝中天官大帝的誕辰，掌管天下百福的祂會下凡賜福，李沄潔命理師建議，想要求財的民眾，可在元宵節當日17-19點求財吉時，準備壽桃、發糕、湯圓等吉祥寓意供品，前往住家東北邊的天公廟、財神廟或土地公廟誠心參拜，誠心向天官大帝祝壽，祈求財運亨通。如果在過往一年之中有留不住錢財感受的人，可至有辦理補財庫服務的廟宇，辦理補財庫，誠心祭拜並祈求在新的一年能守住錢財。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲元宵節是天官大帝誕辰，李沄潔命理師分享當日17-19點為求財吉時。（示意圖／視覺中國CFP）" height="450" src="//cdn2.ettoday.net/images/6773/d6773314.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲元宵節是天官大帝誕辰，李沄潔命理師分享當日17-19點為求財吉時。（示意圖／視覺中國CFP）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;span style="color: rgb(51, 102, 255);"&gt;求桃花、姻緣&lt;/span&gt;&lt;/strong&gt;&lt;br/&gt;不論中西方皆認為月圓之夜能量強大，元宵節是農曆中第一個月圓，更適合祈福許願，流傳至今成為求姻緣的重要節日，李沄潔命理師指出，想求桃花、姻緣的民眾，可前往有祀奉月老的廟宇祈求姻緣，建議民眾可以準備以下供品，1.百合花(早日開花結果，百合花尤佳)2.桂圓(圓滿順利)3.紅棗(姻緣早成)4.湯圓(緣分)5.糖果(甜蜜)6.圓形水果(圓滿吉利)到月老廟參拜，詳細說明心中理想對象的條件(勿偏離現實)，如果有求到月老紅線，放進隨身皮夾中隨身攜帶，如果將來姻緣有成，務必記得帶喜餅回廟裡答謝月老。&lt;/p&gt;, &lt;p&gt;另外，李沄潔命理師提醒想求桃花、姻緣的民眾，今年桃花方位在西南方，可用手機APP站在客廳或臥房中央，測出家中西南方位，記得今年將此處保持乾淨明亮，可在此處擺放粉色的香水百合花，催旺姻緣桃花。切記，只要花凋謝就要立即更換或丟棄，以免爛桃花纏身。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲單身想祈求姻緣的民眾，可帶百合花和供品到月老廟誠心祈求早遇良緣。（示意圖／視覺中國CFP）" height="450" src="//cdn2.ettoday.net/images/6773/d6773315.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲單身想祈求姻緣的民眾，可帶百合花和供品到月老廟誠心祈求早遇良緣。（示意圖／視覺中國CFP）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;&lt;span style="color: rgb(51, 102, 255);"&gt;求子&lt;/span&gt;&lt;/strong&gt;&lt;br/&gt;相傳「鑽燈腳能添丁｣，每年元宵節到廟中點燈或是鑽燈腳，也是想祈求子嗣的民眾祈福活動之一，李沄潔命理師和民眾分享，另一個求子的民俗祕法即是「摸廟釘」，隋朝時就有「摸釘求丁」的習俗，古代婦女會在元宵節時摸門釘祈求子嗣，在現代社會中僅存部分廟宇有門釘，想要求子的民眾不妨試試。&lt;/p&gt;, &lt;p&gt;李沄潔指出，廟門釘是用來替代門神畫像，具有制煞辟厄與帶來好運的作用。除了求子的民眾之外，想祈求官運、考運或是感覺運勢不順遂的民眾，也可在元宵節摸廟釘開運轉運。摸廟釘前，需先摸神明左手邊的公獅子，再摸神明右手邊的母獅子，誠心向神獸祈求幫忙消除不好的磁場與能量之後再摸廟釘。想開運轉運的民眾記得要摸高處的廟釘，代表步步高升。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲元宵節前往廟宇摸石獅與門釘，是傳統習俗開運方法之一。（示意圖／視覺中國CFP）" height="450" src="//cdn2.ettoday.net/images/6773/d6773316.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲元宵節前往廟宇摸石獅與門釘，是傳統習俗開運方法之一。（示意圖／視覺中國CFP）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;另外，也請民眾在摸廟釘時特別注意安全與自身行為，不要為了一己之私而毀損廟宇物品，造成廟方與其他民眾困擾。&lt;/p&gt;, &lt;p&gt;&lt;span style="color: rgb(255, 0, 0);"&gt;&lt;strong&gt;►&lt;/strong&gt;&lt;/span&gt;&lt;strong&gt;李沄潔老師介紹&lt;/strong&gt;&lt;span style="color: rgb(255, 0, 0);"&gt;&lt;strong&gt;◄&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;, &lt;p&gt;李沄潔老師擅長結合東西方命理，把傳統的命理結合現代時勢，以貼近現代人的生活方式和語言，給予建議和解方，指引關鍵方向。精研陽宅風水、流年運勢、生肖運勢、命名改名、擇日等領域，二十年之中兩岸三地委託個案眾多。持續精進鑽研，拜師胡婕筠老師學習奇門遁甲造運開運等，幫助個案掌握機運，如果想了解李沄潔老師相關資訊&lt;a href="https://www.facebook.com/profile.php?id=100064129597870" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;可點我&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;, &lt;p&gt;&lt;a href="https://star.ettoday.net/news/2403628" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;►開工旺起來！命理大師教你 「開運祕法」讓你事業、財運旺整年&lt;/span&gt;&lt;/a&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;br/&gt;&lt;/span&gt;&lt;a href="https://star.ettoday.net/news/2401276" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;►旺兔年最強招財術！命理專家教你「招財祕法」讓你財運旺整年&lt;/span&gt;&lt;/a&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;br/&gt;&lt;/span&gt;&lt;a href="https://star.ettoday.net/news/2403625" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt; ►2023年「3生肖」留意犯小人！TOP1太衝動惹禍　專家曝2轉運祕法&lt;/span&gt;&lt;/a&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;br/&gt;&lt;/span&gt;&lt;a href="https://www.ettoday.net/feature/fortune" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt; &lt;/span&gt;&lt;strong&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;►更多【開運命理】相關報導&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;br/&gt;&lt;/span&gt;&lt;a href="https://fugo.ehsn.com.tw/fugoOrder/prod?k=zd46J&amp;amp;data=l3HbXgwKHQ1iDCdng0KfLpqEfZ8I4EjReDFqwWMQiACDwGezrFVDS5YwzzeK9mxL4Pjmj8YkiDu7_M2I9JYubg" target="_blank"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt; &lt;/span&gt;&lt;span style="background-color: rgb(255, 255, 153);"&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;►囤貨最佳時機！150抽「蒲公英環保衛生紙」只要13元 讓媽媽抽到手抽筋&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;span style="color: rgb(0, 0, 255);"&gt;&lt;br/&gt; &lt;/span&gt;&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼相親遇疫情被迫同居男女已領證結婚。（圖／翻攝自紫牛新聞）" height="316" src="//cdn2.ettoday.net/images/6785/6785861.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲相親遇疫情被迫同居男女已領證結婚。（圖／翻攝自紫牛新聞）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者鄭思楠／綜合報導&lt;/p&gt;, &lt;p&gt;大陸一名女子先前和相親對象在海南三亞見面，不料遇上疫情，被迫同居13天，隨後2人感情迅速升溫開始熱戀。近日，當事人聶姓女子在社交平台曬出了結婚照並配文，「和媽媽安排的相親對象李同學領證了，長輩們都很高興！我們也很高興！」&lt;/p&gt;, &lt;p&gt;據《紫牛新聞》報導，聶女今年35歲，在海南讀完大學後，一直留在三亞工作。去年6月，家裡的親戚給聶女介紹了相親對象李男，兩人互加微信後聊了一段時間，發現彼此是同一屆的高中校友，好感倍增。因此，在深圳工作的李男決定七夕前往三亞與聶女見面。&lt;/p&gt;, &lt;p&gt;8月4日，兩人在三亞相見，都覺得對方還不錯，便相約一起在三亞遊玩兩天。當時李男預訂了三亞灣的一家兩室一廳的民宿，聶女的家離三亞灣比較遠，為了方便之後的行程，聶女也入住了民宿，「之前聊天時能感覺出來他人品很好，我們雙方家長也都比較了解，加上民宿有兩間房，我就答應一起入住了。」&lt;/p&gt;, &lt;p&gt;初次見面時兩人互送了禮物，聶女還帶著李男在三亞灣的周邊轉了轉，「我們相處蠻融洽的，我當時就想還可以進一步了解了解。」&lt;/p&gt;, &lt;p&gt;聶女和李男在三亞玩了兩天，原本李男應該搭乘8月6日的航班回深圳，沒想到那幾天三亞的陽性病例忽然增多，三亞開始實行全市臨時性靜態管理，飛往外地的航班紛紛被取消。李男的航班被意外取消後，他就和聶女一起被封控在了三亞的這家民宿裡成為了「室友」，沒想到因此開啟了一段奇妙的緣分。&lt;/p&gt;, &lt;p&gt;兩人朝夕相處後，發現三觀一致，之後感情迅速升溫。不久後，情投意合的兩人確定了戀愛關係。聶女說，兩人生活在一起的這段時間仿佛有種提前體驗了婚後居家過日子的感覺，「如果以後的生活是這樣的話，我也覺得挺滿足的。」聶女說，經過這段時間的相處，兩個人的心靠得更近了。&lt;/p&gt;, &lt;p&gt;8月下旬，臨時封控解除後，李男返回了深圳。聶女說，「那時候我們已經商量好了，下一次見面就一塊回老家見家長，如果發展順利的話想在過年前後登記結婚，然後和他一起去深圳生活。」&lt;/p&gt;, &lt;p&gt;2022年12月26日，兩人領證結婚，「其實我們早就有領證的計劃了，只不過預約比較難，排了大半個月的隊才領到了證。比較搞笑的是，領證前一段時間，我倆都陽了，所以一直沒好好洗澡，領證那天我們才剛轉陰，怕著涼就裹著厚厚的棉衣去了，到了才發現很多小年輕都穿得非常漂亮，甚至還請了人來跟拍，對比之下我倆都顯得亂糟糟的，現在想起來還挺不好意思的。」聶女笑著說，不過領到證的那一瞬間還是很開心的。&lt;/p&gt;, &lt;p&gt;聶女說，「很期待婚禮，同時我倆還有一個小小的心願，就是能盡快有一個屬於我們的可愛的孩子。」&lt;/p&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;p&gt;&lt;img alt="▲▼預售屋看板、房市示意圖。（圖／記者陳筱惠攝）" border="1" height="450" src="//cdn2.ettoday.net/images/5743/d5743763.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲示意圖，與本文無關。（圖／記者陳筱惠攝）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;記者周亭瑋／綜合報導&lt;/p&gt;, &lt;p&gt;一名網友前陣子試用房貸計算機，驚呆發現若貸1000萬元、分期30年，光利息就很驚人了，嚇得她直呼，「買房好辛苦呀！」不過，鄉民一面倒揭關鍵吐槽，但也有人理解原PO，淚喊「真的好貴，快負擔不起了！」&lt;/p&gt;, &lt;p&gt;網友在PTT發文提到，「最近的興趣是按房貸計算機，貸1000萬分30年，利息約200多萬，雖然一直知道很高了，但看到實際數字還是很衝擊。」&lt;/p&gt;, &lt;p&gt;對此，鄉民不以為然，直言&lt;span style="color: rgb(255, 0, 0);"&gt;&lt;strong&gt;「200萬給銀行賺走，30年看房子會不會增值200萬啊！地點不差的都會有吧，再加計房子租出去的機會成本...穩賺」&lt;/strong&gt;&lt;/span&gt;、「往好處想，妳的房子也跟著市場漲價」、「自己想想利息不給銀行賺，換租金給房東賺」、「換個角度思考30年才賺200萬，妳覺得多嗎？」「房子增值就抵過利息了，月付3萬多，10年、20年後，通膨之下越付越輕鬆」、「台灣房貸利息有夠低了還嫌」。&lt;/p&gt;, &lt;p&gt;&lt;img alt="▲原PO試算完很震驚。（圖／翻攝自PTT）" border="1" height="499" src="//cdn2.ettoday.net/images/6802/6802614.jpg" width="600"/&gt;&lt;/p&gt;, &lt;p&gt;&lt;strong&gt;▲原PO試算完很震驚。（圖／翻攝自PTT）&lt;/strong&gt;&lt;/p&gt;, &lt;p&gt;還有網友假設，基本工資400元時，房價也兩倍上去，「利息25萬，總價直接1250*2=2500萬，再扣掉初始的1250萬和利息250萬，等於倒賺100萬，若自備款兩成，那報酬率是400%。」&lt;/p&gt;, &lt;p&gt;另外，也有人忍不住糾正原PO，「現在利率妳可能要用2算了」、「除了員工，不然一般人房貸在現在起碼1.81%起」、「現在沒1.52%了」。值得一提的是，該篇文是在12月上半月的討論，後來隨著美聯準會（Fed）宣布升息2碼，國內多間公股銀行跟進調升存款利率，銀行房貸利率也全面喊漲。&lt;/p&gt;, &lt;p&gt;回顧9月升息後，首購族、持有二房與三房（包含豪宅）貸款利率地板價分別為1.81%、2.1%和2.22%，該次央行再升息半碼之後，三類房貸族利率也分別調高到1.935%、2.225%和2.345%，調幅均為0.125個百分點。&lt;/p&gt;, &lt;p&gt;&lt;a href="https://ezbuy.ettoday.net/news/2218951?redirect=1" target="_blank"&gt;&lt;span style="color: rgb(255, 102, 153);"&gt;&lt;span style="background-color: rgb(255, 255, 153);"&gt;&lt;strong&gt;❤花月嵐禮盒、4大瓶洗衣精399、葉黃素、1包不到12元衛生紙！超殺優惠夯品...免會員、快速結帳&lt;/strong&gt;&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;]</t>
+    <t>新秀挑戰賽28人出爐！　狀元郎班切羅、小皮朋領銜</t>
+  </si>
+  <si>
+    <t>美國3饒舌歌手「集體失蹤」　表演取消失聯至少10天</t>
+  </si>
+  <si>
+    <t>勞動基金2022年慘賠3529億元　收益率-6.71％</t>
+  </si>
+  <si>
+    <t>曝「黨內憂心2024」暗潮洶湧　柯志恩：侯友宜的確是公認最強</t>
+  </si>
+  <si>
+    <t>清真寺爆炸100死「97人是警察」　巴基斯坦當局認：不知兇手怎闖入</t>
+  </si>
+  <si>
+    <t>沒熱度？陳建仁聲量總和狠輸「蔡賴蘇」　台灣議題中心：不易制衡賴清德</t>
+  </si>
+  <si>
+    <t>薔薔日本扮藝妓「被各種名目A錢」怒了：很坑人！店家被狂洗版  慘剩2顆星</t>
+  </si>
+  <si>
+    <t>陳美鳳日本行名牌帽出籠　與林俊傑隔海撞LV夯款</t>
+  </si>
+  <si>
+    <t>女駕駛交流道追撞前車　「邊講電話邊開門」又A到保時捷</t>
+  </si>
+  <si>
+    <t>免會員！超夯熱賣商品「優惠1次看」　洗衣精、衛生紙、花月嵐</t>
+  </si>
+  <si>
+    <t>國台辦批蔡英文通話捷克準總統　陸委會：中華民國有權與世界往來</t>
+  </si>
+  <si>
+    <t>郭台銘有意組「非綠陣營」拚2024？　侯友宜：只要台灣好都全力以赴</t>
+  </si>
+  <si>
+    <t>牡羊座生日禮！柯建銘：普發6000元「4月第二周三讀」</t>
+  </si>
+  <si>
+    <t>名校地下埋藏巨大機密被發現！瘋傳「秘建數十層」　哈工程回應</t>
+  </si>
+  <si>
+    <t>助小熊隊打破「山羊魔咒」　奪冠功臣佛勒宣布退休</t>
+  </si>
+  <si>
+    <t>洗衣機壞掉「要換洗脫烘」　人夫怕爆了！網勸買這1物：老婆愛死你</t>
+  </si>
+  <si>
+    <t>免費早餐吃到爽！住星級飯店「每人只要1250元」　再送樂園門票</t>
+  </si>
+  <si>
+    <t>基隆市民過半支持升格直轄市　謝國樑：反映民意...3月拜會林右昌</t>
+  </si>
+  <si>
+    <t>徐巧芯稱2020選得「風雨飄搖」　費鴻泰甚至在「這區」輸了</t>
+  </si>
+  <si>
+    <t>今年是「雙二月」必拜土地公！2月6日最旺　招財旺桃花「拜法完整攻略」</t>
+  </si>
+  <si>
+    <t>休旅車囂張插人行道！他檢舉卻被說「違規樣態不明顯」　警解釋了</t>
+  </si>
+  <si>
+    <t>最後身影曝！苗栗婦失蹤前曾偶遇好友　8天後尋獲…離奇陳屍池塘</t>
+  </si>
+  <si>
+    <t>必勝客買1送1、漢堡王7折吃！　foodpanda「2月激省優惠碼」一次看</t>
+  </si>
+  <si>
+    <t>雞塊加1元多1件、咖啡買1送1！　麥當勞「超殺優惠券」爽吃42天</t>
+  </si>
+  <si>
+    <t>高攀得起！天母也有4字頭房　在地人駁鄉民刻板印象</t>
+  </si>
+  <si>
+    <t>南方澳美食推這家！划算鮮魚湯69元起　綿密魚蛋沙拉每桌必點</t>
+  </si>
+  <si>
+    <t>快訊／國民黨喊加碼發現金1萬　陳建仁：應照顧弱勢團體</t>
+  </si>
+  <si>
+    <t>王品早盤股價攻漲停挑戰200元大關　今年展店目標上看50家</t>
+  </si>
+  <si>
+    <t>理科太太退費後神隱30天「新計劃曝光」！開發治病商品　驚人內幕公開</t>
+  </si>
+  <si>
+    <t>台海有事可迅速行動　菲律賓將開放「呂宋島2基地」讓美軍使用</t>
+  </si>
+  <si>
+    <t>女大生喝掛男同學硬上…震醒一旁閨蜜　無恥問：我可以試試嗎</t>
+  </si>
+  <si>
+    <t>5G手機速度排名大洗牌　這兩款手機擠下iPhone 14 Pro Max</t>
+  </si>
+  <si>
+    <t>台中住宅大火！消防員衝入搶救...移工竟抓狂推人還想逃</t>
+  </si>
+  <si>
+    <t>最激烈交戰！俄稱控制巴赫姆特以北村莊　烏軍駁：已擊退</t>
+  </si>
+  <si>
+    <t>府院黨「英賴陳」新鐵三角成形　陳建仁今參與府院例會</t>
+  </si>
+  <si>
+    <t>林書豪預告啟程飛台灣？　分享苦練動態「這兩字」引關注</t>
+  </si>
+  <si>
+    <t>男闖台中港自撞釀火球！釀禍原因曝　就醫2小時竟「拔點滴」落逃</t>
+  </si>
+  <si>
+    <t>游淑慧宣布投入立委初選挨轟「自不量力」　本人駁：將全力以赴</t>
+  </si>
+  <si>
+    <t>《灌籃高手》這一幕看到哭！「女友狂嘖嫌幼稚」他當場怒分手</t>
+  </si>
+  <si>
+    <t>英超史上最狂39億台幣巨約　切爾西搶下22歲阿根廷新星費南德斯</t>
+  </si>
+  <si>
+    <t>快訊／台南北區聯結車輾壓機車　女騎士命危送醫搶救</t>
+  </si>
+  <si>
+    <t>對拒盤查女師「大外割」拋摔　桃園莽警2罪判刑...理由曝光</t>
+  </si>
+  <si>
+    <t>乙武洋匡分手混血女友！偕嫩妹同居　劈腿5人離婚魅力仍不減</t>
+  </si>
+  <si>
+    <t>滑雪、游泳隨時切換！北海道星野TOMAMU度假村超好玩　冰屋藏驚喜</t>
+  </si>
+  <si>
+    <t>又一名店撤出東區！瓦城「大心」忠孝店租約到期不續約</t>
+  </si>
+  <si>
+    <t>科大招生寒冬！學測考生增逾2千人　專家：將加速技職體系崩壞</t>
+  </si>
+  <si>
+    <t>住院5天無法進食！林秀琴「雙手佈滿3X針孔」　突被通知今動刀求集氣</t>
+  </si>
+  <si>
+    <t>計程車司機載到「輔大陳若儀」6字曝長相！　小姑抹黑壓力大瘦2kg</t>
+  </si>
+  <si>
+    <t>2024挺侯友宜或柯文哲？　羅智強自爆「支持他」：目標政黨輪替</t>
+  </si>
+  <si>
+    <t>台灣房市進入「日本模式」？　帥過頭：今年買是找死</t>
+  </si>
+  <si>
+    <t>平流層暖變！恐又要冷　鄭明典PO「特別降溫訊號」</t>
+  </si>
+  <si>
+    <t>正妹被下迷姦水昏22hrs！色小開硬上「進不去」　賠160萬重判4年</t>
+  </si>
+  <si>
+    <t>民眾黨盤點陳建仁上任5大挑戰　「再不拿出改革魄力如何溫暖民眾？」</t>
+  </si>
+  <si>
+    <t>爺爺長照費用每個月6萬元　26歲女崩潰求問「怎麼負擔得起」</t>
+  </si>
+  <si>
+    <t>開放寄杯、互換冷熱！　超商「特濃美式、拿鐵買3送3」只有今天</t>
+  </si>
+  <si>
+    <t>11年前的今天就在紐約看林書豪！　陳建州：林來瘋是滿滿的感動</t>
+  </si>
+  <si>
+    <t>台積電漲10元至532　台股漲逾百點站穩15300</t>
+  </si>
+  <si>
+    <t>桃園燈會今開展！4層樓高「未來兔」會動　賞玩攻略、小提燈這時發</t>
+  </si>
+  <si>
+    <t>遭控捐30億沒捐只為炒知名度　曹興誠列11條Q＆A澄清進度及目的</t>
+  </si>
+  <si>
+    <t>他健檢10年「三高都紅字」不管！突「劇烈胸痛」險喪命</t>
+  </si>
+  <si>
+    <t>快訊／挑戰費鴻泰！徐巧芯宣布投入立委初選　自評「惡女」擊垮網軍側翼</t>
+  </si>
+  <si>
+    <t>社區友善通報網建功　南警順利逮獲「南漂」通緝犯</t>
+  </si>
+  <si>
+    <t>韓國10位被演員耽誤的歌手！金高銀《HERO》全網好評、《黑暗》的她超會唱</t>
+  </si>
+  <si>
+    <t>存10萬美元爽領台幣9700元！　銀行優利定存1個月可辦到</t>
+  </si>
+  <si>
+    <t>「人類自由指數」台灣奪亞洲第一！　中國倒數第14名</t>
+  </si>
+  <si>
+    <t>男子竊機車欲返高雄　南警通報在中西區被攔截逮捕</t>
+  </si>
+  <si>
+    <t>納智捷「成本Hold不住漲價了」！入門7人座URX Neo差一點破百萬</t>
+  </si>
+  <si>
+    <t>快訊／拒盤查遭「大外割+上銬」！女師告警妨害自由　判決出爐</t>
+  </si>
+  <si>
+    <t>林芯儀跨國戀「靠網交維持」！　只見5次德男橫跨9287公里擁吻</t>
+  </si>
+  <si>
+    <t>中國祭報復措施！　今起對南韓入境旅客實施落地核酸檢測</t>
+  </si>
+  <si>
+    <t>苗栗婦大年初二遛狗…離奇失蹤8天！深夜尋獲陳屍八甲池塘</t>
+  </si>
+  <si>
+    <t>好兆頭！　「3星座、4生肖」遠離霉運</t>
+  </si>
+  <si>
+    <t>「雙豪大對決」！　高國豪憶存錢買鞋盼交手林書豪</t>
+  </si>
+  <si>
+    <t>快訊／好早起！朝野立委立院報到搶頭香　他5點就到拿三連霸</t>
+  </si>
+  <si>
+    <t>太空艙在這！「台灣燈會在台北」賞燈攻略來了　3燈區亮點快筆記</t>
+  </si>
+  <si>
+    <t>經典賽／佐佐木朗希已適應WBC比賽球？　練球露自信笑容</t>
+  </si>
+  <si>
+    <t>詹皓晴首配吳芳嫺傳捷報！　泰國華欣女雙晉級8強</t>
+  </si>
+  <si>
+    <t>牛肉麵、臭豆腐超危險！營養師公開「夜市小吃熱量圖鑑」</t>
+  </si>
+  <si>
+    <t>Mazda「旗艦CX-90休旅」現身！雙動力＋3排7人座　台灣有望導入</t>
+  </si>
+  <si>
+    <t>ROSÉ開門樂收41萬Tiffany禮物　可愛心型包台灣買得到</t>
+  </si>
+  <si>
+    <t>大空間滿載對家人的愛！小蠻最愛時尚NISSAN TIIDA J 自在穿梭太太、媽媽和藝人多重斜槓身份</t>
+  </si>
+  <si>
+    <t>今晚轉雨！　「立春」下最大</t>
+  </si>
+  <si>
+    <t>巴西前總統波索納洛避難美國　妻子準備從政</t>
+  </si>
+  <si>
+    <t>恭喜！林雨葶經歷11hrs「順產寶貝女兒」：歡迎妳來到這個世界</t>
+  </si>
+  <si>
+    <t>理科太太「潑髒水是暫時的」！風波止血1月後首發聲：時間戰勝一切</t>
+  </si>
+  <si>
+    <t>穿走大王的3號　加藤豪將春訓前夕驚傳骨折</t>
+  </si>
+  <si>
+    <t>告五人情侶檔「過年見準公婆」！　2個月唱40場300萬入袋</t>
+  </si>
+  <si>
+    <t>在街上跳舞要被關10年！　網紅情侶遭認定賣淫、宣傳反政府</t>
+  </si>
+  <si>
+    <t>新手也能學會！神級彩妝師Goss大叔教畫眉　3步驟就有完美眉型</t>
+  </si>
+  <si>
+    <t>今國安晨會！　蔡英文、賴清德「座位安排」透玄機</t>
+  </si>
+  <si>
+    <t>他飛去俄國搭訕18歲洋娃娃　要帶回台灣</t>
+  </si>
+  <si>
+    <t>算命仙禁止他吃「蘋果派」　原因曝光超驚人</t>
+  </si>
+  <si>
+    <t>職場眉角多！4生肖「表現太好」反遭打壓　屬虎要多些同理心</t>
+  </si>
+  <si>
+    <t>李敏鎬、李鐘碩男神們幼年照片公開！大谷翔平小時候太萌了</t>
+  </si>
+  <si>
+    <t>大谷翔平代言New Balance　首推限量釘鞋版574</t>
+  </si>
+  <si>
+    <t>快訊／上班注意！　國1「3車追撞」</t>
+  </si>
+  <si>
+    <t>台東名人遭控吸金億元！　自稱「熱氣球節」推手還告人恐嚇</t>
+  </si>
+  <si>
+    <t>曹佑寧前校花女友爆新歡！分手半年被拍「帶他回香閨」IG限動全露陷</t>
+  </si>
+  <si>
+    <t>去年航空貨量7月開始衰退、12月減逾兩成　估今年Q2緩步復甦</t>
+  </si>
+  <si>
+    <t>「對溫柔的人沒抵抗力」星座Top 3！　冠軍嘴硬心軟，一秒就淪陷</t>
+  </si>
+  <si>
+    <t>女駕駛國道追撞再碰「保時捷」　她竟直接走人下場芭比Q</t>
+  </si>
+  <si>
+    <t>美卿布林肯下周訪中2天　將與北京官員討論俄烏戰爭</t>
+  </si>
+  <si>
+    <t>雙寶媽突告白「LINE置頂你」　醫：別害我睡公園</t>
+  </si>
+  <si>
+    <t>她失戀看A片看到哭　一票妹子湧入安慰「我也是」！哭點在這</t>
+  </si>
+  <si>
+    <t>荷蘭籲境內半導體商加把勁　防晶片最終落入俄手中</t>
+  </si>
+  <si>
+    <t>反對年金改革！法國第2次全國大罷工　127萬人走上街頭</t>
+  </si>
+  <si>
+    <t>智庫報告：風力與太陽能成歐盟2022年最大電源</t>
+  </si>
+  <si>
+    <t>財報支持Fed放緩升息　美股漲368點、台積電ADR收黑</t>
+  </si>
+  <si>
+    <t>雨區擴大時間曝　5天預測圖「2地區下最多」</t>
+  </si>
+  <si>
+    <t>沒入閣是為幫賴清德打2024大選　潘孟安認了：我們早有默契</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431313.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431261.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431329.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431330.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431238.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431300.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431248.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431034.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431303.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2413470.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431318.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431308.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431304.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431258.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431309.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2429970.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431293.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431277.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431262.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431301.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431295.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431290.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431158.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431278.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431137.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2421693.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431244.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431296.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431287.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431234.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431240.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431289.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431274.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431249.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431279.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431281.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431276.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431251.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431232.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431269.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431266.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431260.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431243.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2430071.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431263.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431265.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431257.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431241.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431253.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431224.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431231.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431242.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431245.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431252.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431155.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431239.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431229.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2430330.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431237.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431079.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431236.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431235.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2429892.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431226.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431207.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431230.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431223.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431227.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431221.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431216.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431222.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431212.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431219.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431214.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2430948.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431211.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431210.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431169.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431209.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2430925.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2425239.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431204.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431205.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431206.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431200.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431203.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431202.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431197.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431143.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431201.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431194.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431193.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431066.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2430931.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431199.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431198.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431196.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431195.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431168.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2430929.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431192.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431191.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431187.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431189.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431190.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431188.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431186.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431185.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431183.htm</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20230201/2431184.htm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The NBA announced today the 28 players who have earned spots to compete in the 2023 Jordan Rising Stars._x000D_The player pool consists of 11 NBA rookies, 10 second-year NBA players and seven NBA G League players. pic.twitter.com/hxlHTYd0OT_x000D_— NBA Communications (@NBAPR) January 31, 2023 實習記者李虹儀／綜合報導NBA全明星賽將於2月18至20日火熱開打，今(1)日新秀挑戰賽28人名單出爐，由魔術新科狀元郎班切羅(Paolo Banchero)領銜11人菜鳥陣容，與10名二年級生、7名發展聯盟球員正式參戰。▲ 魔術狀元班切羅。（圖／達志影像／美聯社）[廣告]請繼續往下閱讀...除了班切羅，新秀陣容包含活塞杜倫(Jalen Duren)與艾維(Jaden Ivey)、老鷹葛瑞芬(AJ Griffin)、爵士凱斯勒(Walker Kessler)、溜馬馬瑟倫(Bennedict Mathurin)與內姆哈德(Andrew Nembhard)、國王莫瑞(Keegan Murray)、火箭史密斯(Jabari Smith)、馬刺索昌(Jeremy Sochan)、雷霆威廉斯(Jalen Williams)。而雷霆榜眼霍姆葛倫(Chet Holmgren)則因腳傷，無緣參戰。二年級陣容則由去年新人王巴恩斯(Scottie Barnes)領銜與鵜鶘艾瓦拉多(Jose Alvarado)與墨菲三世(Trey Murphy III)、雷霆吉迪(Josh Giddey)、火箭格林(Jalen Green)與森貢(Alperen Sengun)、尼克葛林姆斯(Quentin Grimes)、金塊海蘭德(Bones Hyland)、騎士莫布里(Evan Mobley)與魔術華格納(Franz Wagner)。▲暴龍巴恩斯。（圖／CFP）全明星賽將於猶他爵士主場登場，新秀挑戰賽預計臺灣時間2月18日開打，共28人組成4隊，每隊7人。教練組賈索(Pau Gasol)、諾亞(Joakim Noah)和威廉斯(Deron Williams)會從21名NBA球員各挑7人入隊，發展聯盟另為第四隊，由泰瑞(Jason Terry)執掌。發展聯盟名單包含選秀大熱門韓德森(Scoot Henderson)、西索科(Sidy Cissoko)、金恩(Mojave King)、米勒(Leonard Miller)與小皮朋(Scotty Pippen Jr.)、洛夫頓(Kenneth Lofton Jr.)以及參戰灌籃大賽的麥克朗(Mac McClung)。▲「小皮朋」斯科蒂。（圖／CFP） </t>
+  </si>
+  <si>
+    <t xml:space="preserve">記者詹雅婷／綜合報導美國密西根州3名年輕饒舌歌手原定1月21日要在底特律一間俱樂部演出，但在表演取消後，3人失蹤至少10天。當地警方已證實此事並介入調查。綜合美媒CNN、WLNS報導，這3名當地饒舌歌手分別是28歲的凱利（Armani Kelly，藝名Marley Whoop）、31歲的威克（Dante Wicker）及31歲的吉文斯（Montoya Givens），依據原定計畫，要在Lounge 31俱樂部演出。已知凱利在失蹤前曾發語音訊息給母親報平安，已於21日下午5時抵達底特律。然而底特律警察局重案組負責人麥克吉尼斯（Michael McGinnis）表示，這場表演被取消，在那之後，3人集體失蹤。除了底特律警方之外，目前已有多個警察機構聯合參與調查，但麥克吉尼斯直說，此案情況非常特殊。凱利母親坎普（Lorrie Kemp）透露，凱利1月21日離開家之後，那天晚上手機開始轉進語音信箱，當時就知道出事了，自從收到報平安的語音訊息之後，再也連絡不上兒子，於隔日報警。凱利未婚妻佩琳（Taylor Perrin）則轉述凱利失聯前的說法指出，當晚因設備問題取消演出，打算和其他人聯繫，可能會去找另個活動，但晚上7時30分之後，簡訊、電話、臉書訊息全都找不到人。在凱利失蹤的消息傳開後，另外兩名歌手威克、吉文斯的親朋好友也意識到，在這之後都沒有見過他們，才向警方通報失蹤。1月30日這天，坎普與佩琳外出分發傳單尋人，佩琳心中仍抱持著能找到人的希望，「不親眼見到我才不信，我不會相信的…我需要他 」。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲勞動基金去年慘賠3529億元。（圖／記者廖婕妤攝）記者廖婕妤／台北報導勞動基金今（1）日公布整體基金截至2022年12月底止規模為5兆5,387億元，累計2022年度投資收益數虧損3,529億元，未年化收益率虧損6.71％。其中，新制勞退基金規模為3兆5947億元，收益數-2280.3億元，收益率-6.67％；舊制勞退基金規模為9846億元，收益數-708.7億元，收益率-8.30％；勞保基金規模為7534億元，收益數-589億元，收益率-7.45％。[廣告]請繼續往下閱讀...勞金局表示，2022年金融市場受俄烏戰爭地緣政治風險持續、主要央行積極升息對抗高通貨膨脹、中國封城防疫致供應鏈受阻等因素影響下，全球經濟景氣下滑，全球股票及債券市場均劇烈震盪下跌。MSCI全球股票指數下跌18.36％，MSCI新興市場股票下跌19.83％，台灣加權股價指數則下跌22.40％，巴克萊全球綜合債券指數下跌16.25％，對台灣半導體產業有高度影響的美國NASDAQ指數下跌33.10％，費城半導體指數跌幅更達35.83％。勞金局強調，勞工退休基金是勞工退休的經濟生活重要保障，投資收益享有銀行2年期定存利率保證收益，退休時本金不會受到市場波動影響外，收益部分亦有銀行2年定存收益的保障，勞工權益絕對受到保障。另外，勞保老年給付是由政府負最後保證給付及撥補責任，由國家確保財務安全，近10年平均投資報酬率為4.36％，長期投資收益亦不斷增長，勞工尚不需隨短期金融市場波動及修正整理而擔憂。勞工於退休時，將可同時享有「勞工保險老年給付」與「勞工退休金」2大給付之保障。展望未來，雖然全球經濟景氣預測下滑，企業調整庫存壓縮獲利，及地緣政治情勢存在諸多不確定性，惟隨著升息步入尾聲，景氣可望趨於穩定發展。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲侯友宜呼聲高，卻遲遲不願正面表態。（圖／記者許靖騏攝）記者鄭佩玟／台北報導對比民進黨於九合一選戰慘敗後，綠營黨內迅速定於一尊，權力結構重整後逐漸向副總統賴清德靠攏傾斜，地方縣市長選舉狂勝的國民黨2024總統人選由誰出戰、黨內提名制度、時程為何，恐怕仍有一番漫長的攻防角力整合過程。國民黨智庫執行長柯志恩今（1）日受訪透露，藍營內部確實很憂心，但若從民調來看，「新北市長侯友宜的確是大家認為最強、最穩定的，這是無庸置疑的。」柯志恩今日上午接受 Hit FM聯播網嗆新聞節目專訪。談到國民黨2024布局進度，柯志恩認為，侯友宜主要還是何時適合表態，畢竟還是要對新北市民有所交代，其第二任期上任至今還不到100天，若急於表態，觀感不好。不過農曆年假期間，自己確實感受到藍營支持者很著急，暗潮洶湧，主因是民進黨似乎已定於賴清德一尊。提及黨主席朱立倫的角色，柯志恩肯定朱立倫在國際觀、能力、行政經歷等條件都具備總統候選人的條件，但現在選舉不是只看個人條件，還有很多因素，「很顯然目前侯市長的主客觀環境是比朱立倫更被大家所接受。」柯志恩分析，朱立倫在九合一選舉提名過程也遭遇很多壓力，事後證明他的提名是好的選擇，朱過去是明日之星，但後來很多布局並不如預期，冷暖他多所體會，他很聰明，現在就是「總教練的角色」，很多媒體、政論節目拿他想選總統作文章，其實不太公平。至於媒體報導郭台銘要與王金平結盟，且年節期間二人具名發給義消紅包，柯志恩說，其實給義消的紅包近年郭、王每年都發，但今年碰到選舉年才被放大解讀，而國民黨支持者確實擔憂2019年總統初選再次重演，去年國民黨展現出團結氣勢，支持者期待能繼續團結，只要建立制度，不要因人設事就好。 </t>
+  </si>
+  <si>
+    <t>▲巴基斯坦白夏瓦市（Peshawar）清真寺遭自殺炸彈攻擊，至少100人死亡。（圖／達志影像／美聯社）記者吳美依／編譯巴基斯坦白夏瓦市（Peshawar）警察總部內清真寺1月30日遭自殺炸彈攻擊，導致至少100人死亡，內政部長薩納烏拉（Rana Sanaullah）證實，罹難者高達97人是警察。案發地點位於戒備森嚴的「警察道」區域（Police Lines），但當局尚不清楚兇手如何突破重重檢查哨站，闖入清真寺。▲清真寺爆炸時正值午間祈禱時間。（圖／路透社）《路透社》報導，案發正值午間祈禱時間，多達數百人聚集寺內，爆炸後清真寺上層被毀，至少170人受傷。1月31日，心急如焚的親屬湧入當地醫院，醫護把傷患抬入急診室，年長婦女在救護車旁哭喊，「我的兒子，我的孩子！」國防部長阿西夫（Khawaja Asif）表示，男性炸彈客引爆炸彈時，就坐在祈禱廳的第一排座位。當地官員馬蘇德（Riaz Mahsud）說，隨著搜索行動持續進行，傷亡人數可能還會攀升。▲隨著搜救行動持續進行，死傷人數可能攀升。（圖／路透）儘管尚無團體宣稱犯案，內政部長薩納烏拉卻透露，當地最活躍軍事團體「巴基斯坦塔利班運動」（Tehrik-i-Taliban Pakistan）分裂派別「Khurasani」自稱幕後黑手。「巴基斯坦塔利班運動」反對伊斯蘭馬巴德政府，2022年退出與政府簽訂的和平協議，並且加大攻擊力道。薩納烏拉宣稱，和平協議一部分政策要求特赦武裝份子，其中包括部分死刑犯，此舉卻導致爆炸案發生。白夏瓦市位於巴基斯坦西北部，鄰近阿富汗邊境，也落在當地民族普什圖人（Pashtun）的部落土地之上，20年以來深陷暴力衝突，近期針對警察的暴力事件更是激增。「警察道」是位於市中心的警方營地，住著中低階警察人員及眷屬，從殖民時代就矗立於此，考慮到白夏瓦市安全問題，才在內部建造清真寺，讓駐警不需遠離崗位也能祈禱。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲蔡英文、賴清德、蘇貞昌、陳建仁網路正負聲量和好感度。（圖／TPOC台灣議題研究中心提供，下同，點圖放大）記者詹宜庭／台北報導行政院長陳建仁31日正式就職，TPOC台灣議題研究中心1日發布最新報告顯示，陳建仁現階段尚未具有主動帶動聲量討論的能力，儘管在確定接棒後，不斷透過社群平台釋出新內閣閣員的資訊，但網友並沒有預期中那麼感興趣，熱度炒不起來。另外，陳建仁近一個月內的聲量總和只有5.3萬，遠遠落後總統蔡英文的21.3萬、前行政院長蘇貞昌16.9萬、副總統賴清德16.4萬，若蔡英文想透過陳建仁的「傀儡內閣」來制衡賴清德，恐怕沒那麼容易。TPOC台灣議題研究中心透過QuickseeK快析輿情資料庫分析，今年1月1日至1月30日期間，蔡英文、賴清德、蘇貞昌、陳建仁四人的網路正負聲量及其好感度。結果發現，陳建仁負面聲量超過萬則位居第一，蔡英文7千多則排名第二，蘇貞昌2千多則排名第三，賴清德3千多則居末。而好感度方面，蘇貞昌好感度0.6最高，賴清德0.54居次，蔡英文0.46第三，陳建仁0.39居末。TPOC台灣議題研究中心表示，陳建仁尚未接掌閣揆時並無公職身份，但他的中立、負面聲量的則數都超過蔡英文、蘇貞昌、賴清德三人。其中，最為人詬病的是，國民黨質疑他在2007年掛名投書國際知名期刊《Cancer》，被期刊編輯指稱「涉嫌抄襲」；與他以留職停薪方式借調擔任行政院長，卻仍保有月薪49萬元的中研院特聘研究員職位；還有曾「護航」高端疫苗等，都被攤在陽光下檢驗。至於蔡英文的好感度排名第三，TPOC台灣議題研究中心認為，其原因恐是「欽點」陳建仁接任行政院長，被外界一眼識破是為貫徹自身意志，避免提前跛腳的作法。中心也進一步分析，總統府宣布由陳建仁接任閣揆「陳上蘇下」的當天，陳建仁創下近月網路聲量高峰，但由於他面對各方批評指教並未親上火線回應，處於被動挨打的守勢，對於輿情回應也是「靜悄悄」，導致其聲量消沈的異常迅速，在創下單日聲量逾1.1萬則高峰後，僅5天就跌落至單日不到2千則。中心指出，陳建仁現階段尚未具有主動帶動聲量討論的能力，儘管在確定接棒後，不斷透過社群平台釋出新內閣閣員的資訊，但網友並沒有預期中那麼感興趣，熱度炒不起來。另外，陳建仁近一個月內的聲量總和只有5.3萬，遠遠落後蔡英文的21.3萬、蘇貞昌16.9萬、賴清德16.4萬，若蔡英文想透過陳建仁的「傀儡內閣」來制衡賴清德，恐怕沒那麼容易。至於政壇普遍認為，陳建仁接掌行政院後，府院的互動模式將重回「林全內閣」時期的模式，而蔡英文選擇陳建仁出任行政院長，是想避免在卸任前提前跛腳。中心強調，根據網路數據顯示，這波操作反而引發反效果，不僅賴清德、蘇貞昌的好感度漸長，陳建仁更面對前所未見的負面輿論抨擊。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">記者潘慧中／綜合報導薔薔（林嘉凌）最近飛往日本遊玩時，帶朋友一起體驗花魁妝扮，「以為是平靜的一天，沒想到被無限的A錢，妝也是畫得一塌糊塗」，慶幸從頭到尾都有錄影存證，「態度反覆的店家真的是氣死人！」一走進店家，薔薔就被告知拍攝要加收1萬日幣，她聽完先是說「好啊，那就給她吧」，但越想越不對勁，「很坑人耶，攝影還要錢。」不只這樣，店長接著還表示，多拍一個人就要多收1萬日幣，讓她露出無奈的笑容。[廣告]請繼續往下閱讀...被化完花魁妝後，薔薔坦言有點不開心，「我的眼線是歪七扭八的，我就是一個妝工很細的人，看這種妝我真的是我會瘋掉」，最後只好自行補妝。出門逛了一圈、拍完照回到店裡後，薔薔的同行女友人被指控掉了一根髮飾，她馬上比對出發前的照片、以及進電梯準備下樓前的錄影畫面，發現一出電梯就已經剩兩根髮飾，離奇的是，店長最後在電梯前找到遺失的第三根髮飾。此外，店家還向薔薔一行人加收了3千元的洗衣費，但她最後已經不想再爭論，「她會用很多各種名目來跟我們收費，她發現這筆收不到，她就要收下一筆。」最後，她和同行女友人在妝容、服飾方面被收了6萬多日幣，雖然在規定1小時內回到店裡，但因為沒有立刻上樓而被加收600元，加總下來，她稱自己「被坑了13000」元。影片曝光後，網友反應不一，有的人認為店家太坑人，也有人覺得這種體演本來就不便宜。出乎意料的是，有網友發現該店家以前的Google評論本來有4.2顆星，但現在已經被洗到剩2顆星。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲陳美鳳戴著LV草間彌生聯名漁夫帽，與藍心湄在日本享美食。（圖／翻攝陳美鳳臉書）記者陳雅韻／台北報導陳美鳳與姊妹淘藍心媚正在日本旅行，整趟旅程猶如個人服裝秀，天天換帽子搭配造型，不僅時尚且保暖，身為資深精品大戶的她，沒有錯過熱騰騰的話題新品—LV（Louis Vuitton，路易威登）與日本藝術家草間彌生（Yayoi Kusama）聯名的新帽子，隔海與歌手林俊傑撞同款了。▲拎著愛馬仕包的林俊傑欣賞藝術展，也戴26,600元的LV草間彌生聯名帽。（圖／翻攝jjlin IG）讓陳美鳳與林俊傑「撞帽」的款式為LV x YK Painted Dots雙面漁夫帽，綴有草間彌生的彩色繽紛圓點印花圖案，另一面則是藍色牛仔布打造，並飾有她招牌的南瓜圖案與此次聯名的標誌，流露年輕活潑的風格。▲陳美鳳戴香奈兒帽與手套搭配長大衣保暖。（圖／翻攝陳美鳳臉書）▲穿著香奈兒長衫搭配圓球毛線帽的陳美鳳，在富士山前留下美麗倩影。（圖／翻攝陳美鳳臉書）日本行除了亮出最新款的LV帽子，陳美鳳還輪流換戴可愛的圓球帽、香奈兒（CHANEL）Logo帽與日本設計師品牌山本耀司Y-3毛線帽，有趣的是她拿著包著超大草莓的大福拍照時，恰好戴著橘紅色的Y-3帽，相映成趣可愛極了。▲陳美鳳拿著草莓大福，與她的Y-3毛線帽相映成趣。（圖／翻攝陳美鳳臉書） </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲國道女三寶處理完追撞，下秒又碰撞保時捷。（圖／翻攝自記者爆料網）記者許宥孺／高雄報導國道10號嶺口交流道昨(1月31日)發生一起追撞車禍，白色休旅車追撞前車，女駕駛處理完事故後要回到駕駛座，卻又因開車門撞上一旁的保時捷，女駕駛因未依規定開車門而肇事，警方依法開單，女駕駛恐得吃3600元罰單，還要賠償保時捷維修費用。這起事故發生在31日，50歲的施姓女駕駛行經國道10號東向22公里嶺口交流道，與前車發生追撞事故，兩部車就停在匝道口，施女處理完交通事故後，邊走邊講電話要返回駕駛座並開車離去，沒想到就在開啟車門時，撞上左側的保時捷右側車尾燈。▲▼施女處理完事故，邊走邊講電話開車門。（圖／翻攝自記者爆料網）施女疑似沒發現又撞到車，當下還想直接開車走人，不過遭到保時捷邱姓車主攔車，邱男報警處理後，警方調查，該起事故無人受傷，駕駛酒測值皆為0。另外，警方依照道路交通管理處罰條例第56-1條規定，｢汽車駕駛人臨時停車或停車時，駕駛人或乘客未依規定開啟或關閉車門因而肇事者，處汽車駕駛人新臺幣1200元以上3600百元以下罰鍰」。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">文／壹五零物價上漲，精打細算買到最優惠的商品，是件重要的事情，本文幫大家整理出，超夯的熱賣商品，點圖即可購買，免會員、免折扣碼，直接下單享優惠，快速結帳的一頁式網頁，讓大家在開心購物的同時，省去註冊會員的困擾，讓你荷包無負擔。►東森蒲公英 環保抽取衛生紙_x000D_(150抽x28包x3串)NT 1,190►東風極柔 2層抽取衛生紙_x000D_(150抽x12包x6串)NT 899►舒酸定 長效抗敏牙膏_x000D_牙齦護理120g*3+溫和淨白120g*1 / 組2組 (共8入) NT 611►妙管家 抗菌洗衣精_x000D_(4000g x4瓶)NT 399►【Kanebo】佳麗寶_x000D_ALLIE 持采濾鏡UV防曬乳_x000D_買1送1 優惠組NT 750►【花月嵐】大蒜拳骨拉麵禮盒組_x000D_(2入/盒x4盒)NT 596 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲總統蔡英文與捷克總統當選人帕維爾通話。（圖／總統府）記者蔡紹堅／綜合報導總統蔡英文日前與捷克總統當選人帕維爾（Petr Pavel）通話，遭國台辦發言人馬曉光批評是藉「通話」，「同框」謀「獨」。對此，陸委會1月31日晚間表示，中華民國是印太地區重要國家與值得信賴的夥伴，有權利與世界各國互動往來。陸委會指出，「蔡總統代表台灣人民向捷克總統當選人通話表達祝賀與加強雙邊關係，是主權國家正當作為，更有助開展與民主友好國家共享價值理念、抗衡威權主義的脅迫。 」▼國台辦發言人馬曉光。（圖／記者任以芳攝）陸委會提到，台灣從未屬於中華人民共和國，兩岸互不隸屬是台海現狀與事實，也是台灣人民堅定共識之所在。陸委會強調，「對於中共當局試圖一再阻礙台灣與國際社會交往、干預他國外交政策，且不斷宣稱其謬誤的『一中原則』政治主張，我方表達反對，也認為此舉無助於兩岸良性互動。」 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲侯友宜。（圖／記者崔至雲攝）記者崔至雲／新北報導九合一大選後，各政黨積極布局2024總統大選，有媒體報導，鴻海集團創辦人郭台銘有意組「非綠陣營」出線。新北市長侯友宜今（1）日出席市政會議後被媒體問到，2024是否會支持郭？侯友宜指出，我們一起共同團結面對，不分你我、族群、黨派，只要讓台灣更好，都會全力以赴。各政黨將派誰出戰2024總統大選受到關注。根據《鏡週刊》報導，侯友宜雖然在藍營中目前呼聲最高，但他遲遲沒有表態，黨內部分勢力轉往運作郭台銘披藍袍出征。而親近郭台銘人士也透露，郭台銘有意組成「非綠陣營」爭出線。侯友宜今日被問到此事他表示，面對所有事情都是團結在一起，每個人都有不一樣的角色，大家也都用不一樣的角色一起讓台灣共好，應該不分你我、不分族群、不分黨派好好做事情，團結在一起好好面對。媒體問到，有知情人士透露，立法院前院長王金平認為，若郭台銘參選總統一定要掛國民黨籍，侯是否也認同？侯友宜回應，郭董是一個很優秀的經濟產業人才，在很多經濟方面的表現都受人肯定。每個人角色不一樣，像他是新北市市長，他有責任把現階段工作好好做好，各界關心都謝謝，但是會好好的面對、團結合作，讓這塊土地更好。媒體再追問，2024是否會支持郭台銘？侯友宜說，「我們一起共同團結面對，不分你我、族群、黨派，只要讓台灣更好，都會全力以赴。」 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲陳建仁今天拜會朝野黨團，柯建銘豎起大拇指比讚。（圖／記者屠惠剛攝）記者呂晏慈／台北報導今天是立法院新會期首日，新任行政院長陳建仁、副院長鄭文燦1日上午前往拜會立法院各黨團，盼朝野支持全民普發現金6000元的「疫後強化經濟與社會韌性及全民共享經濟成果特別條例」草案及預算案。民進黨立法院黨團總召柯建銘會前推估時程指，預算案估將在4月4日完成三讀程序，大約在4月第二周發現金，應相差無幾。柯建銘今天上午受訪說明，「疫後強化經濟與社會韌性及全民共享經濟成果特別條例」草案最快將於2月17日表決，若是順利，行政院會將在2月23日通過特別預算案，並將預算案送來立法院，立法院估將於3月3日將該案付委審查，同時還須經閣揆備詢等程序，約需要1個月的時間，這樣算起來應該會在4月4日那周完成預算案三讀程序。媒體詢問，最快是否將在4月發放6000元？柯建銘說明，「大概4月第二周吧」，相差無幾啦，陳建仁對於這個程序也非常了解，不過，立法院仍須處理一事：預算案付委審查時，立法院必須先選出召委，各委員會重新組合，才能可以進行審查，時程必須同步配合。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲網傳校園地下有數十層，還有數門超電磁炮。（圖／翻攝自澎湃新聞）記者鄭思楠／綜合報導一張落款為哈爾濱工程大學本科學院的「通知」截圖1月31日流傳陸網。通知稱，哈爾濱工程大學11號樓地下有數門「超電磁炮」，甚至還疑似存在大量「高濃縮鈾-235原料」，放射性極強，需對11號樓封閉處理。當日晚間，哈爾濱工程大學安全保衛處工作人員回應，該說法系謠言。據《澎湃新聞》報導，網傳「通知」稱，多年以來，持續收到同學關於「磁場的測量」這一基礎物理實驗的回饋，主要反映的問題是實驗數據與理論值相比顯著偏大。針對此回題，物理實驗教學中心組織勘探活動，對11號教學樓進行了地質勘測。經勘探分析，確認11號樓地下數十層記憶體放有數門超電磁炮，且疑似存在大量高濃縮鈾-235原料，放射性極強，「由於強大的磁場以及放時性元素的存在，11號樓31日起實行全面封鎖，周圍2km內禁止人為活動。」針對網傳內容，1月31日18時許，哈爾濱工程大學安全保衛處工作人員表示，他未接到上述通知，會將網傳情況回饋給領導。其後該工作人員回應，確認該網傳「通知」系謠言。▲該校回應是謠言。（圖／翻攝自澎湃新聞）哈爾濱工程大學官方微信公號曾於2017年3月發文，介紹了校內的11號樓。據悉，11號樓是哈爾濱工程大學從中國人民解放軍軍事工程學院繼承的五座大樓中的一座，是當年空軍工程系的系樓。11號樓地上共有6層，如今被用於教學和辦公，「而它的地下卻也大有秘密。」文章稱，地下對外開放的有兩層，地下2層有一個靶場。而實際上地下有6層之深，皆為防止小型原子彈設計，牆厚達1公尺，每層地下室均有半公尺厚的密封鐵門。地下第6層有一條軍事隧道，其寬度足以容納一輛坦克車，長近10公里，直達哈爾濱火車站。可見11號樓並無網傳通知內所述的「地下數十層」。哈爾濱工程大學官網資訊顯示，學校前身是創建於1953年的中國人民解放軍軍事工程學院（「哈軍工」）。1970年，以海軍工程系全建制及其他系（部）部分幹部教師為基礎，在「哈軍工」原址組建哈爾濱船舶工程學院。1994年，更名為哈爾濱工程大學。學校先後隸屬於第六機械工業部、中國船舶工業總公司、國防科工委，現隸屬於大陸工業和信息化部。2007年，成為大陸國防科工委、教育部、黑龍江省人民政府、海軍共建高校。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dexter Fowler has announced his retirement after 14 big league seasons.  pic.twitter.com/aMK5678Z5F_x000D_— MLB (@MLB) January 31, 2023 記者賴冠文／綜合報導小熊隊2016年世界大賽奪冠功臣佛勒（Dexter Fowler）今（1日）在推特宣布退休，結束14年大聯盟生涯，而他退休後有意管理、入主球隊。「就在這裡，我正式宣布高掛球鞋。」36歲的佛勒14年生涯，前後效力洛磯、太空人、小熊、紅雀、天使，總計1306支安打、127轟，生涯後期飽受傷勢困擾，2021年轉戰天使，開季出賽7場，因十字韌帶斷裂整季報銷，該年也是他最後一次踏上大聯盟。[廣告]請繼續往下閱讀...▲2016年世界大賽G7佛勒首局首打席全壘打。（圖／達志影像／美聯社）佛勒為小熊隊2016年奪下世界冠軍的功臣，助隊打破高懸108年「山羊魔咒」，該年他的上壘率為0.393為生涯最高，也幫助他隔年與紅雀隊簽下5年、8250萬美元的合約。佛勒曾在世界大賽第7戰首打席開轟，至今仍是唯一一人，而他最著名的仍是三壘安打，生涯累積82支，自他2008年9月2日初登場開始，是大聯盟這段時間累積最多三壘打的球員。_x000D_「回顧我的職業生涯，我仍非常自豪，我知道我用正確的方法在打球，除了贏球之外，我仍盡我最大的努力產生正向影響力。」佛勒說。Thank you to the fans. _x000D_Stay tuned for what’s next. pic.twitter.com/qZd84zge6Z_x000D_— dexfowler.eth (@DexterFowler) January 31, 2023  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲老婆要求買洗脫烘一體的洗衣機。（示意圖／取自免費圖庫pexels）網搜小組／劉維榛報導每當遇到雨天，衣服老是晾不乾，許多人就會用烘乾機或除溼機。不過一名人夫透露，洗衣機突然壞掉，老婆要求買洗脫烘的新洗衣機，若原PO不肯買的話，就等著她離家出走。由於家裡電線老舊，原PO擔心洗脫烘太耗電恐釀災，因此不知如何是好。文章曝光後，內行建議「直接買台瓦斯烘衣機，老婆愛死你！」一名網友在PTT表示，過年期間洗衣機壞了，老婆便要原PO買一台洗脫烘的洗衣機，甚至還出言威脅「不換的話，以後就不回家了！」聞言，原PO看了存款餘額只剩2萬，就怕預算超額了。原PO接著強調，家裡電線老舊，擔心洗脫烘洗衣機超耗電，怕會直接燒起來釀災。殊不知老婆完全不給商量，大聲嗆聲「我不管那麼多，下次回來沒看到，以後就不回家！」對此，原PO無奈求問眾人看法，「先買洗脫烘來頂一下...等有問題再說？還是室內先換電線？」▲許多人建議，洗衣機與烘衣機分開買。（圖／記者劉維榛攝）底下網友胡鬧回應，「先買吧，燒起來換房子」、「先換老婆」、「當然先買好，你才有動力換線」、「買洗脫烘+火災險」、「先別買，等老婆不回家，換新老婆再買就好」、「洗脫+瓦斯烘啊，不過兩萬買個毛？你直接換門鎖」、「洗脫烘合在一起的最大問題是：洗量＞烘量」。多數人則建議，洗衣機與烘乾機分開買，或是買一台除濕機也不錯，「買兩台，烘衣用瓦斯」、「洗烘分開買，瓦斯烘衣機買下去」、「洗脫烘只能拿來烘內衣褲，陽台掛個棚子，用除濕機比較有效率」、「直接買台瓦斯烘衣機，老婆愛死你」、「洗烘脱效果不如瓦斯」、「去買熱泵式洗脫烘就好，超方便，沒有不乾過」、「剩2萬喔，我看直接買除濕機吧」。也有網友認為，洗烘脫一台價格不便宜，加上耗電又烘太慢就是最大雷點，「洗脫烘，一次完成5小時，費時又費電」、「不用每次都烘乾吧？動不動4小時，電費貴」、「貴一點的洗脫烘要5萬多元」、「洗脫烘耗電是其次，問題是很貴吧」。▼網友熱議。（圖／翻攝PTT） </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲義大皇家酒店推出最新全包式優惠，最便宜每人只要1250元。（圖／義大皇家酒店提供，下同）記者周姈姈／綜合報導春節假期結束別難過，繼續把握時間出門玩！就有一間星級飯店祭出最新平日住宿優惠，直接下殺2.7折，不僅能入住原價破萬元的家庭房型，還能免費享用自助式早餐以及0元玩樂園，以4人出遊來算，平均每人只要1250元就能愜意享受全包式假期。義大皇家酒店推出「向百業致敬」住房專案，即日起至3/31止開放預訂入住，周日至周五平日住近雅緻家庭房1晚，再送2位成人及2位兒童自助式早餐與義大遊樂世界2張成人與2張學童票，原價18000多元，現在下殺2.7折只要4999元起，平均每人最低只要1250元，周六入住每房另加1000元（連續假日不適用）。▲平日入住雅緻家庭房下殺4999元，再送自助式早餐與樂園門票。全台首座「卡娜赫拉的小動物－夢之遊樂園」就在高雄統一時代百貨戶外廣場，即日起至2/28止開園，一進樂園馬上就能看見3米高巨型粉紅兔兔大氣球坐在小火車中央，還有隨音樂上下起伏的旋轉木馬、旋轉咖啡杯、釣魚機、盪鞦韆、海盜船、熱氣球及小飛機，全區充滿粉色超夢幻，通通都要玩。▲「熱氣球」以粉色、米白色設計，超級可愛。▲搖擺高度逼近180度的「海盜船」。▲櫻花樹下跟小動物們一起「盪鞦韆」。不僅如此，現場還有主題商店，即日起至2/6前限時販售「卡娜赫拉的小動物」周邊商品，可以買到全新6款遊樂園圖案商品，像是粉紅兔兔與P助一起玩旋轉木馬的萌樣，又或是在充滿粉紅泡泡的旋轉咖啡杯中的玩耍模樣，粉絲一定要通通收藏。▲「小飛機」可高飛眺望。▲「釣魚機」逗趣可愛，喚醒童年的回憶。▲「旋轉咖啡杯」是粉紅兔兔造型咖啡壺。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲基隆市民過半支持升格直轄市。（圖／記者郭世賢翻攝，下同）記者郭世賢／基隆報導基隆市長謝國樑昨（31日）主持市政會議後，說明基隆市民對基隆市升格直轄市意願調查結果，引用遠見的民調結果，顯示超過54.9%的民眾，支持基隆市升格為直轄市，多數市民希望可以與台北市合併，謝國樑強調，基隆要升格是市府清楚表達的主軸，另預計3月拜會內政部長林右昌。謝國樑在記者會中，先恭賀前市長林右昌擔任內政部長，表示這份民調反映基隆市民，盼升格為直轄市的民意，除作為日後拜訪林部長的參考，同時也把議長童子瑋提出論述也納入民調選項中。謝國樑還表示，北北基桃將近千萬人口，僅基隆市未享有直轄市的待遇，他請幕僚作業預計3月拜會林部長，請教國土規劃及基隆升格直轄市議題。他相信林部長過去8年對基隆的關心與感情，定能延續對基隆的未來有幫助。這份調查結果顯示，過半市民支持基隆市升格為直轄市，54.9%支持基隆市升格為直轄市，其中，包括30.3%有點支持，24.6%很支持，另外13.1%不太支持，6.1%很不支持。謝國樑指出，多數基隆市民希望可以與台北市合併，其中，26.5%認為應該「北北基合併為新的直轄市」，其次是25.7%「基隆加汐止併入台北市」，13.2%則是「基隆市和鄰近新北七區合併升格」，12.1%是基隆市併入新北市。另有5.3%「不要升格」，1.4%希望「基隆市單獨升格」。謝國樑表示，這份民調另透露，「交通及道路面向的改善」有達54.5%民眾認為是基隆首要改善的，其次依序則為「經濟與就業」31.7%、「長照」13.9%、「社會福利」13.1%。此份調查委託遠見民意研究調查，調查時間是2024年1月13日到15日，調查對象以戶籍在基隆市，年滿20歲以上的民眾，調查方式採電腦輔助電話訪問調查，完訪樣本1193人，抽樣誤差為正負2.84個百分點。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲徐巧芯、費鴻泰。（圖／記者李毓康攝、蔣萬安辦公室提供）記者江采蓁／綜合報導國民黨台北市議員徐巧芯今（1）日宣布投入台北市第七選區（松山、信義）立委初選，她提到，2020年國民黨第七選區在「風雨飄搖中險勝」，若是同一組合再戰可能會輸，但她不一樣。而當時成功當選立委的費鴻泰，得票率為48.26％，與民進黨參選人許淑華僅相差6000多票，甚至在松山區「小輸」。徐巧芯宣布投入立委初選，屆時就會碰上該選區現任立委費鴻泰。徐巧芯稱2020年國民黨在第七選區選得「風雨飄搖」僅是「險勝」，若是同一組合再戰可能會輸掉席次，但她認為自己有信心贏下大選，表示只要夠積極，「小雞也能帶著母雞跑。」回顧2020第七選區立委選舉，當時費鴻泰以總得票數85082票獲勝，與許淑華的79057票僅差6025票，費鴻泰的總得票率為48.26％，許淑華為43％，差距並未拉開。值得關注的是，費鴻泰甚至在松山區「小輸」許淑華，他的得票率為43.59％、許淑華為45.23％；但他在信義區以47.19％的得票率逆轉勝，與許淑華42.25％的得票率差距拉開。徐巧芯先前頻頻喊話，希望黨內有公平的初選制度給有戰功的年輕人機會，卻也被部分黨內人士批評別再亂放話，她日前也再度強硬表示，「我看起來是很好協調的樣子嗎？尤其是我有信心我能打敗民進黨的候選人，但另外一位國民黨候選人可能就做不到。」，被外界認為是在酸費鴻泰。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲命理師廖美然。（圖／翻攝YouTube）圖文／CTWANT雖然多數學生還在放寒假，但本周一開工日正逢大年初九天公生，許多民眾搶拜天公，希望將財庫招滿滿。但其實今年有是閏雙二月，等於有兩次農曆二月，民俗專家廖美然，日前在《新聞挖挖哇》節目提及，大家別忘了今年要特別祭拜土地公，有些人為求慎重，會2次二月都拜，但她提醒民眾，其實在今年在正月14日「立春」當天上午9點拜土地公更好。[廣告]請繼續往下閱讀...廖美然在節目上提及，今年因為是閏雙二月，等於連續有兩次農曆二月，而「頭牙」的農曆二月初二，正是土地公聖誕，所以今年祭拜土地公，顯得格外重要。有些人為求慎重，會連兩次的二月都拜，但廖美然表示，一般民眾若是忙碌的上班族，第一個二月去拜拜也可以。不過廖美然更教大家，其實今年的正月14日「立春」當天，上午9點拜土地公是最好的，立春當天是國曆的2月6日，建議當天早上，民眾可準備包括鳳梨、蘋果、火龍果、香蕉跟橘子等五種水果，且火龍果的果肉要選紅色的。五種水果的寓意，分別是要旺旺、平平安安、大吉大利及火火紅紅。另外，還要準備6個包子祭拜土地公，6個包子象徵：保平安、保健康、保好運、保福氣、保有錢、保順利。祭拜時可選擇肉包，但若吃素者亦可拜素包，只是要切記不要選有包筍絲（包損失）的素包祭拜。除此之外，廖美然建議，還可準備一罐小罐的蘋果西打祭拜，寓意是補財氣、補運氣和補人氣，當天拜完建議就要喝掉，且自己的福氣要自己喝。還有土地公喜歡吃甜食，今年又正逢象徵桃花的兔年，可以穿紅衣祭拜，並準備少許糖果和巧克力供奉土地公，可以招財又招桃花，為今年開創各種好運。延伸閱讀_x000D_▸ 百所學校關閉、交通網絡中斷　法國發起第2次「大罷工」_x000D_▸ 轎車自撞分隔島燒成火團　駕駛困車內成焦屍_x000D_▸ 經濟衰退烏雲散　IMF小幅調升全球今年經濟預測 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲民眾發現檢舉無效把經歷PO上網，引起網友討論。（圖／翻攝自PTT）記者陳雕文／新北報導新北市中和區一位民眾於上月6日晚間8點多，於中山路二段與景平路交叉口附近，發現一部休旅車違規插在人行道上，他氣憤拍照並於隔天以「駕車行駛人行道」為由向警方檢舉，最後卻得到「違規樣態不明確」的回應，他大感疑惑把照片PO上PTT要大家評評理，引出達人留言指正與教學。原PO說，「小弟月初到新北溜達時，偶然看到一台汽車直接停在人行道上，老實說我是開了眼界，於是乎小弟生平第一次檢舉違規，然後警局給我的回覆是不舉發…這樣看不出來違規態樣？？？484其實有問題的是我？」網友看了留言說，「車輛違規停放於人行道不開放民眾檢舉，只能110/簡訊報案。」還有人說檢舉失敗可能是因為原PO是以「駕車行駛人行道」做為檢舉事由。▲警方回覆。（圖／翻攝自PTT）達人看到貼文留言分析，就算知道要停人行道是必須先開上去，但單以「駕車行駛人行道」當作違規事實，必須明確錄到行駛過程行。最後他也補充，檢舉失敗也不要氣餒，可先致電給承辦人釐清狀況後，在7天內補件。中和警分局也證實，民眾所檢舉的違規態樣為「駕車行駛人行道」，因此必須檢附駕駛開車上人行道的動態影片，舉證「開車上人行道」的行為，並經審認為違規要件事實明確才算成立。另中和警分局表示，依據道路交通管理處罰條例第7-1條規定，違規停放車輛在人行道未列入民眾得檢舉範圍，因此不能透過檢舉系統檢舉，但民眾可打110報案，請警察到場查處。若民眾有任何疑問也可以打電話給承辦人釐清原因。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">記者蔡文淵、莊智勝、黃資真／苗栗報導苗栗一名賴姓婦人大年初二(1月23日)牽著2隻狗外出散步，卻離奇失聯，家屬心急PO網協尋，希望得到好消息，然而8天後終於在離家約2公里外的池塘內尋獲，但婦人已經明顯死亡，當時的最後身影也被監視器拍下。 ▲苗栗婦大年初二出門遛狗，失蹤8天後離奇陳屍池塘。（圖／記者蔡文淵翻攝）賴婦女兒表示，媽媽初二當天出門遛狗，就此失蹤未歸，直到昨深夜11點多才接到警方電話，告知在苗栗市八甲池塘尋獲母親遺體。女兒說，當時媽媽最後消失的地點就在池塘附近，但找來找去一直找不到，最後又繞回去，才終於才池塘中發現。警方說明，1月31日下午賴婦家屬表示，母親友人曾在失蹤當天，與其在聯合大學八甲校區附近巧遇，警方立刻調閱附近監視器，終於發現賴婦蹤跡，之後女子卻消失，僅剩下同行犬隻，員警緊急召集山城救難協會協助搜尋，於深夜11時許在八甲水塘公園內水池發現大體，死亡原因尚待檢察官相驗後釐清。女兒說，以媽媽的個性不至於尋短，就算有什麼困難，也會先跟家人溝通，不會這樣無預警想不開，況且當天下午、以及初三初四媽媽都與朋友有相約聚會，可以排除輕生可能。家屬研判，池塘的另一頭有遺落媽媽的手套，且周邊也有掙扎想爬上來的痕跡，猜測可能是東西不慎掉進池塘，媽媽下去撿拾結果不慎滑倒、摔進池中，才會釀成憾事。但詳細事發原因為何，還有待進一步相驗釐清。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲foodpanda2月激省優惠碼來了。（示意圖／記者黃克翔攝）記者蕭筠／台北報導快收！外送平台「foodpanda」2月限定「激省優惠碼」來了，這個月不僅有必勝客比薩買1送1、漢堡王指定套餐下殺7折吃等好康，還有買咖啡送可頌、蛋糕等小確幸，通通不能放過，提醒優惠碼須為線上付款才可使用，數量有限、兌完為止。●美食外送_x000D_1.即日起至2月28日凡輸入優惠碼「突然好想你」，即可享「美食外送下單滿259元打9折」優惠，最高現折55元，每人限用2次。2.即日起至2月28日凡輸入優惠碼「你會在哪裡」，即可享「美食外送下單滿449元現折90元」優惠，每人限用2次。3.即日起至2月28日凡輸入優惠碼「快樂或委屈」，即可享「美食外送下單滿649元現折130元」優惠，每人限用2次。4.即日起至2月28日凡輸入優惠碼「鋒利的回憶」，即可享「美食外送下單滿949元現折220元」優惠，每人限用5次。5.即日起至2月28日凡輸入優惠碼「模糊的眼睛」，即可享「美食外送下單滿1849元現折450元」優惠，每人限用10次。6.2月8日至2月28日凡輸入優惠碼「餓就肯隻雞」，即可享「肯德基下單滿320元現折80元」優惠。7.2月3日至2月28日免優惠碼即可享「必勝客海鮮個人比薩買1送1」優惠。8.2月3日至2月28日凡輸入優惠碼「pastahut50」，即可享「Pasta Hut下單滿200元現折50元」優惠。9.即日起至2月13日凡輸入優惠碼「魚額堡滿」，即可享「漢堡王吉祥雙喜糖醋魚套餐打7折」優惠，整筆訂單滿299元再打9折優惠，最高現折60元。10.即日起至2月14日免優惠碼即可享「買黑沃咖啡指定咖啡送法式奶油可頌」。11.即日起至2月14日免優惠碼即可享「買星巴克指定咖啡2杯送指定65元糕點」。▲必勝客推海鮮個人比薩買1送1。（示意圖／業者提供）●生鮮雜貨_x000D_1.即日起至2月28日凡輸入優惠碼「突然好想買」，即可享「生鮮雜貨下單滿599元打85折」優惠，最高現折250元，每人限用1次。2.即日起至2月28日凡輸入優惠碼「突然好想逛」，即可享「生鮮雜貨下單滿1299元打8折」優惠，最高現折500元，每人限用1次。●熊貓超市_x000D_1.即日起至2月28日凡輸入優惠碼「突然好想訂」，即可享「熊貓超市下單滿599元打85折」優惠，最高現折250元，每人限用1次。2.即日起至2月28日凡輸入優惠碼「突然好想囤」，即可享「熊貓超市下單滿1299元打85折」優惠，最高現折500元，每人限用1次。●信用卡優惠_x000D_1.即日起至2月28日凡輸入優惠買「psop22」，且為首次訂購全平台者，下單滿200元現折100元，每人限用1次。2.即日起至2月28日「JCB信用卡獨家優惠」，於全平台下單滿300元並輸入優惠碼「PSJCB302」，即可享現折100元優惠，每人限用1次。3.即日起至2月28日「中國信託LINE PAY卡獨家優惠」，於全平台下單滿200元並輸入優惠碼「PSCTBC302」，即可享88折優惠，最高現折50元，每人限用1次。4.即日起至2月28日「中國信託LINE PAY卡獨家優惠」，期間每日上午5時30分至11時，於全平台下單滿100元並輸入優惠碼「PSCTBCE302」，享 85 折優惠，即可享85折優惠，最高現折50元，每人限用1次。【你可能也想看】►只花55元抱走千萬！清原芋圓開出「1張千萬發票」　幸運門市曝光►麥當勞、肯德基買1送1！　各大速食店+手搖飲「開工優惠」懶人包►快訊／全家開出2張千萬發票　中獎名單一次看	 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲麥當勞最新優惠券爽吃42天。（圖／業者提供，下同）記者蕭筠／台北報導麥粉們快收下！人氣速食品牌「麥當勞」祭出最新「玉兔迎春優惠券」了，不僅有麥克雞塊、大薯加1元多吃1件，還有指定咖啡飲品買1送1等超殺好康，整張券狂省超過2869元，即日起限時42天搶吃。▲4塊麥克雞塊加1元多吃1件。▲麥當勞「玉兔迎春優惠券」網羅47種超殺優惠。麥當勞最新「玉兔迎春優惠券」開吃了，一共祭出9大系列網羅47種超殺優惠組合，其中，必搶4塊麥克雞塊、大薯、冰炫風「加1元多吃1件」，以及可樂、蜂蜜奶茶、經典那堤等品項「買1送1」，加碼還推「買咖啡免費送」超殺好康，包括小薯、蛋捲冰淇淋直接免費吃。除外還有「超爽大餐」、「雙人共享餐」、「滿福雙人早餐」、「大麥克雙享餐」、「歡樂送訂餐限定」及「早餐套餐免費升級咖啡」等限定優惠，整張券激省超過2869元，即日起至3月14日限定開吃。▲肯德基5大品項買1送1。（示意圖／記者湯興漢攝）另，肯德基即日起至2月4日祭出「5大品項買1送1」優惠，品項有小份香酥脆薯（40456）、4塊上校雞塊（40457）、大杯玉米濃湯（40458）、中杯百事可樂（40459）及草苺起司冰淇淋大福（40460），期間只要於全台門市出示優惠代碼即可享有優惠。【你可能也想看】►只花55元抱走千萬！清原芋圓開出「1張千萬發票」　幸運門市曝光►麥當勞、肯德基買1送1！　各大速食店+手搖飲「開工優惠」懶人包►快訊／全家開出2張千萬發票　中獎名單一次看	 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲天母被鄉民封為天龍國之中的天龍國。（圖／記者項瀚攝）記者項瀚／台北報導天母被鄉民封為天龍國之中的天龍國，那房價也同樣高不可攀嗎？最新一集《地產詹哥老實說》邀請信義房屋天母七段店專案經理鄭如芳，她指出天母仍有5~6字頭、甚至4字頭的物件可買，2千萬元就能入手好房子。此外，她也指出會到天母買房的3種主要客群。▲點擊收聽Podcast《地產詹哥老實說》，揭曉天母價格親民區段。節目一開始，鄭如芳介紹天母的範圍，廣泛來說，由磺溪、外雙溪、陽明山所包覆的範圍都算是天母。至於老一輩所說的「正天母」，則主要以圓環為核心，並包括中山北路七段、天母東路、天母西路等區段。刻板印象會認為，天母自成一格，生活機能差。但鄭如芳強調，天母坐擁充沛的醫療資源、以及口碑極佳的士東市場，採買其實相當方便。另外，即便沒有捷運，但公車班次多，且當地居民也相當習慣開車、甚至腳踏車這種歐美的生活方式。鄭如芳表示，天母是個綠地比例相當高的區域，而對比於內湖、大安森林公園等地，天母由於為純住宅區，生活步調上愜意許多，再搭配異國情調，整體氛圍屬實與眾不同。▲鄭如芳指出，會到天母買房的主要族群可分成3類。（圖／翻攝自地產詹哥老實說）鄭如芳指出，會到天母買房的主要族群可分成3類。首先是在地換屋族，由於天母人的在地認同感強，住過就離不開了，所以不少爸媽會幫小孩買房，作為婚後使用；或是年事已高，爬不動樓梯，決定賣掉公寓轉買電梯產品。第二，由於天母區內設有多所明星學校，包括歐美、日僑、甚至是公立的學校都是全台首屈一指，自然吸引孟母購屋。另外，鄭如芳說，也有許多企業家青睞天母舒適的生活環境，大多會選擇天玉街、忠誠路、大使特區的高價宅，行情直逼200萬元俱樂部。▲天母中山北路七段巷內，也有5~6字頭、甚至4字頭的公寓可入手。（圖／翻攝自Google Maps）「小資族也不是買不起天母！」鄭如芳表示，中山北路七段巷內、小山坡地形的區段，還能找到5~6字頭、甚至4字頭的公寓產品，坪數落在30~50坪區間，像是14巷內的「羅馬儷園」或是114巷內，總價2000萬元就能入手不錯的房子。不過，天母當然也有缺點。鄭如芳說，中山北路的上班時間，還是會有堵車的狀況，上班族恐怕需早點出門。另外，購買公寓產品的開車族民眾，也大多需要再另承租停車位。信義房屋更多相關新聞►房產記者老實說！回顧2022年10大新聞　鬼樓、投資客幕後祕辛曝光►最美圖書館加持「桃園天龍國」　在地曝千萬無痛價路段►2023房市走向「專家老實說」　重劃區都是雷區？真相揭秘 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">文、圖／混血珊莎的奇幻旅程說到南方澳美食就會想到南方澳鮮魚湯，而南方澳阿芬鮮魚湯是在地人激推的漁港美食，珊莎從街邊小店吃到現在的新店面，「阿芬鮮魚湯」的招牌鮮魚湯只要69元起，海鮮炒飯平價又大碗，還有生魚片 、現撈小卷等餐點，只要銅板價就能吃到，高CP值的平價南方澳美食，不吃對不起自己。►更多吃喝玩樂大小事，快追隨旅遊雲官方Instagram停車資訊「阿芬鮮魚湯」位在蘇澳鎮海邊路145號，開車可停南方澳第二停車場，白天用餐時間的人潮總是滿滿滿，這次入住煙波蘇澳大飯店，晚上來用餐，雖然也快客滿，但不用排隊等候，直接走進來吃就好。店面環境「阿芬鮮魚湯」緊鄰南方澳漁港美食「富美活海鮮」，想要嚐嚐南方澳鮮魚湯，平價路線的「阿芬鮮魚湯」讓人吃也吃不膩。「阿芬鮮魚湯」的新店面很寬敞，位置也變更多，舒適明亮的店面，親子家庭帶小朋友來吃也很方便。平日晚上的人潮也是超滿，連在地人都愛吃的老店，我們每次經過蘇澳也會跑來這報到。「阿芬鮮魚湯」自2007年開賣至今，雖然不是走高檔海產店路線，但樸實的價格也是吸引許多人上門的原因。店內有販賣飲料，有需要再自行到櫃檯結帳。餐具醬料都是自助式，提供醬油、辣醬、芥末跟黑醋。拿了芥末醬油跟特製辣醬，可以搭配生魚片或小卷。餐點分享不知不覺就點滿一桌，兩人份這樣吃就能飽到天靈蓋。海鮮炒飯海鮮炒飯是偏粒粒分明的那種，配料多又新鮮，蝦仁也不會很小隻，鹹香滋味適合兩個人一起吃份量剛剛好。生魚片生魚片是厚厚的一片，依照當日魚貨無法指定，但這次吃到的生魚片，我們都覺得沒有到好吃的程度，有點踩到雷的感覺。魚蛋沙拉最愛的魚蛋沙拉，最喜歡綿密的多層次口感，每次都吃都覺得很讚。現撈小卷現燙的小卷吃起來有鮮甜感，搭配醬油芥末一口咬下更滿足。鮮魚湯（大）大碗的鮮魚湯份量真的很驚人，魚肉也是給好給滿，鬼頭刀魚肉細膩紮實，簡單的薑絲調味，既清爽又有魚肉的鮮甜滋味，一碗喝下去讓身心都暖和起來。菜單阿芬鮮魚湯的價位落在15元－200元間，除了拼盤的價格較高，其他大多都是銅板價，既能吃飽飽又能省荷包，真的是必吃的南方澳美食。阿芬鮮魚湯評價南方澳阿芬鮮魚湯的餐點平價又份量十足，簡單的美味最讓人回味，珊莎本身就是常客，每次到蘇澳找南方澳漁港美食，一定會來光顧「阿芬鮮魚湯」，高CP值的銅板價美食，有到蘇澳旅遊也可以來這裡吃看看。阿芬鮮魚湯地址：宜蘭縣蘇澳鎮海邊路145號_x000D_時間：平日10：00－19：00、假日10：00－20：00（公休日周四）混血珊莎的奇幻旅程部落格、珊莎Sansa粉絲團 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲陳建仁上午在民進黨立委陪同下接受媒體聯訪。（圖／記者屠惠剛攝，下圖同）記者呂晏慈／台北報導今天是立法院新會期首日，新任行政院長陳建仁、副院長鄭文燦1日上午前往拜會立法院各黨團。面對國民黨團主張應將全民普發現金6000元調升至1萬元，陳建仁受訪說，行政院會加以溝通，除了發現金給每位國民，也應該照顧受疫情影響的中低收入戶、中小企業，讓最需要被照顧的弱勢團體得到最好的照顧。陳建仁今天上午9點半左右抵達立法院，陸續拜會民進黨團、國民黨團、民眾黨團、時代力量黨團尋求支持。陳建仁說，今天到立院拜會4個黨團，最主要的目的是希望立法院支持行政院提出的預算案和所有法案，當然在現階段最重要的是疫後特別條例和預算案，朝野政黨都覺得應該這樣做，但是有一些不同意見需要加以溝通。陳建仁強調，最重要的目的，是希望疫後特別條例能夠盡快通過，讓行政院能夠提出預算案，在最短的時間內，把很好的方案、發6000元的方案能夠落實。對於國民黨團力主應該普發現金1萬元，陳建仁說，當然各黨團有不同意見，但是要知道，受疫情影響的階層不一樣，除了要發6000元現金給每一位國民，更重要的是疫情來了之後，中低收入戶還有中小企業、特殊的行業也受到影響，例如農業的水路建造、中小企業的排水管的處理、缺工問題都需要被解決，希望把這筆經費做最妥善使用，放在刀刃上，讓最需要被照顧的弱勢團體得到最好的照顧，行政院可以與各黨團溝通，希望各黨團能夠支持該法案及預算案。民進黨立法院黨團總召柯建銘稍早表示，「疫後強化經濟與社會韌性及全民共享經濟成果特別條例」草案估要到2月17日才能表決，加上之後審查特別預算案等時程，普發6000元約於4月第二周施行。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲王品集團看好中高價餐飲市場，持續發展燒肉品牌搶市。（圖／業者提供）記者林淑慧／台北報導台股今（1）日開盤上漲81.15點，加權股價指數為15346.35點，法人指出，早盤觀光股吸引買盤敲進，王品股價最高來到197元強攻漲停，成為今日盤面焦點；依據財報，王品集團累計2022年合併營收182.7億元，改寫歷史新高，年增6.51%，今年內部規劃再開高價火鍋品牌，全年展店目標上看50家，挹注業績表現可期。台股於周一跳空大漲，周二隨即漲多拉回，在美歐央行本周四將發表最新利率決策之前，資本市場趨向觀望；不過，近期台幣升值、外資回流，內資也有回籠跡象，資金籌碼面對台股有利。[廣告]請繼續往下閱讀...法人指出，去年第四季以來受惠連假人流出籠，加上中國大陸逐步解除封控管制，大陸商務部發言人表示，將「著力擴大國內需求」擺在首位，並特別強調「要把恢復和擴大消費擺在優先位置」，尤其支持餐飲等行業恢復發展，近期各主要城市出遊、聚餐人潮逐漸湧現，消費復甦後市可期。王品集團累計2022年合併營收182.7億元，改寫歷史新高，年增6.51%，其中台灣事業群貢獻136.7億元業績，較去年同期大增近30億元，年增27.76%。在耶誕、跨年商機挹注下，王品台灣12月營收逐周成長，一舉刷新單月歷史紀錄，兩岸合併營收17.4億元，創同期歷史次高，受大陸疫情干擾，年減5.45%。王品主管指出，觀察去年12月台灣市場的各品牌業績表現，以適合情侶約會的西餐、燒肉品牌表現最佳，_x0008_包括王品牛排、原燒、最肉三大品牌，於聖誕、跨年檔期的業績較平日翻了三倍以上，挹注業績表現。另外， 受惠於冬日吃鍋旺季來臨，王品台灣12月更破天荒誕生9家千萬門店，集團店王由「青花驕」中山北店奪下，板橋縣民大道店、高雄裕誠店更是首次入列。同為火鍋品類的「和牛涮」也有2家門店破千萬，而月月入榜的「肉次方」3家分店，與「夏慕尼」中山北店亦穩定發揮。展望後市，王品表示，觀察台灣人對火鍋、燒肉、吃到飽的熱度不減，集團將鎖定這三大品類持續深耕，在新品牌「阪前和牛鐵板燒」首月業績超越預期目標，讓王品持續看好中高價餐飲市場，除了「阪前」力拼五年內展店13家外，王品今年也規劃再開高價火鍋品牌，全年展店目標30至50家。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲理科太太的每個計劃都受到各界極大關注。（圖／CTWANT提供）圖文／CTWANT迎來新的一年，擁有百萬訂閱的知名YouTuber理科太太接受時報周刊CTWANT獨家專訪，談到金兔年的全新計畫，她透露：「生活上，希望可以每周運動4至5天，飲食注意健康，每年有機會去體驗一件這輩子還沒做過的事，比如3月要去德國學如何在雪地駕駛賽車。」另外在工作方面，她也有新計劃，「希望生技公司可以做出能舒緩肝纖維硬化新藥物分子、在台灣推出已經在美國銷售一年的刺激毛囊生長的新分子」。[廣告]請繼續往下閱讀...擁有美國哥倫比亞生物工程醫學碩士畢業高學歷的理科太太，去年她於公於私都走上了新的道路。私生活方面她正式恢單、工作上則是成立了「好好生醫」。不過先前該公司推出首個產品「太空人維他命」，就因為被台北市衛生局調查認定廣告涉及誇張易生誤解，依違反食安法裁處4萬元罰鍰，而去年底的「諮商筆記」又再度引發輿論論戰，只能說理科太太的每一步，都是大家關注的焦點。而對於即將推出的頭髮相關新產品，是否又會再次造成話題延燒？理科太太說：「其實我希望大家關注在技術本身，長頭髮只是最後的結果。小分子製藥技術在生活中還有非常多可以開發的地方，不是只有頭髮而已，我們公司也在開發和其他器官及疾病相關的項目。很多攻擊的背後邏輯都有問題其實不用回答，錯誤的假設再怎麼回答，答案都不會對。」▲理科太太對於惡評都會當成是網友在抒發心情。（圖／CTWANT提供）曾是YouTuber違規醫療廣告遭開罰首例，到吳淡如逆風力挺「諮商筆記」，理科太太淡然面對自己人生一路來的風風雨雨，直言：「對支持我的粉絲，我想表達由衷的感謝，也會繼續做我在做的事。不同意見的網友，如果是建設性的指教我滿懷感激地收下了，若是完全惡意的批評，我就當讓他們抒發一下心情吧，尊重大家都有講話的自由。」她也笑說過年期間當然跟大家的都差不多，同樣都是遵照傳統守歲，家中長輩自然也都會發紅包，「我也都有給長輩和小孩們紅包，跟別人家比較不同的，應該是我們家每年都會趁過年這段時間去掃墓吧！這次是在初三去嘉義掃墓，一群人陪著兒子玩，覺得很幸福。」▲今年過年理科太太前往嘉義掃墓。（圖／取自理科太太臉書）延伸閱讀_x000D_▸ 挺過風波1／沈澱心情後首發聲　理科太太「潑髒水只是暫時的」_x000D_▸ 大老闆書單／疫情動盪全球企業脫離常軌　宏致袁万丁以《領導者的數位轉型》探出新眼光_x000D_▸ 愛神降臨3／社群上露餡？　柯震東與峮峮曾被指「星星傳情」 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲ 美國航母「雷根號」（USS Ronald Reagan）停靠菲律賓。（圖／達志影像／美聯社）記者張方瑀／綜合報導美國與日本在年初發表聯合聲明，雙方加強軍事上合作，大幅調整駐日美軍規模；美方知情人士更透露，美軍也準備好擴大在菲律賓軍事基地的使用權，預計將能使用呂宋島北部2個基地，若台海發生衝突，美軍能迅速從此地點發起行動。根據《華盛頓郵報》報導，美軍知情人士透露，美國國防部長奧斯汀（Lloyd Austin）本周將訪問菲律賓，並與菲律賓國防部長及總統小馬可仕（Ferdinand "Bongbong" Marcos Jr.）會晤後，共同宣布新的軍事協議內容。▲美國國防部長奧斯汀（Lloyd Austin）。（圖／達志影像／美聯社）儘管目前談判仍在進行，但過去幾個月裡，美國和菲律賓針對協商展開大量討論，包含對多個地點進行評估，目前至少已鎖定呂宋島北部2個基地。分析人士指出，這提供了美軍一個重要的戰略地位，若台海或南海發生衝突，美軍就可從此基地迅速發起行動；此外美菲還能就自然災害應對進行合作。知情的菲律賓官員透露，擴大與美方軍事合作有助於菲國的國防態勢，但也強調，此強化安全措施並不針對任何特定國家。官員指出，小馬可仕意識到目前該地區的動態，菲律賓真的需要進行加強，「總統一直密切關注台灣海峽與西菲律賓海的發展，我們已經受到許多國家的侵犯，預計緊張局勢會加劇。」▲美國副總統賀錦麗2022年11月訪問菲律賓並與總統小馬可仕會晤。（圖／達志影像／美聯社）美國與菲律賓2014年簽訂「加強國防合作協議」（EDCA），美國據此得以進入菲律賓4個空軍基地和1個陸軍基地；協議也允許美軍在這5個基地輪調，但這5個基地都不在呂宋島北部。過去十多年來，五角大廈一直試圖分散美軍在西太平洋島鏈的部署，讓中國難以集中火力攻擊美國基地。雪梨大學美國研究中心（United States Studies Centre）執行長葛林（Michael J. Green）說，這也有助於菲律賓等國家確保中國不會直接透過他們的群島去攻擊台灣或日本。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲女大生喝醉後，遭男同學性侵。（示意圖／取自免費圖庫pixabay）記者翁子皓／高雄報導高雄5名大學生深夜喝酒，凌晨時各自回房睡覺，女大生小花（化名）與男閨蜜同睡。不料，睡在另一間房間的男同學阿正，竟溜進小花的房間，對小花性侵，結果床鋪震動聲太大，喚醒睡在一旁的男閨蜜，阿正見男閨蜜只用眼神制止他，竟問「我可以試試嗎」，對方搖頭後他才停下。一審法官依趁機性交罪判阿正徒刑4年，二審則改判徒刑3年4月。判決書指出，阿正、小花與另外3名大學同學2021年10月23日晚間到租屋處，共飲高濃度的伏特加等酒類，直至隔日凌晨1、2時許，大家各自回房休息，其中小花與一名男閨蜜同睡一間房。阿正在清晨5、6時許溜進小花的房間，見小花因酒醉而昏睡，竟色性大發，對小花性侵。男閨蜜睡到一半時，耳邊突然傳來床鋪震動聲，他起身查看，只見阿正竟然在性侵小花，於是以眼神示意制止，但阿正竟然問說「我可以試試看嗎」，男閨蜜搖頭拒絕，阿正才停下。事後，阿正的母親曾找小花的母親談判，阿正的母親竟說「只有兩條路，第一就是讓阿正跟小花結婚，第二就是提告走刑事」讓小花家人大為光火，認為根本沒誠意解決，於是提告性侵。一審法官認為，阿正只為個人色慾，竟趁小花酒醉之際性侵，導致小花事後情緒崩潰，且犯後又未能與小花達成和解，因此依趁機性交罪，判處阿正有期徒刑4年。二審法官考量，阿正與小花已達成和解，並賠償50萬元，然而小花仍明確表示其不願意原諒阿正，希望法院可以維持原判之刑度，因此改判阿正有期徒刑3年4月，全案仍可上訴。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲安卓旗艦擠下蘋果iPhone 14 pro Max奪5G速度冠軍。（圖／記者林敬旻攝）記者陳俐穎／綜合報導手機的上網速度也是許多用戶關注的重點，而根據最新報告，比對手機上網速度，美國的榜單出現洗牌，iPhone 14 Pro Max失去冠軍寶座，而去年第四季的冠軍則由三星Z Fold 4奪下。根據Ookla Speedtest的報告指出，2022年第四季，美國最快5G手機排行，三星Z Fold 4為147.25Mbps獲得冠軍，亞軍則為Google Pixel 7 Pro，蘋果iPhone 14 Pro Max和iPhone 14 Pro則掉到第三、四名。而在上傳速度上，冠軍則為Google Pixel 7 Pro，此外，手機綜合評價中，三星則奪得第一。對比上一季（2022年第三季）的報告，iPhone 14 Pro Max、iPhone 14 Pro為一、二名，三星Z Fold 4則位列第三。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">記者鄧木卿、劉人豪／台中報導台中市豐原區一處住宅今(1日)早上6時許發生火警，消防員趕到現場搶救火勢並搜索是否有受困民眾時，遭一名移工蓄意推擠倒地導致尾椎疼痛，後續由員警強制保護管束帶回所內，受傷消防員則前往醫院就醫。據了解，該名男子為越南籍逃逸移工。▲台中豐原住宅火警，警消救援，遭受困移工推倒。（圖／記者鄧木卿翻攝）台中消防局指出，1日6點28分接獲通報，豐原區一處住宅發生火警，現場為2樓RC建物3樓鐵皮結構加蓋，2樓冒出濃煙，據員警表示2樓陽台有一名待救民眾，立即前往搶救。▲屋內床墊一片焦黑。（圖／記者鄧木卿翻攝）火勢於6點43分控制，6點46分撲滅，燃燒床墊約3平方公尺，於2樓搶救火勢人命搜索行動時，消防員於居室開門時，發現1名移工受困屋內，2名消防人員欲將移工救出時，遭待救移工蓄意推擠倒地，致謝姓消防人員尾椎疼痛，但仍合力強行將移工帶至一樓。消防員表示，當時只有移工一人在屋內，沒有想要逃跑，沒想到把他拖出屋外後竟然反抗，甚至拿木棍揮舞、作勢傷害自己，消防員壓制不住，交給警察帶走，但中途又一度脫逃。該移工先安置在專勤隊，受傷謝姓消防人員前往醫院就醫。通知屋主還有翻譯後，經了解，該名抓狂男子是越南籍的逃逸移工。▲移工緒激動拒絕評估處置，後續由員警強制保護管束帶回所內。（圖／記者鄧木卿翻攝） </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲ 烏東頓內茨克州巴赫姆特持續上演激戰。（圖／路透）記者陳宛貞／綜合外電報導俄烏在烏克蘭東部持續激戰，俄羅斯聲稱控制頓內茨克州巴赫姆特市（Bakhmut）以北不遠的布拉霍達特內村（Blahodatne）；烏軍則稱已擊退俄軍，且一天內在巴赫姆特造成敵方277人陣亡，258人受傷。綜合CNN、《路透社》報導，布拉霍達特內村位於巴赫姆特以北約5公里處，近幾周爆發戰爭以來最激烈交戰。俄羅斯國防部1月31日表示，在空中力量支援之下已經佔領此地，目前未獲證實。俄軍和傭兵組織「瓦格納集團」已經在巴赫姆特與烏軍進行數月的消耗戰，俄方聲稱已控制周圍幾個地點。瓦格納集團1月28日便宣稱控制布拉霍達特內村，烏克蘭則稱已擊退一波攻擊。烏克蘭武裝部隊東部集團官員切爾維蒂（Serhii Cherevatyi）1月31日受訪說明，巴赫姆特仍是俄軍主要攻擊目標，「他們以大砲和火箭轟炸我們的陣地197次，爆發42次衝突。過去24小時內敵方損失慘重，277人被殺，258人受到輕重傷。」他否認俄軍切斷通往巴赫姆特的運輸命脈，「他們沒有成功。我們正採取一切措施，不讓他們阻礙我方部隊行動。我們正向巴赫姆特提供必要的彈藥、裝備、食物及部隊需要的所有物資。」針對俄方對巴赫姆特以北利曼地區（Lyman）的攻勢，切爾維蒂則說明，俄軍時不時在此方向反攻，但不能稱之為大規模進攻行動，「他們的摩托化步兵部隊和砲兵正向那裡移動，首先是為守住那裡的防線，其次正如我所說，是為了重新取得優勢。尤其是在過去24小時，敵方在比洛霍里夫卡（Bilohorivka）、諾沃謝利夫斯克（Novoselivske）發起反攻，但他們被擊退後撤出。」 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲陳建仁與鄭文燦今天上午拜會立法院各黨團，民進黨立委先到大門口迎接。（圖／記者屠惠剛攝）記者呂晏慈／台北報導行政院長陳建仁就任第二天，1日上午與總統蔡英文、身兼民進黨主席的副總統賴清德一起開週三府院例會，「英賴陳」府院黨新鐵三角就定位。陳建仁稍早受訪說，將與行政團隊努力完成4大任務，讓台灣變得更堅韌、更美好，經濟和社會發展更向上提升。陳建仁今天上午前往拜會立法院民進黨團、國民黨團、民眾黨團、時代力量黨團，抵達立法院時先接受媒體聯訪。陳建仁受訪時說，確實今天早上總統邀請自己參加府院例會，賴清德副總統也在那個地方，自己當然是最能夠蔡總統交付的4大任務的行政院長，所以總統才會請自己當行政院長，將全力以赴，跟所有行政團隊努力完成4大任務，讓台灣變得更堅韌、更美好，經濟和社會發展更向上提升。蔡英文日前表示，她要交付新行政團隊4大任務，包含階段性盤整防疫措施、社會照顧體系的總檢討、持續提升國家基礎建設、以及推動六大核心戰略產業。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲林書豪分享苦練動態，加上「LAST DAY」兩字引關注。（圖／翻攝自IG）記者游郁香／綜合報導林書豪上周宣布加盟PLG高雄鋼鐵人，預計本周飛抵台灣，他連續兩天都在個人IG分享「苦練」動態，已經兩個月未在正式比賽登場的他正努力調整狀況。值得一提的是，今日的限動上他加上「LAST DAY」兩字，是否暗示這是他在美國的最後一天，引起關注。林書豪日前震撼宣告加盟PLG職籃，投身位處港都的高雄鋼鐵人，並預告會在本周抵台，但他個人和球團都未公布確切抵台時間；至於何時上場，他則表明以他自己說了算。[廣告]請繼續往下閱讀...▲鋼鐵人開賣2月11日、12日主場門票，一度將林書豪擺在C位。（圖／取自高雄17直播鋼鐵人粉絲專頁）不過鋼鐵人周一中午已開賣2月11、12日的主場門票，由於無法確定林書豪是否會上陣，目前僅2月11日對「豪弟」林書緯所屬的新北國王一役的1樓門票完售，買氣似乎不如預期。在展開生涯新篇章前，林書豪先完成了一個林爸爸的願望，他帶著老爸飛到拉斯維加斯看好友林俊傑的世界巡迴演唱會，上演夢幻的「雙Ｊ合體」。林書豪這兩天則回到球場訓練，與球迷分享苦練動態，值得一提的是，他在今日的限動上加上「LAST DAY」兩字，是否意味這是他在美國的最後一天，即將啟程飛往台灣，引起關注。▲林書豪來台前先帶爸爸去看林俊傑的演唱會。（圖／翻攝自IG） </t>
+  </si>
+  <si>
+    <t xml:space="preserve">記者許權毅／台中報導台中港昨（31）日傳出一名64歲鄭男闖入管制區自撞，造成車輛火燒車，鄭男被警方救出後送往童綜合醫院治療，不料2小時後鄭男自行拔除點滴，在未經醫生同意下離院。警方表示，鄭男涉犯《商港法》並不屬於刑法，依規定可讓鄭男休養後再通知到案說明，初步了解，鄭男供稱是為了開往國3北返誤闖管制區，至於詳細原因仍有待警方進一步釐清。▲64歲鄭男昨晚闖入台中港自撞，車輛瞬間燃燒，鄭男被警方救出後送醫，卻在2小時後拔掉點滴自行離院。（圖／記者許權毅翻攝）事發在昨晚20時許，鄭男駕駛自小客車闖入台中港管制站自動化車道，卻不管警方攔停闖入商港管制區，大約1公里後在南橫二路圓環處自撞紐澤西護欄，車輛瞬間冒成火球，台中港務警察總隊員警立刻將鄭男拉出車外，並由消防隊撲滅火勢。警方表示，港區的道路與一般道路雷同，鄭男闖入當下就已經告知「請迴轉」，不料鄭男執意闖入。鄭男向警方供稱，自己從北部下來台中，準備開往國道3號北返，不料途中誤闖進港區。警方表示，昨日先陪同鄭男前往醫院治療，但鄭男闖入管制區涉犯《商港法》第3條，為行政法非屬於刑法，無法強制將鄭男帶回訊問，同意鄭男治療完康復後再到案說明。童綜合醫院表示，鄭男20點41分到院，意識清楚，全身多處擦挫傷與鈍傷，留院治療期間，22點左右，病人趁醫護忙碌時自行拔除點滴，未經醫囑同意竟自行落跑離院。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲國民黨台北市議員游淑慧。（圖／翻攝自游淑慧臉書）記者詹宜庭／台北報導台北市議員徐巧芯宣布投入國民黨「信義．南松山」選區的立法委員初選，同黨籍台北市議員游淑慧近日也表態投入港湖區立委初選。游淑慧1日透露，有讀者投書暗指她參選「不自量力」，但她認為，雖然現任民進黨立委高嘉瑜是全國知名度與話題量最高的委員之一，可她仍願意參加國民黨2024立委初選，爭取提名，強調「這不是一個自不量力的決定，是一個思考後全力以赴的決心。」游淑慧今日透過臉書發文表示，有讀者投書，暗指她投入立委初選是自不量力，認為她在去年議員得票數上並非最高票，無法說服藍營支持者可以勝選；因此，她想藉此機會想說明初衷與本心。游淑慧指出，九合一大選後一個多月來，她和北市黨部主委黃呂錦茹、國民黨市議員李彥秀分別聊過2024港湖區立委人選的想法，並開始思考「我該不該投入？我能不能做好？」等問題。游淑慧說，「因為我本來就不是個猶豫不決或扭捏作態的人，所以很快就有了決定，也給出清楚的態度，我願意參加國民黨2024立委初選，爭取提名，挑戰民進黨現任的高嘉瑜委員，而這不是一個自不量力的決定，是一個思考後全力以赴的決心。」游淑慧透露，八年來兩次立委選舉，民進黨太多席，國民黨太少席，導致在國會監督上國民黨無力、民進黨無心，讓政府充斥著囂張或怠惰的行政官員，如果人民不滿意現在的民進黨政府，那麼民進黨立委絕對是放任怠惰的幫兇。游淑慧提及，她前天與台北市議員張斯綱、徐巧芯聊到「如果有機會進入國會，我們想做什麼？」而身為數字控與資料狂的她，最想做的就是看民進黨執政期間近20兆的錢到底花到那？給到誰？怎麼花？針對前瞻計畫8800億的使用流向、效益做一個完整的了解，看有多少像新竹棒球場那樣的大祕寶？有多少變成選舉綁樁的標案？游淑慧補充，她也會針對防疫特別預算8400億的使用方式再次嚴格檢視，將疫苗採購的過程解密，了解高端疫苗採購的必要性，並比較台灣採購價格與國際均價有無龐大價差。此外，她也會檢視振興券的印製、發放及未領取券的銷毀執行狀況，以及民進黨政府在這幾年中龐大數量的限制性採購案，都是哪些人如此神通廣大地拿到標案。另對於民進黨政府巨額媒體採購、網路行銷預算，游淑慧認為，這也該全面清查，到底是政策行銷還是他們的政黨行銷？而除了盯緊錢以外，如果國民黨國會能有足夠的席次，她也希望能廢除NCC，因為NCC已經變成箝制新聞自由的手。「狹路相逢勇者勝，是我信奉的從政原則」，游淑慧強調，高嘉瑜是全國知名度和話題量最高的委員之一，挑戰她這個任務當然超艱困，但再難也不能逃避。不管高嘉瑜與民進黨之間的愛恨情仇如何，又說了多少良心話，她在立法院過去的各種表決一樣選擇順服黨意、背離民意，仍是民進黨的一份子，這就是現實，「挑戰民進黨、下架民進黨，讓台灣重新回到正軌，是我們2024的共同目標。」 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲《灌籃高手》上映後，穩坐春節票房冠軍。（圖／台北双喜電影提供）網搜小組／劉維榛報導電影《灌籃高手THE FIRST SLAM DUNK》在台上映不到1個月，就衝到「台灣影史日本電影票房」第2名，勾起影迷們的青春回憶。不過一名男網友抱怨，帶著小11歲的女友去看《灌籃高手》，但整場能感受到她的不爽，尤其鄙視原PO看到噴淚。散場時，女友更嗆聲幼稚，氣得原PO當場秒分手。一名男網友在《匿名公社》表示，過年帶著女友去看《灌籃高手》，整場電影讓原PO興奮無比，畢竟從國中就開始追漫畫，高中還為此熱血加入籃球社，「這對年過40的大叔來說非常的重要！」[廣告]請繼續往下閱讀...不過原PO皺眉直言，「可能是女友小我11歲」，打從訂票時，女友就很不開心，就連進入影廳也表現得冷漠，尤其劇情進入緊張橋段時，「我緊張地屏住呼吸，她還會發出嘖嘖嘖的聲音，我整場一直忍住眼淚，直到擊掌時才忍不住哭了出來。」▲原PO看到擊掌的畫面後，忍不住噴淚。（圖／台北双喜電影提供）等到散場時，女友激嗆原PO「很幼稚」之外，還直呼這麼無聊的籃球電影居然一堆人跑來看，最後更笑酸「你還哭了」。一番話讓原PO非常受傷，並解釋看到落淚的原因，「或許妳還年輕，所以不懂我對年輕回憶的那種悸動！」殊不知女友越說越過分，更出言貶低人格，氣得原PO回嗆分手。對此，原PO也難過感嘆，「原本以為年齡的隔閡，只要有愛都可以克服，看來是我太天真了。」文章曝光後，一票網友也大罵，「不同年紀的代溝，無法用愛去弭平，尤其灌籃高手，對某些人是很世紀性的年少回憶」、「我也是看到哭了～真的很感動」、「一張電影票，看清一個瞎妹，真的很便宜」、「灌籃高手是籃球漫畫的傳說好嗎？女友看不懂也沒必要批評，快30歲還這樣真的很幼稚，難道她連小朋友玩洋娃娃也要批評嗎」、「這女朋友真的不行」、「是女友幼稚好不好！沒有同理心的人趕快分手是對的」、「變分手高手了」。▼原PO原文，引發網友炸鍋討論。（圖／翻攝匿名公社） </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲年僅22歲的費南德斯將以39億台幣天價轉會至英超切爾西。（圖／CFP）記者杜奕君／綜合報導在去年世界盃一戰打響名號的阿根廷22歲天才中場好手費南德斯(Enzo Fernandez)，1日傳出將以破英超聯賽紀錄的1.2億歐元(折合台幣約39億元)天價，從葡超本菲卡轉戰英超切爾西效力，雙方將會合作至2031年。切爾西同意付出1.2億歐元代價，為費南德斯合約中的違約金條款解套，天價轉會費也打破2021年曼城以1億歐元代價，從阿斯頓維拉搶下格拉利許(Jack Grealish)的記錄，成為英超史上最狂轉會天價紀錄。[廣告]請繼續往下閱讀...根據外國媒體報導，切爾西將會分6期支付轉會費，但會先付給本菲卡4000萬歐元。費南德斯在卡達世界盃冠軍決賽對上法國時，有10次鏟球，寫下自2006年義大利後衛加圖索(Gennaro Gattuso)之後，相隔17年之新高紀錄，在本屆賽事也拿下賽會最年輕球員獎項。▲費南德斯目前效力葡超本菲卡。（圖／CFP） </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲台南市北區北門路二段，1日上午驚傳聯結車與機車發生車禍，消防人員搶救騎士脫困，惟已失去意識，救護人員在現場進行CPR急救，並以救護車送醫搶救。（圖／民眾提供）記者林悅／台南報導台南市北區北門路二段，1日上午9時7分許驚傳聯結車與機車發生車禍，台南市消防局馬上出動公園、和緯及東門消防分隊消防車及救護車前往搶救，消防人員發現係1部聯結車與機車發生車禍，機車被壓在聯結車車頭，女騎士滑入車底，初步檢查尚有意識，消防人員指揮聯結車司機車將車緩慢後退，但女騎士脫困後已失去意識，救護人員在現場馬上進行CPR急救，以救護車送成大醫院搶救，目前真正肇事原因及相關責任正由警方調查處理中。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲詹慧玲（左）走在路上被員警攔查，結果遭拋摔上銬，一審判決員警有罪。（圖／記者沈繼昌攝）記者沈繼昌、黃資真／桃園報導非洲鼓女師詹慧玲去年4月在中壢後火車站被葉姓員警盤查，雙方發生口角，葉姓員警以大外割制伏詹女送辦。今(1日)一審結果出爐，葉被依公務員假借職務上之機會強制罪，判處有期徒刑4月，得易科罰金；公務員假借職務上之機會剝奪他人自由罪，處有期徒刑6月，而葉被判決罪的理由也已出爐。桃檢指出，詹女於110年4月22日上午7時許，在中壢後站街頭邊吃早點邊趕路上課途中，被中壢警分局葉姓員警攔下臨檢，當時詹質疑員警盤查合法性，一度拒絕說出相關個資，詹女與葉員對話時一句「你真的很蠢」，引起葉員不滿，以大外割拋摔詹女，最後更將她帶回派出所上銬扣留，雙方事後互告，一度以不起訴結案，經詹女提再議後，檢察官認定葉員非依法執行職務，提起公訴。法官經勘驗員警密錄器、監視器畫面，當時詹女獨自走路上，外表整潔、神色正常，並無濫用毒品後精神異常、泥醉或其他生命、身體將發生具體危害之跡象，也沒有公然攜帶違禁物、武器、易燃物、爆裂物或顯為贓物之物品或有其他參與犯罪或即將犯罪之徵兆。法官查出，當詹女遭員警攔檢時，並沒有做出攻擊、衝撞警察或加速逃逸之行為，葉姓警員在不符合警察職權行使法發動查證要件的情況下，仍以身體阻擋其離去，並要求等待支援警力到場，到派出所查驗身分，已構成以強暴方式妨害他人行動自由權利，已觸犯刑法強制罪。另外，詹女曾嗆「真的很蠢」等語，屬於捍衛自身權利並合理評論公務員違法行為之言論，並非貶損對方，則不構成妨害公務罪。法官審酌葉員身為警察，本應端正行止、奉公守法，卻對行為正常路人，以身體阻擋去處之強暴方式，施以違法盤查，再藉口稱對方妨害公務，加以違法逮捕，嚴重影響人民對警察之信賴，損害警察形象，考量其犯後未能確實表達其悔意，仍無法取得諒解或賠償損失，依公務員假借職務上之機會強制罪，處有期徒刑4月，得易科罰金；又犯公務員假借職務上之機會剝奪他人自由罪，處有期徒刑6月。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲乙武洋匡被拍到又交到新歡。（圖／達志影像）記者王佩翊／編譯天生沒有四肢的日本知名作家乙武洋匡出版《五體不滿足》後，因勵志故事爆紅，怎知2016年爆出婚外情，同時與5名女子外遇，甚至睡了50多人，重創形象，並與前妻離婚。日本周刊近日則爆料，乙武洋匡早已和混血女友分手，如今身旁又有一名20多歲的年輕女子相伴，兩人甚至已經開始同居。根據《女性自身》報導，46歲的乙武洋匡2022年7月出馬參議院選舉，沒有所屬黨派的他雖然獲得32萬高票，但仍然落選。不過沒選上議員似乎也不影響他的幸福生活，乙武洋匡1月下旬被拍到坐著電動輪椅，在東京一間超市購物，而他身邊則是伴隨著一名年輕女性。只見該名女子手上提著裝滿商品的購物籃，緊緊跟在乙武洋匡身旁，一看就關係密切。▲乙武洋匡離婚後坦言，並無再婚意願。（圖／達志影像）事實上，乙武洋匡2016年被爆出婚內外遇5名女子，因此與前妻離婚。2018年則被爆出與一名年輕的混血女性交往，2019年兩人也被拍到一同看歌舞伎約會。據悉，兩人交往後隨即開始同居，甚至進展到與女方家長見面。不過乙武洋匡的友人卻透露，兩人早在2022年春天就已經分手。根據報導，該名混血正妹與乙武洋匡相差20歲，雖然在一起的時候很開心，但是隨著交往的時間越來越長，兩人之間的差距也越來越大。這次被周刊目擊到的年輕女性則是乙武洋匡的新女友，兩人也早已開始同居生活。乙武洋匡2022年3月搬進目前所住的大廈，當時還是單身，不過參議院選舉後，就經常能看到他與這名20多歲的年輕女性出入大廈，兩人疑似是從那時展開同居生活。對此，乙武洋匡的經紀公司表示，這是他的私生活，因此不願對外發表回應。不過乙武洋匡先前曾在電視節目上坦言，自己目前沒有結婚意願，現在光是跟女友一起享受在一起的時光就很滿足了，不會結婚。乙武洋匡 年下ハーフ女性と破局も20代新恋人と同居愛！5股不倫で離婚後も変わらぬモテぶり#ハーフ #乙武洋匡 #女性 #年下 #破局https://t.co/JmZrltYuW4_x000D_— 芸能エンタメちゃんねる (@ch_entame) January 31, 2023  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">文、圖／Ean若對冰雪懷有夢幻憧憬，來趟星野TOMAMU度假村可滿足所有想像！除了擁有多條不同難度的粉雪等級滑雪道、雪地摩托車、封凍的水之教堂、泡雪湯，入夜後還有煙火綻放下的愛絲冰城（Ice Village）華麗登場，最酷方式當是乘著冰之滑梯入城，這間用冰杯喝完調酒、再去下一間坐在冰沙發上吃甜點，甚至還有時間限定的冰之旅館提供超酷的急凍住宿體驗。對了，記得帶泳裝前來，沒說錯、因全日本最大的室內波浪泳池就在這，終年如夏，要讓你一趟穿梭在兩種季節，留下難忘的冰火體驗！▲星野 Tomamu 度假村的招牌一景「水之教堂」。▲羨慕這些孩子們能在這麼小的時候就接觸滑雪。▲夢幻的雪湯體驗。▲看著白雪皚皚逐浪，實在太狂。▲夢幻的冰屋體驗。▲有如明信片的客房窗景。跌倒也浪漫的世界最棒粉雪滑雪場睽違三年，終於再次滑到雪！這是本趟北海道之旅讓我很期待與興奮的部分，特別是入住的星野TOMAMU度假村本身就有完整滑雪場，就算像我一樣沒裝備也能直接在此租借，這種人來就好的方便，對滑雪初學者非常友善！畢竟還初學加上又三年沒滑，說不緊張是騙人的，需要一些時間喚醒身體記憶。滑雪運動有一定風險，安全至上，學習如何正確摔倒為首要功課，這個下午我共滑了三趟，摔了超過十次，人家都說人生最怕的就是沒摔過跤，我想從今以後我應沒這個問題才是。但好在，這裡的雪是粉雪，相當好滑且摔跤也不怎麼痛，不愧據說是被評為世界第一的滑雪勝地。▲從滑雪道俯瞰的景色，絕美。▲因為是粉雪，就算跌倒了也不怎麼痛。▲雪地上的日落。滑雪屬極限運動，自然不適合揹大相機，所以這趟滑雪影像紀錄就完全仰賴輕放外套拉鍊口袋裡的Xiaomi 12T Pro手機，即使處在低溫環境，但使用起來完全沒問題，也不會因急凍而有電力縮減的窘況，讓我能夠輕鬆自拍或者從高處俯拍眼下的夢幻銀白世界。印象很深刻是當我站在雪道制高點時，有位身穿全黑的滑雪高手忽然竄進我的拍攝畫面中，隨即就自動被黃框框鎖定住，對、那是手機內建的Profocus運動追焦功能，確實厲害。▲Xiaomi 12T Pro手機自動偵測啟動「Profocus 運動追焦」功能，讓我印象深刻。▲北國下午四點多，就迎來將人影拉曳好長的日落。▲手機會偵測人臉，自拍的成功率很高。換上泳裝，沐夏在日本最大波浪泳池滑完雪，讓肌肉放鬆的最佳方式莫過於是泡泡熱水。能想像嗎？僅隔著一面玻璃帷幕，外頭有人穿著厚外套迎風雪前行，裏頭卻有人正穿著比基尼逐浪，這就是星野TOMAMU度假村的「微笑海灘」，終年維持30度以上的夏季氣溫，還有日本最大規模30 × 80m的波浪泳池，實在狂！不僅如此，外面還有雪見的「木林之湯」，泡的雖然不是溫泉，但能暖呼呼的欣賞雪景就已非常迷人！▲全日本最大的造浪池就在這。▲「無畏」在風雪中前行。▲一張照片裡同時有著兩個季節。▲北國才有的雪湯體驗，一定要試試。豪華按摩浴缸帶烤箱的 Risonare Tomamu除了雪見之湯，其實這回我入住的星野Risonare Tomamu房間裡就有一座豪華的按摩浴缸，回房間泡熱水一邊欣賞窗外如明信片般的銀白世界，那真是一個享受！奢華的不僅如此，這間客房竟配有烤箱，加上還有很大的客廳與臥室，相當適合一個小家庭來同住度假。▲泡澡得此一景，再享受不過。▲客房內竟有私人烤箱。▲寬敞的客廳，白天我就坐在窗邊喝著咖啡。▲臥室的空間也相當大。朝食佐夢幻銀白世界度假村整體規模也相當大，住宿區除了這回住的「RISONARE TOMAMU」，還有之前從附近經過都會看到分別有著綠色與深褐色美麗漸層的兩棟建築物，就是「TOMAMU The Tower」。此外，光是可選擇去吃早餐的餐廳就有六間，有些需要搭免費接駁巴士才能到達。其中有2間需要預約。這回動作太慢沒有預約到，於是兩天早上都就近到入住的隔壁棟32F餐廳享用，自助早餐規模不大，但蠻精緻，重點是景觀非常之好，可擁抱180度的全景視野，尤其是冬季白茫茫一片，美的非常不真實。值得提醒的是，若想換換口味，當辦理入住手續時就可搶先預約屬意的餐廳早餐。▲從房間望出去可看到另外兩棟「TOMAMU The Tower」。▲使用北海道食材的早餐，美味可口。▲能在這吃著早餐開啟一天，幸福了。▲彷彿置身畫中的窗邊座位。▲北海道擁有很棒的農產品，做出來的麵包都好好吃。純白版水之教堂度假村裡有座名聞遐邇的建築，如詩般的景色成為當年歌手梁靜茹「崇拜」MV 的拍攝場景，那就是被奉為全球結婚教堂夢幻首選之一的「水之教堂」。由安藤忠雄設計，以與自然共生為理念，清水混泥土、玻璃、鋼骨及未塗漆的木頭，簡單俐落，觸目所及沒有任何多餘的線條。若有任何不工整的，就是15 x 5米巨大玻璃外的有機自然生長，白樺木、積雪的形狀，這也是最迷人的部分。此外，每年5月到11月，巨大玻璃會完全打開，讓教堂與大自然融為一體，我期待下次來訪，見證夏之水風景。▲冬季的水之教堂顯得相當靜謐。▲線條與光影，都很迷人的水之教堂。▲夏季的水池到了冬天成了白雪一片。時間限定的愛絲冰城若說水之教堂的風景是與時俱變，那麼這裡還有一處則是如夢境般的時間限定，每年12月到隔年3月左右才會出現的愛絲冰城，3.2公頃的雪地上蓋了多座可愛的圓頂冰屋，裏頭有酒吧、可烤棉花糖及甜點吧，甚至今年還與北海道連鎖便利商店Seicomart首次合作，在這開了間「冰之便利商店」，緊接著還有「冰之旅館」在 1／10 – 2／28低溫開張，歡迎熱血旅客入住。▲每棟冰屋都有著不同主題，穿梭其中大感驚喜。▲冰之便利商店，前所未有的購物體驗。▲烤棉花糖，也是有趣的冰火體驗/ Info. /星野 TOMAMU 度假村官網｜臉書_x000D_星野集團官網 湯桂禎國際旅行社（星野集團台灣總代理）官網作者：Ean /「Ean部落閣」、「Ean 的世界大旅攝」，歡迎來入駐！   ▲即日起至2023年12月31日為止到日本Bic Camera，電器與美妝用品消費滿未稅價5001日元以上，出示優惠碼券即可享有指定優惠，旅客可以事先存在手機裡面，結帳時出示即可。Bic Camera目前將電器與美妝保養商品分開計算，使用時請務必注意。（圖／Bic Camera提供） </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲瓦城「大心」忠孝店租約到期不續約。（圖／取自大心新泰式麵食 BHeart Noodles臉書）記者黃士原／台北報導台北市商圈轉移讓東區的人潮不再，2017年開幕的瓦城旗下「大心新泰式麵食」忠孝店，今年租約到期選擇不續約，門市已經結束營業。至於因應疫情與旅遊管制影響而暫停營業的松山機場分店及桃機T2店，隨著旅遊管制鬆綁，出國人潮增加，這兩家店預計第一季恢復營業。瓦城旗下的大心新泰式麵食，以傳統冬蔭功湯搭配Q彈麵條，招牌的酸辣海鮮麵、清燉牛肉河粉更是被網友大推，店家特別設計了爽脆洋蔥、醋泡辣椒、香茅粉、秘製辣粉四種調味料，讓食客在品嚐間更富層次感。▲新麻蒲海鷗1/31熄燈。（圖／記者黃士原攝）同樣也在東區的新麻蒲海鷗因為房東將店面賣出，而老闆也有其他計劃，因此餐廳在1月31日結束營業。登台7年的新麻蒲海鷗是韓國知名的連鎖韓式烤肉餐廳，它的烤盤具有特殊設計，可以一般烤肉一邊烤蛋，在淋入蛋汁之前，會先放入泡菜，增加口味，店家建議爐邊蛋不要太熟才好吃。不管是豬肉還是牛肉，建議是先吃原味，之後再吃醃製過的醬燒口味；而在烤醬燒肉時，原使用的烤盤會改成網狀，因為醃製過的肉在烤盤上會沾黏。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲今年學測考生較去年增加超過2千人，專家認為，對科大招生將是雪上加霜。（圖／記者許敏溶攝）記者許敏溶／台北報導今年學測考生比去年增加2144人，升學輔導網站「大學問」執行長魏佳卉直言，雖可望舒緩普通大學招生缺額窘境，但對科大招生來說，無疑是雪上加霜的寒冬，預估統測聯合登記分發，缺額將從去年1.1萬持續擴大，再減少1到2千人，減少分發人數相當於1所中型科技大學的大一新生。今年學測共有11萬8559人報名，寫下23年來次低，還比去年增加2144人，但大學問網站執行長魏佳卉分析，根據教育部統計，111學年度高中職三年級學生為18萬5608人，其中高中10萬1194人、高職為8萬4414人，相當於高中生佔55％、高職生45％，高中和高職學生比例早已翻轉。[廣告]請繼續往下閱讀...魏佳卉指出，科大招生9成生源來自高職的統測考生，除了1成名額來自學測考生的四技申請管道外，應屆高中畢業生不能報考統測，但相較之下，應屆高職畢業生除了統測之外，也能報考學測和分科測驗，而根據大考中心統計，111學測有7349名考生為高職生，在個人申請採計科目最多五選四之後，加上普通大學為少子化擴大生源，採計科目僅有國、英、數等1到3科的科系增加，促成每年超過6％學測考生來自高職。魏佳卉進一步說明，111年統測報考人數來到歷史新低7萬9266人，按照今年學測報考人數增加幅度，統測考生人數勢必下降，預估統測的聯合登記分發，缺額將從去年1.1萬持續擴大，減少1到2千人，減少的分發人數相當1所中型科技大學大一新生，對科大招生來說，無疑是雪上加霜的寒冬。魏佳卉分析，台灣經濟發展各產業中階技術人才，以及醫療體系超過9成的醫護人才，都是來自技職體系，呼籲高中職學生分流，若不從政策面出發，包括人才培育、產業人力需求、國家人口政策等全方面的調整，不僅會加速科技大學的退場，更將加速台灣人才荒，進而影響產業未來的發展，甚至促成產業外移的惡性循環。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">記者張筱涵／綜合報導陳致遠和林秀琴淡出演藝圈後，專心做著買賣生意，沒想到新年才一個月，林秀琴就因為長期工作忙碌導致身體出狀況，1月30日透露已經住院5天且無法進食，而今（2月1日）將開刀，希望眾人可以幫忙祈福。▲陳致遠心痛表示林秀琴住院。（圖／翻攝自FACEBOOK／陳致遠&amp;林秀琴的樂fun人生。。。）陳致遠1月29日心疼透露，林秀琴因長期工作忙碌導致身體嚴重抗議，照片可見老婆虛弱坐在輪椅上。林秀琴本人則在隔天表示：「這幾天很抱歉有很多記者及朋友打來，我都無法接聽，因為直到昨天還是很不舒服，痛到哭不停，眼睛也都哭腫了！目前住院第五天了，還無法進食。」[廣告]請繼續往下閱讀...▲林秀琴受病痛困擾哭到眼睛紅腫陽。（圖／翻攝自FACEBOOK／陳致遠&amp;林秀琴的樂fun人生。。。）林秀琴1月31日開心表示，終於有力氣下床曬太陽，怎料吃完中飯又突然劇痛冒冷汗，原本可以出院結果今（2月1日）要開刀：「請愛我的粉粉們給海嘯女神多多鼓勵跟祝福！我需要大家給我力量。」她更以Hashtag透露「5天2隻手已打滿30多個針孔」，臉色看起來也不是很好，親朋好友以及粉絲也都送上手術順利的祝福。▲林秀琴住院第六天終於可下床曬太陽。（圖／翻攝自FACEBOOK／陳致遠&amp;林秀琴的樂fun人生。。。） </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲流水席之亂持續延燒！（示意圖／翻攝自pexels）記者施怡妏／綜合報導「輔大陳若儀」因不滿婚宴要辦流水席發文抱怨，引發熱議，一名多元計程車司機就表示，1月31日在台北京站接到一名女客人，一上車就在講電話，情緒激動向電話裡的人抱怨，女客人提到，小姑抹黑她，網友跟記者也不挺她，司機猜測對方就是「輔大陳若儀」本人，「雖然戴口罩，但應該蠻漂亮的」。該名司機在「匿名2公社」發文，昨日下午在台北京站接到一名女客人，上車後就在講電話，邊罵邊講情緒很激動，女客人提到「我已經說不要分手費，只想挽回這段感情，但那些網路酸民跟新聞記者還形容我拜金，我老公他妹妹抹黑我，網民跟記者不幫我澄清討公道，還一直罵我」。[廣告]請繼續往下閱讀...▲司機表示，雖然對方戴口罩，但應該蠻漂亮的。（圖／翻攝自FB／匿名2公社）女客人越講越崩潰，這幾個禮拜每天壓力都很大，吃不好睡不好，3個禮拜就瘦了2公斤，「我爸媽說我太衝動，為什麼還要把事情鬧大，為什麼每個人都要怪我，我真的快得憂鬱症了」，而且老公已經2天不讀不回訊息。司機透露，最後女乘客在南港重陽路上的一間超商下車，至於眾人好奇的長相，司機則表示，「她雖然戴口罩，但看得出來應該蠻漂亮的」。貼文一出，立刻掀起網友討論，「居然載到明星」、「還沒結婚耶！老公？」「越來越八卦了，好想繼續看下集」。不過，多數網友仍認為這是創作文，「哇，居然還有番外篇，這編劇真的很厲害」、「看起來就像本人PO的」、「多元司機一定有行車紀錄器，貼出來我才信」、「沒圖沒真相，說故事誰不會」。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲國民黨台北市前議員羅智強今天表示，自己只支持最強的總統參選人。（圖／取自羅智強臉書）記者鄭佩玟／台北報導先前宣布要投入2024立委選舉的國民黨前台北市議員羅智強，今（1）日在臉書雖未透露未來動向，但表態自己2024總統選舉只會支持「會贏的人」，不管是新北市長侯友宜、鴻海創辦人郭台銘、台北市前市長柯文哲、資深媒體人趙少康、孫文學校總校長張亞中，都沒有「政黨輪替」重要，「我當然想當桃園市長，但更想要政黨輪替！」羅智強去年曾爭取參選桃園市長。羅智強回憶，過去近1年自己設籍桃園龜山，買了一間屋齡40年、位在頂樓的小小公寓，在眾人支持下，從民調落後，最後戰到媒體民調第一名，雖然最後未能如願參選市長，但還是選擇成全張善政、盡全力輔選，「因為個人的委屈一點都不重要，台灣的民主、政黨的輪替才重要。」羅智強舉例，這一次在野陣營想要角逐總統者非常多，像是侯友宜、郭台銘、柯文哲、趙少康、張亞中等人，各個滿腔熱血、滿懷抱負、正派優秀，也許都想要當總統，但無論是誰都沒有比「政黨輪替」更重要，羅智強強調，「對我來說2024我只支持會贏的人。」最後，羅智強說今天自己即將完成環島之旅最後一段路，但政黨輪替的路，更加艱辛困難，盼各界支持最強的總統參選人、選出會贏的總統參選人，不要吵架、不要互相猜忌、不要中了民進黨挑撥離間的計，要想著怎麼幫台灣鞏固民主、讓台灣人民不要走向戰爭、讓平民百姓不要受黑金威脅、讓每個人的言論自由不被執政者壓迫，「政黨輪替，比任何人當總統都重要！」 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲台灣房地產讓不少民眾都買不起，如今知名房產投資客認為，這樣的狀況有望在今年後開始緩解。（圖／CTWANT提供）圖文／CTWANT知名房產投資客「帥過頭」預估台灣房地產，將進入連跌10年的狀況，台灣房市進入「日本模式」，認為今年若買房肯定是找死，甚至可能每年跌10％的的狀況，直呼自己今年不敢買房了。人口負成長 影響房地產大外號「帥過頭」的房產投資客，過去曾多次上電視節目分享經驗，近日他接受《ETTODAY》採訪表示，如今台灣房市除了面臨政府打房的狀況外，還有人口負成長的問題，到了2024年已經是台灣進入人口負成長的第四年了，因此他不看好房價的表現。▲帥過頭認為房產將開始跌價，甚至每年跌一成都是可能的。（圖／CTWANT提供） 台灣少子化嚴重 將進入日本模式？他也表示，少子化也會讓台灣進入「日本模式」，更認為從今年開始台灣房價會連跌10年，前三年最嚴重每年恐跌10％，之後則是每年跌個3％以上，因此他認為今年起他不敢再買房，「我沒那麼笨，找死。」苦苓：素地減少不太會狂跌但作家苦苓卻有不同看法，他認為台灣人口雖然減少，但戶數不斷增加，獨居和小家庭的人變多，需要更多不同類型的房產，加上可以蓋房子的土地越來越少，因此認為房價可以凍漲就不錯了，不太可能狂跌。延伸閱讀_x000D_▸ 單身男女初四相親4天後閃婚　原因竟是「不想耽誤年後上班」_x000D_▸ 女子花619元吃蛤蜊料理咬到異物　沒想到竟是價值13萬元的紫珍珠！_x000D_▸ 農委會祭出鳳梨釋迦外銷獎勵　農民直指問題怨吃不到 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲多模式平均的氣溫預報趨勢。（點圖可放大／翻攝鄭明典臉書）記者陳俊宏／台北報導每到冬季，不少人會關注北半球極地渦旋是否有什麼變化，如有平流層暖變，就有可能帶來暴風雪或超寒冷的天氣。中央氣象局長鄭明典今天（1日）在臉書表示，第一報出現特別的「降溫訊號」！這次的平流層暖變可能對台灣天氣有影響，值得持續關注。鄭明典貼出「多模式平均的氣溫預報趨勢圖」說，灰色底是過去時間，無底色部分是預報；黑色線是最近一報，其他原色是早先的預報，這種比較是看預報趨勢的調整方向。[廣告]請繼續往下閱讀...鄭明典提到，現況是由一個低點回暖中，還不到最高點，越近的預報回暖越明顯，現在看的是後半段黑色線的降溫趨勢，這個時間尺度和「平流層暖變」的影響時間差不多。▼如有平流層暖變，就有可能帶來超寒冷的天氣。（圖／資料照）鄭明典指出，當有「平流層暖變」現象時，模式預測常常會有「大誤差」，所以這裡還無法詮釋為預測，只能說這次的平流層暖變，可能對台灣天氣有影響，值得持續關注！有網友詢問，大約何時降溫？鄭回「不知道」。鄭明典曾解釋，平流層暖變是北極上空平流層氣溫急速上升，代表高層極渦消散，可能影響對流層天氣，這種現象稱為平流層暖變，通常發生在冬季。氣象專家賈新興也曾在臉書指出，平流層突然變暖現象簡稱SSW（stratosphere sudden warming），一般發生在每年10月至隔年3月，最常發生在1至2月，以北半球來說，平均10年約發生5至6次；SSW發生於離地面約10至50公里左右的高空，容易讓高空氣流出現蛇行南北擺盪的型態，意味著確實容易在全球各地，觸發持續性高溫或低溫的天氣，端看高空槽線／脊線的位置。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲補習班班主任在飲料中加入迷姦藥「F水」，企圖性侵正妹未遂，法院判他4年徒刑。（示意圖／翻攝pixabay網站）記者劉人豪／高雄報導高雄劉姓男子在其父親開設的補習班擔任班主任，見來面試的女子小蕎（化名）年輕貌美，趁補習班只有他跟小蕎，在飲料中摻入俗稱迷姦藥水的「F水」，小蕎喝下後陷入昏睡，劉男意圖性侵她但最後沒有成功。小蕎提告後劉男雖已賠償160萬，不過高雄地院仍依以藥劑強制性交未遂罪，處有期徒刑4年，劉男不服上訴，高雄高分院駁回上訴維持原判。2021年6月，初出社會的小蕎到高雄某家補習班應徵工作，而時值新冠肺炎疫情嚴峻之際，全國處於三級警戒、學生實施遠距教學不用到補習班上課，同月16日晚間，在爸爸開的補習班當班主任的劉男，竟趁只有小蕎1人到班，用從網路上買來的迷姦藥水「F水」，偷偷加了半瓶進小蕎的飲料中，小喬喝下後藥效發作開始昏睡，還一度跌落地面，劉男則趁機親吻她胸部，脫下她褲裙與內褲試圖硬上，但因打不開小蕎的腿最後沒有得逞。劉男事後被小蕎告上法院，噁行也被補習班監視器全都錄，劉男坦承犯行，法官檢視鑑定報告認為小蕎體內無劉男DNA，監視器也顯示小蕎當時雙腿僅微張，要完成性侵有難度。法院審理後認為，劉男為使小蕎趕快昏睡，還刻意把小蕎飲料中的冰塊先撈掉，以增加「F水」的濃度，使小蕎誤喝藥劑後昏迷近22小時，醒來後仍昏昏沉沉需扶牆行走，可見摻入的藥量甚多且藥性甚強，又將鐵門拉下、顯然預謀犯案，雖已賠償小蕎160萬元和解，但罪行重大，仍依以藥劑強制性交未遂罪，重判4年徒刑。劉男不服上訴，高雄高分院依妨害性自主維持原判，駁回上訴。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲民眾黨立委邱臣遠。（圖／記者宋良義攝）記者杜冠霖／台北報導立法院第十屆第七會期今（1日）開議，民眾黨立院黨團召開記者會，宣誓將針對社會安全、經濟繁榮、環境永續、居住正義、財政紀律五大面向監督民進黨政府，並提出優先法案，民眾黨立委賴香伶表示，勞保基金2028年破產，新內閣如果再不拿出改革的魄力，如何給民眾帶來溫暖？立委邱臣遠表示，上會期因藍綠算計，導致《全民共享條例》草案延宕，目前朝野沒有共識，但為了回應民意，應加快嚴審並衡量財政紀律、反對空白授權條款，以照顧弱勢、有效強化經濟與社會韌性為考量，幫助度過今年可能的通膨和不景氣 。邱臣遠也正告陳建仁院長，新內閣沒有蜜月期，一交接就必須無縫接軌，處理超徵稅收、勞保年金改革、落實居住正義等工作。邱臣遠指出，延續上會期各個黨團的優先法案及議題，民眾黨團將持續監督《平均地權條例》相關子法及內部規定、《氣候變遷因應法》後續的碳費規定、「兵役改革」的後續法規政策配套及執行、《礦業法》也要把握第七和第八會期的時間修法。勞保部分，賴香伶表示，陳建仁院長2016年擔任國家年金改革委員會召集人，2017年曾提出「年改會勞保年金改革建議方案」，但最後僅「政府每年撥補200億元挹注勞工保險基金」方案落實。賴香伶指出，最重要的《勞工保險條例》修正草案拖延6年動也不動，當時陳建仁說，將在2023年檢討是否整併勞工退休金，當年的副總統陳建仁如今變成行政院長陳建仁，自然應該盡快提出勞保改革方案。賴香伶指出，勞保基金2028年破產，許銘春部長卻還對外表示「持續與各界溝通」，完全不願承擔責任，只想甩鍋給下一屆政府；面對《最低工資法》草案「躺政院3年沒出來」，許銘春一樣推託給「勞資沒有共識」，新內閣如果再不拿出改革的魄力，如何給民眾帶來溫暖？居住正義部分，張其祿指出，2016年總統立委大選電視辯論，時任副總統候選人的陳建仁，宣示未來將聚焦年輕人居住正義對症下藥，然而2016年到2022年全國房地產可能成交價指數上漲1.85倍、租金上漲7.5％。張其祿表示，高房價等住居問題每況愈下，即使行政院撒幣推出「300億元中央擴大租金補貼專案計畫」，申請者明顯不如預期，實際執行率勉強過半，補貼政策也難以對高房價及高租金問題治本。吳欣盈表示，《氣候變遷因應法》三讀確立台灣2050年淨零碳排目標，環保署預計半年內優先提出包含碳盤查、碳費徵收、溫管基金收支辦法等12項子法，面對氣候變遷下的全球變局，需要產業綠色升級的重要誘因，才能協助台灣產業接軌歐盟CBAM等國際規範，提升國際競爭力，未來將持續監督氣候政策的進度與成效。吳欣盈指出，農曆年後行政院內閣改組，新內閣女性部會首長連同次長、副主委等，仍然低於民間常期望能達到的1/3目標。內閣成員是政府的核心，更是各個部會的代表，意義重大，在性別主流化的落實上，正是最好的展現之處；可惜這次新內閣的組成在性別方面，依然不夠理想。立委陳琬惠直言，台灣物價上漲，經濟部卻只會做圖大內宣；農委會管控雞蛋供給與價格失靈，農業出口也成問題，可是經濟部長王美花與農委會主委陳吉仲都留任。去年12月質詢王美花部長「速食飲料類最高漲15%」問題時，王部長從頭到尾只回答「很久沒買麥當勞了，不知道現在多少錢。」就連知名中式連鎖店鬍鬚張，都宣布10款便當調漲5元，不知道王部長是不是已經準備好因應策略了？民眾黨團呼籲，執政黨不能失去在野時的理想與追求，陳建仁內閣還有一年多任期，不能甘於當蔡英文總統的「傀儡內閣」，而是要針對社會安全、經濟繁榮、環境永續、居住正義、財政紀律五大面向苦民所苦，做出讓民眾有感的突破，真正展現溫柔堅韌的一面。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲台灣逐漸高齡化，長照議題層出不窮。（示意圖／Pixabay）記者崔子柔／綜合報導不少年輕人擔心年老後的開銷，已經開始規劃長照保險等事宜，一名女子指出，爺爺的看護費每個月就要5到6萬元，讓她疑惑「到底一般家庭或是獨生子女，怎麼負擔一個月5-6萬的長照」。該名女子昨（31）日在PTT發文表示，她爺爺目前是攝護腺癌症末期，已經不太能行走，都是由奶奶照顧，但爺爺狀況不好，說話常常大小聲，奶奶每天把屎把尿、洗床單，身心靈都快要崩潰。[廣告]請繼續往下閱讀...原PO指出，他們開始看機構，發現不一定有位置，一個最便宜的約4萬元，雜費加上去也是5、6萬元，要請看護的話需要醫師證明，但看護每個月也要5、6萬元，「我今年26（歲）已經在想未來換我老了怎麼辦」，原PO最後疑惑地說，「到底一般家庭或是獨生子女，怎麼負擔一個月5-6萬的長照？」網友則留言建議，「看護一個月不用5萬，請外籍看護每個月3萬多，拿爺爺失能證明就可申請」、「送機構大家都舒服啦，請看護還是會看到妳爺爺在那邊吵架」、「申請外勞跟機構費用補助，需要的文件是不一樣的，妳們可以兩個都申請」、「機構一個月5萬可以吧，還有補助可以申請，加上妳爺爺的退休金4萬元，扣掉基本不用額外花費」。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲全家限時1天指定咖啡買3送3。（圖／業者提供，下同）記者蕭筠／台北報導咖啡控快搶小確幸！全家今（1）日祭出限時1天「大杯特濃美式／拿鐵買3送3」優惠，且開放寄杯、冷熱互換，提醒須透過APP隨買跨店取購買及使用指定電子支付才可享優惠。全家今（1）日上午10時起於APP隨買跨店取祭出限時1天「大杯特濃美式／拿鐵同品項買3送3」優惠，優惠品項各限量20萬組，並開放寄杯、冷熱互換，兌換期限至5月31日，把握機會囤一波。▲7-11門市、APP也有一系列咖啡優惠。另，7-11至2月7日也於全門市祭出「CITY系列大杯以上任選第2杯半價（以五捨六入、價低者折）」，優惠品項包括CITY CAFE、CITY PRIMA、CITY PEARL、CITY TEA現萃茶、不可思議咖啡（CITY CAFE中杯飲品、Espresso、精品濾掛咖啡除外）。OPEN POINT APP行動隨時至2月6日前也有「CITY CAFE濃萃美式咖啡每日限量買8送8」、「CITY CAFE濃萃拿鐵每日限量買5送2」、「CITY CAFE風味系列指定冰飲任選4杯168元（品項含皇家伯爵紅茶拿鐵／贅沢八女抹茶拿鐵／焙烤榛果風味拿鐵／太妃焦糖風味瑪奇朵／脆酷摩卡咖啡）」、「CITY CAFE西西里風檸檬氣泡咖啡／西西里風檸檬咖啡任選3杯168元」及「CITY CAFE完熟蘋果氣泡咖啡／完熟蘋果咖啡任選3杯168元」。【你可能也想看】►只花55元抱走千萬！清原芋圓開出「1張千萬發票」　幸運門市曝光►麥當勞、肯德基買1送1！　各大速食店+手搖飲「開工優惠」懶人包►快訊／全家開出2張千萬發票　中獎名單一次看	 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲11年前的2月，「林來瘋」正要開始席捲全球 。（圖／達志影像／美聯社）記者杜奕君／綜合報導林書豪在2012年2月起的神奇表現，成為NBA甚至世界籃壇的「林來瘋」傳奇，PLG職籃聯盟執行長陳建州回憶起11年前的今天，人就在紐約看林書豪打球，當時正是他爆發前的1、2場低迷表現，但隨後林來瘋表現席捲全球，直到現在回想起來都是滿滿感動。回到2012年，當時正在美國旅遊的陳建州也前往紐約觀看林書豪球賽，當時兩人也一起祈禱並相互打氣，2月1日該役林書豪在對上活塞之戰替補拿下4分，但任誰都沒想到，接下來2月5日對上籃網就開始表現爆發，並連續6戰個人得分突破20分大關，成為尼克救世主。[廣告]請繼續往下閱讀...只是當時陳建州已經依計畫返台，錯過親眼見證林書豪神奇表現，但陳建州強調，「這一切都是上帝的最好安排，我也很替林書豪感到開心。」陳建州也表示，「接下來林書豪將以高雄17直播鋼鐵人球員身份在台灣打球，這對於球迷、球員甚至是我自己，都是相當可貴且必須好好珍惜的機會。」▲陳建州回憶11年前的今天，自己就在紐約看林書豪打球。（圖／記者李毓康攝） </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲台股。（圖／記者湯興漢攝）記者廖婕妤／台北報導美國聯準會（Fed）將宣布最新升息決議，市場預計此次升息幅度會縮小，美股周二收漲。台股今（1）日以15346.35點開出，上漲81.15點，早盤漲幅擴大至逾120點，指數站穩15300關卡。台積電ADR周二收92.73美元，下跌0.4元或0.43％。台積電（2330）今以532元開出，上漲10元或1.91％；大立光（3008）以2135元開出，上漲10元或0.47％；鴻海（2317）則以100.5元開出，上漲0.8元或0.8％。[廣告]請繼續往下閱讀...道瓊工業指數上漲368.95點或1.09%，收在34086.04點；標普500指數上漲58.83點或1.46%，收在4076.6點；那斯達克綜合指數漲190.74點或1.67%，收11584.55點；費城半導體指數漲55.23點或1.93%，收2921.92點。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲「2023桃園燈會」2月1日至2月12日於楊梅富岡開展，圖為傳統燈區「天官賜福」。（圖／桃園市觀旅局提供，以下皆同）記者彭懷玉／綜合報導桃園人準備衝！「2023桃園燈會」今（1日）起至2月12日於楊梅富岡開展，今年一共有4大燈區，包含富岡火車站及周邊街道（迎賓藝術燈區）、富岡運動公園（主燈區）、伯公岡公園（宗教、傳統燈區）和民生池埤塘（水域燈區），總計超過40組燈組，從車站內一路延伸到富岡2大公園，邀民眾走進富岡小鎮，感受一趟光之饗宴。▲「FUTU未來兔」超過4層樓高，重達30噸的巨型機器人，機翼及手臂可隨音樂擺動，為必看焦點之一。主燈「FUTU未來兔」_x000D_「FUTU未來兔」超過4層樓高，重達30噸的巨型機器人，機翼及手臂可隨音樂擺動，靈動雙眸可愛度爆表，為必看焦點之一。主燈台共有3層如日本女兒節人偶台，每層都站了特色小兔子，會跟著主燈一起展演出「慶典」、「豐收」和「未來」三個劇目，每晚6點起整點、半點都會有一次主燈展演。另外，主燈旁還有以富岡鐵道為題的「時空列車」燈組，充滿年節氣氛的「大三元」、「喜八啦」和「心願御守」互動燈組等。▲傳統燈區「楊梅林」十分浪漫。從火車站月台開始，即以「嬉遊兔」在月台迎接搭車賞燈的遊客，走出車站近千顆的喜氣紅燈籠映入眼簾，沿著富岡老街，燈光在呂宅洋樓的牆面映出花雕，轉進民生街抵達伯公岡公園，穿越以客家窗花打造的慶團圓迎賓門，客家伯公、恭喜發財等燈組還可求好運；緊鄰伯公岡公園的民生池埤塘中的「紫氣東來」球體燈組，由織線與特色燈條設計而成，每30分鐘展演90秒聲光秀，環湖更有精采的光環境佈置，竹光、鶴新春、樂福光廊和七彩大道等，走一圈埤塘當作新春健走，消耗一下卡路里。▲▼環湖更有精采的光環境佈置，圖為「鶴新春」；從火車站月台開始，即以「嬉遊兔」在月台迎接搭車賞燈的遊客。此外，新竹縣東興圳光藝節中的兔年意象燈組「躍動」，以及彩蝶翩翩的「綻放」也移展至桃園燈會，增添桃園燈會可看性。表演節目、小提燈發放時間一次看_x000D_桃園市觀旅局局長周柏吟說，燈會期間現場也安排了許多精彩表演歡度元宵，這次跨海邀請來自新加坡、全球唯一無線風箏團隊「GoFlyKite」帶來夜空劇場；還有元宵節當天的「靚靚楊梅慶元宵」踩街活動，以及來自日本的「日本鄉神樂-鬼面太鼓」與台灣的「御鼓坊」聯合演出，帶來奔放、充滿爆發力的鼓曲。▲環湖沿途的光環境佈置，可以穿梭浪漫的「竹光」之中。除了以上的亮點活動，每晚還有精彩的「富岡瘋馬戲-行動劇場」，12天活動規劃了客家主題之夜、科技主題之夜、國際主題之夜，以及有趣的猜燈謎、擲筊大賽、疊杯體驗和牛汶水DIY體驗。觀旅局也和富岡地方創生團體「富富・小山岡」合作推出全台唯一客家小鎮小旅行。而一年一度的限量小提燈「幸福兔」也將於2月1日、4日、5日、11日及12日下午5點在富岡運動公園籃球場及伯公岡公園天幕發放，每日數量有限發完為止。▲迎賓燈區內的「華燈初上」以紅燈籠打造鳥居意象。2/1-2/12交管、免費接駁車指南_x000D_觀旅局局長周柏吟表示，楊梅富岡是一個純樸的客庄小鎮，周邊街區停車空間有限，期間將進行交通管制。為避免塞車掃興，建議民眾搭火車至富岡車站前往賞燈，並已協調台鐵加開班次因應賞燈人潮，燈會期間搭火車的民眾還可至「樂遊桃園」粉專參加搭火車抽黃金活動。此外，活動期間也有規劃接駁車從楊梅火車站、高鐵桃園站（紅線/橘線、假日行駛）及中國科大（藍線、每日行駛）至活動會場，請民眾多加利用。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲聯電創辦人曹興誠。（圖／記者屠惠剛攝）記者高兆麟／綜合報導聯電創辦人曹興誠去年宣布要捐出30億來加強台灣國防，並投入反共，不過近日卻遭不少人質疑這30億到底捐了沒，更質疑他是藉此炒知名度，曹興誠今日以「錢捐了沒？」為題撰文，對於外界質疑聲音一一回覆。以下曹興誠臉書全文：[廣告]請繼續往下閱讀...近日有人頻頻在網上或電視上問我，錢捐了沒？我平常衣食不太講究，穿的都是Uniqlo的衣褲，Skechers的球鞋，不愛喝酒，吃飯也經常就是麥當勞、摩斯漢堡加鼎泰豐。即使有幾件愛馬仕的皮夾克，算是名牌，但也都穿了20多年，顯得老舊寒酸。也難怪有人瞧不起我，覺得我捐不出30億，只是詐欺。針對捐了沒有的質疑，我試擬問與答如下：你有多少錢？有能力捐30億出來嗎？我不是公務員，也不會去競選公職，所以我有多少錢，沒必要告訴任何人，只好請你自己猜。不過提醒你ㄧ下，我創立過不少重要的高科技公司，所以請你不要太小看我。那你到現在真的有捐錢出去了嗎？陸陸續續當然有。比方說單單就這幾天，就有兩千多萬臺幣要匯出。你都是捐給國防部嗎？不是。國防部有很多預算，不需要我捐錢。但你不是說要加強台灣的國防嗎？不錯。台灣國防需要加強的，固然有武器裝備的部分，但最弱的部分是心防。現在不少人缺乏敵我意識，認為中國是他們的祖國，甚至有軍官在台灣替中共做間諜，企圖協助中共來顛覆、吞併台灣。這樣的認知如果不改正，心防如果不加強，武器再多、再精良也沒用。所以你捐出的錢，是想在心理、認知、輿論等方面，加強臺灣的防衛力量？正是！那你現在都捐助了哪些人？各捐了多少？這我也不能告訴你。為什麼？打認知戰，保密很重要。今天中共會告訴你，他們在台灣花了多少錢，資助了哪些人幫他們做統戰嗎？我了解你有保密的需要，不過你捐助的原則和條件是什麼？我基本上會看對方在抗共保台上，是否已經做了努力。譬如黑熊學院已經努力了一陣子，增加民間防護能力，符合保台原則，所以我給予協助。有些人以前並沒有在這方面努力，現在突然提出新的計劃，希望我資助他們，我就比較保留。因爲我不確定他們真的會往抗共保台的方向努力不懈。所以你會慎選捐助對象，逐步捐助，而不是一步到位？當然。錢是我自己辛苦賺來的，我希望能用在刀口上，發揮效用。我無意作慈善事業，所以會監督用途，隨時調整捐助幅度。我怎麼知道你真的會捐出30億台幣呢？你如果也想捐錢，是同志，我很願意告訴你。如果你自己不捐錢，也不認同我的努力，卻老是打探我捐了沒有？我就要問你居心何在？憑什麼我要告訴你？台北市有位女議員說你是藉著捐錢打知名度，你怎麼回應？我三十幾歲就已經出名了，還上了時代雜誌（Time Magazine)；那時她還沒出生，所以我也不能怪她無知。不過我希望現在的年青人能多唸點好書，做點實事，說話也應該尊重事實和邏輯。靠著伶牙俐齒，信口雌黃，容易被中共利用，誤國害己。有位林律師，控告你詐欺，說你以捐錢為名騙取知名度，然後利用知名度上媒體賺取出席費或車馬費。你有何回應？了解我的人都知道，我不管去任何場合演講或談話，從不收取任何費用；因為我把這些演講都當成公益活動和付出。去年五月四日，我在臺大集思會議中心演講「啟蒙」，沒有收取任何費用，反而送給300多位聽眾，每人一本商周出版社翻譯的「再啟蒙的年代（Enlightenment Now)」，花了二十幾萬台幣。可惜林律師當時不在場，否則他不會把我看得那麼小鼻子小眼睛。_x000D_  </t>
+  </si>
+  <si>
+    <t>▲醫師提醒，健檢報告即使只是些微超標也要注意。（圖／達志影像）記者趙于婷／台北報導59歲吳先生每年定期接受員工健檢，近十年來每次血壓、血糖、血脂都比標準值高一些，但還不到需要藥物治療的程度，幾年下來，總是說看到紅字習慣就好。但沒想到上個月劇烈胸痛送醫，診斷為「急性心肌梗塞」，所幸送醫即時並置放冠狀動脈支架手術之後，逃過死劫。榮新診所副院長康宏銘表示，面對健檢報告，千萬不能因為每年檢查都是紅字就習以為常，特別是三高的異常，即使只是些微超標也要注意，肥胖、血脂異常、初期高血壓、糖尿病前期等應綜合評估，視為慢性疾病來看待，異常值一項一項的累積帶來的影響是相乘而不是相加。[廣告]請繼續往下閱讀...血脂、血壓、血糖等的異常被統稱為代謝症候群，研究顯示，罹患代謝症候群會增加心血管疾病的風險，發生原因與生活習慣、飲食有密切的關聯。康宏銘說，在三高尚未達須服用藥物程度時，可透過飲食、運動、避免菸酒、體重控制等，並配合個管計畫積極控制，維持甚至降低數值，減少用藥的可能。除了利用一般健檢提供的風險因子來預測將來心腦血管疾病的發生率，也有許多檢查包括動脈硬化指數（脈波傳導速度）、頸動脈超音波、冠狀動脈電腦斷層檢查、腦血管磁振造影等，適當運用這些檢查可以幫助了解血管的健康狀態。康宏銘提醒，近年健康管理意識上升，許多人都開始有定期健康檢查的概念，但對於檢查的數值除非明顯異常，常常是看了就放一邊，其實面對健檢報告，即使只是些微超標也要注意，尤其是隨著飲食及生活習慣的轉變，近年代謝症候群有年輕化的趨勢，年輕族群也別輕忽，在代謝症候群發生的早期，應積極面對，降低未來的風險。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲國民黨台北市議員徐巧芯。（圖／記者李毓康攝）記者袁茵／台北報導國民黨於2022九合一選舉大勝，力拚2024重返執政、國會過半，繼台北市議員張斯綱於日前喊話，挑戰台北市第一選區士北立委初選，並拋「廢除NCC」政見後，台北市議員徐巧芯也宣布投入「信義．南松山」選區的立委初選，目標抓出網軍、擊垮側翼。徐巧芯1日於臉書宣布，要投入國民黨「信義．南松山」選區的立法委員初選，並且列出5大重點說明自己的優勢，包括「要選出能贏的人，下架民進黨」、「解密台灣，國會需要即戰力」、「重振國民黨年輕人的支持度」、「抓出網軍、擊垮側翼」、「南松山信義需要串連與再生」。徐巧芯提及，自己理性又犀利的問政，加上豐富的資訊查證，才有可能制衡民進黨，「我能寫、敢講、能戰、聲量高，如果進到國會，就是國民黨的即戰力。」國民黨在立法院，需要一個敢勇敢、不顧一切往前衝的人，「我不和稀泥，不鄉愿，甚至不講武德，對民進黨來說，我就是個心狠手辣的『惡女』。」徐巧芯說，即使國民黨2024全面執政，也保證不會放過民進黨這8年的黑幕，「這8年沒人查的，我來查！我會當一個『考古學家』，把這段被鎖住的歷史一一解密，包括總統蔡英文政大升等論文、疫苗採購的資料、《放言》跟中油台電的合作案，我都會要求政府部門一一交出資料，分析統整後，公布在網路上讓全台灣人民都可以看到真相。」徐巧芯指出，若未來進到國會，會強力監督政府的宣傳預算與媒體標案，包括《放言》歷年來跟台電、中油的標案相關數據細目，會要求對方提供並且提供讓大眾公評，「蔡政府這兩任內若有透過公帑攻擊政敵的案子，我一個都不會放過，通通會揭露出來，讓大家看到血流成河！」徐巧芯強調，接下來會更積極的在地方上爭取民眾的支持跟認同，也會釋出更多政見，不管初選制度如何，都盡力打贏這場選戰，希望大家可以支持年輕戰力進入國會，「我絕對不會是一個佛系立委，而是讓大家看到一個神擋殺神、佛擋殺佛的立法委員。」 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲台南市警一分局後甲派出所接獲轄內熱心民眾發揮友善通報網的功能，線查獲34歲張姓通緝犯歸案。（圖／記者林悅翻攝，下同）記者林悅／台南報導台南市警一分局後甲派出所1月30日下午5時許，接獲轄內熱心民眾發揮友善通報網的功能，反映有一輛機車已停放多日都未移動，且車上堆放大型雜物，情事實為可疑，故請警方派員前來處理，警方用M-POLICE行動電腦查詢該車車籍資料，發現該車主竟是一名通緝犯，而循線緝獲34歲張姓通緝犯。市警一分局指出，經後甲派出所所長楊文杰、警員王晨光到場探訪了解，並用M-POLICE行動電腦查詢該車車籍資料，發現該車主竟是一名通緝犯，員警便在附近展開搜查，不久發現有名男子鬼鬼祟祟在路上遊蕩，且該男子眼神在與員警相互對視後就馬上閃避，形跡實為可疑，員警隨即上前盤查，但該男子卻始終保持沉默，企圖規避警方查證，後續經多方調查及聯繫該男親屬確認身分資料後，發現34歲張姓男子是桃園地檢署及地院所發布的通緝犯，且已「南漂」逃匿將近兩年的時間，員警當場依法逮捕並移送桃園地檢署歸案。市警一分局分局長歐祖明表示，警方運用警民合作的觀念，先期佈建綿密的社區友善通報網，藉由熱心民眾對社區可疑徵候的立即反映，將使各類犯罪無所遁形，有效幫助警方打擊犯罪震懾不法，保障市民安全、安心的生活環境，同時也呼籲，若有觸法切勿逃匿，應坦然面對，才有機會儘早重新開創新人生。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">文／妞新聞演藝圈不只偶像轉型演員的演技豆受到認可，許多演員同樣也有著深藏不露的歌唱實力，爆米花小姐準備了「韓國10位被演員耽誤的歌手」，妞妞們一起來看看有哪些人會唱又會演吧！韓國被演員耽誤的歌手1.金高銀[廣告]請繼續往下閱讀...▲金高銀有著非常強的歌唱實力。（圖／twitter@cjenmmovie，下同） 憑藉《鬼怪》、《小女子》等電視劇在世界各地享譽知名度的演員「金高銀」，有著非常強的歌唱實力，近期出演韓國首部音樂劇電影《HERO》「雪姬」一角時，更因高超的技巧和情感渲染，獲得全網好評。爆米花小姐推薦大家可以去聽金高銀為《奶酪陷阱》唱的OST〈吸引力〉，聲線舒服又有特色！2.安孝燮去年以《社內相親》人氣爆漲的的「安孝燮」，不但演技好、長相帥氣、身材高大，曾為JYP練習生的他，同樣有著驚人的歌唱實力，和金世正一起合唱時，低沉的聲線加上穩定的音準，歌手出道也沒問題啦！3.曹政奭▲曹政奭。（圖／조정석） 2004年以音樂劇演員身份出道的「曹政奭」，憑藉著《嫉妒的化身》、《Oh！我的鬼神君》等劇逐漸走入大眾視線。近期在《機智醫生生活》裡，不但展現了自己的搞笑功力，超驚豔的歌唱實力更是圈粉無數，他所演唱的OST〈Aloha〉也拿下了多個音樂榜冠軍。4.鄭知蘇▲鄭知蘇。（圖／MBC） 在Netflix話題韓劇《黑暗榮耀》中飾演宋慧喬學生時期的「鄭知蘇」，其實也是位非常會唱歌的演員，去年出演《玩什麼好呢？》「WSG Wannabe」特輯時，媲美專業歌手的超強實力，更是獲得主持群一致稱讚。5.李聖經▲李聖經。（圖／YG STAGE） 模特兒出身的氣質美女「李聖經」，曾在綜藝節目《蒙面歌王》中展現優秀的歌唱實力，讓不少觀眾留下深刻印象。她也曾和Eddy Kim合唱過〈My Lips Like Warm Coffee〉，以及出演音樂節目《柳熙烈的寫生簿》，並在節目中演唱多首歌曲。6.徐玄振▲徐玄振。（圖／tvN） 憑藉《又，吳海英》被大眾熟知的「徐玄振」，其實是以女子歌唱團體主唱出道的，在參演音樂劇《真善美》後才轉型為演員。因演唱過犬夜叉韓版主題曲〈Grip!〉，更被韓國網友稱為童年女神，之後也為出演的多部戲劇演唱OST，是歌唱實力優秀演員的代表之一。 7.周元▲周元。（圖／주원） 主演過《Good Doctor》、《龍八夷》等高收視韓劇的小姜棟元「周元」，也是音樂劇演員出身，至今已經演唱過8首OST。過去在節目中演唱音樂劇名曲〈就在這瞬間〉時，更因為超強的歌唱實力，迷倒了在座所有女性。8.柳演錫▲柳演錫。（圖／FB@YooYeonSeok） 以《請回答1994》七封一角走紅的「柳演錫」，雖然非專業音樂劇演員出身，但有著歌唱天賦和溫柔聲線，讓他首次演唱OST時就被觀眾注意到其不錯的歌唱實力，後來透過《搖滾芭比》、《維特》等音樂劇的磨練，使他的現場演唱更加穩定。9.金東旭▲金東旭。（圖／KEYEAST） 因出演《咖啡王子1號店》而被大眾熟知的「金東旭」，是許多人認可的實力派演員，對唱歌一直很有興趣的他，2008年出演了首部音樂劇，更在《蒙面歌王》裡演唱了金光石的歌曲，展現了超震撼的舞台表演。10.田美都▲田美都。（圖／비스터스엔터테인먼트） 主演《機智醫生生活》而爆紅的「田美都」，雖然在戲裡飾演一個唱歌難聽的音痴，現實中的她可是榮獲多個獎項肯定的「音樂劇女王」，演唱OST《I Knew I Love》時，高音也是輕而易舉飆上去，歌唱實力十分堅強！_x000D_註：文章之影片及圖片版權皆屬YouTube開放資源，上傳者並非妞新聞或編輯，若影片遭移除敬請見諒！ 【延伸閱讀】柳演錫10部韓劇推薦！《機智醫生生活》安政源和《請回答1994》七封超圈粉「安孝燮」介紹＋10部韓劇推薦！差點成為男團GOT7，《社內相親》化身傲嬌霸總本文由《妞新聞》授權刊登，更多精彩內容請見官網或官方粉絲團。未經授權，請勿轉載！ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲一銀推出新春3.88%美元優利定存。（圖／一銀提供）記者陳依旻／台北報導新年大紅包！第一銀推出「開運發發」美元優利定存，專案利率3.88％計算，若臨櫃起存10萬美元（約台幣300萬左右），1個月後就可以立即領回本金及323美元利息，換算約新台幣9,700元左右的利息。一銀表示，許多民眾習慣於新春期間求取一筆開運發財金，幫自己討個好彩頭，第一銀行「開運發發優利定存專案包含美元1個月期3.88％及人民幣3個月期1.88％，等於雙財神左右加持，雙幣定存專案利率與牌告利率相比，加碼幅度均超過1個百分點以上。[廣告]請繼續往下閱讀...此外，本專案透過網路銀行承作，不限新、舊資金均可承作，也沒有承作金額上限，且定存存期短，適合客戶年節資金回流，調度投資之用，美元最低只要1,688美元（折合新台幣約5萬713元左右），人民幣也只要人民幣16,888元（約台幣7萬5,111元左右）即可辦理，建議客戶可利用網路承作本專案，幫自己存入一筆錢母發財金。以臨櫃起存額10萬美元為例，以專案利率3.88％計算，1個月後就可以立即領回本金及323美元利息，換算約新台幣9,700元左右的利息，等同領取一個新春萬元紅包，存越多，紅包領越多。除了一銀，滙豐（台灣）銀行今年3月底前，提供現有的「卓越理財」及「運籌理財One能戶」客戶，參加外幣換匯優利定存7天期年息10%的優惠活動。滙豐銀行說明，此活動單筆最低承作金額為等值美金1萬元（約新台幣30萬元左右），金額無上限，任何幣別的資金 （包含台幣）都可換匯至美金、紐幣、英鎊、加幣、澳幣、歐元或港幣7種外幣，都可享7天期定存年息10%。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲台灣自由持續位居前列。（圖／記者賴志昶攝）記者張靖榕／綜合外電報導美國智庫卡托研究所（Cato Institute）與加拿大溫哥華智庫「弗雷澤研究所」（Fraser Institute）聯合調查「人類自由指數」，根據法律、國安、人身安全、移動自由、財產自由等83項指數，對各國做出綜合評估。其中台灣位居亞洲第一，中國則與伊朗等國一起吊車尾。「2022版人類自由指數」於1月26日釋出，共針對165國／司法管轄區、涵蓋全球逾98％人口，以10分為滿分評鑑各國自由指數。台灣拿下8.4分，排名全球第14，高居亞洲第一名，但比先前下降1名，其中個人自由高達8.98分；中國排名第152名，在非洲國家辛巴威和查德之間，其中個人自由僅4.47分。最自由的國家是瑞士，接著依序為紐西蘭、愛沙尼亞、丹麥、愛爾蘭、瑞典、冰島、芬蘭、荷蘭（尼德蘭）、盧森堡，除紐西蘭外，其餘9國均是歐洲國家。澳洲排名第11名、加拿大第13名、拉脫維亞第15名、日本第16名、英國第20名、美國第23名、南韓第30名、香港第34名、法國第42名、新加坡第44名。敬陪末座的5個國家則依序為埃及、伊朗、委內瑞拉、葉門，最後一名為敘利亞。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲高市李姓男子竊取他人機車想騎回高雄，被台南市警二分局南門所警方攔截查獲，依竊盜罪嫌送辦。（圖／記者林悅翻攝，下同）記者林悅／台南報導40歲高市李姓男子，於春節期間來台南歸仁地區訪友，1月31日準備搭乘客運返回高雄，步行途經歸仁區中山路2段時見1部機車停放路旁且鑰匙未取下，竟想騎乘機車回家，即下手行竊騎離，案經被害發現向歸仁分局報案通報機車遭竊協尋，市警二分局據報循線將他攔截查獲，全案竊盜罪嫌送辦。警方指出，二分局南門所警員吳宗懋、鄭育昇等員警當時於所內執勤，看見該失竊協尋通報，立即開啟警政系統輔助監視器過濾查詢，發現該機車竟往市區移動，於中午12時50分查知將進入中西區後，多名員警立即緊急出勤，奔赴府前路、大同路段四處搜尋，果然在大同路二段與國民路口發現李嫌騎乘該行竊得手之機車正停等紅燈，左右包夾將其攔下，並確認贓車後實施逮捕帶回調查。警方調查，李男為警查獲時，其一路往西朝台17線方向騎乘準備南下高雄，盤檢車輛物品還發現持有1只名牌之男士壓花浮雕長款錢包(COACH品牌、價值約3000元)，李男也無法具體說明來源，也由員警深入調查有無另涉其他不法案件。被害胡姓被害女子接獲員警通知前來領取遭竊機車時，直說買個午餐一時疏未取下鑰匙竟遭人騎走平日上班之代步機車，也對員警僅用1個多小時即尋獲並逮捕竊嫌之偵辦能力再三感謝稱讚，事後並於「台南大小事」等社群來發文感謝，也獲得許多民眾之正向迴響。二分局南門所員警從獲報到迅速動員，短短1小時內立即將被害人機車尋回並逮獲竊嫌，以防止其可能之再次犯案，有效保護好民眾之財產；警方同時也呼籲提醒民眾，舉凡離開汽機車時，應隨手將鑰匙取下，勿因一時之不注意或方便，為宵小有機可趁，守護好自身財產安全。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲納智捷推出最新顏色的URX Neo，並公布最新售價資訊。（圖／翻攝自納智捷，以下同。）記者徐煜展／綜合報導國產品牌納智捷Luxgen先前就預告將有調漲動作，不過從最新公開車型售價，僅有7人座的URX Neo有變動，5人座與U6 GT為了回饋支持的消費者，仍維持原售價，並趁著農曆新年春節，還為URX Neo增添討喜的「星曜灰」新車色。▲僅針對URX Neo 7人座版本小幅調漲，入門7人座仍是百萬有找。並正式推出「星曜灰」新車色。面臨原物料成本上漲，許多品牌近年來都有多次調漲動作，國產品牌納智捷先前均自行吸收成本，直到2023年才有調漲動作，去年11月底推出好評的小改款URX Neo，擁有5人座、7人座2種版本，近來公開最新車型與售價，僅有7人座版本調漲，7人樂活版漲1萬來到99.8萬、7人大生活家版調漲 2 萬來到115.9萬，入門版本還控制在百萬有找的有競爭力價格帶。趁著新年喜事，URX Neo也推出討喜的「星曜灰」新車色，在光影折射下，顯得貴氣滿滿，同時也針對2月推出最新促銷，凡於2023年2月1日（三）至2月24（五）止，入主Luxgen全車系，可享最高3萬乙式車體險優惠入主指定車款URX NEO大生活家版再享3萬好禮，包含Two-Tone歐風雙彩車色（價值15,000元）、免費升級LINK + 智聯網系統（價值15,000元），以及終身免費返廠實施臭氧殺菌服務等。▲U6 GT維持現行售價，但今年會有改款動作。同樣亦是主力的U6 GT中型休旅，維持74.8、82.8萬2款車型，並未進行調漲，用競爭價格優勢，持續進攻跨界休旅一級戰區。U6 GT今年將有改款動作，可望跟上URX Neo腳步，換上最新的家族設計語彙，不排除將強化升級ADAS等相關安全科技。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">記者沈繼昌、莊智勝／桃園報導非洲鼓女師詹慧玲去年4月在中壢後火車站被葉姓員警盤查，雙方發生口角，葉姓員警以大外割制伏詹女送辦，雙方事後互告，桃檢以雙方不起訴處分結案，詹女後聲請再議，全案發回續行偵查後，葉警遭提起公訴。今(1日)桃園地院一審結果出爐，判葉警犯公務員假借職務上之機會強制罪，處有期徒刑4月，得易科罰金；又犯公務員假借職務上之機會剝奪他人自由罪，處有期徒刑6月。桃檢指出，詹女於110年4月22日上午7時許在中壢後站街頭邊吃早點邊趕路上課途中被中壢警分局葉姓員警臨檢，當時詹質疑員警盤查合法性，一度拒絕說出相關個資，詹女與葉員對話時一句「你真的很蠢」，引起葉員不滿還以大外割拋摔，最後帶回派出所上銬扣留。雙方事後互告，桃檢偵訊後都以不起訴結案，詹慧玲律師陳孟秀事後直呼，「我們完全不能接受這樣的不起訴處分理由」。▲去年4月非洲鼓女教師詹慧玲（左）遭中壢警分局葉姓員警盤查，還以大外割制伏，詹女憤而提告。（資料照／記者沈繼昌攝）後詹女再議，台灣高檢署檢察長令發回續查，承辦檢察官重啟調查相關事證，認為葉姓員警之臨檢、盤查不符警察職權行使法之規定，非依法執行職務，仍試圖阻擋詹女離去，在告訴人無涉妨害公務犯行情形下違法逮捕，剝奪其行動自由，已涉犯公務員假借職務上之機會妨害自由罪嫌重大，檢察官依法提起公訴。今一審結果出爐，桃園地院判處葉警犯公務員假借職務上之機會強制罪，處有期徒刑4月，得易科罰金；又犯公務員假借職務上之機會剝奪他人自由罪，處有期徒刑6月。全案可上訴。詹女獲悉結果後，也在臉書PO文，「感謝庭上法官伸張正義，以及訴訟之路上相伴、相挺、支持的所有朋友！」 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲1/1 22：16 到了晚上，林芯儀（左）與Andy（右）再度出門，因林芯儀當晚在EZ5也有演出。（圖／鏡週刊）圖文／鏡週刊自《超級星光大道》選秀節目出道的林芯儀，有個交往3年的德國男友Andy，耐不住兩地相思，男友去年12月底飛越半個地球來台灣與林芯儀聚首，並一起迎接2023年的到來。本刊在跨年夜直擊林芯儀在EZ5駐唱，Andy當起護花使者陪伴見面第5次的女友，兩人的戀情靠著網交慢燉慢熬，依然濃稠得化不開。林芯儀之前赴長灘島度假，結識了德國工程師Andy，男方大她十歲，但兩人一見如故並陷入熱戀，疫情蔓延後，雙方常藉網路視訊解相思。去年12月男友終於飛來台灣，小倆口不但激情擁吻一起跨年，林芯儀還讓父母見了未來的洋女婿。[廣告]請繼續往下閱讀...▲1/1 00：39 林芯儀（前排中）與友人合照，德國男友Andy（前排左）也大方入鏡。（圖／鏡週刊）2022年12月31日晚上十點，林芯儀與Andy出現在北市安和路EZ5門口，因為林芯儀十點半登台駐唱，Andy當起小粉絲，一個小時後，她結束演出，在門口跟粉絲輪流打招呼合照，Andy也默默排隊合照。▲00：40 Andy展現紳士風度，輕輕摟著林芯儀的腰部。（圖／鏡週刊）在接近倒數的11點52分，林芯儀跟Andy及一票友人，一起到了EZ5旁邊的華廈大樓天台，欣賞101的跨年煙火秀，兩人緊摟著彼此倒數，欣賞璀璨煙火燈光秀之餘，也情不自禁喇舌，在激情中迎接2023年。▲01：03 林芯儀與旁邊兩位女性友人，似乎是在等車，要繼續續攤。（圖／鏡週刊）▲02：19 結束錢櫃續攤，林芯儀跟Andy等搭計程車。（圖／鏡週刊）當整個城市籠罩在新年的愉悅時刻，林芯儀與Andy及一票友人去錢櫃續攤，等待電梯時，Andy親密從林芯儀身後環抱，完全沉浸在充滿粉紅泡泡的兩人世界。錢櫃歡唱了一個小時後，林芯儀才和Andy及一名女性友人離開錢櫃，攔車返回南港租屋處，進家門前，三人先到超商購物，只見男方抱著一手台啤，林芯儀貼心的幫男友撐傘，也伸出另外一隻手摟著男友的肩膀，一起回家。▲02：50 回家前，Andy與林芯儀先到超商購物，Andy抱著一手台啤出來。（圖／鏡週刊）▲02：52 林芯儀貼心幫Andy撐傘，還摟著男友的肩膀。（圖／鏡週刊）★《鏡週刊》關心您：未滿18歲禁止飲酒，飲酒過量害人害己，酒後不開車，安全有保障。【更多鏡週刊報導】【準洋婿見爸媽1】林芯儀帶洋男友快閃老家　「準女婿」現學現賣中文媽媽讚可靠【準洋婿見爸媽2】見面3次就交往！一見鍾情林芯儀　洋男友認了巧遇藏心機【準洋婿見爸媽3】 捨不得！早認定他是另一半　林芯儀幫洋男友收行李大哭 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲中國宣布今起對南韓入境旅客，一律實施落地核酸檢測。（示意圖／路透）記者張靖榕／綜合報導中國政府今（1日）起對南韓搭機入境旅客實施COVID-19落地核酸檢測，若驗出陽性立即送隔離。韓媒指稱，這是報復南韓延長停發中國旅客短期簽證所採取的措施。綜合韓媒報導，中國民航局上月31日向中韓航線的兩國航空公司發出通知，今起從南韓搭乘直航航班入境中國的旅客，落地後一律須接受COVID-19核酸檢測，篩檢結果若呈陽性，必須接受居家、居所隔離或住院隔離。南韓駐中大使館也在官網公告，已接獲中國政府通知。南韓外交部一名官員表示，南韓政府堅持除防疫以外的其他因素，不得影響從南韓入境中國的旅客。南韓政府基於保護公民的理由，以科學為依據採取防疫措施，現在韓方正與中方進行必要的溝通。由於中國去年底放棄清零政策，新冠疫情大爆發，南韓政府宣布從1月2日起暫停簽發中國公民赴韓短期簽證，並要求登機前須提供陰性篩檢證明，入境也須接受核酸檢測。之後中國政府就在1月10日起停發南韓公民赴中短期簽證，隔日進一步暫停南韓入境中國旅客「72／144小時過境免簽政策」。南韓1月27日宣布延長暫停簽發中國公民赴韓短期簽證措施至2月28日，中方就於1月31日宣布對南韓入境中國旅客實施落地採檢，以此作為報復南韓的措施。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">記者蔡文淵、莊智勝／苗栗報導苗栗一名婦人大年初二(1月23日)牽著2隻狗外出散步，不料卻就此離奇失聯，家屬苦尋8天，終於在昨(1月31日)深夜收到警方通知，於離家約2公里外的池塘內尋獲，已經明顯死亡。詳細原因還有待檢警相驗釐清。▲苗栗婦大年初二遛狗，失蹤8天溺斃八甲池塘中。（圖／記者蔡文淵翻攝）婦人女兒表示，媽媽初二當天出門遛狗，就此失蹤未歸，直到昨深夜11點多才接到警方電話，告知在苗栗市八甲池塘尋獲母親遺體。女兒說，當時媽媽最後消失的地點就在池塘附近，但找來找去一直找不到，最後又繞回去，才終於才池塘中發現。女兒說，以媽媽的個性不至於尋短，就算有什麼困難，也會先跟家人溝通，不會這樣無預警想不開，況且當天下午、以及初三初四媽媽都與朋友有相約聚會，可以排除輕生可能。家屬研判，池塘的另一頭有遺落媽媽的手套，且周邊也有掙扎想爬上來的痕跡，猜測可能是東西不慎掉進池塘，媽媽下去撿拾結果不慎滑倒、摔進池中，才會釀成憾事。但詳細事發原因為何，還有待進一步相驗釐清。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲3星座、4生肖把握好運。（圖／資料照）記者陳俊宏／綜合報導好兆頭！塔羅牌老師艾菲爾分享農曆年後，3星座「魔羯座、雙子座、處女座」，以及4生肖「虎、猴、蛇、豬」霉運遠離。農曆年後【霉運遠離】星座[廣告]請繼續往下閱讀...第三名：處女座水逆期間，應該有不少處女座小伙伴陷入愛情危機，請安心，警報已解除，隨著水星順行戀愛宮，加上金星即將進入你的夫妻宮，你的正緣桃花即將大開。身邊已經有穩定交往的對象，請好好為感情增溫，偶爾給對方一點小驚喜，讓他覺得被愛、被在乎，那麼你就離結婚禮堂不遠了。第二名：雙子座水逆期間虧損連連的雙子，你將迎來財富滿缽，因為你從中學習到了更多新的知識，有了貴人的指導，你的投資眼光也更加精準。若是還沒接觸投資方面的人，也可向值得信賴的長輩、朋友等取經，相互學習。第一名：魔羯座水星在你的命宮恢復順行，你將發現關關難過關關過，之前陷入瓶頸的事情也都有了解套的方法。另外，再也沒人說你多管閒事，因為現在他們已經嚐到苦頭，也知道你當初的用心良苦。這對你的人脈拓展非常有幫助，因為被你指點過，或是被你幫過忙的人，都會報著感恩的心來向你道謝，並且在未來的道路上，都會與你並肩作戰，成為絕佳夥伴。農曆年後【霉運遠離】生肖第四名：生肖豬豬寶寶在2022年的生活、工作事業、感情生活上，遭受到不小程度的破壞，甚至是為家人花費為數不小的金錢，各方面的影響讓你欲振乏力。今年這些壞事都將離你遠遠的，你平常人緣也還不錯，所以請求別人協助的時候，親友們都會毫不保留助你一臂之力。工作方面，只要你肯做、肯努力，一分耕耘就能獲得一分收穫，不要急著想一步登天。今年適合穩紮穩打，先求順利再求完美，好好把握這波好運，堅持下去就能成功。第三名：生肖蛇蛇寶寶在2022年中，十分容易因為一點小事跟別人起口角，在失去理智的情況下，引來合約訴訟、官非問題這些狀況。而今年開始，這些令你焦躁煩悶的事都會被風吹走。今年終於能逃開是非紛爭，心情感受上將是相對平靜一年，這有益於全力衝刺在事業上。由於事業緣故，會常有機會出差、到處走動，甚至是搬遷到異地久居一段時間，整體名聲有望提升，隨後也會為自己的荷包帶來錢財。第二名：生肖猴猴寶寶在2022年走在一條職場小人遍布的荊棘路上，空有一身才能卻處處受打壓，根本無暇顧及生活裡其他方面的狀況。而今年開始你能加速擺脫這些陰霾，你的貴人很多，每每遇到困難的時候，都會有貴人來協助你化解，尤其在事業及感情上最明顯。今年想自行創業，打造自己的品牌是非常適合的，在貴人的幫助下少走一點歪路，也能省下不少不必要的開支，讓你事半功倍。希望你成功後也不要忘了多提攜後輩，多做善事、多說好話來耕織福田，幫助需要幫助的人，會使好運能量更加放大。第一名：生肖虎虎寶寶2022年一整年都處在低氣壓中，在事業、財運及健康方面有大幅程度的影響，處在諸事不順的情況之下，一肚子怨氣無處發洩，而今年開始你能由黑翻紅了。今年你的人緣桃花大好，有助於事業及財運發展，只要好好把握人際關係上的拿捏，多出入可以結識人脈的場合聚會，有助於事業發展的大好年。對於單身虎也特別適合發展新的戀情，是個能享受愛情甜蜜感的一年。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲高國豪回憶當年「林來瘋」時期存錢買林書豪代言球鞋往事。（圖／PLG提供）記者杜奕君／綜合報導開春台灣籃壇最震撼消息，莫過於林書豪宣告加入PLG職籃高雄17直播鋼鐵人，而身為新竹街口攻城獅當家看板球星的高國豪，即便目前因傷高掛免戰牌，但仍透露國中時期身為「豪粉」，並存了3000元買林書豪代言鞋款打球之回憶，喊話相當期待雙豪大對決！11年前「林來瘋」席捲全球，在NBA爆紅成為焦點人物的林書豪，自然也是當時還是國中生的高國豪心中相當敬佩之偶像，高國豪就透露自己當時還存了3000元，希望穿著和林書豪同款的代言鞋款上場打球。[廣告]請繼續往下閱讀...隨後高國豪也有了和林書豪同場訓練機會，在2018年與吳永盛、林庭謙等人一同和林書豪訓練，高國豪透露，「當時林書豪雖然受傷，但仍細心指導他們，成為自己很棒的回憶。」對於林書豪加盟PLG職籃，高國豪表示，「很期待和林書豪在場上過招，畢竟林書豪在NBA有過很不容易的成就，但兩人真的交手自己也不會刻意求表現，就以平常心應戰。」目前高國豪左膝、左腳都面臨傷勢，必須休兵高掛免戰牌3周，目前林書豪返台時間及正式上場日期雖未確定，但攻城獅將於2月25日在主場迎戰鋼鐵人，3月11日也將前進鋼鐵人主場踢館。▲林書豪日前宣佈加盟PLG職籃高雄鋼鐵人。（圖／取自林書豪IG） </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲立法院新會期委員報到。（圖／記者陳煥丞攝）記者杜冠霖／台北報導今（1日）是立院第十屆第七會期報到日，國民黨立委洪孟楷5點15分就到場、搶下「頭香三連霸」、民眾黨立委邱臣遠排第二、第三位抵達的則是甫遞補不分區的民進黨新科立委陳靜敏，陳靜敏表示，作為「資深新人」，自己6點15分就到立院報到，結果居然沒搶到頭香，可見立院同仁有多認真。第七會期今日報到，還不到7點就有7名立委在會議室外面等候，前十順位分別為洪孟楷、邱臣遠、陳靜敏，接著是國民黨立委游毓蘭、時代力量立委陳椒華、過去為頭香常客的民進黨立委陳歐珀、國民黨立委陳玉珍、民進黨立委鍾佳濱、民進黨立委郭國文以及民眾黨立委陳琬惠。游毓蘭受訪時口誤稱自己舊名葉毓蘭，她打趣表示，今天是游毓蘭第一次報到，希望就治安跟交通方面做最後兩個會期的衝刺。陳玉珍則指出，自己是第七會期排名幸運數字七，希望未來台海和平、新閣揆上任後也要特別注意金門地區的發展。陳靜敏則指出，為了高調讓媒體知道護理人重磅回歸，自己特別身著護師服，自備「健全國會需要護理人、護理更需國會代言人」的手板報到。陳靜敏指出，因為我國執業護理師逾19萬人，比保家衛國的國軍編制還多，提供每位民眾從出生到死亡的護理服務，因此不論是少子女化對策、托養、勞工健康福利到老人安養照顧、社會福利服務的弱勢照顧、健保改革、健全長照體系，都應有護理角度的政策建言，讓這些政策更接地氣。▲立法院開議日立委報到。（圖／記者屠惠剛攝） </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲「2023台灣燈會在台北」賞燈攻略，圖為光展區-光兔現蹤。（圖／觀傳局提供，以下皆同）記者彭懷玉／台北報導「2023台灣燈會在台北」賞燈攻略來了！本次一共分為四大展區，其中橫跨東區商圈及信義商圈的「光、源、未來」三大區，搶先於今（1）日起試營運。對此，觀傳局整理出三條「逛燈路線」，2月5日至19日期間，搭捷運跟著攻略走，沿途踩點絢麗燈飾。▲遠東SOGO百貨於復興館前展出的12公尺高巨型作品「未來·穿梭·兔子洞」。 +東區商圈「光展區」_x000D_第一條推薦路線為東區商圈的「光展區」，搭捷運板南線至「忠孝復興」、「忠孝敦化」及「國父紀念館」站下車，沿著忠孝東路可欣賞許多大型兔兔造型燈飾，包含遠東SOGO百貨於復興館前展出的12公尺高巨型作品「未來·穿梭·兔子洞」；忠孝館則有大型兔子造型充氣裝置「Hi Hide」。此外，捷運國父紀念館站1號出口上方，則有國際藝術家大岩奧斯卡的「光兔現蹤」，漂浮著向民眾打招呼。▲▼忠孝館則有大型兔子造型充氣裝置「Hi Hide」；咖啡廳「ODD ONE OUT」，也有一隻可愛的美食怪獸漂浮空中。_x000D_觀傳局進一步說，穿梭東區巷弄間，還能看到專業團隊媒合店家與藝術家，設置的43件「藝術入店」，將東區變身大型開放式藝廊。參展店家包含加拿大藝術家Liam Morgan於「boven雜誌圖書館」，以繁榮的夜間色彩及人工照明技術發想，懸掛大型動態燈光裝置「Ngan Wat：Taipei」；而東區咖啡廳「ODD ONE OUT」，也有一隻可愛的美食怪獸漂浮空中。▲走進巴洛克花園，就能欣賞長寬達15公尺的巨型火塘「和祖靈對話的路徑」。（圖／北市政府原住民族事務委員會提供）_x000D_松山文創園區「源展區」_x000D_第二條路線前進座落松山文創園區的「源展區」，共展出超過20件新住民、客家及原住民族燈飾作品。觀傳局推薦，在園區自由走逛原有市集、文創商店外，走進巴洛克花園，就能欣賞長寬達15公尺的巨型火塘「和祖靈對話的路徑」，搭配金曲級專屬主題音樂，燈會期間每日17:15開始、每半小時展演一次，帶給民眾沈浸式類劇場聲光展演；紙雕藝術家成若涵製作的「種下台北味道」透過餐桌意象，表現味道與菜餚對土地文化的重要性，長達12公尺環繞大樹的鐵雕餐桌作品，象徵新住民與台北的共融及圓滿。▲生態池上則有「島上的女人樹」。（圖／記者彭懷玉攝）_x000D_漫步到生態景觀池，可看到「島上的女人樹」，由藝術家周明誼以台灣客籍女詩人杜潘芳格的〈相思樹〉為構想設計，湖畔上能看到一位詩人正思考創作，並有片片星花漂浮湖面相輝映；一旁還有作品「都市裡的印花布」，藝術家黃偉豪借鑑客家詩歌詞，將帶有文化意義與生活體驗的花紋、剪紙紋飾轉化成印花布光影。▲松菸文化廣場上還有近3層樓高、會說故事的大型副燈作品「臺北兔給樂 Taipei Together」。觀傳局說明，松菸文化廣場上還有近3層樓高、會說故事的大型副燈作品「臺北兔給樂 Taipei Together」，以「會說故事的燈飾作品」為發想，如同一個驚喜禮物盒，四面皆為巨型LED立體影像裝置，外觀的裸視3D影像；此外，作品也設計了專屬AR濾鏡，進入「臺北通APP」的AR功能，或掃描「IG濾鏡」QR code，可看到主角兔子揮手打招呼。▲信義威秀與微風南山間，會看見如大型太空船的「重新啟動」，讓民眾走進「太空艙」。_x000D_「未來展區」信義商圈_x000D_第三條路線「未來展區」，民眾可沿著威秀徒步區、南山長條廣場至101水舞廣場步行觀賞。觀傳局表示，展區內不僅有地標建築台北101，台北市政府的共演光雕秀將重磅呈現5分鐘精彩光雕，透過聲光效果轉折，刻劃出台北城市的心情及變化，將自今（1日）啟動，每日展演時間17:15-21:45，每半小時展演一次。▲忠信廣場上6公尺的「光能使者」則由西班牙設計兄弟檔BROSMIND設計，外觀是宇宙使者帶著寵物到達地球。_x000D_觀傳局介紹，信義威秀與微風南山間，會看見如大型太空船的「重新啟動」，讓民眾走進「太空艙」，便像穿越異世界，飽覽光影變化及影像的3分鐘視聽饗宴；作品外部LED螢幕則運用行動式5G傳輸科技，像一座任意門，引導民眾跟著直播主遊走四大展區。此外，位於信義威秀旁、結合AR技術的「光之輪」，民眾可用智慧型手機掃描光標籤，進入一個奇異花草與水母、超萌動物的魔幻世界；忠信廣場上6公尺的「光能使者」則由西班牙設計兄弟檔BROSMIND設計，外觀是宇宙使者帶著寵物到達地球，周圍環繞8台腳踏車，民眾踩踏後即可透過車上串接裝置，將產生的動力轉化為燈光變化訊號，充滿互動感。▲位於信義威秀旁、結合AR技術的「光之輪」，民眾可用智慧型手機掃描光標籤，進入一個奇異花草與水母、超萌動物的魔幻世界。觀傳局呼籲，本次燈會展區周邊大眾運輸便捷，民眾可透過107線公車、3條捷運路線（板南、淡水信義及文湖線）、5個捷運車站（國父紀念館站、市政府站、台北101/世貿站、忠孝敦化站、忠孝復興站），以及2線專用接駁車（燈會1號線為展區巡迴接駁，燈會2號線為松山車站至展區）尖峰5-10分鐘一班的密集服務，即可輕鬆抵達展區，漫步在燈飾作品間。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#記者が現場から_x000D_／#WBC へ準備着々_x000D_＼#ロッテ の #佐々木朗希 投手_x000D_キャンプインを前に_x000D_WBCの使用球を使って_x000D_キャッチボールを行いました_x000D_ときおり滑り止めをつけながら_x000D_終盤は力強いボールを_x000D_投げ込んでいました_x000D_野球の情報はこちら↓https://t.co/KOz0SFp4Bc pic.twitter.com/pm0BKmCBzs_x000D_— NHKベースボール (@nhk_baseball) January 31, 2023 記者賴冠文／綜合報導日職羅德隊「令和怪物」佐佐木朗希昨日拿到WBC比賽用球，自主訓練投113顆傳接球，接受日媒訪問時，他露出自信笑容，表達已逐漸習慣WBC比賽用球。佐佐木朗希日前備戰3月WBC經典賽，在沖繩的春訓基地進行自主訓練，利用WBC比賽用球進行113個傳接球，最後在投手丘上以實戰姿勢，丟出類似真實比賽的強勁球路。佐佐木朗希目前還處於傳接球階段，並未實戰，從他丟球神情看來，沒有絲毫的不適應，而他接受媒體訪問時，更展露自信笑容，日媒以標題「已經適應WBC用球了？」來形容佐佐木朗希調整十分順利。[廣告]請繼續往下閱讀...根據日媒報導，WBC用球是大聯盟官方比賽球，比日職比賽用球更滑，這也是佐佐木朗希在練投時，頻繁使用止滑粉的原因之一。▲佐佐木朗希。（圖／截自侍JAPAN官網） </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲詹皓晴首配吳芳嫺，泰國華欣女雙晉級8強。（圖／詹皓晴提供）記者杜奕君／綜合報導台灣女雙好手詹皓晴生涯首度與吳芳嫺搭擋出擊，就在WTA250等級的泰國華新女網賽傳出捷報！雙姝在對上中國王曦雨、紐西蘭魯特莉芙(Erin Routliffe)雙打之戰以6比1、7比5勝出，兩名台灣女將攜手挺進本屆賽事8強。本周世界女雙排名在第35位的詹皓晴，與世界第146位的吳芳嫺首度搭擋，兩人在首盤第4、6局兩度破發，氣勢大振連下5局拿下首盤。[廣告]請繼續往下閱讀...次盤詹皓晴、吳芳嫺再度於第3局破發，雖被對手追成3比3平手，隨後賽事呈現拉鋸，但詹吳配在關鍵第12局保發，最終直落2，耗時1小時又14分鐘搶下晉級8強門票。另外在女單部分，從會外賽連搶兩關的台灣「小鋼炮」梁恩碩，會內賽首戰來自烏克蘭的大會第5種子柯絲提雅克(Marta Kostyuk)，最終梁恩碩苦戰3盤以7比6(9比7)、3比6、0比6遭到逆轉無緣晉級。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲牛肉麵的湯鈉含量過高，淺嚐即可。（圖／Unsplash，以下同）記者曾怡嘉／綜合報導逛夜市怎麼不吃點小吃？但是一攤接著一攤，管不住嘴的下場就是脂肪通通堆積上身，營養師高敏敏公開夜市小吃熱量圖鑑，原來牛肉麵熱量超高，豬血糕、營養三明治全都是發胖陷阱，吃之前先搞懂熱量，學會聰明吃才能讓身材不走樣。#牛肉麵牛肉麵看似無害，但熱量卻是逼近千卡，營養師高敏敏建議，想吃牛肉麵可改選清燉湯頭、牛腱肉、粗麵條組合，因為紅燒湯頭會添加豆瓣醬，這就是熱量來源，而牛腱肉油脂較少，是熱量較低的部位；粗麵條是因為體積較大，吸附的湯汁也會比較少。#臭豆腐豆腐是好的蛋白質，但是炸的臭豆腐熱量就翻倍跳，若是再把泡菜都塞到臭豆腐裡面一起吃，小心鈉含量直接破表，隔天水腫再加2公斤。#玉米、豬血糕、米糕、米粉夜市小吃處處是澱粉陷阱，像是玉米、豬血糕、米糕、米粉，就連肉圓的皮都是，還有勾芡的麵線和羹類，若有吃上述飲食，就要減少飯量，營養師提醒，尤其是血糖高的人更要避免這樣的澱粉來源。#營養三明治很多人愛吃的營養三明治的熱量也很高，主要是因為麵包是用炸的，再搭配厚厚的美乃滋，絕對是要注意的隱藏版高油脂食物。#鹽酥雞外層裹了一層粉，又放入鍋中油炸，所以熱量才會層層往上堆疊，食物熱量可以比原食材多2-5倍。#糖葫蘆糖葫蘆的熱量乍看不高，但是吃了這種包著糖衣的水果，建議就不要再喝含糖飲料，小心一天糖分攝取量會過高。夜市小吃熱量圖鑑牛肉麵(一碗) 870Kcal涼麵(一盤) 653Kcal珍珠奶茶(一杯) 650Kcal鹽酥雞(一份) 600Kcal營養三明治(一份) 585Kcal大腸包小腸(一份) 582Kcal臭豆腐(一盤) 565Kcal蚵仔煎(一盤) 516Kcal米糕油飯(一碗) 515Kcal炒米粉(一盤) 510Kcal滷肉飯(一碗) 500Kcal什錦炒麵(一盤) 500Kcal麵線(一碗) 415Kcal肉羹湯(一碗) 370Kcal肉圓(一顆) (324Kcal花生粉豬血糕(一支) 321Kcal烤玉米(一支) 315Kcal碳烤香腸(一根) 295Kcal潤餅(一條) 225Kcal蕃茄蜜餞糖葫蘆 (一支) 100 Kcal_x000D_  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲Mazda帶來全新的CX-90休旅，未來可能取代現行CX-9地位。（圖／翻攝自Mazda，以下同。）記者徐煜展／綜合報導歷經多次預告，Mazda終於發表全新的CX-90休旅，作為旗艦頂級代表，CX-90承襲先前CX-60諸多新元素，採用後驅平台，賦予相當貴氣的質感打造，並提供3.3升6缸引擎、2.5升PHEV動力，要來搶攻3排7人座休旅市場。隨著台灣Mazda已有CX-60導入規劃，這輛旗艦全新的CX-90休旅，未來有相當大的機會與台灣車迷相見。▲CX-90採用先前CX-60出現的全新設計語彙，彷彿看起來有CX-60放大版的錯覺。繼CX-60之後，CX-90同樣作為Mazda進攻豪華級距的武器之一，外型採用肌理感十足的線條設計，揉合Mazda精細的造車美學，讓CX-90這位高個兒看起來一點都不呆板，反而給人不錯的豪華、精緻感，車身尺碼尚未公布，但未來應會取代現行的CX-9地位。▲CX-90採用後驅平台打造，並標配車身平衡控制技術 (Kinematic Posture Control)。CX-90、CX-60採用Kodo-Soul 家族化設計風格，不過CX-90在水箱護罩面積特別放大，內部採用直舖市造型，並賦予21吋鋁圈，讓視覺氣勢變得更好。車尾設計中規中矩，採用隱藏式排氣管，下方加入鍍鉻飾條點綴。▲車內與CX-60風格相近，不過多了3排7人或8人座設定。車艙風格與CX-60差不多，內裝奢華、精美都是Mazda主打強項，採用高級的皮革鋪陳，座椅設定有3排7人或8人座，與全數位儀錶與12.3吋多媒體螢幕搭配，科技感符合現在流行趨勢，並具備Level 2等級半自動駕駛輔助科技。▲提供雙動力選擇。動力選擇上，同樣來自CX-60，全車系採用8速手自排變速箱，採用3.3升e-Skyactiv Turbo 6缸引擎，結合48V輕油電，擁有360匹/51公斤米最大動力，該輸出成為Mazda目前旗下最強大引擎；另還有2.5升四缸引擎，結合電動馬達的PHEV動力，配合17.8kWh 電池模組，綜效馬力來到323匹。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲ROSÉ備受Tiffany寵愛，收到最新Tiffany Lock 18K玫瑰金與白金鑲鑽耳環立刻戴上。（圖／翻攝roses_are_rosie IG）記者陳雅韻／台北報導南韓夯團BLACKPINK魅力橫掃全球、行程滿檔，日前4位團員短暫快閃巴黎，ROSÉ開心分享她的穿搭與驚喜，原來推開飯店房門，映入眼簾的是她代言的美國珠寶品牌Tiffany &amp; Co.貼心送上的禮物，包括一對最新的Tiffany Lock耳環與2款可愛的小牛皮心型提包，總值超過41萬元，讓她立刻開心戴耳環上自拍。▲Tiffany Lock 18K玫瑰金與白金鑲鑽耳環，296,000元。（圖／翻攝roses_are_rosie IG）Tiffany從掛鎖獲得啟發的Tiffany Lock系列珠寶，形象照女主角正是代言人ROSÉ，不過女人的珠寶收藏永遠不嫌多，受寵的她再把296,000元的Tiffany Lock 18K玫瑰金與白金鑲鑽耳環納為收藏，同時收到黑色與Tiffany藍的小牛皮心型包，過往Tiffany手袋在台灣市場較少見，但這兩款包有機會在台灣購入了。▲ROSÉ還收到Tiffany黑色與Tiffany藍小牛皮心型提包，單個60,000元。（圖／翻攝roses_are_rosie IG）ROSÉ不僅是Tiffany代言人，也是法國時裝品牌SAINT LAURENT大使，她在巴黎出席活動時穿一襲帥氣SAINT LAURENT黑色褲裝，與她兒時的偶像—退役的瑞士網球巨星費德勒（Roger Federer）相見歡，她罕見露出靦腆微笑，而費德勒則在IG分享與BLACKPINK團員同框照，笑說：「我孩子說這張照一定要po在IG上。」▲ROSÉ一身SAINT LAURENT勁裝，與兒時偶像費德勒相見歡。（圖／翻攝roses_are_rosie IG） </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲NISSAN TIIDA J時尚有型、空間大，搭載先進的安全科技。（圖／記者黃克翔攝，以下同。）事業、家庭都得意的小蠻（王承嫣），是不少傾羨、憧憬婚姻的幸福人生代表，作為一輛稱職的家庭代步用車，小蠻對NISSAN TIIDA J特別有感情，在迎來兒子「至尊寶」後，滿懷對家人的愛，NISSAN TIIDA J不僅有著出色的魔術大空間，並具備水準的安全防護科技與配備，能靈活穿梭大街小巷又安全的TIIDA J擄獲小蠻的心！▲NISSAN TIIDA J外型、空間、安全都加分，是不少年輕、家庭首購族選擇。與交往7年的邵翔結婚，住家選在寸土寸金的台北都市，備受眾人羨慕的婚姻、事業兩得意的小蠻，實際了解到小蠻的日常生活一天，工作排程時常南來北往，閒暇之餘，日常還得負責採買、與家人、小孩家族旅行，小蠻提到有一輛大空間、能靈活穿梭大街小巷又安全的車非常重要！▲NISSAN TIIDA J外型動感，車身多處更是搭配質感出色的鋼琴烤漆，豐富不少視覺層次感。懂得享受生活的小蠻，自是有一套的對於時尚美的見解，NISSAN TIIDA J年輕、有型動感，有著靈活穿梭擁擠台北鬧區的輕盈體格，其品牌象徵性的V-Motion家族水箱護罩，透過質感優異的鑽石切割黑色烤漆妝點，在光影折射下閃閃動人、貴氣討喜，更搭載雙色切削造型鋁圈，都是時下年輕族群喜愛的元素，讓整個城市都是我的時裝台。▲內在美魔術大空間NISSAN TIIDA J，滿載一家大小出遊，空間舒適很夠用！回想起辛苦的育兒過程，對兒子「至尊寶」濃濃的愛意，小蠻更是想給予全家人最好的呵護，有魔術大空間美名的NISSAN TIIDA J自然吸引小蠻的目光！不僅具有國產車同級最大膝部空間與最大有效車室長度，前後座都寬敞的特點，讓手長腳長的她和先生都能舒服乘坐，後座裝上嬰兒用椅空間也很夠！▲具備日系車細膩、體貼的造車堅持，NISSAN TIIDA J車艙座椅特別講究，紓壓設計讓人瞬間忘了疲憊和煩惱。NISSAN強項的車艙座椅，當然在NISSAN TIIDA J沒有缺席，雙色座椅視覺不僅賞心悅目，觸覺更是有同級上乘水準，每一處都能體會到日系向來令人稱讚的貼心風格，車內大空間裡雙色的配備和座艙也凸顯了時尚質感，3D紓壓椅的柔軟乘坐感就像一套舒適大沙發！小蠻笑說「能在寸土寸金的都市裡，獨享這麼高質感的大空間，載著一家出遊時，真的會忘卻所有煩惱和疲憊！▲時下年輕人最流行的Apple CarPlay手機連結，提供便利的地圖導航與豐富的娛樂互動功能。NISSAN TIIDA J具備年輕人喜愛的Apple CarPlay、Android Auto手機連結互動，這對小蠻夫婦使用的（iOS or Android系統）是一大福音，在忙碌奔波的工作邀約，有了Apple CarPlay、Android Auto手機連結，帶來便利的地圖導航，讓駕駛能專注於道路駕駛，在人手一機的3C時代，汽車智慧型手機連結已是趨勢，NISSAN TIIDA J還豐富不少車內互動娛樂，夫婦兩人各自有想去的點、想聽的歌都可以快速無痛轉換，將兩人的「神隊友」搭擋精神發揮得一覽無遺！▲NISSAN TIIDA J完整的安全輔助科技，成為全家大小的外出守護神。邁入婚姻、家庭的小蠻，為了守護全家大小，對車輛的安全性更是有著嚴苛高標準，TIIDA J搭載同級車罕見的AVM 360度環景影像監控，對於新手駕駛是一大福音，能清楚傳達車身周圍影像減少駕駛視線死角，透過四向廣角鏡頭，馬上就能掌握到車外狀況，再加上行車BSW盲點警示系統輔助，行進間透過車內左右邊的警示功能，能聰慧的感知到左右來車，在這些科技配備的輔助下，讓小蠻在擁擠的台北鬧區中，使用起來相當放心，甚至在找到珍貴小停車格時，完美一次就成功停好車！對女性駕駛來說都是非常貼心又實用的配備。▲NISSAN TIIDA J省油、省稅金，靈活操控提高駕駛開車自信。_x000D_NISSAN TIIDA J是不少首購族購車名單之一，除了外型、空間、安全都得分外，當然省油省稅金更是台灣消費者重視項目，NISSAN TIIDA J採用經濟節能的小排氣1.6升引擎，搭配優化的CVT變速箱，動力輕快、隨傳隨到，靈敏的油門回饋，加上靈活的操控反應，新手或女性駕駛瞬間就能摸熟它的好好脾氣，車輛與人溝通互動良好，提高駕駛的信心。親自駕駛NISSAN TIIDA J後，小蠻說比她原本預期的滿意值更高！_x000D_印象最深刻的是前後座位的空間非常大！不僅自己開起來很舒服，工作若需要在車內換鞋、更衣，寬敞空間也很方便，若家人出遊，長途旅行需要換手駕駛，讓手長腳長的先生開也完全沒問題。小蠻也非常驚艷車內的雙色配備，TIIDA J完全符合都市女性不僅追求舒適、安全，也希望開的車造型要時尚好看的需求！採訪日當天開在很有氛圍的民生社區裡，開起來美得就像幅畫！她也提到接下來會帶孩子跟先生到更多不同景點踩點，為親子生活留下滿滿回憶，TIIDA J配備的NISSAN智行安全系統，讓她每次出遊、上路工作，都更安心也放心！更奠定了「NISSAN TIIDA J是都會女性、新婚夫妻的首選車款」口碑！ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲周六補班日水氣最多。（圖／資料照／記者黃克翔攝）記者陳俊宏／台北報導晚起變天，周六「立春」下最大！天氣風險公司天氣分析師李至晟表示，今天（1日）晚間東北季風增強，一直影響到周末；周六補班日時有華南雲雨帶通過，除了迎風面以外，中北部各地也都有持續性的降雨發生。李至晟指出，這波寒流雖然從連假收假日就開始減弱，但因大氣持續偏乾，有利夜間輻射冷卻，今晨全台近山空曠地區還是有短暫低溫，尤其是竹苗一帶，以苗栗頭屋的5.7度最低。[廣告]請繼續往下閱讀...李至晟說，比較好的消息是今天可望繼續回暖，環境轉東南風後將帶來較暖的空氣，北部市區或內陸也有機會來到25度左右，中南部大約25-28度，內陸接近30度。▲▼今雨區預報圖。（圖／氣象局）李至晟提到，這樣的天氣會在今晚東北季風增強後迎來改變，首先是基隆北海岸、東半部迎風面地區將轉為陰有雨的天氣；這波東北季風後方的冷空氣不強，北部也因會風速增強加上雲量變多，使得輻射冷卻的條件轉差，周四清晨低溫可望反而回升到14-16度，白天高溫則下降到17-19度。李至晟分析，這波東北季風會一直影響到周末，而且值得留意的是，預計在周六補班日時有華南雲雨帶通過，除了迎風面以外，中北部各地也都有持續性的降雨發生，就連南部山區也可能因為地形舉升攔截水氣有微弱雨勢，只有南部平地比較穩定，但也是多雲到陰的天氣。李至晟表示，幸好這波雲雨帶來得快，去得也快，周日元宵節白天降雨就會減少，天氣也迅速轉變，到晚間西半部恢復多雲，同時東北季風也減弱進入空檔，各地氣溫再度回升。李至晟指出，不過，目前看來後續會有東北季風頻繁、但短暫南下，下一波將在下周二，這樣天氣系統快速交替變化，有開始進入春天的感覺，也讓後面的預報變動度增高，大家未來可要多留意最新的天氣預報。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲巴西前第一夫人蜜雪兒回巴西準備從政。（圖／路透）文／中央社記者唐雅陵聖保羅31日專電巴西前總統波索納洛已向美國當局申請旅遊簽證，以便在美國再停留6個月。同時，波索納洛的妻子、前第一夫人蜜雪兒上週回到巴西，準備在政壇大展拳腳。波索納洛（Jair Bolsonaro）的律師亞歷山大（Felipe Alexandre）今天證實英國金融時報（Financial Times）昨天刊登有關波索納洛申請簽證的消息。亞歷山大向巴西媒體表示，波索納洛一生中34年致力於公共服務，現在想休息一下，清醒頭腦，在美國當幾個月的遊客，然後再決定下一步行動。亞歷山大是美國移民律師事務所AG Immigration律師。他表示，美國移民局1月27日收到波索納洛申請更改簽證。B1/B2旅遊簽證將允許波索納洛再停留美國6個月，等待美國審核他的簽證申請期間，波索納洛將留在美國。波索納洛去年12月30日卸任前兩天、以巴西總統身分持外交簽證A-1入境美國佛羅里達州，未在今年元旦將總統綬帶移交給新任總統魯拉（Luiz Inácio Lula da Silva）。此後，波索納洛的處境變得更加複雜。除了卸任前已面臨對抗COVID-19（2019冠狀病毒疾病）領導不力的調查外，波索納洛也因可能在1月8日煽動支持者在首都巴西利亞叛亂，以及他的政府對亞諾馬米（yanomami）原住民族的可能疏忽而受到調查。波索納洛否認參與攻擊三權機關，他說這只是示威者「過火」的舉動；關於亞諾馬米原住民族嚴重營養不良的投訴，則是「左翼的鬧劇」。波索納洛留在美國引起美國國會民主黨議員的不滿。兩周前，數十位美國民主黨國會議員致函美國總統拜登，要求美國政府不要讓波索納洛將美國當成「避難所」。德州民主黨眾議員卡斯楚（Joaquin Castro）認為美國當局應駁回波索納洛申請更改簽證，表示波索納洛是「危險人物，不應獲准留在美國。」波索納洛的兒子、巴西參議員福拉畢歐（Flávio Bolsonaro）上周末表示，波索納洛可能「明天、6個月後或永不回巴西。」與此同時，波索納洛的妻子、前第一夫人蜜雪兒（Michelle Bolsonaro）上週悄悄回到巴西，積極準備在政壇大展拳腳。蜜雪兒和波索納洛所屬的自由黨邀請她領導政黨婦女團隊，蜜雪兒將接受從政訓練，並從2月起在中央黨部領薪辦公，薪水相當於一名眾議員（巴西幣3.92萬元，約新台幣23.64萬元）。自由黨也計劃給付波索納洛相同金額的月薪，前提是他必須返回巴西。自由黨中央黨部主席尼托（Valdemar Costa Neto）接受美國有線電視新聞網巴西頻道（CNN Brasil）訪問說，蜜雪兒是自由黨在2026年總統競選的候選人替代人選。為此，蜜雪兒需要減少宗教性質演說，結合廣泛的內容，觸及社會各界。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">記者張筱涵／綜合報導演員林雨葶1月30日喜宣布女兒出生，整整休息了2天才恢復體力，更深刻感受到所有媽媽的偉大，開心地讓寶寶趴在自己胸上露出溫柔笑容：「很開心妳來找我當妳媽媽，歡迎妳來到這個世界。」▲林雨葶順產寶貝女兒。（圖／翻攝自Instagram／ashlly517）林雨葶1月30日開心透露女兒已經健康來到這世界上，休息2天才有力氣發文報喜，慶幸的是生產當天並沒有痛非常久：「一切順利到不可思議～經歷了魔幻時刻11個小時！」女兒一出生就有超深的雙眼皮，趴在媽媽身上還在探索這個世界，她則對著鏡頭露出溫柔的笑容，感動告白：「很開心妳來找我當妳媽媽，歡迎妳來到這個世界。」[廣告]請繼續往下閱讀...名人好友們也都在第一時間送上祝福，陳庭妮、曾之喬、玉兔（鄭如吟）、陳彥婷、董仔、謝雨芝和黃鐙輝等人興奮留言，「歡迎來到地球，媽媽辛苦了」、「恭～喜～辛苦了」等等，盧以恩更稱讚「為什麼生完小孩可以這麼漂亮！」 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">圖文／CTWANT百萬YouTuber陳映彤（理科太太）原定去年底將自己接受婚姻心理諮商過程的筆記，以「理科太太的諮商筆記－從自我覺察到自我療癒」之名，在網路上販售，卻因內容可能涉及「心理諮詢」引發多方論戰。經過一個多月的沈澱心情，理科太太獨家接受時報周刊CTWANT專訪，提到未來計畫與心境，坦言：「潑髒水只是暫時的，時間永遠戰勝一切。」理科太太以自己過往2年接受1百多個小時的心理諮商經驗，在線上學習平台Hahow，用「學姊」身分將筆記內容募資販售，內容預計為總時長150分鐘的錄播影音課程，由理科太太教授並錄製，課程中也會涵蓋實作練習、講義等幫助學習的延伸服務。上線僅10多天共獲得2千7百多人贊助，募資金額更高達3百多萬元，同時間也引發網路論戰，而面對各界支持與不支持的看法，甚至是是否違法的部分？理科太太解釋：「『諮商』這兩個字在很傳統體系裡是很嚴重的字，雖然不犯法，但我會避免盡量用別的詞彙代替來表示尊重。」[廣告]請繼續往下閱讀...當時理科太太親上火線，在社群媒體上發文反擊「酸民惦惦啦」，然而在經過多方考量後，在2022年12月21日宣布停止課程，將退費給消費者，理科太太發出聲明表示，選擇不再讓盈利與否、未知的內容模糊初衷；她也不認為「諮商筆記」內容可以取代心理專業，而是鼓勵大家尋找適合自己的心理師，至於原本的網路課程，未來調整內容後，將免費釋出在Podcast上，平息爭端。提到當初分享筆記的初衷，理科太太說：「其實寫作過程剛好整理了我這兩年從第一次到最近和心理師對談所發現的事，過程中察覺到自己階段性的改變，和對我自己人生的幫助，還有看見自己的人生。很少有人有機會可以有時間剖析自己之後，最後自己串起來的過程我學到很多，這是我非常寶貴的經驗。」但後來整件事的發展則是她始料未及。延伸閱讀_x000D_▸ 挺過風波2／理科太太與白癡公主合作益智節目　被粉絲許願兩人「在一起」_x000D_▸ 外資變心？1／電動車貢獻仍待觀察　外資用腳投票　持股鴻海比重創3年低_x000D_▸ 愛神降臨1／分手半年走出陰霾　曹佑寧前校花女友鍾蕙羽擁新歡慶生 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲加藤豪将 。（圖／截自推特）記者賴冠文／綜合報導去年選秀會第3指名加盟日本火腿隊的日裔美籍內野手加藤豪將，在春訓前夕傳出右食指骨折，目標在春訓第二周傳接球。日本火腿今天於沖繩展開春訓，根據日媒報導，加藤豪將日前因自主訓練受傷，赴醫進行精密檢查，發現右手食指末節骨折。他春訓被分配到一軍組，目前仍照原計畫隨隊春訓，目標在第二周開始傳接球。[廣告]請繼續往下閱讀...28歲的加藤豪將2013年選秀會被洋基挑走，2019年最高層級來到3A，先後加入馬林魚隊、教士隊，他在去年轉戰藍鳥，首度升上大聯盟，僅出賽8場遭到DFA，隨後被大都會撿走。去年季末在日職選秀會獲得日本火腿隊第3指名，當時球團舉辦入團記者會，監督新庄剛志還替他穿上「3號」球衣，而「3號」球衣的前主人正是台灣球員「大王」王柏融。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲告五人成員雲安（左起）、犬青與哲謙人氣狂升，日前為戲劇獻聲插曲〈在這座城市遺失了你〉傳唱度極高，加上金曲獎加持，讓他們備受矚目。（圖／相信音樂提供／鏡週刊）圖文／鏡週刊「告五人」用音樂證明了身為五月天師弟團的實力，這2年他們也跟隨師兄的腳步，前進海外，去年告五人花了2個月在中國大陸辦了近40場演出，據傳每人都有百萬元以上進帳。而團中情侶檔雲安和犬青被問到農曆年有沒有見長輩？犬青透露，有帶男友家人喜歡的海鮮等禮物見未來公婆。告五人去年一整年工作滿檔，團員形容像是戰鬥陀螺，農曆新年的10天假期，他們苦笑自己只放了5天假，而且接下來會更忙碌，畢竟2月中旬將推出專輯《等你飛》，目前正緊鑼密鼓拍攝MV，兔年更宣布攻蛋、到星馬巡迴，又有戲劇找上門洽談音樂合作。[廣告]請繼續往下閱讀...▲五月天阿信（右一）力邀子弟兵告五人與白安（左二），為自創服飾品牌創作形象主題曲。（圖／STAYREAL提供／鏡週刊）唱到海外　粉絲數暴漲團員接受本刊訪問時開心分享，虎年是相當豐收的1年，結束「在這座城市遇見了你」台灣巡迴演唱會後，去年6月他們便飛往中國大陸巡演。犬青笑說：「一開始的時候，台下只有十幾個人，後來慢慢變幾百人，今年每場都有1千多名粉絲，越來越多。」▲告五人到中國大陸巡演，讓他們最意外的是有粉絲在台下求婚，「因為我們的歌都是比較悲傷。」（圖／翻攝自告五人微博／鏡週刊）去年中國大陸因防疫政策，不少城市的演出活動必須控制在千人以下，告五人的巡迴可說是場場爆滿。巡演過程中，最讓團員印象深刻的是有粉絲在台下求婚，「我們很納悶，因為我們的歌，都是描述孤獨、比較悲傷的那種。」這時雲安跳出來笑說：「粉絲可能聽到我們唱到『唯一』這類歌詞的時候，覺得很適合求婚吧。」結婚不急　賣聲賺百萬告五人走過14個城市，唱了近40場巡迴演出，荷包賺飽飽，據知情人士透露，光是在中國大陸短短2個月時間，3位團員每人至少都有新台幣百萬元入袋。聊到農曆新年買什麼犒賞自己？鼓手哲謙說：「我買了養身保健飲補一下。」還稱身體真的有被操到。至於有蒐集玩具習慣的雲安跟犬青笑說要買玩具：「以前想買玩具，媽媽都說不行，現在1次買3個。」▲情侶檔雲安（左）、犬青（右）交往6年，雖不急著結婚，但女方坦言帶著豐盛海鮮到男友家拜訪家長。（圖／相信音樂提供／鏡週刊）雲安和犬青曾被媒體捕捉當街上演甜蜜餵食秀，如今穩定交往約6年，是否有邁向人生下個階段的打算？兩人哈哈乾笑一陣後表示還不急，雲安表示：「現階段還是把重心放在事業上。」雖然雲安和犬青不急著完成終身大事，但犬青表示過年有到雲安家拜訪：「伴手禮準備海鮮大禮，像是烏魚子、花枝、魚丸和各式海產，雲安的家人都很喜歡吃海鮮，剛好我爺爺是漁夫，有很多最新鮮的漁產與他們分享。」【更多鏡週刊報導】【巡演湊佳偶】「最會求婚的男人」演唱會牽紅線　他籲歌迷該辦的先辦【獨家】【賭一把縮手】甜蜜共食下午茶　夢多遛狗有女友作伴【獨家】【跨界玩成精】開帆船出海玩樂　鍾瑶挑戰駕馭實境秀 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">記者張靖榕／綜合外電報導一對20多歲的年輕網紅情侶，因為把在伊朗街頭跳舞的影片上傳到Instagram，竟然被官方認定犯下賣淫和宣傳反政府罪行，兩人分別被判處10年半有期徒刑。▲阿瑪迪與哈奇奇，因為在街上跳舞被伊朗官方認定犯下重罪。（圖／翻攝推特）BBC報導，該對情侶分別為22歲的阿瑪迪（Amir Mohammad Ahmadi），與21歲未婚妻哈奇奇（Astiazh Haqiqi），兩人在Instagram上的粉絲相加將近200萬，他們卻因為一段在自由世界再平常不過的短影音內容，陷入了大麻煩。影片中兩人以伊朗首都德黑蘭的阿扎迪塔（Azadi Tower）為背景，在夜色中翩翩起舞，再透過濾鏡和特效後製，向眾多粉絲放閃，哈奇奇並未戴上頭巾。伊朗官方注意到該段「敗壞風俗」的影片後將兩人逮捕，聲稱他們犯下了「鼓吹腐敗及賣淫、串通違反國家安全，以及宣傳反對當權者」等犯行。目前不清楚每項罪名各判多少刑期，但伊朗法官依此將兩人各判處多達10年半的重刑。阿瑪迪和哈奇奇對提出上訴，一旦遭到駁回，他們將是史上因此坐牢最久的「嫌犯」。此外，他們還被限制2年內不得使用社群軟體，也不得離境。伊朗因為22歲女子阿米尼（Mahsa Amini）之死而掀起示威，起因是阿米尼去年9月未戴頭巾「希賈布」（Hijab）出門，被警方拘捕後毆打致死。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲眉毛畫得好不好會影響整個妝容是否和諧、精緻。（圖／IG@hongsuzu、@hince_official）記者張毓容／台北報導　圖／翻攝小紅書@Goss一個妝容好不好看，比起眼妝是否精緻，眉毛畫得好是更重要的關鍵，但眉毛看似面積不大，卻是許多人最苦手的部位，怎麼畫都畫不好。在YouTube擁有近400萬訂閱人數、紅遍全球的彩妝師「Goss大叔」Wayne Goss，近日就分享一套新手也能輕鬆學會的畫眉流程，只要3個步驟就能畫出最適合你自己的完美眉型。Step 1：先做眉型位置標記畫眉的第一個動作就是要標記位置，Goss大叔也提到，現在有不少人以為眉頭要從鼻翼向上延伸的點開始，但其實不是，正確畫眉頭的位置應該從鼻樑對上去的點開始，這樣能幫助在視覺上讓鼻子看起來更係一點。因為眉頭的距離過寬，鼻子看起來就會更寬；相反地，眉頭往內畫一點、眉頭間距越窄，鼻子看起來就越細。所以建議從鼻樑對上去的點做個眉頭的小標記，確定眉頭的位置後，找到眉毛拱起來之處就是眉峰的位置，最後從鼻翼連接眼角延伸出去的點，就是眉尾了，這樣就標記好整個眉毛的框架了。Step 2：填充眉毛填充眉毛時先用非常輕的筆觸，用眉筆筆尖從眉頭向上畫出毛流，定好眉頭的起始點，再用筆頭開始畫眉毛前段，記得筆觸要往上，模仿眉毛原本生長的方向畫，畫到與眉峰的交匯處，筆觸要開始往下畫，反覆地從眉頭向上畫，到眉峰處反覆向下畫，填充好眉毛。接著，畫眉毛底線時一定要以很輕手法的去畫，還要注意底線千萬別畫得太低，否則會讓妝容看起來很銳利、很兇，只需輕輕地畫、慢慢描，沿著最底下的眉毛畫，順著毛流方向微微上揚。畫眉尾時澤要沿著眉毛的走勢，精準地勾勒出眉尾，就能畫出完整眉型。Step 3：在眉下使用遮瑕膏畫好整個眉型後，用遮瑕膏再次突出眉型，但別用質地太滋潤的遮瑕，要選擇質地稍微乾燥的或奶油質地的遮瑕較佳。用刷子沾取遮瑕膏後，掃在眉毛下方，一直掃到眉尾，接著用手指輕輕地拍開。遮瑕膏的顏色要比你的膚色淡一點，但也選不要太亮的色號，看起來才會更自然，也會讓妝容看起來更和諧。＃加分小技巧最後Goss大叔更加碼一個小技巧，畫好眉型後，再用眉筆做一個步驟就可以讓你的眉眼更立體。用同一支眉筆，找到鼻樑下方連接鼻樑的凹陷處，輕輕地微微往上刷一下，用手指或眉筆的尾端慢慢地暈開，讓暈開的陰影和眉毛連接到一起，這樣能將眉毛和鼻樑連起來，讓輪廓更自然。暈好眉筆打造的陰影後，可再用刷子沾點修容粉，在山根處輕輕掃一下，再從這個位置向上掃到眉毛，接著沿著鼻樑兩側反覆輕掃幾遍，這樣就能讓鼻樑的陰影和眉毛融合，讓鼻子的輪廓變得更清晰、更立體。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲蔡英文邀賴清德加入每週三的國安晨會。（圖／鏡週刊提供，下同）圖、文／鏡週刊「接下來，我們會把人民的需求與期待擺在第一位。我會以民主進步黨黨主席的身分，和新任的陳建仁院長分工合作，成為執政團隊與社會的橋梁，共同當總統的後盾。」總統府在大年初六舉行記者會，宣布陳建仁接任閣揆，賴清德隨即公開表示肯定，並宣示會和總統蔡英文、陳建仁一起向台灣社會證明民進黨的決心與行動力，持續推進台灣的民主、和平與繁榮。不過，部分重心調整已初露端倪。過去蔡英文固定每週三於官邸召開國安早餐會，視議題召集相關人員討論、報告，因議題多與政院施政有關，所以時任行政院長蘇貞昌也一直是國安早餐會的與會成員，本刊掌握，九合一選後，賴清德也開始受邀參加國安晨會。▲國安晨會座次安排因應賴清德加入有所調整。據了解，國安晨會通常在官邸一樓的貴賓接待室或會議室舉行，視當天議程調整；若在貴賓接待室，蔡英文通常坐在左前方沙發，蘇貞昌若有出席，就坐在蔡的右手邊，賴清德加入會議後，座次進行調整，賴和新揆陳建仁未來將和蔡英文一起坐在靠窗一側，座位政治學也間接透露，執政團隊的隊形已由「英蘇體制」轉換為「英賴陳鐵三角」。▲歷時4年的蘇貞昌內閣1月30日總辭。除了讓賴與聞機要，本刊掌握，英賴雙方幕僚也已有所對接，蔡英文愛將、考試院祕書長劉建忻，以及協助蔡打贏2016年大選的關鍵人物之一、文總前祕書長林錦昌，已數次和賴幕僚交流意見，協助英、賴2人論述接軌。更多鏡週刊報導【賴清德接班就位2】綠總統初選3月登場　賴清德走小英路線布局「六師四社團」【賴清德接班就位3】交付陳建仁4大任務　小英任期倒數拒跛腳【賴清德接班就位】府院黨新鐵三角成形　賴清德進入核心見習接班  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">記者陳俊宏／綜合報導拿到台灣政大外交碩士學位的俄羅斯女孩若晴，回國後力薦18歲表妹Nastya來台灣念書，「我常跟她說台灣有多好」。而台灣也有男人飛過去了，努力把人帶來台灣。▲▼18歲的Nastya想到國外念書。（圖／翻攝「Stopkiddinstudio」YouTube）[廣告]請繼續往下閱讀...若晴接受《不要鬧工作室》訪問指出，表妹一直想要去國外念書，可是她家人會擔心她的安全，且費用也很貴，「我跟她說我去過台灣，台灣很安全，也可以申請獎學金，但她還是不太放心。」若晴說，「我跟表妹說一定要拿到獎學金，在台灣大學生的生活很充實，吃的東西又很便宜，莫斯科吃東西越來越貴，冰天雪地去哪裡都很痛苦，不像台灣氣候宜人。」她因此請《不要鬧工作室》創辦人強尼，飛來俄國說服表妹。Nastya則提到，幾年前就有想去亞洲念書的想法，因覺得他們的教育系統對她很有益，當時瞄準日本、南韓和台灣，但都很遠，所以有點害怕，也不想變成媽媽的經濟負擔，「但我表姊若晴以前去過台灣3年，她很愛這段經歷，她跟我講有一個人特別來俄國說服我。」而目前她仍在考慮中。▼若晴拿到台灣政大外交碩士學位，力薦表妹來台念書。（圖／翻攝「Stopkiddinstudio」YouTube） </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲算命師會提點民眾避免吃什麼東西。（圖／左，記者林敬旻攝／右，麥當勞官網）記者崔子柔／綜合報導不少台灣人愛算命，甚至有人算到有自己一套心得，一名女網友說，她從小就被算命的說不能吃牛，長大後試著想吃牛，也因為味道不熟悉難以下嚥，結果有網友分享，他曾被算命仙禁止吃「蘋果派」。原PO在Dcard發文表示，小時候算命的說她命中帶魁罡星，如果吃牛會影響到這顆保護星的作用，爸媽聽了也覺得寧可信其有，所以她從小就沒有在吃牛肉。原PO提到，她長大後看同學在吃牛肉，也想偷吃一口，結果吃下去發現不是熟悉的味道，就馬上吐出來，發展成終生不吃牛肉。▲女網友發文分享。（圖／翻攝自dcard）有網友留言分享，他阿嬤替他去算過命，說他不能吃麥當勞的蘋果派，「那算命的用台灣國語說，不能粗餅苟派，不孿你孫子會變壞，有夠派」，有人詢問，那紅豆派可以嗎？該網友則說，「這要回去問算命先生了」。其他網友也留言指出，「我爸以前也不吃牛，自從某次去田裡被牛踩到，他就開始吃牛了」、「感覺任何人去算命都會被禁止吃牛肉」、「都被說不要吃牛羊，只是沒說為何」、「我女友也被算命出不能吃牛，但可以喝牛肉湯」。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲職場眉角多，除了會做事、也要懂得做人。（示意圖／取自免費圖庫Unsplash）生活中心／綜合報導職場眉角多，除了會做事、也要懂得做人！不論是工作能力受肯定或是埋頭苦幹熬出一片天，都可能因為風頭健，招人眼紅與妒忌！尤其《科技紫微網》點名的4生肖更要當心「表現太好」、功高震主，反而遭到打壓。生肖牛[廣告]請繼續往下閱讀...認真工作不遺餘力的生肖牛，堪稱是模範勞工的代表。這樣的員工很受歡迎，因為一人能當兩人用。但如果你已經靠實力爬到中層主管位置，就得當心瓶頸或是陷阱隨時出現了，因為上層主管會怕你威脅到他的地位。主管總是希望有能力的下屬來為他抬轎，你得用心體會，顯出他的尊榮。萬一他下達的命令有瑕疵，不要貿然糾正，而是試著在執行過程自動修復，展現你低調堅韌的一面，剛好這也是你擅長的工作模式，不是嗎？對你未來的發展很有利。生肖蛇反應靈敏，行動快速的生肖蛇，應變能力十分強盛，在複雜多變的業界環境中容易脫穎而出。任何公司或單位有了你，平均業績大概都得往上調一級才行。你的主管會欣慰有人能託付重任；但是同事恐怕就會看不順眼，想藉著打壓你來刷存在感。如果你驚覺身邊小人環伺，先不要急著跟主管打小報告，謹記「人在屋簷下，不得不低頭。」的理念，把團隊合作放在第一順位，暗中默默學習，韜光養晦，等到有表現機會來臨時，自然能翻身，脫離是非之地。生肖虎你向來追求卓越，能量豐沛，像山中猛虎一般盡情展現強勢與優越。在職場擔任主管職位時，你很能發揮領導架勢，也能身先士卒，若沒有舞台發揮時，你會設定一個假想敵，然後找機會取而代之。如此野心十足的你，叫身邊同事和長官如何能漠視？生肖虎要切記「不在其位，不謀其政。」學會與他人和平共處。不能只管自己績效，也要考量他人會不會餓肚子，唯有多些同理心，並常保謙虛和善，才能讓你站穩一席之地，累積能量，圖謀遠大。生肖馬目標清晰，手段俐落的生肖馬，其實有一種隱藏的心高氣傲，容易引來眼紅忌妒的副作用。對於按部就班、慢工出細活的主管來說，你會帶來壓迫感，打亂他人的做事節奏，如果不把你「壓下去」豈不是被你牽著鼻子走？當然，你有無法忽視的好表現，但是別忘了把成就歸功給其他人，要記住，一個人的格局有限，一個團隊的格局必定更強大。不只疼下屬，也要多稱讚你的主管，打通人脈助力。以免他們在你的聲勢看漲時扯後腿，得不償失。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">記者王則絲／台北報導李敏鎬與李鐘碩為南韓兩大一線男神，近日他們同時公開了幼年時期的照片，並與小時候的自己同框，兒時Ｑ樣令粉絲們都要融化了；此外，各國許多名人也都加入曬照行列，日本棒球選手大谷翔平、球星林書緯、男星柯震東⋯⋯大家小時候的模樣都太萌了。▲李敏鎬曬出兒時照片，並現身演繹BOSS 2023春夏系列俐落駝色西裝。（圖／品牌提供）李敏鎬手中拿著兒時的照片，只見小敏鎬圓嘟嘟的臉頰配上可愛笑容，讓人好想捏一把，沒想到長大之後會成為如此精緻的美男，另外他還穿上了BOSS 2023春夏系列的駝色西裝造型，在鏡頭前擺拍帥照；李鐘碩則是穿著BOSS Monogram運動衫，曬出他小時候的模樣，白嫩的皮膚和單眼皮，已經很有現在的神韻。▲李鐘碩兒時模樣已有現在的輪廓。（圖／品牌提供）其實這回各路明星們曬出幼年照片的舉動，正是BOSS今年春夏推出的最新廣告企劃。這些名人們在成功之前，無不是經過層層的障礙與自我掙扎，最終才能成為自己的BOSS，以此呼應品牌核心理念「Be Your Own BOSS自我主宰」，希望藉由兒時與現在模樣的同框對比，看見自我的蛻變成長，並鼓勵大家能持續突破與實現，得到自己真正想要的。▲大谷翔平、林書緯與柯震東的幼年照片也都相當可愛。（圖／品牌提供）參與本次企劃的明星非常多，其中大谷翔平分享的照片也吸引不少目光，小時候的他與現在幾乎沒有差別，但是多了幾分Ｑ萌，同是運動員的林書緯也曬出照片，肉肉的臉頰與瞇瞇眼十分可愛，此外，台灣男星柯震東也加入行列；超模Naomi Campbell和Gigi Hadid亦大方公開兒時照片，看來超模們從小就相當有個性。▲超模Gigi Hadid和Naomi Campbell從小就很有個性。（圖／品牌提供） </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲ New Balance宣布與大谷翔平簽約。（圖／翻攝自New Balance官網）記者賴冠文／綜合報導天使隊二刀流球星大谷翔平日前打擊練習影片中，他腳上的New Balance球鞋意外成為焦點，果不其然New Balance今（1日）宣布與大谷翔平簽下長期合約，並推出限量版574釘鞋，售價120美元。大谷翔平自2014年日職日本火腿隊時期，代言日本運動品牌Asics，從手套、球棒、球鞋等相關球具都由Asics提供，雙方合作長達8年，如今大谷新球季將與New Balance合作簽下長期合約，成為品牌代言人。[廣告]請繼續往下閱讀...大谷翔平「跳槽」New Balance引起球迷熱議，尚未公布是否有大谷的專屬鞋款，為了慶祝大谷加入，特別在2月推出以574版型打造的首款棒球釘鞋，售價為120美元（約10800元新台幣），限量574雙。New Balance行銷部主管布魯克斯（Neil Brooks）表示，「大谷翔平是百年難得一遇的球員，且他不安於現況，持續讓自己與團隊變得更好，用場上表現發聲，我們期待建立起合作關係並完成他的夢想。」大谷翔平則在新聞稿中表達喜悅，「很開心加入這個大家庭，這是一個全球性的品牌，以產品創新而聞名，同時也是讓運動員做自己的真實品牌。」總部位於美國波士頓的New Balance，目前已與多個知名運動員合作，包含大聯盟大都會球星林多（Francisco Lindor）、NBA快艇隊球星雷納德（Kawhi Leonard）。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲現場畫面。（圖／翻攝高公局網站）記者陳俊宏／綜合報導上班注意！高公局表示，今天（1日）7時12分，國道1號北向33.8K、五股路段，發生3輛自小客車追撞佔用外線車道，事故處理中，請用路人小心駕駛。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲台東縣中小企業協會理事長陳湧貿（右）及妻子林泇賝（左）常在臉書曬幸福，最近卻遭控惡意倒債。（圖／鏡週刊提供，下同）圖、文／鏡週刊台東縣中小企業協會理事長陳湧貿與妻子經營「晨光藝旅」民宿，在台東頗具知名度，但本刊最近接獲多名被害人投訴，指陳氏夫妻自稱台東熱氣球節幕後推手，吸金近億元興建民宿，事後卻賴債不還，債主上門討債，卻被夫妻倆提告恐嚇。1名罹癌債主陸續借了近千萬元給陳氏夫妻，事後多次催討想把錢拿回來治病，但對方不理會，去（2022）年4月他到台東要債，當時2人不在，他請櫃檯打電話告知，沒想到對方竟反嗆：「法院見！」，甚至嗆「生病是你家的事」，認為夫妻倆開豪車、啖美食，協會還盛大舉辦尾牙，卻不還錢，實在太惡劣！▲台東熱氣球嘉年華世界聞名，卻被陳湧貿夫婦當成吸金工具。另名借款近5千萬元的婦人，曾暗中觀察陳氏夫妻在台東市、綠島租屋，經營民宿，2個人看起來非常認真打拚，經常在臉書發文行銷、招攬生意，也會親自帶團，每團大概都有30名旅客，還兼賣特產，每逢假日一房難求，生意真的很不錯，1年後才決定投資。▲陳湧貿夫妻遭控惡意倒債，圖為某債權人取得對陳妻林泇賝的支付命令。婦人說，每次出資50萬到1百萬元不等，說是為了周轉，後來又說政府的旅遊補助還沒下來，拜託她救急，最後以每投資100萬元，每個月給付3萬元紅利，她與親友挹注5千萬元，結果陳氏夫妻把投資人臉書全部封鎖，斷絕聯繫，「我40年打拚賺的錢全賠光!」▲陳湧貿（左2）擔任台東縣中小企業協會理事長，與縣長饒慶鈴（右3）常有互動。還有1名婦人更慘，她因幫陳氏夫妻打掃住家而認識，因看他們的民宿經營不錯，人又老實，才會拿家中的土地質押借錢、標會，一共借了7百萬元給2人，不僅出錢，她還出力，甚至到陳氏夫妻台東、綠島的民宿，教員工如何打掃，現在夫妻倆賴帳不還，害她必須日夜兼3份工作還債。這名婦人被倒債後，經濟壓力很大，為了還錢，連週末假日都要上班工作，根本沒有辦法休息，不知道還能撐多久，目前每個月都要到身心科接受治療，靠藥物安撫情緒。更多鏡週刊報導【台東名人惡詐款1】罹癌金主討債救命　他嗆「生病你家的事」警還配合抓人【台東名人惡詐款2】投資百萬月分紅3萬當餌　她賠光5千萬還被親友告詐欺【台東名人惡詐款3】假面夫妻連清潔婦都當肥羊宰　她兼3份工還債快崩潰  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">圖文／CTWANT去年六月底，人氣男神曹佑寧（小曹），與前輔大校花女友鍾蕙羽共同宣布分手消息，分手原因曾被網友猜測是因曹佑寧到大陸拍攝網劇，和女主角余玥有不少親密對手戲，私下還互動頻頻，因此惹怒鍾蕙羽向余玥開砲，最後六年情也因而告吹。時隔半年多，時報周刊CTWANT補捉到鍾蕙羽有了新歡，新男友騎著機車來接她，她歡歡喜喜跨上機車離去，而這段新戀情似乎也受到姊妹淘們的認可，滿臉笑意的她看起來非常幸福。[廣告]請繼續往下閱讀...一月10日晚間十點多，現在是知名網紅的鍾蕙羽，和幾個友人走出台北市大安區一家高檔燒肉餐廳，眾人在餐廳門口道別後陸續離去，鍾蕙羽則和一名女友人坐進等在路邊的轎車。奇怪的是，車子就這麼停在原地哪也沒去，似乎並不打算開走。約莫十分鐘後，一名穿著白襪加拖鞋的男子騎著電動機車停到車後方，隨後鍾蕙羽便和友人一起下車，幾個人互相打了招呼。此時，一隻臘腸狗興奮地緊盯著鍾蕙羽搖尾巴，巴不得掙脫繫狗繩從男子的機車踏墊躍下，原來這條臘腸狗正是鍾蕙羽的愛犬Koi。幾個人寒暄幾句後，友人驅車離去，鍾蕙羽則搭上男子的機車，也不管身上穿的是短裙，一腳直接跨過坐墊上車，看來相當豪邁。隨後，兩人一狗一路直奔台北市松山區一處住宅大樓，並直接騎進停車場，幾分鐘後兩人身影出現在一樓大廳，搭乘電梯上樓。而這個地方正是鍾蕙羽的新住處，日前鍾蕙羽從日本旅遊返台回到家進門時還在IG上貼文，照片正是該大樓的大門入口。而當天早上的貼文上更可以看出兩人一狗出門散步的影片，男子同樣穿著拖鞋和白色襪子。在告別了舊戀情後，如今已經不僅有了新歡，而且兩人的發展看來相當神速，已經展開與新男友同進同出的新生活。而1月14日過生日的鍾蕙羽，也開心地在IG分享許多慶生的照片，完全不避嫌地將她和男友的合照PO出，雖然照片中還有其他姊妹淘好友，但小倆口黏在一起的模樣，關係昭然若揭，她還在IG上感謝她的「媒人」，也引起網友們好奇留言問她這是不是新男友，可見就如同過去和小曹交往一般，鍾蕙羽似乎並不想談偷偷摸摸的戀愛，而是很樂意與粉絲網友分享自己的感情世界。延伸閱讀_x000D_▸ 愛神降臨2／一度難捨與曹佑寧六年情　鍾蕙羽曾被直擊與姊妹淘狂吐苦水_x000D_▸ 挺過風波1／沈澱心情後首發聲　理科太太「潑髒水只是暫時的」_x000D_▸ 外資變心？1／電動車貢獻仍待觀察　外資用腳投票　持股鴻海比重創3年低 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲剛過去的12月桃園機場航空貨運量衰退幅度高達21.59%。(圖／華航提供)記者張佩芬／台北報導兩家大型航空貨運承攬業者指出，2022年桃園機場航空總貨郵量253.9萬噸，與去年相比年減9.72%，但仍然比疫情前的2019年年增加16.33%；進出口貨量是從去年7月開始衰退，該月年減13%，之後逐月衰退，12月年減幅已拉高到21.59%，估計今年第二季可以見到貨量緩步復甦，但是真正好轉可能要等到第三季。去年空運貨量衰退主要是出口量下跌15.8%，反映全球市場消費需求轉弱，以電子製造業外銷見長的台灣因長鞭效應衝擊出口貨量；而中國因疫情實施封控及中美科技戰持續，致使桃園機場進出口中國貨量分別有14.9%及22.7%跌幅，連帶轉口至美國貨量也出現14.4%的跌幅。[廣告]請繼續往下閱讀...隨著疫情解封客機復飛，提高腹艙貨運運能，加上海運運價回跌，航空貨運近期呈現供過於求現象，運價也明顯下修。展望2023年，業界認為航空貨運仍需持續關注全球經濟復甦情形及中美科技戰造成之供應鏈流向移轉等議題。中菲行總經理邱鈞榮稍早則表示，台灣市場因為有半導體等電子產品做基礎，估計今年會比其他國家復甦得快，估計第一季底就會開始好轉，不過有兩家同業持較保守看法，認為有復甦也是緩慢復甦，真要有明顯復甦估計要等到第三季。攬貨業認為，未來較大疑慮是航空貨運疫情紅利已經消失得差不多了，隨著客機復飛比例日益提高，客機機腹提供的載貨空間增加，市場運價也就會跟著下修，貨量增加不代表航空公司的獲利就能跟著增加，尤其是華航與長榮都有添購全貨機，舊機淘汰速度與機隊配置狀況，都會影響到運價走向。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲「對溫柔的人沒抵抗力」星座Top 3      。（示意圖／IG＠tvn_drama）編輯／Ann溫柔常常是人與人相處過程中的一大加分條件，尤其對付以下這類星座，只要使出撒嬌招數，他們往往就會失去抵抗力，而且完全放下堅持，幾乎快要投入對方的懷抱，以下「對溫柔的人沒抵抗力」星座Top 3揭曉！Top 3 天秤座天秤座其實本身情商就很高，不太會跟人硬碰硬，不喜歡爭吵的他們自然而然也會選擇比較溫柔的另一半，善解人意、愛撒嬌都是對付天秤座的終極招數，這樣的特質會讓天秤特別想要跟對方持續發展下去，完全不需要對天秤多做什麼，釋出溫柔馬上就淪陷了。Top 2 牡羊座牡羊座很看另一半是否溫柔體貼，如果遇見了個性軟的另一半，自己也會變得溫和起來，反之如果是強硬的相處方式，那麼很可能造成兩敗俱傷的形勢，對雙方都沒好處。所以想要征服牡羊，其實擺出溫柔的姿態就成功一半了，甚至會激發他們內心深層的保護慾，完全忘了自己的底線，抵抗力全無。Top 1 天蠍座天蠍座是嘴硬心軟的星座，嘴上不說其實最吃溫柔這一套，就算原本想法背道而馳，也可能因為對方的甜言蜜語所改變，費勁心思想要給另一半最好的，轉變超大讓旁人也看呆了。而且天蠍強大的自尊心很需要照顧，如果溫柔點給他們面子，其實天蠍自己也會意識到對方的小心思，這樣才能互相成就彼此。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_記者葉國吏／綜合報導　一位女駕駛開著休旅車追撞到前車，沒想到開車門時又撞到路過的一輛保時捷，女車主似乎沒想處理直接離開，最後保時捷直接報警並上前追車攔下，這一切過程都被後方的行車紀錄器拍下，畫面放上網路引發討論。▲女駕駛開車門撞到保時捷後卻直接走。（圖／翻攝記者爆料網臉書，下同）臉書粉專「記者爆料網」貼出一段影片「三寶無極限！ 女駕駛釀追撞車禍後開車門再撞保時捷」，在31日傍晚，國道10號嶺口交流道匝道口，一位女駕駛開著休旅車追撞前方轎車，2車停在匝道口處理後續。不過這時一輛紅色保時捷路過，小心翼翼的從一旁閃過，但休旅車女駕駛似乎沒注意到，講電話同時打開車門要離開，車門卻直接撞上路過保時捷，而且女駕駛還打算直接開車離開。保時捷車主傻眼後直接報警，並直接追車將休旅車攔下。▲保時捷車主報警後開車將休旅車攔下。網友看到這段影片後留言「三寶繁殖力強，永不消滅」、「真的有大碗哦哈哈哈哈一台不夠來兩台」、「神經真的有夠大條。」  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲布林肯訪中受矚目。（圖／路透）記者張靖榕／編譯美國白宮國安會戰略溝通協調官柯比（John Kirby）1月31日表示，國務卿布林肯（Antony Blinken）將於2月5日至6問訪問中國，並將與北京官員討論俄烏戰爭。路透社報導，柯比告訴記者此行將會討論幾個議題，像是去年8月時任美國眾議院議長裴洛西（Nancy Pelosi）訪台時，因中國抗議而被擱置的美中軍事以及氣候變遷議題。柯比表示，布林肯將尋求恢復和／或重振這些議題的討論。柯比說，「我知道他期待能夠討論這些議題，當然我們也能預期國務卿此行將談到俄烏戰爭。」 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲雙寶媽一席話，讓醫師當下不知該如何回應。（示意圖／翻攝pixabay免費圖庫）記者陳俊宏／綜合報導「真情告白？」兒科醫師徐嘉賢分享一名雙寶媽在診間說，「你是我在LINE裡面頂置的第二個男人！」原來是為了比較方便掛號，但也讓醫師開玩笑直呼，「請不要害我睡公園，最近外面冷得很。」徐嘉賢在「黑眼圈奶爸Dr. 徐嘉賢醫師」臉書提到，前幾天一位媽媽帶著兩位兄妹來看診，這位一打二平常動作幹練、口齒清晰的媽媽，自從他們開業以來，久不久就會帶著兩位孩子來診所報到，一下子過敏、一下呼吸道融合病毒、一下腸胃炎等。[廣告]請繼續往下閱讀...徐嘉賢說，而這次看完診的時候，不同的是，媽媽欲言又止。他分享雙方的對話：媽媽一手抱著孩子：醫生，你知道嗎？⋯你是我⋯除了我先生以外，你是我在LINE裡面頂置的第二個男人！徐嘉賢： …… ……嚇？（當下我真的不知道該說什麼）媽媽：因為你⋯的診所太難掛號，而且我也要隨時留意看診進度，所以就乾脆把你的官方LINE頂置在最上面，比較方便。徐嘉賢：噢！⋯⋯原來是這樣！徐嘉賢寫道，「這位媽媽釘選的立意良善，但請不要害我睡公園，最近外面冷得很。」其他網友笑說，「可以去這位媽媽家裡睡～（逃～～好啦我先自掌嘴）」、「（默默舉手）我跟這位媽媽一樣，置頂的男性除了先生以外就是徐醫師了。」 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲女子看A片想起前男友，忍不住大哭。（示意圖／取自免費圖庫Pixabay）記者崔子柔／綜合報導一名女子日前和男友分手，有天心血來潮想看A片，卻發現自己不斷想起和前男友的互動，結果竟然大爆哭，留言區則有不少女網友湧入安慰，並分享類似經驗。原PO昨（31）日在Dcard發文表示，她今年年初和男友分手，分開前因為上班要早起，下班常常累得無力，發生關係的頻率也降低許多，她昨天心血來潮打開A片，結果看到男女主角的互動，讓她心情越來越低落。「想到前任也曾經這樣在自己身體裡面，現在卻沒有人在身邊了」，原PO不禁開始爆哭，她認為性愛是兩個人很信任彼此，願意用最赤裸的樣子跟對方坦承相見，會是最貼近彼此的人，「但是分手之後，曾經這麼親密的人就這樣離開自己，變成陌生人，所以看到那些畫面才會那麼難過吧」，她同時覺得自己很荒謬，詢問是否有人也會有這種狀況。▲女子發文。（圖／翻攝自DCARD）文章曝光後引起熱議，不少女網友留言分享類似經驗，「我是沒有大哭，但真的感到很難受」、「分手三個月，我也會看到哭」、「我也是這樣妳不孤單，但是放心，遲早會有下一個讓你開心的男生」、「自己來的時候，會想著對方在幫自己服務才有辦法進入情緒，高潮結束後就會開始無法控制的掉淚」、「我也是，前幾個月是大哭，現在是失落感，看完都需要找抒情歌來聽，緩解情緒」。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲荷蘭半導體製造商生產的晶片，被大量流入俄羅斯手中。（圖／路透）文／中央社阿姆斯特丹31日綜合外電報導荷蘭政府今天呼籲境內的半導體製造商採取進一步行動，防止所製造的晶片最終落入俄羅斯手中，因為這會違反國際制裁。屬於荷蘭公共廣播體系的荷蘭廣播基金會（NOS）的一項報告發現，自俄羅斯2022年2月24日入侵烏克蘭以來，已有數以百萬計荷蘭製造晶片最後落入俄國手中，大多是透過中國中間商。荷蘭外長胡克斯特拉（Wopke Hoekstra）告訴國會，這樣的情況「相當尷尬」。在荷蘭境內活躍的半導體製造商包括恩智浦半導體（NXP Semiconductors）和中國企業聞泰科技持有的安世半導體（Nexperia）。胡克斯特拉表示：「我確信這些公司已做了很多，但還可以做得更多。」彭博報導稱美國已與日本及荷蘭完成協商，就限制部分先進晶片製造設備出口至中國達成協議。艾司摩爾控股公司28日表示，據知協議已取得進展。路透社報導，艾司摩爾（ASML）是晶片生產設備主要供應商，自2019年以來一直被限制不得向中國出售最先進製品。自此以後，美國和中國在半導體問題上的緊張關係升高，促使華府在去年10月對中國祭出幾近全面性的半導體出口禁令。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲法國民眾大罷工反年金改革。（圖／路透）文／中央社巴黎31日綜合外電報導繼19日的首場反年金改革大罷工後，法國今天進行第2次全國大罷工，各地供電狀況、大眾運輸和學校課程都受到影響，不過仍有不少民眾支持罷工行動。現場估計有127萬人走上街頭。路透社報導，受到罷工影響，法國只有1/3高速列車（TGV）正常運作，本地和地區列車更少。巴黎地鐵也受到嚴重干擾，月台上擠滿通勤者，爭先恐後地衝上僅剩為數不多的列車。在巴黎市中心的協和（Concorde）地鐵站，1名59歲女性表示，她不介意多花點時間等車，也能接受改用步行方式前往目的地。她說，「我支持他們（參與罷工者）。我很快就要60歲了，我真的不想再（工作）2年。」另名34歲、在精品產業任職的男子則抱持不同看法，他認為，「這場罷工並無意義，反正（年金改革）法案無論如何都會過關」。在法國各地組織集會的工會希望繼續向政府施壓，並可能在未來數週內宣布更多罷工行動。法國民主工會聯盟（CFDT）公職人員分會秘書長賈科（Mylene Jacquot）告訴路透社，「出現如此大規模的反對聲浪時，政府若不傾聽，就會帶來危險後果」。民意調查顯示，多數法國人已對高通膨引發的生活成本危機感到憤怒，他們反對年金改革計畫，但總統馬克宏（Emmanuel Macron）打算堅持立場。他昨天強調，改革對確保退休金制度的可行性「至關重要」。政府的計畫是將法定退休年齡從現今的62歲延後至64歲，並推遲領取全額退休金的年齡。據勞工部估計，上述措施將使每年的退休金收入額外增加177億歐元。本月19日，法國的8大工會串連發動首次罷工，並在各城市示威遊行。內政部指出，當天全國共有112萬人走上街頭；工會則表示有逾200萬人參與。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲歐洲大力發展風力發電。（圖／路透）文／中央社記者田習如布魯塞爾31日專電歐洲環境與能源智庫Ember今天發布報告指出，風力發電和太陽能共占2022年歐盟區電力來源22%，首度超越天然氣和核能，成為最大供電者，且2023年再生能源將持續大幅成長。歐盟去年能源拉警報的原因除了俄烏戰爭衝擊，還有500年一見的大旱影響水力發電，以及德國廢核、法國多個核電廠檢修斷供。Ember指出，光是乾旱和核電廠停擺的缺口就相當於去年歐盟電力需求7%，這個缺口絕大部分靠風電和太陽能的成長補足，小部分靠燃煤。去年歐盟燃煤發電量成長7%，導致整體電力部門的二氧化碳排放較2021年增加了3.9%。不過，去年歐盟雖較前一年多進口了2200萬噸的煤炭，但實際用量只有1/3。燃媒占去年歐盟電力的16%，該智庫認為歐盟會員國政府正努力達成讓燃煤退場的承諾，減煤大勢已定。太陽能則在去年大放光芒，發電量成長24%，相當於為歐盟省下100億歐元（約新台幣3262億元）的天然氣成本。其中荷蘭成長最快，太陽光電已占其電力組成的16%；希臘則可望在今年底由太陽能供電8百萬瓩（GW），比原定目標提早7年達成。Ember估計今年歐盟燃煤加天然氣的發電量將衰退20%，有助於全力擺脫俄國能源依賴。該報告作者瓊斯（Dave Jones）表示：「歐洲已經避免了能源危機最糟的狀況。2022年震撼帶來的是燃煤極小幅成長、再生能源極大量增加。」他補充，能源危機無疑加速了歐洲的電力朝向更乾淨能源轉型，且2023年將會完全展現這個變化，「改變來的很快，每個人都要準備好面對它」。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲美股週二 (31 日) 早盤陷入多空拉鋸。（圖／達志影像／美聯社）記者葉國吏／綜合報導　美國勞工部週二公布就業成本指數 (ECI) ，凸顯通膨放緩跡象，強化聯準會放緩升息。激勵美股週二 (31 日) 材料、非必需消費品升勢猛烈，主要指數一路走升，終場道瓊上漲368點，台積電ADR跌0.43%、收92.73元。道瓊工業指數上漲368.95點或1.09%，收34086.04點。那斯達克指數上漲190.74點或1.67%，收11584.55點。標普500指數上漲58.83點或1.46%，收4076.6點。費城半導體指數上漲55.23點或1.93%，收2921.92點。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲電腦模式預測未來5天降雨。（點圖可放大／翻攝「台灣颱風論壇｜天氣特急」臉書）記者陳俊宏／台北報導把握好天氣！氣象粉專分享未來5日降雨預測圖提醒，北部、東部周四又會再次下雨；周末有一波華南雲雨帶通過，台灣上空水氣量增加，北部、東部雨勢將更明顯，中部也有機會飄一些雨。「台灣颱風論壇｜天氣特急」臉書表示，兩波寒流過後，暫時回歸平靜，短時間內沒有強冷空氣來襲的訊號，回到一般東北季風吹拂的格局。[廣告]請繼續往下閱讀...▼周四起水氣增加。（圖／資料照／記者李毓康攝）台灣颱風論壇說，下一波東北季風預計周四抵達，北部、東部又會再次下雨，再回到「北雨南晴」的格局；不過，這次北部降溫就比較和緩了，中南部預計更無感。文中提醒，周末有一波華南雲雨帶通過，台灣上空水氣量增加，原本就下雨的北部、東部雨勢將更明顯，中部也有機會飄一些雨，看起來這周唯一的假日，往南走天氣會比較好。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">▲潘孟安將發行新書《紅色鋼鐵人》。（資料圖／記者徐文彬攝）記者崔子柔／綜合報導陳建仁昨（31日）上任行政院長，新內閣也塵埃落定，但之前呼聲頗高的前屏東縣長潘孟安卻未入閣、未入黨，引起外界猜測他是否要協助賴清德備戰2024大選，他則說，「我們之前就有默契。」潘孟安在即將出版的自傳《紅色鋼鐵人》中透露，他希望在卸下公職以後，買張機票飛到日本，到沒人認識他的地方好好耍廢，把這些年沒睡到的覺補足。根據《聯合報》報導，針對未入閣是否要協助賴清德備戰2024大選，潘孟安則說他責無旁貸，而且先前就已經達成默契，有人幫忙黨務、有人入閣、有人做選務，對他來說能穩住政權才重要。前副總統陳建仁31日正式接任行政院長，內閣名單30日公布，僅9新首長、29人全留任，包括內政部長林右昌（前基隆市長）、行政院發言人陳宗彥（原內政部政務次長）、政務委員李永得（原文化部長）、文化部長史哲（原高雄市副市長）、國立故宮博物院院長蕭宗煌（原文化部政務次長）、財政部長莊翠雲（原財政部政務次長）、僑委會委員長徐佳青（原僑委會副委員長）、海委會主委管碧玲（原民進黨立委），以及原能會主委張靜文（原原能會副主委）。對於潘孟安為何未入閣，行政發言人陳宗彥說明，在整個規劃上面，當然還有個人意願的部分，「我看過年期間，屏東縣的潘縣長都在家裡玩貓，玩得非常愉快。」 </t>
   </si>
 </sst>
 </file>

--- a/ettoday.xlsx
+++ b/ettoday.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,20 +456,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>白嫩網美搭車　噁男開「一鍵脫衣APP」瞬間全裸照瘋傳</t>
+          <t>訊息句尾「加上1符號」妹子喊：看起來很不屑！一票人驚呆　用法曝</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469300.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2469978.htm</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲大陸一名網紅遭惡搞，照片被「AI一鍵脫衣」P成裸照。（圖／擷取自微博）圖文／CTWANT拜科技進步所賜，人類生活越來越便利，不過卻也遭有心人士非法濫用。一名社群平台「小紅書」上的正妹網紅，去年7月曬出自己搭地鐵的穿搭美照，怎料竟被網友惡搞，使用AI「一鍵脫衣」偽造裸照並PO上網分享，掀起不小爭議。據陸媒報導，近日一名皮膚白皙、身材姣好的女子，遭到網友利用「AI一鍵脫衣」功能造假成大尺度裸照，並在網路上瘋傳，原來該名女子是小紅書上略有名氣的穿搭網紅，去年7月她在社群平台上分享自己搭乘地鐵的生活照，沒想到竟被有心人士拿來造謠。香豔照片洩出後，（信以為真的）網友紛紛留言惋惜沒能親眼目睹，「我朋友說，三號線有個美女搞露出，把衣服脫了」、「挖槽身材好好」、「癖好嗎這是」、「便宜那趟地鐵的人了，應該便宜我才是。」造假裸照一事曝光後，不少熱心網友湧入該名網紅的小紅書提醒，她得知此事後驚訝直呼，「我也沒想到我火出圈竟然是因為自己的照片被人P成了裸照」，而目前她也準備採取法律行動，維護自身受損的名譽。延伸閱讀-▸ 口味不一樣？　百事可樂將改配方「含糖量減57%」-▸ 三婚媽「鐵鍊綑綁3兒子」被罵爆　親姊曝背後苦衷：她在保護孩子們-▸ 美眾院全票通過法案　呼籲終止陸「發展中國家」地位 </t>
+          <t xml:space="preserve">▲原PO看到「～」會覺得對方是不是不屑回覆。（示意圖／記者周亭瑋攝，下同）記者曾筠淇／綜合報導有些人傳訊息時，會加一些符號、顏文字或Emoji，不過接收到訊息的人，可能未必能理解傳送者的真正意思。近日就有網友發文表示，很多人喜歡在句尾加上「～」的符號，讓她覺得對方是不是感到不屑、不想回又必須回，這個波浪號代表什麼意思？話題引發討論，不少網友都分享自身看法。這名網友在Dcard上，以「訊息後面愛加波浪～是什麼意思」為題發文，提到很多人回訊息時，都會在句尾加上波浪號，她看到以後，會猜測對方是不是覺得不屑、不稀罕，或是不熟但又必須回訊息，因此她實在不喜歡看到個波浪號。[廣告]請繼續往下閱讀...原PO也透露，她只有不爽或是回覆不熟的人訊息時，才會打波浪號。對此，她便好奇大家在句尾加「～」是什麼意思？是想輕鬆一點、讓文字不嚴肅？還是不屑、不爽又必須回覆？或是根本沒什麼意思，只是單純習慣而已？貼文曝光後，底下網友紛紛回應，「我認為是拉長句尾，表達比較輕鬆可愛的感覺」、「波浪號是比較輕鬆親切吧？怎麼會是不屑」、「放兩條蚯蚓緩解一下緊張的氣氛」。不過也有網友認為，「平常聊天訊息看到會覺得很親切，但是談正事，像是工作分派或有事求助的時候，反而覺得很虛假又隨便，一把火就燒起來，根本懶得繼續談」。還有網友驚訝表示，「有點驚訝加波浪可能會讓人不開心」、「驚訝+1，我的認知是加波浪是親切、溫和、友善的」、「原來～也可以讓人覺得是不屑？三觀再一次被刷新了」。另也有網友分享不喜歡看到的符號，「最討厭的應該是在最後面一堆......？？？看起來很躁，覺得很不開心」、「我反而是想看起來不會生氣才會加『～』耶，『= =』才討人厭」、「覺得點點點才比較不屑」。根據《重訂標點符號手冊》修訂版，連接號有「—」和「～」兩種寫法，占一個字的位置，居正中，用於連接時空的起止或數量的多寡等，例如「台北～左營」、「1～1.6公斤」。 </t>
         </is>
       </c>
     </row>
@@ -479,17 +476,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>澤倫斯基喊話「邀習近平訪烏」　中國外交部回應了</t>
+          <t>狂男一喝醉就打110：警察收賄　「7年報案近40起」北市警不忍了</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469619.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470416.htm</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲澤倫斯基公開邀請習近平到訪烏克蘭。（圖／路透）記者林彥臣、陳宛貞／綜合報導習近平日前出訪俄羅斯，與俄國總統普丁會談，聲明更呼籲俄烏透過和談解決危機。烏克蘭總統澤倫斯基近日接受外媒專訪，也隔空邀請習近平來訪，「我們準備好在這裡與他見面」。中國外交部外交部發言人毛寧也對此做出回應。毛寧在記者會上回應相關提問表示，「在烏克蘭問題上，中國同包括烏克蘭在內的有關各方都保持著溝通。關於你提到的具體問題，我沒有可以提供的信息。」▲中國外交部發言人毛寧。（圖／CFP）《美聯社》29日刊出的專訪中，澤倫斯基公開向習近平喊話，「我們準備好在這裡與他見面，我想和他談談。在全面戰爭以前，我和他曾有接觸，但這一年多以來沒有。」習近平上周訪俄會晤普丁，使得北京向莫斯科提供武器及彈藥軍援的可能性提升，但習近平事後未發表相關聲明。普丁則是在幾天後宣布，將在白俄羅斯部署戰術核武，使克里姆林宮核武庫更逼近北約（NATO）領土。澤倫斯基對此分析，「這代表什麼？代表這次訪問對俄國不利」，暗示普丁此舉實際上是為了轉移大眾注意力，因為他無法得到中國提供軍援的承諾。 </t>
+          <t xml:space="preserve">▲王男長達7年誣指警察收賄近40次，遭起訴誣告罪。（示意圖／pixabay）記者劉昌松／台北報導王姓男子因曾聽到台北市警中山分局某派出所陳姓警員接聽1通神秘電話，便從7年前開始，只要一喝醉，就打110報案，檢舉陳姓警員涉嫌收賄，陳警不堪其擾，擔心在警界名聲受損，決定提告止謗，台北地檢署調查時，王男無法提出事證證明自己檢舉可信，30日被檢察官依誣告等罪起訴。據了解，陳姓警員與王男原本是朋友，但因故鬧翻後，王男至少從2015、2016年間開始，時常打電話點名陳姓警員收賄，一開始，警方慎重以待，但查無陳警涉及不法情事，可是王男還是一喝醉就打110報案，甚至會對接聽人員大罵三字經，質疑警方縱放不辦。陳警屢遭檢舉的事情慢慢在警界傳開，陳警對流言蜚語忍無可忍，決定控告王男涉嫌誹謗及誣告。王男表示，他多年前和陳警喝酒時，陳警有接到1通神秘電話，他內容跟收賄有關，因此提出檢舉，但除此之外拿不出任何事證佐證自己的指控。檢察官根據王男過往報案3、40次的紀錄，以及最近11次的110通話錄音，認定王男無故指摘陳警收賄，觸犯意圖他人受刑事或懲戒處分的誣告罪，因此將王男提起公訴，王男將面臨最重7年以下有期徒刑。 </t>
         </is>
       </c>
     </row>
@@ -499,17 +496,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>楊子儀「關機不接電話」被三立封殺！「乾爹」阿西說話了</t>
+          <t>橘貓「臭臭」貼臉熟睡搶被被　奴才融化：才剛領養4天</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469612.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470413.htm</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>記者林奕如／台北報導楊子儀被三立大動作下令封殺，聲明指出「總經理淋雨驅車到宮廟找他避不見面」，「乾爹」陳博正（阿西）29日出席Netflix《模仿犯》新戲，他回應：「這個我不清楚沒辦法回答。」至於總經理拜訪時，他是否在宮廟，他說：「我當時在（宮廟），但我不知道，他們都聯絡不到顯然是關機。」▲「阿西」陳博正出席《模仿犯》首映。（圖／記者林奕如攝）楊子儀有虔誠信仰，一有空都在「乾爹」陳博正宮廟服務，客串演出三立《天道》飾演江國賓年輕時代，編劇多寫一場關鍵戲，希望他繼續演出，但他以個人規劃婉拒，三立大動作下令終止合作，並且發聲解釋他避不見面、電話不接，讓業界人士都吃驚。[廣告]請繼續往下閱讀...陳博正對於楊子儀被封殺低調不多說。他今身穿白色西裝，出席星光首映，劇中飾演愛孫心切的宮廟主委，被殺人犯要求「跪地學狗爬」才肯放人，畫面讓觀眾都不忍。導演張榮吉大讚陳博正體力超好：「西哥被兇手要求跪地爬行的戲，他完全不喊累，還會一直問問題，精神超好，工作人員都已經快體力不支，他真的是所有人裡面最強的。」陳博正笑回：「我這個人30年來見光死，晚上剛好是我的時間，因為小時家裡開撞球場，都習慣了。」</t>
+          <t xml:space="preserve">▲臭臭非常黏人撒嬌。（圖／翻攝自Reddit@hunnie_bee8）記者李依融／綜合報導橘貓臭臭(Stinky)貼在奴才臉頰邊熟睡，看似已經朝夕相處好幾年，事實上牠才進家門4天，但奴才已經打算寵爆牠。Reddit網友@hunnie_bee8分享照片，只見橘貓臭臭靠在她的臉頰旁邊睡得香甜，她介紹到「這是臭臭，4天前的雨天裡牠進了家門，現在牠想要多少被被都可以搶走。」@hunnie_bee8表示，那個雨天裡臭臭全身溼答答、臭摸摸出現在家門口，看來很渴望疼愛，於是就成了他們家的貓。[廣告]請繼續往下閱讀...▲臭臭得到滿滿的關愛。（圖／翻攝自Reddit@hunnie_bee8）網友們看到放閃照片也被融化，「完全看不出來才養4天」、「這黏人程度大概養了4年吧」、「我家養4年的貓貓還不給抱抱」、「牠嘴角是不是在笑」。然而後來@hunnie_bee8帶臭臭去健康檢查，發現牠有嚴重的感染，獸醫給了2個建議，一是安樂死，二是進行昂貴的治療，@hunnie_bee8並不打算放棄，但她坦言醫療費高昂，於是開了募捐網頁，而許多喜歡臭臭的粉絲也慷慨協助，希望臭臭能恢復健康。▲臭臭其實生病了，主人希望能盡力醫治。（圖／翻攝自Reddit@hunnie_bee8） </t>
         </is>
       </c>
     </row>
@@ -519,23 +516,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>清明連假龍潭交通疏導看這邊　桃園彩色海芋季周末登場</t>
+          <t>台中2工人受困逾7hrs！盧秀燕蹲地撫肩安慰家屬：我們不會放棄</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469620.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470419.htm</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲清明連假將屆，龍潭警方將在重要路口實施管制。（圖／記者沈繼昌翻攝）記者沈繼昌／桃園報導清明連續5天假期將屆，龍潭警方將針對公墓公園周遭交通實施交管，另也針對轄區風景區提供交通導，籲請掃墓民眾與遊客配合，以避免於假日期間賽於車陣中；此外，「2023桃園彩色海芋季」將於本週末4月1日起至16日止在大園區登場，大園警方預估將吸引大量遊客湧入，為維護展區周邊道路交通秩序，將派員加強疏導車流，並取締、拖吊違規停車，籲請遊客與民眾配合。龍潭警分局因應4月1日至5日連續5天清明連假以及龍潭區公所辦理公墓公園春祭活動，將針對轄區易壅塞路段研擬規劃交通疏導作為，使民眾能快樂出遊交通順暢不塞車。▲清明連假將屆，龍潭警方將在重要路口實施交通疏導。（圖／記者沈繼昌翻攝）-此外，針對龍潭區多處觀光景點如石門水庫、小人國與六福村等知名風景休憩區，連假期間加上掃墓節日，預估吸引大量遊客與掃墓民眾湧入龍潭地區，面對交通流量大，除在重要路口編派員警、協勤民力協助交通疏導工作，建議民眾往遊樂區方向行駛替代道路如下：-一、龍潭交流道下(往中正路方向)→大昌路→右轉中正路→左轉新龍路→左轉中豐路→往小人國及六福村遊樂區方向。-二、龍潭交流道下(往中正路方向)→大昌路→左轉中正路→往石門水庫風景區方向。-三、高原交流道下(往高原方向)→高原路→中原路→往小人國及六福村遊樂區方向。-四、高原交流道下(往龍潭方向)→高原路→龍源路高原段→龍源路→往石門水庫風景區方向。-此外，4月1日（週六）清晨6時至12時，國道三號龍潭與高原等系統交流道南下入口匝道執行高乘載交通管制，籲請駕駛人掌握交通動態及各項管制措施，彈性調整行車時間與改道動線，以免去塞車之苦。▲清明連假將屆，大園警方將在主要路口實施管制。（圖／記者沈繼昌翻攝）「2023桃園彩色海芋季」將於4月1日起至16日止，在大園溪海休閒農業區登場，大園警方預估活動期間適逢清明節連續假期將吸引大量民眾賞花，警方為維護展區周邊道路交通秩序，將派員加強疏導車流及取締、拖吊違規停車，並於附近路口實施交通管制措施。大園警方指出，今年桃園彩色海芋季展期共16天，橫跨3個週末假日，警方將於例假日及清明節5天連假上午8時至晚間6時，針對「和平西路一段與聖德北路口」、「航城路與崙后路口」、「田溪路與華興路二段路口」、「田溪路與溪海路口」、「月桃路與聖德路口」等5個地點實施交通管制措施；平日的8時至18時則是於「田溪路與華興路二段路口」單向管制車輛進出。▲清明連假將屆，大園警方提供管制路線圖。（圖／記者沈繼昌翻攝）大園分局提醒，交通管制期間僅限持相關通行證車輛、接駁專車、復康巴士、執行公務車輛通行，附近因停車空間有限，為避免停車不便或交通壅塞降低遊興，籲請民眾搭乘大眾運輸交通工具，相關乘車資訊可至桃園彩色海芋季官方網站查詢，籲請駕駛人遵守各路口執勤員警或義交指揮，嚴禁違規停車，共同維護交通安全與順暢。 </t>
+          <t xml:space="preserve">▲台中老屋倒塌，2工人仍受困，盧秀燕蹲地安慰家屬       。（圖／記者白珈陽攝，下同）記者白珈陽、許權毅、黃資真／台中報導台中市中區台灣大道一段299巷30日上午10時許發生房屋倒塌，目前救出1名蔡姓工人身亡，另有陳姓(52歲)、吳姓(41歲)2名工人未脫困，救難人員仍在奮力救援當中。市長盧秀燕於下午5時50分抵達現場，蹲下慰問受困者家屬。稍早盧秀燕到場一一慰問受困者家屬，有家屬崩潰喊話，「都已經看到腳了，為什麼不趕快搶救，為什麼還要拆那個地方？」盧秀燕連忙安撫家屬情緒，表示由於倒塌嚴重，現場沒辦法用大型機具，用的話可能導致旁邊房子倒塌，所以只能用微型機具跟人工搶救，「我們一定不會放棄，搶救到最後一刻，因為現場旁邊房子也有可能倒塌，所以不能隨便動。」盧秀燕表示，目前現場的瓦斯，電線、水，造成破壞，怕引起火災、水管破裂造成搶救困難，所以聯繫相關公司斷水斷電，也還無法進行安置、供臨時電、臨時水，因此進行疏散，請附近100多戶多多包涵，「因為現在在救人</t>
         </is>
       </c>
     </row>
@@ -545,17 +536,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>萬海航運「雋春輪」命名典禮　將投入亞洲區間航線</t>
+          <t>HAPPY寵物月！限時5天春遊快閃超優惠</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469618.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2469979.htm</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲左二起台船董事長鄭文隆，命名人陳宜和、萬海董事長陳柏廷；陳宜和為陳柏廷愛女。（圖／萬海提供）記者張佩芬／台北報導萬海航運今(29)日上午於台灣國際造船公司為新船「WAN HAI 331雋春輪」舉行命名典禮，新船預計4月交船投入亞洲區間航線。今日命名的船舶是萬海向台造購入建造中的4艘3000箱(40呎櫃)系列貨櫃輪的第一艘，由萬海董事長陳柏廷與台船董事長鄭文隆共同主持，並邀請陳宜和為「WAN HAI 331雋春輪」命名與擲瓶，祝福新船航行平安、順風滿載。[廣告]請繼續往下閱讀...此批向台船購置的3000箱系列貨櫃輪，延續了萬海的船隊更新計畫，該系列船舶全長209.8公尺，寬32.8公尺，最大吃水11.2公尺，設計船速可達20.2節。船舶採用低阻線形、高效能螺槳、全平衡扭曲緣舵、非對稱舵球及劍艏設計，有助於航行中減少阻力，達到節能省油效果，並配置節能主機，提前符合EEDI(Energy Efficiency Design Index) phase III最高標準，並加裝中度負荷調校(Part Load tuning)及排煙旁通系</t>
+          <t xml:space="preserve">+記者姚亮均／綜合報導+清明連假即將到來，你準備好帶心愛的毛小孩一起出去玩了嗎！限時5天春遊優惠快閃即將開跑， 4月1日至4月5日，只要加入APP會員購買全館商品，包含美容、住宿等消費滿1000送100元現金抵用券，滿2000送200，買越多送越多！同時會員優惠再加碼，全館消費滿300「點數5倍送」一點一元超好康。+活動期間多項犬貓飼料、零食等人氣商品都有甜甜價等你來逛，精選狗玩具及經典逗貓玩具也祭出77折優惠，除此之外，東森寵物嚴選品牌自然主義推出加碼送活動，即日起至5月3日，凡購買自然主義貓糧2kg系列、犬糧2kg系列、犬糧10kg系列，分別會送出「舒沛貓用鮮湯包4入」、「普麗犬肉泥2入」以及「益菌的革命尿布墊1組」。數量有限，送完為止，敬請把握！+毛孩能夠健健康康一直都是毛爸毛媽最大的心願，人類會吃保健品來保養身體機能、增強抵抗力，同樣的毛小孩也需要補充適當的營養品維持身體健康。+上了年紀的毛小孩，就像人一樣，因老化容易出現各種健康問題，常有退化性骨關節炎、走路跛行、站姿改變的症狀出現，照顧毛小孩的健康應從平日保養做起，隨著毛爸毛媽越來越重視寵物保健，針對許多人在意的關節問題，東森寵物推出漢方龜鹿基底並且適合全齡犬貓的關節保健品「毛骨力」，添加綠貽貝抑制發炎反應、減緩疼痛，溫和食補，提升毛孩行動力、強健骨骼肌力、緩解關節退化。而在飼主購買保健品時最注重的「適口性」部分，東森寵物經過200多位飼主實測後，有9成以上的滿意度。+4/1 起將推出上市優惠活動，原價$1680特價只要$1080，除此之外，若一次購買2件，即可享有2件1680元，相當於買一送一超優惠。+東森寵物與全家合作祭出優惠好康，即日起7月31日至全家便利商店門市購買毛暢快，掃描盒內QRcode即符合「消費登記送東森幣」的資格，照顧毛孩的同時還能抽萬元提貨券！+清明連假許多人會去掃墓外出旅遊，許多毛孩不方便一同出門，只好獨自看家，想必很多奴才一定很擔心毛孩在家狀況。東森寵物東森廣場店推出全新雙色貓住宿，一貓一空間專屬休息區，並由美容師整理環境和帶出來放風，讓容易害怕、緊張的貓咪就像在自己家一樣，能在安心的環境裡休息。+東森寵物北屯后庄北店也推出「度假Villa風」和「挑高主題房」的犬貓住宿，每日由寵物保母細心整理環境，讓飼主外出時可以安心把毛孩送來住宿，享受最舒適的服務，東森寵物絕對是毛家長們的假期首選！凡4/1至4/5連假期間寵物住宿，加碼再享洗澡折價券或貓湯包好禮二選一！憑悠遊付付款最高可享7%回饋，好康限時送，詳情請洽各服務門市。+為了更貼近飼主和毛孩們的需求，東森寵物更規劃「寵物洗澡美容套裝」除了外在美容服務也關心毛孩們的內在身體狀況，一共規劃兩種美容專案提供毛爸毛媽選擇，「半年票套裝」內容包含18次洗澡及6次大美容再贈送慈愛動物醫院健檢套裝，「年票套裝」內容包含36次洗澡、12次大美容及12次水療或SPA升級服務再加碼贈送慈愛動物醫院健檢套餐2套，給毛孩從外而內的呵護。+美容套票贈送的慈愛動物醫院健檢內容包含理學檢查，透過問診、聽診、觸診、體溫、毛髮、骨頭了解毛孩的概況，以及全套血液檢查，透過血檢了解更細部和深層的判斷，還有胸腔X光，檢視初步的心臟輪廓大小和慢性的肺部問題，守護毛孩的健康。【東森</t>
         </is>
       </c>
     </row>
@@ -565,17 +567,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>誰殺了狒狒！各方說法「推光光」撇責　桃檢鴨子划水揪真相</t>
+          <t>拉拉飲料店探班　前腳興奮趴上櫃檯：本汪要兩杯寶路半糖微冰！</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469583.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470396.htm</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲桃園檢警偵辦東非狒狒案目前對於誰授意林姓獵人開槍成為關鍵，但檢警對於案情堅不鬆口。（圖／林務局提供）記者沈繼昌／桃園報導桃園檢警這兩天陸續傳喚桃園市農業局、新竹六福村等3月27日下午在楊梅富岡圍捕現場參與人員到案說明，其中關鍵開槍的林姓獵人堅稱是有人授意他開槍才造成東非狒狒最後傷重不治；桃園檢方承辦檢察官已要求楊梅警方完成農業局等相關人士二次筆錄，偵辦重點擺在是誰授意林姓獵人開槍，但檢警對此均堅不鬆口，讓外界對本案更覺得疑雲重重。桃園市農業局於本月24日成立「抓狒戰情室」，結合包括農業局林務科、動保處、警察、消防與民政等單位全力投入搜捕行列，夜間則持續啟動高解析度熱成像儀器搜尋，希望能盡速捕獲脫逃狒狒，經過幾天搜查後於3月27日下午3時25分在楊梅區富岡某民宅豬寮捕獲逃竄多時的東非狒狒，但後來六福村獸醫察覺狒狒身上大量出血，趕緊就近送往六福村治療，但最終仍傷重不治，這場狒狒大戰最終以悲劇收場，更引發各界嘩然。▲桃園檢警偵辦東非狒狒案目前對於誰授意林姓獵人開槍成為關鍵，林姓獵人堅稱售獲得獸醫才開槍。（圖／記者沈繼昌攝）為釐清狒狒死亡真相，事發地楊梅警方報請桃園地檢署指揮偵辦，先後兩次傳喚參與圍捕狒狒各方人士到案說明，其中關鍵者是合法擁有獵槍執照的林姓獵人，但他昨日受訪時聲稱，在東非狒狒受困時數次有攻擊動作，在獲得授意下才開槍射擊，而且朝其右屁股處射擊1槍，但為何最後演變成左胸中彈傷重致死，他百思不解，但願意向大眾表達歉意。▲桃園檢警偵辦東非狒狒案目前對於誰授意林姓獵人開槍成為關鍵，動保處長王得吉昨天受訪時強調，「如果我知道是獵槍，怎麼會讓他開槍」。（資料照／記者沈繼昌翻攝）楊梅警方昨天傳喚現場總指揮桃園市動保處長王得吉、資科局專委盧紀燁、六福村吳姓獸醫、林姓獵人等到案說明，其中動保處長王得吉受訪時強調，「當時知道林姓獵人有帶獵槍，如果我知道是獵槍，我怎麼會讓他開槍」等語。據指出，桃園檢警針對此案均低調偵辦，其中林姓獵人堅稱是有人授意下才開槍，且開槍前曾強調，若開槍可能會造成死亡或重傷等後果，但仍獲得授意才開槍。檢警對此列入偵辦重點，但目前對於到底是誰授意開槍等關鍵疑點，檢警對此仍不鬆口。 </t>
+          <t xml:space="preserve">▲拉拉：本汪來探班啦！（圖／飼主方聖昀提供，下同）實習記者謝曉菁／綜合報導「本汪要用Dog Pay 付款！」高雄飼主方聖昀家中有隻體型巨大的拉布拉多超級可愛，這日爸爸便在網路上曬出一張照片，只見畫面中，拉拉趴在飲料店櫃臺上，興奮的模樣就像是在跟店員點餐一般，讓爸爸看到之後都忍不住模仿狗狗語氣，「兩杯寶路檸檬半糖微冰」。照片中清楚可見，拉拉將前腳搭在櫃台上，小腦袋一直想往前伸去跟店員互動，看上去可愛又逗趣。原來這日拉拉來到爸爸的店裡探班，當時爸爸正好在櫃檯站崗，狗狗見狀後便興奮的趴上去撒嬌，就好像客人在跟店員點餐一般，超萌模樣融化眾人。[廣告]請繼續往下閱讀...▲拉拉與小主人。這張照片一在臉書社團「有點毛毛的」與「拉布拉多的日常」發出，立刻引來大批網友按讚並紛紛回覆，「付現還是電子支付？發票要印還是存載具？」、「汪：可不可以用我的罐罐抵飲料？」、「汪：我需要狗狗專門喝的新鮮牛奶飲」、「不能這麼可愛餒」、「汪：刷後頸的晶片喔！」、「阿狗點餐奴才付錢」、「這比較像搶劫呢」、「汪：我用Dog Pay 付款 」、「外加一箱罐罐」。感謝您在《有點毛毛的》社團的投稿，您提供的素材我們已經依版規處理，並撰寫成新聞，如未能在第一時間採訪，或內文有誤解之處，還請不吝指正，感激不盡！版規全文請點此。 </t>
         </is>
       </c>
     </row>
@@ -585,17 +587,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>快訊／每人限買1盒！　全家420間店明天開賣盒裝進口蛋</t>
+          <t>拍AV可以偷吃女優豆腐？　導演親揭拍片內幕「試鏡過程公開」</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469616.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470418.htm</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲全家開賣進口盒裝蛋。（圖／業者提供）記者蕭筠／台北報導配合政府進口雞蛋販售政策，全家宣布明（30）日起開賣常溫進口蛋，售價68元，並限定在苗栗、台中及南投中部地區共420間門市販售，每人限購1盒、售完為止。全家將於明（30）起開賣常溫進口蛋10入裝／盒，售68元，將配送至苗栗、台中及南投中部地區420間店舖販售，每人限購1盒、售完為止；業者將積極配合政府蛋品相關供應及調度，盡力滿足消費者蛋品需求。另，7-11稍早也宣布明（30）日起開賣盒裝進口蛋，10入裝售68元，效期為14天，盒裝蛋品將於台北市、新北市逾900間限定門市陸續到店販售。因貨量有限，每人限量1盒、售完為止，滿足民眾就近採買需求，7-11將持續積極爭取全台門市販售專案進口盒裝雞蛋，後續供貨以政府調度為主。 </t>
+          <t>記者孟育民／專訪台灣成人影視工作，近年來蓬勃發展，社會風氣也越來越開放，許多人開始探討AV產業不為人知的一面。一名經驗豐富的成人片導演「奚特樂」以及攝影師「香蕉先生」接受《ETtoday星光雲》專訪，澄清大眾對於這份工作的誤解，「大家會覺得攝影拍影片會看到福利的畫面，可以有很多肢體上的互動，覺得我們會卡油，我們真的跟肢體接觸的是男男去示範，女生還是要盡量避免！」▲導演奚特樂（右）以及攝影師香蕉先生（左）接受《ETtoday星光雲》專訪。（圖／記者孟育民攝）奚特樂說常被質疑，拍這麼多片私底下還會「看片DIY」嗎？他則說：「你不看都沒反應，你要怎麼拍？其實對我來說，我們是沒有辦法碰到女孩子，但我會看她的影片享受一下，這不是叫侵犯，是欣賞她的表演，在現場才知道她很擅長的部份！」他還說其實女演員私底下沒有那麼愛發生性關係，很多女生來試鏡，連姿勢什麼的都不太會，遇到性冷感的也有！[廣告]請繼續往下閱讀...▲▼拍片場景公開。（圖／記者孟育民攝）說到男女片酬的差益，男優跟女優的價碼可相差到數10倍之多，因為大部分的客群主要還是想看女優為主，不過男生能拍的片數相對也比較多。另外面試的方面也有講究，需要全裸看身上有沒有刺青，也會現場看體位姿勢，詢問性經驗的次數，甚至連叫聲都會聽，香蕉先生說：「他們很緊張，我也很專業，我當下真的不會有任何反應，我在拍攝的狀態下，那個身心是分開的！」▲他們坦言要做這份工作，需要有絕對的毅力。《ETtoday星光雲》專訪。（圖／記者孟育民攝）而他們工作時數最長可以到16小時，有時後拍一部片最多可以花上好幾天，工作的辛苦一言難盡，不像外人所認為，輕鬆賺錢還有福利可看，他們開玩笑說工作一年等於別人的4.4年。香蕉先生就坦言自己曾壓力大到鬼剃頭，連作夢都還會夢到演員。說起職業傷害，他也表示：「以前看片很享受，現在就是會分析這部片，不過有一個開關可以抽離啦！」    在 Instagram 查看這則貼文           明大叔（@mindasu）分享的貼文      在 Instagram 查看這則貼文           Studio817｜香蕉先生（@studio817.art）分享的貼文</t>
         </is>
       </c>
     </row>
@@ -605,18 +607,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>陳鴻文卡位4號先發　3新秀爭第5號輪值</t>
+          <t>【廣編】統一「沖泡式非油炸麵」現煮口感驚豔ITI國際名廚！法國YouTuber「酷KU」想引進家鄉</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469615.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470408.htm</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲陳鴻文 。（圖／樂天桃猿提供）記者王真魚／嘉義報導樂天桃猿開季洋將以2先發1後援為主，威達爾以及霍爾、豪勁迎接開季，雷法先在二軍待命。黃子鵬是本土王牌，總教練曾豪駒表示，在曾仁和受傷後，希望陳鴻文能頂替4號先發，另外3新秀林子崴、莊昕諺以及陳克羿，將競爭第5號先發。曾仁和因下背部不適退出經典賽中華隊，回到母隊後，至今尚未牛棚。曾豪駒透露，他已經進入訓練狀態，「何時可以出賽，就看他接下來牛棚的進度。」[廣告]請繼續往下閱讀...在曾仁和受傷的情況下，桃猿本土輪值出現空缺，去年季後吸收陳鴻文，曾豪駒期待他能卡位第4號先發，也直言他是投手戰力關鍵。幾名年輕投手今年有望竄起，包括林子崴、莊昕諺以及陳克羿。曾總說，將由他們競爭第5號輪值。牛棚方面也有亮點，邱駿威，有望開季一軍。曾總表示，邱駿威去年球季末因腳踝受傷缺席，今年春訓調整順利，與張梓軒拉上一軍後，預計是短局數為主。-  </t>
+          <t xml:space="preserve">▲統一「小時光麵館」的沖泡式非油炸麵現煮口感，獲得ITI國際風味評鑑2星榮耀，好吃到連YouTuber「酷KU」都想引進家鄉。圖、文／統一提供市面上有琳琅滿目的速食麵供民眾選擇，但盲測食感如同現煮手工麵的統一麵「小時光麵館」從眾多食品類選手中脫穎而出，成為台灣第一碗獲得ITI國際風味評鑑2星榮耀的「沖泡式非油炸麵」，成功躍上國際舞台！令人驚艷的口感不僅在國內創造好評，現在更紅到連國外主廚也讚不絕口，甚至本次的活動大使法國YouTuber「酷KU」都忍不住起心動念想要引進家鄉。ITI是由全球公認深具公信力與影響力的國際食品評鑑機構「國際風味評鑑所」所舉辦，每年都吸引全球許多國家爭相角逐，由200多位專業廚師依照外觀、香氣、口感、質地、後味等評分，是全球業界公認最具影響力的評鑑之一。此次參賽且獲獎的沖泡式非油炸麵為統一麵小時光麵館，是以盲測獲得ITI國外主廚評審一致好評與二星獎肯定。其中更因獨特麵體、道地川蜀調味、豐富蔬菜、與增加層次口感的花生角，大獲得國際名廚評審群認可，吃過無一不讚嘆。KU表示，「這碗麵有打動我的心，從泡好的香氣開始就不得了，沖泡式非油炸麵體帶有嚼勁、不軟爛，搭配花椒辣的剛剛好，湯頭辣爽順口，還有豐富的蔬菜及花生角增加口感，一碗麵的整體層次做得讓人驚艷，重點是這碗不須烹煮只要簡單沖泡就可以吃到，真的很不簡單！」讓Ku直呼吃得好過癮，好想引進家鄉！還沒體驗過沖泡式非油炸麵的魅力可就遜掉了，現在在全台的7-ELEVEN及康是美都可買到。 </t>
         </is>
       </c>
     </row>
@@ -626,18 +627,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>快訊／驚悚畫面曝！桃園女湖口車站落軌　遭自強號撞上當場死亡</t>
+          <t>孟加拉記者報導「物價飆漲」被抓恐關14年　政府：不實新聞</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469614.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2469948.htm</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲湖口車站今日發生一起女子落軌，當場遭撞死意外。（圖／民眾提供，下同）記者陳凱力、許權毅／新竹報導台鐵128次自強號列車今（29）日17時32分經新竹湖口車站時，撞上一名落軌女子，該女當場死亡。新竹消防指出，獲報後派遣消防人員前往現場，17時46分時人員回報女子明顯死亡，經確定女子家住桃園，後續交由鐵路警察處理，落軌原因仍待警方調查釐清。台鐵在事發後緊急通知警方處理，北湖=湖口=新豐間以東正線單線行車，列車出現延誤，128車次旅客換乘130車次。● 《ETtoday新聞雲》提醒您，請給自己機會：-自殺防治諮詢安心專線：1925；生命線協談專線：1995 </t>
+          <t xml:space="preserve">▲孟加拉記者沙姆斯因報導國內物價飆漲，遭便衣警察至家中將他逮捕。（圖／翻攝自YouTube／Prothom Alo）實習記者任庭儀／編譯孟加拉報社記者沙姆斯（Shamsuzzaman Shams）因報導國內物價上漲相關新聞，29日凌晨被便衣警察從家中帶走。當局稱，這名記者刻意散播「虛假新聞」，依據《數位安全法》將他逮捕，並求處14年有期徒刑。據悉，孟加拉政府曾於今年1月大量封鎖國內新聞網站，媒體言論自由持續被打壓引發各界擔憂。孟加拉「黎明日報」（Prothom Alo）指出，該報社所屬記者沙姆斯29日凌晨4時左右，遭便衣警察至家中將他逮捕。內政部長可汗（Asaduzzaman Khan）表示，沙姆斯因報導「虛假新聞」已被警方逮捕起訴，如果未來再有同樣事情發生，他會再次入獄。另據法新社，沙姆斯於26日發表一篇報導，文中引用民眾批評國內不斷上漲的物價，「如果吃不起飯，要獨立有什麼用？我們要吃得起魚、肉和米飯。」執政黨認為，沙姆斯刻意散播不實新聞抹黑政府形象，根據《數位安全法》向法院求處最高14年有期徒刑。今年1月，孟加拉下令封鎖191個發布「反國家」新聞的網站，並指控這些網站在公眾中製造混亂。孟加拉智庫數據顯示，自2018年頒布《數位安全法》以來，已有3000人受到指控，其中包括280名記者。無國界記者組織2022年發布世界新聞自由指數排名，孟加拉在180個國家中排名第162位，低於俄羅斯（155名）和阿富汗（156名）。 </t>
         </is>
       </c>
     </row>
@@ -647,17 +647,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>藍營要吳釗燮為斷交下台　陳水扁：那蔣經國不就要找38個外交部長</t>
+          <t>藍營北市立委初選採「三七比」　徐弘庭嘆：又是黨員投票</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469610.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470394.htm</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲前總統陳水扁。（圖／記者杜冠霖攝）記者杜冠霖／台北報導我國26日正式宣布和宏都拉斯斷交，邦交國剩下13個，國民黨也要求外交部長吳釗燮下台負責。對此，前總統陳水扁29日受訪時回應，中共對台灣的外交政策很簡單，就是挖光、擠光、堵光，蔣家時代前後17年更是斷掉38個國家，「難道當時要找38個外交部長來做？台灣不分朝野、藍綠通通一樣，「阿共」就是那種壞鄰居啦！大家要團結，好不好？」外交部長吳釗燮26日上午舉行記者會，宣布與宏都拉斯斷交；吳釗燮會中證實，宏都拉斯曾兩度提出蓋醫院、興建水壩、希望我國吃掉20億美金國債的要求，總金額高達24.5億美金（約新台幣743.21億元），直接給錢的方式有點像是賄賂。對於總統蔡英文訪美，陳水扁表示，總統一定會過境訪問美國嘛，這也不是第一次了，總統元首外交非常辛苦，「我們是過來人，所以你就知道說，為了台灣的外交，我們的處境這麼艱難，要走出去也不簡單。」陳水扁回憶，自己總共出訪15次，最後一趟是參加瓜地馬拉總統當選人科隆的就職大典，而且也順道去訪問在東加勒比海3個島國、我們的邦交國，最後一個在2007年我們完成建交的聖露西亞。陳水扁指出，自己最後一趟出訪時，中國對台灣外交的打壓也沒放手，利用他去訪問瓜地馬拉參加總統就職典禮，要去聖露西亞時，「把我們邦交國，非洲的馬拉威、也就是副署長羅一鈞去的國家，直接拉掉，（中國）就是這樣的國家啊！」陳水扁感嘆，「阿共」就是這樣，對台灣的外交政策很簡單，就是「三光」政策，挖光、擠光、堵光，就是要挖走台灣所有的邦交國，「所以大家不要在那邊說要叫誰下台、不下台有的沒的。」陳水扁直言，在我國1971年退出聯合國、還是老蔣蔣介石的時代，直到1988年蔣經國過世，前後17年總共斷掉38個國家，「所以有人說斷交的話部長就要下台？那當時不就要找38個外交部長來做？不可能嘛！」陳水扁表示，所以要說斷最多、比例最高的就是那17年，1年超過2個以上，台灣不分朝野、藍綠通通一樣，「阿共就是那種壞鄰居啦！大家要團結，好不好？」 </t>
+          <t xml:space="preserve">▲台北市議員徐弘庭。（圖／記者袁茵攝）記者詹宜庭／台北報導國民黨立委初選「世代交替」競爭激烈，被挑戰的現任立委費鴻泰、賴士葆均喊出「三七比」，挑戰的北市議員徐巧芯、徐弘庭則主張全民調。台北市黨部30日召開委員會議投票決定初選方式，結果由「三七比」勝出。對此，徐弘庭表示，「黨員繳費時間到3月31日，但在投票人數未確定的情況下，全民調才是最沒爭議的」，更感嘆這次初選又是黨員投票。回顧2019年國民黨立委初選，時任北市議員的徐弘庭與王鴻薇投入北市第八選區（文山、南中正），挑戰時任立委賴士葆與費鴻泰，經協調後採黨員投票3成、民調7成「三七比」定勝負。而最終該兩區的初選結果，費鴻泰以59.965%支持率，勝過王鴻薇的40.035%；賴士葆則以67.555%支持率，贏過徐弘庭的32.445%。面對此次國民黨立委初選方式也採「三七比」，徐弘庭30日透過臉書發文批評，「又是黨員投票！黨員繳費時間到3月31日，但在投票人數未確定的情況下，全民調才是最沒爭議的」，並引用李白《登金陵鳳凰台》詩詞嘆道，「總為浮雲能蔽日，長安不見使人愁！一樣的導演一樣熟悉的劇本。」徐巧芯則表示，不管決議為何，對於初選她都會參選到底，並將此視為重要的機會；費鴻泰則說，非常尊重台北市委員會最後決議，感謝他們讓初選辦法回到黨中央規定，讓黨章規定初選辦法受到重視，感謝且尊重委員，一定會在初選過程非常務實拜訪每一個人，讓總統當選、立委當選。 </t>
         </is>
       </c>
     </row>
@@ -667,30 +667,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>優格姐姐被診斷「開刀挖骨」哭腫眼　曝恐懼原因崩潰：好想走路</t>
+          <t>馬英九讚武漢防疫遭綠譙爆　國民黨幫緩頰：政治不能凌駕人性</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469582.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470422.htm</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>記者蔡宜芳／綜合報導藝人「優格姐姐」林姵君1月不慎在溜冰場骨折受傷，她昨（28日）透露回診時，竟被醫生告知骨頭沒有長出來，且必須開刀挖骨，為此焦急公開求助。林姵君29日再度分享求助後的進度，透露自己在回診後哭到眼睛都腫了，但害怕的其實並不是開刀這件事。▲林姵君於年初受傷骨折。（圖／翻攝自Facebook／優格 - Doremi姐姐）林姵君29日在限時動態以「好想走路」為題，透露昨天在看完醫生後，哭到眼睛都腫了，「崩潰之下發了動態，被大家暖到，結果又哭了，太感動。」她感謝國家代表隊的隊醫提供專業意見，透露隊醫說她的骨折位置非常「尴尬」，並不是之前的醫生判斷不對，「也安慰我復原不良也不能全怪我，那個位置不可能不動到，因此最後建議我動個手術。」[廣告]請繼續往下閱讀...▲林姵君28日回診被告知骨折沒有痊癒。（圖／翻攝自Facebook／優格 - Doremi姐姐）然而，林姵君其實怕的並不是動手術，而是害怕無法自理、行動不便的生活，「原本以為乖乖靜養三個月要好了，突然要動手術，繼續延長這個狀態，讓我一時間很崩潰。」她透露，在骨折之前，她曾許願希望能體驗所有應該體驗的事情，宇宙似乎真的聽到了她的心聲，骨折後的生活，讓她從不同的角度看待自己、創傷、感情和生活態度，「我就是討厭自己是個麻煩，然後宇宙就要讓我體驗這個部分：最習慣照顧別人的人，要我靜下心來不能照顧別人，還要被照顧。」林姵君表示，雖然還不知道宇宙要帶領她到哪裡去，但她已經感受到愛和保護，能夠勇敢地面對康復的挑戰，她也收到許多網友分享自己的康復故事和保健建議，讓她充滿了信心和感恩之情。▲林姵君決定開刀。（圖／翻攝自Facebook／優格 - Doremi姐姐）【林姵君全文】好想走路昨天超多人截圖骨科醫師、中醫師、整復師傅、復健師傅的賴對話截圖給我-何其有幸讓醫師們這樣線上看我X光片諮詢-其實昨天看完醫生回到家哭到眼睛都腫了-崩潰之下發了動態，被大家暖到（結果又哭了太感動還有國家代表隊的隊醫，跟我通話（謝謝恩奕介紹）-帶我了解我自己的X光片，隊醫還跟學長們討論我這個案例，解釋得非常仔細，終於看懂我自己的骨折腳了！-隊醫也分享當初醫師的判斷也不是不對，就是因為我斷的位置非常「尴尬」（低於七公分）-也安慰我復原不良也不能全怪我，那個位置不可能不動到，因此最後建議我動個手術老實說，我根本不怕動手術，雖然挖骨聽起來很可怕。-但可怕的是我生活無法自理，行動不便做什麼都不行，原本以為乖乖靜養三個月要好了，突然要動手術，繼續延長這個狀態，讓我一時間很崩潰。我其實前陣子許願（骨折前）都是跟宇宙說：讓我體驗所有我應該體驗的，看見所有應該看見的！然後我的生活就開始從骨折那天全面性的神發展，我的理念、我的個性、我的創傷、我的感情觀、我的應對，完全寫實地呈現在我眼前-我就是討厭自己是個麻煩，然後宇宙就要讓我體驗這個部分：最習慣照顧別人的人，要我靜下心來不能照顧別人，還要被照顧。現在…我還在這個過程裡，並不曉得宇宙要帶我到哪裡去？我要孕育出怎樣的自己？但過了一天，我稍微放鬆了，真心感謝大家推薦我好多保健食品，魚湯、滴雞精啊鈣片-還有人分享比我更誇張的粉碎性骨折康復故事。不管怎樣-我已經被愛被保護著了。-來吧該挖骨頭就挖該裝爪子就裝！其實還有一些不好説的，-但對我人生來說很重要的轉變-期待事過境遷後有機會分享</t>
+          <t xml:space="preserve">▲馬英九參訪武漢抗疫專題展。（圖／記者任以芳攝）記者鄭佩玟／台北報導前總統馬英九今（30）日在武漢參觀「英雄城市抗疫保衛戰展」，稱讚中國防疫「是對人類的貢獻」，民進黨發言人卓冠廷對此批評，馬英九是替中共防疫歌功頌德、替世界罪人開脫。國民黨發言人林家興則回應，抗疫不分邊界，面對疫情、病毒的侵襲，全世界都學到需要更加擴大醫學及防疫交流、加深技術合作、共同面對與解決問題，以維護全人類的健康及生命安全。林家興指出，政治不能凌駕人性，馬前總統的談話，是表達對武漢抗疫前線醫護人員犧牲奉獻的尊重，以及對當初武漢民眾的疫情下經歷致意，不應該政治化解讀，民進黨更應該反躬自省，當初錯誤的防疫政策、包括未能超前部署、口罩疫苗快篩之亂、阻擋民間外購疫苗以及刻意推動國產高端疫苗形成各種弊端與紛擾，甚至延誤拯救民眾生命，有無誠懇向台灣社會大眾致歉、交代過？林家興表示，馬前總統選擇在後疫情時代去了解與交流，相信更著眼的是社會的人民福祉與發展復甦，更要記取過去才能避免下次的疫情再發生，而後疫情時代中，各個區域、社會的人民福祉與發展復甦，也會是國民黨關切及參與的重大議題。 </t>
         </is>
       </c>
     </row>
@@ -700,17 +687,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Steam《最後生還者一部曲》獲大多負評　玩家暴怒：比2077還爛</t>
+          <t>大幅度小改款！現代Sonata首爾車展登場　3動力、科技感滿滿</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469580.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470409.htm</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲ Steam《最後生還者》獲大多負評。（圖／翻攝自 Steam）記者樓菀玲／綜合報導頑皮狗（Naughty Dog）經典作品《最後生還者一部曲》，遊戲在昨日上線 Steam 平台獲得大多負評的評價，不少玩家反映遊戲在 PC 環境運作問題很多，玩家花費大把時間等候讀取遊戲著色器更引來不少批評。《最後生還者一部曲》講述著在文明崩壞的世界，在感染者和頑強的倖存者肆意妄為的故事背景之下，歷經滄桑的主角喬爾受僱將 14 歲的艾莉偷偷從軍事隔離區帶走。然而，原本看似單純的差事，很快變成了橫跨美國的艱苦之行。官方聲稱《最後生還者一部曲》針對 PC 進行最佳化，大大提升 PC 遊戲體驗，遊戲支援 AMD FSR 2.2 與 Nvidia DLSS 超解析度，有垂直同步與影格率上限選項，還具備許多專為 PC 設計的功能，包括可調紋理品質、陰影、反射、環境光遮蔽等效果。▲ 《最後生還者一部曲》遊戲畫面。（圖／翻攝自 Steam）然而遊戲的實際表現並不如官方預期，不僅玩家必須不斷面對反覆當掉的遊戲，還要耐著性子等待不知道要讀取多久的著色器，更有玩家發文怒批「沒想到居然有遊戲可以比 2077 還爛」，顯見遊戲在系統調校方面出現了不少問題，以上種種抱怨也造就了遊戲在上市首日，在 Steam 的評價為大多負評。 </t>
+          <t xml:space="preserve">▲Hyundai小改款Sonata正式於首爾車展登場，共有3款動力編成，分別為2.5升自然進氣、2.5升4缸渦輪與2.0升Hybrid油電動力。（圖／翻攝自Hyundai）記者林鼎智／綜合報導在日前搶先亮相後，堪稱「大幅度小改款」的Hyundai（現代）Sonata旗艦房車正式在南韓首爾車展登場，除了內外觀明顯進化外，動力編成也有3種，共有2.5升自然進氣引擎、2.5升4缸渦輪引擎（N Line車型）與2.0升Hybrid油電動力。新Sonata換上品牌銳利風格的Sensuous Sportiness設計，具有橫貫式LED日行燈、分離式LED頭燈以及開口更大的水箱護罩；車尾也針對後行李箱進行修改，還有醒目的橫貫式LED尾燈，而N Line車型更多了黑色後擾流、專屬19吋輪圈與雙邊4出尾管，賦予更多運動氛圍。▲雖說是小改款，但Sonata在換上品牌Sensuous Sportiness設計後更具運動跑格。車內採12.3吋數位儀表、12.3吋中控螢幕，皆為懸浮式曲面設計，同時還有12吋HUD抬頭顯示器、BOSE Premium音響（12支喇叭）、OTA遠端無線韌體更新、電動後行李廂及Hyundai Smart Sense輔助系統等，並且升級Digital Key 2手機數位鑰匙，除了能以手機或智慧手錶取代車鑰匙外，還能遠端遙控倒車、前進後退等。▲Sonata採12.3吋雙曲面懸浮式數位儀表、中控螢幕，並採電子線傳排檔播桿。動力上，新Sondata確定提供2.5升自然進氣引擎、2.5升4缸渦輪引擎（N Line車型）與2.0升Hybrid油電動力，不過原廠尚未公布輸出規格，同時也尚未確定是否有4輪驅動版本，還有待後續公佈才會得知。 </t>
         </is>
       </c>
     </row>
@@ -720,17 +707,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>搞錯好友婚禮「公主dresscode」　嘻小瓜一到爆笑：以為自己丈母娘</t>
+          <t>基隆港務分公司菁英講座　謝志堅談俄烏戰爭結束對貨櫃航運大利</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469609.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470405.htm</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>記者郭采縈／綜合報導嘻小瓜（謝紹宸）從舞蹈老師出身，因陰柔性質走出個人特色，受到許多綜藝節目青睞。常分享生活的他，日前受邀參加好友婚禮，對方原本規定賓客要打扮成「公主」主題，未料他卻搞錯風格，一到現場立刻噴笑「一堆人來找我拍照，還以為我在謝客」。▲嘻小瓜日前參加好友喜宴鬧笑話。（圖／翻攝自Facebook／嘻小瓜 - 謝紹宸 kuakua）嘻小瓜28日參加好友婚禮，事前只收到新娘通知「主題是公主」，為此特別穿了一身大紅色古裝搭配頭飾，以「唐朝公主」造型出席，沒想到抵達現場才發現，對方指的公主其實是「迪士尼公主」，讓他在人群中格外顯眼，「一夕之間不知道自己是新娘還是丈母娘」。[廣告]請繼續往下閱讀...▲嘻小瓜（後排最右）搞錯婚禮主題。（圖／翻攝自Facebook／嘻小瓜 - 謝紹宸 kuakua）更搞笑的是，婚禮結束後，突然湧上一大堆賓客找嘻小瓜拍照，人氣完全不輸主角新人，不禁自虧「我還以為我在謝客，但新郎始終都沒出現」。而難得與好友相聚，他也想起大學時期的回憶，儘管經過10幾年，一見面卻又立刻回到當初的嬉鬧模樣，好感情令人稱羨。網友則笑說「不可能來婚禮找新娘挑戰的吧」、「好特別好可愛，一輩子都不會忘的婚禮」、「你確定你是公主？不是武則天」、「你贏了」、「太好笑了，迪士尼公主也太好笑」、「新娘風采全被搶走，全場你最耀眼」、「不會啦！你是跟李翔結婚的木蘭」。</t>
+          <t xml:space="preserve">▲左圖謝志堅「海運界45年經驗談&amp;2023~2024年全球貨櫃航運展望」；右圖基隆港務分公司高傳凱總經理致贈謝志堅博士基隆港區畫作。（圖／基隆港務分公司提供）記者張佩芬／台北報導台灣港務公司近年致力於優化教育訓練，培植人才之專業深度與視野高度，今(30)日基隆港務分公司攜手台灣港埠協會與中華海運研究協會　邀請國立台灣海洋大學名譽博士謝志堅蒞臨菁英講座，他指出如果烏俄戰爭在2023年上半年結束後，歐洲對於物資需求將提高，看好貨櫃航運漲勢，尤其是地中海航線與經黑海至烏克蘭的航線。謝志堅分析，2024年船貨供給將大於需求，需做好控制艙位的措施，以求降低市場運力供給；2024年高存貨情形將逐漸復原，全球供應鏈回歸秩序。[廣告]請繼續往下閱讀...孝順的謝志堅博士感性地說：「這一路走來感謝父母，如果真要說，所有的成就皆歸功於父母教誨及另一半全力支持，還有不畏困難，勇於接受挑戰的精神。」基隆港務分公司秉持海洋教育理念，安排國立台灣海洋大學附屬基隆海事高級中等學校師生共襄盛舉，一同見證講者近半世紀在長榮、陽明兩大海運巨擘奮鬥的經驗談，引領現場聽眾從不同視角洞察世界航運趨勢。▲「大港迴聲見學」活動，邀請航運界大師級人物謝志堅(前排左三)蒞臨菁英講座，並邀請國立台灣海洋大學附屬基隆海事高級中等學校師生共同參與。（圖／基隆港務分公司提供）本次講座由基隆港務分公司、台灣港埠協會、中華海運研究協會合作一系列「大港迴聲見學」活動之一，規劃海洋相關校院系實地至港口見學，藉由產學資源串聯，推動海洋教育向下紮根，活動現場聚集海運產業的中高階主管、專任老師及未來生力軍，在謝博士妙語如珠，傾囊相授下進行跨世代與跨領域的知識交流，落實聯合國「2030永續發展目標」（Sustainable Development Goals, SDGs）第4項「優質教育」及第17項「多元夥伴關係」。會後，主辦單位帶領海大附中同學走出講堂，親身到基隆港客、貨運碼頭，以及東岸旅運大樓，實地參訪現場作業實務及港埠設施，更進一步了解基隆港的各項重大投資建設與未來展望，提供學生零距離的產業認知，以強化日後就業準備。期望不遠的將來有更多生力軍投入海運、港埠產業，延續台灣航運大國的盛名。 </t>
         </is>
       </c>
     </row>
@@ -740,17 +727,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>想到中東打工要先匯6萬8　懷孕女移工被勸阻保住奶粉錢</t>
+          <t>先探／晶圓代工廠資本支出不喊卡</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469605.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470241.htm</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲桃園市一名懷孕菲籍女移工昨天到桃園區某銀行臨櫃要匯款2000餘美元，行員通知警方及時到場勸阻。（圖／記者沈繼昌翻攝）記者沈繼昌／桃園報導桃園市1名大腹便便菲律賓女移工蒂娜（化名）昨（28）日下午到桃園區某銀行臨櫃欲匯款，行員詢問匯款目的與用意，蒂娜說，網友推薦前往中東有機會獲高薪打工邀約，她匯出美金2000餘元保證金折合台幣約68,000元，行員質疑被詐騙趕緊通知警方到場勸阻，員警一眼識破是求職陷阱，提出包括柬埔寨等詐騙案例，蒂娜當場決定放棄匯款保住奶粉錢。桃園警方指出，武陵派出所昨天下午1時許接獲某銀行通報，年約30歲菲籍女移工蒂娜疑遭詐騙欲匯款至國外。員警到場詢問發現，蒂娜是合法來台工作，最近為想多賺一點錢，以養活肚子裡嬰兒，透過網路認識新朋友，新朋友提議可介紹到中東地區工作，一分薪水比台灣多好幾倍，但先要匯出一筆保證金，因此不疑有他才到銀行匯款。▲桃園市一名懷孕菲籍女移工昨天到桃園區某銀行臨櫃要匯款2000餘美元，員警及時提供詐騙案例勸阻。（圖／記者沈繼昌翻攝）蒂娜還說，對方提供帳戶要她匯出保證金美金2千餘元，折合台幣約6萬8千餘元，對方收到保證金後會立即安排工作事宜，因正好懷孕因此頗為心動，為賺奶粉錢才將僅有存款匯給對方指定帳戶，安排她前往工作，因此到銀行匯款。員警一聽就發現是詐騙集團慣用假求職真詐財手法，當即拿出國內發生的詐騙案例勸導，蒂娜當場被嚇醒，當下決定放棄匯款，留下辛苦存下來的辛苦奶粉錢，好好在台灣繼續工作，以養育即將出世的嬰兒，也感謝警方及時勸阻。 </t>
+          <t xml:space="preserve">儘管受景氣影響，今年半導體業者投資縮手，但在新興應用帶動長期需求看漲下，半導體廠雖看似保守，但布局腳步並未停下，明年資本支出可望復甦。文／吳旻蓁國際半導體產業協會（SEMI）近日公布了最新一季全球晶圓廠預測報告（ＷＦＦ），表示受晶片需求疲軟，以及消費者和行動裝置庫存增加影響，因此下修今年全球前端晶圓廠設備支出總額，預計將從去年創紀錄的九八○億美元下滑二二％至七六○億美元。不過，雖然今年半導體產業資本支出針對晶片庫存修正而有所調整，但高效能運算（ＨＰＣ）、汽車等一系列新興應用領域對半導體長期需求仍持續看漲，將可望帶動二四年晶圓廠設備支出復甦，預計回升二一％至九二○億美元，重回九○○億大關。同時，報告也指出，明年台灣將持續穩坐全球晶圓廠設備支出領頭羊寶座，總額較二三年增加四．二％，達二四九億美元。當中，隨著更多供應商提供晶圓代工服務並擴增晶圓產能，晶圓代工業者今年將引領半導體業擴張，儘管整體投資額年減十二．一％，為四三四億美元，但明年投資額將重回成長達十二．四％，至四八八億美元。[廣告]請繼續往下閱讀...台晶圓廠設備支出居冠在半導體產業景氣低迷且持續去庫存化之下，近期市場再傳晶圓代工廠恐會再度下修資本支出的消息，不過半導體業者指出，目前多家廠商仍維持今年初的資本支出計畫不變，像是台積電今年資本支出保持三二○到三六○億元之間；三星在半導體領域投資亦維持在五三兆韓元的高檔；而聯電同樣保持三○億元資本支出不變，不過，聯電去年財報顯示實際資本支出為二七億元，因此今年資本支出則是有望較去年成長。此外，由於車用市場的長期成長動能，晶圓代工廠也積極轉攻車用市場，因此短線雖然面臨景氣急凍，但各大廠擴產的腳步也只是暫緩或遞延，而未完全喊停，像是世界先進因應半導體產業進入劇烈庫存調整，加上總體經濟面臨通膨、戰爭等不確定因素影響，因此雖保守進行今年資本支出，由去年的一九四億元大幅下降逾四八％，但仍有維持在百億元之上的水準。晶圓代工廠布局不停歇至於力積電去年在產能下修與銅鑼廠裝機推遲後，資本支出從原定的八．四億美元降為六．五億美元，但今年隨銅鑼廠正式開始裝機，資本支出預計將提高至十八．四億美元。由此可見，在景氣寒冬中，各家半導體廠雖看似保守，但仍持續布局，以利在市況復甦之際，搶得優勢。（全文未完）全文及圖表請見《先探投資週刊2241期精彩當期內文轉載》 </t>
         </is>
       </c>
     </row>
@@ -760,17 +747,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>買1600萬竹科房「不如放00878」？他批投報率才2%…被揪1盲點</t>
+          <t>大國開戰彈藥消耗將破表　美軍事首長籲提高產量</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469516.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470230.htm</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲原PO請益「買房還是存00878？」（示意圖／記者劉維榛攝）網搜小組／鄺郁庭報導很多人存到一筆錢會想投資，增加自身被動收入，只是要投資什麼，有時令人困惑。就有網友表示，他看了一間1600萬的竹科房，一個月租金約能收3萬，認為投報率落在2～2.5%，相較之下，如果買國泰永續高股息（00878），投報率高達6～7%，不解直問「為什麼還一堆人喜歡買房？」引發議論。這位網友在PTT的home-sale板上請益，「買房還是存00878？」說他目前看了新竹和桃園的房子，發現投報率大約就是2～2.5%，「沒看錯大約就是2%，看上竹科1600萬的房子，查租屋行情，一個月只能租3萬。」原PO就納悶，「到底那麼低的投報率，比放00878還不如，為什還一堆人喜歡買房？」會這麼說的原因，是因為他買投資00878，一年投報率可以到6～7%，「到底為什一堆人要接盤買房的風險？」結果，就有資深房板前輩秒反駁，「00878的本金翻漲有點弱，贏了股利輸了股本，然後槓桿下去，看不到人家車尾燈，你嘛拿個正二來比……00878有點弱啦！」▲網友點出原PO投報率有誤，因為很少人全現金買房。（示意圖／Unsplash）其他人也紛紛留言，「誰全現金1600萬買啦」、「如果你說你開5倍槓桿買0050，然後抱20年不被斷頭你會贏買房，這樣我還比較相信，但現實是股票波動太大，開桿槓你一下就被掃出場了」、「一般買房貸款八成會內建五倍槓桿，這是租屋股神常忽略的地方」、「請用頭期兩成去算投報率才對。」還有網友表示，「你的算法是全款現金買下，但買房大概自備兩成320（萬），你不如貸八成買房，然後剩餘的投入你說的，賺的拿回來付房貸，這樣不就有房有股？」「為什麼不兩個都有呢？買房開寬限期租人（有居住需求就自住）利用寬限期中間多餘的錢持有00878，寬限期結束後，00878的股利還大於你增加的本利攤房貸。」事實上，2月中也曾有女網友認為，如果買進100張00878股票，以2月17日收盤17.04元來算，成本約170萬4000元，每股配發新台幣0.27元現金股利，3月22日就會入帳季配息2萬7000元，等於一個月就賺9000元股利，笑虧「好像買一間套房，租人一個月收租9000元，好像很划得來喔！」當時就有一票狂搖頭，「這樣子算法很危險，『配息會扣股價』，除非每一次都填息，不然有扣到本金的機會，沒有穩贏的」、「買房是先付頭期，預售屋先付一點，而且房價會上漲，如你是2年前買的房產，就剛好遇見去年那一波行情，雖然有房客要處理，但房租可以跑稅金，另外房可以申請的低利貸款 ，簡單說股票／房，兩者性質不一樣喔」、「股票跌……你就要哭了。」►來聽《地產詹哥老實說》聊房子吧！ </t>
+          <t xml:space="preserve">▲美軍參謀長聯席會議主席麥利警告，美國的武器庫存還有很大的努力空間。（圖／路透）實習記者任庭儀／編譯俄烏戰爭持續一年多，美國在這期間不斷向烏克蘭提供軍援，卻也使自身面臨彈藥不足的危機。美軍參謀長聯席會議主席麥利29日警告，美國若與另一大國開戰將使彈藥消耗破表，必須為此做好準備。然而美國的武器庫存還沒準備好，目前還有很大的努力空間。法新社報導，自俄羅斯於2022年2月入侵烏克蘭以來，美國已向基輔提供上百億美元的軍事援助，引發各界擔憂美國武器庫存是否還充裕。參謀長聯席會議主席麥利（Mark Milley）29日在眾議院軍事委員會上指出，「烏克蘭讓我們學到重要的一課，就算是有限的區域戰爭，傳統彈藥的消耗速度也很驚人。」他說，「如果朝鮮半島爆發戰爭，或者美俄、美中之間爆發大國戰爭，彈藥的消耗速度將會破表。必須確保在真正的突發事件來臨前，庫存是充裕的......我們還有很大的努力空間。」陸軍副部長卡馬里奧（Gabe Camarillo）28日表示，美國的目標是大幅提高砲彈生產，「我們投資14.5億美元（約新台幣442億元）用以擴充155毫米砲彈產量，將在今年稍晚從每月1萬4000枚增加至2萬4000枚，且在2028財政年度前產能提升6倍，達到每月超過8萬5000枚。」▲海馬士多管火箭系統（HIMARS）。（圖／達志／美聯社）卡馬里奧說，美國也試圖增加標槍導彈（Javelin missiles）、海馬斯火箭彈（HIMARS）等發射器和彈藥的產量，這些武器在俄烏戰爭中發揮關鍵作用。國務卿布林肯（Antony Blinken）20日宣布，通過「總統撥款權」（PDA），第34次為烏克蘭提供價值3.5億美元（約新台幣100億元）軍援，包括HIMARS火箭彈、155毫米砲彈、反坦克武器、巡邏艇等物資。 </t>
         </is>
       </c>
     </row>
@@ -780,18 +767,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>曾豪駒期待3重砲復活　古久保點名林立關鍵</t>
+          <t>拍拍樹枝➝龜速爬下來　無尾熊超萌「量體重密技」曝</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469607.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470152.htm</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲林立  。（圖／樂天桃猿提供）記者王真魚／嘉義報導樂天桃猿去年在台灣大賽失利，本季年度口號「Ready」全員準備再度出擊，一軍陣容也大致底定。總教練曾豪駒期待3重砲朱育賢、陳俊秀以及林泓育找回火力，首席教練古久保健二點名林立是晉級季後賽關鍵因子。朱育賢去年出賽92場，74支安打有11轟，貢獻49分打點，攻擊指數僅0.684，打擊率0.232；林泓育出賽91場、80安、8轟、37打點，攻擊指數0.709，打擊率0.258。[廣告]請繼續往下閱讀...陳俊秀出賽90場、76支安打，生涯首次全壘打數掛蛋，攻擊指數0.612，打擊率0.252。曾豪駒坦言，今年仍寄望3人能夠回復以往身手，「是我們整體戰力提升的關鍵。」古久保健二也期待陳俊秀和朱育賢可以復活，「我們需要他們的活力。」好消息是，朱育賢官辦熱身賽已炸3轟。古久保進一步指出，看好林立是本季爭冠關鍵因子，期待他能複製去年MVP等級身手，「目前看起來大家準備得都不錯，不用擔心太多。」野手方面，有望看到大物捕手宋嘉翔開季一軍，外野陣容則由成晉、陳晨威、蔡鎮宇、朱育賢、邱丹競爭。春訓備受期待的林政華，曾豪駒表示，肯定他整體比賽的展現與成長，不過打擊、守備都要更穩定。至於許久未見的藍寅倫並未跟隨一軍，官辦熱身賽出賽2場都是遞補。曾豪駒說，「其實他目前打擊狀況維持不錯，但守備方面還需要時間，會先安排他在二軍出賽，守備狀況穩定一點後，會拉上來。」▲陳俊秀  。（圖／樂天桃猿提供）-  </t>
+          <t xml:space="preserve">▲無尾熊聽到飼養員呼喚後，緩慢從樹上爬下來。（圖／翻攝自微博／林有梗）實習記者謝旻蓁／綜合報導無尾熊的活動範圍幾乎都是在樹上，愛睡覺的牠們很少會移動到別的地方！一名網友在微博上發布一段影片，畫面中的無尾熊緊抓樹枝，看起來一動也不動，後來飼養員拍了拍樹枝提醒牠，「下來量體重了」，牠才緩慢的爬下來，並被工作人員抱到特殊的「樹枝體重機」上測量重量，萌翻許多網友。這隻無尾熊是生活在南京的紅杉無尾熊館裡，每天的日常就是睡覺、吃尤加利葉和喝水，有時也需要測量體重。這天剛好是牠量體重的時候，飼養員走到無尾熊所在的樹下，拍拍牠的樹幹並通知，「要做體檢囉！」[廣告]請繼續往下閱讀...不過，無尾熊似乎不太想要體健，仍然把樹枝「攬緊緊」，好像是在表達自己還想繼續睡，等到工作人員多拍幾下後，牠才動身準備離開舒適地。只見牠動作非常緩慢的向下移動，到了底端時，飼養員再將牠一把抱起，移去一旁的「樹枝體重機」測量，有沒有變得頭好壯壯。▲飼養員將無尾熊一把抱起，移去一旁的「樹枝體重機」測量無尾熊有沒有吃多多，變得頭好壯壯。（圖／翻攝自微博／林有梗）許多網友看完影片後紛紛表示，「當無尾熊的飼養員得很有耐心吧！小傢伙行動太緩慢了」、「最開始我還以為要帶牠盪鞦韆」、「我想要天天抱著牠」、「寶寶，讓我捏捏」、「牠是走幾步睡一覺嗎？」、「這是我見過最可愛的秤重方式」。無尾熊大部分都在睡覺的原因，是因為牠們的主食是高纖的且低熱量的尤加利葉，為了節省能源的消耗，牠們一天至少要睡上18到20小時才足夠。 </t>
         </is>
       </c>
     </row>
@@ -801,17 +787,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>行人穿越網狀線出事了！媽媽載小孩上學猛撞　轎車玻璃碎裂</t>
+          <t>割雙眼皮！女子手術完眼皮沒變　仔細一看驚見「眉毛縫在一起」</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469578.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470397.htm</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲台中大雅國小前今日上午傳出一名行人違規穿越馬路遭撞。（圖／民眾提供，下同）記者許權毅／台中報導台中市大雅區學府路、大雅國小前，今（29）日6時47分傳出一起車禍，一名74歲陳男從網狀線違規穿越馬路，另名43歲劉女駕駛轎車正準備送小孩上學，不慎撞到陳男，陳男整個人撞上劉女轎車前擋風玻璃後重摔。警方指出，陳男經送往澄清醫院後無大礙，陳男違規穿越馬路屬實，詳細肇事責任仍待釐清。事發在今日上午6時許，正是許多家長準備送小孩上課時間，大雅國小前卻傳出車禍，陳男違規從網狀線穿越馬路，導致駕車的劉女煞車不及裝上，陳男倒臥在地上，拖鞋、物品等全散落一地，劉女、對面賣早餐的女子、路人、國小警衛等至少5人一擁而上，趕緊先關心陳男狀況，還有人幫忙指揮交通，避免二次追撞，所幸陳男尚可交談，但倒臥在地上不起，經由救護人員到場後送醫。大雅分局初步調查，陳男手腳擦挫傷，送往醫院治療後並無大礙，警方到場對劉女實施酒測，並無酒精反應，劉女車輛車頭、擋風玻璃受損。此外，依照道交條例第134條，設有行人穿越道、人行天橋或人行地下道者，必須經由行人穿越道、人行天橋或人行地下道穿越，不得在其一百公尺範圍內穿越道路，因此陳男屬於違規穿越馬路，詳細肇事責任仍待釐清。 </t>
+          <t xml:space="preserve">▲女子動雙眼皮手術，沒想到醫師卻是縫了眉毛。（圖／翻攝Sanook推特）圖文／CTWANT近日泰國一名女子向當地媒體投訴，她在一間診所做雙眼皮手術，不料醫師卻動到眉毛，導致眉毛變形又兩邊不同，離譜的醫療疏失讓女子相當傻眼，而診所還規避責任，甚至嘲笑她。據《Sanook》報導，泰國羅勇府一名40歲婦女萬芬說，她在去年1月前往醫美診所做雙眼皮手術，想要解決臉部下垂的問題，經過跟醫師討論後，她同意花1.5萬泰銖（約新台幣1.3萬元）做手術。奇怪的是，做完手術後，萬芬發現眼皮都沒變，跟手術前一樣，當她回家後，家人跟朋友都說她的眉毛不平，臉看起來很奇怪。萬芬仔細檢查才發現，醫師對她的眉毛動手腳，把皮膚縫在一起，讓眉毛變形，兩邊眉毛看起來才不一樣。之後，萬芬告訴診所此情況，因為術前診所說有6個月的醫療險。不料，診所卻逃避責任，跟萬芬說「這是妳自己同意做的手術。」萬芬說，診所醫護還一邊唱歌一邊羞辱她。萬芬表示，她希望能用此事提醒大家，在進行醫美前一定要再三確認，否則會跟她一樣。此外，據《อีจัน》報導，近日也有一名網友在抖音上說，她6年前做了雙眼皮手術，結果換來卻是三角眼，最近她剛做完第5次手術，她在這些年快被搞瘋，但只能慢慢等待，因為醫護都說只能等。省錢大作戰！超夯優惠等你GO大罐又便宜 ►衣物徹底洗淨「妙管家抗菌洗衣精4000gx4瓶」限時↘$3991顆不到7元►毛孩專用 Dr.好骨力　讓愛貓愛犬健康好靈活　限時↘$399延伸閱讀+▸ 台海「浮屍潮」主因浮現　9具遺體本國籍外其餘恐與偷渡案有關+▸ 越南證實14偷渡者失聯「恐已全喪命」　已尋獲5男2女浮屍+▸ 譚松韻婚紗照曝光　嫁井柏然卻喊：你這個大騙子 </t>
         </is>
       </c>
     </row>
@@ -821,17 +810,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>快訊／抓到了！屏東看守所脫逃犯「打傷果農」逃2天　火車站落網</t>
+          <t>12星座「4月運勢」排行出爐！單身獅子超夯、金牛鈔票撐爆荷包</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469608.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470106.htm</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲受刑人涂俊煒脫逃 。（圖／記者陳崑福翻攝）記者吳奕靖／高雄報導抓到了！日前從屏東看守所收容人脫逃的受刑人涂俊煒(40歲)在27日下午3時許於屏東某處工廠進行「自主監外作業」時脫逃。警方調查，涂當時在新埤鄉打鐵段某檸檬園受僱務農，不料卻與巫姓果農因細故引發口角及扭打，隨後涂搶走巫的淺棕色自小客車鑰匙，駕車逃往高雄市區。涂俊煒29日已經在屏東火車站落網，目前警方已經將他帶回，先一步進行偵訊。41歲的涂俊煒因竊盜及肇事逃逸及過失傷害罪等入獄，被判刑合併執行約6年刑期，他在服刑期間，行為、作息及表現等都正常，也符合自主監外作業的條件，經申請並審核後，於今年2月底至潮州鎮一處種植檸檬的農場進行自主監外作業，每天早上8點到農場工作，下午5點返回到竹田分監報到，每日進出都會搜身、酒測，之前每日考核均無異常，預計不到2年即可出獄。不料，27日下午3點多，農場員工懷疑他行竊，兩人發生口角，他出手打傷對方後開走對方自小客車逃逸，警方獲報發動圍捕並發佈通緝。隨後該自小客車在棄置在高雄市岡山區。 </t>
+          <t xml:space="preserve">▲4月份12星座運勢排行榜，金牛數錢數到手軟。（示意圖／翻攝自pexels）圖文／CTWANT時序要邁入4月份了，究竟12星座的愛情、事業、財運會如何發展？清水孟國際塔羅小孟老師表示，各行各業在4月份會是一個嶄新的開始，愈來愈多新興行業、新產品將相繼問世，如若有開創新事物的計畫，把握4月份的行動力會是很好的開始。小孟老師提及，4月份不妨多加嘗試冒險挑戰，將有機會學習及體驗到新鮮事物，不僅對未來有所啟發，也開始引導人們思考下一步行動，而4月份落在牡羊座與金牛座生日，這2星座的朋友們可以多泡熱水澡與喝花草茶，有助於放鬆、開朗身心。[廣告]請繼續往下閱讀...【4月份12星座運勢排行榜】TOP 12 雙子座：工作感到壓力，情感適合旅行4月職場運勢部分，雙子座在工作上備感壓力，尤其是主管吩咐新任務，會讓你既期待又害怕受傷害，但只要正常發揮能力，以及不懂的地方記得提問，8成問題都會被解決，剩下就看你肯不肯認真學習應對。另外，想更換工作的雙子座，最近宜靜不宜動，不要衝動離職否則會後悔。情感方面，建議安排小旅行外出走走，有助於雙方身心的平靜，適合談談下一步該怎麼走；單身的朋友們，會因對象太多不知如何選擇，建議挑選一個相處自在又能讓你成長的人，感情才能走得長久。財運方面，你們最近購物慾很強，想買的東西很多，要有所克制。TOP 11 巨蟹座：工作不宜情緒化，不要情勒4月職場運勢部分，巨蟹座與人相處容易動怒，建議在表達時要溫和的應對，切勿太過情緒化，否則別人會聽不到你想表達的重點，留意自己的態度與情緒，與人溝通需放輕鬆。情感方面，需要多花點耐心與另一半相處，不要動不動就發生情勒狀況，這樣會讓對方想放棄這段關係；單身的朋友們，容易沉浸在過往感情裡，這樣一來容易忽略身邊的新對象，多給自己一些機會去認識新朋友，未來才會有更多發展空間。財運方面，你們容易因為心軟借錢，建議要好好守財，才能避免有去無回的狀況發生。TOP 10 處女座：工作要有耐心，情感多給空間4月職場運勢部分，處女座在工作上會覺得與同事之間的相處有些困難，合作上會出現意見分歧與爭執，要用耐心的態度去應對，若想變動工作先冷靜評估，切勿因一時的不愉快隨便換工作。情感方面，最近與另一半相處容易產生壓力，需要互相給彼此一些空間，距離的美感有助於增溫2人關係；單身的朋友們，適合朋友介紹的對象，藉由他人把關，比較容易結交到好的對象。財運方面，4月容易發生金錢吃緊的情況，要好好控制現金流向。TOP 9 摩羯座：工作壓力較大，情感有些無趣4月職場運勢部分，由於主管安排了太多工作，會讓摩羯座覺得工作壓力特別大，建議無法負荷時一定要適當反映。情感方面，與伴侶相處似乎有點無趣，陷入老夫老妻模式，要記得創造一些小約會；單身的朋友們，感情不要太過一板一眼，有時跟自己不一樣世界的人發展感情，也是另一種趣味。財運方面，你們對於理財很有一套，但該花的還是要花，對自己不要省過頭。TOP 8 水瓶座：工作受到挑戰，情感需要支持4月職場運勢部分，水瓶座關於自我價值及資源分配問題，容易受到挑戰，需要沉穩的進行，不要太急躁的做決定，另外想變動工作的人，對於主動找上門的機會要保守看待，新工作不見得更適合你。情感方面，你們是需要另一半支持的，有心事不要悶心裡要分享溝通；單身的朋友們，身邊朋友很多但想發展的卻很少，或許你是粗線條沒發現，但其實對你有意思的人早就在暗示你了。財運方面，你們容易跟風去投資，所以不要隨便聽信奇怪的資訊，更不要借錢給別人。TOP 7 雙魚座：工作需要謹慎，情感意見不合4月職場運勢部分，雙魚座開始感受到責任與壓力，要謹慎的處理工作上的事務，若是想要被主管看重，在工作表現一定要多加付出、注意細節，不要再粗線條了。情感方面，與另一半容易為了一些價值觀而意見不合，要好好跟對方攤開溝通；單身的朋友們，你們是有名的發電機，但有時你自己亂放電都不知道，要留意自己的行為。財運方面，容易會有衝動花費的情況，建議要做好理財規劃。TOP 6 獅子座：工作表現亮眼，情感需要約會4月職場運勢部分，獅子座受到同事與主管的信任，工作表現會很亮眼，在職場上是大家依靠的對象，可以好好分享工作經驗，對大家都會有所助益，另外想變動工作的人，適合別人牽線介紹，若有這樣的工作機會出現，要好好把握。情感方面，最近2人會各忙各的，建議要找時間約會，不然容易忘記彼此的關心；單身的朋友們，你們在別人眼中是搶手的貨色，這時選擇權在你身上，要好好表現自己。財運方面，容易會有打腫臉充胖子的現象，要改掉這個壞習慣。TOP 5 天蠍座：工作評價提升，情感不要賭氣4月職場運勢部分，天蠍座在工作上容易被看見，要好好發揮能力才有機會被重用，最近與同事主管相處都很愉快，對你的評價與信任也增多，想更換工作的朋友，則可以往拿手專業的方向去找，會碰到欣賞你的伯樂。情感方面，容易與另一半因小事鬧得不開心，2人要好好相處，以免賭氣得不償失；單身的朋友們，在別人眼中是有吸引力的，但若沒有那個意思，千萬不要亂放電。財運方面，最近你們的正財運不錯，可以創造業績有不錯的成效。TOP 4 射手座：工作受到肯定，情感多些相處4月職場運勢部分，射手座在工作上很受大家的肯定，也容易獲得稱讚，好好維持可以有更好的發展機會，想變動工作的人，可以多留意一些海外或外商的工作機會，適合突破自己會有更好的工作發展。情感方面，你們需要多點時間相處，建議2人安排個小旅行讓感情增溫；單身的朋友們，適合找尋相同興趣的另一半談戀愛，相處起來會比較有趣。財運方面，你們容易出現衝動消費的傾向，花大錢記得多比價，才會買到實惠的商品。TOP 3 天秤座：工作貴人相助，情感多些訴說4月職場運勢部分，天秤座工作上容易會遇到一些困難，這段時間要有耐心去應對，不要操之過急，若有需要主動求援，會遇見貴人前來相助，想變動工作的朋友們，一定要先確認好工作內容再變動，不要因為人情壓力轉職，否則容易後悔。情感方面，伴侶間感情穩定，另一半也是彼此的精神支柱，若遇困難可以多跟對方傾訴；單身的朋友們，容易與對象曖昧，若是有心發展戀情，還是要專一對待。財運方面，近期投資理財運不錯，可多做研究。TOP 2 牡羊座：工作大膽邁進，情感適合相親4月職場運勢部分，牡羊座近期好運爆棚，會有一些新的機會找上門，這個月發展新計劃將事半功倍，也會有貴人相助，可說是心想事成的月份，若是想變動工作，可以大膽去嘗試，可以找到喜歡的新工作。情感方面，2人需要多一點相處時間，來了解彼此的喜好，不要一頭熱的付出，容易讓伴侶感到壓力；單身的朋友們，可以多交一些新朋友，或許能意外收穫新戀情。財運方面，需要節省一點，容易因衝動而消費。TOP 1 金牛座：工作創造佳績，情感需要支持4月職場運勢部分，金牛座容易在工作上創造績效，若是工作性質是業績制會有不錯的成果，多多發揮長才，金錢數字的增加會非常有感，想變動工作的朋友們，適合找更好的薪資福利工作，切勿因為想換工作而忽略薪資問題。情感方面，需要伴侶的支持，不要讓對方猜測你的心事，否則會相處得很疲倦；單身的朋友們，其實欣賞你的人已經在身邊，不要後知後覺需多多留意。財運方面，你們適合定期定存的投資，會看到不錯的成效，正財運超旺，可多衝刺業績。省錢大作戰！超夯優惠等你GO大罐又便宜 ►衣物徹底洗淨「妙管家抗菌洗衣精4000gx4瓶」限時↘$3991顆不到7元►毛孩專用 Dr.好骨力　讓愛貓愛犬健康好靈活　限時↘$399延伸閱讀+▸ 六福村為狒狒事件鞠躬道歉！宣布「野生動物區」暫關閉　懲處主目標：園區最高主管+▸ 夫妻戶外泡澡突遭攻擊！　用手電筒一照發現竟是山獅出沒+▸ 幫黃子佼慶51歲生日　孟耿如感性發文「5字就破功」：最會激怒老公是我 </t>
         </is>
       </c>
     </row>
@@ -841,18 +833,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MaiCoin啟動IPO規劃！　目標1年內登「創新板」</t>
+          <t>華爾街日報記者在俄羅斯被捕　遭控「從事間諜活動」恐判20年</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469599.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470359.htm</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲MaiCoin集團創辦人暨執行長劉世偉。（圖／記者陳依旻攝）記者陳依旻／台北報導台灣交易量最大、且唯一具備區塊鏈技術之數位資產創新服務商─英屬開曼群島商現代財富控股有限公司 （MaiCoin 集團）今（29）日正式啟動IPO，與永豐金證券簽訂第一上市（櫃）輔導顧問合約，集團創辦人暨執行長劉世偉、營運長陳明惠分別在接受《ETtoday新聞雲》訪問時喊出，目標1年內登上「創新板」。MaiCoin指出，集團經歷過３次全球數位資產市場的熊牛起落，依然屹立不搖並穩定成長，深耕台灣將滿10年，選在前夕正式宣佈啟動在台的IPO計畫，將與永豐金證券簽約，希望可以由其協助輔導並且送件。[廣告]請繼續往下閱讀...「現在終於可以說『MaiCoin集團的時代』即將要來了！」劉世偉指出，這10年來，他們不放棄與政府和大眾溝通，從平台功能與用戶體驗、產品定位與適法性、到監管議題等，目標讓虛擬貨幣與NFT 成為大眾生活的一部分，相信政府與大眾對於創新產業是抱持開放且正向的態度，所以 IPO 對我們來說不是終點，而是讓數位資產主流化的另一個起點。MaiCoin 數位資產買賣平台與 MAX 數位資產交易所主要提供使用新台幣交易虛擬貨幣服務，其中MaiCoin 數位資產買賣平台於今年率先推出可使用美元交易、MAX 數位資產交易所更為全球首創法幣資金信託保管、2021年雙平台更領先同業完成我國金管會的洗錢防制法令遵循聲明。雙平台擁有超過100萬的註冊帳戶數、虛擬貨幣交易之全台市佔率持續穩定領先同業；更看好未來虛擬貨幣支付發展，推出虛擬貨幣支付解決方案MaiPay，提供收銀系統服務串接虛擬貨幣收付功能，擴大虛擬貨幣支付之可行性，建構虛實貨幣無差異支付之新商業模式。展望未來，劉世偉指出，今日不是終點，反而是起點；陳明惠分享，雖然還有一段路要走，但公司目標很明確，就是希望可以順利在1年內掛牌上市（創新板）。根據證交所統計，我國目前已有3家創新板上市，分別是泓德能源、雲豹能源，還有推出火紅Whoscall、美玉姨等知名產品的「走著瞧（6902）」。我國今年景氣還存有不確定性，證交所希望今年申請送件家數為32家，其中，一般板（含KY公司）上市22家、創新板10家，也有信心一定可以達到。-  </t>
+          <t xml:space="preserve">▲《華爾街日報》記者格爾什科維奇涉嫌從事間諜活動，遭俄羅斯拘留。（圖／翻攝自Facebook／Evan Gershkovich）實習記者任庭儀／編譯俄羅斯聯邦安全局（FSB）30日稱，美國《華爾街日報》記者格爾什科維奇（Evan Gershkovich）因涉嫌從事間諜活動，在葉卡捷琳堡（Yekaterinburg）被拘留。綜合路透社、俄羅斯衛星通訊社（Radio Sputnik）等報導，FSB指控，格爾什科維奇受美國政府所託，試圖在俄羅斯一家軍工廠獲取機密情報被捕。此舉違反《俄羅斯聯邦刑法》第276條「間諜罪」條款，FSB依法將他起訴。如果間諜罪名成立，格爾什科維奇可能面臨10至20年監禁。自去年通過嚴格的審查法律後，多數記者都逃離俄羅斯，格爾什科維奇是留下來的其中一人。據了解，他的手機在30日無法接通，最後一次上網是在莫斯科當地29日下午1時28分，之後便音訊全無。俄羅斯《生意人報》稱，格爾什科維奇將被送往莫斯科，關押在列福爾托沃監獄（Lefortovo prison），那是FSB的審前拘留所，羈押的犯人大多都是政治犯。格爾什科維奇出生於1991年，在《華爾街日報》莫斯科分社任職，專職報導俄羅斯和烏克蘭相關新聞，本周稍早曾發布俄羅斯經濟萎縮的新聞。他是自冷戰以來，首名被俄羅斯以間諜罪拘捕的美國記者。 </t>
         </is>
       </c>
     </row>
@@ -862,17 +853,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>王鴻薇四點聲明回擊高端　「上次告我的是林智堅，結果大眾都知道」</t>
+          <t>無人載具產業後勢看好　南台灣科技產業論壇聚焦無人機發展趨勢</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469596.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470401.htm</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">記者蘇晏男／台北報導國民黨立委王鴻薇、李德維今（29日）舉行記者會，指出高端疫苗公司（下稱高端）的四價流感疫苗通過查驗的過程疑點重重，質疑蔡政府再替該公司開後門，而高端發聲明表示被抹黑，已委託律師評估並採取應為的法律行動。對此，王鴻薇傍晚4點聲明回應，除直言高端信用劣跡斑斑外，更表示，她要告訴高端，上一次告她的是前新竹市長林智堅，而且結果社會大眾也都已經知道了（挨告加重誹謗獲不起訴）。▲王鴻薇29日上午出席「護航高端、再開後門？」記者會。（圖／記者黃國霖攝）針對高端3月8日宣布，高端與韓國「GC Pharma」共同合作的四價流感疫苗通過食藥署藥品查驗登記，將投入台灣四價流感疫苗市場，王鴻薇、李德維29日上午偕同中華民國防疫學會榮譽理事長王任賢舉行「護航高端、再開後門？」記者會。李德維指出，高端2018年申請GC Pharma的疫苗「成品」在台進行三期臨床試驗，並在隔年公布初步結果，然而2020年，高端主動向食藥署撤回進口流感疫苗藥證查驗登記，後來又改由 GC Pharma 生產疫苗原液、再由高端進行「充填分裝」的方式來申請藥證，並在今年3月初通過。王鴻薇說，依照藥品查驗登記審查準則，疫苗類藥品要免除國內臨床試驗，須要符合原產國已上市且具有十大醫藥先進國 （德國、美國、英國、法國、日本、瑞士、加拿大、澳洲、比利時、瑞典）採用證明，即便高端原本要進口韓國的「成品疫苗」，後來改成「進口原液」填充，但不管哪種方式，韓國都不在十大醫藥先進國裡；因此高端流感疫苗臨床試驗到底完成了沒？過程是否有合乎法規？衛福部須對外說明清楚。高端下午發聲明，指他們與GC Pharma的季節流感疫苗開發合作案，是於2018年4月簽約啟動，由高端疫苗代理GC Biopharma四價流感疫苗，以成品銷售或分裝充填方式供應市場；隔年於四家醫院完成一項第三期臨床試驗，且數據優異。後受新冠肺炎影響，開發案採取高端自有品牌「原液分裝」模式，確保供貨品質穩定。高端也提及，國內疫苗產業中，早年國光疫苗是以分裝充填國外流感疫苗原液供應國內市場，而後陸續建立自有產能，近年國光也接受中國大陸、以及美國充填代工，協助全球疫苗供應。這種醫藥品或疫苗產品的多製造廠全球分工模式，不管在疫苗抗原或原液充填製程，實質為產業鏈全球化的一部分，並未有可議之處。高端強調，本公司對於特定人士的惡意攻擊與無端抹黑，深感失望與遺憾。對於相關悖離專業知識、企圖誤導大眾認知等不實言論，本公司已委託律師評估並採取應為的法律行動，以維護本公司名譽、商譽等權利，並保障投資人的相關權益。王鴻薇4點聲明　「上一次告我的是林智堅」對於高端擬採法律行動，王鴻薇傍晚四點聲明回應，第一、要不要採法律行動是高端的權利；第二、高端過去一再強調自己的疫苗有效性如何地好，但請問高端新冠疫苗除了中華民國政府採購外，還有銷往哪個國家？為什麼從去年營收一路下滑，到今年1月、2月掛零，哪一家上市公司營收完全是零的？更不要說高端過去一再跟國人說會拿到世衛組織（WHO）的認證，請問高端WHO認證在哪？高端信用事實上劣跡斑斑。第三、有關這次參與採購四價流感疫苗，請問高端，除了國光是本土疫苗外，其他引用國外的疫苗，大家都是原裝進口，為什麼只有高端是原液到台灣填充分裝，且可以順利取得藥證，高端是不是破例了？高端每一次在疫苗市場都可以取得政府特別關愛眼神，看起來也是其他公司沒有辦法享受到的待遇。第四、她要告訴高端，上一次告她的是林智堅，而且結果社會大眾也都已經知道了。 </t>
+          <t xml:space="preserve">▲南台灣科技論壇聚焦無人機展業發展。（圖／記者陳宏瑞翻攝）記者陳宏瑞／高雄報導無人機產業越來越夯，中華民國無人載具系統產業發展協會（無人機產業聯盟）今（30）日籌組論壇，召集產官學研各界菁英共同討論協會的發展與願景，並在下午舉行的2023南台灣科技產業論壇聚焦高雄無人機產業鏈前景，以南台灣科技趨勢為主題，深入探討位轉型、各種智慧科技應用及亞灣5G、AIOT園區發展等議題，希望推動高雄城市智慧科技及綠色轉型。▲無人機載具產業發展協會論壇成立。（圖／記者陳宏瑞翻攝）南台灣科技產業論壇的2場專題演講分別請到台灣科技產業園區電電公會理事長周光春主講「半導體產業與工業4.0工業製造的未來趨勢」，以及今周刊、財信傳媒集團董事長謝金河主講「南台灣經濟的挑戰與機會」。無人機產業聯盟與南台灣科技產業論壇幕後推手是玉山科技協會南台灣分會黃水成，他出身高雄科技大學的前身高雄工專，曾當過高雄工專電工科主任，也曾是海洋科技大學與義守大學的業師。1990年代自行創業的他，從經銷電腦周邊設備起家，繼而轉型投入自動控制、電工及機械材料、電子計算機等相關領域，30年來致力於南台灣資、通訊產業發展。▲玉山科技協會理事長童子賢出席南台灣科技論壇。（圖／記者陳宏瑞翻攝）3年前黃水成就開始從無人機注意到無人載具的無窮發展潛力，除電動車、太陽能及風電儲能、電子控制、智慧醫療等項目，也積極研發無人機，利用油電共生系統可飛行長達600公里，最大載重30公斤。自從美國開始針對中國製的大疆無人機進行制裁以來，他就研發第一台全用台灣零件組裝而成的無人機，證明台灣發展無人機的技術已臻成熟。▲南台灣科技論壇聚焦無人機展業發展。（圖／記者陳宏瑞翻攝）他說，無人載具包括無人機、無人車、無人船、無人潛艇、攻擊型無人機等，可廣泛運用於商業、農業及軍事等領域，透過電腦控制及演算，甚至可用無人車載無人機執行任務，未來可以將設備零組件生產、教育訓練及運輸物流業結合成完整的產業鏈，成為高雄新興的產業聚落。黃水成除倡議成立無人機產業聯盟，現在又進一步催生中華民國無人載具系統產業發展協會，共推金屬工業發展中心前執行長林秋豐為創會理事長，就是看好推動5G智慧共桿是政府政策，而高雄有金屬工業發展中心做後盾，再加上機電整合、模具、電腦人才濟濟及完整的技術傳承，絕對有條件可以發展成為無人載具產業的重鎮。 </t>
         </is>
       </c>
     </row>
@@ -882,17 +873,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>王淨忍痛放手「我不是最好的媽媽」　不看曹佑寧手機：破壞信任感</t>
+          <t>解決蘆竹區交通瓶頸！　中正北路擴增雙向6車道及左轉專用道</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469550.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470402.htm</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">記者蕭采薇／台北報導越愛越大方的「寧淨CP」，小倆口日前被直擊在士林「認養浪浪」活動，29日王淨出席品牌活動，透露自己當下真的有想領養的衝動，但思考過後發現自己近期工作滿檔，「沒辦法陪伴他的話，我可能就不是最好的媽媽。」至於男友曹佑寧日前透露她拍照時有比5的招牌動作，王淨也大呼：「我看到（採訪影片）他在學我，真的笑死。」▲王淨出席品牌活動。（圖／GU提供）[廣告]請繼續往下閱讀...王淨出席服裝品牌活動，她透露自己喜歡搭配削肩衣服，可以秀出肩線和鎖骨小露性感，平常也喜歡穿oversize的衣服，私服造型則以舒服為主，「很多女生會穿漂亮但需要拘謹的衣服，我覺得那不是最舒適的樣子，跟朋友、家人出遊或遛狗都是要舒服的。」▲王淨和曹佑寧越愛越大方，粉絲也樂看俊男美女放閃。（圖／翻攝自IG）至於是否會排斥情侶衣，她笑說不會覺得這樣噁心，但由於男友曹佑寧正好與自己的穿搭色系接近，因此很常會穿搭撞色，而被問到男生的NG穿搭為何？王淨笑說：「其實我還好，不要三角褲外露就好。」▲王淨原本想再領養一隻浪浪，但因為工作關係，只好認痛放棄。（圖／GU提供）而王淨與男友曹佑寧被目擊出現在士林「認養浪浪」活動，她還與愛媽交換聯絡方式，完全沒有大明星的架子。之後她也在IG貼出認養資訊，更坦言本來是自己想領養，但考量過後決定放棄。王淨坦言：「現階段牠需要去結紮、打預防針等等，正好需要陪伴，但我後面有工作進來，需要飛來飛去，可能沒辦法。」王淨也開心的說，有聽說小狗已經找到了新的家。▲王淨喜歡小動物，對近期「狒狒事件」也深感遺憾。（圖／GU提供）不過喜歡動物的她，也對近日掀起熱議的「狒狒事件」，王淨坦言自己看完新聞後暗自覺得遺憾：「整件事情不知道在哪個環節出了錯！」至於是否仍相信善有善報？她欲言又止的直說：「我目前還是抱持著保留的態度，但我相信美好的事情還是會到來的。」 </t>
+          <t xml:space="preserve">▲桃園市交通局改善蘆竹區中正北路交通瓶頸，由原來4線道擴增至6線道與增加左轉專用道。（圖／記者沈繼昌翻攝）記者沈繼昌／桃園報導為改善蘆竹區中正北路段與鄰近桃園交流道系統交通壅塞問題，桃園市政府交通局昨（29）日進行交通改善工程，將中正北路原來4車道擴增為6車道，同時在中正北路、南竹路口處劃設左轉彎專用道，並視車流量比例調整交通號誌秒數，以改善蘆竹區聯外交通，並為完工後捷運交通系統提前做好配套準備。蘆竹區設籍人口數約17萬餘人，若再加上流動人口，估計逾20萬人，根據蘆竹戶政事務所統計，65%設籍人口集中在南崁地區，其中的中正北路為南崁往來桃園、大竹與山腳地區最為重要之交通要道，且是捷運綠線G13站預定地，工期道路寬度縮減再加上平時龐大車流，讓中正北路交通成為蘆竹人眼中的瓶頸處。▲桃園市議員劉勝全爭取交通局改善蘆竹區中正北路交通瓶頸，今天下午到場會勘施工改善情形。（圖／記者沈繼昌翻攝）市議員劉勝全針對中正路、忠孝東路口左轉彎專用道交通工程在市議會提出質詢，並向公路總局第一養護工程處中壢工務段、市府交通局與蘆竹警分局等單位進行現地會勘，最終決議取消左轉專用道，再輔以其他配套措施，增加直行車路口流速，進而疏緩台4線交通壓力。市府交通局從善如流，今天配合養工處進行道路拓寬，適當調整路口交通號誌秒數與道路標線重劃，將原來的4線道擴充為6線道，並在樞紐路口劃設左轉彎專用車道，左轉綠燈時間則由原來60秒減為30秒，這些工程原本要在2024年底才會完工，但在市議員劉勝全爭取下提前於今天完成，也確實為蘆竹區中正北路交通瓶頸提供改善。 </t>
         </is>
       </c>
     </row>
@@ -902,17 +893,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>馬英九赴陸引熱議　陳水扁祝福：任何評論還言之過早</t>
+          <t>邀男網友「燉飯」變「炒飯」　女控性侵：我是個隨便的人嗎？</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469606.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470395.htm</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲前總統陳水扁。（圖／記者杜冠霖攝）記者杜冠霖／台北報導前總統陳水扁29日出席「凱達格蘭學校創校二十週年之回顧與展望」圓桌論壇，會後受訪時，有媒體提問對前總統馬英九訪陸表現有何看法，陳水扁表示，馬英九不是剛去而已嗎？還有好幾天，「我們再觀察一下，現在要做任何的評論還言之過早，我們也要祝福他。」有媒體追問，馬英九提到前總統的片段被央視刪掉，陳水扁回應，剛才說過，他剛去而已，要給他祝福，等到一切行程走完，如果真的有意見要評論，「那到時候再來講，這樣好不好。」而對於2024總統大選，外傳新北市長侯友宜曾拜訪陳水扁請益，陳水扁澄清，「沒啦！沒啦！他那麼沒空。」至於侯友宜跟賴清德比較看好誰？陳水扁笑回，「我怎麼知道，我才一票而已，現在看（選舉）越來越退步了。」對於手中一票要投給誰？陳水扁僅回應，「沒啦！3月而已，還早啦，言之過早。」 </t>
+          <t xml:space="preserve">▲擅長料理的男網友被控受邀到府做飯卻趁機性侵。（示意圖／pexels）記者劉昌松／台北報導女子小倩(化名)日前邀男網友到家裡做飯給她吃，沒想到男網友在等候燉煮時間，要求發生性關係，她勉為其難幫忙口交後，傳訊向友人抱怨「我是個隨便的人嗎？」，友人幫忙報案，警察到小倩家中將正在煮飯的男網友以現行犯逮捕，但台北地檢署調查認為，無證據顯示小倩遭強暴脅迫，30日處分不起訴男網友。據了解，小倩是透過臉書認識男網友，因為男網友常po出自己的精美料理成果，小倩一直很想品嘗，因此相約1月1日，男網友親自到小倩租屋處煮飯，小倩還指名要吃「松露菇菇燉飯」，男網友赴約後就在廚房準備食材，因為需要等候燉煮時間，小倩的室友又在家，因此2人選擇到小倩的房間內聊天消磨時間。小倩指控，男網友聊著聊著就對開始摸她，要求發生性關係，她當下拒絕後，男網友繼續要求幫忙口交，她逼不得以幫男網友完事，之後男網友回到廚房繼續準備燉飯料理，小倩則用通訊軟體告訴好友「我是個隨便的人嗎？」，「虧他剛考上律師」，「我真的不行」。好友得知小倩心境後，決定幫小倩報案，台北市警中正二分局趕到到小倩家中，把正在廚房的男網友以現行犯身分逮捕移送，男網友喊冤稱小倩並未拒絕，小倩也無法指出自己受到何種強暴脅迫，檢察官因此以罪嫌不足等理由，處分全案不起訴。 </t>
         </is>
       </c>
     </row>
@@ -922,17 +913,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>高端四價流感疫苗遭批「開後門」　食藥署駁：依程序審360天</t>
+          <t>錶展直擊／梵克雅寶花束座鐘開闔秀人氣高　香奈兒彗星、獅子領軍</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469483.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470352.htm</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲高端疫苗生物製劑股份有限公司竹北製劑廠。（圖／記者湯興漢攝）記者嚴云岑／台北報導高端疫苗3月通過食藥署藥品查驗登記，將投入台灣四價流感疫苗市場，卻遭國民黨立委質疑查驗過程開後門。對此，食藥署表示，已依規定針對「高端四價流感疫苗」製程管控、藥毒理試驗及臨床試驗結果進行嚴謹審查，確認其品質、安全及有效性後始核發藥品許可證。一般藥品許可證申請須達360天，高端也是按程序取得藥證。國民黨立委王鴻薇、李德維、中華民國防疫學會榮譽理事長王任賢今（29）日召開記者會，質疑高端與韓國「GC Pharma」共同合作的四價流感疫苗通過食藥署藥品查驗登記過程疑點重重，蔡政府是否為了拯救營收歸零的高端，而大開後門？[廣告]請繼續往下閱讀...食藥署傍晚回應，「高端四價流感疫苗」查驗登記案已檢附製程管制、藥毒理及韓國執行的第一/二期及第三期臨床試驗資料，且亦於我國執行第三期臨床試驗，相關試驗報告經本署審查通過，臨床試驗資訊皆已於藥品仿單載明。食藥署作為我國藥品審查主管機關，已依規定針對「高端四價流感疫苗」製程管控、藥毒理試驗及臨床試驗結果進行嚴謹審查，確認其品質、安全及有效性後始核發藥品許可證。一般藥品許可證申請須達360天，高端也是按程序取得藥證。「高端四價流感疫苗」為雞胚蛋製程之四價流感疫苗，核准適應症「為適用於3歲以上兒童及成人之主動免疫接種，藉以預防此疫苗所涵蓋之兩種A型流感病毒及兩種B型流感病毒所引起的流行性感冒」，該品係高端疫苗生物製劑股份有限公司與韓國GC Pharma 合作，於國內進行藥品關鍵製程製造之國產疫苗。 </t>
+          <t xml:space="preserve">▲梵克雅寶展館由義大利玻璃打造成神祕森林。（圖／記者陳雅韻攝）記者陳雅韻／日內瓦報導珠寶錶的設計背後總有動人故事，法國珠寶世家梵克雅寶（Van Cleef &amp; Arpels）與香奈兒（CHANEL）分別從品牌經典之作與元素擷取靈感創作華麗新錶。梵克雅寶位於日內瓦鐘錶與奇蹟（Watches &amp; Wonders）的展館以義大利玻璃打造神秘森林，引領參觀者走進大自然之中，欣賞3座分別以星際宇宙、花朵蝴蝶為主題的獨一無二動態機械座鐘，而珠寶錶則重現1934年問世、源自腰帶設計的Ludo手鐲錶，精巧的開闔機制彰顯精湛工藝。▲梵克雅寶Éveil du Cyclamen自動機械裝置是展場焦點，會如花束般展開呈現靈動蝴蝶。（圖／記者陳雅韻攝）梵克雅寶展館的人氣王當屬猶如花束的Éveil du Cyclamen自動機械裝置，由底座旋轉刻度環上的一枝彩漆玫瑰金鑲鑽花蕾點出小時，啟動時花束會緩緩展開，靈動的蝴蝶從中央翩然飛出，再徐徐闔上，動態設計吸引眾人目光；而日常能穿戴新款Ludo手鐲錶，以金質網狀結構呼應原作的腰帶造型，柔軟靈動的設計完美貼合手腕，輕壓鑲嵌鑽石或粉紅藍寶石的弧形處即顯露面盤，滑順的開闔機制令人印象深刻。▲Model演繹梵克雅寶玫瑰金鑲鑽Ludo Secret腕錶（左），按壓鑲上下粉紅藍寶石圓弧處即可顯露時間。（圖／梵克雅寶提供）香奈兒（CHANEL）今年與品牌DNA緊密相扣以Interstellar星際、Lion 獅子及Pique-Aiguilles 縫紉針墊三大設計主題創作新錶，錶殼側邊垂墜鑲鑽彗星的 Première Hyper Lucky Star限量錶，即彰顯香奈兒女士熱愛的幸運符碼，配上結構柔軟的滿鑽「網球錶鍊」，無比華美；同場限量5件的獅子天文座鐘也深受矚目，黑色獅子坐鎮下方，由玻璃圓頂內移動的星座顯示分鐘，頂部的彗星顯示小時。▲香奈兒限量55只的Première Hyper Lucky Star腕錶，3,764,000元。（圖／香奈兒提供，以下同）▲香奈兒限量5件的獅子天文座鐘，11,293,000元。日本高級錶品牌Grand Seiko則以白獅為靈感，於鐘錶與奇蹟發表Masterpiece Collection Spring Drive八日鍊珠寶腕錶，棱角分明的錶耳猶如雄獅尖爪充滿力量，錶殼與面盤共鑲5.62克拉鑽石與1.25克拉藍寶石展現華麗氣勢，其機芯同樣講究，搭載8日動力儲存與富士山景致的Spring Drive機芯，限量8只。▲Grand Seiko靈感源自白獅的Masterpiece Collection Spring Drive八日鍊珠寶腕錶。（圖／Grand Seiko提供） </t>
         </is>
       </c>
     </row>
@@ -942,17 +933,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>王陽明睡過席夢思後悔：以前幹嘛省錢？大手筆想幫女兒也買一張</t>
+          <t>扶輪女社長談公事被當小三！正宮怒譙「雞不擇食」：比風塵女還不如</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469535.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470399.htm</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">記者王則絲／台中報導王陽明今（29日）現身知名床墊品牌席夢思（Simmons）台中概念館開幕記者會，開逛全新以私人美術館為設計主題的絕美新店舖，並搶先試躺。王陽明分享，自從家裡換了席夢思的床墊後，他幾乎是倒頭就入睡，睡眠品質大提升，讓他不禁懊惱：「以前為什麼要省錢買便宜床墊？我現在回不去了。」甚至也正思考要不要幫女兒也買一張，還呼籲席夢思可以出專門給小朋友的床墊。王陽明今以台灣席夢思首位代言人身份出席台中概念館開幕活動，先前他便曾為席夢思體驗並自導自演過廣告，對於席夢思的床墊，早已睡出心得，活動上他提到，第一次睡席夢思床墊時便體會到明顯的差別，一睡過席夢思就後悔了，不過後悔的是，「以前為什麼要省錢買便宜床墊？我現在回不去了。」讓他也很想幫女兒買一張，所以他玩笑建議席夢思也可以推出給嬰幼童的床墊。▲王陽明分享睡過席夢思床墊的心得。（圖／品牌提供）王陽明強調，每個人每天有1／3、1／4的時間在床上，睡眠品質顧好了，身體狀態、心情自然也會好，工作、照顧小孩⋯⋯生活十分忙碌的他，每天最期待的就是躺上床睡一覺，他提到席夢思床墊柔軟但支撐力很夠，躺上去身體可以自然放鬆，能感受到身心都有真正的休息到，以前可能需要調節呼吸、戴著耳塞才好入睡，換了席夢思後，則是倒頭就能睡。▲席夢思台中概念點開幕。（圖／品牌提供）席夢思台中概念館為全台第三間概念館，於多元藝術人文聚集的台中，品牌便以美術館的概念來打造，店中採用「光與影」的主題設計，利用水波紋燈與水波紋牆面，製造沉靜安穩的感受，一進店中矗立至挑高天花板的金屬格柵，則是源於床墊獨立筒的概念，店內更處處擺放了藝術家簡明正Attilio Chien的作品，空間迷漫宛如藝廊般的質感。一間飯店的入住體驗，「床好不好睡」是很重要的一環，台中林酒店所使用的床墊正是席夢思的床墊，是許多旅客們願意一再回訪的原因之一，台中虹夕諾雅谷關飯店，亦是使用席夢思床墊。IHG洲際酒店旗下的阿里山英迪格酒店，為近期話題超夯的新飯店，所使用的則是舒達名床（Serta）。▲Jennie與IU家中都是使用海絲騰床墊。（圖／翻攝自IG）說到高端價位的名床，便不能不提到先前爆紅的Hästens 海絲騰床墊，它不只是瑞典皇室唯一指定的供應商，同時也是眾多巨星家中床墊的首選，像是BLACKPINK的Jennie，以及歌手IU（李知恩），就曾在影片中曝光家中的床墊正是使用海絲騰床墊，這要是沒有驚人的財力可負擔不起。 </t>
+          <t xml:space="preserve">▲扶輪社女社長和男子談公事，沒想到男子的老婆醋勁大開。（示意圖／翻攝自pexels）圖文／CTWANT台北一名扶輪社女社長參加社團聚會時，認識高雄一名已婚男子，因為對方對投資有興趣，便互相留聯絡方式約見面，沒想到正宮竟認定她是小三，傳訊息辱罵「找老男人騙吃騙喝」、「比那些風塵女還不如」等，讓女社長精神受損提告求償。根據判決書，女社長2022年參加社團聚會時，和一名男子略有交談，因為自己從事金融工作，對方有興趣了解，雙方便留下聯絡方式，並邀約見面商談，討論扶輪社務、金融投資等議題，怎料正宮知道後大吃醋，用臉書傳訊「找老男人騙吃騙喝」、「是妳的慣妓吧！真是雞不擇食」、「從沒遇見過這麼不知羞恥的」、「難怪沒男人敢要」。不只如此，正宮還傳送：「請問這屆的扶輪社長是XXX嗎」、「我對這位即將成為『女社長』的操守及品德，感到非常的質疑」給扶輪社的臉書社團管理員，嚴重侵害名譽，讓她心理受創，需要到診所就醫，憤怒提告求償10萬元，另外男子老婆傳訊給臉書社團管理員，再索賠20萬，合計30萬。▲正宮頻傳訊辱罵，讓女社長身心受創。（示意圖／翻攝自pexels）法院審理期間，正宮辯稱老公之前有不良紀錄，基於女性的第六感，為了避免女社長和老公有不正當關係，才會傳訊息警告，沒想到女社長收到訊息後，反而將內容傳給老公，導致老公對自己動粗。不過法官認為，正宮不但傳訊辱罵，還在臉書上質疑女社長之操守品德，已經侵害</t>
         </is>
       </c>
     </row>
@@ -962,17 +953,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>古川雄輝愛上男學生！上演揪心不倫男男戀　老婆目睹熱吻畫面</t>
+          <t>登BBC談蔡英文見麥卡錫衝擊　陳以信：台宏斷交恐成骨牌效應</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469584.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470393.htm</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>記者吳睿慈／綜合報導改編自同名漫畫、由堀田茜、古川雄輝與本田響矢所擔綱主演的日劇《我和老公和他的男友》，28日在日本首播，原著作者綾野綾乃大讚神選角：「聽說將被改編成電視劇時，我真的很驚訝，沒想到會發生這樣的事情！演員們也都很適合角色形象，演員和工作人員的合作之下會塑造出怎樣的美咲、悠生和周平呢？作為觀眾，我真的很期待！」▲▼《我和老公和他的男友》古川雄輝與老婆過著無性婚姻。（圖／GagaOOLala提供）[廣告]請繼續往下閱讀...《我和老公和他的男友》劇情講述高中老師仲道美咲和室內設計師仲道悠生結婚多年，是人人稱羨的模範夫妻，看似恩愛的他們其實過著「無性婚姻生活」，只會在每年的結婚紀念日做愛。好不容易迎來結婚五週年，美咲卻在紀念日當天目睹悠生在家門口和男人接吻的驚人畫面，而對方竟然是她的學生伊奈周平！古川雄輝這次飾演周旋於老婆和男友之間的有婦之夫，跟前作日版《惡作劇之吻》、《在回家之後重新開始》角色截然不同，對他來說是一大挑戰，「與女性有婚姻關係，但同時又跟男性交往的角色不好演，但希望能與堀田、本田兩位一起針對這主題認真思考且愉快地共演，《我和老公和他的男友》是部能讓人思考在各種愛的形式中，如何去愛『人』這個議題的作品，希望大家能跟著三個角色一起找尋幸福。」▲《我和老公和他的男友》古川雄輝愛上男學生。（圖／GagaOOLala提供）本田響矢2016年奪下「日本最帥高中生選拔賽」全國冠軍大賞繼演出BL劇《愛在記憶凍結時》後，再度魅惑男人心，與師丈展開不倫戀。他受訪時表示「我未曾飾演過擁有多邊戀特質（不分性別和傾向，能夠同時愛著多數人）的角色，拍攝前我做了許多功課。周平尚未察覺自己擁有多邊戀的特質，因此有著許多困惑和苦惱。我想好好詮釋這個角色的每一瞬間，以及他如何面對自己的複雜感情。希望這部作品能成為讓觀眾思考『愛』的意義的契機。敬請期待這不一般的三角關係。」《我和老公和他的男友》將於31日一次播出1到5集，並在4月11日，播完包括完結篇的6到10集。</t>
+          <t xml:space="preserve">▲蔡英文與紐約僑胞互動。（圖／記者陳家祥攝）記者蘇晏男／台北報導總統蔡英文昨啟程「民主夥伴共榮之旅」，前往友邦瓜地馬拉、貝里斯訪問，並於去程及返程過境美國，其中最受矚的是預計將會見美眾議長麥卡錫（Kevin McCarthy）。對此，國民黨立委陳以信30日接受英媒BBC節目專訪時表示，他希望「蔡麥會」除談軍事與安全合作外，能更加強化台美雙邊經濟關係。對於中共可能反應，陳以信指出，中國大陸在中南美洲影響力逐年增加，但台灣不該與其競逐金錢外交。由於台灣的對外關係與兩岸關係有連帶影響，兩岸關係穩定時北京不會勤於拉攏台灣邦交國，但當兩岸關係惡化時北京則會加速爭奪台灣邦交國，「因此近期宏都拉斯與台灣斷交，可能只是倒下的第一張骨牌，後續恐怕還有後續效應」。關於美國對台灣的支持，陳以信直言，美國從1979年提出一中政策迄今未曾改變，就算美國出手為台灣穩固邦交，或助台擴大國際空間，但在一中政策不變下美國不會支持台獨，而台灣與志同道合國家推動實質關係，終究不能夠取代正式邦交關係。BBC詢及晶片供應鏈議題，陳以信指出，台積電是全世界最大半導體製廠，佔全球產能近七成，顯示台海和平穩定對全球晶片供應鏈的重要性。近期台積電赴美設廠，但在美產能僅佔在台百分之一，遠不足提供美國國內或國際市場。陳也說，如果台海發生戰爭，台積電被摧毀，全球晶片供應鏈將遭重大打擊。 </t>
         </is>
       </c>
     </row>
@@ -982,17 +973,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>馬英九專車狂奔會見湖北書記　籲陸：兩岸求同存異方能行穩致遠</t>
+          <t>快訊／西部沿海1個月20具浮屍　監委葉大華、浦忠成申請自動調查</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469601.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470404.htm</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">記者任以芳、鄭思楠／武漢－台北報導前總統馬英九今（29）日上午參訪侵華日軍南京大屠殺遇難同胞紀念館，下午搭高鐵從南京轉往武漢。下午5點26分左右馬英九參訪團到達湖北武漢，湖北官方包下整個月台，連專車都開進來，之後維安警力開到飆速前往東湖賓館，原本40分鐘車程縮一半，24分鐘內到達會場，會見湖北省委書記王蒙徽。馬英九在談話中表示，希望兩岸要交流，要合作，求同存異方能行穩致遠。▲馬英九會見湖北省委書記王蒙徽。（圖／記者任以芳攝）▼ 湖北包下車站月台迎接馬英九。（圖／記者任以芳攝）▲ 維安警力清場。（圖／記者任以芳攝）今天17點26分，馬英九和「大九學堂」學員的高鐵班列到達武漢，當地官方高度禮遇通關，包下整個月台，上百名維安站崗清場，甚至把專車直接開上月台，讓馬英九直接搭車離開，連媒體團也跟著禮遇通關。大陸也展現湖北速度，馬英九禮遇專車一路狂飆，車速超過一百公里，平常至少40分鐘車程，馬英九的專車從車站到會場只用24分鐘，趕在17點50分準時到達東湖賓館，見湖北省委書記王蒙徽。▲馬英九談到兩岸關係指出，兩岸求同存異方能行穩致遠。（圖／記者任以芳攝）雙方簡單開場白後，馬英九在會見中提到，「我們希望兩岸要交流，要合作，更要避免戰爭的風險，用交流來取代對抗，用協商取代衝突。同時，我也期待大陸方面能夠更深入瞭解台灣的心聲，求同存異方能行穩致遠。」馬英九指出，湖北近年正在努力推動「經濟社會高品質發展」，也因此成為台商、台生的發展重鎮，為兩岸的交流合作貢獻良多。並且感謝大陸官方對湖北的台商、台生的照顧，也要感謝各位對本人此行的協助與接待。馬英九表示，這次走訪南京、武漢、湘潭、衡山、長沙、重慶、上海等地，以及自己湖南老家祭祖，也會帶著青年朋友們走訪中國歷史的重要地點，踏尋兩岸共有的記憶，這是中華文化所講究的慎終追遠。「我個人特別覺得能夠一償夙願而感到非常欣慰。」▲馬英九基金會「大九學堂」成員。（圖／記者任以芳攝）他進一步說，湖北省一直是包含人文歷史蘊味的旅遊勝地，在此行中，將拜訪江南四大名樓之一的黃鶴樓，也會與學生們一起欣賞東湖綠道的湖光山，武昌起義軍政府的舊址，也是近代重要的歷史遺跡，也會在素有最美麗大學校園之譽的武漢大學，進行此行的第一場學生交流，對於年輕學子們來進行一場值得期待的對話。馬英九說，自己卸任後在東吳大學擔任講座教授，有很多大陸學生與台生一起上課，更深入體認兩岸青年交流的效果與重要性。他強調，「兩岸年輕人在年輕的時候，就能夠彼此交流，相互了解，多一分接觸，兩岸多一分情誼，友誼越深厚，衝突發生的機率就愈低。我這次帶了青年學生與大陸學生進行交流，我們的考慮就在於此。」  </t>
+          <t xml:space="preserve">▲台灣西部沿海2月中至今發現20具浮屍。（圖／記者張君豪翻攝）記者蘇晏男／台北報導台灣西部9縣市沿海自2月中至今，共發現20具浮屍，7名為越南籍，9名為台灣籍。對此，監察院今（30日）表示，監察委員葉大華、浦忠成對該案甚表重視，申請自動調查，以釐清是否為非法偷渡或輕生等情。監察院30日傍晚指出，2023年2月18日至3月29日止，台灣西半部沿海地帶從北到南，陸續出現多具浮屍，包括桃園、新竹、彰化王功近海的離岸風機平台及雲林嘉義等地，經警察機關及海巡機關初步調查發現計有20具海上浮屍，其中7名確定為越南籍係集體偷渡，9名為本國籍有自殺及意外身亡等，其餘4具遺體身分正在比對中，相關案件引發社會震撼。監察委員葉大華、浦忠成深表關切，申請自動調查。監察委員指出，2月迄今執行海上救生救難死亡案件發現多具屍體，究竟內政部警政署及海巡署相關巡查是否周全？是否確切掌握轄內偷渡集團動態？有無對轄內可疑人、船活動列管偵查並強化巡查執檢力度，以確保周邊海域安全?並維護人民生命安全？另相關越南籍人士是否涉及非法移工偷渡？船難或遭人口販運集團丟包？諸多疑義尚待釐清，將進行深入調查。 </t>
         </is>
       </c>
     </row>
@@ -1002,17 +993,18 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>等紅燈突然被求婚！男友車陣中感動告白　遭泰網友揪1點狂酸</t>
+          <t>六福村員工截圖曝「狒狒脫逃黑歷史」　3年前精算就超過250隻</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469565.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470378.htm</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲泰國警察停紅燈時突然跑下車求婚，網民歪樓抱怨「紅燈有夠久」。（圖／翻攝自TikTok／@piyawatpark）記者張寧倢／編譯泰國一名男性警察最近在網路上傳一則短片，他某天開車載著女友，趁停紅燈時突然衝下車，在路中央上演浪漫求婚記，手裡紙板寫道「我想永遠照顧妳，妳願意嫁給我嗎？」影片爆紅獲得16萬讚，女友也答應求婚，不過許多網友調侃，曼谷有些地方的紅燈秒數「久到可以娶妻生子」都沒問題。  @piyawatpark ให้ผมได้ดูแลผู้หญิงคนนี้ตลอดไป..❤ เล่นไม่ใหญ่เเน่นะครับ #ครูปาร์ค ♬ เสียงต้นฉบับ  - Piyawat Chaiyawet   根據「The Thaiger」報導，這名警察名叫皮亞瓦特（Piyawat Chaiyawet）26日在個人TikTok頻道上傳求婚影片，他趁停紅燈時快速衝下車，跑到車前一頁一頁翻著告白紙板，上頭寫道「寶貝…我們在一起有段時間了…我認為時候到了，我想永遠照顧妳，寶貝，妳願意嫁給我嗎？」同時拿出求婚戒指，露出燦笑。隨後副駕女友也比出OK的手勢，答應求婚。感動影片獲得120萬次點閱、16萬人按讚，多數網友都在留言區恭喜有情人終成眷屬，但也有人藉機狂酸泰國紅綠燈秒數實在太久，「如果你在曼谷的阿索克十字路口（Asoke Intersection）這樣求婚，那你就有超多時間可以把心裡話都說出來」、「阿索克十字路口的號誌變綠燈之前，你可以求婚、娶妻生子，甚至送小孩去上學…」、「我之前去過這個路口，這裡紅燈非常久」。報導指出，影片拍攝地點與時間目前並未獲證實。另外，雖然皮亞瓦特在馬路上求婚時，中間一度轉頭確認紅燈是否轉綠，但他在道路行駛途中下車離開駕駛座的行為，也讓影片被TikTok官方強制加註安全警語，稱此舉可能導致他人或本人受傷。 </t>
+          <t xml:space="preserve">▲靈長類動物手腳靈活善攀爬，有員工爆料，5年內至少看到8次狒狒在圍牆邊聚集。（圖／記者陳凱力翻攝） +記者陳凱力／新竹報導六福村狒狒事件還沒完，隨著狒狒遭誤殺後，六福村已經從結紮傷口證實是自己的，今日爆出有員工爆料，狒狒不只一次脫逃，3年前要進行結紮手術時曾「精算出250隻」以上，指控園方說謊，根本沒在數。六福村在接獲尋找狒狒的消息時，就曾回應媒體，防護措施包括電網、圍牆都有很好防護，而且盤點之後沒發現有損壞痕跡。今(30)日記者會上仍堅稱防護系統沒有問題，至今仍不知狒狒怎麼跑出去的。但上述說法卻遭員工駁斥，有離職員工匿名向媒體爆料，說自己「到職5年至少看到狒狒在圍欄邊聚集8次」，還附上照片與line對話，「狒狒區今早發現圍籬邊樹木因風大垂落，造成狒狒攀爬道圍籬上，緊急鋸除樹木後，以食物誘回狒狒。」該名員工還附上一張對話截圖，指六福村員工私賣野生動物狐獴，不過截圖中只看到買家：「想確認是不是近親或沒受到妥善照顧」，賣家：「目前只有養一對，所以只有手上的三隻要賣，目前公母還不是很確定，因為小朋友還太小。因為我本身也是從事動物飼養跟醫療行業，在母體的照顧上跟來源都是沒有問題的」，買家：「了解，所以您是繁殖商」，對方則否認「喔喔喔不是，我是獸醫」、「繁殖商只有養一對可能會餓死」。▲員工向媒體爆料，不只一次看到狒狒在圍牆邊聚集。（圖／讀者提供）六福村則回應，3月30日早上記者會已有針對狒狒逃脫及數量相關議題做出初步回應，一切需要做等清查結果出爐後確認。至於此則爆料者指出員工利用公司資源私賣狐獴物種，園方稍早已做緊急調查，確認這是屬於該員工私人所飼養的物種，亦有購買來源證明，強調並非來自於園區的動物。一位當地卸任民代證實，當地居民都聽說過有猴子、孔雀會溜出來，尤其是有翅膀的，這些在當地老一輩間都不是什麼新鮮事，至於有沒有狒狒脫逃過，他說一般人哪分得清狒狒和猴子，看到長得差不多的一律就是猴子，反正只要看到動物跑出來，就通知六福村，獸醫就會出來抓，所以他認為，從這次狒狒脫逃事件中，六福村獸醫從頭協助到尾，其實早就知道是自家的了。▲爆料員工曝光對話，不過內容並未提到狐蒙跟六福村有關。（圖／員工提供）六福村所屬仁安里、里長黃瑞娥接受訪問時說，大約30年前，六福村剛開幕時還沒有圍籬，的確曾有動物跑出來，猴子、孔雀等等，一但居民發現，就會通知六福村來帶回去，對於自家動物跑出來損害弄作物，六福村態度良好，道歉、賠償，處理很積極。黃瑞娥認為，野生動物區難免有一些不可預期的意外發生，但這幾十年來六福村已經盡量在能力範圍內改進、完善，「動物脫逃」這件事，鄰里們基本上都能體諒，這次的狒狒事件是一個意外，不應抹煞六福村在當地長期的努力及貢獻。黃瑞娥肯定六福村在當地貢獻，包含大量就業機會、董事長回饋當地學子獎學金，甚至因關西地區經常有像穿山甲、貓頭鷹等動物受傷、出沒，也都是拜託六福村協助治療。她說，鄰里之間難免偶有摩擦，但是整體說來，六福村並沒有外界批評的這麼差。 </t>
         </is>
       </c>
     </row>
@@ -1022,17 +1014,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>快訊／7-11宣布開賣進口盒裝雞蛋！　每人限購1盒</t>
+          <t>「啪1次就中獎」女友懷雙胞胎　男大生哭窮：還靠父母養！全場氣瘋</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469603.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470304.htm</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲7-11將在3月30日起於雙北限定門市賣雞蛋 。（圖／7-11提供）記者周姈姈／綜合報導近日全台缺蛋，7-11今（29）日宣布，自3月30日起於雙北限定門市陸續販售專案進口盒裝雞蛋，每盒售價68元，每人限購1盒，售完為止。7-11表示，將於3月30日起販售進口蛋10入裝/盒，售價68元，效期為14天，盒裝蛋品將於台北市、新北市逾900間限定門市陸續到店販售。因貨量有限，每人限量1盒、售完為止，滿足民眾就近採買需求，7-11將持續積極爭取全台門市販售專案進口盒裝雞蛋，後續供貨以政府調度為主。▲進口雞蛋陸續上架。（圖／記者湯興漢攝）另外，今（29）日起許多通路也已陸續上架進口雞蛋，像是全聯福利中心，雙北地區門市今日起陸續上架進口蛋，每盒10顆，售價68元，每人限購2盒，各門市上架時間依各店為準，售完為止；家樂福全台246家超市明（30）日上架進口平價洗選蛋，每盒10入68元，每人、每車限購2盒，實際上架以各店到貨時間為準。▼全台通路進口雞蛋販售情形。（圖／ETtoday新聞雲製表） </t>
+          <t xml:space="preserve">▲女友懷雙胞胎，原PO哀喊養不起。（示意圖／非新聞當事人／記者周亭瑋攝）網搜小組／劉維榛報導情侶享受愛撫的快感同時，務必做好避孕措施。一名男大生自曝，第一次忍不住內射，殊不知女友懷孕了，甚至懷上雙胞胎。不過可惡的是，原PO竟懷疑女友偷吃，逼著女友做羊膜穿刺驗DNA，得知是自己的孩子後，原PO開始耍賴哭窮「目前靠父母資助金錢！」文章引發眾人氣罵「女友跟小孩好可憐」。一名男大生在Dcard表示，與女友翻雲覆雨時，他忍不住無套噴射一發，後來女友告知懷孕了，讓原PO感到晴天霹靂。不過沒品的是，原PO一度以為女友偷吃，於是「強押她去做羊膜穿刺取胎兒檢體，比對居然是我...而且還是雙胞胎！」[廣告]請繼續往下閱讀...對此，原PO自稱現在還在讀大三，平時靠父母資助生活費，接著哭窮哀號「我養小孩能力都沒有...該怎麼辦？早知道我就不要射裡面了。」哀求文曝光後，千名網友狠酸開轟「強押她去做羊膜穿刺...你也是很爛欸」、「女友跟小孩好可憐」、「成年就承擔責任，沒錢就讓女方墮掉，畢業後娶她，不然你就快去休學，工作存錢養小孩」、「雙薪月收15萬都覺得養一個就很剛好了，還在靠爸媽負責個毛？超級可悲」、「上來討罵的吧」。也有網友難過坦言，孩子才是最無辜的，「真的嗎？還是反串？可以羊膜穿刺已經不小了，這時候才墮胎傷害很大」、「你們有錢養嗎？沒錢養就不要生了吧，生下來也是苦了孩子」、「為什麼要賭風險？養不起還不避孕，沒辦法負責不要出來學人家做愛」、「墮胎是死兩個耶，你會下地獄」、「最無辜的永遠都是小孩，生在一個沒經濟能力的家，可憐」。▼網友無情狂轟。（圖／翻攝Dcard） </t>
         </is>
       </c>
     </row>
@@ -1042,17 +1034,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>夏如芝壓力大「頭部兩側輪流痛」！　遭醫生警告忽視嚴重後果</t>
+          <t>信義區咖啡廳狂倒「卻仍有一堆人搶著開」！　內行曝背後真相</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469595.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470387.htm</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>記者孟育民／台北報導藝人夏如芝育有一女「小芝麻」，近日登上《樂活so much》節目，分享多年來深受暈眩症的困擾，只要壓力大或睡不好，後腦、頸椎、頭部兩側會輪流痛，常忍痛到極致才吃藥，而且症狀舒緩後就常常忘記吃藥，結果反倒效果不佳。醫師提醒夏如芝，頭痛的原因很複雜，腦內壓增高，若有症狀勿輕忽，嚴重的話可能導致腦膜瘤、腦中風等後果，夏如芝當場大吃一驚。▲夏如芝深受頭痛之苦。（圖／年代提供）藝人蔡允潔在去年聖誕節生下女兒「小福星」，升格新手媽咪，孕期毫不忌口的她，整整胖了近30公斤，最後產下4045g巨嬰，營養師笑稱：「妳胖的比要生三胞胎的還多！」蔡允潔說，孕期胃口出奇的好，以為「一人吃兩人補」，偏愛吃便當、蔥油餅跟精緻澱粉，三餐喝可樂，沒想到體重直線上升，最後全都胖在自己身上，連老公想阻止時還稱：「是寶寶想吃！」[廣告]請繼續往下閱讀...▲蔡允潔懷孕後體重胖了30公斤。（圖／年代提供）營養師說，以蔡允潔原本的身高體型，最多只能胖16公斤，但最後竟胖了快30公斤，比要生三胞胎的產婦還胖的多！而蔡允潔因為體重增加太多，常常全身關節痛到睡不著，看到身旁熟睡的老公「只想踹下去」，營養師分享如何養胎不養肉的方法，把握產後六個月黃金瘦身期， 但蔡允潔只關心夫妻的「恩愛時間」，令現場來賓笑翻。</t>
+          <t xml:space="preserve">▲很多年輕人創業的首選是咖啡廳。（示意圖／pixabay）記者施怡妏／綜合報導年輕人想開店創業、實踐事業版圖，首先第1步得找尋適合的店鋪，多數人會選擇開「咖啡廳」當作第一步，就有網友表示，信義區附近有很多私人咖啡廳，但都很短命，開一陣子就倒閉了，不過下一個接手的人，居然又是開咖啡廳，因此很納悶「汰換率超高，卻還是很多人想開咖啡廳 ?」貼文掀起討論。原PO在PTT的Gossiping版發文，「為什麼咖啡店一直倒閉還一直開？」住在信義區幾年後，發現周圍店家有個現象，咖啡廳一直開，但開一下之後就關店了，沒過多久，又開了另一間新的咖啡廳，除了連鎖咖啡廳可以撐下來，私人咖啡廳汰換率超高，「生得比韭菜還快」。[廣告]請繼續往下閱讀...原PO指出，不管是咖啡一杯賣100元、200元，或是平價一點70、80元的，全都倒閉了，沒多久又會有新的人來開新的咖啡廳，「裝潢還會整個換掉，超浪費耶，為什麼咖啡店一直倒閉還一直開？」▲咖啡要泡得好喝也需要技術。（示意圖／取自免費圖庫Unsplash）貼文一出，網友指出，開咖啡廳門檻不高，很多人開店的首選都會選咖啡廳，「有夢想的人首選，但如果要扛租金都撐不久」、「我猜是進入門檻低吧，想創業的人都會先開咖啡廳」、「開咖啡店是很多潮青小時候的夢想啊」、「每個開店老闆都有夢，但現實很殘酷」、「進入門檻低，但是存活超難」。也有網友指出，想存活除了要有雄厚的資金，技術也很重要，「還是有技術成份吧」、「沒做出差異化，平價的有超商咖啡，高價位的有星巴克，中價位的這塊也一堆咖啡廳在搶，結論就是除非有噱頭（例如店內有王牌咖啡師）不然陣亡率很高」、「咖啡要泡得好喝也是一門學問」。 </t>
         </is>
       </c>
     </row>
@@ -1062,17 +1054,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>高中生玩手機被約談！4樓墜落嚴重傷勢曝　台中市教育局出手了</t>
+          <t>虛擬貨幣納管！金管會當主管機關　「不列特許事業」</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469593.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470384.htm</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲台中今天驚傳某高中生墜樓案，送往亞大醫院急救後收治加護病房觀察，教育局發文要求校方調查事件發生原因。（圖／資料照片）記者游瓊華／台中報導台中市某高中今天上午發生學生在校園內從四樓墜樓事件，造成腦出血、氣胸、肺挫傷及多處骨折，隨即送醫搶救後尚未恢復意識，目前人還在加護病房觀察中。台中市教育局表示，已正式發文要求學校依規盡速調查，釐清事發原因。教育局指出，事件發生後，教育局督學及學校校長及主任教官陪同前往醫院，教育局也發文要求學校盡速調查釐清事件發生原因，相關的輔導機制也同步進行，教育局請學校立刻著手進行學生心理關懷，教育局學諮中心也派專業輔導人員進駐從旁協助。高中生被救護車送往亞大醫院急救，院方表示，學生到院時呈現腦出血、氣胸、肺挫傷、左側骨盆、大腿、小腿骨折，左手肱骨骨折等狀況，經緊急處置後，目前呼吸、心跳等生命徵狀穩定，已經送到外科加護病房密切觀察中，但因尚未恢復意識，將由神經外科醫師安排檢查。 </t>
+          <t xml:space="preserve">▲虛擬貨幣納管，金管會當主管機關不過「不列特許事業」。（示意圖／資料照）記者陳依旻／台北報導金管會今（30）日宣布，已奉行政院指定擔任具金融投資或支付性質之虛擬資產平台的主管機關，該會將參考國際監理趨勢，目前會先朝3方向循序漸進，強化國內虛擬資產平台對客戶權益的保護，但暫時不打算把虛擬通貨納為特許事業。一、訂定指導原則[廣告]請繼續往下閱讀...近期金管會將依洗錢防制法之規定，輔以加強業者自律及資訊揭露透明之原則，訂定「管理虛擬資產平台及交易業務事業(VASP)指導原則」，就VASP有關資訊揭露、商品上下架審查程序、客戶與平台業者資產分離保管、交易之公正與透明度、洗錢防制、客戶(消費者)權益保護、資訊安全、營運系統與冷熱錢包管理及機構查核等面向提出管理架構之指導原則，以利VASP據以遵循，加強對客戶之保護，提升交易透明度，並持續落實洗錢防制之執行。二、推動VASP相關協會等組織訂定自律規範上述指導原則訂定後，將洽請VASP業者推動業界自律，由VASP公(協)會依據指導原則訂定自律規範，期以大型業者帶動小型業者，引導業者強化內部控制，提升客戶權益保障。三、將與其他部會共同協力虛擬資產涉跨部會業務，須各部會共同協力合作，以強化國內VASP業者自律成熟度及累積管理經驗，並持續蒐集觀察國際組織及各國主管機關之監理發展方向，以研擬合適之法制規範方向。金管會強調，鑒於近期國外虛擬資產交易平台陸續發生不法情事，金管會強調將參考國際監理趨勢提出對國內VASP管理架構之指導原則，以期保障客戶權益。鑑於虛擬資產價格波動大，投機性高，所以，金管會強烈提醒國人買賣虛擬資產務必審慎評估風險。 </t>
         </is>
       </c>
     </row>
@@ -1082,17 +1074,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>《黑暗榮耀》河度領VS全宰寯會選誰？　9歲小睿帥反應太機智</t>
+          <t>小貓撿回家2年「失控膨脹」壯成台灣黑熊　媽笑：自己養出來的</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469342.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470372.htm</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 記者曾鈺珊／綜合報導在《黑暗榮耀》裡飾演河睿帥的小童星吳智律，日前接受雜誌專訪，訪談影片釋出不到24小時就破10萬觀看，可見小女孩的高人氣，其中在QA中的某一題被問：「度領爸爸和宰寯叔叔比較喜歡哪一位爸爸？」智律苦惱的模樣讓網友融化表示：「騙人生女兒！」9歲南韓女童星吳智律小小年紀就擁有許多代表作，像是人氣韓劇《非常律師禹英禑》、電影《勝利號》等等，在今年更是憑藉飾演《黑暗榮耀》朴涎鎮的女兒演技備受肯定，精湛實力與可愛外型使她深受觀眾的喜愛。[廣告]請繼續往下閱讀...▲鄭星一（左）和朴成勳（右）在劇中飾演河睿帥的爸爸及生父。（圖／翻攝自Instagram／ygmicael、boxabum）雜誌ELLE KOREA官方YouTube頻道昨（28日）釋出吳智律的訪談影片，小奶音和可愛的小動作融化許多觀眾，在訪談中被問及河度領爸爸和全宰寯叔叔比較喜愛哪一位時，智律深陷苦惱回答：「度領爸爸是我的維他命、我的營養劑，對我非常親切也照顧我；宰寯叔叔演技非常自然，一樣對我也很親切。」最後她機智的反問大家：「那你們會選擇誰呢？」▲朴成勳和吳智律的幕後合照。（圖／翻攝自Instagram／boxabum）智律也說對於自己最有自信的演技是「開朗的演技」和「賭氣的演技」，而最困難的依舊還是「哭戲」，她尷尬地笑著說：「明明在家裡就很愛哭，但到</t>
+          <t>▲黑貓經過2年的成長壯成台灣黑熊。（圖／有點毛毛的／網友Luz Kao提供）記者闕雁琳／綜合報導「這不是阿嬤養的，是我自己養出來的...。」網友Luz Kao分享家裡的黑貓撿回來到現在已經2歲大，身材在這段時間出現劇烈的改變。剛帶回家1個月大時還是一隻小萌貓，經過長期的幸福餵養，體型失控膨脹，現在躺下來就像一隻壯碩的台灣黑熊，下巴直接離家出走，讓媽媽看了自己也笑翻，貼出撿到第一個月和兩年後的對比照。「本周我最毛」在周末提供毛毛小品短文，分享寵物、動物日常，帶您一秒瀏覽毛孩那些事，不管有沒有養寵物，都期盼能為大家在假日小充電，轉換成上班日的大能量。同時也歡迎到《有點毛毛的》社團投稿萌寵圖文和影音，你家毛孩就有機會上寵物雲喔！版規全文請點我。[廣告]請繼續往下閱讀...</t>
         </is>
       </c>
     </row>
@@ -1102,17 +1094,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>快訊／情侶吃完宵夜釀悲劇　女大生遭撞飛亡！重機騎士訊後請回</t>
+          <t>先探／中小型股挾題材表態</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469591.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470225.htm</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">記者黃宥寧、蔡怡萍／台北報導新北市淡水區北新路182巷交叉口，昨(28日)晚上9時59分許發生一起死亡車禍，一對情侶吃完宵夜騎車離開時，遭黃牌重機撞飛，男友全身擦挫傷無大礙，後座女友則頭部猛撞電線桿送醫不治。黃牌重機騎士29歲詹姓男子，下午經檢方複訊後請回。▲情侶被撞後噴飛直擊電線桿，後座女友血流滿地。（圖／警方提供，下同）根據調查，該起車禍發生在28日晚間近10時，29歲詹姓男子騎乘黃牌重機，由淡水區北新路往中山北路方向直行，與18歲周姓男子騎乘普重機、後座乘客21歲林姓女大生發生交通事故，周、林2人遭撞擊噴飛到對向路旁，林女撞擊路旁電線桿大量出血，當場無呼吸心跳，於同日晚間23時許急救無效宣告死亡。據了解，周男和林女為情侶，當時才剛吃完宵夜騎車離開，沒想到發生憾事。警方表示，全案依交通事故規定辦理，並通知採證人員到場採證，將調閱周邊監視器、行車紀錄器及通知家屬到場協處，詳細肇事原因及責任歸屬將進一步調查釐清。▲情侶吃完宵夜騎車離開，遭黃牌重機撞飛。 </t>
+          <t xml:space="preserve">國際銀行連環爆風波可望暫歇，聯準會升息也接近尾聲，短線台股面臨反彈過後與連假前賣壓，除了趨勢性個股隨題材奮起外，預期個股股價將逐漸回歸基本面展望調整。文／黃俊超從美國矽谷銀行宣布破產後被第一公民銀行收購，到瑞士的瑞士信貸被瑞銀收購，再到德國的德意志銀行，信用違約互換交易（ＣＤＳ）上升，股價連續性走跌，顯示市場對銀行業信心脆弱，而歐洲央行依舊以壓制通膨為首要，決議升息兩碼，聯準會則如市場預期升息一碼，且主席鮑威爾表示今年內不會降息，若以點陣圖來看，下次升息一碼將有機會是本次循環的終點。信心薄弱作祟[廣告]請繼續往下閱讀...ＣＤＳ越高表示銀行信用越危險，然而德意志銀行近年已經進行數十億歐元重組，且去年淨收入五○億歐元，截至去年年底總資產約為一．三三七兆歐元，從償付能力標準、淨穩定資金比率和流動性覆蓋率等指標來看，外資機構並不認為會變成下一個瑞士信貸，如何穩住市場驚弓之鳥般的信心，將成為危機能否化解的最大關鍵。依據歷史經驗而言，緊縮周期通常是在大事件爆發後快速結束，而非是慢吞吞的歹戲拖棚。近期的銀行連環爆，將使得業者在營運上有大機率更加謹慎，鮑威爾表示，信貸緊縮可能意味著利率政策方面的工作可能減少，原本預期要提高終點利率，可望因為銀行壓力而部分抵銷，也代表著升息終點不遠，經濟放緩壓抑通膨的目的將逐漸達成。資產期限錯配是這次銀行出現問題的原因之一，迅速升息加上擠兌，基本上很難有銀行能夠抵擋。舉例來說，一般銀行定期存款，多介於一個月至三年，不過放款則可能十、二○年，甚至長達三○、四○年，在利率迅速走高的背景下，銀行進行的投資活動，若保守將資金停泊在長期投資如公債，債券價格與利率呈現反向，若再加上客戶鉅額提款，或其他信心不足所導致的行為，銀行被迫賣出則投資出現虧損，負向循環的風險大幅提升。貨幣政策具有累積與遞延性，價格僵固性、緩慢變動的黏性也不是那麼容易就會被打破，透過貨幣政策打擊通膨，執行後並不會立即見效，且變數依舊眾多。日前我國央行做出再度升息半碼決策，主要是抑制通膨預期心理，總裁楊金龍表示將持續觀察三件事，一是緊縮貨幣政策的累積效果；二是歐美國家緊縮政策的外溢效果；三是銀行危機可能的衝擊。疫情使得產業步調大不同，科技業與製造業自去年就已開始裁員、清理庫存等，處於景氣衰退周期當中，或許目前已經逐漸走到尾聲，而金融業危機連環爆，幸好出了問題還有政府可以靠，不過，需要大量人力的服務業則處在景氣向上擴張，整體失業率不易快速攀高，但是利率決策全體適用，對各行業帶來完全不同的衝擊。台股今年在國際股市表現屬前段班，加權指數年初跳空突破二○○日均線，維持高檔震盪以上格局，波段反彈幅度約為前波下跌的五五％，櫃檯指數更為強勢，仍處於向上盤堅創高軌道，留意上升趨勢線，自低點反彈已達前波修正的七成，過程中權值股發揮撐盤效用，擁題材加持的中小型股表現更加亮眼。回頭檢視基本面今年連假特別多，對於內需產業可望能夠帶來實質上的受惠是好事，但是對於企業與上班族乃至股市，則不一定是好事，多事之春易使連假前的持股信心出現搖擺，除了擔心可能有突發事件之外，反彈走勢在漲了一輪過後，若要再往上攻擊，可能需要更大的利多、更多的成交量能刺激，才有機會明確表態。總體經濟本波段的升息循環逐漸進入尾聲，為了抑制通膨應該會維持在高檔一段時間，然而貨幣政策的累積性與遞延效果，壓力恐將會逐漸顯現，對未來需求回溫程度與速度，以及景氣究竟只是成長趨緩還是將落入衰退，將帶來考驗。股市在反彈後，多少都會面臨獲利了結的技術性賣壓，短期操作宜謹慎。（全文未完）全文及圖表請見《先探投資週刊2241期精彩當期內文轉載》 </t>
         </is>
       </c>
     </row>
@@ -1122,17 +1114,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>台企銀看好美國升息尾聲　今年加大布局「外幣債」</t>
+          <t>Tizzy Bac《冬日花朵》獨自哀悼　緩慢且溫柔地為「遲來的刺痛」送行</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469467.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470400.htm</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲台企銀看好美國升息尾聲，今年要擴大布局外幣債。（圖／記者吳靜君攝）記者陳依旻／台北報導擁有超過34萬股民的台企銀於今（29）日舉行2022年第4季線上法人說明會，由副總陳紹晃主持，看好美國升息進入循環尾聲，展望今年，台企銀將擴大外幣債券的布局，主要是美國公債、中大型公司債、金融債；台債會視殖利率變化調整，以達到資金運用等效益。台企銀2022年全年合併稅後淨利達新台幣101.22億元，年成長率98.47%、每股稅後純益（EPS）1.26元，兩項數據紛創下新高，台企銀主管分析，主要獲利成長動能來自於放款業務提升，受惠2022年利差及放款業務營運量同步擴大，全年利息淨收益達新台幣202.28億元，年成長率為13.60%。[廣告]請繼續往下閱讀...陳紹晃指出，去年全球經濟面臨通膨、升息和地緣政治風險等諸多變數，金融業的營運充滿挑戰，升息對股、債、匯市產生的衝擊也反映到該行其他權益項下的未實現評價損益，不過，該行各項主要業務皆穩定成長，全年獲利締創佳績，2022年第4季末未實現評價損失情形已較前1季收斂，對此，他表示，「該行已盡最大努力」。陳紹晃表示，本行先前公告，2023年1-2月合併自結稅後淨利23.23億元，也較去年同期成長。此外，在該行持續強化風險管理、優化授信品質下，備抵呆帳金額大幅降減，提存壓力減輕，2022年逾放比為0.20%、備抵呆帳覆蓋率為653.28%，資產品質優良為後續營運打下穩健根基。惟該行表示，依據金管會規定，若帳列其他權益為負數，須提列相同數額之特別盈餘公積，致縮減公司2022年可供分配盈餘空間。陳紹晃強調，該行海外債券的布局主要以投資等級並持有至到期日為主，持有期間評價損失不會影響到期日的贖回價格，另，今年升息情形應會較去年緩和，截至今年2月底該行債券部位的評價已較去年底回升，債券評價提升得以迴轉，並於未來年度成為可分配盈餘回饋予股東。展望2023年的業務拓展策略，陳紹晃強調，將延續「優化資產品質，開創多元獲利」兩大核心方向，定期審視風險管理流程，並依金融情勢及風險變化，動態調整資產結構，以兼顧風險性資產之成長及收益性。另外，為開創多元收益來源，該行將持續深耕核心客群經營，以客戶需求為導向，運用多元的產品線提升客戶黏著度，爭取更多業務往來，達成盈餘績效目標。另在海外業務拓展方面，該行表示將審慎擇優承作海外放款案件，以穩健成長為基調。 </t>
+          <t>文／女子學每當生活中擁有的美好、交集過的人事物悄然逝去，有所感慨之際，腦中便會浮現〈You’ll see〉緩緩地將其打散。這首歌是陷入Tizzy Bac音樂的初始，很幸運，這相遇讓我明白了對於生命中來了又走的種種，也許只能遠望不相逢，但在溫柔經過的時光中會慢慢有了勇氣，學會放開與之好好告別，並祝福他們。成軍二十多年的Tizzy Bac在第七張專輯《Human Error》再次對生命提出叩問，詮譯「錯誤」這個人類真實生活中不可能避免的面相。專輯中的〈冬日花朵〉以鋼琴為基調，搭配惠婷極富魅力的清冷嗓音加上耐人尋味的歌詞，再次引起了情緒共鳴，唱出了人生必須獨自面對的過程，更讓人想起了初次聽到〈You’ll see〉那般牢牢攫住內心的激動。▲Tizzy Bac專輯中的〈冬日花朵〉以鋼琴為基調。（圖／截圖自〈冬日花朵〉MV，下同）[廣告]請繼續往下閱讀...那些在冬日長成名為「哀傷」的不知名白花人生隨著時間不斷地往前推進，在這旅途中，我們會做出無數個選擇，有時能順逐向前，有時不盡人意，而期間所累積或大或小的懊悔與遺憾，會在夜深人靜時，反覆地折磨著自己，然後再憔悴不堪地走到新的一天，周而復始，令人生厭。這些令人懊悔或感傷的經驗，就像在冬日裡無聲長成的不知名白花，也許不合時宜，但它們的盛開，最終會帶領著我們去理解生命的原始面貌，而成為獨一無二的個人故事。獨自哀悼，一場漫長的告別在人生道路上，我們總是不斷在告別。記得初次告別某些人事物，不明究理的自己，只能手忙腳亂地想緊緊抓住它們不放，執迷不悟的就像個要不到糖吃的小孩，覺得只要大聲地哭喊，也許逝去的會再回來。〈You’ll see〉讓我明白了有些美好會逐漸消逝，再不願也留不住，重要的是要學會勇敢地與之好好告別，祝福並感謝有過的這一切。〈冬日花朵〉則是描繪出人們在每一場分離後，獨自經歷的緩慢道別，這個過程除了自己，沒有其他人會知道，我們只能獨自哀悼，看著名為「哀傷」的不知名白花安靜地凋謝，然後與一部分的自己道別，再漸漸成長。惠婷說：「所有的分離並非像按下停止鍵一樣，啪一聲地就結束。」若此刻你也停在留給自己的哀傷中，那就搭乘〈冬日花朵〉這輛記憶列車，緩慢且溫柔地為它們送行。延伸閱讀深夜裡的溫柔擁抱！楊乃文《推開世界的門》：你是我最初，也是最終想停留的地方	 第32屆金曲獎提名，載入音樂實驗的台語歌〈若是明仔載〉： 能否拋開昨日的不愉快？學會釋然也許是找到生命出口的關鍵※本文由女子學授權報導，未經同意禁止轉載。https://share99.com/</t>
         </is>
       </c>
     </row>
@@ -1142,17 +1134,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>旅客落軌遭台鐵自強號撞上　「北湖＝新豐單線行車」列車延誤</t>
+          <t>張學友拒封麥原因曝光　「歌神」棒子交給誰？他5字超直白回應了</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469598.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470373.htm</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲台鐵自強號傳出撞上落軌旅客，圖非事故列車。（資料圖／記者李毓康攝）記者李姿慧／台北報導台鐵今下班通勤時段不平靜，湖口站傳出有旅客落軌，自強號剎車不及撞上，北湖到新豐間單線行車，列車出現延誤。台鐵今下午17時32分於湖口站西正線二月台北邊，因一旅客侵入路線，遭128次PP自強號撞及，旅客換乘130次。[廣告]請繼續往下閱讀...台鐵已緊急通知鐵路警察處理中，目前北湖=湖口=新豐間以東正線單線行車，列車出現延誤。 </t>
+          <t>記者蔡琛儀／澳門報導61歲「歌神」張學友今（30日）在澳門正式宣布全新巡演將於6月9日，於澳門金光綜藝館起跑，張學友說，自己不怕老，「我很想知道老會怎樣，想在每個階段做到那個階段的事，希望走的那一天有個交代。」▲張學友宣布演唱會將從澳門起跑。（圖／環球提供）他也表示自己從沒想過退休，「這是我最想做的事情，不是說年紀大了就不想做，每個人都可以做自己喜歡的事情，也不見得說哪個階段會做得比上個階段不好，但就希望可以自己去證實這是真的。」有媒體問到，張學友有沒有想過將「歌神」的封號交棒？但謙虛的他立刻說：「我沒有棒子。」[廣告]請繼續往下閱讀...他今在台上看到自己過往的演唱會畫面，感動到差點落淚，不過他也笑說，自己現在應該還可以挑戰一字馬，如果觀眾還想看的話，會回去練一下。但歌神在平面訪問時又改口：「我開玩笑而已，我研究一下，應該是可以的吧！只是太久沒做，很痛而已，可能可以克服。」▲張學友坦言不會封麥。（圖／環球提供）疫情期間他表示跳舞、劈腿都沒練，只有練唱，他也透露這次演唱會舞蹈部分會減少，幽默表示：「我不會跳那麼多，但（演唱會）舞蹈不會減少，是我（的部分）減少，有需要的地方再跳。」他雖早已進入花甲之年，外型卻依然保養得宜，張學友被問到保養秘訣，表示自己就是多運動，每天只吃早餐和晚餐，「晚餐吃很少，這不是我的問題，是夫人問題，我不會煮就跟著吃。」但他也說，以前相信人家說空腹唱歌很好聽，「現在我也沒辦法，真的要吃飽才能唱，我現在習慣是開場前吃飯，吃完飯歇一歇再去唱歌。」</t>
         </is>
       </c>
     </row>
@@ -1162,17 +1154,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>卸下「最年輕總仔」頭銜！　邱昱凱下一步回歸業界</t>
+          <t>浮屍與越南偷渡名單吻合　傻眼！風電機台死者竟列無名屍簽結</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469577.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470385.htm</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲悠遊卡總經理邱昱凱也同步解任。（資料照／邱昱凱提供）記者陳依旻／台北報導被外界稱為「柯文哲網軍頭子」的邱昱凱卸下悠遊卡公司總經理職務！下一步選擇回歸業界，在當「最年輕的總仔」的這2年，邱昱凱不但一手拉拔悠遊付長大成人，也掀起將悠遊卡當收藏品的風潮，不過他也坦言，還有很多工作並未完成，尚待下一棒繼續推動。悠遊卡公司已公告，隨董事會成員重新改組，同步解任原董事會任命的總經理邱昱凱，接任人選尚待新任董事長林志盈選定。[廣告]請繼續往下閱讀...邱昱凱在悠遊卡公司「熟悉業務」2年後，向前台北市長柯文哲毛遂自薦當上總經理，當時台北市議員群起攻之，質疑酬庸，甚至指「上不了檯面」，無論外界如何評價，邱昱凱2年繳出了悠遊付200萬會員、悠遊卡跨境支付以及讓手機成為加值機的二代悠遊卡規格上市的成績，並在疫情期間頂住壓力，讓悠遊卡仍是唯一有獲利的電子支付業者。邱昱凱說，在悠遊卡最重要的成就在於將延伸支付的觸角到生活當中，包括繳學費、繳稅費，甚至到宮廟、抽紅包、抽姻緣金、收生育補助、甚至還能道路救援等，都可以使用到電子支付的服務。此外，悠遊卡也從一般的交通支付工具化身為需要排隊搶購的收藏品，「賣卡片」這件再平常不過的事，儼然成為疫情間撐住營收的利器；然而邱昱凱也有遺憾，雖然悠遊卡已經跨出跨境支付的第一步，但悠遊付與跨國境夥伴合作尚待開花結果、附隨卡等業務也趕不及在他任內推出。外界雖盛傳柯文哲競選總統，邱昱凱將是競選班底之一，但他搖搖頭比喻，當初與柯文哲一同投入台北市長選舉就像是一種創業，歷經了8年也做出了不錯的成果，像是現在全台要推行的月票，就是當初1280的進化版，或像是晨會、遴選制度這種推動公務體系的文化變革。如今各自有關心的題材，好朋友彼此鼓勵、相互關心。至於在卸下悠遊卡公司總經理這個擔子之後，下一步要怎麼走？邱昱凱坦言：「先結婚吧，我期待很久了！」未來則想朝科技金融的產業邁進。他指出，本身就是金融業出身，觀察近幾年疫情之後的潮流，關心跨境匯款、支付、購買金融商品等全球性的金融服務，未來也會在這方面多所著墨，他也強調，法令的鬆綁與科技進步將帶動金融消費習慣的改變，未來這個題材，「有趣的事還多著呢！」 </t>
+          <t xml:space="preserve">▲台灣近海3月總計發現16具浮屍，檢警與海巡署卻在30日上午才召開專案會議因應。（圖／記者張君豪翻攝，下同）記者張君豪／台北報導台灣西部海域從2月起發生多起越南籍男女浮屍案，目前案情朝跨境人蛇集團近海丟包，或者走私偷渡船隻發生船難導致多人死亡發展，刑事局29日支援偵辦後，目前已釐清從2月27日起迄今發現的20具浮屍，其中7人都是打算偷渡來台的越南籍民眾，根據7具浮屍發現的時序和地點，該批死者一開始從高雄港外海被發現，台南將軍、安平、七股也陸續發現浮屍，緊接著雲林下湖口、買麥寮海芋也發現越南籍民眾浮屍，顯示越南官方掌握的14位偷渡民眾可能全數遇難。至於該批浮屍為何分布雲林以南到高雄沿海，海巡人員透露因台灣冬天水溫冰冷，落水者溺斃後最快要5-7天後才會浮腫上浮，從最早發現的2月27日的高雄港外海女浮屍來推估，在2月20日前這些越南民眾就已落水遇害，這點也與</t>
         </is>
       </c>
     </row>
@@ -1182,17 +1174,21 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>聖山上「脫褲露鳥」慘了！俄男嗨慶攻頂　要被峇里島驅逐出境</t>
+          <t>伊旺麥奎格正面露大鵰！激情床戰「古一大師」　影評：不敢直視</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469551.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470391.htm</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲尤里站在峇里島聖山上「露鳥」。（圖／翻攝instagram＠chila_brazila）記者吳美依／綜合報導俄羅斯男子尤里（Yuri）前往峇里島旅遊，卻在神聖的「阿貢火山」（Mount Agung）山頂脫褲「露鳥」，還把照片分享至社群媒體上炫耀。如今，他面臨被驅逐出境，且6個月內禁止再度入境的懲罰，悔不當初地公開道歉。據悉，尤里與另外6人未經允許攀爬聖山，峇里島法律與人權辦公室首長納皮圖普盧（Anggiat Napitupulu）向《雅加達郵報》表示，此舉不僅「違反規範，也不尊重我們的文化」。▲尤里向峇里島地方領袖致歉。（圖／翻攝instagram＠chila_brazila）尤里得知事態嚴重性後，在Instagram發布影片，「我想要為我的行為道歉，此舉對當地居民而言，褻瀆了神聖的火山。我的行為沒有任何藉口，導致這一切的唯一原因就是我個人的無知，對於當地信仰獨特性的無知。」尤里說明，「對於峇里島人而言，阿貢火山是濕婆神的象徵」，他在學習當地文化及信仰後，終於意識到自己的錯誤，為了「挽救局勢」還與社區領袖會面致歉。事實上，外國遊客因為暴露身體而被驅離峇里島，過去早有先例。2022年，加拿大演員克賴根（Jeffrey Craigen）在神聖的巴杜爾火山（Mount Batur）裸體大跳毛利人傳統舞蹈哈卡舞（haka），最終不得不含淚道歉。2019年，一對捷克夫婦在印度教寺廟中使用聖水洗澡，同年還有5名澳洲人在街上裸奔，侮辱當地居民，在公共場所嘔吐及便溺。 </t>
+          <t xml:space="preserve">記者蕭采薇／綜合報導情慾犯罪懸疑經典《烈火亞當》（Young Adam）即將在台重映，該片入選2003坎城影展「一種注目」單元，由「歐比王」伊旺麥奎格（Ewan McGregor）和「古一大師」蒂妲絲雲頓（Tilda Swinton）主演，描述一個神秘男子與老闆妻子之間的禁忌情慾故事，兩位演技派巨星在片中貢獻多場情慾戲，伊旺麥奎格甚至正面露「大鵰」，這是本片睽違19年再度登上台灣大銀幕。▲《烈火亞當》由伊旺麥奎格、蒂妲絲雲頓主演。（圖／車庫提供）伊旺麥奎格曾被歐美媒體稱作「最常裸露的一線男星」，從早年的《猜火車》到近年的影集版《冰血暴》，都可以看到他「寬衣解帶」的身影。伊旺麥奎格曾在訪問中半開玩笑的表示，這是為了平衡男女演員在大銀幕上裸露的頻率，「人們總是期待女性在電影中裸體，但我喜歡嘗試這樣做，好讓她們不用裸體——讓女性不用裸體。」[廣告]請繼續往下閱讀...▲《烈火亞當》由伊旺麥奎格、蒂妲絲雲頓主演。（圖／車庫提供）而《烈火亞當》可以說是伊旺麥奎格裸露的最徹底的一部作品，當時年僅三十出頭的他，身材精瘦，對著鏡頭正面露出整副「大鵰」，肉體不輸現代的年輕男星。▲《烈火亞當》是伊旺麥奎格裸露的最徹底的一部作品。（圖／車庫提供）+ +蒂妲絲雲頓如今以漫威電影宇宙中的「古一大師」廣為全球影迷熟知，早年以演出文藝片為主的她，在《烈火亞當》裡飾演芳心寂寞的人妻「艾拉」，面對年輕帥氣的伊旺麥奎格，決定跨過禁忌的界線，順從自己的慾望。蒂妲絲雲頓在片中大方露兩點，奮力演出床戲，其內容的激情程度，讓「閱片無數」的影評大師羅傑埃伯特（Roger Ebert）也驚呼道「直接到讓人想別開眼睛」。▲蒂妲絲雲頓在《烈火亞當》裡飾演芳心寂寞的人妻「艾拉」。（圖／車庫提供）英國女星艾蜜莉莫提梅（Emily Mortimer）在片中飾演伊旺麥奎格的前女友「凱西」，兩人有相當瘋狂的性愛戲，伊旺麥奎格拿棍子打她，甚至還把番茄醬和巧克力醬噴到她身上。艾蜜莉莫提梅表示「真的是一種解放」，因為在現實生活不會被允許這麼做，如今，她已經成為母親，「我不確定我現在臉皮還夠不夠厚到可以（在鏡頭前）脫掉衣服。」▲《烈火亞當》中，兩位演技派巨星在片中貢獻多場情慾戲。（圖／車庫提供）+ +《烈火亞當》故事描述喬（伊旺麥奎格 飾）是一個居無定所的年輕人，他在一艘往來格拉斯哥和愛丁堡之間的駁船上找到了工作。某天下午，喬和其他船員在水上發現一具年輕女子的屍體。這個年輕女子名字叫凱西（艾蜜莉莫提梅 飾），她過去似乎跟喬有某種關係。與此同時，喬與駁船老闆的妻子艾拉（蒂妲絲雲頓 飾）之間漸漸產生了曖昧的情愫。《烈火亞當》將於4月21日大銀幕經典重現。▲英國女星艾蜜莉莫提梅（右）在片中飾演伊旺麥奎格的前女友「凱西」。（圖／車庫提供） </t>
         </is>
       </c>
     </row>
@@ -1202,17 +1198,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>曖昧男沒回訊息！妹子驚見「LINE這串字消失」哭了　代表被封鎖</t>
+          <t>清明連假來了！陸海空疏運一次看　首日「國道車潮直逼歷史天量」</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469262.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470388.htm</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲曖昧對象沒回訊息，原PO發現對方主頁的生日消失，判定自己被封鎖。（示意圖／記者曾筠淇攝）網搜小組／劉維榛報導熟悉的人突然不回訊息，許多人都怕自己被封鎖了！一名妹子透露，曖昧對象失聯多天，結果原PO意外發現，對方LINE主頁的生日消失了。《ETtoday新聞雲》記者也實際測試，果真封鎖後，主頁生日會消失，不過也有內行認為，送貼圖測試方法最快；還有撥打電話，「沒有顯示通話符號」代表被封鎖了。一名女網友在Dcard以「發現LINE被封鎖的新招」為標題表示，之前爬文得知，若想知道有無被封鎖，「多半是打電話，看對方是不是秒掛，然後顯示無回應」，不過要是自己多想，對方也沒封鎖就會超尷尬。[廣告]請繼續往下閱讀...而原PO坦言，近日發現曖昧對象沒有回訊息，讓原PO感到忐忑不安同時，忽然發現對方主頁的生日不見了。原PO強調，對方不是一個愛改東西的人，於是靈機一動找朋友測試一番。原PO封鎖友人後，再請友人查看原PO主頁，果真沒有顯示生日。另外，原PO直呼，在未加好友名單裡也都沒有顯示生日，於是得此證明，「不過也要那個人原本就有在主頁顯示生日」，才能用此招來判斷。《ETtoday新聞雲》記者也實際測試，找來一位有在主頁設定生日的友人，一旦封鎖後，主頁上的生日就會立刻不見，但也如原PO所說的，前提對方有設生日才能來判斷。文章曝光後，網友則回應「我設了生日，LINE VOOM可以設定不讓指定好友看生日和動態」、「我沒設生日」、「把對方拉進一個只有自己跟對方的群組，看成員有沒有他；如果沒有，代表你被封鎖了」、「我記得送主題可以知道」。▲內行直言送貼圖測試最快。（圖／翻攝Dcard）對此，有神人最推1招，送貼圖是最簡單的測試方式，選好貼圖並點了對方姓名，按確定，立刻顯示「XXX已擁有這組貼圖」，測試很多組冷門貼圖都這樣，有很高機率是被封鎖了；若沒被封鎖，在點完對方姓名後，畫面會出現「確定要送出貼圖組嗎」，再按第二次確定才會真的送出，所以不用擔心誤送的問題。過去也有網友分享，撥出LINE通話後，若左上角「有顯示通話符號」，代表沒有被封鎖；反之，若被封鎖的話，就不會顯示通話符號，不論響再久就是不會出現。值得注意的是，若是你封鎖別人，又把聊天室當作筆記本用途的話，而對方還留著視窗（未刪除對話紀錄），儘管處於封鎖狀態，對方依舊能看到你新增的相簿內容。▼右圖有顯示「綠色通話符號」，代表沒有被封鎖。（圖／記者劉維榛攝） </t>
+          <t xml:space="preserve">▲清明連假首日南下交通量可能直逼歷史天量。（圖／記者黃軍瑋攝）記者李姿慧／台北報導清明5天連假周六(4月1日)登場，交通部預估南下最大量將出現在連假首日(4月1日)，上看平常車潮1.6倍，車潮可能直逼歷史天量，交通部也規劃陸海空疏運，包括國道每天0到5時免收費，蘇花路廊大客車優先道、國道客運平均85折優惠，以及雙鐵和離島航班、交通船等加班疏運。清明節連假即將從4月1日開始至4月5日止，共計5天，交通部表示，依據往年經驗，清明假期交通量僅次於春節，加上放假日期較春節短，交通運輸需求勢將較為集中，交通部除已請各單位檢視疏運能量，儘可能滿足民眾返鄉需求外，亦請各單位落實相關運具及設備檢查，以維護民眾交通安全及確保疏運順暢。[廣告]請繼續往下閱讀...交通部規劃陸海空疏運，其中國道部分，實施入口匝道儀控、高乘載管制、匝道封閉、開放路肩及於4月1日至5日，每日0至5時國道全線暫停收費等措施。▲▼清明連假國道疏運措施及好走時段。（圖／高公局）交通部表示，南向交通量最大量預計出現在連假首日(4月1日)，為平日1.6倍，可能接近歷史最大量；北向交通量較為分散，以連假第三日(4月3日)及第四日(4月4日)較高，為平日1.5倍。南向用路人建議早上6時前或中午12時後出發；北向用路人建議南部地區於9時前出發，中部地區於12時以前出發。省道疏運重點部分，台9線蘇花路廊蘇澳(南向)、蘇花改(雙向)、崇德(北向)路段實施大客車優先道，並進行大貨車時段性管制通行措施；台61線西濱快速公路於鳳鼻~香山路段封閉2處平面路口及封閉台68線南寮端南下出口匝道，並於竹南路段封閉6處平面路口，提升行車效率。大眾運輸部分，為鼓勵民眾於清明搭乘國道客運出遊，則提供民眾搭乘國道客運享有票價及轉乘優惠，包括87條國道客運路線享平日優惠或原票價85折、48條台灣好行路線持電子票證享半價優惠、以及10小時內轉乘在地客運享一段票或基本里程免費；另搭乘國道客運前往東部再加碼票價與租車優惠，包括指定日期4人同行1人免費，以及持國道客運購票證明租車再享優惠。▲台鐵EMU3000新自強號大量投入清明疏運。（圖／台鐵）台鐵全線加開各級列車總計232列及加掛車廂85列次，並於4月1日至4月5日，每日開行湖口－花蓮間區間快車2列次，共10列次，加開東部幹線返鄉及返工實名制列車各4列次，合計8列次，以及加開東部幹線紅眼列車返鄉返工各1列次。於4月1日至4月5日每日加開七堵－高雄區間快車各1往返。另高鐵則加開262班次列車，總計7天提供1,257班次列車的旅運服務。航空則提供1,844架次、174,954個座位，其中離島管制航線計1,572架次，163,564個座位，航空公司將視旅客需求情形適時加開班機以疏運旅客；海運部分台灣本島與離島間10條航線，規劃1,155航次，總運能273,304人次之運能。 </t>
         </is>
       </c>
     </row>
@@ -1222,17 +1218,105 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>新北消2梯次6天常訓！增救人自救應變　再邀「脫戒達人」教祕技</t>
+          <t>12星座「不安全感易爆棚」！一周運勢曝光　白羊被愛圍繞</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469590.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2469795.htm</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲「脫戒達人」泰山分隊隊員黃國峰（左一）教導同仁密技            。（圖／記者陳以昇翻攝，下同）記者陳以昇／新北報導新北市消防局第二救災大隊有鑑於近年來公寓火災日漸趨增，為減少居民在火場中傷亡，以搶救人命為第一優先，推動火災搶救公寓住宅全情境模擬訓練，加強對梯間佈線搶救概念，並邀請有「脫戒達人」之稱的泰山分隊隊員黃國峰，開班教導利用牙線、潤滑劑協助民眾移除戒子、玉鐲等物。新北市消防局第二救災救護大隊舉辦2梯次為期6天的常訓，利用消防廳舍進行模擬公寓火災梯間布線組合訓練，針對消防員應變各式不同的樓梯，進行梯間佈線組合訓練，除了以往順梯布線搶救外，更運用梯間縫隙進行梯間垂直佈線技巧，以加快佈線搶救速度。戰技教官團更加入模擬情境，如濃煙狀況、大門緊閉、發現受困民眾、同仁火場迷失啟動自救（Mayday），使同仁懂得瞭解火場緊急應變處理機制及學習火場受困時，如何自救做出處置應變。▼訓練公寓梯間搶救人命及自救應變             。（圖／記者陳以昇翻攝，下同）另外也邀請有「脫戒達人」之稱的泰山分隊隊員黃國峰，開班教導面對民眾手指受傷腫脹，導致戒子、玉鐲無法順利脫除狀況，利用牙線、潤滑劑等簡易器材，在不損壞戒子、玉鐲狀況下協助移除，黃國峰特別利用休假時間傾囊相授，分享個人脫除知名品牌戒子的過程及經驗，更研究出獨特的脫戒密技，來教導同袍。 </t>
+          <t xml:space="preserve">▲12星座最新運勢，火星進入巨蟹，不安全感容易爆棚。（示意圖／取自免費圖庫Pexels.com）辰宇力 ☆ 2023.3.31 ~ 2023.4.7 ☆ 星象預測與12星座運勢近期星況火星進入巨蟹，帶來各種情緒。不安全感容易爆棚，團體鬥爭，世代衝突，都是近期需要面對的狀況。溫和的人發狂暴走，理性的人情緒崩潰，帶來戲劇化的意外日常。高敏感族群要做好自我防護，避免被他人情緒牽動。水星將進入金牛座，有錢的人說話越來越有影響力。[廣告]請繼續往下閱讀...展望未來7日，#處女 有認真放懶的假期。#射手 開心玩樂。#白羊 被愛圍繞。#雙子 四處遊蕩。#巨蟹 衝勁十足。#天蠍 闔家出遊。#天秤 宅好宅滿。#金牛 吃飽賺飽。#獅子 被長官關愛。#摩羯 逆風撐旗。#雙魚 加班換假期。#水瓶 道不同不相為謀。【一週星情氣候名詞解析】・晴：開心的一天。順順利利，或許也會有好事發生。+・晴時多雲：大致上開心的一天。也許會遇到些無傷大雅的蠢事。+・陰：有點壓力，甚至心情不太開朗。可能會有事情讓你煩惱。+・雨：可能會遇到讓你不開心的狀況，甚至受到實質的損害。+・暴雨：很有可能會遇到讓你憤怒或難過的事情，或是受到較為嚴重的實質損害。【12星座一週星情氣候】♈️ #白羊座 #Aries (03/21~04/19)本週開運色 : 粉玫瑰、藍3/31 (FRI): 晴 Sunny+4/1 (SAT): 晴 Sunny+4/2 (SUN): 晴 Sunny+4/3 (MON): 晴時多雲 Mostly Sunny+4/4 (TUE): 晴時多雲 Mostly Sunny+4/5 (WED): 暴雨 Heavy Rain+4/6 (THU): 陰 Cloudy+4/7 (FRI): 陰 Cloudy♉️ #金牛座 #Taurus (04/20~05/20)本週開運色 : 天藍、紫3/31 (FRI): 雨 Rain+4/1 (SAT): 雨 Rain+4/2 (SUN): 雨 Rain+4/3 (MON): 晴 Sunny+4/4 (TUE): 晴 Sunny+4/5 (WED): 晴時多雲 Mostly Sunny+4/6 (THU): 晴時多雲 Mostly Sunny+4/7 (FRI): 晴時多雲 Mostly Sunny♊️ #雙子座 #Gemini (05/21~06/21)本週開運色 : 藍、藍綠3/31 (FRI): 晴 Sunny+4/1 (SAT): 晴 Sunny+4/2 (SUN): 晴 Sunny+4/3 (MON): 雨 Rain+4/4 (TUE): 雨 Rain+4/5 (WED): 晴 Sunny+4/6 (THU): 晴 Sunny+4/7 (FRI): 晴 Sunny♋️ #巨蟹座 #Cancer (06/22~07/22)本週開運色 : 紫、淺海綠3/31 (FRI): 晴 Sunny+4/1 (SAT): 晴 Sunny+4/2 (SUN): 晴 Sunny+4/3 (MON): 晴 Sunny+4/4 (TUE): 晴 Sunny+4/5 (WED): 雨 Rain+4/6 (THU): 雨 Rain+4/7 (FRI): 雨 Rain♌️ #獅子座 #Leo (07/23~08/22)本週開運色 : 綠、黃3/31 (FRI): 陰 Cloudy+4/1 (SAT): 陰 Cloudy+4/2 (SUN): 陰 Cloudy+4/3 (MON): 晴 Sunny+4/4 (TUE): 晴 Sunny+4/5 (WED): 晴 Sunny+4/6 (THU): 晴 Sunny+4/7 (FRI): 晴 Sunny♍️ #處女座 #Virgo (08/23~09/22)本週開運色 : 暗紅、褐紅3/31 (FRI): 晴時多雲 Mostly Sunny+4/1 (SAT): 晴時多雲 Mostly Sunny+4/2 (SUN): 晴時多雲 Mostly Sunny+4/3 (MON): 陰 Cloudy+4/4 (TUE): 陰 Cloudy+4/5 (WED): 晴 Sunny+4/6 (THU): 晴 Sunny+4/7 (FRI): 晴 Sunny♎️ #天秤座 #Libra (09/23~10/23)本週開運色 : 天藍、紫3/31 (FRI): 晴 Sunny+4/1 (SAT): 晴 Sunny+4/2 (SUN): 晴 Sunny+4/3 (MON): 晴時多雲 Mostly Sunny+4/4 (TUE): 晴時多雲 Mostly Sunny+4/5 (WED): 暴雨 Heavy Rain+4/6 (THU): 陰 Cloudy+4/7 (FRI): 陰 Cloudy♏️ #天蠍座 #Scorpio (10/24~11/22)本週開運色 : 黃、藍3/31 (FRI): 雨 Rain+4/1 (SAT): 雨 Rain+4/2 (SUN): 雨 Rain+4/3 (MON): 晴 Sunny+4/4 (TUE): 晴 Sunny+4/5 (WED): 晴時多雲 Mostly Sunny+4/6 (THU): 晴時多雲 Mostly Sunny+4/7 (FRI): 晴時多雲 Mostly Sunny♐️ #射手座 #Sagittarius (11/23~12/21)本週開運色 : 暖黃、橙紅3/31 (FRI): 晴 Sunny+4/1 (SAT): 晴 Sunny+4/2 (SUN): 晴 Sunny+4/3 (MON): 雨 Rain+4/4 (TUE): 雨 Rain+4/5 (WED): 晴 Sunny+4/6 (THU): 晴 Sunny+4/7 (FRI): 晴 Sunny♑️ #摩羯座 #Capricorn (12/22~01/19)本週開運色 : 藍、綠3/31 (FRI): 晴時多雲 Mostly Sunny+4/1 (SAT): 晴時多雲 Mostly Sunny+4/2 (SUN): 晴時多雲 Mostly Sunny+4/3 (MON): 晴 Sunny+4/4 (TUE): 晴 Sunny+4/5 (WED): 暴雨 Heavy Rain+4/6 (THU): 雨 Rain+4/7 (FRI): 雨 Rain♒️ #水瓶座 #Aquarius (01/20~02/18)本週開運色 : 紅紫、黃3/31 (FRI): 陰 Cloudy+4/1 (SAT): 陰 Cloudy+4/2 (SUN): 陰 Cloudy+4/3 (MON): 晴時多雲 Mostly Sunny+4/4 (TUE): 晴時多雲 Mostly Sunny+4/5 (WED): 晴 Sunny+4/6 (THU): 晴 Sunny+4/7 (FRI): 晴 Sunny♓️ #雙魚座 #Pisces (02/19~03/20)本週開運色 : 粉玫瑰、藍3/31 (FRI): 晴時多雲 Mostly Sunny+4/1 (SAT): 晴時多雲 Mostly Sunny+4/2 (SUN): 晴時多雲 Mostly Sunny+4/3 (MON): 陰 Cloudy+4/4 (TUE): 陰 Cloudy+4/5 (WED): 晴時多雲 Mostly Sunny+4/6 (THU): 晴時多雲 Mostly Sunny+4/7 (FRI): 晴時多雲 Mostly Sunny本周運勢分析作者辰宇力老師，時尚圈御用占星師，精通星座與塔羅。師承星星王子，以準確透徹的星象分析與預測，以及犀利洞察的塔羅解讀聞名。現為國際時尚雜誌中文版與台灣主要新聞媒體的星座專欄作家。官方粉絲頁：星象專家 辰宇力 </t>
         </is>
       </c>
     </row>
@@ -1242,17 +1326,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>風暴即將來臨！　IMF前副總裁：金融業脆弱「美聯準會停止升息」</t>
+          <t>只花3元平台費幸運中百萬！　雲端發票專屬獎中獎清冊出爐</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469587.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470383.htm</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲今年博鰲亞洲論壇的主題是「不確定的世界：團結合作迎挑戰，開放包容促發展」 。（圖／記者蔡儀潔攝）記者蔡儀潔／海南報導通貨膨脹仍籠罩多國，美國聯準會的升息和縮表，給全球經濟帶來外溢影響。國際貨幣基金組織（IMF）前副總裁朱民今（29）日表示，通膨下的升息令金融行業更爲脆弱，例如矽谷銀行和瑞士信貸事件，「烏雲正在聚集，風暴即將來臨」，維持金融穩定性是最重要的。2023博鰲亞洲論壇今早舉行「通脹、滯脹與升息：鋼絲上的舞蹈」活動，朱民出席並發表觀點稱，造成矽谷銀行垮掉的最主要的原因，是其長期的量化寬松（Quantitative easing）政策，零利率時間太長，而短期美聯準增加500個基點，這兩件事情放在一起，勢必會造成危機。▲朱民（右一）。（圖／博鰲論壇）「我們進入了一個新的世界」，朱民表示，通貨膨脹會比過去更高，「我不認為能控制在2%，若要成功達到，所有的經濟學家都必須要參與其中，新世界的常規是金融穩定性第一，經濟增長性第二，通貨膨脹是第三。」朱民認為，美國聯準會2022年太過於激進，2023年「應該會停止升息」，原因有2個，首先是金融穩定性很重要，系統非常脆弱，已經沒有空間再升息了；第二是經濟增長在放緩，負面影響在逐漸浮現。星展銀行高博德亦表示認同，同時指出，美國聯準會的做法是對的，他們沒有太多的選擇，必須拯救經濟。高博德指出，傳統上講，央行是「雙任務」模式，分別為就業增長和價格穩定，但現在有了第三個任務，即維持金融穩定性。高博德表示，在過去10到15年中，每一個央行都會說「我們需要看增長和穩定」，如果出現崩潰，不會進行紓困，但每次他們都越過這個「紅線」，例如雷曼兄弟事件，再到現在的矽谷銀行，儘管它並非具有系統重要性的銀行，但聯準會別無選擇只能紓困，「這是我們必須正視的事實。」「Fed傳聲筒」華爾街日報資深記者Nick Timiraos日前發布的推文指出，在當前的情形下，美聯準面臨是否加息的艱難決定，官員們必須在通膨憂慮和對銀行業動盪外溢效應之間取得平衡；有成員擔心若暫停升息，市場可能會懷疑聯準會隱瞞更大「不知道的風險」，升息1碼（25個基點）與否要看市場如何消化瑞信收購案而定。 </t>
+          <t xml:space="preserve">▲111年01、02月發票。（示意圖／記者吳珍儀攝）記者吳珍儀／台北報導財政部今（30）日下午公布112年1、2月期統一發票千萬特別獎、200萬特獎等中獎清冊。此外也開出雲端發票百萬專屬獎，此次幸運兒除了一名「未辦理登記擅自營業的營業人」所以註記不給獎外，共有29名民眾幸運中獎，其中一位民眾僅花3元foodpanda平台費，就幸運抱走雲端百萬專屬獎。112年1、2月統一發票千萬特別獎獎號為「06634385」、200萬元特獎號碼則是「66882140」。3組頭獎（獎金20萬元）中獎號碼則為「25722152」、「93412693」及「16957025」。[廣告]請繼續往下閱讀...▲1、2月統一發票中獎號碼。（圖／《ETtoday新聞雲》製作）此外，財政部初步統計，本期1000萬特別獎開出14張，200萬特獎則開出12張。發票兌領獎期間為4月6日至7月5日。▼2023年1-2月統一發票雲端發票專屬獎，可點圖放大。（圖／取自財政部） </t>
         </is>
       </c>
     </row>
@@ -1262,42 +1346,18 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>絕對不是THANK YOU　兄弟宣布蔡明里暫無法擔任圖奇主播</t>
+          <t>美哭35萬股東！永豐金紀念品「豐收盤」亮相　超車故宮碗</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469597.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470389.htm</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲蔡明里。（圖／截自CPBL.TV）記者歐建智／綜合報導中信兄弟Twitch官方頻道今年賽事轉播，主播沒有「團長」蔡明里，蔡明里特別發文澄清，「因為我私人的因素，暫時不便出差到台中工作。」今年球季中信兄弟Twitch官方頻道，重磅邀請到「辣個男人」加入主播輪值，因此今年有楊正磊、東哥黃忠義、希希、凱應，以及新加入的陳捷盛，過幾天將公佈的「強力外援團隊」。[廣告]請繼續往下閱讀...但中信兄弟宣布，深受大家喜歡的「團長」蔡明里主播暫時無法擔任轉播。但這絕對並不是「THANK YOU」。小編還發文，「等我們買到直升機隨時WELCOME團長回歸。蔡明里發文說明原委，「上個月我主動聯繫中信兄弟劉領隊(我都叫他威哥)，因為我私人的因素， 暫時不便出差到台中工作，所以新球季原本在圖奇爪爪官方頻道的轉播工作，就暫時無法配合，不瞞大家威哥幫我設想了很多變通的辦法，真的就只差沒有租一架直升機給我專用了」。【團長蔡明里全文：】-​-各位球迷&amp;團友 , 特別是百萬爪迷們大家好 !-雖然是一件個人的小事 , 但是為了避免造成球團的困擾 ,還是想先說明一下 , -本文有需要的話 , 也可以轉貼到象迷會看到的社群等 , 謝謝 !-​-上個月我主動聯繫中信兄弟劉領隊(我都叫他威哥), -因為我私人的因素 , 暫時不便出差到台中工作 ,-所以新球季原本在圖奇爪爪官方頻道的轉播工作 ,-就暫時無法配合 , 不瞞大家威哥幫我設想了很多變通的辦法 ,-真的就只差沒有租一架直升機給我專用了 ,-所以 , 我要強調的是 : 不是球團這邊Thank you我 !-反而是我造成球團的困擾 ,-威哥也一再跟我說 , 等我把事情處理告一段落後 ,-如果可以重返球場轉播 , ​ 球團隨時都會Welcome我 ,-真的是非常的感謝(我噴淚呀)~-​-謝謝球迷 , 特別是爪迷朋友的關心 ,-新球季我暫時會跟大部分象迷一樣 , -透過圖奇來關注爪爪最新一季的表現 ,-也懇請百萬爪迷持續訂閱圖奇爪爪的頻道 , -畢竟東哥去年發下的豪語 (超過多少人訂閱他就去跳PS的應援舞蹈) ,-這今年一定要看到才行 , 哈哈哈~-​-感謝再感謝 , 我們後會有期~-​ </t>
+          <t xml:space="preserve">▲永豐金股東會今年紀念品好燒，大手筆送「K's寬庭」的盤子。（圖／永豐金提供）記者陳依旻／台北報導擁有逾35萬股東永豐金（2890）今年股東會紀念品實體超美，金光閃閃、價格上千元的「豐收盤」燒到一票網友，有人直呼：「永豐金股民今年有福了！」貴氣程度超過開發金去年的故宮碗。[廣告]請繼續往下閱讀...▲開發金去年股東會紀念品故宮花鳥碗。（圖／記者陳依旻攝）永豐金今年股東會要送精緻品牌「K's寬庭」的盤子，禮盒內含9.5吋淺盤及8.5吋深盤各一。觀察該品牌盤子的價格，幾乎都在4,000元到6,000元左右。永豐金控表示，此紀念品的設計念取自於編織，透點與線條縱橫穿結成面，在象徵豐收的明亮黃色之中，能匯聚能量、傳達祝福，共創永續永豐的美好生活「Together a better life」。永豐金也補充，這紀念品有環保概念，是用100%可再生利用的玻璃材質，是友善環境的材質，別具意義。+  </t>
         </is>
       </c>
     </row>
@@ -1307,17 +1367,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>倉鼠遭「章魚嘴」大力吸！身體懸空一臉驚恐：誰來救救我啊</t>
+          <t>騎士拒檢逃竄闖紅燈　酒測超標辯「在家喝啤酒加保力達P」</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2468990.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470374.htm</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲毫無防備的倉鼠，被飼主直接用嘴巴吸起，當場嚇得魂都沒了。（圖／翻攝自微博／我和基友的日常）實習記者林郁婷／綜合報導現代人除了養毛孩外，倉鼠也是受到不少喜愛。近日一名女飼主分享惡搞自家倉鼠影片，她先將嘴巴作成O字型，接著化身「章魚嘴」以超強「真空吸力」吸住倉鼠頭部，倉鼠整個被吸到雙腳懸空，臉上露出驚恐表情，就像在無聲吶喊「誰來救救我」，兩隻小手也僵在空中，逗趣模樣笑翻網友，「這一口把鼠鼠嚇得魂兒都沒了！」大陸微博近日瘋傳一段倉鼠被飼主惡搞的影片，畫面中可見，小倉鼠原本正趴在飼主的膝蓋上休息，完全沒意識到危險即將來臨，接著飼主張著「O型章魚嘴」，緩慢靠近倉鼠，下秒以超強的真空吸力，直接吸住倉鼠的頭。[廣告]請繼續往下閱讀...面對飼主突如其來的舉動，毫無防備的倉鼠一臉驚恐，伸出雙手不斷掙扎，就連眼睛也被擠到變形，看得出來非常緊張，像是在說「誰來救救我，我的腦子呀！」看起來既可憐又好笑。影片曝光後，短短7天就吸引逾430萬觀看人次，網友紛紛笑翻表示，「這一口把鼠鼠嚇得魂兒都沒了」、「鼠鼠我啊，被吸乾了」、「鼠鼠：我的腦漿都快被吸出來了」、「未曾設想的吸法」、「鼠鼠魂飛魄散」、「一瞬間什麼都看不見了」。省錢大作戰！超夯優惠等你GO1顆不到7元►毛孩專用 Dr.好骨力　讓愛貓愛犬健康好靈活　限時↘$399大罐又便宜 ►衣物徹底洗淨「妙管家抗菌洗衣精4000gx4瓶」限時↘$399 </t>
+          <t xml:space="preserve">▲桃園市葉姓男子昨晚酒後騎車逛桃園夜市，見員警攔查拒檢高速逃逸。（圖／記者沈繼昌翻攝）記者沈繼昌／桃園報導桃園市葉姓男子昨（29）日晚間在家中喝了幾杯保力達後騎車到觀光夜市吃宵夜，桃園警分局員警巡邏察覺葉男違規上前攔查，葉拒檢且高速逃逸，途中危險駕駛且闖紅燈，員警呼叫線上警力前後包抄總算將葉男攔獲，葉男混身酒味，經酒測後酒測值為每公升0.33毫克已超標，警方偵訊後依公共危險罪嫌移送桃園地檢署偵辦。桃園警分局指出，昨晚10時50分許，埔子派出所員警黃冠穎、林奕儒在北埔路巡邏，行經桃園觀光夜市附近，發現52歲的葉姓騎士違規，且騎車過程不斷搖晃，因此上前攔查，但葉發現員警靠近後不但拒檢且不顧員警鳴笛仍高速逃逸。▲桃園市葉姓男子昨晚酒後騎車逛桃園夜市，見員警攔查拒檢高速逃逸，最後仍被攔查到案。（圖／記者沈繼昌翻攝）葉男一路闖紅燈且任意變換車道危險駕駛，員警立即呼叫線上警力協助攔查，經酒測後酒測值為每公升0.33毫克，已明顯超標，葉男辯稱在家中已飲用啤酒加保力達P，後來肚子餓想到桃園夜市吃消夜，見到員警擔心酒駕被攔查才拒檢逃逸，警方偵訊後依公共危險罪嫌移送桃檢偵辦。● 《ETtoday新聞雲》提醒您：喝酒不開車，開車不喝酒。 </t>
         </is>
       </c>
     </row>
@@ -1327,17 +1387,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>士林到內科只需12分鐘！政院核定捷運東環段　北市拚2年內動工</t>
+          <t>曼赤肯貓截斷後腿、尾巴和耳朵　爸媽領養寵上天：最棒決定</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469592.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470380.htm</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲環狀線。（示意圖／記者蔡玟君攝）記者袁茵／台北報導台北市政府一直積極爭取的捷運東環段於29日獲行政院正式核定，捷運局表示，東環段串聯4條捷運路線，不僅可紓解內科聯外交通瓶頸，分擔文湖線最大站間運量約15%，完工通車後如由象山站至內湖科學園區可由32分鐘縮短為14分鐘，士林站至內湖科學園區可由39分鐘縮短為12分鐘，並承諾會努力縮短行政審查流程，讓工程2年內動工。台北捷運局表示，東環段全長約13.25公里，總經費1024.86億元，共設10座地下車站，預計9年半完工，將採用與環狀線第一階段系統相容的鋼軌鋼輪中運量全自動無人駕駛系統。捷運局說明，東環段路線起自環狀線北環段劍南路站後尾軌，經敬業三路、沿樂群二路後轉進瑞光路，於瑞光公宅後，西轉進陽光街321巷，通過國1後進入舊宗路，經成美橋、南港路至松山新店線松山站（台鐵松山車站），後經松山路行經板南線永春站、沿松德路後轉松德路168巷經興雅國中與博愛國小後，轉至松仁路抵達淡水信義線象山站，再續往南行通過國3甲萬芳交流道後，穿越景美溪至新光路下方與環狀線南環段動物園站銜接。捷運局指出，東環段完工後與興建中的南北環段，及已營運的環狀線第一階段，構成首都環狀線，共有14座車站可直接與捷運、輕軌、臺鐵及高鐵交會轉乘，串連16條輻射軌道路線；環型路網再加上目前興建中的信義線東延段、萬大線等，10年後台北捷運路網可達到210.4公里及182站以上，將大幅提升雙北運輸效能。捷運局說，將遵照行政院指示，精進捷運東環段計畫期程管控，儘量縮短施工時程、儘早提供捷運服務；今日獲行政院核定後，將正式啟動細部設計、用地取得及發包施工等相關作業，工程雖有一定工期，但會努力縮短行政審查流程，讓工程2年內動工，而東環段於設計階段將會研擬完善周延的交維計畫，以減輕對內湖交通的衝擊。 </t>
+          <t xml:space="preserve">  @mochi.boston Almost Friday mood!  #catsoftiktok #cat #kitten #3leggedcat #catamputee #catrecovery #mochiboston #mochi #rescuecat #amputeecat #petsoftiktok ♬ original sound - @Pet diary   記者李依融／綜合報導曼赤肯貓麻糬(Mochi)因為缺血性皮膚病(Ischemic dermatopathy)失去了耳朵、尾巴和一條腿，但牠現在擁有滿滿的愛，睜大眼睛撒嬌的可愛模樣吸引許多粉絲。麻糬在大陸出生爾後被送到美國麻薩諸塞州波士頓，然而原飼主發現牠身患神秘重病無法治癒，於是送到動物收容單位MSPCA-Angell，那裡的獸醫判斷麻糬罹患缺血性皮膚病，嚴重到需要截斷一條後腿、雙耳和尾巴才能保命。▲麻糬必須截肢、截除耳朵和尾巴才能保命。（圖／翻攝自IG@mochi.boston）[廣告]請繼續往下閱讀...經過2個月休養與照護，麻糬總算恢復健康，而新爸爸媽媽Greg和Natalia馬上就愛上這個小可愛，決定領養牠成為第一隻毛孩。回家後麻糬展現出滿滿活力和撒嬌功力，第一晚就黏著媽媽的頭睡覺，還超喜歡抓肚肚。Greg表示，Mochi雖然有點缺陷，但仍沒有阻擋牠好奇愛探險的性格，而他和未婚妻只想好好寵愛寶貝，「領養牠是我們做過最好的決定」。▲麻糬是爸爸媽媽的寶貝。（圖／翻攝自IG@mochi.boston） </t>
         </is>
       </c>
     </row>
@@ -1347,17 +1407,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>不是50嵐！「哪家連鎖店奶茶最好喝」內行推爆它：試一次就愛上</t>
+          <t>瀚亞投信前投資長涉人頭炒股　預告姊姊進場海撈數千萬遭約談</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469013.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470379.htm</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲哪一家飲料店的奶茶好喝？（示意圖／ETtoday資料照）記者曾筠淇／綜合報導台灣人愛喝手搖飲料，其中奶茶就非常受歡迎。就有一名女網友發文表示，身為奶茶控的她，實在難以抗拒「先喝道」的錫蘭奶茶，大家心中的第一名是哪家？文章曝光後，雖然老字號「50嵐」也有被點名，不過更多人則是推薦「上宇林」。女網友在Dcard上，以「大家心目中最頂的連鎖奶茶是哪一杯」為題發文，提到她雖然正在戒飲料，但身為奶茶控，還是難以抗拒「先喝道」的錫蘭奶茶，只要同事揪團要訂，她就忍不住。與此同時，她也好奇大家心中第一名的奶茶是哪家的？[廣告]請繼續往下閱讀...▲不少網友大推上宇林。（圖／翻攝自Google Maps）留言串中，最熱門的留言內容寫道，「我在找『上宇林』的同道中人，粉角我真的...不說了我要去買了！」該則留言吸引近300人按愛心，顯然有不少人認同，其中也有網友回應，「鐵觀音奶茶很好喝」、「上宇林粉角真的讚，原本是珍珠控的我，吃了一次之後直接愛上」、「粉角紅龍奶一生推」、「美人鮮奶茶也好好喝」、「鼎極鮮奶茶一生推」、「上宇林就是要喝紅龍奶」。除了上宇林，還有其他網友推薦，「50嵐唯一真理」、「樺達、50嵐」、「茶湯會鐵觀音鮮奶茶、得正焙烏龍鮮奶、50嵐烏龍拿鐵，啊啊啊都是我的愛」、「約翰紅茶公司雨果那提、煮濃那提」、「五桐號五桐奶茶，喝過回不去」、「龜記的茶王奶茶超級頂」、「老賴紅玉奶茶，微冰微糖，超頂」、「不加料只有八曜能和50嵐相提並論」。您可能感興趣......►中部「1家手搖飲」熬8年挺進台北！新客一試超驚喜：喝到停不下來►可不可排第二！「經過就想買的飲料店」鄉民推爆這1家：真材實料►「元老級手搖飲」消失街頭　7年級生流下時代眼淚：真的經典 </t>
+          <t xml:space="preserve">▲瀚亞投信前投資長涉嫌利用人頭炒股獲利遭檢調搜索約談。（示意圖／stock）記者劉昌松／台北報導瀚亞投信劉姓前投資長涉嫌在得知公司基金操作決策後，透過姊姊操作人頭戶搶先買進特定股票，坐等瀚亞基金進場把股價拉抬後，出脫人頭持股，估計2018年到2021年間獲利數千萬元，台北地檢署30日依特別背信罪指揮調查局台北市調處，兵分8路搜索並約談劉姓姊弟到案。本件源於金管會在2022年金檢發現，劉男在瀚亞投信擔任投資長期間，未向公司申報，就私下利用陳姓等親友帳戶買賣相同個股，然後在同一天指示瀚亞的基金及全委經理人先跟著買買特定股票，再作成分析報告，違反投資流程規定。全案經劉男出具自白書承認後遭解職，金管會對瀚亞投信開罰400萬元，並移送檢調單位偵辦，劉男擔任證券營業員的姐姐涉嫌協助操作人頭戶買賣股票，將姊弟倆列為《證券投資信託及顧問法》特別背信罪的共犯展開調查。 </t>
         </is>
       </c>
     </row>
@@ -1367,17 +1427,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>全家聯名再出招！攜手台酒百年釀酒專業　主播搶先開箱美酒入料的美味！</t>
+          <t>陸外交部「連兩天抗議」蔡英文過境美國！發言人：中方反覆警示</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2465812.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470356.htm</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲全家聯名再出新招，攜手台酒推出7款聯名新品。（圖／翻攝自影片，下同）消費中心／綜合報導全家聯名再出新招！全家與百年老店台酒推出最新聯名商品，開發出7款新品，分別是「花雕豉汁豬煲仔飯」、「白蘭地葡萄餅乾三明治」、「白蘭地蘭姆葡萄軟法」、「花雕雞絲涼麵」、「桂花油醋雞肉沙拉」、「蘭姆葡萄起酥三明治」、「白蘭地檸檬蛋糕」，將酒香元素完美融入鮮食，《ET午間新聞》把7款獨家美味搬進攝影棚，讓主播們搶先開箱。▲《ET午間新聞》把7款獨家美味搬進攝影棚，讓主播們搶先開箱。「花雕豉汁豬煲仔飯」使用傳統古法釀造的花雕酒，去調製港式花雕醬汁，有著高雅獨特酒香，搶先試吃的小孟主播，吃完後露出滿足的表情說「這款豉汁豬煲仔飯不僅聞起來香，還選用台灣豬肉以港式特調豉汁醬醃漬，蒸製後鎖住嫩度跟酒香，口感軟嫩不乾柴」。▲「花雕豉汁豬煲仔飯」使用傳統古法釀造的花雕酒，去調製港式花雕醬汁，有著高雅獨特酒香。接著換V仔主播試吃「花雕雞絲涼麵」，V仔細細品味後表示，白細冷麵搭配清爽的醬汁帶點微酸辣滋味，再淋上古法釀造的花雕酒，一打開就聞的到酒香，讓人迫不及待開吃，另外，配料也相當豐富，有香菇絲、雞肉絲、蔥花，再點綴帶甜味的枸杞，真的是視覺、味覺都很豐富。▲「花雕雞絲涼麵」一打開就聞的到酒香，視覺、味覺都很豐富。小孟指出，這次全家跟台酒的聯名商品，雖然是用酒入料，但其實是食用級的酒精濃度，而且酒精都會揮發，吃了不會醉，只會酒香提味，真是恰到好處。小孟接著品嚐「白蘭地葡萄餅乾三明治」，她說「滑順的酒香奶油餡，搭配酒漬葡萄乾非常特別，外層以金黃酥脆起酥片包覆，一口咬下層次豐富，而且清爽的酒香立刻在口中散開，超讚的」。▲「白蘭地葡萄餅乾三明治」滑順的酒香奶油餡搭配酒漬葡萄乾，一口咬下清爽酒香立刻在口中散開。另外，「白蘭地蘭姆葡萄軟法」使用香氣馥郁的白蘭地奶霜，搭配葡萄乾軟法麵包，V仔驚呼「一口咬下果乾融化在順口奶油裡，越嚼越香越吃越帶勁」，之前台酒推出的泡麵叫好叫座，沒想到入料到各種鮮食，也是非常搭，而且提升整體風味，便利商店的鮮食變化和創意真是無極限。▲「白蘭地蘭姆葡萄軟法」使用香氣馥郁的白蘭地奶霜，搭配葡萄乾軟法麵包，越吃越帶勁。即日起到4月30日為止，只要在全家會員店舖購買任何一款台酒商品，就可獲得「一起微醺！台酒抽獎趣」1張抽獎券，每張抽獎券可投注1次，有機會可以抽中價值2萬4千9百元的Dyson 無線吸塵器及6千元的台酒聯名行李箱，重點是抽獎券兌換數無上限，買越多獲獎機會越大，大家可要把握機會！▼即日起到4月30日為止，只要在全家會員店舖購買任何一款台酒商品，就可獲得1張抽獎券。 </t>
+          <t xml:space="preserve">▲中國大陸外交部發言人毛寧。（圖／CFP）記者鄭思楠／綜合報導大陸外交部連兩日對蔡英文過境美國發出嚴正警告！大陸外交部發言人毛寧30日主持例行記者會，再次針對蔡英文過境美國表達立場，她指出，中方對美方不顧中方嚴正交涉和反覆警示，執意安排蔡英文過境訪美提出嚴正抗議，予以強烈譴責。毛寧重申，中方堅決反對台灣領導人以任何名義、任何理由訪美，堅決反對美國政府同台灣方面進行任何形式的官方接觸。毛寧批評，「美台相互勾連，以過境為幌子，安排蔡英文在美從事政治活動，妄圖藉此提升美台官方往來和實質關係，嚴重違反一個中國原則和中美三個聯合公報的規定，嚴重損害中方主權和領土完整，向台獨分裂勢力發出嚴重錯誤信號。」她說，這也再次證明，當前台海局勢面臨新一輪緊張的根本原因，是台灣當局一再企圖「倚美謀獨」，而美方一些人有意推進「以台制華」。毛寧強調，台灣問題是中國核心利益中的核心，是中美關係政治基礎中的基礎，是中美關係第一條不可跨越的紅線。中方敦促美方恪守一個中國原則和中美三個聯合公報規定，將不支持台獨，不支持兩個中國或一中一台的承諾落到行動上，停止任何形式的美台官方往來，停止升級美台實質關係，停止虛化、掏空一個中國原則。最後，她強調，中方將繼續密切跟蹤事態發展，堅決有力捍衛國家主權和領土完整。29日下午，大陸外交部新聞發言人毛寧就對此怒批，「堅決反對台灣當局領導人以任何名義、任何理由竄美。美方一味縱容支持台獨分裂勢力，性質惡劣。」 </t>
         </is>
       </c>
     </row>
@@ -1387,17 +1447,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>打通塞車瓶頸！國1增岡山第二交流道通過環評　「117年完工」</t>
+          <t>清明首波車潮明湧現！國道3大地雷路段出爐　南部訂房率「飆8成」</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469589.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470381.htm</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲國道1號增設岡山第二交流道工程平面示意圖。（圖／高公局）記者李姿慧／台北報導為改善科學園區和工業區交通量大及壅塞情況，高公局規劃國道1號將增設岡山第二交流道工程，該計畫今(29日)通過環評審查，高公局表示，後續將積極與高雄市政府密切配合，同步辦理交流道及連絡道工程之用地取得，預計117年可完工。行政院110年5月7日核定「國道1號增設岡山第二交流道可行性評估」，高公局接續辦理工程規劃設計及環評作業，環境影響差異分析報告書歷經行政院環保署專案小組初審通過，今(29日)獲環保署環評審查委員會審議通過。[廣告]請繼續往下閱讀...該計畫以高28線嘉新東路、大莊路作為連絡道路，利用原岡山收費站區增設交流道，並規劃全轉向8支匝道，採鑽石型交流道搭配北出左轉半直接式匝道，提供完整之交流道進出功能。除增設岡山第二交流道外，考量國道主線上下游路段已規劃拓寬為雙向8車道，爰一併辦理國道1號344k+585~348k+620路段之國道主線拓寬，銜接北側土庫排水橋拓寬工程及南側岡山交流道。岡山地磅站也將配合改建，將目前「單磅型式」改為「雙磅型式」，調整匯出入動線、增加車輛停等空間，提升過磅效率。高公局表示，高雄岡山西側有本洲工業區、永安工業區及高雄環保科技園區等重要工業園區之外，另有位於非都市計畫區的工業廠房聚落，為國內螺絲及飛機引擎的零組件重鎮，車流量大，且多透過岡山交流道進出。為解決目前壅塞情形及因應未來相關建設計畫衍生之旅運需求，乃增設岡山第二交流道及配合辦理國道主線拓寬。高公局指出，藉由增設岡山第二交流道及國道主線拓寬，除可全面提升國道1號高科交流道至岡山交流道之主線服務水準，紓解現有國道壅塞問題外，亦可強化地區整體路網之交通運轉與安全。後續將依環保署審查結果，以降低施工衝擊為目標，加速工程推動。 </t>
+          <t xml:space="preserve">▲清明連假國道將湧現大量車潮。（資料圖／記者呂佳賢攝）記者李姿慧／台北報導清明5天連假將至，預估將湧現大量車潮，明天(3月31日)國道將出現首波車潮，國道有3大易塞路段，期中國5南下車潮將自上午9時湧現，預料要午夜才紓解，恐怕連塞15小時，根據統計，連假期間訂房以第二天最高，南部訂房率高達8成，宜花東也有7成，讓國道面臨龐大塞車壓力。依據觀光局公布資料，連假期間以第2日訂房率較高，南部地區最高達8成，宜花東地區達7成，加上清明連假長達5天，高公局預測各地區勢必湧現大量旅遊車潮。[廣告]請繼續往下閱讀...其中明天將出現首波南下車潮，國道有3大易塞路段，包括國1南下楊梅-新竹、國3南土城-關西、國5南下南港系統-頭城。其中西部國道晚間6時後較塞，深夜10時後紓解，國5南下預料自上午9時就會有車潮，得到午夜12時後才能紓解。因應連假大量旅遊車潮，高公局也規劃實施匝道封閉、高乘載管制、匝道儀控等多項管制措施，其中高乘載管制路段及時段，包括4月1日6至12時，國1內湖至頭份及國3木柵至香山，各交流道之南向入口匝道；4月2日至4月5日每日13至18時，國5蘇澳、羅東、宜蘭及頭城交流道之北向入口匝道。另根據中央氣象局天氣預報顯示，112年清明節連假前1日至第2日(3月31日~4月2日)，中部以北及東半部地區有局部短暫陣雨，其他地區為多雲到晴，第3日及第4日(4月3日、4月4日)水氣稍減少，收假日(4月5日)有鋒面系統接近，中部以北及東半部地區降雨機率將漸提高。高公局提醒，行駛國道如遇天候不佳，應保持適當安全行車距離，以應變突發狀況。 </t>
         </is>
       </c>
     </row>
@@ -1407,18 +1467,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>快訊／台鐵湖口車站驚傳「落軌死傷事故」　北上列車延誤</t>
+          <t>先探／盤點Q2滿血復活產業</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469586.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470212.htm</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲台鐵湖口車站驚傳落軌事故。（示意圖／記者陳雕文攝）記者劉人豪／新竹報導-台鐵128次自強列車，今(29日)下午5時40分許，於湖口車站撞擊落軌旅客，北上列車將有所延誤，詳細事故仍待釐清。台鐵表示，受死傷事故影響，從17：32起，北湖站至新豐站間南下和北上列車，以東線單線行車，請民眾見諒。 </t>
+          <t xml:space="preserve">最早進入庫存調整的面板產業，在TV面板報價已開始反彈，IT面板報價也即將展開反彈；另外，在手機、記憶體方面也開始有觸底反彈的訊號出現。文／莊家源隨著越來越多公司在法說會上釋出庫存去化可望在上半年結束，且部分產業如TV/IT面板、驅動IC（DDI）、智慧型手機已開始有急單出現，這也代表營運最壞的時機已過，股價方面則早已領先出現一波「落底行情」。電視面板報價全線反彈[廣告]請繼續往下閱讀...根據奧維睿沃（AVC Revo）發布的「全球ＴＶ品牌出貨報告」顯示，二○二二年全球ＴＶ出貨量為二．○二億台，年減五．六％，前五大品牌分別為三星、海信、ＴＣＬ、ＬＧ與小米，占據全球超過六成市場。但近兩年來，中國受到疫情封控影響，與全球高通膨、高利率導致消費性電子產業表現低迷，ＴＶ、ＰＣ等出貨量都出現雙位數的衰退，其中面板報價更是殺到現金成本以下。不過，面板歷經幾個季度的調整，先前友達在二月召開的法說會中，公司就表示「ＴＶ面板最早下去，也最早起來」，到近期舉辦的友達智慧展中，董事長彭浪對面板景氣後市充滿信心，並提到過去兩年面板產業沒有新開產能，且庫存以重回健康水位，預期接下來面板產業將會重回季節性走勢，下半年營運將優於上半年。由於面板產業最先進入庫存調整，在最新公布的三月面板報價中，率先上漲的是ＴＶ面板，單月平均漲幅落在三～九％，其中以六五、五五、四三與三二吋面板漲幅依序為九．一％、六％、四％與三．五％。在ＩＴ面板部分，受到居家辦公、遠距教學帶動的購機潮消退，根據ＩＤＣ統計二二年全球ＰＣ出貨量約二．九二億台，年減十六．五％，但仍略高於疫情前水準，而最新公告三月ＩＴ面板價格則持平，由於ＰＣ產業進入庫存調整時間較ＴＶ晚，目前市場預估ＩＴ面板報價也將於四～五月間彈升，隨著面板價格陸續反彈，將有助面板廠友達、群創等虧損收斂。與面板產業連動最深的就屬驅動ＩＣ，聯詠、瑞鼎、天鈺、矽創、敦泰等，去年業績受到面板報價下跌影響，連帶壓抑驅動ＩＣ單價，營收自二一年第三季見頂後開始逐季下滑，但受到去年十月ＴＶ面板報價率先止跌，且受惠一波急單需求，帶動第四季營收止跌回升。根據TrendForce研究顯示，由於目前ＴＶ面板價格已開始反彈，後續將迎接中國六一八促銷檔期與北美亞馬遜Prime Day活動積極備貨，各大品牌廠開始回補庫存，進一步帶動驅動ＩＣ提前拉貨。此外，受到晶圓代工廠產能利用率陸續回升，台積電更傳出下半年將再調漲熱門製程報價，聯詠、矽創等也宣布四月將調漲部分驅動ＩＣ報價十～十五％。５Ｇ手機鎖定新興市場根據ＩＤＣ統計資料顯示，去年全球智慧型手機出貨量達十二．○五億支，年減十一．三％，預估今年為十一．九億支，年減約一％，前五大品牌依序為三星、蘋果、小米、Oppo、Vivo。ＩＤＣ認為要等到明年智慧型手機出貨量才能重返成長軌道，預估出貨量將年增五．九％，未來五年的年複合成長率為二．六％，其中長期看好安卓手機出貨成長勝過iPhone，主要成長力道來自印度、東南亞、非洲等新興市場在５Ｇ手機滲透率持續提升。此外，手機晶片大廠高通（Qualcomm）、聯發科也都不約而同看好印度在５Ｇ手機市場的發展潛力，可望成為繼中國後全球對最大消費型電子市場。目前在印度的前五大品牌除三星以外，小米、Oppo、Vivo與Realme都是中國品牌，並且都是安卓陣營，與高通、聯發科合作關係密切。除了安卓陣營看好印度市場發展潛力，蘋果也將加入印度市場戰局，根據彭博社報導，由於去年第四季蘋果iPhone在印度的銷售創新高，執行長庫克更不諱言已把大量重點放在印度市場，蘋果正在改變其國際業務的管理方式，有意調整海外銷售管理層，推動印度成為自有銷售區。此外，蘋果一月份在印度開出許多零售職缺，首家印度旗艦店或許很快就會開業，且蘋果最大的供應商富士康也在印度投資七億美元，以加強其在印度的生產能力。聯發科在今年二月的法說會中，認為今年手機出貨量將微幅下滑，主要受到上半年庫存調整持續影響，不過看好中國解封後，消費性電子買氣回溫，與印度、東南亞等新興市場持續成長，再加上聯發科在非手機應用布局陸續貢獻，下半年需求、庫存將回歸正常，整體來看聯發科營運在上半年觸底後，下半年也將迎來明顯反彈。(全文未完)全文及圖表請見《先探投資週刊2241期精彩當期內文轉載》 </t>
         </is>
       </c>
     </row>
@@ -1428,17 +1487,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>「來我家看小狗」！要女童開腿拍猥褻照　變態男下場慘曝</t>
+          <t>巧遇樹蛙「超完美保護色」隱藏石頭堆　千人找到眼花：求答案！</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469534.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470014.htm</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲廖男對女童說「想看可愛小狗要讓我拍照」，指導她開腿做出猥褻動作。（示意圖／取自免費圖庫pexels）記者蔡怡萍／台東報導台東廖姓男子朝一對小姊弟說他家有養可愛小狗，將他們拐至家中，卻要小姊姊正躺面對鏡頭，撐開自己大腿，做出猥褻動作，廖男並拿手機拍下數張照片。女童媽媽得知報警，並在他手機發現女童不雅照，法院審後依誘使兒童被拍攝猥褻行為罪，處有期徒刑3年8月。家住台東的廖姓男子，2019年1月24日遇到一對年幼小姊弟，向他們說「家中有養小狗，要不要來看」，喜歡動物的小姊弟開心答應後，跟著廖男回到他家，接著廖男將小姊姊帶至房間內，表示「要看小狗要先讓我拍照」，要她正躺穿著衣服面對鏡頭，以雙手拉開自己大腿，並指揮她擺出猥褻動作，進而拍下數張照片留存。事情經小姊弟的媽媽發現並報警，警方前往廖男住處搜索，在他手機與電腦內查扣數張相關照片，廖仍辯稱照片不是他拍的，瞎掰當天還有其他數名孩子在場，照片是孩子拿他手機亂拍的。女童表示，當天因為想看狗狗跟著到廖男家中，家裡沒有其他人，廖就一直拜託她讓他拍照，並說「之前也有小朋友脫掉衣服給他拍過」，她覺得很煩就答應拍照，但拒絕脫衣服，拍完後廖就對她和弟弟說「爸媽要回來了、他們不喜歡小孩子」，於是要她們趕快離開。檢警調查發現，廖男10幾年以來，屢次因妨害性自主、違反兒童及少年性交易防制條例進出檢調單位與法庭，如今又對幼童進行猥褻行為，不斷矢口否認，未與女童與其家屬道歉和解，台東地院審後以引誘使兒童被拍攝猥褻行為之電子訊號罪，處廖男有期徒刑3年8月，全案可上訴。 </t>
+          <t xml:space="preserve">▲樹蛙的超強保護色讓千人找到眼花。（圖／網友伊莉莎授權提供）記者闕雁琳／採訪報導大自然的最強保護色！一名網友伊莉莎到宜蘭一處露營區，巧遇一隻灰色的樹蛙，正隱身在滿滿的石頭堆裡面，由於保護色實在太逼真了，立刻拍下來分享，不少網友來回找了好幾遍，都沒有看到樹蛙本尊，在留言區求答案，「找到要眼花了！」網友伊莉莎笑說，當時她到宜蘭大同鄉的大同圓頂360露營區遊玩，經過一處戲水池旁邊，剛好看到有一隻灰藍色的樹蛙，「因為是石頭路面有稍微注意地面，我才剛好看到」，當下拍完照也覺得保護色非常完美，拿給幾位朋友看都沒有發現樹蛙的存在。[廣告]請繼續往下閱讀...▲樹蛙隱在石頭堆。（圖／網友伊莉莎授權提供）伊莉莎也分享，這張照片是1年前拍攝的，「其實我拍完沒馬上po，事後也找了一會兒」。樹蛙藏在石頭堆的畫面貼到「路上觀察學院」，讓千人留言笑說，「眼力真的要很好才看得到」、「眼睛看到脫窗也沒看到」、「泡麵調味包（？」、「這保護色也太強」、「.我看了十五分鐘...原來在那邊」、「顏色跟石頭一樣」、「我以為是套子的包裝，會錯意了」、「還好你的腳沒有變成，殺蛙低咖」。▲樹蛙旁邊有蛙卵。（圖／網友伊莉莎授權提供）也有眼尖網友發現，樹蛙旁邊其實有好幾顆卵，「旁邊還有青蛙蛋！」、「看起來是太田樹蛙或周氏樹蛙」、「青</t>
         </is>
       </c>
     </row>
@@ -1448,17 +1507,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>台灣大與台灣之星合併　林之晨：年省7,000萬度電</t>
+          <t>海港直送生櫻花蝦！台北日料Buffet推15道春季新菜　還有櫻花入菜</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469545.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470376.htm</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲台灣大哥大總經理林之晨出席「Tech The Dreamers 科技.夢想+」成果發表會，為台灣智慧友善農業科技賦能。（圖／台灣大哥大提供）記者潘姿吟／台北報導台灣大今（29日）舉辦「Tech The Dreamers科技‧夢想+」第2屆成果發表會，林之晨於會後受訪時表示，台灣大與台灣之星合併後，將關閉台灣之星原3G基地台，年省7,000萬度電，此外，他認為，「台灣這麼小，養5條5G高速公路沒道理！」電信業者從5家變成3家，每年潛在省電度數將可達2億度。電價調漲新制將於4月1日正式上路，林之晨指出，台電年虧上千億元，電價上漲無可避免，台灣大很早就採用各種節電措施，並加入再生能源倡議RE100，目標在2040年達成100%使用再生能源，2050年達到淨零碳排，對此，他提到，電價調漲讓綠能投資顯得更有效益，也更凸顯台灣大相關策略的重要性，需要加速執行。[廣告]請繼續往下閱讀...在被問及台灣大與台灣之星合併案進度時，林之晨表示，目前還在等待公平會核准，他呼籲公平會，既然已經確定要合併就應該加速審理，畢竟關係到台灣之星280萬名用戶，並表示當初業者用高標金購得的頻譜若要無償繳回，等於剝奪得標者的權利，應該要有補償措施，補償金額有成本法或市價法，法院可能有不同判斷，初估約5億元至15億元新台幣。 </t>
+          <t xml:space="preserve">▲生櫻花蝦旬味料理。（圖／欣葉提供）記者黃士原／台北報導欣葉國際餐飲旗下Buffet品牌「NAGOMI和食饗宴」，遵循日本旬食理念，餐檯隨季節展現不同樣貌與溫度，4月1日起推出15道春季新菜，並發揮巧思將櫻花融入餐點，春天之美看得到也吃得到。本季必嚐海味「生櫻花蝦旬味料理」，選用海港直送生櫻花蝦，推出「櫻花蝦軍艦捲」、「手作櫻花蝦玉子燒」、「櫻花蝦蔬菜揚」3道料理，而「手作櫻花蝦玉子燒」則在厚實多汁的高湯玉子燒搭配香煎櫻花蝦，是道老少皆宜的餐點；「櫻花蝦蔬菜揚」以高溫油炸鎖住食材鮮甜，咬下酥脆麵衣，蔬菜甘美及爽口海味在口中散開。▲櫻花入菜的「花見壽司」。（圖／欣葉提供）另外還有以櫻花入菜的「花見壽司」及「花見甘味」，細細品嚐還能感受到淡淡櫻花香，壽司有「櫻花飯鮮魚散壽司」、「炙燒白身旬魚握壽司」、「果香鮮魚手毬壽司、「紫蘇稻荷鮪魚壽司」4品，甘味則有「草莓優格慕斯」、「櫻花玄餅」2品。本季NAGOMI推出限定「現流旬魚涮涮鍋」，特別帶來台灣春季油脂清甜適中的真鯛、鸚哥魚、海鱸魚等野生白身魚，由師傅現場短時間在高湯快速涮燙，而湯頭裡的薑片不只能去腥，還能驅寒補氣，另外加入櫻花漬點綴，視覺上強化春天季節感。▲「花見甘味」分別以「草莓優格慕斯」及「櫻花玄餅」呈現。（圖／欣葉提供）「花見甘味」分別以「草莓優格慕斯」及「櫻花玄餅」呈現，「草莓優格慕斯」大量使用時令盛產的新鮮草莓，而「櫻花玄餅」晶瑩剔透的透明外皮下，看得到整朵櫻花盛開的美好模樣，果凍般的潤滑口感，再搭配黑糖汁、黃豆粉食用。「NAGOMI」與泡芙專賣店beard papa’s合作，於4月10日至4月14日及4月17日至4月21日舉辦為期10天的快閃活動，凡於活動期間至「NAGOMI和食饗宴」用餐，就能在甜點區享用beard papa’s迷你香草泡芙，泡芙每日限量供應。▲台北六福萬怡酒店敘日全日餐廳於4月6日起推出全新一季主題「Ciao！縱情地中海」。（圖／台北六福萬怡酒店提供）另外，敘日全日餐廳4月6日起推出全新一季主題「Ciao！縱情地中海」，要帶領賓客吃遍南歐各國特色料理，包含西班牙恩利蛋、加利西亞辣炒章魚、羅馬豬肉卷，以及搭配地中海烹飪手法，使用橄欖油香煎各式海鮮等數十道在地經典美饌。若身份為基隆市、南港區、汐止區、內湖區、信義區、松山區之居民，凡至敘日全日餐廳用餐，出示證件再享85折優惠，若為當月壽星，還可享四人同行一人免費優惠。 </t>
         </is>
       </c>
     </row>
@@ -1468,17 +1527,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>「酷龍」愛妻逆風支持染4毒劉亞仁！　「我等著你」遭網酸瘋了</t>
+          <t>選彰化鄉代「1票2千」仍落選　候選人判1年10月</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469507.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470370.htm</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>記者吳睿慈／綜合報導南韓女歌手金鬆於1996年出道，2003年嫁給「元祖偶像團體」酷龍成員姜元來，夫妻倆育有一子。近期影帝劉亞仁爆出染毒醜聞，在一片罵聲之下，她逆風支持劉亞仁，馬上引起熱烈討論。▲「酷龍」愛妻金鬆逆風支持劉亞仁。（圖／翻攝自YouTube／KBS News）[廣告]請繼續往下閱讀...劉亞仁28日一早在Instagram發文致歉，自爆出染毒後，他首度透過文章對外表達歉意，該則貼文湧入大批粉絲為他應援，其中，歌手金鬆也被眼尖網友發現現身於留言區，她逆風支持偶像表示：「等著你喔，我從一開始就是劉亞仁的頭號粉絲，你知道吧？義氣男！」為跌落神壇的劉亞仁加油打氣。▲▼「酷龍」愛妻金鬆留言區槓上網友。（圖／翻攝自劉亞仁、金鬆IG）金鬆的留言馬上引起各界關注，回覆她留言的網友有正面評論，也有負面評論，部分網友也力挺「我跟姐姐有一樣的心」，但也有位網友酸她「金鬆瘋了嗎？護航吸毒的人？」正反評論不一。劉亞仁28日一早發文，「昨天在接受完警察調查後，致上了不夠充足的道歉，因為不光彩的事情，讓疼惜我愛護我的很多人感到失望了，再次向大家道歉，對不起。」他一人牽連到無數劇組與廣告商，首度開口表示：「因為我而受到影響的電影、戲劇、廣告等各位，昨天沒能傳達的謝罪，我天想傳達給各位。」他對於自己所做下的事情深深反省，也感到很抱歉造成數位正在努力實現夢想、目標的相關同業受害，「我會努力負起應該要負的責任。」文內同時向深愛的他粉絲道歉，劉亞仁表示，「很多人給予我支持、鼓勵、愛意，從事演員這個職業，我卻傷害了自己，我感到很後悔也很丟臉，還有許多人因為這個錯誤而感到受傷，我很抱歉。」黑底白字說出四次對不起，向大眾交代。</t>
+          <t xml:space="preserve">▲彰化地方法院。（圖／記者唐詠絮攝）記者唐詠絮／彰化報導2022九合一大選，檢方查獲福興鄉第一選區候選人梁煮謀，於11月26日投票選舉日前6天深夜，將裝有2千元的紅包交給黃姓女選民，投票時記得圈選2號，依犯公職人員選舉罷免法交付賄賂罪起訴，彰化地院審結，判處有期徒刑1年10月，緩刑5年，並應於本判決確定之日起6個月內，向公庫支付新臺幣8萬元。褫奪公權3年。全案可上訴。去年九合一大選福興鄉第一選區鄉民代表有6人競選，應選出3名，開票結果，陳秀玲、許伯榮跟陳益昌等3人當選，而梁煮謀則以648票落選。依據判決書內容，梁煮謀是第22屆彰化縣福興鄉第1選舉區鄉民代表選舉候選人，為求能順利當選，於2022年11月20日23時許，在競選服務處內，將2000元現金交付給該選舉區有投票權的黃女，藉此方式約定於11月26日選舉投票時，圈選2號候選人梁煮謀，而收下現金的黃姓女選民，依收受賄賂部分由檢察官另案偵查。另外檢警查扣到口罩及記事本、現金4萬5000元、紅包袋4包，梁則供稱，現金是放在妻子的皮包內，是家庭生活用的零用金，紅包袋是過年領錢時，農會給的，是放在抽屜裡，沒有和錢放在一起、整盒口罩的是要給樁腳發給選民的，筆記本內亦未見記載與賄選相關事宜不予宣告沒收。彰化地院法官審酌，梁煮謀於偵查、準備程序及審理時均坦承不諱，依犯公職人員選舉罷免法第99條第1項交付賄賂罪，處有期徒刑1年10月。緩刑5年，並應於本判決確定之日起6個月內，向公庫支付8萬元。褫奪公權3年。 </t>
         </is>
       </c>
     </row>
@@ -1488,17 +1547,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>KIA總裁曝「EV9 GT性能版」開發中！4秒加速破百　最快2025年推出</t>
+          <t>統一發票1、2月中獎完整清冊曝　4張發票花百元內幸運中200萬</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469493.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470361.htm</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲KIA預告2025年將推出EV9 GT性能電動休旅。（圖／翻攝自KIA，圖為EV9 GT-Line，以下同）記者鄧光惟／綜合報導KIA（起亞）旗艦電動休旅EV9於日前正式發表，提供最大400匹雙動力編成，雖然目前還未見到GT性能版，但是喜愛熱血駕馭的車迷們不用太擔心。由於EV6 GT在市場上獲得不錯的反饋，因此KIA總裁Ho Sung Song已經宣布，他們正在積極開發「EV9 GT性能版」，預計最快2025年問世。雖然KIA總裁Ho Sung Song在訪談中並未透露EV9 GT詳細規格，但據悉EV9 GT可能會借鑒EV6 GT的雙馬達動力系統，預計將擁有576匹馬力和75.3公斤米扭力，並配備AWD四驅系統，靜止破百加速預計在4秒內，略慢於EV6 GT的3.5秒。然而，EV9 GT的續航里程可能會有所犧牲。▲有望借鑒EV6 GT雙馬達動力，擁有576匹馬力及75.3公斤米扭力最大輸出。▲預計採用與EV6 GT相同的E-GMP模組化平台。至於其它配備如專屬運動化懸吊、e-LSD電子限滑差速器，預計也會一併搭載；除了既有的4種駕駛模式外，GT Drive Mode、My Drive Mode（自定義模式）與Drift Mode（飄移模式）也都有，並在方向盤上提供一鍵啟用GT模式，頓時輸出、懸吊、e-LSD、轉向都會自動調整，讓你隨時都能戰鬥。▲方向盤上提供一鍵啟動，隨時能進入戰鬥模式。目前，台灣總代理森那美起亞已經預告EV9將在今年Q4引進台灣市場，不過GT性能版導入機會不大，且國內目前仍未有EV6 GT的引進消息。儘管如此，KIA性能擔當Stinger即將停產，因此EV6 GT有望接替其地位並引進台灣市場；然而，這些消息仍有待森那美起亞正式公布。 </t>
+          <t xml:space="preserve">▲112年1-2月發票開獎。（圖／記者周姈姈攝）記者吳珍儀／台北報導財政部今（30）日下午公布112年1、2月期統一發票千萬特別獎、200萬特獎等中獎清冊。財政部初步統計，本期1000萬特別獎開出14張，200萬特獎則開出12張。本期中獎幸運兒中，有4位民眾僅花不到百元，就抱走200萬特獎。112年1、2月統一發票千萬特別獎獎號為「06634385」、200萬元特獎號碼則是「66882140」。3組頭獎（獎金20萬元）中獎號碼則為「25722152」、「93412693」及「16957025」。[廣告]請繼續往下閱讀...▲1、2月統一發票中獎號碼。（圖／《ETtoday新聞雲》製作）財政部初步統計，本期1000萬特別獎開出14張，200萬特獎則開出12張。發票兌領獎期間為4月6日至7月5日。▼2023年1-2月統一發票1000萬元特別獎中獎清冊，可點圖放大。（圖／取自財政部）▼2023年1-2月統一發票200萬元特獎中獎清冊，可點圖放大。（圖／取自財政部） </t>
         </is>
       </c>
     </row>
@@ -1508,17 +1567,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>愛貓過世每天跟培栽說話　半年獲驚喜媽落淚：牠還在我身邊</t>
+          <t>亞太軍備競賽加速中　衛報剖析4大衝突熱區「點名台灣」</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2467541.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470264.htm</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ▲愛貓過世骨灰栽種成盆栽，經過半年後終於開花了。（圖／飼主元筱儀授權提供）記者闕雁琳／採訪報導換成另一種方式陪伴在飼主身邊。飼主元筱儀飼養了一隻15歲的愛貓「張一奴」，從牠幾個月大來到家裡，一起經歷過許多快樂和難忘的回憶，直到一奴年邁過世，家人將牠一部份的骨灰種在家裡盆栽，用這種方式紀念愛貓。元筱儀每天都會去跟盆栽說說話，把對一奴的想念透過言語，通通傾瀉而出，經過半年發現盆栽開花了，讓她感動直呼，「感覺牠還在我身邊」。[廣告]請繼續往下閱讀...▲張一奴年幼時是一隻活潑愛玩的貓咪。（圖／飼主元筱儀授權提供）元筱儀分享，一奴是一隻美國短毛貓，從小個性活潑頑皮，最喜歡把各式各樣的杯子推下來打破，也喜歡待在魚缸前面看著魚游泳，「小時候牠很愛抓蟑螂送給我，蟑螂是我的天敵，養了牠之後家裡就不曾看到活的蟑螂，牠也會把蟑螂當作獵物放到我房門口，真的很孝順」，家裡自從有了牠的陪伴，每天都過得很精采充實。▲▼一奴喜歡看著水盆或魚缸，盯著裡面在游泳的魚兒猛看。（圖／飼主元筱儀授權提供）直到一奴開始慢慢變得年長，個性上沒有太大的變化，只是體力減弱不再跳上跳下，喜歡喝牛奶和吃肉罐，在某一天早晨，一奴出現不舒服的情況，當天晚上便離開了。「走的那天早上我原本想請假陪牠，但是怕公司少一個人會很忙，所以跟牠說一定要等媽媽回來，牠等到我下班到家後才闔眼。我先生說牠是老死的，因為在這之前一奴都能正常吃喝」，隨著一奴闔上眼，結束了15年與家人相伴的日子。▲一奴年紀漸漸大了體力不如從前，在某一天永遠睡去。（圖／飼主元筱儀授權提供）元筱儀將一奴的骨灰帶回家種植，帶著滿滿思念想讓牠用另一個形式繼續</t>
+          <t xml:space="preserve">▲美軍聯合英國、澳洲、日本部隊，在印太地區舉行大規模軍演。（圖／翻攝Instagram／@indopacom）記者吳美依／綜合報導英國《衛報》報導，21世紀以來全球軍事化迅速發展，尤其亞太地區更是顯著成長。根據斯德哥爾摩國際和平研究所（SIPRI）數據，2001～2021年，全球國防支出的亞太地區占比從18%上升至28%，隨著人們對中國的擔憂加劇，也進一步推動該地區軍備競賽。內文盤點4大亞太衝突熱點，包括台灣、南海、朝鮮半島及太平洋島嶼。《衛報》寫道，對於中國軍事擴張的最大擔憂是它如何與併吞台灣的計畫相關。北京犯台風險達到數十年以來最高，但可能時間點有著不同預測，一些美軍高階將領提出令人警示的迫切日期，包括2023年、2025年及2027年，儘管考慮到美軍可能協防台灣對抗中國攻擊，因此美方評估非常關鍵，但一些分析人士警告，這些數據很可能為了遊說獲得更多資金而經過誇大。▲習近平以中央軍委主席身份視察部隊。（圖／翻攝解放軍報）儘管如此，中國軍事擴張規模仍反映出它對台灣的野心。雖然與美國相比，中國國防支出的GDP占比仍然較低，但2023年增加7.2%已達史上最高，五角大廈甚至估計，北京真實軍事支出可能是官方公布數字的2倍。為了回應中國，華府最新國防預算優先強化印太地區軍事存在，國會也批准可能向台灣出售的6.19億美元軍售計畫。與國防支出增加同等重要的是，它如何影響該區域的軍事力量平衡。2000年，中國是亞太地區第二大國防支出國，到了2021年，國防支出已經比其餘13國總和都還要多。▲主權爭議的南海地區也是亞太衝突熱點之一。（圖／路透）《衛報》也提到，朝鮮半島的緊張局勢在南韓引發擁核討論，日本也因為擔憂北韓及日益強硬的中國遠離戰後和平主義。在主權爭議的南海地區，菲律賓總統小馬可仕（Ferdinand Marcos）採取強硬立場，指責中國船艦的「侵略行動」並且做出重大外交政策轉向，強化與美國及日澳等盟友的國防關係。在太平洋地區，北京也日益積極尋求擴大影響力，包括去年4月與台灣前邦交國所羅門群島（Solomon Islands）簽署安全協議，允許中國解放軍及軍艦進入該國維護社會秩序。這些行動促使澳洲、紐西蘭及美國進行反思，三國皆採取行動擴大外交努力，其中澳洲與英美也於2021年組成旨在對抗中國軍事擴張的「英美澳三方安全聯盟」（AUKUS）。  </t>
         </is>
       </c>
     </row>
@@ -1528,17 +1587,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>中和鬧區驚傳恐龍出沒？超人氣行銷吸引民眾爭相打卡</t>
+          <t>YouTuber連開6頻道「有3個破百萬訂閱」　他傻眼了！本人霸氣回應</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469574.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2469980.htm</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ▲面對高房價時代來臨，為刺激購屋買氣，房地產業者出奇招，以恐龍裝主動出擊。圖、文／巨將創意團隊提供近日在景安捷運站、南華路、中和國小與四號公園，這幾處中和人潮絡繹不絕的大馬路上，就有兩隻著充氣服的恐龍，手持舉牌與民眾在街頭同行的奇景，立即引來大批路過行人圍觀注意。細看恐龍手上舉牌，是中和在地實力建商「漢皇開發・漢吉建設」推出的精品個案「漢皇里寓」，規劃18-30坪，景安捷運站400公尺、南華路商圈，結構抗震六級與國際精品建材，鎖定城市新貴與區域小家庭，這次以恐龍裝的新噱頭與周邊民眾互動。據現場民眾對此表示非常新奇有趣，有些人甚至將合照放到社群媒體上分享，此舉也代表房地產業者的創意手法是成功的。 </t>
+          <t xml:space="preserve">▲「蔡阿嘎」這個頻道有253萬人訂閱。（圖／翻攝自YouTube／蔡阿嘎）記者曾筠淇／綜合報導YouTuber蔡阿嘎因搞笑風格吸引不少粉絲，他也開了不少YouTube頻道。就有網友發文表示，蔡阿嘎近日又開一個新頻道，已經6個了，會不會太多？貼文曝光後，引發底下網友討論，還釣出本人高EQ回應。這名網友在Dcard上，以「蔡阿嘎又開新的頻道（第六個）」為題發文，提到蔡阿嘎近日又創立新頻道，讓他覺得有點傻眼，也太多了吧？要不要乾脆再創4個，湊滿10個頻道？[廣告]請繼續往下閱讀...貼文一出，不少網友反而表示，「他只是想要把每個頻道分類好吧？這樣很方便啊，喜歡哪個頻道的內容就訂閱哪個，可以直接看到自己有興趣的內容」、「嘎哥連整理頻道、頻道分類也有整齊強迫症」、「我只能說從頻道的數量就知道阿嘎真的有潔癖，連影片內容都要好好的分類」、「我覺得蠻厲害的啊，而且他們類型太多，有分類反而比較喜歡」、「這樣很好啊，喜歡哪個主題就訂閱哪一個頻道就好了啊」。▲蔡阿嘎現身留言區。（圖／翻攝自Dcard）蔡阿嘎也在貼文底下留言，「沒關係～等嘎哥湊滿10個！全部都不開會員，讓大家看免費！」下方還有網友詢問「嘎哥為什麼你都不找別人吵架？2023年是吵架比較有流量。」蔡阿嘎也對此回覆，「負面流量有個屁用」。實際查看YouTube，與蔡阿嘎相關的頻道包含蔡阿嘎、蔡阿嘎Life、蔡桃貴、嘎嫂二伯&amp;蔡波能's Daily、蔡阿嘎543，以及3月才剛創立的hahababyははベビー。這6個頻道中，有3個都有超過百萬人訂閱，而最多訂閱數的還是「蔡阿嘎」這個頻道，共有253萬人。 </t>
         </is>
       </c>
     </row>
@@ -1548,17 +1607,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>美國指定！BLACKPINK「合體女神卡卡」國宴演出　韓高官協調疏失請辭</t>
+          <t>小腿紅斑非蚊咬！男童異膚上身「十指冒泡」　一碰就破流血流湯</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469536.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470354.htm</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲南韓女子天團BLACKPINK外傳受美國第一夫人吉兒女士邀請，將於4月在白宮晚宴與Lady Gaga共同表演。（圖／CFP）記者羅翊宬／綜合外電報導南韓人氣偶像女團BLACKPINK紅透半邊天，先前在高雄世運舉辦演唱會時更引發全民搶票熱潮。今年適逢美韓建交70周年，南韓總統尹錫悅4月將受邀訪美，參加由美國總統拜登主辦的晚宴，消息指出美方提議BLACKPINK參加晚宴，和美國知名女歌手Lady Gaga共同演唱，然而協調過程發生問題，最後南韓國家安保室長金聖翰請辭，以示負責。根據韓媒《朝鮮日報》獨家報導，今年適逢美韓建交70周年，尹錫悅與其妻子金建希4月將以「國賓」的身份前往華府進行國是訪問（State visit），這是南韓總統12年來再度以國賓身份受邀訪美，為此拜登夫婦將在白宮設晚宴款待，屆時不僅政界人士出席，財經、藝術文化等共300多名美韓各界人士將一同出席此次盛宴。為了紀念美韓建交70周年的情誼，美國第一夫人吉兒•拜登（Jill Biden）特別提議，白宮晚宴上應該邀請K-POP女團BLACKPINK、以及美國女歌手Lady Gaga在現場共同合作演出，以此吸引全世界的目光，因此美國與南韓目前正針對此方案進行協商。先前在Lady Gaga第6張專輯收錄歌曲《Sour Candy》，曾邀BLACKPINK共同演唱。外交消息人士透露，BLACKPINK、Lady Gaga會收聽對方的歌曲，彼此互為粉絲，也因此美國白宮與南韓總統辦公室正針對吉兒女士的提議進行協商。另外，美國人所熟悉的韓國電影《寄生上流》、《夢想之地》（Minari）、韓劇《魷魚遊戲》的部份主要演員也被傳出登上美國邀請參加晚宴的嘉賓名單。▲南韓國家安保室長金聖翰請辭獲准。（圖／CFP）然而，在協商BLACKPINK、Lady Gaga在白宮晚宴共同演出的過程中，南韓國家安保室長金聖翰卻傳出犯下致命過錯，竟然未能即時向尹錫悅報匯報美方提議邀請BLACKPINK出席表演之事，導致程序差點出現疏失，在最近幾天南韓媒體傳出尹錫悅可能在訪美前撤換撤換國家安保室長之際，金聖翰先行請辭獲准，以示負責。金聖翰計畫，請辭國家安保室長獲准後，未來將重返高麗大學國際學院擔任教授。根據《韓聯社》，尹錫悅批准金聖翰的請辭，並指定現任南韓駐美國大使趙太庸回鍋擔任國家安保室長一職。南韓總統辦公室關係人士表示，之後將在短期內指定新任南韓駐美大使人選，並徵求派駐國同意（Agrément）。►尹錫悅4月底赴美國是訪問！南韓加速推動「加入QUAD」　引中國反彈 </t>
+          <t>▲小腿紅斑非蚊咬！男童異膚上身「十指冒泡」，一碰就破流血流湯。（圖／記者嚴云岑攝）記者嚴云岑／台北報導「晚上就像有千隻螞蟻在咬我！」今年5歲的「泡泡男孩」2年前從公園返家後小腿出現細紅斑點，起初以為被蚊蟲叮咬，沒想到病灶擴及四肢與全身，就醫確定為異位性皮膚炎，嚴重時併發汗皰疹，身上與十根手指滿是傷口，曾因使用類固醇體態「吹氣球」，所幸在醫師評估下接受生物製劑治療，病況終於獲得控制，也不再流血流湯。異位性皮膚炎是一種慢性發炎且反覆發作的皮膚疾病，主要表現症狀包括嚴重搔癢、紅斑、丘疹、皮膚乾燥無光澤，但反覆搔抓破皮滲液，長期下來易造成皮膚苔癬化，變得又厚又硬。統計資料顯示，台灣兒童異位性皮膚炎的發生率呈現上升趨勢，約每10位兒童就有1人罹病，影響所及不僅在於個人皮膚，更關乎健康與整個家庭。[廣告]請繼續往下閱讀...台灣兒童過敏氣喘免疫及風濕病醫學會理事長暨高雄市立小港醫院副院長洪志興表示，異位性皮膚炎搔癢特別好發於夜間，嬰幼兒半夜搔抓造成睡眠品質變差，容易影響生長激素分泌與發育。此外，嬰幼兒異膚反覆發作，長期也會增加焦慮憂鬱、傷口感染甚至需住院治療的風險，對未來人格發展與成長易有不良的發展。▲異位性皮膚炎過去多用類固醇壓制。（圖／記者嚴云岑攝）異位性皮膚炎是如何傷害嬰幼兒皮膚？新北市立土城醫院皮膚科主任暨林口長庚醫</t>
         </is>
       </c>
     </row>
@@ -1568,17 +1627,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>晶片補助被拜登擺一道！專家曝這招反殺：台積電又不是白癡</t>
+          <t>AV男武器太大！激戰1小時「差點撞死人」　女優現身還原瀕死真相</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469499.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470313.htm</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲台積電位於美國亞利桑那州的晶圓廠，預計2024年量產4奈米。（圖／記者高兆麟攝）實習記者林郁婷／綜合報導美國《晶片法案》提供530億美元資金補助，先進製程工廠最快可在週五開始申請，外界預期台積電、英特爾與三星將成首波被補助業者，但商務部也將要求提交有關新廠的詳細營收與財測，引發外界擔心有機密外洩的隱憂。對此，知名半導體分析師陸行之提出看法指出，台積電不是白癡，不會乖乖被牽制，可以將5年投資變成10年，透過延後擴產拖延時間。陸行之今（29）日在臉書發文表示，從美國商務部的立場來看，有補助就一定有防弊機制，防止某些公司獅子大開口，要了一堆錢，以後再大賺發給管理層及股東，他也分享5點個人看法：[廣告]請繼續往下閱讀...1.要預測半導體營收及獲利，應該會提供數年的季度或年度產能變化，平均單價，產品類別，製程種類，資本開支／折舊費用，非固定成本人工費用，研發／銷售／管理費用，利息費用等等族繁不及備載的項目，對任何半導體廠而言應該不難，但這份資料如果流到某個競爭者，肯定不利。2.成本高報，補助應該拿的多，但以後成本低於預期，價格高於預期，賺的多，就會被要求分享利潤；成本低報（可能性不高），補助拿的少，那幹嘛去美國投資，如果補助不高但執意要去，那肯定有其他原因。但整體而言，這個要求還算合理。3.何謂顯著超出預期？及分潤比例？這個要持續觀察4.如果Intel（英特爾）算出來的5年總成本為300億美元，比台積電的200億美元高50%，營收都是400億美元，獲利比台積電低了一半，是不是補助就多拿100億美元，如果兩方都預測準確，沒有顯著超出預期營收及獲利，不用分潤，感覺這對有成本競爭力的公司很不公平。台積電當然不是白癡，條件不公平，以後擴產就拖一拖，5年投資變10年。5. 最後就是補助條件？ 無條件送現金補助，還是商務部變成股東（這個要求就很差，沒有拿補助的意義）。省錢大作戰！超夯優惠等你GO大罐又便宜 ►衣物徹底洗淨「妙管家抗菌洗衣精4000gx4瓶」限時↘$3991顆不到7元►毛孩專用 Dr.好骨力　讓愛貓愛犬健康好靈活　限時↘$399 </t>
+          <t xml:space="preserve">▲女優親自解釋當年住院原因。（圖／翻攝自Instagram／theangelawhite）記者李振慧／綜合報導英國AV男優凱蘭(Keiran Lee)號稱擁有24公分巨屌，2013年與澳洲女優安吉拉(Angela White)一起拍片時，傳出因為他的武器太大，激戰時差點把對方「撞死」，讓他很內疚。如今安吉拉被問到這件事時，決定親自還原真相。網路上謠傳，39歲男優凱蘭2013年與安吉拉合作時，疑似工作太賣力，竟然導致對方闌尾破裂，差點因此失去性命。凱蘭後來被問到此事時，坦承自己的確不小心害安吉拉住進醫院，「我真的不是故意的，我們當時拍攝了長達1小時以上」。凱蘭表示，當時拍片的過程2人合作十分愉快，他是事後才知道安吉拉住進醫院，「她告訴我，她拍完腹部很痛，所以緊急去看醫生，結果發現闌尾在工作時破裂，如果不緊急動手術有可能危及性命」，不過這件事沒有影響到2人友情，後來仍時常一起合作拍片。37歲女優安吉拉近來上節目時也被問到同一個問題，她表示，由於這件事被傳得太誇張，讓她決定特別澄清，「他的巨屌沒有撞破我闌尾，我當時緊急就醫是因為闌尾炎，所以動手術切除」，切除後身體十分健康，體內還因此多了「更多空間」，讓她工作起來更得心應手。 </t>
         </is>
       </c>
     </row>
@@ -1588,20 +1647,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>桃園航空城起飛！ 「璟都文華」2字頭永續宅 首購輕鬆買</t>
+          <t>EXID哈妮終於放閃了！熱戀醫生3年「超甜情侶影片」曝　家長都見了</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469155.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470307.htm</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲政府挹注六千億元資金啟動航空城計畫啟動，作為國門之都的桃園市大園客運園區躋身為房市熱區。（圖／取自桃園市政府網站） 房產中心／綜合報導政府挹注六千億元資金啟動航空城計畫，吸引許多國際大公司進駐桃園，受惠航空城計畫啟動，作為國門之都的桃園市大園客運園區躋身為房市熱區，看好未來的區域發展以及自住需求提高，璟都建設預計將在此區推出五案，作為第一案的「璟都文華」，基地位在重劃區內的環區西路上，不但享有萬坪綠意視野，也享有大園市區的成熟生活商圈，房價仍在2字頭凹陷區，吸引首購、首換屋的自住客層青睞。以桃園國際機場為核心打造的航空城計畫啟動，大園客運特區周邊的交通資源、大園體育園區計劃在今年陸續啟動及到位；特為客運特區開闢的航城路已第一階段通車，預計今年底將全線通車，客運特區可藉由航城路3~5分鐘直通機捷A15捷運站及大園交流道，10分鐘可抵達國際機場，不只如此，被稱為航空城版「三橫三縱」交通建設陸續開通，包括新開闢的國二大園交流道延伸至台15線工程已於今年1月通車、國2甲後續延伸至台61線1、機場北邊聯外高速高路將西濱與國1作聯外道路連接，預計2029年全面通車；在見證了青埔房市的發光發熱後，開發中的大園客運特區亦是後勢可期，加上大園工業區、觀音工業區就業人口及周遭機場工作者湧入，房價勢必持續推升。▲璟都建設以永續宅為定位推出「璟都文華」，外觀為雙塔式建築。（圖／璟都文華提供，下同） 桃園在地多年的璟都建設以『永續宅』為定位推出「璟都文華」，強調『永久保修、永續服務』為核心理念，「璟都文華」外觀為雙塔式建築，座落於環區西路之上，面向農業保護區，無限綠海景觀印入眼簾，氣度與典雅並存，基地800多坪共104戶，屬於中型社區，除了周遭交通便利之外，車程5分鐘可達大園市區，有麥當勞、星巴克、肯德基等各大連鎖餐飲品牌，全聯、五金百貨各類商家生活機能便利，住在這裡可以享受大埤塘散步的重劃區生活，小孩可就近就讀明星雙語學校，從小培養下一代國際觀與世界觀，為全家打造健康快樂的生活圈。回到家就像在飯店一樣放鬆，「璟都文華」全案規劃2房27坪、2+1房30坪及3～3+1房35~38坪，打造出低調輕奢的交誼廳、閱讀區、媽媽教室、室內兒童遊戲室、健身房等飯店等級的全齡化公設，並將智慧科技導入社區中，規劃全社區智慧人臉辨識系統控管、地下室車位預留充電管線、垃圾間配置冷藏廚餘系統、德國BWT全棟式淨水系統，標配有指紋密碼鎖、櫻花衛浴用品、洗碗機等高品質建材，目前桃園2字頭的單價已經稀少，綜合整體條件來看，幾乎只剩大園客運特區對首購族相對平易近人，現場專案透露首購的自住客詢問度很高「目前銷售邁向7成，目前27坪、30坪已經完銷，剩下35、38坪的3房及3+1房格局」。▲「璟都文華」打造飯店等級低調輕奢的全齡化公設。努力工作就是希望可以過更好的生活，擁有大片綠地可以讓小孩跑跳，以及無價景觀視野的「璟都文華」，精品飯店等級建材及永恆價值規劃，讓全齡住戶在此可享受到最舒心的生活，將成為桃園大園客運園區不平凡的指標住宅！璟都文華-貴賓專線：03-3854-999-接待中心：桃園市大園區大觀路與園航路交叉口-網址 : https://lihi2.cc/WKWVO </t>
+          <t xml:space="preserve">記者吳睿慈／綜合報導南韓女團EXID成員哈妮近來將重心放在戲劇上，她2021年在廣播節目承認「有愛人」，後來男方身份被挖出是大她10歲的醫生男友，兩人穩定交往3年，雖不曾在社群網站放閃，但不時會低調提到對方。近日，哈妮首度在個人IG上放閃，貼出與男友拍攝大頭貼的影片與照片，充滿粉紅泡泡的畫面，連粉絲都跟著喊戀愛了。▲哈妮終於放閃。（圖／翻攝自哈妮IG）哈妮於28日在個人社群網站上罕見放閃與男友梁在雄的合照，情侶倆帶著爸爸一同體驗拍貼機，她俏皮地戴上紅色髮箍，男友與爸爸也相當配合地分別戴著紫色與綠色的頭飾，她露出開朗笑容、不時挽著爸爸，男友梁在雄也不忘把「未來岳父」拉近鏡頭裡，一家三口玩得很開心。[廣告]請繼續往下閱讀...▲▼哈妮熱戀醫生3年。（圖／翻攝自哈妮IG）梁在雄（又譯：楊宰雄）是知名精神科醫生，經常出演節目跑通告，因此認識了開朗的哈妮，兩人相差10歲，感情非常穩定，但交往3年以來不曾曝光過情侶合照，哈妮28日難得曝光兩人的同框照，令粉絲又驚又喜。▲哈妮與男友透過節目結緣。（圖／翻攝自哈妮、梁在雄IG）不僅如此，哈妮大方帶著爸爸一起約會，兩人看起來已經與對方家長相處得很自在，也有部分網友開始猜測「婚期不遠了」、「看起來很穩定應該會結婚」，提前祝福兩人。    在 Instagram 查看這則貼文           ????（@karuna_ni_）分享的貼文 </t>
         </is>
       </c>
     </row>
@@ -1611,17 +1667,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>三重警逮通緝犯本尊！半年前挨打無辜男怒：外表差那麼多還誤認</t>
+          <t>陳仙梅娶媳婦大聘小聘全都有　苦笑要兒長大自己賺</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469575.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470057.htm</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲三重警要抓的洪姓通緝犯在蘆洲被逮捕 。（圖／記者陳以昇翻攝）記者劉人豪／綜合報導新北市三重2警方去年9月搞烏龍抓錯人，黃男被當成通緝犯痛毆，雙方為了賠償問題還在打官司；日前蘆洲警分局在攔檢時，終於抓到這名通緝犯，訊後依毒品罪移送新北地檢署偵辦。對此，黃男得知後表示已經看過通緝犯的照片，怒批「外表差那麼多還會誤認」。警方表示，24日下午1時許，蘆洲警分局獲報有犯案車輛出現在轄區，6名員警騎機車前往圍捕，在民權路發現目標並上前攔查，發現43歲洪姓男子就是2022年9月間，三重警分局要抓的通緝犯，當時警方還認錯人，造成民眾黃姓男子在誤抓時受傷，目前還因為賠償金問題對簿公堂中。▲左為無辜被打男，右為通緝犯本尊。（圖／左，翻攝自黃男家屬臉書；右，記者陳以昇翻攝）黃男也在臉書發文指出，看該名通緝犯照片後，只能用天差地遠來形容，「我想說：外表差那麼多還會誤認，眼睛有問題。線民說我是通緝犯，你就認為我是通緝犯，毫無判斷力，難道線民說大便是香的，你就搶著吃嗎？腦袋有問題。」▲黃男當時被警方誤認通緝犯，被警方打成豬頭 。（圖／翻攝自黃男家屬臉書）黃男批評，當時警方行事莽撞，沒有判斷是非的本事，能力有問題。毆打自認為是嫌疑犯的人，手段兇殘，心理有問題。犯錯之後不但不認錯，還提告被害人，認知有問題。「請問這麼多問題的人，適合當警察嗎？這樣的人，還要長官們一直出來替他擦屁股，賠罪道歉，賠上所有警察形象。」並且表示，當初被兇殘凌虐的手腕，到現在還沒完全復原。 </t>
+          <t>記者林奕如／台北報導民視八點檔《市井豪門》囍事再添一樁，劇中陳仙梅要帶兒子黃文星去跟尹昭德家向王瞳提親，這場戲也在甜蜜氛圍下完成。陳仙梅表示一走進攝影棚看到擺滿的提親禮盒，直呼好像真的娶媳婦，心情很雀躍，也在心中默默幻想自己兒子長大成家立業的一天。而嫁女兒的尹昭德則說，心情像洗三溫暖，因為大女兒蘇晏霈為了復仇賠上自己的人生，還好小女兒有一個好歸宿，言談中都透露當父親的期盼。▲《市井豪門》陳仙梅（左）娶媳婦，兒子黃文星（中）、兒媳王瞳（右）。（圖／民視提供）陳仙梅聽到劇中媒人講到大聘小聘的事情，讓他想到自己有兩個兒子，所以結婚還要拚小孩的聘金，她苦笑說：「工作現階段這麼辛苦，還要幫兒子賺聘金，希望他們長大可以自己存錢賺結婚的錢。」不過說完又自己大笑，因為小孩現在都很小，好像想得太遠了。[廣告]請繼續往下閱讀...▲《市井豪門》、洪毛（前排左起）、尹昭德、陳仙梅、黃文星、王瞳；高欣欣（後排左起）、李國超成功完成提親。（圖／民視提供）除了《市井豪門》囍事之外，劇中反派也將獲得報應，張書偉得知倪齊民就是殺死自己父親的兇手之後，於是改變態度，默默留在公司，佈局搞垮他得意的企業，果真他佈局成真，檢方調查公司不法的洗錢活動，直接對倪齊民出示逮捕令，預告片一出也讓觀眾直呼大快人心，相當過癮。劇中背負著1條人命的倪齊民，表示從接反派就知道會有報應戲的來臨，知道被檢警帶走，公司倒閉這只是李有貴的開胃菜，後面有更痛苦的考驗等著他，但他笑說自己也不是省油的燈，抱持著「兵來將擋，水來土淹」，既然跟張書偉撕破臉了，接下來好戲就要期待一下。</t>
         </is>
       </c>
     </row>
@@ -1631,17 +1687,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>「悦誠廣場」拆了　2大地主「各蓋各的」計畫曝光</t>
+          <t>申請入學一階放榜　東山高中「太鼓達人」奪台大5冠王</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469494.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470364.htm</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲「悦誠廣場」目前已有怪手進場拆除，最快第三季就會推案。（圖／記者陳建宇攝）記者陳建宇／高雄報導興富發建設旗下的「悦誠廣場」去年8月底熄燈，曾傳出興富發與東南水泥2位地主將合作開發。如今雙方將各自興建超高住宅大樓，興富發旗下的碧江企業預計第三季推案，將規劃2~3房產品。東南水泥則因為沒有業績壓力，要先看市場景氣好壞再決定推案時程。►《地產詹哥老實說》EP145／重劃區多到數不完　他揭房價最澎風是它！加碼劇透2區「不宜進場」位於高雄三民區民族路、大順路口的「悦誠廣場」，前身為「大統新世紀」，興富發接手後砸下逾10億元改造，並於2019年7月開幕，不過隨即碰到新冠肺炎疫情，大大影響商場來客、營收，在2022年8月黯然熄燈。▲「悦誠廣場」2019年開幕，商場內到處都有書牆是一大特色。（圖／記者陳建宇攝）隨後市場即傳出「悦誠廣場」的2位地主興富發及東南水泥，可能會攜手蓋住宅，不過今日傳出雙方將各自興建，記者求證雙方單位，皆獲得證實。一位東南水泥高層人士表示：「我們是先報開工，但實際何時將推出要看市場景氣好壞以及走向，公司的資產還很多，也沒有即時入帳的壓力，因此不會急著推案。」而興富發部分由100%持有的子公司碧江企業開發，興富發代銷事業部特助苗青德表示，預計將是在第三季推案，也是20樓以上的超高大樓，坪數在20多坪到30多坪，格局應該是2~3房，成交價是必要4字頭以上。住商不動產民族大順加盟店店長張政德表示，以後驛地區新建案開價都已經逼近5字頭、成交在每坪42~43萬元的行情來看，未來不管是興富發或東南水泥，推案的開價很可能都會站上5字頭，成交價4字頭應該是基本，最低也會有每坪38~39萬元這種接近4字頭的水準。►《地產詹哥老實說》EP145／重劃區多到數不完　他揭房價最澎風是它！加碼劇透2區「不宜進場」 </t>
+          <t xml:space="preserve">▲東山高中學生汪學謙通過台大化學系申請入學第一階段甄選。（圖／東山高中提供）記者楊惠琪／台北報導112學年度大學申請入學今（30日）公告第一階段甄選結果，台北市東山高中傳佳績，連同繁星推薦，共有2人通過台大醫學系第一階段，26人次通過醫、牙、中醫學系，總計個人申請有93人次通過台大一階，共249人次通過台大、成大、清大、陽明交大、政大等頂大門檻。有東山高中「太鼓達人」之稱的黃慶智，原本就對機械相關科系有興趣，今天一舉勇奪台大一階5冠王。他從幼稚園就開始打太鼓，小一玩機器人、寫程式，就讀東山也加入太鼓隊，他說，加入太鼓隊，加強了自己規劃時間的能力，也在表演中得到自信和成就感。太鼓社教練黃則綱則稱讚他是，打起大太鼓來，行雲流水，是百年難得一見的大太鼓奇才。[廣告]請繼續往下閱讀...通過台大化學系一階的汪學謙，因為坐在校排第一的同學旁邊，受到刺激開始發憤圖強，國九時立定志向念化學系，曾通過清華大學高中人才培育計畫，每個週末去清大上課，高二在實驗室做實驗，奠定了理化的基礎。他說，未來希望鑽研標靶藥物，改善人類生活。▲東山高中黃慶智是校內太鼓隊，奪台大五冠王。（圖／東山高中提供）自然考科四科滿級分的陳柏均，是充滿熱血的「追星族」，高中加入天文社，跟著社團到全國各地觀星，對天文產生濃厚興趣，後來當選天文社社長，目前通過5間大學醫學系一階，包括台大、陽明交大、北醫、中國醫，她說：「只要是能幫助人類生命的我都想嘗試」，因而立志當醫生。東山高中校長陳麗美表示，要特別感謝高三的任課老師群以及高三導師們的努力，今天一階交出漂亮成績單，但通過一階只是開始，接下來會積極輔導同學們備戰第二階段，學校也會安排模擬面試來幫助同學，幫助孩子考上心目中理想的大學。 </t>
         </is>
       </c>
     </row>
@@ -1651,17 +1707,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>預言準確率86%！谷歌前工程師曝「將誕1發明」：人類8年內可獲永生</t>
+          <t>徐巧芯哭哭！初選採3成黨員、7成民調　費鴻泰：一定當選立委</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469034.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470369.htm</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲Google前工程師庫茲維預言，人類將在8年內獲得永生。（圖／翻攝自維基百科）記者葉睿涵／編譯美國未來學家兼Google前工程師庫茲維（Ray Kurzweil）過去曾因147項對未來的預測中只有3項完全錯誤，準確率高達86%，而聲名大振。最近，他在一次採訪中大膽預測，人類將在8年內獲得永生。據《每日郵報》報導，庫茲維日前接受Youtube頻道Adagio採訪時，就遺傳學、奈米科技（nanotechnology）和機器人技術發展做出討論後，直言這些技術將衍生出有能力逆轉年齡的奈米機器人（nanobots）。庫茲維指出，這些微型機器人將協助人類修復人體因衰老而惡化的受損細胞和組織，讓人們能免於罹患癌症等疾病，並讓人類獲得永生。事實上，將奈米機器植入人體的概念早在數十年前就已出現在科幻小說中，而人們也擔憂此舉可能對人類造成害處，不過庫茲維卻對此持相反態度，認為人們在大腦植入電腦反而會讓人類更進步。他表示，「我們會有更多、更新的大腦皮層，讓我們變得更有趣、更擅長音樂、更感性，並擁有更多我們在人類身上看重的東西。人機結合不僅不會讓機器取代人類，反而會讓我們變得更好。」庫茲維是非常有名的未來學家，也曾在2012年被Google聘請為協助機器學習和語言處理的工程師。他曾成功預測蘇聯瓦解、電腦在西洋棋上打敗人類等。統計顯示，他此前做出的147個預測中，有115項完全正確、12項大致正確、17項部份正確，只有3項完全錯誤，準確率高達86%。 </t>
+          <t xml:space="preserve">▲徐巧芯、費鴻泰。（圖／記者李毓康攝、蔣萬安辦公室提供）記者鄭佩玟／台北報導國民黨立委初選掀起世代交替之爭，被挑戰的費鴻泰、賴士葆均盼初選辦法採「三七制」，徐巧芯、徐弘庭則希望全民調，兩選區日前協調皆破局。台北市黨部今（30）日下午3點在黨中央舉行委員會，由委員投票決定第七、第八選區初選辦法，經由不記名投票，皆是「三七制」勝出。對此，費鴻泰表示，非常感謝，一定會在初選過程務實拜訪每一個人，讓總統當選、立委當選。依國民黨黨內初選規定，有二人以上的選區，由參選人自行協調初選辦法，決定要採「三(黨員投票)、七(民調)制」或是全民調方式進行，3月28日舉行協調會，因協調不成，由市黨部召集委員會投票決定初選方式。投票結果下午4時10分許出爐，第七選區信義、南松山投票結果，41比9，多數贊成「三七制」，第八選區文山、南中正39比11，皆是三七制勝出。對此結果，徐巧芯表示，不管決議為何，對於初選她都會參選到底，並將此視為重要的機會；費鴻泰則說，非常尊重台北市委員會最後決議，感謝他們讓初選辦法回到黨中央規定，讓黨章規定初選辦法受到重視，感謝且尊重委員，一定會在初選過程非常務實拜訪每一個人，讓總統當選、立委當選。 </t>
         </is>
       </c>
     </row>
@@ -1671,18 +1727,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>中和產業升級、房市首藏焦點！「SRC+雙大道＋大三房＋珍稀雙陽台」白領菁英搶入主</t>
+          <t>衛福部擬草案明定法規　國際牙醫表態願意配合政策</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2466170.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470257.htm</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲「楓韻元山居」採26層摩天地標級規劃，並坐擁中和「金科技三角區塊」的地段優勢。（圖／翻攝自影片，下同）房產中心／綜合報導隨股市反轉、通膨升息，近來房市看似轉冷，為避免財富縮水、或陷入股市套牢等危機，「有土斯有財、錢進不動產」仍是長遠力抗通膨、深得人心的置產首選！尤以目前土地取得及營建成本日益高昇，越晚購置房產，也象徵購屋成本相對提高。據專家表示「不論房價如何更迭，只要買對區域，長久而言，對自住市場都是一種保值肯定」，帶動眼光放得遠的人，對於「現在入場房市」擁有一定信心。以近年重大建設積極、企業建廠擴廠有增無減、生活機能成熟的「新北中和」為例，即是近來眾多企業主、高階主管挹注信心、極致看好的購屋熱點。中和長久以來就是「新北產業軸」的霸主中軸、產業原鄉。近幾年中和「看得見」的產業升級，更是有目共睹！加上環狀線首階，亮點群聚於中和，締造中和交通網絡更加綿密，讓原本手握繁華的中和，更加擁有晉身新興都心的潛能優勢。「ET即賞屋」主播張宇就直言「中和產業廊帶成熟，近3年民間投資累積逾3,200億元，新設商業、公司及增資家數更累積逾7萬多家，產業持續升級下，也帶動中和高端市場的居住需求！」不只張宇看好中和已然起飛的傲人能量，財經專家汪潔民更指出，不僅台灣松下電器、主機板大廠微星、遊戲橘子、Honeywell等龍頭企業，皆選擇於中和建廠、設置辦公室，連全國唯一擁有醫學大學、醫學中心、生醫產業「三位一體」的「北醫雙和生醫園區」亦落腳中和，於2022年正式啟用，更見證中和居住底蘊的成熟。換言之，從產業到生醫、從交通到建設，中和都為升級作足了準備，尤以目前含金量極高的「中和產業園區、遠東通訊產業園區」擁有交織「新板特區」的地利優勢，締造出新北罕見、至為關鍵完美的「金科技三角區塊」，可想而知，未來將有龐大的就業市場，周邊的住房需求量也潛力驚人！」過往中和一向給人交通壅塞的刻板印象，但隨近年重大交通建設逐一落成，以及環狀線通車，四通八達的交通網不僅大幅提升機能與便利性，也帶動地段價值，尤以中山路、中正路兩大道利多受惠。財經專家汪潔民指出，環狀線中原站、橋和站所在之地，正好聚焦中和科技金磚板塊，除周邊有家樂福、好市多及環球購物中心等大型購物指標外，未來還有萬大線第一階段開通、國泰三井開發案、中和好市多旁16,000坪複合型商場綜合開發案，以及周遭9,000多坪華隆紡織開發案等，整體街廓的改變，預料持續吸引更多知名企業進駐，將中和一舉推展為「住商核心」精華區域。-在地剛需買盤強、加上區域升級有感，也讓外地人注意到中和近年備受矚目的新案。由「湯臣集團」旗下「楓韻開發」所打造的【楓韻元山居】，即以得天獨厚坐擁中山路與中正路雙大道匯口，距離四鐵共構的新板特區，更只要10分鐘車程，創造地段「通吃雙和、直進新板」！結合環狀線「中原站、橋和站」、台64快速道路與北二高，緊鄰在旁，等於一次握有高鐵、高速公路、快速道路等強大交通動能。成為近年中和久等的燙金地段指標個案。【楓韻元山居】全座採26層摩天地標級規劃。最讓張宇稱羨不已的是，基地鄰近中和佔地逾3公頃的「員山公園」，加上「中和運動公園」與訴求原始森林系的「嘉穗公園」也近在咫尺，打造該案別具匠心，不僅取得銀級綠建築候選標章，更以預計規劃四面退縮、留設開闊的人行步道及綠意開放空間，讓「不論任何年齡層的住戶，都可以輕鬆享受大自然的陶冶！」完美呼應案名【楓韻元山居】的舒心氣息，讓人尚未入住，就擁有一股綠意盎然的天然期待！【楓韻元山居】不僅以建築如山，高度形構地標氣度，更採用「日本住友SRC高層鋼骨耐震結構」搭配隔熱沙漿、中華氣密窗與5+5微半反玻璃；此外也採用德國BWT全棟淨水器，並貼心為公設大廳裝設飛利浦除菌燈，讓張宇直呼「陽光、空氣、水、防疫，一次全面都到位，真得讓住戶住得安心又有元氣。」不過，更讓張宇更為驚歎的是， 43.78坪房型3房2廳2衛住居，碩大客餐廳、挑高3.3米的開闊，加上稀有「雙陽台」規劃，讓走逛一圈的張宇不禁在鏡頭前直呼「這裡的開闊感，真的不像是只有40幾坪的感覺！」即使三代同堂闔家同住，也都能擁有舒適愜意的生活尺度。有別一般他案，3房房型都會做出大小間區隔的設計，【楓韻元山居】以戶戶大3房，每房均能容納雙人床、且保有走道空間，方便住戶自在行動。讓張宇相當有感「半夜起身下床時，再也不必擔心吵醒熟睡的枕邊人！」同樣令人格外在意的室內建材，【楓韻元山居】也品味不手軟。廚具方面採櫻花廚具頂級款，另打造可容得下三機的電器櫃，同時附上能讓煮夫煮婦一見傾心的SVAGO洗碗機，搭配目前深受時尚菁英熱愛的韓國hanex檯面，「讓熱衷料理的住戶，都能優雅俐落，兼顧衛生健康，做出一道道美味佳餚。」搭配主衛浴空間採4件式設計，面盆、浴櫃及電腦馬桶座，精挑星級飯店、時尚名流最愛的美國kohler系列等，憑藉視覺感，就能讓回家的身心，得到徹底的放鬆療癒。從地段、機能、未來發展性，再到建築團隊傾力打造的細膩生活感，同時更有住戶最在意的交通利多等價值。儘管現今高聳入雲的SRC高樓建築比比皆是，但能一次坐擁科技軸心與都市森林，如此剛柔並濟、滿足不同年齡菁英層的居住環境，卻少之又少。從立地條件到建築規格都予人深刻印象的【楓韻元山居】讓張宇也忍不住推薦給自住客、以及講究質感、價值都到位的品味行家，務必將【楓韻元山居】納入口袋名單！而且結構體興建中，落成在即，不必久等，尊榮藏私，更要領先探得置產先機，別錯過收藏新北絕佳地標的好良機。 </t>
+          <t xml:space="preserve">▲國際牙醫在國外已完成實習學分，歸國後須在台完成適應訓練。（圖／國際牙醫校友聯合會提供）記者白珈陽／台中報導立法院去年5月三讀海外牙醫師歸國政策《醫師法》規定模糊不明，是以衛福部於今年2月4日，公告「國外牙醫學歷參加醫師考試臨床實作適應訓練辦法」草案，確立詳細法規，依法施政。國內牙醫團體認為此草案有疑慮，頻發聲明表達不滿，國際牙醫校友聯合會則有不同意見，認為將「以人力需求彈性核算名額」的現有規則寫入法條才是正途，相關單位施政時才有母法依據，願意配合政府政策。根據「國外牙醫學歷參加醫師考試臨床實作適應訓練辦法」草案列明，將以醫事人力需求以及相關條件來核算每年海歸牙醫參加臨床適應訓練的名額，引發國內牙醫團體不滿，近日數度召開記者會，認為政府應該限制國外學歷牙醫師以保護本土牙醫。另外，本土小牙醫聯盟也在記者會上提出衛生署在民國98年的跨部會會議紀錄，當時國外醫學系畢業生的實習容額總容量為國內醫學生招生容額的10分之1，本土小牙醫聯盟依此為依據，要求衛福部也須將給國外牙醫師的名額限制在國內名額的10分之1。▲國際牙醫實習畫面。（圖／國際牙醫校友聯合會提供）國際牙醫校友聯合會表示，衛福部未將名額限定寫入法條是為了對民眾負責，每條法規都要沿用數十年甚至以上，修法曠日費時，若這次修法寫定名額，那名額不符時又要重新修法，浪費人力物力，到時又要全體民眾買單。每年按照實際情況核算人力需求來彈性制定名額才是合理且符合效益的作法。聯合會成員洪醫師說：「本土小牙醫聯盟在記者會中提出的98年會議紀錄是針對醫師開的會議，卻拿來當作限制牙醫師的標準實屬不妥，且會議紀錄並無法律效益，在層級上比行政命令還低，不該是政府修法唯一準則。」聯合會聲明，對此次衛福部頒布的草案已提出修改建議並發函給衛福部，但尊重衛福部對台灣醫療管控的專業並樂於配合政府政策。我們不要求政府偏袒國際牙醫，只希望對國內外牙醫一視同仁，相信衛福部會站公平公正的立場，為民眾福祉發聲，制定公平的分發方式。 </t>
         </is>
       </c>
     </row>
@@ -1692,18 +1747,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>直擊／日本天團主唱突現蹤高雄！　親吐快閃來台只為1事</t>
+          <t>張學友認「失業一陣子」：真的感覺很慌　訪問一半「突當眾道歉」！</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469581.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470344.htm</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲ 凡人譜主唱三村隆太特地來台朝聖五月天。（圖／記者翁子涵攝）記者翁子涵／台北報導五月天即將邁入出道25週年，在今（29日）成軍週年之際，於高雄世運舉辦「諾亞方舟10週年進化復刻限定版演唱會」，和五月天私交甚篤的「日本國民天團」flumpool凡人譜主唱三村隆太，更特地飛來台灣朝聖今晚的演出，他受訪時展現流利中文，笑稱自己見到五月天時不斷跟他們說：「生日快樂！」讓工作人員哭笑不得。[廣告]請繼續往下閱讀...▲ 凡人譜主唱三村隆太特地準備日本名產。（圖／記者翁子涵攝）「日本國民天團」flumpool凡人譜除了和五月天是好友外，更常是犀利趴的演出常客，10年前他們成軍5週年時也邀請五月天擔任嘉賓，三村隆太因為疫情相隔許久未來台，這次就是特地來欣賞五月天的復刻限定演唱會，他也感性地祝福說道：「今後也會看著五月天的背影繼續努力，成為跟他們一樣的樂團。」此趟來到高雄，三村隆太也不忘大啖道地小吃，昨晚更去夜市踩點，他體驗吃臭豆腐，「第一口可以接受，第二口味道上來就不行了。」今天也去旗津吃白糖粿、蕃茄沾薑汁，美味到讓他大讚：「日本沒賣，乾脆自己去賣好了，很好吃，台灣食物都很喜歡。」- </t>
+          <t>記者蔡琛儀／澳門報導「歌神」張學友終於要開演唱會了！今他在澳門巴黎人酒店舉辦「張學友60+ 巡迴演唱會」全亞洲媒體記者會，正式宣告巡演首站將在6月9日從澳門起跑；此外，他最近推出全新國語單曲《又十年》，談到心情：「這十年過得很快，好像才剛做完演唱會，怎麼又要做演唱會，中間好像有一段時間是空白的。」▲張學友說自己有一陣子失業，心裡確實很慌張。（圖／環球提供）他笑說自己真的有一陣子失業，應指的就是疫情期間，「中間感覺很慌，我不知道大家是不是...但我自己是有很慌的感覺。」[廣告]請繼續往下閱讀...張學友也突然當著眾多媒體面前道歉：「要跟歌迷說聲不好意思，我4年沒跟歌迷過年，歌迷會也沒收錢，又沒辦法現場跟大家見面，這樣不是很好。」他強調沒打算要解散歌迷會，「現在不知道怎麼去跟大家見面，我想個辦法，再想想怎麼做。」▲張學友今宣布演唱會從澳門起跑。（圖／環球提供）在這近三年的疫情時期，過往對於家事不熟悉的張學友學會很多，像是使用洗衣機、陪狗洗澡、照顧烏龜，「以前不懂就不做，連簡單按洗衣機都不會，現在你去了解生活，了解多了，生活中的東西我覺得不煩，就是個過程，沒有說真的很難，也不是完全沒有得到什麼。」過去他的巡演時間都是以年起跳，他坦言很愛家人，也愛工作，必須想辦法去平衡生活和工作，所以現在只要一沒工作，就哪裡都不去，甚至不見朋友，自虧：「我是個很寂寞的老男人。」笑說現在很常在家，「但我的女兒也不再是小女孩，她們有自己的生活，所以我現在要做的就是照顧我老婆的感受。」</t>
         </is>
       </c>
     </row>
@@ -1713,17 +1767,20 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>民進黨：台灣政府保障言論自由　何來打壓不同意見？</t>
+          <t>日本去年8萬人失蹤　竟有這工作「專門助消失」</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469201.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470348.htm</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲美國在台協會處長孫曉雅。（資料照／記者莊喬迪攝）記者呂晏慈／台北報導針對國內近期出現「疑美論」，美國在台協會（AIT）處長孫曉雅近日接受網路節目「范琪斐的美國時間」訪問時說，不認為限制言論是好的方法，而國民黨發言人林家興以此為例，批評民進黨打壓不同意見。對此，民進黨發言人謝佩芬29日表示，國民黨完全是刻意扭曲孫曉雅的發言脈絡，不僅張冠李戴，劃錯重點，整體發言貽笑國際，應該深切檢討，並希望國民黨好好弄清楚訊息澄清、議題辯論，以及打壓言論自由的差異，以免尷尬。孫曉雅近日接受網路節目專訪，針對台灣出現「疑美論」，她表示，言論自由的部分精神，就是保護「懷疑論」，自己的工作就是消除「我不相信你」的質疑，而不是說「你說的是假訊息」，她不認為限制言論是好的方法。她說，台灣經歷的是一種憂心，自己夾在大國競爭與複雜地緣政治下的焦慮，這種聲音AIT已經聽到很多次。而林家興日前以此為例指出，美國作為民主自由的典範國家，對「言論自由」內涵充滿理性的認識與堅持，讓選擇以鴨霸的手段壓制國內民眾聲音的民進黨踢到鐵板，也上了一課；國民黨會與美國站在一起，並肩相挺言論自由與維護中華民國國家利益，反觀民進黨如此不符合言論自由與民主價值的政黨，很難得到台灣人民乃至國際友人的支持。不過，謝佩芬今天批評國民黨指，民進黨自創黨之初致力於對抗國民黨的威權統治，一路走來，捍衛台灣的言論自由不曾改變，本月初，國際機構自由之家（Freedom House）公布的「2023年全球自由報告」中，台灣持續被列為「自由」國家，獲得94分，為亞洲第二，國人同感榮耀，台灣政府對言論自由的保障，獲國際肯定，何來打壓不同意見之情事？謝佩芬強調，孫曉雅已說明她的工作是盡力去做必要的澄清，然而，不知道國民黨是刻意斷章取義，還是理解能力有問題，竟能將孫曉雅的話跟打壓言論自由扣連在一起，令人十分錯愕。謝佩芬說，在該訪談中孫曉雅明確指出，所謂「撤僑」、「滅台論」等訊息，明顯是錯誤的；針對台積電赴美投資設廠，引發「掏空台灣」質疑，孫曉雅也表示，不認為赴美設廠會損害台積電對台灣的價值。她說，孫曉雅所反駁的這些言論，恰巧都是國民黨人士近來熱衷散播的論點，例如國民黨前立委蔡正元前不久得意洋洋地表示，白宮有「毀滅台灣」計畫，在AIT出面澄清後，至今仍未見國民黨上下有任何反省。謝佩芬說，孫曉雅於訪談中表示：「美國從未將台灣視為需要解決的問題，而是視台灣為重要的夥伴，而且是帶來很多價值的夥伴；我們真心認為，台灣是民主的典範，以及世界上的正面力量。現在美國幾乎沒有東西比『支持台灣』來得更有共識，在台灣議題上，兩黨、兩院、行政和立法機關達成的共識前所未見，自己當外交官幾十年，頭一次看到如此強烈的共識和一致性。」謝佩芬表示，國民黨無視美方及國際友人對台灣的友好，通篇發言顯示國民黨心中只有政治，沒有國家利益，才會錯誤解讀外交訊息。謝佩芬指出，今天是總統蔡英文出訪友邦的日子，本次行程也將過境美國，為台灣拚外交，奉勸國民黨，與其捍衛疑美論的存在，不如將重心放在了解國際情勢發展，才不會繼續鬧笑話。 </t>
+          <t xml:space="preserve">▲日本夜逃屋服務，專門「消失」客戶。　（示意圖／達志／美聯社。）圖文／CTWANT日本去年約有8萬人失蹤，而人究竟去哪了？在日本有一項充滿風險的危險工作名為「夜逃屋」（yonigeya），工作內容主要幫助人們失蹤。一名工作人員透露，他要隨身攜帶自衛用的公事包，而客戶有9成都是女性。據《INSIDER》報導，《南華早報》一部紀錄片中談到，這些「被消失」的人中，大多是因為有債務問題以及逃離家暴，或是只是想在一個新地方重新開始。男子岩渕直樹在千葉小鎮的一間不起眼的辦公室工作，他身穿一件俐落黑色西裝接受訪談，他主要幫助受虐婦女和被跟蹤的受害者，從這社會上消失到一個安全地方，這是他的眾多業務之一。▲岩渕直樹秀他的公事包。　（圖／翻攝自YouTube頻道South China Morning Post。）岩渕直樹說，這是一項充滿風險和危險的工作，他要隨身帶自衛用的黑色公事包，打開後裡面有一塊盾牌，還有一層盔甲；他還隨身攜帶伸縮警棍，因為要保護自己。岩渕直樹強調，夜間搬家很麻煩，因為他總假設有最壞的狀況發生，他在16年前發現有很多女性面對逃不了的家暴，決定介入幫她們消失，「現在約9成客戶都是女性，1成才是男性。」而日本現在的失蹤人口數，是疫情大流行前的3倍。其實，《洛杉磯時報》早在2003年就報導，夜逃屋的收費大概在2000到2萬美元間（約新台幣6萬元到60萬元），在某些狀況下，幫助失蹤的人可能要偽裝成擦窗戶的工人或是榻榻米商人，才能躲過追查。根據2020年BBC報導，一旦他們被蒸發，就很容易保持匿名躲在日本社會中。社會學家中森弘樹說，因為日本很重視隱私，所以失蹤者可以在不被發現的狀況下從ATM提錢，「除非犯罪或其他事故，否則警方不會介入。」中森弘樹強調，失蹤者家屬只能花一大筆錢請私人偵探，或是慢慢等待。◎尊重身體自主權，請撥打113、110。延伸閱讀+▸ 白冰冰從唱熱場到紅牌主秀　登上舞台就有巨星光芒+▸ 情侶入住飯店遭不明液體滴到！抬頭看竟是巨蟒在天花板爬行+▸ 黃宣驚喜現身母校運動會 自爆「老師都叫我不要來」 </t>
         </is>
       </c>
     </row>
@@ -1733,17 +1790,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>柴柴來了！LINE「4款可愛貼圖」載到賺到　還有隱藏版</t>
+          <t>高雄智慧城市展開幕　陳其邁：以智慧科技運用帶動雙軸轉型</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469070.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470341.htm</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲LINE免費貼圖快下載吧！（示意圖／記者劉維榛攝）網搜小組／劉維榛報導可愛貼圖又來了！LINE近日上架4款限時免費貼圖，包括柴犬皮皮、阿企與魚魚只給你最好的、桔醬&amp;貝果，以及隱藏版「賴賴&amp;織織」，使用期限為90天，每款實用又療癒，而且載到賺到，大家快來一鍵下載吧！[廣告]請繼續往下閱讀...LINE購物品牌名店×柴犬皮皮｜下載請點下載期限：2023/4/19，90天NU SKIN × 阿企與魚魚 只給你最好的｜下載請點下載期限：2023/4/27，90天LINE購物直播×桔醬&amp;貝果｜下載請點下載期限：2023/4/27，90天LINE Rangers x 賴賴&amp;織織｜隱藏版下載請點下載期限：2023/6/14，90天 </t>
+          <t xml:space="preserve">▲高雄智慧城市展30日在高雄展覽館揭幕。（圖／高市府提供）記者陳宏瑞／高雄報導第2屆高雄智慧城市展今（30）日在高雄展覽館開幕，高雄市長陳其邁率市府團隊參展交流，他提到本次展會特別設置「淨零新創館」，顯現高雄做為以重工業起家的城市，積極面對全球氣候變遷，以2050年淨零排放為目標，並將智慧醫療、智慧交通等各種智慧城市應用服務方案介紹給企業及其他國家。▲高雄智慧城市展吸引許多國際市政及企業人士參加。（圖／高市府提供）陳其邁致詞時強調，「科技始終終於人性」，智慧科技運用的核心價值是「以人為本」，海洋首都高雄將善盡責任，致力推動地球永續的工作，運用智慧科技改善生活，讓台灣及全球皆能更加美好。▲高雄市長陳其邁（右二）參觀智慧城市展。（圖／高市府提供）高雄智慧城市展今年有16個國家地區、50個城市，逾300位的國際市政及企業組團來訪，還有國際城市組織ICLEI、CityNet、WeGO三大組織的秘書長都將齊聚高雄，另外歐洲復興銀行（EBRD）及亞洲銀行(ADB)都組團率領會員國家來交流智慧城市發展經驗。▲高雄市長陳其邁（右二）參觀智慧城市展。（圖／高市府提供）主辦單位台北市電腦公會理事長彭双浪表示，高雄智慧城市展今年有三大特色，一是高雄地區本地廠商數已成長到70%，二是高雄地區9大醫療體系計14家醫院，以一院一特色，展示最新智慧醫療應用，充分展現高雄地區醫院群力合作打造「南部智慧醫療產業聚落」的特色，三是展覽展現出高雄市政府，推動城市綠色轉型的決心。▲高雄市長陳其邁（左二）參觀智慧城市展。（圖／高市府提供）智慧醫療主題館是展會的重要特色，陳其邁指出，本次展示14家醫院的最新智慧醫療及虛實整合的各項運用，包括數位醫療雲、虛擬彙整、ESG 3.0手術補助、物件機器人等，且市府與台灣人工智慧實驗室成立「聯合學習大平台」，整合台灣最強的兩大領域醫療及資通訊產業，以期順利帶動智慧醫療的運用跟普及，讓醫療領域的服務更佳，增進市民健康福祉。此次展期即日起至4月1日，12歲以上高雄市民憑身分證可免費入場參觀，歡迎市民朋友一起共襄盛舉，體驗科技智慧帶來精準零時差醫療服務，見證高雄智慧醫療豐碩成果。 </t>
         </is>
       </c>
     </row>
@@ -1753,17 +1810,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>哪種紋路看起來很顯老？過來人點名「這2種」藏不住：超容易注意到</t>
+          <t>原民部落觀光急先鋒　林務局推第一本原民生活植物書籍</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469018.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470332.htm</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲哪種紋路很顯老？（示意圖／記者李佳蓉攝）記者曾筠淇／綜合報導到了一定的年紀後，肌膚難免出現紋路，就有網友好奇拋問，大家覺得哪種紋路看起來最顯老？自己的年紀會因此被出賣？話題引發討論，有2種紋路不斷被點名，不少網友直言真的很難藏，而且看起來會覺得年紀偏大。這名網友在PTT的WomenTalk板上，以「大家覺得哪種紋路出現最顯老」為題發文，提到最近因為看了復仇劇，與同事開始討論起「顯老」的話題。到了一定年紀後，肌膚難免有紋路，他認為頸紋一旦出現，就很難挽救，而且幾乎無法靠遮瑕蓋住，保養也得花一大段時間才能見效。[廣告]請繼續往下閱讀...接著是魚尾紋，原PO認為這種紋路或許可以靠醫美拉平；至於法令紋，他也覺得無解，但還是可以靠遮瑕或醫美稍微遮蓋住。最後他提到《黑暗榮耀》的「朴涎鎮」，雖然很美，但看著看著卻不小心出戲，大家覺得哪種紋路最會出賣年紀？▲不少網友對頸紋感到困擾。（示意圖／記者李佳蓉攝）貼文曝光後，不少網友都對頸紋感到困擾，「脖紋是最藏不住的，就算砸大錢醫美也一樣，而且我說的不是一般那種脖紋，脖子出力時，脖子產生的紋路真的藏不住也改不了」、「頸紋+1，保養真的很重要，有紋路跑出來不管怎樣看起來就是感覺年紀偏大」、「老阿姨的脖紋藏不住，然後才是魚尾紋、法令紋」、「脖紋，看過60歲以上老人臉有保養還可以，但是脖子已經像雞一樣非常皺，很誇張」。也有不少人覺得法令紋很顯老，「法令紋，很想去做貴族手術」、「法令紋，魚尾紋我倒覺得蠻好看的，笑起來感覺很親切」、「法令紋吧，感覺最容易注意到」、「法令紋，有個大學妹子法令紋超深，戴墨鏡的時候超像巫婆，不戴的時候倒是正常，長得還不錯」。另外也有網友回應，「脖子紋從小就很深刻了沒感覺，魚尾紋應該才是最明顯的，因為幾乎沒有人從小就有」、「木偶紋」、「涎鎮是動態表情才有法令紋，她呆住的樣子很萌好嗎？不自覺的皺眉紋才是最顯老的，法令紋其次」、「脖紋完全不顯老呀！臉上的三八紋比較顯老」、「國小笑了就有魚尾紋」。 </t>
+          <t xml:space="preserve">記者哈勇嘎奧／台中報導臺中市和平區是泰雅族原鄉部落生活區域，自然的環境讓居民種植一些傳統的農作物，發展出獨特的傳統植物料理。林務局東勢林區管理處推動原鄉部落觀光，委託專家與部落當地耆老夥伴共同編撰《谷關里山生活植物-大谷關地區原鄉部落傳統生活與民族植物手冊》，在今(30)日在八仙山國家森林遊樂區辦理新書發表會，邀請該手冊作者、受訪的部落長老及夥伴共同參與，也吸引許多對傳統植物有興趣的民眾共襄盛舉。▲林務局東勢林管處結合原民傳統植物，推出第一本原民植物書籍。（圖／記者哈勇嘎奧攝）▲東勢林管處處長張弘毅表示，日後將繼續推動部落觀光結合美食。（圖／記者哈勇嘎奧攝，下同）此本原民生活植物書籍，是由委託中華自然資源保育協會陪伴臺中市和平區大甲溪流域沿線的南勢、裡冷、松鶴、哈崙台及斯可巴等泰雅族耆老、夥伴實地走訪蒐集資料，歷時2年才編撰完成。書中介紹原民將植物做為香料，融合在現今的料理當中，有小米、樹豆、紅藜、馬告、樹薯、山地蔥等多種食材染料，在今日發表會時，現場也準備了運用民族植物創作的樹豆燉豬腳、什錦蕗蕎沙拉、椰香紅豆飯、樹薯熬雞肉、紅藜饅頭配上馬告香腸、薑黃雞汁糯米飯、馬告溪魚、小米布丁、三色匹薩及原民在喜慶時才有的小米醃肉等12道風味料理，讓大家能品嘗到手冊中記載的食材美味。林務局東勢林區管理處處長張弘毅在會中表示，為積極推動生物多樣性保育工作，並與原住民族建立夥伴關係，透過出版該書籍以里山倡議概念融入</t>
         </is>
       </c>
     </row>
@@ -1773,17 +1830,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>做園藝感染「一戰時期細菌」　老翁身體被吃掉險喪命</t>
+          <t>國立大學畢！文組女窮忙1年「換6工作」　開心曝：存款還有50萬</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2468975.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470085.htm</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲老翁的身體左側肌肉出現液化及氣化症狀，且感染範圍持續擴大。（圖／翻攝自推特）圖文／CTWANT近期西伯利亞「殭屍病毒」可能復活消息，引發各界關注。不過，古老病菌侵害人類的事件其實正持續上演，一名64歲瑞典老翁就因為在自家花園感染「一戰時期」的細菌，導致身體「被吃掉」大面積壞死，差點喪命。這起駭人病例最近在期刊《國際外科病例報告》（International Journal of Surgery Case Reports）公開，受害老翁疑似在整理花圃時讓帶有引發氣性壞疽（Gas gangrene）病菌的蟲子，碰觸到他罹患銀屑病（又稱牛皮癬）的患處，或不慎被沾染細菌的鐵絲網割傷而遭到感染。老翁遭感染不久，就出現身體左側莫名疼痛及持續發燒8小時症狀，醫師檢查發現他的疼痛部位非常柔軟卻沒有外傷跡象，經電腦斷層掃描，驚覺老翁左側骨盆處積蓄大量液體及氣體，導致連結下背部、腿部及臀部處的肌肉因壞死產生疼痛感。醫療團隊見此研判老翁罹患細菌感染引發的壞死性筋膜炎，然而，老翁症狀不但沒隨著抗生素投入而緩解，肌肉組織液化、氣化的範圍還持續擴大。醫師緊急移除50％脊椎和骨盆之間最重要的腰肌來避免感染擴大，但手術完成後，醫師又發現老翁的左腿肌肉組織壞死，也必須移除部分肌肉組織。醫療團隊在老翁住院的135天期間，先透過樣本檢驗確認他感染梭狀芽孢桿菌，進而引發氣性壞疽，而氣性壞疽正是在一次世界大戰奪走戰壕中無數士兵生命、惡名昭彰的恐怖疾病。醫療團隊確認病因及骨盆感染停止後，選擇不縫合腿部傷口，而是把浸泡過氧化氫的紗布塞滿傷口，避免感染擴大，老翁除在住院期間多次心臟驟停、呼吸停止，還因連結腎臟及膀胱的尿管被侵蝕，導致體</t>
+          <t xml:space="preserve">▲原PO分享大學畢業後1年多換了6份工作的經歷。（示意圖／記者李佳蓉攝）實習記者林郁婷／綜合報導大學畢業後，有些人對於找什麼樣的工作很迷茫。一名國立大學畢業的女網友，分享自己畢業一年換工作的經歷，指她1年多「換6工作」，最後終於找到心目中理想職業，也體悟到「比起追求高薪，穩定存錢才是好辦法」。貼文曝光掀起討論。一名女網友在Dcard以「文組的窮忙分享」為題發文，表示過去因為頻繁換工作常被家人唸，最近終於找到一份穩定的職業。她透露自己大學是念文組傳播科系畢業，第一份工作是電視台助理導播，薪水2萬9，月休8天，「扣掉房租再加上生活費，基本上沒有什麼剩餘的錢」，再加上看到身邊有孩子有家庭的助理導播，沒有升職薪水也落在三萬初，下班還兼職外送，「讓我擔心是不是這是我未來的樣子，年輕氣盛就提了離職。」[廣告]請繼續往下閱讀...原PO接著提到，第二份工作是繼續留在台北做兒童助理，「當初會選擇這個工作，第一是因為喜歡小孩，第二是我會攝影，想說學習後日後可以自己接案」，薪水3萬5，輪班月休4天，扣掉房租生活費後還能存到一點錢，「會離職的原因是，為了讓攝影師順利拍照，攝助必須一直逗小朋友笑，很常需要跪著蹲著拿很重的裝飾品，常常膝蓋都會黑青，再加上休假時間太少，覺得沒有生活品質。」原PO透露，辭職後她放棄北漂生活回到家鄉，「想說隨便做一個工作啦，可以存到錢就好，又喜歡小孩，於是去做安親班老師」，所以她的第三份工作是月薪2萬7、周休2日的「安親班老師」。這時候開始會要求自己每月存2萬，「離職原因是小孩實在太難管教了，導致我情緒不穩定，和男友經常吵架，再加上我一直想，自己怎麼可以沒有夢想呢？」原PO接著談到第四份工作，表示因為還是想做和傳播相關的工作，加上本身對廣播的興趣，於是找了客家電台行政人員的工作，薪水基本薪資，輪班月休八天，持續控制自己每月存2萬，工作內容繁雜，份量不平均，又是家族企業，需要幫忙處理台長的私事，受不了才離職。第五份工作是寢具店門市店員，透過認識的人介紹，薪水三萬六，一周只休禮拜天，每天工時11小時，但是入職後，業績標準不斷被拉高，「從每月20萬到25萬到30萬，反正我沒有加過業績獎金」，因此選擇離職，並讓自己好好休息三個月。原PO最後提到，自己最後幸運考上高鐵站務員，目前不打算再換工作，原本期待有一番成就，但後來明白「追求高薪的自己已經沒了，穩定存錢才是好辦法」，同時認為住家裡還是有住家裡的好處，真的可以省很多錢，也慶幸現在存款還有50萬。貼文底下吸引大量回應，不少網友紛紛表示，「感謝妳的分享，我也是文組，真的好迷茫，謝謝妳的文字讓我有動力」、「大四即將出社會的學店文組，在最後一學期才發現自己根本不想走本科系，最近很常焦慮到睡不著覺」、「文組還是公職跟國考最穩」、「文組除了考公務人員，也可以專精自己的外語能力，找間外商是不錯的選擇」、「賺得多不一定存得有你多，這點你做得很棒」。省錢大作戰！超夯優惠等你GO大罐又便宜 ►衣物徹底洗淨「妙管家抗菌洗衣精4000gx4瓶」限時↘$3991顆不到7元►毛孩專用 Dr.好骨力　讓愛貓愛犬健康好靈活　限時↘$399 </t>
         </is>
       </c>
     </row>
@@ -1793,17 +1850,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>郭台銘發聲！　宣告和美國重要智庫建立長期合作關係</t>
+          <t>清明連假天氣「先濕後乾」一圖秒懂！收假日鋒面逼近又變天</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469566.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470367.htm</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲郭台銘宣告和美國重要智庫建立長期合作關係。（圖／翻攝自郭台銘臉書）記者吳珍儀／台北報導鴻海創辦人郭台銘宣告，和美國重要智庫建立長期合作關係。郭台銘於臉書表示，經商多年後，深刻體會到「產業發展」和「經濟成長」不只是企業單獨面對的課題，更需要結合「世界趨勢走向、政策引導、政府治理」的支持，才能成就產業永續發展。想藉由參訪，作為未來能和布魯金斯學會建立長期的合作關係，持續為社會和企業提供發展和降低風險的參考。以下為郭台銘臉書全文：[廣告]請繼續往下閱讀...各位朋友早安，我現在人在美國的華盛頓特區，現在是早上5點20分。昨天，我前往訪美之旅的第一站「布魯金斯學會」，它曾被評為全球最有影響力的智庫。經商多年後，我深刻體會到「產業發展」和「經濟成長」不只是企業單獨面對的課題，更需要結合「世界趨勢走向、政策引導、政府治理」的支持，才能成就產業永續發展。參訪過程中，我發現創辦人「Robert S. Brookings 」出生在1850年，恰好大了我整整100年；在這百年時光裡，「布魯金斯學會」的學者們不斷調查與分析，研究各種社會科學與經濟發展的策略。在今天的幾個小時裡，我也趁機與高級研究員Michael E. O'Hanlon先生針對「國際情勢、氣候變遷風險及政府治理」等面向交換意見，受益良多。我想藉由這次參訪，未來能和布魯金斯學會建立長期的合作關係，持續為社會和企業提供發展和降低風險的參考。「經濟成長」和「永續發展」不應該只是口號，更重要的是堅持原則與理念，並貫徹執行的意志！ </t>
+          <t xml:space="preserve">▲清明連假天氣變化趨勢。（圖／氣象局）記者李宜秦／台北報導明日到周末天氣較不穩定，尤其是周六水氣較多，這段期間中部以北、東半部降雨機率較高，北台灣天氣涼爽約22度，下周一以後天氣趨穩回暖，北台灣高溫回升到28度，不過周三又有鋒面接近，迎風面再度迎雨。氣象局預報員葉致均表示，明日東半部、中部以北山區有雨，若華南水氣東移情況更明顯，連中部平地都可能有零星飄雨。周末兩天華南雲雨區東移，中部以北、東半部有雨，周六水氣較多，降雨相對明顯。[廣告]請繼續往下閱讀...▲清明連假天氣差，降雨機率高。（圖／記者李毓康攝）下周一、二風場為東風到東南風，僅東半部有局部短暫陣雨，午後中部以北山區留意局部短暫陣雨。周三、四鋒面接近，北部、東北部有短暫陣雨，中部、花東有局部短暫陣雨。溫度方面，未來一周變化不大，周末以前北台灣較涼爽，高溫22、23度，周一、二回暖至27、28度，中南部則都差不多30度左右，南部內陸地區可能更熱。 </t>
         </is>
       </c>
     </row>
@@ -1813,18 +1870,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>白皙正妹搭車遭AI「一鍵脫光」！　裸照瘋傳...網崩潰：恐懼又憤怒</t>
+          <t>下坡對撞轎車斷腿！騎士索賠92萬吞敗　法官：不是先告先贏</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469571.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470319.htm</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ▲正妹在地鐵的生活照被有心人「一鍵脫光」，裸照在網路上遭到瘋傳。（圖／翻攝小紅書）圖文／鏡週刊由美國團隊Open AI研發的ChatGPT竄紅，AI應用程式更是如雨後春筍般不斷推陳出新，這些先進的科技幫助了人類能更快速簡單的完成事情，卻也帶來了許多潛在的隱憂。前陣子AI換臉技術已經引發了許多爭議，近日更是出現了「AI一鍵脫衣」的APP引起民眾的恐慌，一名穿搭女網紅在「小紅書」上分享自己搭地鐵的生活照，卻被網友使用AI軟體「一鍵脫光」，裸體的照片更在網路上瘋傳，掀起熱議。 [廣告]請繼續往下閱讀...根據綜合陸媒報導，一名中國廣東省廣州的穿搭博主去年7月時在F「小紅書」上分享了自己搭乘地鐵的照片，並寫道「感謝媽媽給的原生漫畫腿……」。照片中可見身材姣好的她，身穿清涼小背心、短褲，手提一個黑色大包包，看起來十分休閒優雅。不料，這張照片居然被網友使用AI軟體「一鍵脫衣」功能，讓這張日常的照片瞬間變成「裸照」，立刻在網路上遭到瘋傳。▲這個被AI軟體「脫光」的照片，在微博直接登上熱搜排行榜第一名。（圖／翻攝微博）而這張照片甚至直接衝上微博熱搜排行榜的第一名，超過了百萬人的關注，而微博網友們看到這張照片更是心生恐懼且感到憤怒，紛紛留言「趕緊把軟體發展者和軟體發展公司抓出來狠狠罰，罰到他這輩子都不敢做類似的事」「怎麼挺好的軟體到了國內都變了味」「侵犯隱私權了」「人工智能真的好可怕」「可怕！AI可不可以不要再控制和影響我們的生活了」「如果AI是一把刀，在小心這把『刀』傷人的同時，更應嚴厲打擊這些『持刀傷人』者」。▲平時這名網美在網路上分享的穿搭照尺度都很正常，並無過度裸露的情況。（圖／翻攝微博）而實際上，這名女子原本的照片並沒有暴露的穿著，尺度也都非常合理，且照片中如果有路人不小心入鏡，還會貼心地幫他們打上馬賽克，結果這些照片居然被有心人拿去惡搞。對此，這名女博主也做出回應，對粉絲們喊話「寶子們別慌，我都不慌。稍安勿躁我會進行相關的維權處理」。-更多鏡週刊報導三姊妹驗DNA驚覺「生父全是不同人」　母哭求保密：別告訴妳爸他瘋狂捐精全球擁550名小孩　遭列黑名單轉戰他國繼續捐為彰顯法老王權勢！　埃及出土逾「2000顆」公羊頭木乃伊震驚全球</t>
+          <t xml:space="preserve">▲北市于姓男子開車行經新竹尖石竹60線山路，遭張姓男子騎機車迎面撞上，還被張男提告求償。（示意圖／翻攝Google街景地圖）記者黃哲民／台北報導北市1位于姓男子2020年開車到新竹尖石旅遊，途經1處上坡彎道，突遭騎機車的張姓男子迎面撞上，于為閃躲張男後方另1輛機車，急打方向盤以致右側2輪滑落山溝，張男當場致歉「大哥對不起撞到你」，事後卻以被撞斷腿無法工作為由提告索賠92萬餘元，台北地院審結，認定張男下坡超速肇事、過失責任不是「先告先贏」，判張男敗訴確定。判決指出，本案發生於2020年4月27日中午12點多，于男開車載3位朋友於新竹尖石竹60線山路往東行駛，途經指標16公里處的上坡左彎道，于男沿著右側山壁前進，冷不防張男騎機車冒出來、迎面衝向他的車頭躲不開，張男左腿當場被撞成開放性骨折，又彈起再撞碎于男前擋風玻璃、頭臉皮開肉綻落地。于男緊急煞車，瞥見張男後方又駛來1輛機車，本能打方向盤起步向右閃避，一急竟造成右側2個輪胎滑進山溝。于男和3位乘客逃出車外報警，將受傷的張男送醫急救，張男當時口腔上頷骨骨折、眉角溢血，滿臉歉意向于男說「大哥對不起撞到你」，後方機車騎士正是張男的朋友，也罵張男「不是叫你不要騎那麼快嗎」。▲台北地審理張男提告的索賠案，判他敗訴確定。（圖／記者黃哲民攝）于男被依過失傷害罪嫌送辦，經新竹地檢署不起訴。不料張男卻到于男住居所在地的北院提告，指稱于男未靠右行駛肇事，害他受傷住院要請看護，出院不能工作沒收入還要買輔具，連同精神慰撫求償共92萬餘元。于男喊冤表示，事發地點路寬5米，並沒劃設分向線，他保持時速15公里到20公里車速，沿途緊靠右邊山壁行駛、輪胎幾乎壓在馬路邊緣，左轉時難免稍微靠向路中央，張男騎機車下坡右轉，視野應該比他上坡左轉更清楚，主因就是張男騎太快沒注意來車所致。法官查明現場沒監視器，本案3輛汽機車也無行車紀錄器，事故鑑定結果雖以現場撞擊碎片散落路中央附近，研判雙方會車都有疏忽，但法官翻遍警員繪製現場圖與所拍照片，沒看見「碎片」的相對位置，反而是警員記錄張男的機車沒有煞車痕跟刮地痕。法官認為事故地點限速30公里，若張男下坡沒超速，理應停得住或閃得過，張男聲稱于男開車須舉證自己無過失、否則就該賠償，法官指雙方都使用「動力車輛」，張男雖騎機車，也不能把舉證自己無過失的責任轉嫁對方，更沒有「先告先贏」的道理，一審據此判張男敗訴，張男上訴，再被北院二審駁回，于男免賠確定。 </t>
         </is>
       </c>
     </row>
@@ -1834,17 +1890,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>小S激吻吳慷仁畫面曝光！　羞認大尺度內容「需徵求家人同意」</t>
+          <t>屋主盤算入袋4800萬！　竹市待售豪宅見加價122%賣</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469528.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2468875.htm</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>記者孟育民／台北報導百聿數碼繼《華燈初上》後，邀集原創團隊打造非典型都會愛情影集《此時此刻》，修杰楷接下戲劇製作人的重任，更說動小S出馬，日前在釋出卡司預告中，小S激吻吳慷仁的畫面也曝光，掀起話題。小S今（29日）出席活動被問到此事，她則不願意多透露細節，不過坦言劇本的內容有先徵求家人同意。▲小S激吻吳慷仁畫面曝光。（圖／翻攝自YouTube／百聿數碼）小S睽違多年再出現在小螢幕，預告中激情片段成功吸到大家眼球，不過她對於演出內容保密到家，「還沒到我宣傳的時候，所以我不能多講，但我確實是跟一個很棒的演員合作，要接戲之前我們開會很多次，因為裡面的內容，需要徵求我家人的同意，所以你們大概可以想像一下，我最後還是鼓起勇氣接了，然後我現在不知道剪出來效果如何，還在剪接當中！」[廣告]請繼續往下閱讀...▲小S出席保養品代言記者會。（圖／記者孟育民攝）另外，小S的女兒們也很給力，不但接拍戲劇，更多次拍攝雜誌封面，成為最強星二代，她則說：「看到我女兒的作品很好的話，以前剛開始拍東西的時候，我會跟在她們旁邊，因為她們會害怕，他們會問我要擺什麼POSE，但她們現在接多了，我就想說我不要去好了，怕會變成討人厭的星媽，我現在都讓她們放水流，沒想到沒有媽媽的陪伴之後，我覺得更好，看到作品我都會跟我女兒說，媽媽真的是為妳們感到驕傲！」</t>
+          <t xml:space="preserve">▲新竹市有2豪宅開價8800萬元求售，成為區域最貴的待售個案，圖為新竹火車站前街景。（圖／記者項瀚攝）記者項瀚／新竹報導新竹市有2豪宅開價8800萬元求售，成為區域最貴的待售個案，其中龍山國小附近的屋主9年前僅以3984萬元購入，抬價幅度高達122%。在地房仲分析，竹北有不少大坪數豪宅，但新竹市供給相對稀缺，「供給量少，是屋主抬價的最大底氣之一。」《地產詹哥老實說》EP144／他曝房東漲租真實想法　通膨時代「該租或買房？」位於新竹市世傑路、龍山國小附近的豪宅，中高樓層戶以8800萬元開價求售，參照《591房屋交易網》的樓層與坪數，再對照實價登錄，推測該戶屋主是於2014年購入，2戶打通合併權狀約164坪，合計3985萬元，拆算單價約28萬元，如今等於抬價4842萬元、122%，幅度相當驚人。事實上，該戶也是目前新竹市區待售總價最高的豪宅。與其並列第一的是城隍廟附近的個案，高樓層開價同樣高達8800萬元，坪數稍大，權狀約182坪，但未確定前屋主的持有價格。▲新竹市有2個開價8800萬元求售的豪宅中，位於世傑路一帶的個案加價4842萬元、122%，幅度相當驚人。（圖／翻攝自Google Maps）台灣房屋竹科直營門市店長王瑞松表示，新竹市區內總價破4000萬元的豪宅供給相對稀缺，幾乎也沒什麼人釋出，「像本次世傑路一帶的個案，也是打通後才有這麼大坪數。供給量少，也成為屋主抬價的最大底氣，考量到打通、裝修的成本，翻倍加價並不意外。」王瑞松說，新竹市區的大坪數豪宅屋齡至少都有7~8年以上，但仍受部分竹科高階買盤關注。馨傳不動產智庫執行長何世昌表示，新竹縣市在2016年後就幾乎沒推什麼豪宅案，但今年329檔期在新竹市區有一大坪數案豪宅「利晉曙光」，「該案坪數規劃最大95坪，在地段條件優、建商品牌加持下，預估成交單價可達65~75萬元。」▲「利晉曙光」位於北大路近東大路，緊鄰曙光女中、曙光國小 。（圖／記者項瀚攝）《地產詹哥老實說》EP144／他曝房東漲租真實想法　通膨時代「該租或買房？」 </t>
         </is>
       </c>
     </row>
@@ -1854,17 +1910,21 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>告發陳宗彥免費召妓案　徐巧芯證人身分出庭：立委手上還有東西</t>
+          <t>金士頓蟬聯2022通路SSD出貨量全球冠軍　研調估市占達24%</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469567.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470365.htm</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve">記者劉昌松／台北報導台北市議員徐巧芯日前告發前行政院發言人陳宗彥，在台南市府任內接受性招待涉及不法，台北地檢署分他字案調查，29日首度傳喚徐出庭作證，除確認告發內容以及證據外，徐巧芯指出立委陳琬惠手上有當年台南地檢署檢察官曾聲請延長監聽，希望北檢能追查南檢是否有放水以及陳宗彥是否涉及貪污。▲前行政院發言人陳宗彥涉接受性招待貪污案，正由北檢偵辦中。（資料照／記者屠惠剛攝）台南地檢署在2014年偵辦酒店業者妨害風化案件時，意外發現當時在台南市府任職的陳宗彥疑似接受花酒招待，並報請分他字案調查，結果業者妨害風化案起訴判刑，陳宗彥案則在2015年簽結。民眾黨立委陳琬惠2月17日召開記者會爆料，陳宗彥擔任台南市府新聞處長及國際關係處處長時，屢次接受綽號「豆哥」酒店業者王孝瑋的性招待喝花酒，質疑南檢吃案，隔天陳宗彥請辭行政院發言人職務，法務部也立即要求台南地檢署對本案重分、重啟偵查。▲台北市議員徐巧芯為告發陳宗彥案到北檢出庭作證。（圖／記者劉昌松攝）徐巧芯接著到北檢告發陳宗彥涉及追訴時效25年的《貪汙治罪條例》，並控告當時承辦檢察官放水。檢察官29日首度傳喚徐巧芯出庭，庭訊過程約20分鐘後，徐巧芯向媒體表示，在提告後，得知立委陳琬惠手上還有一些資料，是陳宗彥案承辦檢察官曾聲請延長監聽，希望檢察官能進一步了解，因為「裡面提到喬消防，喬牌照，喬事情，加上免費召妓這個部分的話，形成對價關係，是非常嚴重的。」另外，徐巧芯也希望北檢調查當時南檢調查時有沒有放水的問題，因為有一本書曾提到，台南前秘書長陳美伶女士打過電話給南檢檢察長，表示雙方平常有聯絡管道的，會不會這個案子也跟他們幾位也有關係，這些都要靜待檢調調查。 </t>
+          <t>▲金士頓再度蟬聯2022通路SSD出貨量全球之冠。（圖／金士頓提供）記者高兆麟／綜合報導全球記憶體與儲存大廠金士頓宣布再次蟬聯全球SSD通路市佔第一，穩居市場領導地位。儘管全球消費級SSD需求量相較去年有所減少，平均市價的持續降低卻為終端市場帶來更多彈性，也進而推動了消費者對於金士頓旗下高品質SSD解決方案的青睞。+知名研調公司TRENDFOCUS的市佔數據顯示，金士頓為2022年全球排名第一的通路SSD供應商、市佔高達24%，消費級SSD出貨量更達到2,200萬。單看該年度第三季，金士頓的消費級SSD通路市佔更顯著增長至28.4%，儘管整體市場局勢充滿挑戰，仍然逆勢昂揚、呈現穩健的成長趨勢。+根據TRENDFOCUS資料顯示，2022年消費級SSD總出貨量相較去年共下降15%，歸因於2021年由疫情帶動的強勁PC需求退去後，市場面臨大幅反轉。其中針對PC市場的影響格外顯著，筆記本和桌上型電腦的單位出貨數量相較前一年，都不約而同下降約13%。儘管整體PC出貨呈下降走勢，但隨著模組價格跌至史上最低點、消費者先前購入的PC亦陸續進入升級或更換週期，消費級SSD也因而在此時迅速普及、搶佔市場版圖。+TRENDFOCUS表示：「2022年，桌上型電腦的單顆SSD搭售率已達到75%，隨著微軟要求以SSD取代HDD作為主要的PC儲存空間，推波助瀾下，更可望於2023年底前達到90%搭售率。此波強勁勢頭預計也將延續至2024年、衍生出許多成長空間。」+金士頓表示：「2022年的最新研調結果，再次印證了金士頓在通路SSD市場的領導地位。隨著全球更多消費者開始擁抱SSD帶來的效能優勢，金士頓將持續鞏固市佔、強化旗下涵蓋最新NVMe與傳統SATA解決方案的SSD產品線，以全方位陣容因應各式市場需求，包括面向主流消費者的NV2 SSD、針對高效能需求的KC3000 SSD、以及為極限遊戲玩家設計的Kingston FURY Renegade SSD等。在此，也要感謝來自合作夥伴、供應商與客戶的支持，方能共創這份傲人成果！」[廣告]請繼續往下閱讀...</t>
         </is>
       </c>
     </row>
@@ -1874,17 +1934,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>川普最新民調大幅領先佛州州長！共和黨2024初選全美支持度曝</t>
+          <t>南韓將主辦第3屆民主峰會　美韓：南韓為印太地區「民主主義」明燈</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469526.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2469853.htm</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>▲川普在共和黨總統初選民調中取得50%支持度。（圖／達志影像／美聯社）記者王佩翊／編譯美國最新民調顯示，在共和黨2024年總統初選候選人方面，前總統川普的全國支持度為50%，遠超佛羅里達州州長德桑蒂斯（Ron DeSantis）26個百分點，其次則分別為前副總統彭斯（Mike Pence）、美國前駐聯合國大使海利（Nikki Haley）。不過德桑蒂斯在關鍵的愛荷華州支持度仍領先川普。根據《衛報》報導，哈佛大學美國政治研究中心（Center for American politics Studies at Harvard）與哈里斯民意調查（Harris Poll）27日公布一項最新的聯合民調。結果顯示，川普在全球的支持率為50%，而他的最大對手德桑蒂斯則是24%。川普3月的全國支持率比2月增加了4個百分點。▲德桑蒂斯在愛荷華州的民調結果些微領先川普。（圖／達志影像／美聯社）目前尚未宣布參選的前副總統彭斯則是以7%的支持率排名第三，第四名是2月宣布參選的美國前駐聯合國大使、前南卡羅來納州州長海利，占5%。由Axios所公布的民調結果卻顯示，德桑蒂斯在關鍵州愛荷華州領先川普8個百分點。而在新罕布夏州的民調中，德桑蒂斯與川普持平。MSNBC主持人哈桑（Mehdi Hasan）認同Axios的民調並強調，「州民調比全國民調更重要！尤其是在最先投票的州。」</t>
+          <t xml:space="preserve">▲南韓外交部長朴振30日在第二屆民主峰會印太地區會議上致開會詞。（資料照／達志影像／newscom）記者羅翊宬／編譯美國總統拜登從2021年12月起主辦第一屆的「民主峰會」，以線上方式行視訊峰會，第二屆的民主峰會則於本月29、30日舉辦，美國、南韓、荷蘭、哥斯大黎加等同為主辦國，至於第三屆民主峰會則由南韓主辦。美國與南韓在聯合聲明中指出，雙方共享民主主義與人權價值。拜登表示，他非常歡迎南韓能夠主辦民主峰會。根據《韓聯社》，拜登與南韓總統尹錫悅昨（29）日發表一份共同聲明，表示南韓將主辦（host）第三屆民主峰會，「美國與南韓共享民主、尊重人權等價值觀，而南韓的民主制度正是印太地區的明燈。向全球證明，民主主義能夠打造出持續為國家帶來國防安全和繁榮的所需環境。」聲明中指出，「最近幾年來，南韓提高政府的透明度、保障具有效果的牽制和平衡、制訂出符合大眾要求的法律，在南韓民眾的持續努力下，使南韓登上全球領袖國家之位。」不過報導卻指出，目前還不清楚第三屆民主峰會將於何時舉辦，有可能是在明年舉辦，至於是由南韓挑大樑單獨主辦、或是和美國以對等資格共同主辦，亦或南韓取代美國主要舉辦國的地位，和其他多個國家共同主辦，目前則尚未明朗化。美國華府高層透露，對於南韓將主辦第三屆民主峰會，拜登表示相當歡迎。 </t>
         </is>
       </c>
     </row>
@@ -1894,17 +1954,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>中美洲規模最大的巴拿馬商展　台灣館與全球30國共同參展</t>
+          <t>吃翻澎湖！扎實手作飯糰從清晨排隊到打烊　仙草剉冰清爽好消暑</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469563.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2465979.htm</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲台灣館由中華民國駐哥倫比亞代表處經濟組組長李光興(左二起)、主辦單位巴拿馬商工農總會榮譽主席Aurelio Barria、現任主席Marcela Galindo、臺灣館團長永旨實業有限公司黃鉞凱、巴拿馬僑務委員陳武俊、及巴拿馬台商會會長盧俊良等共同揭幕。（圖／貿協提供）記者張佩芬／台北報導睽違三年，經濟部國際貿易局委託外貿協會集結16家台灣優良廠商，在中美洲規模最大的「巴拿馬國際商展」設立台灣館展出。該展昨(28)日盛大開展，今年計有來自全球30國參展，使用650個攤位，規模已回到疫情前水準。第37次組團參展的台灣館在新落成的巴拿馬會議中心首度亮相，台灣館位於展館中心位置，象徵環保永續發展的綠色裝潢吸睛，現場人氣鼎沸。展出產品多元，包括運動健身器材、醫療健康儀器、專業美髮沙龍產品、安全帽防護罩多功能防霧遮光偏光貼膜、VGA/HDMI等各式網路連接線、精品咖啡器材、日曬製成麵、健康飲品、瓦斯噴槍、衛浴及園藝用五金、石材、工業用風扇、鼓風機及抽水馬達等，參展陣容堅強，充分展現台灣產業多樣化及優質的整體形象。[廣告]請繼續往下閱讀...台灣館開幕式由我駐哥倫比亞代表處經濟組組長李光興、主辦單位巴拿馬商工農總會現任主席Marcela Galindo、榮譽主席Aurelio Barria、巴拿馬台商會會長盧俊良、巴拿馬僑務委員陳武俊、及台灣館團長永旨實業公司黃鉞凱等共同主持。巴方代表熱烈歡迎台灣代表團疫情後重回巴拿馬參展，並預祝台灣館生意興隆。本次台灣館參展商中，食味鮮公司把國內廣受消費者歡迎的手工日曬「PaMi曾拌麵」帶至巴拿馬，展期間舉辦試吃活動，攤位傳來陣陣飄香，吸引大批拉美觀展者前來臺灣館嘗鮮，當地食品進口商對將該公司產品引進拉美表達高度興趣。宇鈞先端公司獨家研發之高品質光學鏡片薄膜，具偏光、防霧和疏水等功效，廣泛應用於安全帽、運動眼鏡、自行車防護面罩、專業醫療面罩等，獲得多項國際專利，更大獲拉美消費者青睞。本次台灣參展業者多表示巴拿馬商展高度國際化，除了當地買主，更不乏來自拉丁美洲各國的觀展商，為我商在拉丁美洲曝光的絕佳平台。29日起將進行連兩日的展中洽談會，我參展業者邀約滿檔，已摩拳擦掌準備拿下訂單。2022年台巴間雙邊貿易額達1.14億美元，較2021年成長23%。多年來台商以地理位置優越的巴拿馬為基地進入拉美市場，成效良好。巴拿馬貿易上高度倚賴進口，IMF預測該國2023年GDP成長可達4%，數據領先拉美諸多重要經濟體，為台商在該區域值得持續關注之潛力市場。 </t>
+          <t xml:space="preserve">文、圖／滿分的旅遊札記澎湖是夏季最棒的渡假勝地，除了玩拍景點，體驗水上活動，來到澎湖也一定不能錯過好吃的在地美食，號稱澎湖必吃三寶有花枝丸、鮮蚵和小管麵線，另外還有仙草冰、烏龜燒、飯團和燒餅。本篇整理超過20個澎湖美食，每間都都好吃，從古早味的早點、冰品、小吃到精緻餐廳，想吃什麼就吃什麼，2023澎湖花火節開始，一起來吃遍澎湖。►更多吃喝玩樂大小事，快追隨旅遊雲官方Instagram二信早餐走跳澎湖早餐推薦必吃這一味「二信早餐」，二信早餐位在馬公市區，文康美食街附近，早上5點半就開始營業，1130就休息打烊。二信早餐是手作飯糰專賣店，營業時大排長龍，想吃二信飯團的朋友，請務必早起來，二信飯團超級夯，滿分6點來訪就要排隊，小小店面，卻有六個姨婆和伯伯手腳俐落在包飯團。二信早餐的飯團真的好好吃，一顆35元，除了常見的糯米，也有紫米飯團可以選擇，飯團大小適中，但每一顆卻都非常的扎實，內餡料飽滿，有散蛋、菜脯、肉鬆、油條等，米飯香Q好食，滿分個人偏愛紫米飯團，也因二信飯團太有名，也是澎湖民宿指定的早餐。鐘記燒餅鐘記燒餅也是澎湖相當有名氣的早餐之一，位在熱鬧的馬公文康街上，現點現作，鐘記燒餅招牌燒餅是干貝蔥蛋油條燒餅，一份70元，份量飽滿又扎實。鐘記燒餅的口感很特別，入口是鬆軟的，滿分個人覺得有點麵包，咀嚼時很香，再搭配干貝小魚乾醬，鹹香味提升很特別，當然，還有金黃炸油條和美味的蔥蛋，鐘記燒餅多層次的口感，也讓人印象深刻，請注意：鐘記燒餅只營業到11點，要買要快。益豐豆漿說到澎湖的人氣早餐街，益豐豆漿也是排隊美食，益豐豆漿主打中式早餐，菜單品項相當豐富，招牌有燒餅、蛋餅、饅頭、花捲和菜包，另外還有蘿蔔糕、銀絲捲、豆漿和米漿，拿到菜單會很開心，</t>
         </is>
       </c>
     </row>
@@ -1914,17 +1974,18 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>連接3通台積電電話　他一看職缺愣「多缺人？」內行曝超頂薪資</t>
+          <t>陳庭妮今現身哽咽！老爸欠稅進看守所　尚未提清償計畫、辦接見</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469011.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470350.htm</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲原PO接到3通台積電技術員打來的電話。（示意圖／記者施怡妏攝）記者施怡妏／綜合報導台灣的半導體產業享譽國際，尤其是台積電（TSMC）更是領先全球，被譽為台灣的護國神山，一名網友表示，最近打算換工作，把人力網公開自己的履歷，也投了台積電技術員的職缺，結果台積電技術員打電話給他3次，竹科南科都有，但是薪資並沒有讓他很心動，不禁好奇問「很缺人嗎？」原PO在PTT的Tech_Job版發文，「台積電技術員一直打來？」自己的學歷很差，年紀也不小了，目前工作很普通，年薪大約60萬元而已，優點是很輕鬆，不過擔心未來會有變數，若遇到更喜歡的職缺就會轉職，所以把人力網的個人履歷打開，也投了台積電技術員。[廣告]請繼續往下閱讀...原PO表示，至今已經接到台積電技術員的電話3次，竹科、南科都有，他上網看了一下工作內容，發現不輕鬆，而且年薪才70萬元起跳，「沒有多到我需要離開現在的工作，再加上目前工作也還沒有變數」，不過台積電積極找人的態度讓他很訝異，「台積電技術員到底多缺人？」貼文一出，不少網友指出，雖然寫70萬元，但是百萬年薪不是夢，「台積第一年70萬元，第二年就破百了吧」、「3年破200萬元沒問題，看你想不想翻身」、「台積電做三年，都比你現在做三年高不少了」、「年薪70萬，分紅再加1百萬啊」、「加班費加一加不只70萬元，還有分紅」、「70萬元會漲到破百，看你這60萬元以後能漲到多少」。也有不少人羨慕原PO，「我連續兩年投遞官網都無聲卡」、「碩士畢業接不到技術員電話，跪求內推」、「官網、104、就職博覽會都投了，沒電話邀約，也沒邀約信，怎麼待遇差這麼多」。 </t>
+          <t xml:space="preserve">▲藝人陳庭妮父親欠稅被管收。（圖／彰化分署提供，以下同）記者唐詠絮／彰化報導陳庭妮父親陳奕樑經營「豪嘉食品有限公司」，卻欠稅418萬，稱自己年歲已高無力繳納稅金。法務部行政執行署彰化分署強制執行，並聲請管收獲准，25日下午將陳男解送彰化看守所執行管收。陳庭妮30日首度露面，眼眶含淚語帶哽咽的說，已請律師協助處理，但截至今天下午，彰化看守所及彰化分署尚未收到陳庭妮或是其家人申請。彰化分署主任執行官李鴻明表示，到今天下午，未收到陳庭妮或是其家人、律師有與承辦單位連繫，依循往例，若家人代父償清欠稅款項，提清償計畫一次還清，若先繳前期款項再分期清償，皆要執行官同意，再依程序呈報，陳奕樑即可獲得釋放。而彰化看守所秘書韓保貴表示，陳奕樑進入看守所至今，情緒及飲食一切正常，目前依照防疫相關規定，還需快篩，10天內只能電話、或是電腦接見，今天尚未出現陳庭妮有委任律師申請電話或是電腦接見。彰化分署指出，陳男出資經營肉品公司持股99％，於2002年4月起至99年12月擔任公司負責人期間，明知公司於欠稅年度後仍持續有營業收入卻故意不繳納，反而將2006年度盈餘117萬餘元全數分配予股東。+豪嘉公司名下僅有登記一輛1995年份出廠車齡逾20年的老舊車輛，殘餘價值甚微無執行實益，除扣得該公司的銀行存款2萬2749元外，已查無其他財產可供執行。國稅局於2007年2月間將稅單送達後，陳男陸續提領該公司的銀行帳戶存款93萬餘元，並將高達1582萬餘元的貨款匯出至紐西蘭、澳洲，提領及匯款金額合計1675萬餘元，卻拒不繳納欠稅。經行政執行官積極蒐證調查，發現負責人陳男有履行能力卻故意不繳納，且就應供強制執行財產有處分脫產的情事，遂向彰化地院聲請管收陳男，但因管收要件事實認定及法律見解歧異，遭彰化地院駁回聲請。後經承辦行政執行官補足證據、援引司法院大法官第588號解釋理由書意旨，並提起抗告，終於在歷時近一年半載，經最高法院廢棄駁回聲請的裁定後，終獲台中高分院裁定准予管收陳男，惟陳男以年事已高無謀生能力拒不提出清償方案，彰化分署為維護租稅公平正義，隨即將陳男送進彰化看守所執行管收。 </t>
         </is>
       </c>
     </row>
@@ -1934,17 +1995,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>快訊／房貸、車貸、卡債緩繳延半年！　年底前繳都來得及</t>
+          <t>兩岸學生面對面　馬英九提德法從世仇變歐盟中堅：為何兩岸做不到？</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469568.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470316.htm</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲房貸、車貸、卡債再延半年，今年年底繳清都來得及。（圖／取自免費圖庫pixabay）記者陳依旻／台北報導為協助民眾於疫後經濟復甦過程順利調整，金管會於今（29）日協調銀行延長信用卡及其他個人貸款之債務協處機制受理期間至今年12月底。金管會表示，由於疫情衝擊個人經濟，已分別於109年2月18日、5月29日、12月25日、110年6月2日、11月30日及111年5月19日函請各銀行對受疫情影響還款有困難者，就個人金融產品（包括房貸、車貸、消費性貸款、信用卡款項等）提供緩繳或展延3至6個月等措施，由於該等受理展延期限將於今年6月底屆至，今日決定延至今年年底。[廣告]請繼續往下閱讀...金管會今邀集中華民國銀行商業同業公會全國聯合會及相關銀行進行討論，達成下列會議結論：一、協處機制適用對象：受疫情影響還款困難之民眾。二、協處機制產品範圍：個人金融產品(包括房貸、車貸、消費性貸款、信用卡款項等)。三、協處措施：(一)信用卡款項：信用卡帳單之應付帳款得申請緩繳3至6個月，緩繳期間免收違約金及循環利息。(二)其他個人貸款：本金或利息得申請展延3至6個月，展延期間免收違約金及遲延利息。四、協處機制期間：受理申請期限由今年6月底止延長至今年12月底止。民眾如受疫情影響還款有困難者，可於受理期限內向銀行申請緩繳或展延3至6個月，申請不以一次為限。五、個人信用紀錄方面：展延期間個人信用紀錄不受影響。金管會表示，民眾如確實受疫情影響且還款有困難者，可在受理期限今年12月底前向往來銀行提出申請，倘已經申請過展延的民眾，如仍持續受疫情影響者，亦可在上述期限內再向銀行提出申請。金管會希望銀行協助客戶恢復疫後正常經濟運作，客戶也要珍惜自己的信用。 </t>
+          <t xml:space="preserve">記者任以芳、魏有德／武漢－台北 連線報導前總統馬英九今（30）日下午帶領參訪團的28名台生，首次前進歷史悠久的武漢大學，在該校校史館與35名在校陸生進行對談交流。學生們以掌聲歡迎馬英九入場，馬英九也向左右兩側的學生們揮手，回應學生們的熱情。馬英九致詞時以德法兩國暨不同文也不同種，卻能共同成為歐盟的中堅力量，「為什麼兩岸做不到？」▲馬英九在武漢大學致詞。（圖／記者任以芳攝）馬英九在致詞時表示，他從事兩岸工作37年，第一次來到大陸，真的是耽擱太久，「我在卸任之後，在東吳任教，一半學生來自大陸，發現兩岸學生在一起可以創造很多火花，非常有趣。可惜一方面因為疫情，一方面政府換了主導人士，兩岸關係一落千丈，實在感到非常難過，非常痛心。」馬英九還以法國作家的《最後一堂課》為引，「德法兩國暨不同文也不同種，在交流下變成歐盟最主要的力量，這是多困難的事情，他們都做到了，為什麼兩岸做不到？」馬英九強調，「這讓我想到，兩岸還有很多事可以做，很重要的一點就是讓兩岸年輕人多接觸，就可以增加一分友善，減少一分敵意，讓雙方逐漸融合在一起，希望武大同學可以到台灣來，讓交流成為長期的工作。」▲兩岸大學生在武漢大學進行交流對談。（圖／記者任以芳攝）武漢大學校長張平文和馬前總統雙方致詞完畢後，隨即展開兩岸學生間的「閉門交流」，隨行媒體只能先出場守候。馬英九也在學生交流結束後提到，希望能在夏季擴大與陸生交流，透過夏令營等任何方式，可以再研議，同時，他也拿出主導編修的《中華大辭典》和數本個人執政經驗的相關書籍贈與武漢大學。▲武漢大學校長張平文。（圖／記者任以芳攝）據了解，武漢大學在大陸有著「最美校園」之稱，每年的櫻花季更是要錯峰限流，才能讓蜂擁而至的遊客能順利觀賞櫻花。為了迎接馬英九的到來，武漢大學也派出身穿棒球款大學外套的女學生擔任接待，讓整場活動顯得格外青春活潑。 </t>
         </is>
       </c>
     </row>
@@ -1954,17 +2015,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>台積電待3年能「五子登科」？網揭殘酷真相：少做夢了</t>
+          <t>就在身後！警察開窗抓人一臉困惑　逃犯躲屋頂超淡定</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469539.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2469942.htm</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲台積電是不少科技人心目中的理想企業。（圖／路透）實習記者蘇敏禎／綜合報導晶圓代工龍頭台積電薪水高、福利好，不少人認為進台積電就是「人生勝利組」。就有一名網友表示，雖然台積電很操，但聽說「待3年能五子登科」，且裡面正妹多，好奇是否屬實。不料，被許多留言戳破幻想。一名網友在Dcard以「台積電3年讓你五子登科」為題發文，表示聽說台積電雖然很操，但是公司3年就可以讓你五子登科，而且台積電的作業員女生多、正妹多。很多製程工程師找線上當老婆「大概三年左右就可以存到頭期款買房結婚，請問這是真的嗎？」[廣告]請繼續往下閱讀...貼文一出立即引發討論，不少人回覆，「有沒有五子登科我是不知道，但是一年爆肝，三年肝指數破表」、「待得住再說」、「第一年根本領不滿，第二年懷疑人生，第三年可能就離職了」、「老婆外遇，假日拿車跟小王出去玩，小孩不是自己的，房子只有睡覺用，工時長沒命花錢」。也有人直言，「至少要工程師以上等級，一般技術員就只是一份長期穩定+薪資不差的工作」、「對工程師來說五子登科算是真的，以下就算了」、「作業員大部份都能當你媽了啦，年資比你老闆還高，少做夢了」。省錢大作戰！超夯優惠等你GO大罐又便宜 ►衣物徹底洗淨「妙管家抗菌洗衣精4000gx4瓶」限時↘$3991顆不到7元►毛孩專用 Dr.好骨力　讓愛貓愛犬健康好靈活　限時↘$399 </t>
+          <t xml:space="preserve">▲利卡當時爬到窗外，躲在屋頂上，想逃過警方追捕。（圖／翻攝自Crown Prosecution Service）記者詹雅婷／綜合報導英國近期一張「警察抓人」的照片受到關注，只見員警推開窗戶四處張望，表情看起來一頭霧水，然而正在追捕的逃犯就躲在警察的身後，對方雙腳踩在屋頂窗戶的窗框上，兩人之間的距離超級近。綜合BBC、每日郵報報導，這起事件發生在今年2月，鎖匠前往這棟建築物換鎖時感到不對勁，發現屋內疑似有大麻裝置，決定報警處理。警方獲報後到場進行搜索，除了找到大麻，也發現有人居住的跡象，於是展開追捕。32歲阿爾巴尼亞籍男子利卡（Etmond Lika）當時也在現場，爬到窗外躲在屋頂上，企圖藉此逃過警方的追捕，不過最終仍落網，坦承參與種植大麻。如今他被判入獄2年4個月。不過警方當時追捕利卡的一張照片受到關注，當時利卡就躲在屋頂窗戶的窗框上，而警方則是把頭探出窗外張望，似乎沒發現利卡其實就在身後，兩人距離非常近。報導指出，利卡在英國無犯罪前科，去年9月乘船渡過英吉利海峽來到英國，出於經濟因素離開阿爾巴尼亞，想獲得更好的工作機會。利卡辯護律師比斯利（Olivia Beesley）說，利卡收取每日100英鎊（約新台幣）的費用住在這處房子，「他想要工作，但他現在已經知道應該透過正常管道尋求工作。」 </t>
         </is>
       </c>
     </row>
@@ -1974,17 +2035,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>今晚起「雨彈連轟到周末」　雨勢最猛2區出爐！清明收假日又變天</t>
+          <t>快訊／瓦礫堆看見手指、頭髮！台中工人遭埋6小時　持續搶救中</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469510.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470360.htm</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲台灣附近雲量多，今晚北部、宜蘭降雨機率高。（圖／氣象局）記者李宜秦／台北報導今晚到明日受到鋒面通過及東北季風增強影響，中部以北、宜花東降雨機率高，尤其北部、宜蘭雨勢較明顯，周五到周日華南雲雨區東移，仍是斷斷續續有雨的天氣型態，下周一、二水氣減少，天氣趨於穩定，但周三又會有鋒面靠近，北部、宜蘭再度轉雨。[廣告]請繼續往下閱讀...▲今晚鋒面靠近降雨機率增加。（圖／氣象局）氣象局預報員廖經翔表示，今晚到明日受到鋒面通過及東北季風增強影響，中部以北、花東有短暫陣雨，降雨集中北部、宜蘭，全台雲量都偏多，明日北部、宜蘭高溫略降至21到24度。周五到下周日華南雲雨區東移，水氣會一波波移入，中部以北、東半部容易有雨，全台雲量偏多。下周一、二天氣趨穩，剩下東半部有雨，午後中部以北山區有局部陣雨。周三又會有鋒面靠近北部海面，北部、宜蘭可能轉為短暫陣雨的天氣。▲▼未來一周天氣趨勢。（圖／氣象局） </t>
+          <t xml:space="preserve">記者許權毅、陳韻如／台中報導台中市中區台灣大道一段299巷30日上午發生房屋倒塌，現場3人受困。稍早救出其中一名蔡姓工人，但他送醫後因傷重不幸宣告不治，其餘兩人仍受困其中。為了加快搜救進度，搜救人員派出搜救犬前往搜救，並在瓦礫堆約1米深處發現生還者跡象，而稍早消息傳出，搜救人員在瓦礫堆看見受困者露出的手指及頭髮，目前正設法將人搶救出來。▲台中房屋倒塌，仍有2人受困，搜救人員瓦礫堆看見露出的手指及頭髮         。（圖／記者許權毅翻攝）據了解，現場為連棟透天民宅，其中一處正在施工，但沒想到隔壁百年屋齡的紅磚老屋卻不明原因倒塌，現場3名工人當場遭到活埋。警消獲報到場後，率先救出一名年約60歲蔡姓工人，但當下他已無生命跡象，緊急送醫搶救仍宣告不治。現場還有52歲陳姓及41歲吳姓2名工人受困。▲▼陳姓、吳姓工人受困於瓦礫堆及鐵皮屋頂下，搜救人員正積極搶救中。（圖／台中消防提供）為了加速救援進度，搜救人員出動2隻搜救犬前往協助救援，而稍早最新消息傳出，搜救犬在進入到房屋後半部的瓦礫堆約1米深處，發現到有生還者跡象，目前搜救人員僅能徒手或使用小機器搬運磚塊，以避免受困者受到二次傷害。而稍早傳出消息，搜救人員在工人受困的6小時後，於瓦礫堆看見露出的手指及頭髮，經研判可</t>
         </is>
       </c>
     </row>
@@ -1994,17 +2055,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>王彩樺醉酒撞車門「頭暈在電梯打轉」　陳亞蘭受不了：下次睡車庫</t>
+          <t>新車星級評等！業代搶先曝光　消基會還原「神秘客」執行過程</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469236.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470335.htm</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>記者林奕如／台北報導TVBS 八點檔《加油喜事》第三季《守住愛情》新登場，武、林兩家媽媽王春花（陳亞蘭 飾）、陳秋月（王彩樺 飾）為了守護子女的婚姻，搞定周曉涵、周孝安的「分房危機」，決定聯手出擊。沒想到，陰錯陽差地讓兩位媽媽酒後泯恩仇，哭哭笑笑重拾當年的閨密情誼。▲閨密醉後相擁，陳亞蘭王彩樺大和解。（圖／TVBS提供）劇中，陳亞蘭、王彩樺原本想藉灌醉周曉涵，讓她和周孝安共枕眠，卻遭小孩識破，反而變成兩人醉倒、相擁而眠。問及陳亞蘭、王彩樺平時的酒量和喝醉的糗事，王彩樺提到自己常與朋友聚會時小酌，稍微紓壓一下。但某次喝完，上車時直撞車門，回到家又因頭暈在自家電梯裡打轉，被陳亞蘭笑說：「你是萬花筒喔！我怕你把電梯弄故障，下次睡車庫就好。」[廣告]請繼續往下閱讀...▲王彩樺、陳亞蘭曝喝醉糗事。（圖／TVBS提供）工作繁忙的陳亞蘭表示自己不太喝酒，但屬於「不喝則已，一喝驚人」的類型，佩服王彩樺還有時間聚會，她說：「我連睡覺的時間都沒有。」想喝的時候，就會像先前忙完舞台劇公演，約王彩樺、白雲、孔鏘等好友一起慶祝，陳亞蘭幽默地說：「但是那天也還好，加上我家沒有電梯，所以不會翻滾。」趁機調侃王彩樺，讓現場笑翻。說到戲裡母親們擔心兒女冷戰而出手幫忙，現實生活中，陳亞蘭、王彩樺都選擇不干預別人的感情事。王彩樺認為自己不是當事人，無法靠單方面說法去論斷誰對誰錯。遇到雙方吵架，就是陪伴、安慰、喝一杯，陳亞蘭在一旁認同的說：「我加一。清官難斷家務事，但通常會先勸和不勸離啦！畢竟能在一起是緣分。」● 《ETtoday新聞雲》提醒您：喝酒不開車，開車不喝酒。</t>
+          <t xml:space="preserve">▲消基會董事長黃怡騰(左)、交通部路政司長林福山(中)、車安中心執行長周維果(右)說明新車安全評等結果。（圖／記者李姿慧攝）記者李姿慧／台北報導交通部公布首批「台灣新車安全評等」結果，TOYOTA  COROLLA  CROSS、TOYOTA  RAV4獲5顆星，與立委爆料業代搶先公布5星結果吻合，業代更高調宣傳賣的車要做評等。車安中心表示，當時評等結果尚未出爐，純屬業代臆測。消基會也親自還原神秘客購車過程，業代在交車換約時才得知，已無法對車子做任何改變。交通部及車安中心今公布首批台灣新車安全評等結果，TOYOTA  COROLLA  CROSS、TOYOTA  RAV4皆獲5顆星，不過立委林俊憲日前爆料，銷售業務員早知賣的車是做碰撞測試和安全評等，且還搶先公布獲五星級，質疑有作弊嫌疑，嚴重傷害公信力。[廣告]請繼續往下閱讀...車安中心執行長周維果今(30日)表示，目前國內新車安全評等購車作法比國外更嚴格，由消基會派秘密客，事先經過教育訓練，嚴格要求秘密客用消費者身分購買，甚至告知車子需要領牌，但後續交車當下，確實業代看到新車貼上安全評等封條時以及合約轉換，才知道用途，但交車時車子已經交到現場，也貼上封條，車廠無法動手腳，該作法比國外車廠直接送新車到實驗室測試更嚴格，後續購車過程將評估更精進做法，未來會等秘密客領車領牌後，再去秘密客家中取車貼封條。交通部路政司長林福山表示，這是國內第一次進行新車安全評等作業，外界關心會不會有選手車或特製車，但市售小客車都是大量製作，不像遊覽車屬可特別訂做，交通部特別要求車安中心購車執行不能由車安中心購買，要由公正第三方處理，消基會願意來扮演這樣角色，購置車子要拉走時貼封條，銷售員看到才知該車要做新車安全評等，但已不可能對車子做些改變，網路有相關誤解。▲交通部路政司長林福山。（圖／記者李姿慧攝）林福山強調，後續車型購買時，相關變更契約將會等新購車輛拉到車安中心貼封條後，再來進行契約變更，目前第二季安全評等車輛已經購買，第三季測試車輛採購將採更嚴謹作法。消基會董事長黃怡騰也親自還原購車經過，黃指出，採購志工都有過人員訓練，且在各地不同經銷據點採購，不會同一組人出現同一銷售點被認出，採購TOYOTA  COROLLA  CROSS時，銷售業代不知道購買志工背後有消基會和車安中心支持，等到要交車當天要繳交牌照費用和選牌，為了替採購單位省下牌照稅，且派出拖車要直接將車子拉走，銷售員當下才知道車子不掛牌且要換約，詢問時有告知要評等用，但那時候車輛已到貨交車，就算知道車子用來做評等也已不能改變甚麼。▲消基會董事長黃怡騰。（圖／記者李姿慧攝）黃怡騰也說明，另購買TOYOTA  RAV4，當時進口8輛車，他們購買4輛，神秘客親自到場指定要哪幾部，銷售員在採購過程並未參與決定，未來消基會也將與車安中心密切配合，神秘客都有經過訓練不會被識破，會達到公正要求。至於有車商業代搶先在網路上公布評等5星結果，周維果表示，確實有業代在臉書上貼出「榮登五顆星」文字，這兩型車在歐洲評等進行上做了與國內相類似試驗，也得到五顆星，和泰內部教育訓練被經銷商業代問到對發布兩款車星等有沒有信心，和泰日本技術原廠事先也做過技術分析和確認，因此提供資訊讓業代增加信心，但純屬個人事先臆測和銷售上競爭策略。周維果強調，經銷商業代雖有提到五顆星，但沒有講出四大領域得分狀況，加上當下網路貼出時間點，新車安全評等連分數都還沒出來，因此保證沒有評等結果外洩，純屬經銷商訊息判斷臆測。 </t>
         </is>
       </c>
     </row>
@@ -2014,17 +2075,20 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>松菸新據點！238坪「Island133」試營運　伸展台旁享用花草系餐點</t>
+          <t>台達電宣布收購浙江科恩特電機19%股權　強化工業自動化</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469547.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470355.htm</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>▲繼「光一 一個時間」後，雄獅集團「Island133」即日起試營運，為跨足餐飲、多元策展之里程碑。（圖／記者彭懷玉攝）記者彭懷玉／台北報導松菸又有新景點，繼「光一 一個時間」後，雄獅集團將生態池旁的機器修理廠改造成「Island133」，作為多元策展和餐飲空間，⾸波推出「Root to Table向世界公開台灣可食花草」展覽，向大眾介紹全台133種可食性花草，增添質感打卡點。▲內部空間以伸展台為靈感，大量使用金屬面材，保留舊有機械金屬感的歷史元素。（圖／記者彭懷玉攝）「Island133」前身為1939年日治時期松山菸廠「工作作業場」，戰後改名機器修理廠。雄獅集團董事長王文傑說明，「Island133」是松菸的中島、台北的中島，也是台灣的中島，為讓台灣被世界看見，因此鎖定80年松山菸廠歷史的松山文創園區進行佈局，以城市綠洲及中島生活為概念設計。▲Island133內部空間以伸展台為靈感，打造時尚上菜秀的儀式感氛圍。（圖／雄獅集團提供）低調沈穩的238坪空間，散發出鳴日號的美學氣息，正是委由鳴日廚房設計師邱柏文參與設計。內部空間以伸展台為靈感，大量使用金屬面材，保留舊有機械金屬感的歷史元素。至於鑲嵌在老屋之中的策展空間，⾃由收放的牆⾯可依季節變換展演主題，未來將邀請世界各地品牌於限定期間進駐，或讓新型態⽣活家及創作者在知識中傳遞⽣活體驗。▲▼「Root to Table向世界公開台灣可食花草」今（29）日起展至6/30，透過植物學家、採集專家的視⾓重新解密133種台灣可食花草。（圖／記者彭懷玉攝）首波活動邀請CN Flower創辦人凌宗湧策劃「Root to Table向世界公開台灣可食花草」展覽，展期為今（29）日起至6/30，透過植物學家、採集專家的視⾓重新解密133種台灣可食花草，把「Farm to Table」的經濟價值，往前推及植物的完整⽣命歷程，最後才是餐桌與⽣活。▲米其林主廚林明健談論台灣花草的獨特風味；CN Flower凌宗湧說，我想開⼀家花店，⼀家「可以吃」的花店，且充滿台灣的風味。（圖／記者彭懷玉攝）餐飲則以創新歐陸餐酒為定位，期間品嚐得到CN Flower聯名期間限定套餐，「啟航」透過解構日式料理軍艦捲，將台灣的當季水果、白米脆餅、海苔、海膽與金蓮花結合；「寶島長春」以台南美術館中收藏的巨幅水墨畫《寶島長春圖卷》為靈感，使用爐烤、川燙、醋漬、炙燒、油封等料理手法處理在地食材；「我喫了一座森林」打造餐桌上的城市綠洲，把過貓、山葵、馬告等在地特殊香草，包入特製的圓形苔癬脆餅中，打造充滿森林感的料理。▲「綠海霧靄」極黑和牛佐以台灣在地蔬菜如紅鳳菜泥與龍鬚菜，點綴紅酒牛肉醬汁，呈現主廚對於擎天岡景觀之意象。（圖／記者彭懷玉攝）▲「啟航」為套餐第一道開胃小點，象徵「開始探索島嶼」的寓意，也象徵Island133的品牌正式曝光。（圖／記者彭懷玉攝）此外，特展中也特別邀請日本咖啡品牌、和菓子搭配台灣在地香料，推出期間限定聯名銅鑼燒、紅豆大福、櫻花氣息與茉莉花香拿鐵等，還有台灣在地選品限期進駐，將花草、香料和食材變成通往環遊世界的任意門。▲雄獅集團董事長王文傑（中）表示，雄獅傾力打造「世界的台北」，並鎖定具80年松山菸廠歷史的松山文創園區進行佈局。（圖／記者彭懷玉攝另外，有美食界奧斯卡之稱的2023「亞洲50最佳餐廳」（Asia's 50 Best Restaurants） 28日晚間在新加坡頒獎，去年掉出榜外的MUME再度擠進拿到第45名，而去年第38名的logy掉到第57名，去年第45名JL Studio則是連100名也沒進入，MUME成為唯一一家名列「亞洲50最佳餐廳」的台灣餐廳。</t>
+          <t>▲台達電宣布收購浙江科恩特電機19%股權。（圖／翻攝自YouTube／台達集團官方頻道）記者高兆麟／綜合報導台達電今（30）日宣布將透過子公司台達電子（香港）有限公司以人民幣8170萬元（約合新台幣3億5853萬元），透過收購股份之方式取得浙江科恩特電機科技有限公司19%股權。浙江科恩特電機長期專注開發生產用於高效率製冷壓縮機、真空泵、空壓機、水泵等各類流體機械之相關特種馬達產品與關鍵零組件。此次策略投資將能深化台達與科恩特的合作關係，發揮雙方的強項，協助台達完善工業自動化產品線並提供更優異的高度整合解決方案，加速台達提供客戶智能製造的全方位服務能力。+台達機電事業群劉佳容總經理表示，台達投入工業自動化領域已近三十年，近年致力實踐智能製造，不僅落實於自有生產基地，也成功協助客戶轉型、升級數位製造。科恩特公司長年專注於高效馬達開發及生産，除了有先進的製程設備，優異的製造能力及穩定的技術人才，更累積多項馬達製造相關專利，產品備受客戶高度肯定。由於雙方都相當注重和堅持創新技術研發，並致力於提供更高效率的解決方案，經過多年合作，已經成功量產全球領先的高效節能流體及變頻空調方案系統，未來將進一步開發高精度高響應的機電系統，預期可為客戶帶來更優質的創新系統方案。+浙江科恩特電機科技有限公司謝宗緯總經理表示，台達在工業自動化領域的努力成果有目共睹，雙方在長期合作的過程中，已成功量產多款馬達新產品。透過此次的持股，未來亦將成為更緊密的夥伴。藉由馬達與控制的結合，將快速呼應客戶需求，提供客戶更專業、更快速、更有效的應用系統方案。+台達長期耕耘工業自動化整合方案、致力節能與智慧化系統開發，具備優越的軟體開發能力，以及控制系統、馬達與馬達驅動之整合與應用能力。加上浙江科恩特電機在螺桿製冷馬達與乾式真空泵馬達領域為主要領先供應商，在整合其優越且穩定的馬達製造能力後，台達將可更敏捷地服務各地客戶，提供客戶更具競爭力的系統產品。[廣告]請繼續往下閱讀...</t>
         </is>
       </c>
     </row>
@@ -2034,17 +2098,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>對整桶濃湯吐口水！4國中屁孩被揪出　道歉喊冤：只倒整罐胡椒</t>
+          <t>睡前突叫2字女友嗨翻　他驚「有這麼爽」？一票人搖頭：壓力會很大</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469560.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470330.htm</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t xml:space="preserve">記者許宥孺／高雄報導日本先前爆出壽司郎遭高中屁孩舔醬油瓶再放回原位，引發軒然大波。就有網友PO文表示，昨(28日)有4名國中生在高雄一家牛排館用餐，其中2人將整罐胡椒撒入湯內攪拌，還對湯桶內吐口水。不過，這2名國中生喊冤，表示絕對沒吐口水，只倒了胡椒，但仍為惡作劇行為道歉。PO文網友表示，幾名年輕顧客晚間到高雄右昌一家牛排館用餐，卻走到公開讓客人取用的玉米濃湯前，將一旁整罐黑胡椒倒入湯內，隨後胡亂攪拌，更噁的是朝著整桶湯裡面吐口水，「且有客人喝到並反應」，讓網友怒轟「現在的教育真的這麼差嗎」！店家事後已向警方報案。[廣告]請繼續往下閱讀...▲高雄國中生朝牛排館內玉米濃湯湯桶灑胡椒。（圖／翻攝爆料公社公開版）楠梓警分局指出，昨(28日)晚間9點多，蔡姓牛排店店主至右昌所反映後，警方追查到4名顧客身分為國中學生，店主得知後，表示既然是未成年便不予追究，但警方仍會請學校勸導及輔導外，也會通知學生的家長予以管教。校方今日獲悉此事後，經過初步調查，迅速找出在湯桶惡作劇的2名學生，這2名國中生坦承不諱，也表示願意向店家致歉。根據店家提供監視器畫面，看到小朋友在湯桶內加了胡椒後，手有做出攪拌的動作。不過學生強調，可能是「低頭」的動作，被以為對湯桶內吐口水，但他們並沒有做出吐口水的動作。▲學生做出低頭舉動，遭網友指稱是對湯桶內吐口水。（圖／翻攝爆料公社公開版）校方表示，上午了解這起事件過程後，學務主任親自到店家致意了解狀況，店家原是該校國中校友，經過主任說明解釋後，本著教育學生立場，可以理解國中階段學生培養正確價值觀及良好行為是最重要的任務，希望校方必須跟家長要求，親自帶學生到店裡說明道歉。由於在影片中也很難辨識是否有吐口水的行為，但校方告誡學生，有無吐口水並不是重點，這樣的行為是不可原諒的，學生在經過訓誡後已有悔意。目前學生已由家長請假帶回，並等待晚上牛排店營業後，由家長親自帶小朋友到店致歉。 </t>
+          <t xml:space="preserve">▲示意圖，和本新聞無關。（圖／ETtoday資料照）記者朱祖儀／綜合報導情侶有時候會互相幫忙取暱稱，哪個詞讓人覺得最甜蜜呢？一名網友透露，最近和女友講電話的時候，突然小聲地叫了「老婆」，沒想到對方突然興奮起來，不停問「你剛剛說什麼」，還一直傻笑，讓他忍不住好奇問，是不是大部分的女生聽到後都會這麼開心？文章曝光後掀起討論。原PO在Dcard發文表示，近日晚上和女友講電話，對方準備要睡覺的時候，他就小聲地說了一句「老婆晚安」。沒想到本來愛睏的女友突然變得精神抖擻，不停問「你剛剛說什麼」，於是他又叫了一次老婆，結果對方嗨到不行卻又害羞，在電話另一頭不停傻笑，他見狀不禁想問女孩們，「這樣真的有這麼爽嗎？」[廣告]請繼續往下閱讀...文章曝光後掀起討論，網友紛紛留言表示「就是可愛的熱戀期」、「有啊，就算結婚2年了，我聽到還是很爽」、「我跟男友在一起2年多，聽到他叫我老婆我也嗨爆」、「男友惹我生氣的隔天早上都會這樣叫我，都會跟我說老婆早安，平常都是寶貝」、「確實偶爾被叫老婆會特別開心」，也有人笑說「請享受現在的期間，結婚多年後我都會叫我老公閉嘴」。但也有不少女生持不同意見，「覺得無感，不喜歡不是那個身分的時候被叫老婆，可能我太奇怪」、「我反而開心不起來，會糾正他，還沒結婚不要亂叫」、「只有我覺得這樣很怪嗎」、「還不是很穩定要步入婚姻的時候，不能接受另一半叫我老婆」、「我不行欸，完全無法接受」、「如果還沒確定要結婚，被叫老婆會很不爽，會覺得我又不一定會跟你結婚，可以不要亂叫嗎」、「不一定，像我被叫老婆就會覺得壓力蠻大的 」。 </t>
         </is>
       </c>
     </row>
@@ -2054,17 +2118,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BMW釋出「最新i5電動車」官方測試照　確定今年10月上市</t>
+          <t>快訊／內湖三角戀情殺　酒店妹恩客遭猛刺...搶救9天不治</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469558.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470164.htm</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲影片來源：BMW記者林鼎智／綜合報導在BMW確定大改款5系列（內部代號G60）將在10月亮相、並會帶來i5電動房車／Touring旅行車後，原廠近日也釋出i5最新測試照，並表示目前已完成雪地極端氣候測試。▲BMW釋出i5電動車官方測試照，預計今年10月亮相。（圖／翻攝自BMW，以下同）據了解，BMW i5的雪地測試項目，是從慕尼黑總部到瑞典北部的Arjeplog測試中心，整段路途長達3,000公里，測試項目包括i5的電動馬達、電子系統、電池加熱／冷卻管理功能等，去年幾乎都在瑞典進行相關測試，還包括在德國慕尼黑的一般道路上。▲i5也確定會有Sedan房車、Touring旅行車版本，甚至M性能車型也會到來。除了電池、電動系統外，BMW也在瑞典雪地環境中，進行 i5動力系統、底盤控制系統的微調，例如像是DSC動態穩定控制系統，確保該系統與扭矩控制系統在雪地環境中作動良好，確保車輛在極端環境下的行駛安全性。目前還不清楚BMW i5的規格，僅確定率先亮相的會是Sedan房車版本，Touring旅行車則要等到明年，同時拜i4 M50成為全球最暢銷M-Car下，預料也會推出i5 M性能版本。▲i5雪地測試位於瑞典北部的Arjeplog測試中心，距離德國慕尼黑總部約3,000公里，主要進行電動系統、電池效能及DSC動態穩定系統等測試。 </t>
+          <t xml:space="preserve">記者黃宥寧、張君豪／台北報導北市內湖區本月21日發生一起三角戀情殺案，25歲廖女在酒店上班，先後與23歲高男、45歲潘男交往，廖女「上岸」後由2男接濟生活開銷，豈料2男相見後起爭執，潘男被高男刺成重傷，高被依殺人未遂罪聲押禁見，潘男經搶救9天，今（30日）經家屬同意拔管宣告死亡，檢方下午前往醫院初步相驗，為釐清死因，將擇日安排解剖鑑定。本月21日凌晨警方接獲報案，有人在廖女位於內湖區安康路334巷的住處內輕生，警員獲悉後立刻趕往現場查看，發現潘姓男子倒臥地上，頭部、手部以及脖子有刀傷，立刻將潘送往醫院救治，但由於失血過多，目前仍陷入昏迷，在加護病房接受治療。▲23歲高姓男子見到45歲潘姓情敵竟殺紅眼，被依殺人未遂羈押。（資料圖／記者邱中岳翻攝）據悉，25歲的廖姓女子原本在酒店上班，後來認識23歲的高男、45歲的潘姓男子，同時與2人交往，但是高、潘2人卻不知情，廖女也離開酒店業，改由2男接濟負責生活開銷。警方根據現場有打鬥痕跡，發現案情不單純，現場請來鑑識中心採證，但廖、高堅稱潘姓男子是持刀輕生，所以先讓2人離去，但鑑識中心認為案情不單純，根據血跡噴飛範圍、潘男頭部、手部以及脖子有刀傷，研判現場有打架。潘男身受多刀送往三軍總醫院搶救，昏迷指數一直介於2到3並不樂觀，今（30日 ）家屬忍痛同意拔管，由院方宣告不治，士檢檢察官下午前往醫院進行相驗，為確認死因將安排解剖鑑定，並待檢方積極偵辦後，罪名若從殺人未遂改為殺人罪、傷害致死罪則適用《國民法官法》並發動「國民法官專責小組」開啟「偵查公訴合作模式」。 </t>
         </is>
       </c>
     </row>
@@ -2074,17 +2138,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>中日龍古巴強投叛逃　古巴棒協求償3億台幣</t>
+          <t>陸客要出來了！日本擬4月開放中國「打滿3劑」可入境　免PCR證明</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469564.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470324.htm</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲WBC世界棒球經典賽古巴隊Y.羅德里奎茲Yariel Rodríguez。（圖／記者李毓康攝）記者歐建智／綜合報導效力日本職棒中日龍隊的洋投Y.羅德里奎茲（Yariel Rodríguez）叛逃，本來預計今天中午抵達日本，但卻沒有坐上飛機。古巴棒球協會將向Y.羅德里奎茲求償1000萬美金，約是3億台幣。中日龍球團代表加藤宏幸表示，無法聯繫上古巴投手Y.羅德里奎茲，他沒有搭乘今天抵達日本的班機，目前下落不明。「我們聯繫不上他。我們已經向古巴棒球協會進行確認，但沒有得到確切的信息。」[廣告]請繼續往下閱讀...古巴記者羅梅洛（Francys Romero）發文指出，Y.羅德里奎茲加入叛逃行列，「他今天早上抵達了多明尼加，已經取消了與中日龍的合約，希望未來能與MLB球隊簽約。」依古巴媒體「JIT」報導，Y.羅德里奎茲從古巴叛逃，並希望與大聯盟球隊簽約，Y.羅德里奎茲如果沒有加盟中日龍，將被視為對中日龍和經紀人古巴棒協的重大違規行為，古巴棒協將向他要求1000萬美元的違約金。根據外媒報導，一名球探評估，Y.羅德里奎茲有機會收到一紙5到6年、總額超過5000萬美元的合約，相當於台幣15.1億。Y.羅德里奎茲在經典賽出賽2場皆為先發，分別為小組賽對荷蘭，以及八強戰出戰澳洲，合計7.1局失2分，防禦率為2.45， 幫助古巴打進4強，但在4強賽敗給美國後，返回了古巴。去年Y.羅德里奎茲在中日龍中繼56場，6勝2敗，45中繼點，防禦率1.15，並以39次「中繼成功」拿下中央聯盟中繼王；日職3年累計79場比賽，其中21場先發出賽，戰績10勝10敗，防禦率3.03。 </t>
+          <t xml:space="preserve">▲日本目前仍要求來自中國的旅客提供PCR陰性證明。（圖／路透）記者王佩翊／編譯日本《富士新聞網》獨家報導，日本政府有望在4月上旬放寬陸客入境政策，未來只要打滿3劑疫苗，不需要出示PCR陰性證明，就可以入境日本。報導指出，根據日本目前規定，所有從中國出發的旅客皆須出示PCR陰性證明。然而多名日本政府內部消息人士則表示，該政策有望鬆綁，當局已大致擬定方向，未來中國旅客將能享有與其他國家旅客相同待遇，也就是只要打滿3劑日本政府認可疫苗，入境時就不需要再提供PCR陰性證明。該項新制最快4月上旬就能上路，不過目前針對部分班機抽查進行的PCR落地篩檢仍將繼續實施。▼日本再度放寬對陸客的入境要求，有望刺激觀光。（圖／路透）  </t>
         </is>
       </c>
     </row>
@@ -2094,17 +2158,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>雲林外海3具男性身分不明浮屍特徵曝光　警公告協尋家屬</t>
+          <t>怕弟摔下去！豹貓緊守床邊「被抓腳丫也不跑」　媽：平時碰到會咬</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469562.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470228.htm</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲台灣近海3月總計發現16具浮屍，案件海巡成立專案查緝中。（圖／記者張君豪翻攝）記者蔡佩旻／雲林報導台灣西部外海7縣市陸續發現浮屍，2周內累計16具，其中已確定有5名台灣人，剩餘11人疑似為外籍人士。雲林外海所發現浮屍為2月份及3月，共有3具，身分不明，雲林縣警局已協助公告無名屍協尋家屬。雲林地檢署今（29）日指出，檢方接獲海巡署通報相驗3具浮屍，都是男性，發現時間及地點分別為2月7日在麥寮外海發現、3月7日在麥寮港外海、3月10日在外傘頂洲沙灘，因泡在水裡都有一段時間，外表嚴重浮腫腐爛難以辨識，身上也沒有發現證件，沒有明顯外傷，相驗後先以無名屍方式處理，放置在虎尾殯儀館冷凍櫃中。雲林縣警察局表示，3月7日在麥寮港外海發現的男性，身高約167公分，身上穿著灰色毛衣、黑色牛仔褲；10日在外傘頂洲沙灘發現的男性，身高約170公分，穿著黑色短袖上衣、黑色長褲，已於接獲海巡署通知後協助公告無名屍協尋家屬。 </t>
+          <t xml:space="preserve">▲即便弟弟抓著波妞最討厭被觸碰的腳丫，貓咪也沒有生氣。（圖／飼主張小姐授權提供，下同）實習記者謝曉菁／採訪報導最稱職的保母喵！台中飼主張小姐家中有隻8歲大的豹貓「波妞」貼心又可愛，這日媽媽便在網路上曬出一張照片，只見畫面中，小主人弟弟抓著貓咪的腳丫熟睡著，而波妞也沒有因此生氣跑走，溫馨畫面讓媽媽忍不住感動笑說，「我們家不許人家碰腳的恰查某，對人類弟弟的愛跟包容度真的很滿」。媽媽在接受《ETtoday寵物雲》訪問時表示，當時弟弟正在房間睡覺，波妞便溜進去一起睡，可能是因為弟弟感覺快要滾下床了，貓咪便卡在床邊護著小主人，連腳腳被握住都沒關係。媽媽笑說，平時若碰到波妞的腳，牠都會生氣爆咬，沒在客氣的，但對弟弟就十分包容。[廣告]請繼續往下閱讀...▲波妞陪弟弟玩耍，眼神充滿著愛。提及波妞跟弟弟的互動，媽媽分享，波妞完全就是隻保母貓，從弟弟還是嬰兒的時候就常常守在床邊，跟進跟出的，也會陪弟弟玩玩具和看樓下的挖土機。媽媽笑說，有時候弟弟不會控制力道而太粗魯，波妞也只是輕輕含一下他的手來制止而已。▲波妞陪弟弟玩。媽媽分享，波妞曾是遭繁殖場丟棄的小孩，是媽媽從寵物店認養回家之後，一路將牠從營養不良養到現在都被醫生警告該減肥。這段溫馨事蹟一在臉書社團「愛貓聯盟」發出，立刻引來大批網友按讚並紛紛回覆，「因為那腳腳是弟弟的啊！」、「喵：鮮嫩的小鮮肉，不懂膩？」、「雙標的貓～只給牠疼愛的弟弟摸腳」、「貓狗都對小嬰兒很包容」、「貓咪真的對小孩有包容力，真有愛」、「感覺這貓貓比人還大喔」、「通常只有皇帝才能摸妃子的腳～」、「貓是最好的寵物保姆」、「很漂亮的貓」。▲折耳貓「咚咚」也對弟弟超級有愛。▲橘貓「橘子」跟進浴室看弟弟洗澡。 </t>
         </is>
       </c>
     </row>
@@ -2114,17 +2178,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>台灣4月起到韓國「免申請K-ETA」　4個常見問題一張圖看懂</t>
+          <t>她不買雞腳「那是踩大便的」　下秒卻點1食材！網笑：喜歡新鮮的</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469546.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470327.htm</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲韓國開放台灣旅客4月起不用申請K-ETA。（圖／翻攝自韓國觀光公社台北支社臉書專頁）記者蔡玟君／綜合報導韓國政府宣佈，來自台灣的旅客從4月起到明年底為止，前往韓國旅遊不再需要申請K-ETA，其他指定21個國家地區也將同樣適用免申請K-ETA政策，韓國觀光公社台北支社更整理出4個常見問題，讓旅客一次搞懂接下帶到韓國旅遊入境最新規定。▲韓國搶攻海外市場，力拼赴韓外國旅客破1000萬人次目標，祭出免申請K-ETA優惠待遇。（圖／記者蔡玟君攝）▲但台灣旅客仍舊需要填寫代表入境檢疫的Q-CODE。（圖／記者彭懷玉攝）韓國政府表示，為了促進觀光，並達到赴韓外國旅客達1000萬人次目標，因此祭出免申請K-ETA優惠待遇，台灣人從今年4月1日起至2024年12月31ㄖ為止都適用該優惠政策。▲常見4問題一次看。（圖／翻攝自韓國觀光公社台北支社臉書專頁）韓國觀光公社台北支社也為即將赴韓旅遊的台灣人整理出4個常見問題，包括雖然不需申請K-ETA，但仍必須填寫代表入境檢疫的「Q-CODE」，且若沒申請K-ETA，就要手寫入境卡；已經申請並付費完成K-ETA的旅客，則無法退費。 </t>
+          <t xml:space="preserve">▲很多人愛吃滷味。（示意圖／ETtoday資料照）記者曾筠淇／綜合報導很多人喜歡吃滷味解解饞，就有一名網友發文表示，日前她去滷味攤買雞腳，順口問朋友要不要吃？對方一聽立刻拒絕，因為「那是踩雞大便的」，然而，接下來的一句話卻讓人覺得好像怪怪的。貼文曝光後，不少網友都笑翻了。這名網友在臉書社團「爆怨公社」上發文，提到日前去滷味攤時，她夾了自己愛吃的雞腳，同時轉頭問同行友人「你要吃雞腳嗎？」好友一聽馬上拒絕，「我不要！我從來不吃雞腳，那是踩雞大便的！」聞言，原PO則說，「可是我很愛啃雞腳欸～」[廣告]請繼續往下閱讀...好友當時接著說，「你買你要啃的就好～幫我夾兩串雞屁股～我想吃雞屁股」。由於好友不吃雞腳的原因與「雞大便」有關，因此原PO一聽對方要吃雞屁股，便忍不住直呼，「我一定要抱怨！」▲滷味。（圖／ETtoday資料照）貼文曝光後，吸引超過3000人按讚，其中不少網友留言直呼，「原來你朋友喜歡吃大便通過的部位」、「剛出來的是新鮮的，踩過的誰要」、「她喜歡新鮮出爐的地方，不能接受被踐踏過的二手便便」、「拉是單一的，踩的是大家的」、「傻傻的，人家喜歡吃一家產的，不愛綜合的」。另也有網友自曝，「我也是不吃雞腳、鴨腳，因為在地上踩；但是喜歡吃屁股，因為大便通過的地方是同一隻的，踩在地上的不好說」。 </t>
         </is>
       </c>
     </row>
@@ -2134,17 +2198,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>答應室友21點回！20歲女大生「留手機和學生證」消失　母眼淚哭乾</t>
+          <t>「我會選到底！」徐巧芯控費鴻泰出奧步　抗議初選不採全民調</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469377.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470345.htm</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲江西一女大生失聯。（圖／翻攝自九派新聞）記者鄭思楠／綜合報導江西贛南師範大學一名20歲大二女生小佳（化名）近日失聯，家人多日尋找無果。小佳母親淚訴，女兒於3月24日走出校園後失去聯繫，失聯前曾與隔壁宿舍同學鬧過矛盾。據貴州電視台百姓關注報導，小佳的母親英女士透露，女兒今年20歲，自己從她室友那裡得知，她於24日走出校園後失去聯繫。英女士表示，在失聯前，小佳曾與隔壁宿舍同學鬧過矛盾，當天她答應室友晚上9點回來，但是一直沒有回宿舍。▲江西一女大生失聯前曾與隔壁宿舍同學鬧過矛盾。（圖／翻攝自九派新聞）「我心痛啊，哭的眼淚都沒有了，我度日如年」！英女士稱，自己於25日到學校了解情況，報警並調取了周邊監視器畫面，發現小佳在建春門附近（江邊）活動軌跡消失，只留下一台手機和學生證，「我們到河邊去看的時候，沒有看到什麼痕跡。」隨後，高校園區派出所回應稱，他們還在搜尋，「現在還有人在周邊尋找。」同時，小佳的家人也希望知情人提供有效線索。對此，網友們看後紛紛表示，「願妳的寶貝女兒平安歸來！」、「好擔心小孩想不開，做傻事！」、「希望能夠快點找到」。 </t>
+          <t xml:space="preserve">▲費鴻泰、徐巧芯黨內初選殺破頭。（組合圖／ETtoday資料照）記者鄭佩玟／台北報導歷經協調不成之後，國民黨台北市立委初選辦法30日透過台北市黨部提名委員會投票決議，拍板採用「3成黨員投票+7成民調」來決定。對此結果，台北市議員徐巧芯表示，她會參選到底，另外，她也控訴對手費鴻泰出奧步，「打電話給投票委員施壓」，她感到遺憾但也尊重。國民黨台北市黨部今天下午3點召開提名委員會，歷經約1個小時投開票之後，針對「費芯大戰」的台北市第七選區，以41票比9票懸殊差距，拍板採用3成黨員投票加7成民意調查的結果，來決定2024立委提名人選。對此結果，徐巧芯表示，不管決議為何，對於初選她都會參選到底，並將此視為重要的機會。確定初選辦法後，由主席抽出黨員投票號次，第七選區（信義、南松山）1號徐巧芯、2號費鴻泰；第八選區（文山、南中正）1號賴士葆、2號徐弘庭；民調日期為4月16日至18日；黨員投票日為4月22日。 </t>
         </is>
       </c>
     </row>
@@ -2154,17 +2218,20 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>健身房要選「公司or住家附近？」　過來人1原因秒答：過去才方便</t>
+          <t>ETtoday轉播中職二軍免費看　首場台鋼首戰、每周四、五各一場</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469016.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470340.htm</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲健身房。（示意圖／記者曾筠淇攝）記者曾筠淇／綜合報導很多人都有健身的習慣，近日就有一名網友發文表示，他打算好好健身，所以正在選健身房，由於公司和家裡附近都各有一家，因此猶豫應該怎麼選？貼文曝光後，底下多數網友都因為1原因秒選離家近的那家。這名網友在PTT的WomenTalk板上，以「健身房要在家附近還是公司附近」為題發文，提到他最近想要健身，所以正在挑選健身房。他們公司附近有一家健身房，步行就可以到了；住家附近也有一家，車程大約3分鐘，應該選哪家好？[廣告]請繼續往下閱讀...原PO表示，因為是新手，所以都會找教練教，單以距離來說，要選哪家？如果在公司附近，中午或下班就可以去；若是住家附近的話，下班可以先吃晚餐再去，兩者各有好處，大家會怎麼選呢？▲不少人有健身習慣。（示意圖／取自Pexels）貼文一出，不少網友秒選後者，因為這樣放假也可以健身，「離家近的吧，假日去也方便」、「家，這樣放假無聊也會去」、「家，假日還能去」、「家，放假過去也方便」、「選離家近的，這樣假日才能練」、「家附近，放假閒閒也會去」。也有網友回應，「家，離公司近有機會遇到同事」、「絕對是家，碰到天氣不好你還能走過去」。不過，也有些網友分享其他看法，「我的經驗，我同學選家裡附近的到最後都很懶，公司附近的會比較勤」、「下班回家就不想出門了」、「公司，回家就很難出門了」、「公司吧，回家就很懶得出門」、「我投公司一票，我在家會更懶」、「你都不會離職就選離公司近的」。 </t>
+          <t>▲中信兄弟球團。（圖／記者黃克翔攝）   記者陳立勳／綜合報導2023中華職棒二軍例行賽將於4月4日開打，ETtoday加入轉播行列，中職今年二軍是六隊競技，台鋼雄鷹的加入讓二軍賽事對戰組合更多元，今年為推廣二軍賽事直播普及化，特別提供線上轉播服務，YouTube直播免費看，歡迎球迷朋友透過轉播一起為二軍的選手加油。+六隊規模的二軍賽事不容錯過，為推廣二軍賽事觀看普及化，今年首度推出全網路轉播，ETtoday新加入轉播行列，球迷朋友可以透過Hami-CPBLTV館、中華職棒Youtube頻道、ETtoday Youtube頻道收看二軍賽事，每週四、五各轉播一場次。除此之外，因4月4日台鋼雄鷹將迎來二軍例行賽首戰，聯盟特別增加當日比賽的直播，讓大家可以透過線上一睹雄鷹們的首場賽事。+中華職棒二軍例行賽開幕日兩地開打，由中信兄弟二軍與富邦悍將二軍在嘉義市立棒球場交手，另一地則由台鋼雄鷹二軍在斗六棒球場對上味全龍二軍。全季總計240場，各隊主客場各40場，開賽時間為下午2點，9月19日起提前為下午1點。+二軍比賽場地主要集中於6座棒球場，包含斗六棒球場、嘉義市棒球場、嘉義縣棒球場、台南棒球場、澄清湖棒球場及中信園區棒球場，球迷朋友可以到球場免費觀看比賽，也可透過轉播收看精彩的二軍賽事，齊心為二軍奮戰的選手們加油！[廣告]請繼續往下閱讀...</t>
         </is>
       </c>
     </row>
@@ -2174,18 +2241,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>男紐約地鐵熟睡「巨鼠爬上身」亂竄　網友一看崩潰了</t>
+          <t>Karencici被BTS柾國「直播點名」！　本人一聽驚呆：等一下</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469556.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470339.htm</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲一隻像貓一樣大的巨鼠，爬上了正在熟睡的男子身上亂竄「偵查」。（圖／翻攝自TikTok）圖文／鏡週刊如果一睜開眼睛，有一隻像貓這麼大的老鼠爬到身上逛大街，你會一邊尖叫一邊跑走，還是像這名男子如此淡定？網路上流傳一部令人「又驚奇又失望」的影片，一隻在地鐵遊蕩的巨鼠，爬上了正在熟睡的男子身上「偵查」，而牠在男子身上肆意走動弄醒了對方，但男子的反應卻讓萬眾網友們大失所望，崩潰喊道：「這不是我要的結果！」 一個專門發布「紐約地鐵百態」的TikTok頻道近日發布一支名為「這種反應對我來說還不夠緊急」的21秒短影片，影片在網路上被廣為流傳，影片中可見，一名男子正在地鐵上熟睡，而「一隻像貓一樣大」的超大老鼠在一旁閒晃，晃著晃著，這隻毛茸茸的惡魔慢慢地靠近男子的腳邊，並沿著他的腳爬上去「偵查」，接著更是囂張地爬到了男子的脖子上。過了不久，這名男子終於逐漸意識到身上的不對勁而醒來，這時，這隻巨鼠還是在他身上肆意遊蕩，直到牠慢慢地從男子的身體走下來，男子才淡定看了一會兒，然後站起來讓巨鼠「安全降落」在地上。這支影片至今已達到300多萬點閱，並有4萬多人熱議，而大部分的人都對這名男子「極其淡定」的反應感到驚奇而且失望，紛紛表示，「他太冷靜了，他家肯定有養老鼠」「我看這支影片的反應比他的反應還大」「昨天他肯定經歷過一樣的事情」「這不是我要的結果啊！」「紐約一定對此習以為常，如果這發生在倫敦，整個車廂都會尖叫而且會上新聞」；也有人分享如果是自己遇到這種情況會做出的反應，「我的靈魂會離開我的身體」「我肯定原地去世」。  @subwaycreaturesofficial That reaction wasn’t urgent enough for me  #subwaycreatures #fyp #foryoupage #iloveny #subway #nyc #rat #rats ♬ original sound - SubwayCreatures    【點擊看完整全文】-更多鏡週刊報導紐約市重金聘殺手　年薪500萬執行滅絕任務要求「打死不退」抱怨女友臭到「像腐爛死老鼠」　網調侃：不是就愛這一味？老婦睡夢中遭「老鼠啃臉」全身血　傷勢嚴重「老鼠想咬穿她的骨頭」 </t>
+          <t xml:space="preserve">記者郭采縈／綜合報導新生代創作歌手Karencici擁有靈魂嗓音，打扮也十分火辣，出道至今累積許多作品，人氣不斷上升的她，日前更驚喜被南韓天團BTS成員柾國「點名」，在直播中分享她的音樂，得知消息後驚訝直呼「等一下」，掀起歌迷熱烈討論。▲Karencici唱作俱佳，也曾在韓出道。（圖／翻攝自Instagram／itskarencici）BTS貴為天團，私下常在社群分享其他音樂人的作品，近日隊長RM才被捕捉到，低調現身台灣樂團「落日飛車」於首爾的演唱會，事後還跑到後台合照，十足小粉絲模樣。沒想到，日前成員柾國在直播時，也播放了Karencici的《thoughtboutu》，熟悉旋律一響起，讓許多歌迷瞬間暴動。[廣告]請繼續往下閱讀...▲BTS柾國在直播放Karencici的歌。（圖／翻攝自Instagram／itskarencici）而Karencici得知後，就在Instagram放上自己的reaction，神情訝異地說不出話，晃動鏡頭將她激動心情表露無遺：「等一下，怎麼會？！！！」網友敲碗留言「拜託合作」、「ci的反應好可愛～有沒有合作的機會呢」、「他還哼了一下」、「太扯啦！這什麼夢幻聯動」、「是兩位的粉絲，超棒的好感動」，連ØZI都回應「LET’S FUCKIN GOOOOO」。    在 Instagram 查看這則貼文           ????????????????????????????????????（@itskarencici）分享的貼文 </t>
         </is>
       </c>
     </row>
@@ -2195,17 +2261,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>20年前「6陸女溺斃慘劇」　高大成對照16具浮屍案：事情很大條！</t>
+          <t>21歲哥亂倫14歲妹兩年多　「不知兄妹愛愛犯法」判刑18個月</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469541.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470308.htm</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲西部海域爆出16具浮屍案，法醫高大成憶起20年前「王中興逼迫陸女下海6死案」。（圖／記者許權毅攝）記者許權毅／台中報導西部海域爆出16具浮屍恐怖案件，國安單位急追是否與人蛇集團有關。知名法醫高大成指出，若是遭人踢下海，基本上一定會死亡，因為再會游泳也很難，加上人若3天沒有喝水就小命難保。此外，他指出這案「事情很大條」，想起2003年在苗栗外海也發生6名陸籍女子遭王中興踢下海溺死案，最終王被判死伏法。高大成解釋，從死者屍體中可看出是否是生前溺水、死後溺水，關鍵就在體內有無海藻跟浮游物，若有一定是生前溺水，有可能是失足落海，但也可能是遭人活活丟包。高表示，這次包含5名台灣人相當嚴重，也讓他想起20年前台灣苗栗通霄外海一案。▲台灣近海3月總計發現16具浮屍，案件海巡成立專案查緝中。（圖／記者張君豪翻攝）2003年8月，26名大陸籍女子偷渡來台，王中興、柯清松駕駛舢舨接應，結果被海巡發現追捕，王、柯將13人推下海，最終害6人死亡，王被處死刑、柯被判處無期徒刑，最終王中興在2年後伏法。據悉，2003年王中興、柯清松、葉天勝、曾炯銘，分別駕駛2艘舢舨接應26名陸籍女子偷渡來台，深夜1時許被海巡署巡邏艦艇發現，2艘舢舨趕緊加速往苗栗通霄海岸逃，過程中王、柯要陸籍女子在深水處下船，結果有女子遲疑，竟遭王、柯推落海，最終6人溺斃死亡。高大成指出，本次這案就要看是否是偷渡，是台灣人要前往外國，還是外籍要進來台灣，但是因死者包含台灣人、外國人，更讓案情撲朔迷離，就連高也相當吃驚，直言「事情很大條！」 </t>
+          <t xml:space="preserve">▲香港發生社會矚目的兄妹亂倫案。（示意圖／CFP）記者蔡紹堅／綜合報導香港一對相差7歲的同母異父兄妹，在哥哥21歲、妹妹14歲時發展出超越兄妹的男女關係，甚至在父母的床上發生性行為。兩人的不倫關係持續了兩年多才曝光，哥哥也因此被控亂倫等罪，並被判刑18個月。根據港媒報導，哥哥生於1996年，母親改嫁之後，與繼父於2003年生下妹妹，兩人為同父異母的兄妹。2017年7月底某日，哥哥進入妹妹的房間，表示想與妹妹做愛，接著脫下了妹妹的衣服，在沒有安全措施的情況下，發生了兩人的第一次性關係。第一次性關係後，兩人開始會在家中摟摟抱抱，接著更在父母的床上發生了性行為，同樣未使用安全措施。2018年1月某日，妹妹在自己房間換衣服時，哥哥正好回家，並從後面抱住了妹妹，接著兩人在床上發生了性關係。兩人最後一次發生性關係是在2020年4月，妹妹主動前往了哥哥的住所，想聊聊兩人的關係，哥哥表示想做愛，妹妹不知如何拒絕，於是兩人又發生了關係，之後兩人就沒有單獨見面過。事情會曝光，是因為繼父發現兩人行為過於親密，要求哥哥搬出，妹妹情緒不穩，向老師透露了與哥哥的關係。老師通報之後，哥哥很快被捕，並向警方坦承與妹妹感情很好，把妹妹當「老婆」，兩人曾多次發生性關係。哥哥也提到，他知道什麼是亂倫，但不知道亂倫犯法。案件審理過程中，律師曾向法官求情，強調兄妹兩人是「真心相愛」，只是混淆了兄妹之情，才會做出「天理不容」的事情。哥哥總共被控2項猥褻罪、3項亂倫罪，法官認為，哥哥一直沒有意識到錯在哪裡，「如果他沒有提出發生性關係的要求，事情根本不會發生。」法官更指出，就算是妹妹要求，哥哥作為成年人也應該拒絕，因此判哥哥入獄18個月。 </t>
         </is>
       </c>
     </row>
@@ -2215,17 +2281,18 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>可疑男提包準備扔草叢　警起疑攔下...拉開冒出「6顆小黑頭」氣炸</t>
+          <t>映在心頭的「城市圖騰」　百年布莊錦源興印花創作展</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469513.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470337.htm</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲男駕駛提著密封手提包，準備扔進草叢。（圖／翻攝自Facebook／Durham Constabulary，下同）記者呂欣潞／綜合報導英國達拉謨郡（County Durham）警員日前在巡邏時，看見公路上出現一輛可疑汽車，該名男駕駛提著一個手提包下車後，準備將包包扔進草叢，舉止十分詭異。警員察覺有異，緊急將該男攔下檢查，沒想到才剛打開包包，竟冒出「6顆小黑頭」，原來男子正要棄養可卡幼犬。[廣告]請繼續往下閱讀...▲警員攔下要求檢查，才發現包包裡裝著6隻可卡幼犬。達勒姆警察局（Durham Constabulary）在臉書PO文寫下，3月18日凌晨2時許，警員利亞姆·維農（Liam Venon）和盧克·豪伊（Luke Howie）在公路巡邏時，發現該名男駕駛站在車外，在岸邊甩著一個密封的手提包，他們見狀決定下車臨檢。怎料男子發現警員，馬上把包包扔到汽車後座，接著蹲下身假裝在檢查輪胎，詭異行徑讓警員起了疑心。▲警員搜查男駕駛住家，救出可卡幼犬的狗爸媽。警員走近汽車準備臨檢，聽見後座傳出尖銳吠叫聲，立即要求男駕駛給他們檢查密封的手提包，誇張的是打開包包後，竟冒出6隻剛出生的「可卡幼犬」，眼睛都還沒睜開，全身上下就長滿了跳蚤，差點被丟棄在草叢裡自生自滅。警員一查發現，該名50多歲男駕駛，涉嫌虐待動物、洗錢、販賣管制藥物被捕，目前已經被拘留，正在調查案件中 。▲狗媽媽哺乳可卡幼犬，一同接受照護中。至於6隻差點被棄養的可卡幼犬，被警員發現時才出生5天，已經送往動物醫院接受治療和照護。警員前往男駕駛住家搜查，發現可卡幼犬的狗爸爸和狗媽媽，也一同護送到獸醫院安置，等待身體狀況恢復後，再尋找一個永遠的家。▼更多精彩內容。 </t>
+          <t xml:space="preserve">▲「戎舘」2023年首展「城市圖騰 City Patterns」，由百年布莊「錦源興」所展出的印花創作展來揭開序幕，陳春利董事長、楊子興執行長，歡迎體驗台南之美。（圖／記者林悅翻攝，下同）記者林悅／台南報導台灣第一香腸品牌的標竿「黑橋牌」，以在地文化的傳承的企業責任為使命，在台南中正路原址復刻府城四大戲院「戎舘」，成為台南著名藝文沙龍，2023年首展「城市圖騰 City Patterns」，由百年布莊「錦源興」所展出的印花創作展來揭開序幕。[廣告]請繼續往下閱讀...想到台南， 你會想到什麼？日治時期的中正商圈名為「末廣町」在1927年時由有志經營於此的店家們組成了「店鋪住宅速成會」，從1931年開始，由當時的台灣總督府地方技師梅澤捨次郎設計，隔年完工，從此造就了台南最繁榮的商業區，因此也有「銀座通」的美稱，儼然成為那個時代的摩登代名詞。在地經營達60多年的黑橋牌，是台灣第一香腸品牌的標竿，更是許多人回憶中的好滋味，黑橋牌以在地文化的傳承的企業責任為使命，就地在台南中正路原址復刻府城四大戲院「戎舘」，成為台南具代表性的文化新地標，除了提供美食、休憩空間，不定期都有藝術展藝可賞析，可稱得上是台南的藝文沙龍。2023年初始展出則由百年布莊「錦源興」所展出的印花創作展來揭開序幕；黑橋牌董事長陳春利表示，黑橋牌創業65年，承續台灣傳統肉品工藝，並秉持傳統工藝不斷推出創意；融合新潮流新美學，積極經營食品本業並參與台南府城文化建設，復刻戎舘文化平台，舉辦藝文活動展覽。這次策展的百年布莊「錦源興」，也是傳承了傳統工藝並轉化成現代新生活美學，不僅是美感的呈現，也肩負文化的傳承使命。陳春利說，這次與百年布莊錦源興的合作，是一個跨世代、跨界的超時空結合，錦源興第四代傳人楊子興，將黃花風鈴木、烏魚子、 珍珠奶茶、關廟麵線…等在地意象，轉化為充滿現代感的印花圖騰，重新詮釋你我周遭的生活樣貌。「錦源興」創立於1923年，以布料進口、染整、批發零售為主要業務，為台灣南部地區日治與光復時期重要的布料供應商。然而隨產業轉型與消費型態改變，布莊事業漸漸式微。百年後的今日，轉型成為在地生活美學品牌，將台灣文化轉譯為多款印花，用印花說台灣故事。以在地文化為經、創意美學為緯，透過印花布料設計、生活用品研發與藝文活動策劃，繼續傳承百年布莊頂真精神。 +陳春利董事長、楊子興執行長暢談著老台南人們對於中正路商圈的美好時光與回憶。當下的時空彷彿有重新回到那個最黃金最美好的時代，並因緣際會在戎舘所舉辦的文化走讀活動-戎舘周邊散策而與《錦源興》牽起結緣的契機，在走訪的過程中更了解到這家在台南的百年布莊與黑橋牌有著共同的理念，將家鄉的美、在地文化與生活記憶透過不同的方式呈現。因對於中正商圈的深刻情感與使命感，黑橋牌陳春利董事長，更自許【戎舘】能擔任起在地文化的復興推手的角色，讓更多人與國際遊客都能一同體驗台南之美。城市圖騰City Patterns展覽於3月24日起至10月12日止，每日上午10時至晚上8時，展覽地點在戎舘2F展覽空間。 </t>
         </is>
       </c>
     </row>
@@ -2235,17 +2302,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>直擊！南京全程禮遇馬英九　維安清空月台、包高鐵車廂送行</t>
+          <t>李冰冰50歲狀態仍舊超狂！纖腰＋馬甲線露優雅女人味簡直逆天</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469505.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470338.htm</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t xml:space="preserve">記者任以芳／南京報導前總統馬英九今（29）日上午參訪侵華日軍南京大屠殺遇難同胞紀念館，下午搭高鐵從南京轉往武漢，大陸官方高規格安排，直接讓馬英九團隊和「大九學堂」學員走貴賓通道直奔月台，就連媒體團也跟著禮遇通關。馬英九離開南京前，許多當地民眾紀念館排隊卡位，得知馬英九車隊離開後，當地警方立刻疏導，有如演唱會散場人潮一樣熱鬧。前總統馬英九祭祖交流之旅進入第三天行程，上午9點多前往南京大屠殺紀念館參訪，大約停留1個多小時離開，搭乘14時57分高鐵前往湖北武漢，車程2個半小時間，預計17時26分抵達，接著會見湖北省委書記王蒙徽。▲馬英九今下午離開南京前往武漢，維安包圍上車。（圖／記者任以芳攝） 由於行程相當緊湊，大陸官方高度要求維安部署和交通動線，馬英九和「大九學堂」學員全部禮遇通關，就連媒體團這次也列入「禮遇」安排，所有人搭高鐵走貴賓通道。陸方人員特地清出整個月台，先安排媒體團和「大九學堂」學員上車，接著馬英九在我方國安局特勤，以及北京維安大隊人馬包圍之下，快速通過月台搭乘頭等車廂。大陸國台辦副主陳元豐也跟在隊伍裡面，陪同馬英九前往武漢參訪。▼陸方全程禮遇，走貴賓通道馬英九和「大九學堂」學員。（圖／記者任以芳攝）馬英九12天行程，橫垮上海、武漢、長沙、重慶，再回到上海，大陸全程高規格接待，前導車開道、適當封閉馬路交通、動用大批維安警力，甚至包下車廂座位，確保馬英九安全。▼陸方包下高鐵車廂，連媒體團也一並安排。（圖／記者任以芳攝）▲南京大屠殺紀念館外圍觀馬英九人潮。（圖／記者任以芳攝）由於今天上午是馬英九今最後一天停留在南京，即使是平常上班日，吸引不少民眾聚集南京大屠殺紀念館，期待能見到傳說中的「馬前總統」。大約早上九點督多開始，慢慢聚集人潮，有好奇圍觀人群，也有去參觀被攔在外面的民眾，聚集到最後，人潮圍著館外繞了一大圈，連館外對面馬路都是人潮。由於紀念館實行維安管制，一般民眾無法進入，圍觀民眾只能在門口等待，得知馬英九車隊離開後，當地警方甚至特地封路管制，特地引導疏散紀念館人群，所以人慢步繞著館外慢慢離開，有如演唱會散場一樣。馬英九造訪，引起大陸民眾轟動，即使無法見上一面也要卡位，形成十分難得「歷史」景象。 </t>
+          <t xml:space="preserve">記者李薇／台北報導　圖／李冰冰工作室微博李冰冰一向與范冰冰、周迅、章子怡、趙薇等大咖女星齊名，近年戲劇作品較少，但仍然有電影演出，地位始終不敗，最近她在微博曬出時尚大片，只見她身穿荷蘭設計師品牌Ronald van der Kemp的魚尾服，50歲依舊展現纖細腰身跟馬甲線，超狂！李冰冰已經進入50歲的熟齡階段，一般人走在路上都會被誤以為是大媽的年紀，卻對她一點影響都沒有，更有女人韻味的成熟風格，洗鍊雙眼能洞悉一切的俐落感，展現出專屬她的優雅大氣，重點是身材完全沒走樣，穿起難駕馭的黑色魚尾禮服，還能胸、腰、臀曲線超分明，簡直不科學。近年魚尾裙重新回歸，貼臀設計在裙襬展現浮誇風格，能帶出優美線條，但穿上身就知道，只要有一點贅肉，都會被勒出奇怪曲線，體態不好穿起來根本災難，會更顯腿粗、屁股大、身高矮，所以能駕馭的女星真的少數。黑色禮服想要有亮點，當然少不了鑽石，整套Hearts On Fire高級珠寶系列上身，李冰冰手指上戴著19萬2000元的LORELEI DOUBLE LINK RIBBON鑽石戒指，ILLA系列Midnight手環疊加Feather鑽石手環，看起來閃閃發光，襯托出她巨星架式。 </t>
         </is>
       </c>
     </row>
@@ -2255,17 +2322,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>買花祭祀死去兒！女被路人一句話「神預言懷孕」　嚇：寶寶回來了</t>
+          <t>婆家50年老透天自稱豪宅！她揭「殘破現況」　反挨酸：媳婦別管</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469487.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2433456.htm</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲女子回家驗孕發現真的有了。（圖／翻攝自TikTok／lanaabiancaa）記者李振慧／綜合報導澳洲女子拉娜(Lana)打算買花去祭祀死去的兒子時，店裡一名陌生女顧客看著她一會後，突然預言她會懷孕，讓才剛喪子的她覺得很莫名其妙，然而她回家後驗孕真的驗出兩條線，神預言影片在網路上獲得2千多萬人次點閱。居住在雪梨的26歲女子拉娜去年8月5日不幸流產，當時才喪子3個月的她身心都尚未走出傷痛，卻被一名素昧平生的女子斷言已經懷孕。影片中可看到，拉娜抱著半信半疑的態度拿出驗孕棒，結果一看居然是兩條線，把她嚇得當場哭了出來。拉娜表示，「那名女士走到我面前，上下打量了我一番後突然說『你懷孕了』，大家覺得我看起來像是懷孕了嗎？所以我現在衝回家驗孕，我還有6天生理期就要來了，最近感覺有點不舒服」，結果意外發現自己已經懷孕1至2周。拉娜後來在另外一支影片中解釋，那名女士有向她自我介紹是一名靈媒，當下看到她時突然有一股強烈的感覺，才會預言她已經懷孕。影片發表後立即爆紅，獲得2千多萬人次點閱，許多網友留言，「好感人，我看影片也跟著一起哭」、「太感動了，失去的寶寶又生回來了」、「一定是你死去的兒子，請那位女士幫忙告訴你這個好消息」。拉娜後來也時常拍片記錄懷孕過程，預計於今年7月生下一名男嬰。  @lanaabiancaa What?! Legged it to get a test immediately! #pregnancytest #pregnancytestresults #lifeafterloss #3monthspostpartum  Get You The Moon - Kina    </t>
+          <t xml:space="preserve">▲女網友抱怨，婆家自稱豪宅，其實是屋齡近50年的鄉下老透天。（示意圖／記者許凱彰攝）記者陳怡靜／綜合報導一名女網友表示，婆家在鄉下有一棟屋齡近50年的透天，不過屋況不佳，磁磚被地震震得散落，也沒有經過修繕，「加蓋的廚房幾乎快要倒塌，還能自稱為豪宅？」她也不忘拿娘家全新百坪透天相比，「沒有房貸、沒有漏水，房間的磁磚各各整整齊齊」。貼文曝光後，反遭網友酸爆。原PO在臉書粉專《靠北婆婆2.0》抱怨，婆家一棟屋齡將近50年的鄉下透天，有多間房間的磁磚都被地震震得散落在地，自從她還沒嫁進去，就沒有整理修繕過，最近因為自己懷有身孕，婆家就以腹中孩子為不能施工的藉口，「加蓋的廚房還幾乎快要倒塌，還能自稱為豪宅？自以為豪門？」接著她話鋒一轉，以娘家全新百坪透天相比，不僅沒房貸、沒漏水，房間磁磚也相當整齊，更沒有加蓋，「家裡還有幾塊土地，都不好意思稱自己家裡環境不錯了，就不知道婆家怎麼這麼有自信？」文章曝光後，隨即引發熱議，「跟我婆家一樣覺得是在北市就好像很高傲一樣，坪數20都不到50幾年的房子還在覺得高級」、「可能就是沒錢可以修繕，礙於死要面子，不跟妳直說」、「如果它兒子妳老公直接出錢整修，我想沒人會拒絕」。不過更多網友直言，原PO根本管太多，「能住你就住，不想住就搬走，管婆家是不是豪宅」、「不喜歡住婆家就搬出去！別拿娘家比較，每個家庭狀況不一樣」、「婆家的家產，媳婦一律別管」、「共居的環境讓妳不舒服又無能為力改變的話，就外面租屋搬出去吧」。 </t>
         </is>
       </c>
     </row>
@@ -2275,17 +2342,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>建設董座慨捐南投縣消防警備車　累計第10輛完成父親大愛遺願</t>
+          <t>逸祥逛夜市「怪男找女友攀談」　愛犬遭扯尾巴他氣炸：想魚死網破</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469496.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470263.htm</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲源盟建設有限公司董事長鄭憲欣（右）與其他2單位合贈南投縣消防局消防警備車。（圖／南投縣政府提供，下同）記者高堂堯／南投報導郁正股份有限公司、源盟建設有限公司、南投扶輪社等單位共同捐贈南投縣消防局一輛消防警備車，作為執行緊急救災勤務使用；其中源盟建設董事長鄭憲欣的父親生前遺願即為捐贈10輛消防警備車，今天終於達標，除協助南投消防弟兄拯救更多生命、也告慰父親在天之靈。副縣長王瑞德今天上午前往縣府消防局主持捐贈儀式，致贈感謝狀予3家善心單位，感謝其捐贈消防警備車、完善消防勤務所需裝備。郁正公司董事長藍麗花表示，該公司與南投消防淵源極深，深知消防救災裝備需求殷切，此次已是該公司捐贈的第3輛警備車，價值超過百萬，安全性高、設備完善運用靈活，可讓消防弟兄值勤更安全方便；源盟建設董事長鄭憲欣則說，為達成其父捐贈10輛消防警備車的心願，多年來持續捐贈，此次剛好是第10輛，也初步達成其父心願，但未來將持續捐贈，不會停歇。消防局長林聰吉表示，受贈消防警備車將投入第一大隊救災行列，十分感謝3家單位慷慨解囊、強化南投縣救災能力，不僅提供縣民更好的救災品質，也提供消防人員更好的安全保障。王瑞德說，近年極端氣侯造成災害型態不斷複雜化，救災難度日益增加，民眾對於緊急救災效率之需求也隨時代之進步而增加，現今對救災資源的需求也不可同日而語；縣府除全力擴充消防救災裝備，今年也透過追加預算儘可能滿足消防局提出需求，俾利消防弟兄全力投入救災，維護縣民生命財產安全。 </t>
+          <t>記者蔡宜芳／綜合報導逸祥（黃逸祥）是前《大學生了沒》班底，以搞笑模仿動漫《火影忍者》闖出名堂，常在許多綜藝節目現身擔任嘉賓。他30日透露和女友帶著愛犬去夜市買雞排時，遇到一位陌生男子粗暴對待他的狗狗，他雖一度想當面發火，但後來還是忍住，也為此跟女友小起爭執。▲逸祥透露去夜市遇到無禮男子。（圖／翻攝自Facebook／黃逸祥粉絲團）逸祥30日在社群平台透露，前一晚帶著女友和愛犬到士林夜市逛街，女友去排隊買雞排，他則在一旁牽著狗狗等待，期間，他看到一名戴著安全帽的男子跟女友聊天，「過了3分鐘，我發現女友一直看我，我就走到她的旁邊。」對方看到他的愛犬後，便開心表示自己也有養貴賓犬，並伸手摸狗狗。[廣告]請繼續往下閱讀...起初還沒有任何異常，但當狗狗跑到另一邊時，男子的行為舉止漸漸變得不妥，他先是抓住狗狗的尾巴拉到自己腳邊，後來又直接抓住狗狗的頭部。逸祥一看到此情景，便立刻伸手去擋，「然後我暗示女友，我帶狗狗去旁邊等，我女友手按著我，也是一臉求救的眼神，當下我不理解她為什麼不讓我走。」在思考了一下後，他便讓女友帶著愛犬到旁邊等待。▲黃逸祥透露遇到陌生男子粗爆對待他的愛犬。（圖／翻攝自Facebook／黃逸祥粉絲團）逸祥透露，該男子在排隊期間一直想和他聊天，「我已經一直看手機，眼睛都沒看他了，他還一直講一直講一直講。」逸祥原想在對方買完雞排離去時，直接「魚死網破」發火，但最後他還是忍住怒氣，「我回去找女友時，也因為這件事情小小爭吵一下，她覺得我第一時間沒有反應過來。」對於此事，逸祥不斷反思究竟該如何處理，「這件事情的起因就是這個男子，我事後一直再想這件事情，是不是當下就要跟他說呢？」他也詢問網友是否有更好的解決方式，引網友留言建議「當下就要直接講：抱歉，我有點累不想聊天」、「他拉狗尾巴的當下就可以嚴正地拒絕」，還有不少人歪樓問「為什麼你有女朋友」。▲網友的看法。（圖／翻攝自Facebook／黃逸祥粉絲團）【逸祥全文】昨天逛士林夜市時發生一件事情…我女友要去買雞排，因為那家店人很多需要排隊，我不想排隊，就跟女友說：「妳排，我牽著狗狗在旁邊等」女友剛去排隊，有一位頭戴安全帽的男子排在前面，他就開始跟我女友聊天，過了三分鐘，我發現女友一直看我，我就走到她的旁邊，那位男子看到我們的狗狗，就很開心說：「好可愛喔！我也有養貴賓狗耶！」，然後就開始摸狗一開始都還正常摸，但是狗狗跑到另一邊時，那位男子就抓著狗狗的尾巴拉過去他腳下，我當下覺得有點嚇到，心想：「他怎麼這樣拉狗？」後來狗狗又跑到另一邊，那個男子又直接抓狗狗的頭，我就下去用手擋，不讓他再摸。然後我暗示女友，我帶狗狗去旁邊等，我女友手按著我，也是一臉求救的眼神，當下我不理解她為什麼不讓我走，後來想了一下，我就跟女友說：「妳帶狗狗去旁邊，我來等就好」之後女友帶狗狗就去旁邊了，那個男子還一直跟我講話，一直講，我已經一直看手機，眼睛都沒看他了，他還一直講一直講一直講就在他買完雞排從我面前離開時，這一秒，天人交戰！我心裡一陣怒火，情緒整個上來！心裡想的就要跟他來個「魚死網破」，反正他也沒認出我，現在踢一腳再跑開都來得及！但最後我還是忍住怒氣，讓他安全的從我面前離開，我回去找女友時，也因為這件事情小小爭吵一下，她覺得我第一時間沒有反應過來總之，這件事情的起因就是這個男子，我事後一直再想這件事情，是不是當下就要跟他說呢？（真的很氣很氣）想問問大家，有沒有更好的解決方法呢？如果是你們碰到這種事會怎麼做？</t>
         </is>
       </c>
     </row>
@@ -2295,17 +2362,18 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>新光中港店曝一招「6000變195萬」　購物節回饋30%加碼抽名車</t>
+          <t>金曲歌后愛女出道了！　曾路邊擺攤...見媽媽舞台發光「決心圓夢」</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469520.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470056.htm</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲抽到手抽筋！百貨店王台中新光購物節回饋30%，加碼抽195萬名車60次。（圖／記者游瓊華攝）記者游瓊華／台中報導全台百貨店王新光三越中港店迎來上半年最大檔期購物節，適逢政府發放6000元。新光三越也瞄準「錢潮」，祭出手機skm pay消費享30％回饋，會員點數扣100點，可抽195萬元LEXUS ES200頂級房車，等於手機會員消費6千元，不僅有1800元回饋，還可狂抽頂級房車60次。店長許宜敬指出，依據館內統計，台中店skm pay會員約65萬人，其中有20多萬名死忠顧客，想把6000元變成195萬元豪車機率頗高。[廣告]請繼續往下閱讀...新光三越初夏購物節在清明連假後、4月6日全台分店同步登場，但中港店是唯一祭出豪車抽獎之分店。看好疫情解封後消費全面復甦，加上政府普發6000元的利多，促銷規模比照周年慶，除了全館滿千送百，還有會員點數回饋扣100點，可抽中195萬的LEXUS ES200頂級款、扣50點就有機會抽中宏佳騰智能電動機車等好禮。 </t>
+          <t xml:space="preserve">▲林沛蕎推出個人首張客語專輯。（圖／獨一無二娛樂文化提供）記者翁子涵／台北報導林沛蕎推出首張客語專輯《Chill 幻》，她的音樂細胞遺傳自樂手父親與歌手母親，事實上，她的媽媽正是金曲客語歌后官靈芝，因為父母工作非常忙碌，自幼養成獨立的個性，使得她比常人更早熟，畢業後踏入了社會，輾轉多年至今，做過許多工作包括服務生、街邊擺攤、在電視台當過造型師等，直到某日看到舞台上唱歌的媽媽，那種從容與自信，讓她心生嚮往。[廣告]請繼續往下閱讀...▲林沛蕎的音樂細胞來自爸媽。（圖／獨一無二娛樂文化提供）林沛蕎說：「從小幾乎每天看媽媽在唱歌是一種生活習慣。這麼多年後，再次仔細看媽媽的演出，才發現，那一位平時無論在什麼時候，陪伴在我身邊的、無話不說的媽媽，她在舞台上是另一種樣子，那種悠然自得信手捻來的底氣，就是我最想要的！最後，也是她讓我重新覺醒了追尋音樂的心！這次我想唱出自己的聲音。」下定決心後的林沛蕎，便開始駐唱之路，在許多餐廳Pub演出、找聲樂老師學習歌唱技巧，磨練自己的舞台經驗，持續不停的去學習與積累著音樂能量，之後參加ICRT西洋歌唱比賽、第一屆全球客家流行音樂大賽等斬獲歌唱冠軍，隨後音樂創作更獲得臺灣原創流行音樂大賽客語組佳作肯定，並與滾石電音合作發行數位單曲《Don’t wanna be》做為試金石，累積不少音樂好口碑後，終於發行個人首張專輯。新專輯找來音樂大師凃惠源、日本知名音樂人金木義則、金曲客家歌后官靈芝、曾雅君、台灣教父級DJ及電音製作人DJ大衛等人跨刀合作，打造時尚都會輕音樂專輯，顛覆樂迷對於客家音樂的既有印象，林沛蕎自己也有參與部分歌曲的創作，首波歌曲《對愛失望》日前以華語、客語兩版本發行，勇敢唱出經歷感情失敗的心情。+ </t>
         </is>
       </c>
     </row>
@@ -2315,17 +2383,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>鄭文燦稱「有義務幫國家加分」　藍委反批：蔡英文刻意沒收國名</t>
+          <t>王柏融二軍先發獲2保送　挨觸身球無大礙</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469543.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470274.htm</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲國民黨立委賴士葆。（圖／記者黃國霖攝）記者詹宜庭／台北報導前總統馬英九展開訪陸「和平祭祖之旅」，落款時以民國紀年寫下「百十二」，並自稱前總統、喊出「民國」，讓行政院副院長鄭文燦大讚「馬英九有義務幫國家加分，中華民國在台灣是一個事實，也是兩岸互動的出發點。」不過，藍營立委賴士葆卻質疑，如果鄭文燦覺得提到中華民國可以幫國家加分，為什麼總統蔡英文刻意沒收中華民國的國名？賴士葆29日表示，馬英九在中山陵提到他自己前總統的身分，及孫中山推翻滿清，建立亞洲第一個民主共和國「中華民國」至今已經112年，強化中華民國存在的事實，這些都值得肯定讚許。對於公開捍衛中華民國議題，賴士葆指出，鄭文燦曾說前總統有義務要幫國家加分，但根據媒體統計，在過去重要場合中，蔡英文曾多次刻意不提「中華民國」，以「台灣」來代替。賴士葆舉例，蔡英文在2020就職演說時提到「台灣」46次、提及「中華民國」4次；在2021國慶演說時提及「台灣」51次、提及「中華民國」9次；在2022國慶演說時提及「台灣」48次、提及「中華民國台灣」3次。很顯然，「中華民國」這個稱謂早就被蔡政府沒收，以「台灣」取而代之，如果鄭文燦覺得提到中華民國可以幫國家加分，為什麼蔡英文在國家重要慶典要讓中華民國幾乎消失？國慶日的主視覺為何刻意消失國旗和國號？賴士葆強調，2016年蔡英文出訪巴拿馬簽名寫下台灣總統「President of Taiwan」，蔡英文即將出訪友邦國家，提醒蔡英文她是根據中華民國憲法選出來的中華民國總統，雖然她刻意沒收中華民國的國名，但他還是要呼籲蔡英文「捍衛中華民國的國名。」 </t>
+          <t>▲王柏融。（圖／取自火腿官方推特）   記者陳立勳／綜合報導日本職棒火腿隊台灣球員王柏融今天在二軍先發出賽，鎮守左外野，雖然沒有安打，但有2次藉由保送上壘，火腿隊二軍終場3比7不敵橫濱隊二軍。今天王柏融在二軍先發出賽，擔任第6棒，鎮守左外野，第2局首打席遭到觸身球，第4局第2打席選到四壞球，第6局第3打席擊出中外野飛球接殺，第8局第4打席遭到三振。總計王柏融2打數沒有安打，獲得2次保送，打擊率降到0.154，至於火腿隊一軍今天開幕戰在全新主場交手樂天隊，火腿隊推出左投加藤貴之擔綱先發，對上樂天田中將大。[廣告]請繼續往下閱讀...</t>
         </is>
       </c>
     </row>
@@ -2335,17 +2403,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>俄女想增強免疫！偷買「人胎盤素」自行打針　燒到41°C中毒慘死</t>
+          <t>集體外籍浮屍案　高檢署稱比對身分中、尚須彙整各方訊息</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469033.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470336.htm</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲俄羅斯22歲女大生科萊亞達自行注射了人胎盤素後不幸死亡。（圖／翻攝自推特）記者葉睿涵／綜合報導俄羅斯22歲的醫學院學生科萊亞達（Anna Kolyada）最近因自行注射了人胎盤素針劑，而出現發燒、休克、血液中毒等嚴重症狀，並在醫院接受治療長達10天後不幸死亡。綜合外媒報導，自稱為「健康教練」的科萊亞達，為了讓自身免疫力在她去杜拜旅遊前變強，於是在沒有醫院處方的情況下，從網上購買了日本生產的人胎盤素針劑，且同樣在沒有醫師監督的時候，於前往機場途中為自己和男友朱林（Dmitry Zhulin）注射了各一劑的人胎盤素。儘管2人此前也曾注射相關藥物，且從未出現任何副作用，但科萊亞達這次注射完藥物20分鐘後，就開始感到噁心、發冷和頭痛，體溫甚至還升高至攝氏41度，於是男友立即將她​送到醫院救治。住院期間，她出現了肺積水、感染性休克、心力衰竭和血液中毒等症狀，並在10天后死亡。目前，俄羅斯調查委員會已就科萊亞達的死展開刑事調查。他們懷疑，科萊亞達注射的藥物可能被放置在生理食鹽水中好幾天，並在隨後「因蛋白質凝固而形成感染」。報導稱，研究人員現在正對相關藥物的安瓶進行檢查，而朱林也同樣因身體不適住進了醫院，不過他正在康復中。 </t>
+          <t xml:space="preserve">▲台灣高等檢察署書記官長林宏松，說明偵辦案情。（圖／記者吳銘峯攝）記者吳銘峯／台北報導我國西部海岸近來出現多具外籍浮屍漂流，懷疑可能是跨境人蛇集團丟包偷渡者、抑或偷渡走私集團發生船難造成多人死亡。法務部長蔡清祥已經只是台灣高等檢察署進行查辦，高檢署30日表示，目前已經比對出多具遺體的身分，確認是越南籍的人士，但還有4具遺體身分不明；此外，也懷疑還有遺體尚未被發現。根據警方發布的資料，統計自2月底起到3月28日間的資料，總計發現20具海上漂流屍體。其中9具為我國籍人士，並無不法；至於其餘11具，透過越南駐台北經濟文化辦事處提供資料後，目前確認其中有5男、2女為越南籍人士，另外還有4具屍體身分不明。法務部長蔡清祥在事發後立刻指示台灣高等檢署進行統整查辦，蔡清祥指出，本案交給臺高檢署防制人口販運督導小組，召集台南、台中地檢，海巡署、刑事局、法醫研究所等單位，彙集相關訊息後，深入追查。而高檢署書記官長林宏松30日受訪時表示，根據越南方面的情資以及比對出來的遺體資料，懷疑這批浮屍可能是越南人蛇集團偷渡，當時有14位偷渡失蹤者上船，現在已經比對出其中的5男2女，但仍有4具遺體身分不能確認，還需要更多的情資、檢體比對。此外，該集團仍有3人未尋獲，檢方認為凶多吉少，未來可能還會發現更多的浮屍。至於這批偷渡客罹難的原因，是因為遭人蛇集團推入海中？或是發生船難？或是餓死？林宏松也表示，因為這批人士罹難均有一段時間，再加上屍體泡在海水中，只能透過解剖釐清死因；目前僅能確認在台中外海風機上的越南籍男子為餓死，其他人罹難的原因還在釐清中。 </t>
         </is>
       </c>
     </row>
@@ -2355,17 +2423,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>老婆半裸入鏡「車頭燈全都露」！德傳奇國腳GG了　整片肉色瘋傳</t>
+          <t>狂轟生涯新高51分　哈勒戴：我像不會灌籃的字母哥</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469038.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470323.htm</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲ 布雷默轉身望向門口，顯然不知道鏡頭也照到妻子。（圖／翻攝自推特）記者陳宛貞／綜合外電報導德國前國腳布雷默（Andreas Brehme）在1990年世界盃足球賽決賽場上攻入致勝球，成為奪冠英雄，更是德國史上最偉大的後衛之一，近日卻發生一件糗事，原來他在拍攝給粉絲的影片時，妻子竟光裸著上身出現在鏡頭前，胸前兩點全都露，影片頓時在網路上瘋傳。《每日星報》報導，影片平台Memmo用戶可付費請名人拍攝個人化影片，許多退役足球員都使用Memmo與粉絲互動，布雷默也是其中之一，日前拍影片時卻發生慘劇，因為在這段1分鐘影片將近尾聲時，他的妻子蘇珊娜（Susanne）意外半裸入鏡。網路上流傳的影片中，布雷默對著鏡頭說話到一半突然轉頭望向房門口，而蘇珊娜就站在門口，身上僅穿著一件內褲，上半身毫無遮蔽物。布雷默顯然不知道自己曾經將鏡頭轉向蘇珊娜，因為他上傳影片之前沒有剪掉這段露點畫面，直接公諸於世。布雷默事後受訪說明，後來因為許多友人打電話來，他們才知道出事了，不過他選擇坦然接受，「現在全世界都知道我老婆有多棒了！這本來不該發生，但我還可以自嘲，以後最好都讓蘇珊娜掌鏡。」蘇珊娜對此也不以為意，「那是去年夏天在加爾達湖度假的時候，怎麼了嗎？你可以看到我在岸上還是在桑拿換衣服，我們都一笑置之。」 </t>
+          <t xml:space="preserve">    在 Instagram 查看這則貼文           NBA（@nba）分享的貼文 記者杜奕君／綜合報導公鹿後場指揮官「假日哥」哈勒戴(Jrue Holiday)30日對上溜馬之戰寫下生涯里程碑，全場狂轟生涯新高51分外帶8籃板、8助攻，幫助公鹿以149比136擊敗溜馬。哈勒戴賽後表示，「我花了14年才達到單場50分，感覺自己就像是不會灌籃的安戴托昆波(Giannis Antetokounmpo)！」聯盟例行賽龍頭公鹿今日出征溜馬主場，兩軍上演了一場飆分大戰，公鹿王牌球星「字母哥」安戴托昆波全場轟下38分、17籃板、12助攻大三元數據，加上主控哈勒戴僅出賽32分28秒，就以30投20中狂轟生涯新高51分，外帶8籃板、8助攻、1抄截、1阻攻，攜手領軍鹿群收勝，兩人也寫下聯盟史上首次，單場同時有同隊球員拿下50分以及35分大三元數據表現。哈勒戴此戰與安戴托昆波合計轟下89分，也成為隊史單場得分最高之雙人組。值得一提的是，哈勒戴今日的51分當中，有30分是在禁區所拿下。[廣告]請繼續往下閱讀...對此哈勒戴表示，「我覺得自己就像是安戴托昆波，只是少了灌籃的部分，我花了14年的職業生涯才達到單場50分，而且是在一場必須贏的比賽中，這讓我太開心了！」▲公鹿哈勒戴今日對上溜馬之戰狂轟生涯新高51分。（圖／CFP） </t>
         </is>
       </c>
     </row>
@@ -2375,17 +2443,21 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>全國社區學生棒球賽增設U15、女子組　30日開放報名</t>
+          <t>邊長僅10公分！日本高中生成功造超小型人造衛星　10月升空</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469540.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470314.htm</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲全國社區學生棒球大賽啟動記者會。（圖／世界少棒聯盟提供） 記者陳立勳／台北報導由教育部體育署指導，台灣世界少棒聯盟主辦，民國111年推動了第一屆「全國社區學生棒球大賽」，打造社區孩子們的專屬夢想舞台，去年第一屆「全國社區學生棒球大賽」分為U10及U12組，共有89隊報名參賽，今年將增設女子組（U12及U15）及U15混合組，預計隊伍數將再次推升。112年全國社區學生棒球大賽報名作業，將自明天3月30日至4月14日開放報名，有興趣的球隊可到主辦單位台灣世界少棒聯盟的官方網站查詢。台灣世界少棒聯盟理事長黃英華表示，「社區棒球小球員們天真的笑容，家長們賣力的為小孩加油打氣，就是推動社區棒球運動的最大回饋與感動。」[廣告]請繼續往下閱讀...今天賽事啟動記者會上，主辦單位邀請前美國職棒大聯盟好手郭泓志，以及自社區棒球出身，被MLB奧克蘭運動家隊相中，即將赴美圓夢的新生代好手沙子宸，分享他們的棒球路，鼓勵小球員快樂打球，勇敢追逐自己的棒球夢。此外，今天也邀請去年度U12及U10兩個組別前四強，包含台中健行小牛、三峽社區、熊快樂少棒、港湖NBA、中大紅襪、竹風少年等球隊出席記者會，分享去年比賽經驗。今年比賽將在6月3、4、10、11、18日連續三個週末，於全國各地進行預賽，挑選出各組晉級全國賽的隊伍；並於7月8日在臺中市進行全國賽開幕典禮、園遊會及趣味競賽，接著7月9、15、16日利用連續兩個週末進行全國賽，決定「112年全國社區學生棒球大賽」的各組冠軍。▲全國社區學生棒球大賽啟動記者會。（圖／世界少棒聯盟提供）  </t>
+          <t xml:space="preserve">▲日本預計將把超小型人造衛星送上國際太空站。　（示意圖／達志影像／美聯社，圖為2018年日本成功發射人造衛星「氣息2號」。）文／中央社+總校區位於日本北海道深川市、以函授教育等為主的「克拉克紀念國際高校」學生成功開發出暱稱大志號（ambitious）的超小型人造衛星Clark sat-1，預計今年10月升空。+克拉克紀念國際高校以克拉克博士（William Smith Clark）的精神作為教育理念，而克拉克博士的名言是「少年要胸懷大志」（Boys, be ambitious）。日本讀賣新聞報導，日本宇宙航空研究開發機構（JAXA）預計將於今年10月把大志號送上國際太空站（ISS）。+大志號是邊長10公分的立方體，重量約1公斤；立方體5面安裝太陽能光電板。順利發射升空後，將由ISS使用機器手臂投入太空軌道，然後利用所搭載的相機來拍攝地球環境。負責操控這顆超小型人造衛星的單位，將設置在克拉克紀念國際高校位於東京都板橋區的校舍內，並由該校於日本各地校區招募約50名太空研究社學生負責。+在人造衛星開發過程中，這些學生曾獲東京大學等單位協助。該校日前在東京都內舉行記者會，一名隸屬東京校區的高一學生說，希望透過地球真實樣貌，讓更多人知道環境問題的嚴重性。 </t>
         </is>
       </c>
     </row>
@@ -2395,17 +2467,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>叔姪之爭落幕！新光三越改選吳東昇接董座　吳昕陽續任總經理</t>
+          <t>快訊／花30元外送費爽中千萬！　統一發票1、2月中獎完整清冊曝光</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469552.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470172.htm</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲新光三越百貨今（29）日舉行董事會。（圖／記者黃克翔攝）記者林淑慧／台北報導百貨龍頭新光三越今（29）日召開董事會進行改選，經台日雙方董事形成共識，由泛新光家族的吳東昇接任董事長，日籍田中豐彥接任副董事長，總座仍由吳昕陽續任，傳出會中台日雙方亦有下屆董座將由第三代接班之共識。新光三越表示，今日董事會經台日雙方董事形成共識，由吳東昇先生接任董事長、田中豐彥先生，接任副董事長，董事會肯定經營團隊表現，期待新任董事長及副董事長未來能優化公司治理並完成世代交替。[廣告]請繼續往下閱讀...據指出，日籍董事於會中要求，吳東昇接任董座任期2年3個月屆滿後，下任董座須由第三代接班，會中除吳東亮持反對票之外，其餘董事拍手同意由吳東昇接任董座一職，吳東昇亦在會中發言肯定總座吳昕陽近年的經營實績。新光三越表示，隨著董事會改選結果出爐，新光三越將秉持一貫「顧客至上、真心誠意」的經營理念，不斷穩步向前，並持續發展新體驗、新消費、新永續，努力為人們開創更愉悅美好的生活體驗。 </t>
+          <t xml:space="preserve">▲1、2月期統一發票千萬特別獎出爐。（示意圖／記者吳珍儀攝）記者吳珍儀／台北報導財政部今（30）日下午公布112年1、2月期統一發票千萬特別獎、200萬特獎等中獎清冊。本期中獎幸運兒中，有民眾僅花30元外送費，就抱走千萬大獎。112年1、2月統一發票千萬特別獎獎號為「06634385」、200萬元特獎號碼則是「66882140」。3組頭獎（獎金20萬元）中獎號碼則為「25722152」、「93412693」及「16957025」。[廣告]請繼續往下閱讀...▲1、2月統一發票中獎號碼。（圖／《ETtoday新聞雲》製作）財政部初步統計，本期1000萬特別獎開出14張，200萬特獎則開出12張。發票兌領獎期間為4月6日至7月5日。▼2023年1-2月統一發票1000萬元特別獎中獎清冊，可點圖放大。（圖／取自財政部）▼2023年1-2月統一發票200萬元特獎中獎清冊，可點圖放大。（圖／取自財政部） </t>
         </is>
       </c>
     </row>
@@ -2415,17 +2487,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>吳皓昇《市井豪門》當失憶男　情感戲靠掐大腿憋淚！</t>
+          <t>在98歲市定古蹟喝咖啡　星巴克進駐「新竹州圖書館」</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469537.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470317.htm</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>記者李欣容／台北報導藝人吳皓昇在民視八點檔《市井豪門》中飾演落海失憶的李有志，一身簡樸的模樣，讓他也花了不少工夫，他說每週還是要去做日光照射，保持黝黑的皮膚，除此之外也特別留了鬍子，增添許多滄桑感，不過他說最難演的就是失憶，對眼前熟人都要裝不認識，面對楚宣、李又汝的眼淚噴發，只能強捏大腿，告訴自己要無感。▲吳皓昇為戲蓄鬍。（圖／民視提供）吳皓昇表示接下來很快就會恢復李有志，在那之前就先讓觀眾感受一下喜感的阮泰久，可以在劇中大剌剌沒有包袱。尤其日前拍攝楚宣為了鞏固小老婆地位，竟然想趁他還沒恢復記憶的時候，先喧賓奪主，想要扶正自己的地位，竟然對他展開色誘大作戰，他說因為跟楚宣就像哥們，所以對色誘的戲不會不好意思，加上尺度限制也沒辦法太過頭，反而是打打鬧鬧，趣味性十足。[廣告]請繼續往下閱讀...▲吳皓昇這場戲要面對楚宣的相認而崩潰大哭，卻要無感讓他只能捏大腿hold住情緒。（圖／民視提供）收工後就忙著育嬰生活的吳皓昇，每天回家都會花時間陪老婆文汶跟女兒「模模」，他說尤其老婆猴爺的事業也步上軌道，而他也穩定拍攝八點檔，但自從當爸爸之後，重心真的不一樣，除了工作認真加倍，空檔時間就想跟女兒膩在一起，他說現階段兩人也會開始會帶她外出，他表示之前在家都配合女兒的生活習慣，現在大了偶爾也要帶女兒放風，帶她開始接觸大自然，接觸人群，他笑說以前不懂什麼叫「女兒傻瓜」，現在有了女兒，終於懂也體會到，任何辛苦都甘之如飴。</t>
+          <t xml:space="preserve">▲星巴克「新竹州圖書館」門市。（圖／新竹市政府提供）新竹振道記者蔡文綺／新竹報導星巴克「新竹州圖書館」門市今（30）日上午10時正式營運，為桃竹苗區首間市定古蹟門市，亦是竹市私有古蹟與星巴克合作活化再利用首例。新竹市長高虹安表示，這是讓古蹟活化再利用的良好範例，邀請各界連假期間來新竹市舊城區走走，漫遊古蹟、歷史建築與特色店家，再到星巴克「新竹州圖書館」門市享用咖啡，度過悠閒的午後時光，同時感受新竹市98歲古蹟的歷史風華。高虹安說明，市府重視文化發展，目前全市共73處古蹟、歷史與紀念建築，並持續努力進行古蹟、歷史建築的修復再利用，期許回復古蹟風貌的同時，同時打造其周圍成為一個親民的優質環境，成為市民假日觀光休閒新亮點。其中，新竹州圖書館為公私協力修復古蹟典範，彰顯州圖重要歷史意涵，也讓歷史與現代共融。新竹市文化局長錢康明表示，新竹州圖書館的建築特色，係近世復興式RC建築，設計者為日人宇敷赳夫，建築外觀重視水平線條分割，整體形貌方正，鮮少有複雜的量體組合，其室內使用採光高窗、外部牆面部分飾以泥塑洗石裝飾圖樣。錢康明說，興建於1925年的新竹州圖書館，是日治時期裕仁皇太子來訪，新竹街以「行啟紀念」為由申請之圖書館建設計畫，「近代復興式樣」的建築風格兼具古典與現代建築元素，殊為臺灣近代建築史典範。錢康明補充，日治時期全台曾興建三座獨棟公共圖書館，第一座是台南市圖書館現已拆除；第二座是新竹州圖書館；第三座則是台中州圖書館，現作為合作金庫使用，相較之下，新竹州圖書館建築原貌最完整的被保留。文化局補充，連假期間來訪新竹市的民眾，可以到舊城區來趟古蹟漫步之旅，從1913年建造的新竹火車站開始，沿途可以看到東門城、影博館(有樂館)、新竹州廳、美術館、新竹州警務部部長官舍等，最後來到新竹州圖書館享用美味餐點，為自己的古蹟深度之旅畫下完美的句點。 </t>
         </is>
       </c>
     </row>
@@ -2435,21 +2507,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>換季過敏睡不好　當心孩子陷入過敏成長障礙？日常補充「這個」調整過敏體質　孩子睡得好成長沒煩惱!</t>
+          <t>上大學只為求高薪？　AI再聰明也給不出答案</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2466148.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2469908.htm</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t xml:space="preserve">圖、文／LP33提供常聽人說「春天後母面」，形容春天忽冷忽熱、變化不定的氣候。現在正值冬春換季的季節，早晚溫差大讓許多家長苦惱該怎麼幫孩子穿衣服，才能做好保暖對策。換季也是許多過敏兒家長特別擔心的時候，因為孩子常常反覆過敏導致注意力、學習表現不佳。然而很多家長往往忽略過敏對睡眠也會有影響，睡不好反而更會讓孩子陷入過敏成長障礙！換季就會反覆過敏，甚至連帶影響孩子成長！台灣研究指出，容易引發過敏的兩大關鍵分別為：溫差達7℃、相對溼度高達61%以上。冬春換季期間，早晚溫差變化較大，尤其是清晨及傍晚的冷空氣，再加上台灣長年平均濕度達75%，容易誘發孩子過敏。過敏常常讓孩子們呼吸不順，導致難以入睡，擁有較差的睡眠品質。偏偏睡眠時間是孩子成長的重要時刻，睡不好會導致生長發育因此受擾。▲圖卡來源：康健想擺脫過敏成長障礙，先了解過敏怎麼發生-其實，過敏是一種身體自我保護的機制，是身體的免疫系統對外在過敏原過度反應導致。人體免疫系統中有兩種T細胞，分別是第一型T輔助細胞(TH1)，以及第二型T輔助細胞(TH2)。在健康情況下，TH1 細胞與TH2細胞呈現平衡，當受到外在過敏原刺激，就會讓TH2細胞比較活躍，進一步失衡產生過敏反應。▲圖卡來源：康健讓孩子均衡飲食、遠離外在過敏原可能還不夠！-許多家長為幫助孩子遠離過敏原，家中除濕機、空氣清淨機運轉24小時是基本常態，也會勤更換床舖被單，確保孩子生活環境不被塵螨、黴菌襲擊。此外，也會讓孩子均衡飲食，維持身體保護力。但是，當孩子離開家長守護，來到校園或是其它室外環境後，受到外在過敏原刺激就會讓體內TH1、TH2細胞失衡引發過敏。因此，「調整內在體質」才是抗敏根本之道！▲圖卡來源：康健天天喝國家認證的LP33機能優酪乳 輔助調整過敏體質-孩子睡好成長沒煩惱！-除了上述抗敏對策外，家長別忘了平衡體內TH1、TH2細胞。日常可以讓孩子補充益生菌來平衡細胞活性。然而，市面上含有益生菌的產品十分多元，家長該如何安心挑選，調整孩子體質，讓他們睡得好成長沒煩惱呢？LP33機能優酪乳含有專利LP菌，更獲得國家健康食品認證，可輔助調整過敏體質，其酸甜口感孩子接受度高，建議可以在每日早餐或是</t>
+          <t xml:space="preserve">我們想讓你知道…在不可預期的多變時代，求生已不只是找到工作，而是能常保朝氣，為嚮往的目標好好生活。▲ 考生要選哪個校系，當然會影響他們的人生，但影響力有多強，得自己探索、承擔。（圖／記者林敬旻攝）● 翟敬宜／大學教師什麼都能問，什麼都難不倒，ChatGPT逼得各大學不得不擬出教學指引。這是AI對學習型式、效果和價值帶來重大影響的時代，為什麼要念大學？為什麼要選這些科系？未來有用武之地嗎？科技新運用來得快，還來不及細思量，今年考生就必須在短時間內做好決定想申請的校系。凡事問AI還要學什麼？　自主學習是求生原動力上大學不再只是為了學一門專業，而是把自己練成更有學習力、更快速掌握環境變化、對知識的整合運用更熟練的人。新科技的亮相讓這趨勢更明顯，不只考驗學生，也嚴格考驗大學的教學資源。怎麼教，才能在AI生成如此輕鬆的時代，仍能點燃學生探索未知與找答案的熱情？挑戰來得既即時又嚴峻。困難的不是教會學生運用科技，而是大學要如何引導他們想像未來的自己，怎麼跟所處的環境和社會接軌，面對新變化新刺激如何接招⋯這是一種在社會中「自處」的能力，在不可預期的多變時代，求生已不只是找到工作，而是能常保朝氣，為嚮往的目標好好生活。這股韌性的原動力就來自學習。當主動學習成為一種習慣，耐壓耐挫力才能隨之而來。也是大學真正的育才內涵。少子化競爭下　大學淪為高薪養成班但傳統考試制度的影響太深沈，台灣的大學在少子化競爭下充滿目標導向。所謂理想大學，不是聲稱要把你栽培成學者或高薪菁英，就是讓你求職沒煩惱，二擇一。做不到的大學就要背上學用落差的罪名。▲ 社會不是只需要菁英，大學也不應該只剩下目標導向。（圖／記者許敏溶攝）但社會不是只需要菁英，大學也不應該只給這兩條路，而是讓學生有能力有勇氣替自己開路。這樣的配備，大學怎麼給，是每個校長都該想的教育政策。無奈壓力太現實，大學過剩生源不夠，對不少學校來說，能招到足夠的學生維持正常運轉，不被註冊率拖垮已萬幸，除了喊喊就業沒問題，已無力顧及其他。因此，當AI極可能會取代許多職務，大學育才又只剩「能找到理想工作」，很難讓人不問這一題：「如果只為一份工作，念大學幹嘛？」如何不被AI取代？　ChatGPT再聰明也無解教學經驗中，我確實有學生選擇休學，先到職場磨鍊或打工度假；有人回來復學，繼續邊上班邊念書，也有人都結婚生子當了店經理都還沒回來念完。在他們的年輕人生裡，學歷不必一站到位，從大學離開並不表示學習就此中斷，只是在那個階段，想先試試別的路徑。Z世代對學習和生涯的看法早已大不同。考生選志願，也只是現階段的一次練習。選擇哪個校系，當然會影響他們的人生，但影響力有多強，得自己探索、自己承擔。父母要相信孩子有能力接住挑戰，大學要自許有能力給出科技與環境速變下的學習資源。至於要如何做到，倒是ChatGPT再聰明也給不出的答案。● 以上言論不代表本網立場。歡迎投書《雲論》讓優質好文被更多人看見，請寄editor88@ettoday.net或點此投稿，本網保有文字刪修權。 </t>
         </is>
       </c>
     </row>
@@ -2459,34 +2527,18 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>西部海域16浮屍性別曝！「13男3女」5台人　越籍逃逸移工成關鍵</t>
+          <t>周興哲加碼證實「結婚喜訊」！ 　和大6歲女友喜迎寶寶：最好的禮物</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469521.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470325.htm</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t xml:space="preserve">記者張君豪／台北報導海巡署29日證實3月間台灣海域出現大批浮屍，經內部調查資料發現總計發現16具浮屍，性別為13男3女，其中本國籍5具遺體中有3男2女、另外確定國籍的是越南籍的男性屍體2具，另外在王功外海風機平台上發現的男性乾屍；另外有9具分屬8男1女身分不詳的浮屍待查。▲台灣近海3月總計發現16具浮屍，海巡署成立專案查緝中。（圖說下同／記者張君豪翻攝）台灣西部外海在3月期間陸續發現16具浮屍，引發越南駐台代表處的關注，越南代表處緊急要求台灣警政署國際組協助建立發現越籍浮屍的DNA樣本，以利後續該國失蹤人口排查；台灣西部海域出現大批浮屍，是否國際人蛇集團丟包造成，抑或船難其他因素造成，法務部已通令高檢署協調海巡、警政、各地地檢署共同開會釐清後續調查方向。經過清查，2名越男性死者中，有一人是入境台灣的逾期移工，其是否與人蛇集團勾結而喪命，或只是巧合溺死海中而在相同時段被發現，與只他死者有無關聯性，目前都還待釐清。-海巡署公布3月份台灣本島西海岸清查16具浮屍初步調查資料如下：-(1) 3/2 桃園市新厝港 男身分待查-(2) 3/4 桃園新屋溪 女身分待查-(3) 3/4 嘉義副瀨鄉 本國籍男-(4) 3/5 台南七股區網仔寮沙洲 越南籍男-(5) 3/6 台南市青山漁港 男身分待查-(6) 3/6 雲林縣口湖鄉外海 男身分待查-(7) 3/7 台南將軍 越南籍男-(8) 3/7 彰化縣王功西方海域(風電機座) 男身分待查-(9) 3/7雲林縣麥寮 男身分待查-(10) 3/8 基隆大武崙 本國籍女-(11) 3/10 高雄茄萣 本國籍男-(12) 3/10 雲林下湖口 男身分待查-(13) 3/11 桃園大園 男身分待查-(14) 3/14 新竹圳頭 本國籍男-(15) 3/17 台南市七股區網仔寮沙洲 男身分待查-(16) 3/26 台東小野柳 本國籍女【相關新聞】►獨／PO匕首預告機場隨機殺人　臉書帳戶「頻繁貼刪文」IP位置曝 ►快訊／北市警大搬風　發布184名警官人事令「名單出爐」►獨／新冠停課伙食費全繳庫　警專生轟權益遭剝奪！校方回應了 </t>
+          <t xml:space="preserve">記者翁子涵／台北報導周興哲去年驚喜宣布求婚成功大6歲的主播女友趙岱新，又奪下第59屆金馬「最佳原創電影歌曲獎」，可說是事業愛情兩得意，今（30日）他透過社群平台驚喜宣布未婚妻已有身孕，經紀人也表示小倆口已登記結婚，寶寶的到來是在計畫中。▲周興哲升格當爸和人夫。（圖／翻攝自周興哲IG）[廣告]請繼續往下閱讀...周興哲稍早在IG狂喜寫道：「我是世界上最幸運的人。我有最棒的老婆，現在很高興地宣布，我們即將迎來一個寶寶！言語無法形容我的興奮，我迫不及待地想和妳一起開始一個家庭，我的愛！」他的經紀人向《ETtoday星光雲》回應：「他們是先登記（結婚）了，一切順其自然，上帝也給了他們最好的禮物，（懷孕）有一定的時間才會公布這個喜訊，他非常開心興奮，也覺得自己準備好迎接這個禮物了。」也透露周興哲第一時間沒有哭，但相當興奮和開心。至於女方的預產期和寶寶的性別？經紀人則低調表示要保護母子暫時不會對外透露，至於周興哲會否停工陪伴老婆度過孕期？經紀人則說：「目前懷孕比較沒有不舒服，（周興哲）工作的確很滿，但還是會把握時間照顧陪伴她，目前工作已經排到年底，會在適當的時候安排一段時間讓他陪伴。」+ </t>
         </is>
       </c>
     </row>
@@ -2496,17 +2548,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>圍堵中國成印太戰略核心　美英澳AUKUS引爆國際地震</t>
+          <t>阿翔化身月老「促成佳偶」！　籃籃超怪舉動遭疑：是不是談戀愛</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469340.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470321.htm</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t xml:space="preserve">我們想讓你知道…中國可能會加強在印太地區的軍事布局，並在之後於印太地區與美國再掀軍事角力，甚至可能會在該地區發生衝突。▲AUKUS同盟2021年首度公開簽署協定。（圖／翻攝自推特／@PeterDutton_MP）● 管芳儀／國立清華大學學生2021年，澳洲、英國及美國宣布成立澳英美三邊安全協議，該協議內容是希望藉由英、美兩國對澳洲提供軍事合作，使澳洲建立一支核子動力潛艦艦隊，以保衛三個國家在印太地區的共同利益。在此項合作中，英國成為首個加入美國在印太地區安全同盟機制的歐洲國家，此舉不只顯現了英美間盟友關係，亦加深了英國與印太地區的政治聯繫。在澳英美三邊安全協議成立後，近日澳、英、美三國元首又對AUKUS潛艦合作案提出了具體細節，合作內容不僅包含美國欲對澳洲出售核動力潛艇，亦包含了英國欲聯合澳洲共同生產新型潛艦SSN-AUKUS，日後將由美國提供潛艇生產技術，並於英國及澳洲生產、製造核子動力潛艦。根據合作內容顯示，約於2030年代末期，英國會接收首艘「SSN-AUKUS」潛艦，而澳洲將於約2040年完成此舉。雖然美國曾多次針對協議及合作內容作出聲明，強調計畫內容中所談論之潛艦僅是由核能驅動，而非於潛艦上裝備核子武器，但仍引起了中國的重視，認為AUKUS潛艦合作案將會造成非法的核擴散行為。除此之外，AUKUS自成立以來，涉及相當多層面議題，具體分述如下。美、澳軍事同盟強化澳洲位於第二島鏈南方，若澳洲能夠擁有一支具有長續航力之核子動力潛艦艦隊，在中、美發生大型軍事衝突或印太地區有戰事發生時，即能夠立即出發並快速到達位於第一島鏈的南海地區，提供所需之軍事援助，此舉將對於美國和英國在維持印太地區的自由與開放方面提供極大的支援。美、法關係破裂▲法國不滿澳洲轉而與美、應成立合作協議，召回駐澳洲大使。（圖／達志影像／美聯社）因澳洲轉向與英、美成立澳英美三邊安全協議，故欲退出原先與法國達成的常規柴油潛艇合作興建協議，使法國遭受因澳洲毀約所帶來之價值約370億美元的軍售契約損失。在得知澳洲與英、美成立合作協議後，法國召回了駐華盛頓大使及駐澳大利亞大使，並將澳洲從該國的戰略夥伴名單中除名，藉此表現了對美國強烈的不滿。「圍堵中國」成美國印太戰略核心雖然澳英美三邊安全協議中並未明確提及中國，但協議中強調與澳洲的軍事合作是「基於規則的國際秩序」和「維護印太地區的和平與穩定」，此項聲明可視作是對中國對外擴張主義的威懾，企圖透過與澳洲合作以圍堵中國勢力的對外擴張。在中國積極發展外交、政治等各項政策時，美國亦積極與多國對話。除了傳統的雙邊安全同盟外，美國在之前提出了強化美日安保機制、加強「四方安全對話」功能，甚至新成立的AUKUS，希望可以預先建立圍堵機制以預防與中國間的衝突，透過利用多邊安全機制全面嚇阻中國侵略的擴張主義。中美局勢日漸緊張，AUKUS潛艦合作案的細節聲明無意於是對中國再一次的刺激，也無形中增加了中國在印太地區發展的壓力。此次潛艇合作案的發布雖是美國欲加強對印太地區控管所做出之政策，然中國勢必對此做出相應之應對措施，因此筆者認為中國可能會加強在印太地區的軍事布局，並在之後於印太地區與美國再掀軍事角力，甚至可能會在該地區發生衝突。▲AUKUS讓澳洲可望獲得核子動力潛艦，未來能更容易地進入南海、太平洋地區活動外，更針對「海軍情報」與「海上安全」的部分能情資共享。（圖／澳洲國防部）● 以上言論不代表本網立場。歡迎投書《雲論》讓優質好文被更多人看見，請寄editor88@ettoday.net或點此投稿，本網保有文字刪修權。  </t>
+          <t>記者孟育民／台北報導民視、八大《綜藝新時代》職人好厲害本週播出浩子、阿翔、籃籃、廖苡喬、以及金淵珍日前到台南中西區體驗府城在地導覽的工作。第一站就來到百年古廟台南大天后來拜月老，在籃籃的解說下要求「紅線與緣粉」，讓廖苡喬以及金淵珍們紛紛向月老訴說自己的理想對想，不知道是否條件都設定的太高，兩人無人獲得聖筊。▲籃籃（左起）、金淵珍、浩子、真人月老、阿翔、廖苡喬前進月老廟。（圖／民視提供）浩角翔起化身月老小幫手，直接幫旅行團來賓中，正在曖昧的女同學告白，還強調完全沒有作假，在現場打電話給男方，要他女方告白，促成一對佳偶，羨煞現場眾人。其中浩子正在解說廟中「保生大帝」的故事，保生大帝成神前是一位叫做吳夲的神醫，相傳在山中遇到一隻兇猛的老虎吃了一個頭髮有金簪的老太太，髮簪卡到咽喉痛苦不已，保生大帝不忍，於是只要老虎不再作惡，就幫老虎拿出來，牆壁上就有「醫虎咽喉」四字，沒想到無厘頭籃籃搶先介紹，說成「咽喉醫院」，讓眾人一臉問號，知道出糗後臉都紅了讓大家狂笑不已，浩子還噹籃籃說：「妳是不是最近有談戀愛，怪怪的！」[廣告]請繼續往下閱讀...▲籃籃說錯話當眾被取笑。（圖／民視提供）最後一站帶大家來到百年木屐店，除了各種花樣的木屐外，老闆娘還拿出了壓箱寶「天狗鞋，是造型十分特殊的一齒木屐，由於這種木屐十分難保持平衡，浩角翔起為了實測天狗鞋的厲害，浩子直接向阿翔下戰帖大喊：「決鬥吧！」還作勢要互相推擠，沒想到兩人嘴巴上喊的氣勢凶狠，實際上卻是東倒西歪連站都站不穩，看的旁人笑到不行，直呼沒看過這麼「廢」的決鬥。▲浩子和阿翔穿木屐決鬥。（圖／民視提供）</t>
         </is>
       </c>
     </row>
@@ -2516,17 +2568,418 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>被直行車禮讓！老夫妻「剛點頭道謝」下秒悲劇　一票人超心疼</t>
+          <t>「費芯內鬥」結果出爐！徐巧芯全民調敗下陣　藍初選納黨員投票</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2469402.htm</t>
+          <t>https://www.ettoday.net/news/20230330/2470322.htm</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t xml:space="preserve">▲老夫妻點頭感謝直行車禮讓。（圖／翻攝自YouTube／WoWtchout地圖型行車影像分享平台）記者周亭瑋／綜合報導台南一名駕駛日前行經青年路時，在路口禮讓雙載的機車，當下老夫妻還向他點頭致意，怎料對方才騎過中線，就被一輛逆向超車的機車撞上，後來一旁駛來的機車也遭池魚之殃。網友在「WoWtchout地圖型行車影像分享平台」分享影片，27日當天，他行駛於台南市西區青年路上，當開到一處沒有紅綠燈的路口時，好心禮讓要轉彎的雙載機車，而老夫妻還分別點頭、揮手道謝，結果才剛騎過中線，就與一輛同是雙載、跨越雙黃線的逆向機車對撞，4人紛紛倒地，而噴飛的機車也害另一名女騎士倒車。▲▼最後3台機車、5人倒地。（圖／翻攝自YouTube／WoWtchout地圖型行車影像分享平台）從畫面中可見，年輕騎士起身後，連忙上前關心情況，而老伯坐起來後，則趕緊攙扶起不了身的太太；另外，路人也上前幫忙倒在旁邊的女騎士。對此，網友們紛紛回應，「有禮貌又守法的老人還是會被擊落」、「原本以為阿伯會撞到對向銀色機車，結果是被跨雙黃逆向的三寶撞到」、「希望大家平安」、「可憐的阿婆傷得不輕」、「希望老人家沒事」、「逆向三寶真是防不勝防」。 </t>
+          <t xml:space="preserve">▲費鴻泰、徐巧芯。（合成圖／記者湯興漢、陳家祥攝）記者鄭佩玟／台北報導國民黨北市黨部日前針對第一階段立委初選究竟採「三七制」還是「全民調」展開協調，第7選區議員徐巧芯與第8選區議員徐弘庭均主張全民調，但他們的對手立委費鴻費與立委賴士葆都要求維持「三七制」。由於第一次協調破局，北市黨部今（30）日召開委員會議投票決定，最後結果出爐，第7選區的松山信義區與第8選區的中正文山區確定採用「3/7」制，亦即3成黨員投票，7成民調。換言之，徐巧芯在與費鴻泰第一回合的交手中敗下陣來。確定初選辦法後，由主席抽出黨員投票號次，第七選區（信義、南松山）1號徐巧芯、2號費鴻泰；第八選區（文山、南中正）1號賴士葆、2號徐弘庭；民調日期為4月16日至18日；黨員投票日為4月22日。今天下午國民黨北市黨部委員在國民黨中央舉行委員會，有委員在會前受訪時坦言，「28日接到費鴻泰的電話」，表示這次選舉比較辛苦，雙方都是老黨員，希望可以支持他。▲投票結果出爐，由黨員投票勝出。（圖／徐巧芯提供）最後投票結果出爐，最終以41票黨員投票加全民調，對上9票全民調，決定松信選區與中正文山選區將納入黨員投票。對於結果，徐巧芯第一時間僅感嘆，「施壓關說勝利」。另外，今天會議也進行號次抽籤，徐巧芯抽到1號，費鴻泰抽到2號。 </t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>「費芯內鬥」結果出爐！徐巧芯全民調敗下陣　藍初選納黨員投票</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://www.ettoday.net/news/20230330/2470322.htm</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">▲費鴻泰、徐巧芯。（合成圖／記者湯興漢、陳家祥攝）記者鄭佩玟／台北報導國民黨北市黨部日前針對第一階段立委初選究竟採「三七制」還是「全民調」展開協調，第7選區議員徐巧芯與第8選區議員徐弘庭均主張全民調，但他們的對手立委費鴻費與立委賴士葆都要求維持「三七制」。由於第一次協調破局，北市黨部今（30）日召開委員會議投票決定，最後結果出爐，第7選區的松山信義區與第8選區的中正文山區確定採用「3/7」制，亦即3成黨員投票，7成民調。換言之，徐巧芯在與費鴻泰第一回合的交手中敗下陣來。確定初選辦法後，由主席抽出黨員投票號次，第七選區（信義、南松山）1號徐巧芯、2號費鴻泰；第八選區（文山、南中正）1號賴士葆、2號徐弘庭；民調日期為4月16日至18日；黨員投票日為4月22日。今天下午國民黨北市黨部委員在國民黨中央舉行委員會，有委員在會前受訪時坦言，「28日接到費鴻泰的電話」，表示這次選舉比較辛苦，雙方都是老黨員，希望可以支持他。▲投票結果出爐，由黨員投票勝出。（圖／徐巧芯提供）最後投票結果出爐，最終以41票黨員投票加全民調，對上9票全民調，決定松信選區與中正文山選區將納入黨員投票。對於結果，徐巧芯第一時間僅感嘆，「施壓關說勝利」。另外，今天會議也進行號次抽籤，徐巧芯抽到1號，費鴻泰抽到2號。 </t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>從庫克到李顯龍　李強向世界強勢發聲「中國回來了」</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://www.ettoday.net/news/20230330/2470311.htm</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">▲今年大陸全國兩會召開期間的天安門廣場。（圖／記者蔡儀潔攝）記者蔡儀潔／海南報導大陸過去7天一連舉辦2場大型國際活動，分別是「中國發展高層論壇」和「博鰲亞洲國際論壇」，新上任總理李強今（30）早表示，無論世界發生什麼變化，都將始終堅持改革開放。新加坡總理李顯龍則喊話，歡迎中國繼續推進對外開放的政策。中方密集釋出的訊號，一方面強勢宣布「中國回來了」，一方面展現招手外資拚經濟的目標，與奉行和平穩定的外交態度。今年3月召開的大陸全國兩會訂下5%的經濟增長目標，全力拚疫後復甦，然而與此同時，地緣政治的不確定性和疫情封控衝擊，民營企業和外國投資者均感到信心不足。美國商會日前對其319名會員進行調查，只有45%的受訪者表示，他們將中國視為主要投資目的地，或者前三大投資目的地之一，而2019年的數值是59%，下降了14%。▲蘋果CEO庫克訪問中國，拜訪北京蘋果專賣店。（圖／翻攝Tim Cook微博）近期接連2場大型國際活動的召開，成為大陸高調展示態度的舞台。其中，「中國發展高層論壇」日前在北京舉行，李強27日與包括蘋果公司CEO庫克、高通公司CEO安蒙、輝瑞CEO博爾拉、Hitachi會長東原敏昭等50多名企業高層會見，並強調「中國開放的大門會越來越大，環境會越來越好，服務會越來越優」。李強用一句比喻傳遞信心，「這就好比雨天趕路，如果總是低頭看腳下，看到的便是滿地泥濘；如果能常常抬頭看前方，就能看到雨後的彩虹。」▲李強今早在博鰲論壇開幕式上發言 。（圖／記者蔡儀潔攝）李強當天稱，無論國際形勢如何變化，中國都將堅定不移擴大對外開放。他今（30）早博鰲亞洲論壇開幕式上，再度重申這句話，並強調會為整個世界經濟發展，不斷注入新的動力和活力，也讓世界各國分享「中國發展」的機遇。在李強發言後，緊接著登場的是新加坡總理李顯龍。他則表示，歡迎中國繼續推進對外開放的政策；中國想要經濟一體化，其他亞洲國家都樂意配合。同場出席的還有國際貨幣基金（IMF）總裁喬治艾娃（Kristalina Georgieva），今年中國和印度將為全球經濟增長貢獻一半；中國在整個亞洲國家中，為貿易一體化發揮重要樞紐作用。今年作為疫後首場的博鰲亞洲論壇，有別於過去用區域劃分內容，共設置四大議題，分論壇的內容涵蓋地緣政治、世界經濟、清潔能源、人工智能等。實際參與多場會議可發現，幾乎所有參加的討論嘉賓，均強調和平穩定、團結合作，呼應今年「不確定的世界：團結合作迎挑戰，開放包容促發展」主題，不過還是要看後續各界能否言行一致，畢竟達成共識並執行才是難題。▲有網友稱在杭州拍到馬雲，後來馬雲方面證實消息。（圖／翻攝自科創板日報）另外，曾經的首富馬雲「雲遊」1年多後，傳出回到大陸，引發輿論熱議。《環球時報》的前總編胡錫進曾在微博上表示，對馬雲的關注從根本上說，是公眾對中國民營領域信心下降的體現。如今馬雲回到大陸的消息令民營企業主信心大增。▲李顯龍致詞。（圖／記者蔡儀潔攝）除經貿發展外，「博鰲外交」亦是關注焦點，今年邀請了李顯龍、安華、西班牙首相桑傑士（Pedro Sanchez）等在職國家領導人，其中李顯龍是時隔4年再次訪中。與會的兩岸共同市場基金會董事長詹火生向《東森新媒體ETtoday》表示，參加博鰲論壇有超過十餘年時間，明顯感受到疫情過後的這場年會是秀「外交肌肉」的平台，多國領導人也願意賣這個面子。▼ 詹火生（圖／記者蔡儀潔攝）面對上任後的「外交首秀」，李強今早發言強調「人類命運共同體」概念，堅持共商、共建、共享的全球治理觀，堅定維護以聯合國為核心的國際體系和以國際法為基礎的國際秩序，「我們絕不會通過戰爭、殖民、滅國等方式去實現現代化。」從境內民營企業、大型跨國公司，再到國際經貿組織、多國領導人，大陸密集式輸出「中國聲音」，希望彌補疫情封控帶來的經濟寒冬，在國際朋友圈中站得更穩。 </t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>六福村數不清狒狒數量　他揭法條：理論上地方政府該清楚</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://www.ettoday.net/news/20230330/2470306.htm</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">▲狒狒事件引起全台熱議。（圖／翻攝自我是中壢人 臉書）記者杜冠霖／台北報導逃竄的東非狒狒遭獵人射殺身亡，六福村昨（29）日深夜改口承認從園區逃出，引發大批網友群起砲轟。對於權責歸屬，時代力量立委邱顯智30日表示，新竹縣政府依法應掌握六福村動物數量，更應每年指派動物保護檢查員稽查，大家都想了解到底六福村的管理出了什麼問題，新竹縣政府今年是否能夠落實評鑑，大家都張大眼睛在看。對於狒狒之死，邱顯智指出，六福村終於出面承認狒狒是自家的，但這不應該是這個事件的結尾，而是改革的開始、檢討的開始。對於誰應該知道六福村有幾隻狒狒？六福村所在的新竹縣政府，依法應該掌握六福村的動物數量，而且法律其實有雙重的把關機制。邱顯智表示，《野保法》第31條規定，保育類野生動物取得及數量變更時，要向地方政府登記備查，而依照同條規定，保育類野生動物的繁殖，必須經過主管機關同意，也就是說動物的增減，理論上地方政府應該要很清楚。邱顯智指出，而依照《動保法》訂定的《動物展演管理辦法》也規定，動物展演者每年要提交動物管理表給地方政府，其中就包含動物的數量清查，地方政府要將紀錄公開上網，且每年應指派動物保護檢查員稽查展演動物之營業場所、記錄及管理情形。邱顯智表示，有兩層機制把關，為什麼還會出包，顯然法律在執行上有很多不確實，需要檢討的地方，未來要怎麼落實，記錄內容要如何更為詳實，這需要農委會與全國動物園所在的地方政府共同徹底檢討。至於誰該為射殺狒狒的那一槍負責？邱顯智指出，《動物展演管理辦法》規定，動物展演者的營運計劃書要包含｢緊急事件處理機制」，而依照全球動物園的標準，這樣的計畫內應該要有現場指揮體制、團隊組成、武器使用標準及與政府機關的合作方式，還有最重要的演練計畫。對於武器使用的標準如何訂定，邱顯智指出，《野保法》第21條規定，在「有危及公共安全或人類性命之虞」且情況緊急的狀況下，才能獵殺保育類野生動物。具體而言，要怎麼認定有危及公共安全或人類性命，需要有更詳細的指引，這其實也是平常就應該先有準備的。邱顯智表示，有計畫、有標準、有演練，是否就能減少悲劇的可能性呢？新竹縣政府在核發動物展演許可時，有沒有詳查六福村的緊急事件處理機制？強化緊急事件處理機制，不流於形式審查，訂定更詳細的指南，需要中央和各地方政府徹底檢討。至於動物園監管體制部分，邱顯智指出，這次的事件後，大家都想了解到底六福村的管理出了什麼問題，那平時是政府怎麼監管的呢？依《動物展演管理辦法》規定，地方政府動保機關每兩年會做一次評鑑，如果評鑑不合格，且沒有改善，或連續兩次評鑑不合格，地方政府就不應再核發展演許可。邱顯智直言，但政府的評鑑只公布最後的等級，社會無法了解到底動物園的具體問題在哪裡，而業者每年提交自評表才有明確的項目公開。邱顯智表示，六福村前年底才剛取得許可，還沒接受評鑑，而今年提交的自評表，則給自己幾乎滿分，包括「我工作地方的經理人員具備突發狀況的問題分析及排除能力」，只有在「我工作的地方能夠規範遊客行為」的項目小扣一分。新竹縣政府今年是否能夠落實評鑑，大家都張大眼睛在看。邱顯智指出，但除了定期評鑑外，像這次事件一樣突然發現動物園有重大問題，政府可以怎麼辦呢？許多人在討論是否可以下令六福村關閉改善，但目前的法律其實無法處理，原因就在於私立動物園是依《私立社會教育機構設立及獎勵辦法》設立，主管機關是教育部和地方教育機關，但教育部根本沒有制定相關的管理法規。邱顯智直言，除了私立動物園以外，經過交通部觀光局核可的觀光遊樂業，以及休閒農場，依法都可以從事動物展演，如果有類似事件發生，要怎麼處理，也還是個問題。動物園管理的權責不清，人人都要管，但一旦出事，又不知道誰能管，這在許多有專法、專責機關管理動物園的先進國家是難以想像的，也是為什麼BBC的報導會特別提到這點。對於地方政府的動物捕捉保定和救援能力，邱顯智批評，此次捕捉狒狒的過程荒腔走板，權責不明，現場的處理方式完全缺乏專業，透過這幾天的新聞，大家都看得很清楚。邱顯智表示，但要提升地方政府捕捉保定、動物救援的能力，非一朝一夕可成，而是平常就要建立專業的動保、野保團隊，專責在各自的動物救援、捕捉、動保、野保工作上，遇到緊急情況才能妥善應對，而非像現在各地方政府第一線人員工作繁多，甚至還要消防人員處理動保案件。邱顯智指出，提升第一線動保、野保專業人力、資源，雖然是老問題了，但仍然是根本的問題，真的需要更多預算資源挹注，長期發展。以上是我今天在立法院質詢農委會陳吉仲主委的內容，主委也承諾，就動物園管理權責的問題，會請行政院召開跨部會會議討論。邱顯智坦言，狒狒之死，讓台灣社會有機會重新檢視動物保護、野生動物保育及動物園管理的法律制度和執行問題，許多長期投入相關工作的學者專家、民間團體都提供了非常珍貴的洞見，討論不該停下，請大家繼續關注。 </t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>雙頭烏龜「瘋搶1顆飼料」　網笑：都吃進同個肚子有什麼好爭</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://www.ettoday.net/news/20230330/2470084.htm</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">▲雙頭龜2顆頭激烈搶食。（圖／翻攝自微博／漫鯨視頻）實習記者林郁婷／綜合報導你見過雙頭烏龜嗎？大陸一名飼主分享他養的雙頭烏龜搶食畫面，兩張嘴巴激烈地爭奪一顆飼料，誰也不讓誰，讓不少網友爆笑表示,，「都進同一個肚子裡，有什麼好爭的？」根據《漫鯨視頻》報導，大陸浙江一名飼主曬出一則雙頭烏龜搶食影片，只見烏龜殼中伸出2顆頭，左邊的嘴巴裡咬著一顆飼料，右邊的頭不斷想去搶食，左邊的頭死則命閃避捍衛，不過最終由右邊的頭成功搶走飼料，並吞下肚。[廣告]請繼續往下閱讀...網友看完笑著表示，「都進同一個肚子裡，有什麼好爭的」、「雖然都進同一個肚子裡，但兩張嘴巴都想嚐嚐味道」、「相煎何太急」、「得過過嘴癮」、「另一個頭：我只是想嚐嚐什麼味道」、「每天打架打不完」、「好奇誰能操縱腳」。有網友好奇，「如果另一個一直吃不到會怎樣」，有人回答指出，雙頭烏龜有兩個大腦、兩套味覺神經，所以吃不到的還是會因嘴饞而出現攻擊另一個頭的情形。雙頭烏龜其實是一種突變現象，可能是因為原本應該成為雙胞胎的烏龜，沒有正常將身體分開所導致。科學家推測，是環境惡化造成雙頭動物頻繁出現，在孵化時本就是雙黃卵，而卵在發育時受到污染，也可能是近親繁殖，具體原因目前不能確定。省錢大作戰！超夯優惠等你GO1顆不到7元►毛孩專用 Dr.好骨力　讓愛貓愛犬健康好靈活　限時↘$399大罐又便宜 ►衣物徹底洗淨「妙管家抗菌洗衣精4000gx4瓶」限時↘$399 </t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>釣客闖燕鷗保護區「登島垂釣」！　馬祖海巡隊取締函送</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://www.ettoday.net/news/20230330/2470315.htm</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">記者林名揚／連江報導時值馬祖地區鱸魚季尾聲，近期許多釣客專程來到馬祖甩竿釣魚，今(30)日10時海巡署艦隊分署馬祖海巡隊CP-1052艇執行海上巡邏勤務時接獲第十一巡防區通報，於北竿鐵尖島外海0.2浬處發現一艘本國籍漁船「崴○號」疑似違規載運5名釣客登島垂釣。▲釣客侵入燕鷗保護區垂釣。（圖／記者林名揚翻攝）馬祖海巡隊CP-1052艇接獲通報後前往鐵尖島實施取締，發現有釣客正在海釣，海巡人員隨即進行錄影蒐證並向釣客說明已違反連江縣政府89年1月26日八十八連建農字第20084號「馬祖綠島燕鷗保護區」公告之「全年嚴禁民眾攀登或進入核心區，但學術及教育目的者惟需先向主管機關申請許可」及「於每年十月至翌年三月未持有漁民證之釣客禁止於燕鷗保護區島礁垂釣」，於11時向連江縣政府產業發展處確認載運釣客之「崴○號」漁船無申請登島許可、5名釣客並無漁民證，並副知海保署第十一海洋保育工作站知悉後，將函送連江縣產業發展處進行裁罰。馬祖海巡隊特別指出，馬祖海域周邊島礁為燕鷗過境、棲息、繁殖的區域，巡邏保育為本隊重點勤務，呼籲漁民及釣友務必注意避免違法，若有相關問題請立即撥打海巡署「118」或是馬祖海巡隊服務專線「0836-22647」，馬祖海巡隊將立即派員前往處理，共同攜手維護海洋生態保育。 </t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>4月春寒「4星座」健康出狀況！第1名過勞、小心肝膽</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://www.ettoday.net/news/20230330/2470243.htm</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">▲艾菲爾老師點名4星座小心太拚易過勞。（示意圖／本報資料照）記者李佳蓉／綜合報導近日天氣多變、溫度忽高忽低一不小心就感冒？塔羅牌老師艾菲爾指出，4月春寒是個易使人「身體微恙」的月份，不同的星座健康狀況也有差異，更點名「4星座」務必注意保暖與休養，否則容易積勞成疾，不僅免疫力下滑、身體炎症不斷，精神壓力一觸即發。並提醒同時參考太陽、上升星座。春寒料峭！4月份有4星座健康亮紅燈：[廣告]請繼續往下閱讀...第4名：巨蟹座目前木星位於巨蟹座的第十宮，恐對其事業與健康帶來不利影響。事業上的壓力可能引發疲勞、焦慮和精神壓力等問題；身體上也容易出現消化不良、肌肉疼痛、關節炎。因此適當的鍛鍊和放鬆心情很重要，可多參與瑜珈或冥想等活動以緩解壓力和焦慮感，同時也需合理安排工作和休息時間，避免過勞。第3名：天秤座可能受到木星在第七宮的影響，使得天秤座健康不穩定，因本身喜歡人與人的交往，而木星會使人際關係出現矛盾和衝突，進而帶來精神壓力和情緒波動，容易失眠、消化不良。此時除了留意自身健康、加強鍛鍊、保持良好情緒狀態，也要防止因為精神壓力而加重病情。▲摩羯座可能出現水腫、腸胃道問題。（示意圖／記者李佳蓉攝）第2名：摩羯座第四宮主要代表家庭、房屋和家庭環境，而木星目前就位於摩羯座的四宮，可能引發身體水腫、腸胃道問題、過度情緒化等。此外，也可能因家庭紛爭導致情緒不穩定，進而影響健康。因此需注意身心及家庭的和諧，可以透過定期體檢和保持良好家庭溝通讓身心獲得平衡。第1名：牡羊座木星目前就在牡羊的命宮，恐重挫健康！特別是肝膽方面易亮紅燈，像是肝炎、膽結石等。此外，因木星可能使你的身體機能變得過於亢奮，而容易過度疲勞、免疫力下降等。所以特別要注意肝臟與膽囊健康，盡量避免熬夜、喝酒，並積極鍛鍊身體、增強體質，才能身強體壯。 </t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>推動環境友善運輸城市　新竹市加碼機車汰舊換購補助</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://www.ettoday.net/news/20230330/2470312.htm</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">▲新竹市今（112）年祭出530萬元機車汰換加碼補助。（圖／新竹市政府提供）新竹振道記者蔡文綺／新竹報導新竹市政府為倡導節能減碳，提高綠色運輸使用比例，以降低交通運輸排碳量，達到2050淨零排放目標，近年持續辦理淘汰老舊機車換購電動機車加碼補助，廣受好評。新竹市長高虹安今（30）日記者會宣布，今（112）年祭出530萬元機車汰換加碼補助，並針對電動機車提供三大亮點，包括原本補助15年車齡汰換外，市府加碼補助車齡達10年以上最高可享4萬7300元補助，以及提供228處電動車充、換電站，營造友善電動車環境。「為達到2050淨零排放目標，市府加碼補助不手軟！」高虹安表示，新竹市有許多機車族，市府重視環保，近年積極推出各種加碼補助，加速淘汰污染排放量較高的老舊機車，推動環境友善運輸城市，降低交通運輸排碳量、守護空氣品質，為新竹市營造友善環保綠生活。她指出，本市電動機車數量達1萬2936輛、占機車總數4.5%，為非六都全國排名第一。今年持續辦理汰舊換購電動機車，市府與中央攜手合作加碼補助，一般民眾最高可領2萬1300元，中低收入戶除可領4萬1300元外，另可再獲得充電費用6000元，合計最高可領補助費用4萬7300元，大幅減少中低收入戶購車負擔，鼓勵民眾加速淘汰老舊機車，以降低空氣污染，提高環境品質。新竹市環保局長江盛任表示，新竹市近年透過汰舊換新補助及稽查管制雙管齊下，92年12月31日前出廠的二行程機車目前僅餘3803輛，占全市機車總數1.3%，今年持續辦理加碼補助，希望能加速降低老舊機車數。江盛任說，電動機車具備零燃油、零排氣的特性，完全不會排放細懸浮微粒（PM2.5）的空氣污染物，是友善環境的綠色運具。目前設籍登記新竹市的電動機車已從104年922輛增至112年2月1萬2936輛，成長率高達1303％，顯見民眾以使用綠色運具的實際行動來落實節能減碳。環保局說明，除持續辦理補助96年6月30日前出廠之機車汰舊換購補助外，並擴大補助對象，將車齡達10年以上（101年12月31日前出廠）之五期機車亦納入加碼補助對象，只要於111年底前設籍新竹市，淘汰101年12月31日前出廠的機車並同時換購電動機車，每輛即可獲得中央及市府加碼補助。環保局指出，補助對象分為「一般民眾、中低收入戶」兩大類，依據換購電動機車之「小型輕型、輕型、重型」三大類型，享有不同的補助總額，一般民眾可獲補助1萬5400元至2萬1300元，中低收入戶可獲補助換購費用2萬7400元至4萬1300元及充電費用6000元，合計可獲補助費用3萬3400元至4萬7300元，補助期限追溯至112年1月1日，請民眾儘速辦理申請。環保局表示，為因應電動機車數量逐年成長，並提供民眾便捷充電的友善環境，轄內共設置117處共153座的充電站及免費臨時充電服務，包括公務機關、公有停車場、里集會所、社區大樓、寺廟、機車排氣檢驗站等處。另外，光陽、GOGORO及中油加油站也有設置充電站及換電站共計111處。環保局呼籲民眾把握機會，加入加碼機車汰換行列，打造全民綠生活的便利環境，同時落實聯合國永續發展目標SDG7永續能源與SDG13氣候行動，讓新竹市朝低碳永續家園持續邁進。環保局補充，為服務民眾，本市87家機車排氣檢驗站均可協助填寫「汰舊換購電動機車」補助申請文件，歡迎就近洽詢利用。詳細補助方式公告於新竹市環保局網站，若有任何補助相關問題，歡迎致電環保局空氣污染及噪音防制科03-5368920分機2014、2002。 </t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>越南女去年3月遭遣返「1年後淪浮屍」　偷渡與夫相聚？疑點待查</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://www.ettoday.net/news/20230330/2470303.htm</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">▲台灣近海3月總計發現20具浮屍，海巡暑成立專案查緝中。（圖／記者張君豪翻攝）記者陳宏瑞／高雄報導高雄港二港口外海在2月27日發現一具女浮屍，身分經確認為越南籍的陳姓女子（31歲），她曾在去年3月因打「黑工」被遣返，如今事隔一年卻成為海上浮屍。據了解，陳女在被遣返後，無法循合法管道來台，而她的老公又在台工作，是否想藉由偷渡再度來台與丈夫相聚，順便打工賺錢，卻遭逢意外淪為波臣，仍有待檢、警進一步調查釐清。高雄港警表示，是在2月27日接獲通報，於高雄港第二港口燈塔外海約1.4海浬處發現一具浮屍，港警獲報後派遣小艇打撈，確認死者為女性，經比對死者指紋，確認死者為曾在台打「黑工」，被查緝後遭到遣返的陳姓越南籍移工。▲台灣近海3月總計發現20具浮屍，海巡暑成立專案查緝中。（圖／記者張君豪翻攝）據了解，31歲的陳女和同是越南籍的丈夫曾在台灣一起工作，丈夫有合法的身分，但陳姓女子則是遭新北市政府樹林分局查獲非法工作，後送專勤隊收容，並於去年年3月14日遣返回越南。陳女丈夫被警方通知到殯儀館相驗時，確認死者為自己的妻子，但他不解為何妻子明明已遭遣返回越南，又為何成為高雄外海的浮屍？至於兩人這一年有無聯絡，是否知情陳女要偷渡來台？都需要進一步釐清。▲台灣近海3月總計發現20具浮屍，海巡暑成立專案查緝中。（圖／記者張君豪翻攝）據指出，陳女被遣返後，身分已遭註記，不可能再合法申請來台，而去年台灣疫情嚴峻，不少合法移工都需要排隊才能申請來台，更何況是曾經非法打工被遣返的陳女，由於陳女老公還在台灣工作，因此她是否想藉由偷渡，來台與丈夫相聚，或者繼續在台灣打工賺錢，卻遭丟包命喪大海，也仍需要調查。高雄地檢署則表示，陳姓女子目前已解剖完畢鑑定中。至於是否是偷渡入境或有人蛇集團介入，目前正深入調查中。 </t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>山上徹也「追加起訴」4罪！　日檢結束安倍槍擊案偵查</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://www.ettoday.net/news/20230330/2470298.htm</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>▲山上徹也被追加起訴4項罪嫌。（圖／路透）記者王佩翊／編譯因暗殺日本前首相安倍晉三而被依殺人等罪嫌起訴的前自衛隊員山上徹也，30日被依非法製造槍枝等4項罪嫌追加起訴。奈良縣警方雖然也以「槍擊導致助選演說停止」為由依違反公職選舉法追加送檢偵辦，但是奈良地檢並未依該罪起訴山上徹也。根據《讀賣新聞》報導，42歲的山上徹也2022年7月8日上午11時半左右，使用自製手槍在奈良槍擊當時正在路邊進行助選演說的安倍晉三，安倍雖隨即被送醫搶救，但最後仍不治身亡。警方當場逮捕山上徹也，而經過數個月的精神鑑定後，檢方終於在今年1月依殺人罪與違反槍枝法罪，起訴山上徹也。▲日本前首相安倍晉三遭暗殺逝世。（圖／達志影像／美聯社）奈良縣警方2月13日依違反公職選舉法（因槍擊導致助選演說被迫停止）、建築物損毀（闖入統一教會相關機構並開槍導致建築物被破壞）、武器製造法（非法製造槍枝）、刀槍法以及火藥類取締法（私自製造火藥）等5項罪嫌，追加送檢偵辦。奈良地檢30日根據後4項罪名對山上徹也追加起訴，而違反公職選舉法則不成立。檢方的相關搜查作業也就此告一段落，在事件發生的8個月後，正式結束調查。</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>雞排便當90元「單買雞排卻要100元」　老饕喊：照樣買單！原因曝</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://www.ettoday.net/news/20230330/2469999.htm</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">▲單買一片雞排就要100元。（示意圖／記者曾筠淇攝）記者施怡妏／綜合報導知名連鎖雞排店「天使雞排」28日宣布，由於本土生鮮雞肉缺貨且價格飛漲，為了反應原料成本，自4月1日起雞排將調漲10元，屆時雞排一片將要價100元，消息讓不少老饕哀號一片，就有網友指出，雞排便當有菜有肉有飯，只要90元，結果單買雞排卻要100元，貼文掀起網友討論。有網友在PTT發文，「為什麼雞排便當90元，一片雞排100元」，雞排便當的肉量不輸炸物店的雞排，骨肉比例也差不多，但便當有菜有飯，加一片雞排只賣95元，單買一片雞排卻要100元，「有卦嗎？」[廣告]請繼續往下閱讀...對此，有網友指出，雖然比較貴，但是雞排的份量、品質都有差，「便當店的雞排，一吃就很廉價那種肉」、「肉的等級有差」、「便當的雞排小很多，肉也少」、「雞排便當的雞排根本吃骨頭」、「便當雞排比較小片啦」。也有人認為是品牌價值，「人家是品牌雞排，做成便當賣還不破300元」、「品牌價值+10元」、「人家的雞有台灣價值」。不過，也有人支持便當店，「便當店的紅茶打包還不用錢 」、「所以我都買雞排便當」、「便當飯菜都是賠本在賣啦」、「肉都一樣啦，還不都同部位，打扁一點就大了」、「100元的雞排，再怎麼大片我都吃不下去」。另外網友打臉，現在的雞排便當早就破百元了，90元的雞排便當已成為歷史，「雞排便當現在很多都100元了」、「雞排便當現在都賣110元了」、「我家巷口雞排便當150元，哪裡有100元」、「我家這裡雞排便當前年就破百了」。 </t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>她和朋友合租準備要簽約！　內行親戚「3原因」急阻止：不要租</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://www.ettoday.net/news/20230330/2441958.htm</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">▲示意圖，和本新聞無關。（圖／記者劉維榛攝）記者朱祖儀／綜合報導在簽約之前都可以反悔嗎？一名女網友表示，最近和朋友看中一間房子，本來準備要簽約了，不過有個當房仲的親戚知道後，突然勸「不要租」，讓她相當猶豫，不知道是否要聽對方的話，因為已經和原本的房仲談好簽約時間了。文章曝光後掀起討論，不少人解答「當然可以，房仲已經看多了」。原PO在Dcard發文表示，因為要和朋友合租房子，所以近期都在看房，發現適合的物件都一定要2萬以上。找了很久終於看到一間在預算內的房子，但缺點是沒有管理員、電梯，也沒有附電視、沙發等家具，不過她和朋友都還算滿意，因為在該區域沒有看到第2間更符合要求的房子了，所以隔天就和房仲談好簽約時間，但還沒有付訂金。不過一名在當房仲的親戚得知此事後，竟勸原PO不要租，首先是因為該房子不能申請租屋補助，再加上該房子位在4樓卻沒有電梯，以這種條件來說租金開太高了。最後月底會有很多人租約到期，屆時會有一批更好的房源流入市場，「我可以幫妳談更好的物件，不用給仲介費」。原PO聽到親戚的提議後相當猶豫，不太相信對方可以用更低的價格找到更好的房子，也擔心錯過這個物件，之後沒辦法找到更好的房子。而且她已經和房仲談好簽約時間，總覺得不該臨時反悔，也擔心會不會有違約的責任，「但其實我親戚真的是一個蠻厲害的房仲，所以聽他這樣說，我自己心裡是偏向不租現在找到的這個房子」，希望大家能給她一點意見，「租屋還沒簽約可以反悔嗎？」▲示意圖，和本新聞無關。（圖／記者陳建宇攝）不少網友看到後紛紛表示，「可以，我覺得如果值得更好的就大膽反悔吧，不然到時候簽了就來不及了，前提是親戚真的要幫你」、「當然可以，口頭跟他說一下，當然你要直接消失也是可以」、「當然可以，但騎驢找馬往往沒有好結果」、「可以啊，簽約房子是一年起跳欸，這不是筆小錢」、「妳就說妳有找到更便宜的物件就好了，用委婉的話語取消簽約，房仲能理解的」、「沒有簽約也沒付訂金，其實取消是很正常的，房仲早就看多了，沒有必要不好意思」，但也有人認為，「我覺得誠信至上，你答應了，就算沒簽合約或訂金，也該遵守」。 </t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>公開了！林柏宏秀無名指婚戒　曝感情進度：拍《鬼家人》就有了</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>https://www.ettoday.net/news/20230330/2470309.htm</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">記者蕭采薇／台北報導林柏宏、宋芸樺30日受邀出席品牌活動，兩人上月都到香港參加「亞洲電影大獎」，林柏宏在台上用粵語自我介紹，發音卻激似台語的「懶趴王」，意外成為迷因。兩人今天再提起此事，宋芸樺笑說，她名字的粵語發音也像「爽歪歪」，兩個人剛好湊一組。▲林柏宏、宋芸樺出席活動。（圖／記者黃克翔攝）林柏宏主演電影《關於我和鬼變成家人的那件事》已衝上國片影史票房第八名，林柏宏透露：「不知道大家有沒有發現，毛毛有戴婚戒喔。」而他活動當天也特別戴上2個婚戒造型出席活動，更曖昧的直說：「希望有天另一個戒指可以給別人戴。」[廣告]請繼續往下閱讀...▲林柏宏出席活動，認了無名指上戴兩個婚戒，等待送出去那天。（圖／記者黃克翔攝）兩人雖然都已出道多年，但其實先前都沒機會認識，直到上月赴香港參加「亞洲電影大獎」，才在後台有機會認識。而且他們當時就已經發現這個諧音巧合，宋芸樺笑讚林柏宏：「他私底下非常幽默！」也藉此向喊話：「希望導演們看到我們這個搭配，能找我們一起合作。」▲林柏宏、宋芸樺笑稱兩人的組合，粵語念出來就是「懶趴王」和「爽歪歪」。（圖／記者黃克翔攝）宋芸樺則說，她約會時喜歡穿洋裝配皮衣，至於上次穿上「戰袍」是何時，她也嬌羞的說：「沒有很久以前啦。」認了有在享受約會生活。而宋芸樺在「亞洲電影大獎」的會後派對遇見《艾蜜莉在巴黎》中的天菜主廚盧卡斯布拉沃（Lucas Bravo），兩人還交換了IG，但她忍不住小抱怨：「可是他還沒有加我！」▲宋芸樺和《艾蜜莉在巴黎》天菜主廚盧卡斯交換IG。（圖／記者黃克翔攝）此外，兩人在亞洲電影大獎上也與影帝梁朝偉同框，宋芸樺坦言梁朝偉私下非常可愛、穩重，「我們有在後台相遇，他剛得獎，然後還說自己不知道發生什麼事，整個人還滿平常心的」。林柏宏則說，自己一直都是梁朝偉的粉絲，「之前有看到他獲金獅獎終身成就獎的新聞，身為粉絲很為他開心，覺得他一直都是個努力又謙卑的人。」 </t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>老闆說「帶她見世面」…女大生當晚遭性侵懷孕！孕中再遭殘忍強上</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>https://www.ettoday.net/news/20230330/2470136.htm</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">▲女生稱在校企實習被老闆性侵致懷孕。（圖／翻攝自極目新聞）記者鄭思楠／綜合報導湖南一高校女大生30日發出長文稱，曾是衡陽師範學院外國語學院的一名學生，2022年11月，她被學校校企合作單位東莞某公司老闆性侵並懷孕。在得知懷孕後，她找男方談判如何處理時，再度被對方性侵。30日，衡陽師範學院工作人員回應，已經關注到此事，學校已召開了緊急會議調查此事。據《極目新聞》報導，該網友發布的文章顯示，她本人是衡陽師範學院外國語學院商務英語專業的學生，2021年6月，她在學校安排下進入東莞市佳睦包裝材料有限公司實習。該公司是衡陽師範學院的校企合作單位，老闆文姓男子是學校的客座教授。她透露，老闆文男當時邀請她擔任公司總經理助理，轉正後工資為8000元（人民幣，下同）每月，她接受了邀請。文章中提到，2022年11月12日，文男稱要「帶她見世面」，要求她一同參加某機構舉辦的活動。她按照文男的要求，第二天中午去到了活動地點，活動和飯局一直持續到夜裡9點多。當時因為喝了酒，返回途中，文男和她說了很多告白的話，以及他家庭的不幸福。隨後，文男拉著她去開房，對她實施了性侵。▲女孩公開色狼老闆和自己的對話紀錄。（圖／翻攝自微博）2022年12月5日至9日期間，她感覺到身體很不舒服、頭暈嗜睡。當月9日，她就近去了東莞市一家醫院做檢查，當天的檢查結果顯示她懷孕了。隨後，她聯繫文男詢問怎麼處理。2022年12月9日下午，文男開了房間，說是要和她商量處理問題，但她又一次被迫與文男發生了性關係，「我當時哭著、喊著求他也阻止不了該事態的發生，同時他的動作粗暴殘忍，直到現在我才知道，他是採用劇烈性行為的方式處理掉小孩。」此後，文男多次逼她把孩子拿掉，並承諾可以補償8萬元，但需要分10期付款。女孩稱，「他想在孩子拿掉後，以分期款捆綁我做他的性奴隸。」在文章最後，這名女孩表示，佳睦包裝是學校定點合作單位，她認為她的遭遇不是個案，如果還有類似遭遇的同學可以聯繫她。30日上午，衡陽師範學院工作人員回應，目前他們已經關注到此事，學校非常重視，一大早就召開了緊急會議調查此事。30日，據《新黃河》報導，警方稱，已對嫌疑人立案偵查。 </t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>市價7折買高檔豪墅　票房毒藥變當紅炸子雞</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>https://www.ettoday.net/news/20230330/2469553.htm</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">▲太平區地上權案「微笑莊園」罕見以高總價透天別墅社區切入市場，打破市場對地上權的觀念。（圖／記者陳筱惠攝）記者陳筱惠／台中報導過去地上權住宅，長年來不受到購屋族青睞，但隨著各區房價都高到各區天花板，地上權住宅以低房價、高投報為優勢進軍台中。在地上權3.0新制上路後，租期可長達70年，年地租也從公告地價之5%，調降為3.5%，專家也認為過去的票房毒藥有望出線。《地產詹哥老實說》EP145／重劃區多到數不完　他揭房價最澎風是它！加碼劇透2區「不宜進場」麗寶集團近年來以麗盛、建義、福容、鵬程等子公司名義，在台中拿下萬坪地上權土地，且陸續推出1座大樓、2座透天社區地上權案。其中，「微笑莊園」、「微笑歐洲」更是罕見高總價透天別墅社區，打破市場對地上權的觀念。鵬程建設業務部經理張永騰仍表示，「地上權住宅不只是世界趨勢，且具備低房價、高投報等多項優勢，因此對於台中地上權市場深具信心。」張永騰指出，以台中市場來說房價高漲，其實促使地上權住宅案出現一線生機。▲地上權3.0新制上路，租期最長達70年，年地租也從公告地價之5%調降為3.5%，等於變相降低持有成本。（圖／記者陳筱惠攝）以「微笑莊園」來說，目前1期已全數完銷，2期「香榭區」也在日前公開銷售，總戶數共41戶，含19戶透天店面，建築樓高4～5層，建坪89～118坪，總價2328萬元起，以建坪換算僅2字頭，相當於同區同類型產品的7折，具備市場競爭力。過去經手過地上權案代銷的業者私下表明，過去因受制於使用年限短、銀行貸款不易，被視為住宅市場中的票房毒藥，「過去賣得很辛苦，更不乏銷售到最後改為整棟出租的案例。」不過隨著地上權3.0新制上路，目前地上權租期可長達70年，年地租也從公告地價之5%，調降為3.5%，等於變相降低持有成本，加上現在的買盤主力對新事物接受度高，但他認為銷售成績仍有待保留。▲太平區因房價相對親民近年成為首購族熱區。（圖／記者陳筱惠攝）根據實價登錄揭露，太平「微笑莊園麗舍區」已揭露9筆交易紀錄，建坪約90坪左右，總價帶介於2200～2300萬元間，相較於周邊同類型透天社區，如「欣藏鈺」、「大閱大好」，總價帶動輒3000萬元起跳，確實入手門檻相對較低。卓越不動產估價師事務所所長楊祥銘說，從過去經驗來看，購屋者會認為，該類型住宅增值性差、流動率低，且房價缺乏「有感」價差。不過，台中當前市況持續改變中，不論是房價、租金都已來到歷史新高，或許短線來看，地上權案確實會有出線機會。《地產詹哥老實說》EP145／重劃區多到數不完　他揭房價最澎風是它！加碼劇透2區「不宜進場」 </t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>南韓「最有錢」公務員出爐！首爾江南區長財產破12億　擁75筆房產</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>https://www.ettoday.net/news/20230330/2470186.htm</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">▲首爾市江南區廳廳長趙成明成為今年「最有錢」的高位公職人員。（圖／首爾江南區廳）記者羅翊宬／編譯南韓針對2037名公務人員的財產申報狀況進行調查，並在今（30）日公佈調查結果，其中首爾市江南區廳廳長趙成明是南韓今年「最有錢」的公職人員，其擁有財產達532億韓元（約新台幣12.5億元），名下登記數十筆房地產；至於財產排行第二名的公職人員為總統辦公室的人事秘書官李元模，擁有財產近444億韓元。根據《韓聯社》，南韓政府公職者倫理委員會30日公開「2023年定期財產變動事項」，調查來自中央、地方政府的2037名高級公務人員的財產申報狀況，並將此結果對外公開，其中為首爾市江南區廳廳長趙成明（國民力量）在財產總額上位居全國公務員之冠，擁有財產高達532億5500萬韓元，比上一次申報財產時還多出4億7900萬韓元。趙成明（조성명）所擁有的財產大部份都是不動產，夫妻倆在首爾市江南區、首爾市瑞草區、仁川市江華島、忠清南道唐津市一帶擁有土地總值131億9500萬韓元、至於建物則達360億2900萬韓元。登記在趙成明名下的房產中，在京畿道高陽市一山、江原道束草市擁有39筆住商混合公寓，在一山地區擁有28筆店面（鄰近收活設施21筆、醫療相關設施7筆），以及在仁川市江華島擁有8筆住宿設施。此外，趙成明還擁有價值100億9900萬韓元的債券。至於擔任南韓總統辦公室人事秘書官的李元模（이원모）雖然是檢察官出身（大田地方檢察廳），在公務人員財產總額上仍位居第二，總計擁有財產額達443億9300萬韓元，比起去年減少2億200萬韓元，不過占財產最大比例的是配偶所擁有的股票，其配偶為自生韓方病院創辦人兼名譽理事長申俊湜的女兒，先前曾爆出搭乘尹錫悅總統專機等爭議。李元模的配偶擁有總價約328億5700萬韓元生技股，夫妻倆擁有房產價值為61億1900萬韓元。另外，南韓總統辦公室首席宣傳秘書官金恩慧（國民力量）以近265億韓元的財產位居第6、至於全羅北道南原市市長崔景植（共同民主黨）則以近216億韓元財產位列第7。 </t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>快訊／周興哲當爸了！　狂喜擁抱未婚妻：我快等不及</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://www.ettoday.net/news/20230330/2470302.htm</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>記者楊蕎綺／綜合報導新生代歌手周興哲愛情事業兩得意，去年驚喜宣布與大6歲主播女友趙岱新求婚成功，又奪下第59屆金馬「最佳原創電影歌曲獎」，今（30日）他透過社群平台驚喜宣布未婚妻已有身孕，他狂喜直說：「我是世界上最幸運的人！」▲周興哲驚喜宣布未婚妻趙岱新已有身孕。（圖／翻攝自周興哲臉書）[廣告]請繼續往下閱讀...周興哲30日在臉書上貼出一張照片，他抱著未婚妻趙岱新，兩人臉上露出大大笑容，而他配上的文字更是令人驚喜，原來未婚妻已懷有身孕。他開心表示：「我是世界上最幸運的人。我有最棒的老婆，現在很高興地宣布，我們即將迎來一個寶寶！言語無法形容我的興奮，我迫不及待地想和妳一起開始一個家庭，我的愛！」▲周興哲去年10月首次公開放閃。（圖／翻攝自周興哲IG）周興哲去年10月首次公開放閃，上傳和趙岱新臉貼臉合照，且女方無名指上有超顯眼的鑽戒，他大方標記對方帳號幸福表示：「Forever and ever （紅色愛心符號）。」當時周興哲經紀人證實，周興哲和趙岱新到歐洲旅遊時，周興哲在陽台設計了一場浪漫求婚：「2人以拼事業為目標，但先求婚。」沒想到不到半年就傳出未婚妻懷孕喜訊，粉絲見PO文也都紛紛留言道恭喜。</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>70歲老父愛上小20歲阿姨！她突回老家消失　才知2800萬房被賣了</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>https://www.ettoday.net/news/20230330/2470266.htm</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">▲示意圖，和本新聞無關。（圖／翻攝自Pixabay）記者朱祖儀／綜合報導長輩孤獨久了難免會寂寞，但可千萬別隨便相信別人。一名70多歲老翁先前愛上小20歲的紅包場小姐，2人交往1年多，經常到外面約會，老翁兒女看到爸爸和女方的互動也感到相當安慰。未料某次老翁住院，女子突然要回老家，之後才發現房契和權狀等資料全都不翼而飛，市值2800萬的房子已經被賣掉了。資深媒體人許聖梅在節目《震震有詞》分享，該名老翁和妻子育有一雙兒女，但太太很早就過世了，加上小孩已經結婚成家，因此他平時都是一個人住。直到他某次認識了一名新對象，才通知兒女說，希望他們過節時可以回家吃頓飯，雙方順便認識一下。兒子一回去後，發現整個家都煥然一新，爸爸的新對象還準備了一桌豐盛的菜餚，且很會社交，飯桌上氣氛相當熱絡。原來那名阿姨原本是在紅包場工作的，非常懂得如何待人處事，兒女經過一段時間相處，覺得女方非常不錯，因此很支持爸爸和對方來往。時間久了，他們也放心把爸爸交給阿姨照顧，有時候沒有回家，阿姨也會將2人出遊照片分享到群組，讓他們相當安心。大約過了1年後，有天阿姨突然打電話給兒子，說「爸爸住院了」，但她需要回江蘇老家處理事情，希望對方幫忙照顧一下。不過等到老翁出院，阿姨依舊沒有回來，兒子去準備保險資料時，才發現家裡的房地契、權狀、印章全都消失了，只剩下一張保險單，急忙跑去問爸爸也不知道原因。▲示意圖，和本新聞無關。（圖／記者鄺郁庭攝）原來老翁多年前曾想賣房子，搬去和兒子一起住，因此辦了印鑑證明，但後來又考量到搬到台北會不習慣，因此最後不了了之。沒想到阿姨得知此事後，就用代理人的身分，拿著偷來的印章及其他資料，把市價2800萬的房子以2000萬元的價格賣掉了。 </t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>呂玉玲批民進黨汙衊馬英九　諷：綠設「認知作戰防範小組」卻造謠</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>https://www.ettoday.net/news/20230330/2470299.htm</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">▲馬英九拜謁南京中山陵前受訪。（圖／記者任以芳攝）記者蘇晏男／台北報導前總統馬英九赴中國大陸祭祖，在南京中山陵致詞時，提及中華民國、前總統，但民進黨卻指馬不敢大聲說出中華民國四個字。對此，國民黨立委呂玉玲今（30日）批評民進黨汙衊馬英九，並諷刺，民進黨成立認知作戰防範小組來澄清不實抹黑謠言，請問民進黨要不要先處理黨內造謠帶風向的文化？馬英九此次大陸之行，在致詞時提及中華民國，及公開稱自己為前總統，卻遭民進黨汙衊沒有捍衛國家立場，近期民進黨才成立認知作戰防範小組，來澄清不實抹黑謠言，請問民進黨自己要不要先處理黨內造謠帶風向的文化？不要只敢高標準檢驗別人，對自己人卻輕輕放下。馬英九28日在南京中山陵致詞時，開頭即表示「民國112年3月28日，馬英九前總統率馬英九基金會同仁與同學，敬謁南京中山陵」；過程中，馬英九也提及國父孫中山建立亞洲第一個民主共和國中華民國。不過民進黨卻說馬英九談話掐頭去尾，提了「民國」、也提了「中華」，但就是不敢大聲說出中華民國四個字。此外，民進黨也指馬英九在南京總統府時自稱「中華民國總統」，都要以「當了這個」如此拐彎抹腳、偷偷摸摸的用詞，民進黨不期待馬在未來的訪陸行程裡，會捍衛國家的格調與尊嚴。然而馬英九原話是，「孫中山先生比我大98歲，他在2…呃…1912年成為中華民國臨時大總統，我在這個…呃…這個…（旁人提醒：2008）在2008年，也是差了這個…呃…96年。」對此，呂玉玲也直言，馬英九此次大陸之行在致詞時提及中華民國，也公開稱自己為前總統，卻遭民進黨汙衊沒有捍衛國家立場；呂玉玲諷刺，「近期民進黨才成立認知作戰防範小組，來澄清不實抹黑謠言，請問民進黨自己要不要先處理黨內造謠帶風向的文化？不要只敢高標準檢驗別人，對自己人卻輕輕放下。」▼國民黨立委呂玉玲。（資料照／記者屠惠剛攝） </t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>唐吉軻德、好市多的「草莓」都上榜！北市蔬果農藥殘留「15件違規」</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>https://www.ettoday.net/news/20230330/2470294.htm</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">▲唐吉軻德的「日本福岡草莓」檢出農藥殘留超標。（圖／衛生局提供，下同）記者趙于婷／台北報導台北市衛生局今公布生鮮蔬果殘留農藥抽驗結果，結果有15件產品不符規定，其中包括「草莓、釋迦、菠菜」等。違規店家包含好市多、唐吉軻德、85度C以及網購生鮮業者食代嚴選。台北市衛生局食藥科科長陳怡婷說明，此次抽驗不符規定產品，違規原因為「迷迭香」、「咖哩葉」、「巴西利」、「釋迦」各1件各檢出1-28項殘留農藥；「茼蒿」、「包心芥菜」、「草莓」各3件各檢出1-3項殘留農藥；「菠菜」2件各檢出1項殘留農藥不符「農藥殘留容許量標準」規定，除迷迭香、咖哩葉、巴西利及釋迦外，均為高風險產品。[廣告]請繼續往下閱讀...違規店家包括85度C（內湖文德）的台灣新鮮草莓2號、唐吉軻德的「日本福岡甘王草莓」、好市多的「空運日本草莓」，另還有一家網購平台業者食代嚴選的「迷迭香、山咖哩葉、義大利芹菜」。▲進口草莓屬於高風險違規農產品品項。陳怡婷說，殘留農藥含量不符「農藥殘留容許量標準」者，係違反食品安全衛生管理法第15條第1項第5款「殘留農藥或動物用藥含量超過安全容許量」規定，依同法第44條第1項第2款，可處分責任業者新臺幣6萬元以上2億元以下罰鍰。若無法交代來源，則依同法第47條可處分販售業者新臺幣3萬元以上300萬元以下罰鍰。而高風險農產品是衛福部食藥署透過歷年後市場監測及行政院農業委員源頭抽驗成果，篩選（潛勢）高風險違規農產品品項，並納入隔年度例行性監測計畫監測名單，擴大抽驗件數。針對不符規定產品，臺北市衛生局已命抽驗地點下架不得販售，經追查產品來源屬外縣市者，已移請所轄衛生局處辦。+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>沿海浮屍案頻傳　黃珊珊喊話：「安全」才是民之所欲</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>https://www.ettoday.net/news/20230330/2470280.htm</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">▲前台北市副市長黃珊珊。（圖／黃珊珊辦公室提供）記者江采蓁／綜合報導台灣沿海今年2月迄今出現20具浮屍，外界懷疑是遭人蛇集團丟包所致，對此，前台北市副市長黃珊珊30日透過臉書表示，不管是不是人蛇還是意外墜海，都顯然是很嚴重的治安與人權議題，她必須強調，安全才是民之所欲，「大家都很在乎台灣的國際地位，但我更在乎的是台灣人民的安全！」黃珊珊指出，這幾天很不平靜，台灣海域出現許多浮屍，不管是不是人蛇還是意外墜海，都顯然是很嚴重的治安與人權議題，當然其中還有幾名是台灣人，初步排除與人口販賣走私有關，她表示，但這麼多的海上浮屍漂流，還是不免令人觸目驚心，底層民眾的生活辛苦，鋌而走險被利用傷害，終歸還是經濟與治安，政府責無旁貸。此外，黃珊珊提到，前總統馬英九訪問中國大陸祭祖，台灣人沒人關心祭祖，都在關心馬英九的「稱謂」；同樣的，總統蔡英文出訪友邦過境美國，也沒人關心是哪一個友邦，都在關心蔡英文的「過境」。她強調，大家都很在乎台灣的國際地位，但她更在乎的是台灣人民的「安全」！黃珊珊認為，台灣身處在全世界最奇特的地理位置，全世界也只有台灣有這樣的奇特待遇，正因為如此，不管是卸任或現任元首，都必須面對兩岸與外交這項最重大也最困難的課題，就只有一個最重要的原則，就是「台灣人民的最大利益」，這非關藍綠，而是國家領導人必須以「人民利益」為最優先考慮。「和平得來不易，其實，最大的武器就是我們民主與自由的制度」，黃珊珊強調，不管誰執政，都必須顧及台灣多數人民的意見與利益，不可偏廢，不管是誰執政，都要確保百姓安居樂業，下一代可以安身立命，但是，多年來，某些政黨為了自身政黨利益，為了選舉走偏鋒，從沒真正凝聚國內的全民共識，導致國家面臨困境、人民受害。黃珊珊喊話，明年初的大選，我們即將有機會突破這個困境，在藍綠之外，我們可以選擇以人民利益為優先的候選人，拋開藍綠的神主牌，做自己的主人，為你自己，也為了下一代。 </t>
         </is>
       </c>
     </row>
